--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1700881200</v>
+        <v>1700967600</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,32 +518,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.5</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>32.76666259765625</v>
+        <v>31.701171875</v>
       </c>
       <c r="G2" t="n">
-        <v>33.2056884765625</v>
+        <v>31.25381469726562</v>
       </c>
       <c r="H2" t="n">
-        <v>-17.63934326171875</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>-27.38508605957031</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2445123.75</v>
+      </c>
       <c r="J2" t="n">
-        <v>96652.078125</v>
+        <v>96647.40625</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.456650257110596</v>
+        <v>6.737829208374023</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.795598030090332</v>
+        <v>-5.250275611877441</v>
       </c>
       <c r="N2" t="n">
-        <v>10.70780086517334</v>
+        <v>13.40000057220459</v>
       </c>
     </row>
     <row r="3">
@@ -551,11 +553,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1700892000</v>
+        <v>1700978400</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -564,34 +566,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.89999961853027</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="F3" t="n">
-        <v>29.95318603515625</v>
+        <v>26.42538452148438</v>
       </c>
       <c r="G3" t="n">
-        <v>29.725830078125</v>
+        <v>25.47860717773438</v>
       </c>
       <c r="H3" t="n">
-        <v>-28.60697937011719</v>
+        <v>-27.87205505371094</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2284221.25</v>
       </c>
       <c r="J3" t="n">
-        <v>96643.6328125</v>
+        <v>96730.6796875</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.637561082839966</v>
+        <v>6.548742294311523</v>
       </c>
       <c r="M3" t="n">
-        <v>-6.637990474700928</v>
+        <v>-7.575046062469482</v>
       </c>
       <c r="N3" t="n">
-        <v>12.60377788543701</v>
+        <v>14.11439990997314</v>
       </c>
     </row>
     <row r="4">
@@ -599,11 +601,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1700902800</v>
+        <v>1700989200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,34 +614,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.70000076293945</v>
+        <v>68.20000457763672</v>
       </c>
       <c r="F4" t="n">
-        <v>26.36712646484375</v>
+        <v>23.17938232421875</v>
       </c>
       <c r="G4" t="n">
-        <v>25.82308959960938</v>
+        <v>22.19125366210938</v>
       </c>
       <c r="H4" t="n">
-        <v>-31.74053955078125</v>
+        <v>-66.08390808105469</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1768566.125</v>
       </c>
       <c r="J4" t="n">
-        <v>96629.7578125</v>
+        <v>96721.140625</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.895292997360229</v>
+        <v>5.866804122924805</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.410825252532959</v>
+        <v>-6.85021448135376</v>
       </c>
       <c r="N4" t="n">
-        <v>9.612597465515137</v>
+        <v>13.50276660919189</v>
       </c>
     </row>
     <row r="5">
@@ -647,11 +649,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1700913600</v>
+        <v>1701000000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -660,34 +662,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>58.40000152587891</v>
+        <v>75.90000152587891</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99087524414062</v>
+        <v>22.27734375</v>
       </c>
       <c r="G5" t="n">
-        <v>24.81033325195312</v>
+        <v>21.04708862304688</v>
       </c>
       <c r="H5" t="n">
-        <v>-29.83868408203125</v>
+        <v>-60.63717651367188</v>
       </c>
       <c r="I5" t="n">
+        <v>1847332.625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96940.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>96853.4921875</v>
-      </c>
-      <c r="K5" t="n">
-        <v>55.29999923706055</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.8555419445037842</v>
+        <v>5.366296291351318</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.226769924163818</v>
+        <v>-6.732270240783691</v>
       </c>
       <c r="N5" t="n">
-        <v>6.504329204559326</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -695,11 +697,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1700924400</v>
+        <v>1701010800</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -708,34 +710,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>37.5</v>
+        <v>42.10000228881836</v>
       </c>
       <c r="F6" t="n">
-        <v>31.39608764648438</v>
+        <v>29.07659912109375</v>
       </c>
       <c r="G6" t="n">
-        <v>28.48367309570312</v>
+        <v>26.15463256835938</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.75979614257812</v>
+        <v>-46.02102661132812</v>
       </c>
       <c r="I6" t="n">
+        <v>1822107.125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>96990.7421875</v>
+      </c>
+      <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>96925.515625</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.300000190734863</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.992128849029541</v>
+        <v>3.886581897735596</v>
       </c>
       <c r="M6" t="n">
-        <v>-5.637399673461914</v>
+        <v>-7.339394569396973</v>
       </c>
       <c r="N6" t="n">
-        <v>6.32222843170166</v>
+        <v>9.906595230102539</v>
       </c>
     </row>
     <row r="7">
@@ -743,11 +745,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1700935200</v>
+        <v>1701021600</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -756,34 +758,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.30000114440918</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F7" t="n">
-        <v>36.56912231445312</v>
+        <v>35.4130859375</v>
       </c>
       <c r="G7" t="n">
-        <v>33.428466796875</v>
+        <v>31.89810180664062</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.01638793945312</v>
+        <v>-68.29505920410156</v>
       </c>
       <c r="I7" t="n">
+        <v>1668638.625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>96697.65625</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>96637.859375</v>
-      </c>
-      <c r="K7" t="n">
-        <v>96.59999847412109</v>
-      </c>
       <c r="L7" t="n">
-        <v>2.318881750106812</v>
+        <v>2.464677572250366</v>
       </c>
       <c r="M7" t="n">
-        <v>-4.681581974029541</v>
+        <v>-7.033847332000732</v>
       </c>
       <c r="N7" t="n">
-        <v>6.101407051086426</v>
+        <v>8.509154319763184</v>
       </c>
     </row>
     <row r="8">
@@ -791,11 +793,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1700946000</v>
+        <v>1701032400</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -804,34 +806,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.60000038146973</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F8" t="n">
-        <v>38.81268310546875</v>
+        <v>37.46517944335938</v>
       </c>
       <c r="G8" t="n">
-        <v>36.19558715820312</v>
+        <v>34.82598876953125</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.33734130859375</v>
+        <v>-66.97451782226562</v>
       </c>
       <c r="I8" t="n">
+        <v>1777059.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>96391.9140625</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>96275.1640625</v>
-      </c>
-      <c r="K8" t="n">
-        <v>87.40000152587891</v>
-      </c>
       <c r="L8" t="n">
-        <v>5.730234146118164</v>
+        <v>2.130656719207764</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.824184417724609</v>
+        <v>-5.587472915649414</v>
       </c>
       <c r="N8" t="n">
-        <v>8.605299949645996</v>
+        <v>7.112800598144531</v>
       </c>
     </row>
     <row r="9">
@@ -839,11 +841,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1700956800</v>
+        <v>1701043200</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -852,34 +854,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.89999961853027</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>35.47610473632812</v>
+        <v>34.24685668945312</v>
       </c>
       <c r="G9" t="n">
-        <v>35.10000610351562</v>
+        <v>34.91293334960938</v>
       </c>
       <c r="H9" t="n">
-        <v>-52.50054931640625</v>
+        <v>-62.28048706054688</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2073692.125</v>
       </c>
       <c r="J9" t="n">
-        <v>96379.1796875</v>
+        <v>96459.2109375</v>
       </c>
       <c r="K9" t="n">
-        <v>4.800000190734863</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>5.429457664489746</v>
+        <v>2.9193115234375</v>
       </c>
       <c r="M9" t="n">
-        <v>-7.048981666564941</v>
+        <v>-3.489661693572998</v>
       </c>
       <c r="N9" t="n">
-        <v>12.20822811126709</v>
+        <v>6.902623653411865</v>
       </c>
     </row>
     <row r="10">
@@ -887,11 +889,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1700967600</v>
+        <v>1701054000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -900,34 +902,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="F10" t="n">
-        <v>32.02508544921875</v>
+        <v>30.96896362304688</v>
       </c>
       <c r="G10" t="n">
-        <v>31.54269409179688</v>
+        <v>31.14306640625</v>
       </c>
       <c r="H10" t="n">
-        <v>-54.55712890625</v>
+        <v>-62.96707153320312</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2285890.5</v>
       </c>
       <c r="J10" t="n">
-        <v>96605.9921875</v>
+        <v>96715.875</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.525454044342041</v>
+        <v>2.659821748733521</v>
       </c>
       <c r="M10" t="n">
-        <v>-8.233016967773438</v>
+        <v>-5.326988220214844</v>
       </c>
       <c r="N10" t="n">
-        <v>15.70259284973145</v>
+        <v>10.9115629196167</v>
       </c>
     </row>
     <row r="11">
@@ -935,11 +937,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1700978400</v>
+        <v>1701064800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,34 +950,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>55.60000228881836</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="F11" t="n">
-        <v>25.8717041015625</v>
+        <v>26.824951171875</v>
       </c>
       <c r="G11" t="n">
-        <v>24.93136596679688</v>
+        <v>26.04733276367188</v>
       </c>
       <c r="H11" t="n">
-        <v>-54.08876037597656</v>
+        <v>-59.46913146972656</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2268297</v>
       </c>
       <c r="J11" t="n">
-        <v>96654.15625</v>
+        <v>96762.734375</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.217355728149414</v>
+        <v>6.7568359375</v>
       </c>
       <c r="M11" t="n">
-        <v>-8.999406814575195</v>
+        <v>-6.838660717010498</v>
       </c>
       <c r="N11" t="n">
-        <v>17.5009765625</v>
+        <v>13.50017070770264</v>
       </c>
     </row>
     <row r="12">
@@ -983,11 +985,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1700989200</v>
+        <v>1701075600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -996,34 +998,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>72.09999847412109</v>
+        <v>60.79999923706055</v>
       </c>
       <c r="F12" t="n">
-        <v>22.783447265625</v>
+        <v>23.16525268554688</v>
       </c>
       <c r="G12" t="n">
-        <v>21.7979736328125</v>
+        <v>22.27850341796875</v>
       </c>
       <c r="H12" t="n">
-        <v>-60.79164123535156</v>
+        <v>-59.57902526855469</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2183793</v>
       </c>
       <c r="J12" t="n">
-        <v>96673.7734375</v>
+        <v>96752.4609375</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.205722332000732</v>
+        <v>6.101078987121582</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.181455135345459</v>
+        <v>-6.635905742645264</v>
       </c>
       <c r="N12" t="n">
-        <v>14.60327816009521</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13">
@@ -1031,11 +1033,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1701000000</v>
+        <v>1701086400</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1044,34 +1046,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.90000152587891</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F13" t="n">
-        <v>22.3751220703125</v>
+        <v>21.79177856445312</v>
       </c>
       <c r="G13" t="n">
-        <v>21.0665283203125</v>
+        <v>20.48928833007812</v>
       </c>
       <c r="H13" t="n">
-        <v>-61.57273864746094</v>
+        <v>-57.8974609375</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2186310.5</v>
       </c>
       <c r="J13" t="n">
-        <v>96951.0859375</v>
+        <v>97098.8515625</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="L13" t="n">
-        <v>2.486560106277466</v>
+        <v>4.685849666595459</v>
       </c>
       <c r="M13" t="n">
-        <v>-6.432958602905273</v>
+        <v>-6.71203088760376</v>
       </c>
       <c r="N13" t="n">
-        <v>11.71188354492188</v>
+        <v>11.40000057220459</v>
       </c>
     </row>
     <row r="14">
@@ -1079,11 +1081,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1701010800</v>
+        <v>1701097200</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1092,34 +1094,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38.5</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="F14" t="n">
-        <v>29.45632934570312</v>
+        <v>28.47732543945312</v>
       </c>
       <c r="G14" t="n">
-        <v>26.469970703125</v>
+        <v>25.46359252929688</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.86354064941406</v>
+        <v>-57.56645202636719</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1883465.25</v>
       </c>
       <c r="J14" t="n">
-        <v>96996.6484375</v>
+        <v>97129.765625</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2.930910587310791</v>
+        <v>3.695068359375</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.836512088775635</v>
+        <v>-8.298341751098633</v>
       </c>
       <c r="N14" t="n">
-        <v>10.10405254364014</v>
+        <v>9.902587890625</v>
       </c>
     </row>
     <row r="15">
@@ -1127,11 +1129,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1701021600</v>
+        <v>1701108000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1140,34 +1142,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.80000114440918</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="F15" t="n">
-        <v>35.96160888671875</v>
+        <v>34.74761962890625</v>
       </c>
       <c r="G15" t="n">
-        <v>32.38763427734375</v>
+        <v>31.40841674804688</v>
       </c>
       <c r="H15" t="n">
-        <v>-63.14613342285156</v>
+        <v>-71.89791870117188</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1801135.625</v>
       </c>
       <c r="J15" t="n">
-        <v>96679.484375</v>
+        <v>96873.53125</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.553205490112305</v>
+        <v>1.447296142578125</v>
       </c>
       <c r="M15" t="n">
-        <v>-7.274599552154541</v>
+        <v>-6.261455059051514</v>
       </c>
       <c r="N15" t="n">
-        <v>8.705538749694824</v>
+        <v>6.417048931121826</v>
       </c>
     </row>
     <row r="16">
@@ -1175,11 +1177,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1701032400</v>
+        <v>1701118800</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1188,34 +1190,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.40000057220459</v>
+        <v>15.69999980926514</v>
       </c>
       <c r="F16" t="n">
-        <v>37.82928466796875</v>
+        <v>36.72256469726562</v>
       </c>
       <c r="G16" t="n">
-        <v>35.23077392578125</v>
+        <v>34.32192993164062</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.29776000976562</v>
+        <v>-60.43576049804688</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1716986.875</v>
       </c>
       <c r="J16" t="n">
-        <v>96357.59375</v>
+        <v>96560.3515625</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.077995300292969</v>
+        <v>0.08312499523162842</v>
       </c>
       <c r="M16" t="n">
-        <v>-5.407397270202637</v>
+        <v>-4.463542461395264</v>
       </c>
       <c r="N16" t="n">
-        <v>7.514941692352295</v>
+        <v>4.712792873382568</v>
       </c>
     </row>
     <row r="17">
@@ -1223,11 +1225,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1701043200</v>
+        <v>1701129600</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1236,34 +1238,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.70000076293945</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="F17" t="n">
-        <v>34.43960571289062</v>
+        <v>33.80734252929688</v>
       </c>
       <c r="G17" t="n">
-        <v>34.86178588867188</v>
+        <v>34.81396484375</v>
       </c>
       <c r="H17" t="n">
-        <v>-59.54421997070312</v>
+        <v>-33.4434814453125</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1920189.875</v>
       </c>
       <c r="J17" t="n">
-        <v>96443.703125</v>
+        <v>96617.6875</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.345297813415527</v>
+        <v>0.8515380620956421</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.757973432540894</v>
+        <v>-3.160368680953979</v>
       </c>
       <c r="N17" t="n">
-        <v>10.41257762908936</v>
+        <v>3.401293992996216</v>
       </c>
     </row>
     <row r="18">
@@ -1271,11 +1273,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1701054000</v>
+        <v>1701140400</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1284,34 +1286,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.80000114440918</v>
+        <v>24.30000114440918</v>
       </c>
       <c r="F18" t="n">
-        <v>31.04623413085938</v>
+        <v>30.96417236328125</v>
       </c>
       <c r="G18" t="n">
-        <v>30.87603759765625</v>
+        <v>32.25738525390625</v>
       </c>
       <c r="H18" t="n">
-        <v>-56.35781860351562</v>
+        <v>-41.53506469726562</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2269283.25</v>
       </c>
       <c r="J18" t="n">
-        <v>96704.7109375</v>
+        <v>96745.984375</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="L18" t="n">
-        <v>3.921403646469116</v>
+        <v>-1.238999009132385</v>
       </c>
       <c r="M18" t="n">
-        <v>-7.525676250457764</v>
+        <v>-2.631201028823853</v>
       </c>
       <c r="N18" t="n">
-        <v>14.50257396697998</v>
+        <v>3.100064039230347</v>
       </c>
     </row>
     <row r="19">
@@ -1319,11 +1321,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1701064800</v>
+        <v>1701151200</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1332,34 +1334,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48.60000228881836</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="F19" t="n">
-        <v>26.02316284179688</v>
+        <v>26.2733154296875</v>
       </c>
       <c r="G19" t="n">
-        <v>25.19046020507812</v>
+        <v>25.40127563476562</v>
       </c>
       <c r="H19" t="n">
-        <v>-57.00575256347656</v>
+        <v>-41.61027526855469</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2839339.25</v>
       </c>
       <c r="J19" t="n">
-        <v>96769.0234375</v>
+        <v>96790.75</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.656984806060791</v>
+        <v>4.251232624053955</v>
       </c>
       <c r="M19" t="n">
-        <v>-8.020651817321777</v>
+        <v>-8.309426307678223</v>
       </c>
       <c r="N19" t="n">
-        <v>14.31499004364014</v>
+        <v>13.50940608978271</v>
       </c>
     </row>
     <row r="20">
@@ -1367,11 +1369,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1701075600</v>
+        <v>1701162000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1380,34 +1382,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.80000305175781</v>
+        <v>72.30000305175781</v>
       </c>
       <c r="F20" t="n">
-        <v>22.67880249023438</v>
+        <v>23.90408325195312</v>
       </c>
       <c r="G20" t="n">
-        <v>21.80923461914062</v>
+        <v>22.95135498046875</v>
       </c>
       <c r="H20" t="n">
-        <v>-62.27969360351562</v>
+        <v>-40.52740478515625</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2980595.25</v>
       </c>
       <c r="J20" t="n">
-        <v>96771.8359375</v>
+        <v>96802.75</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.566061973571777</v>
+        <v>2.873171329498291</v>
       </c>
       <c r="M20" t="n">
-        <v>-5.345210075378418</v>
+        <v>-6.319244384765625</v>
       </c>
       <c r="N20" t="n">
-        <v>13.81583309173584</v>
+        <v>11.80377864837646</v>
       </c>
     </row>
     <row r="21">
@@ -1415,11 +1417,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1701086400</v>
+        <v>1701172800</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1428,34 +1430,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>75.59999847412109</v>
+        <v>70.09999847412109</v>
       </c>
       <c r="F21" t="n">
-        <v>21.77584838867188</v>
+        <v>24.22979736328125</v>
       </c>
       <c r="G21" t="n">
-        <v>20.47998046875</v>
+        <v>22.97348022460938</v>
       </c>
       <c r="H21" t="n">
-        <v>-62.43489074707031</v>
+        <v>-38.02409362792969</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3075866.5</v>
       </c>
       <c r="J21" t="n">
-        <v>97056.875</v>
+        <v>97010.9921875</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>4.386552810668945</v>
+        <v>3.927653789520264</v>
       </c>
       <c r="M21" t="n">
-        <v>-6.232338905334473</v>
+        <v>-6.470474720001221</v>
       </c>
       <c r="N21" t="n">
-        <v>11.40651893615723</v>
+        <v>9.300032615661621</v>
       </c>
     </row>
     <row r="22">
@@ -1463,11 +1465,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1701097200</v>
+        <v>1701183600</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1476,34 +1478,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.60000228881836</v>
+        <v>55.29999923706055</v>
       </c>
       <c r="F22" t="n">
-        <v>28.39666748046875</v>
+        <v>27.83328247070312</v>
       </c>
       <c r="G22" t="n">
-        <v>25.3858642578125</v>
+        <v>25.6358642578125</v>
       </c>
       <c r="H22" t="n">
-        <v>-70.48590087890625</v>
+        <v>-43.53572082519531</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3073830.25</v>
       </c>
       <c r="J22" t="n">
-        <v>97108.046875</v>
+        <v>97102.5859375</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>2.4971764087677</v>
+        <v>2.258456945419312</v>
       </c>
       <c r="M22" t="n">
-        <v>-7.351784706115723</v>
+        <v>-6.82824182510376</v>
       </c>
       <c r="N22" t="n">
-        <v>8.702592849731445</v>
+        <v>8.215021133422852</v>
       </c>
     </row>
     <row r="23">
@@ -1511,11 +1513,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1701108000</v>
+        <v>1701194400</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1524,34 +1526,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>33.70000076293945</v>
       </c>
       <c r="F23" t="n">
-        <v>34.81585693359375</v>
+        <v>34.36868286132812</v>
       </c>
       <c r="G23" t="n">
-        <v>31.31854248046875</v>
+        <v>31.23782348632812</v>
       </c>
       <c r="H23" t="n">
-        <v>-69.31208801269531</v>
+        <v>-47.07861328125</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3216138.75</v>
       </c>
       <c r="J23" t="n">
-        <v>96848.640625</v>
+        <v>96806.4296875</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.526102304458618</v>
+        <v>2.479672908782959</v>
       </c>
       <c r="M23" t="n">
-        <v>-6.642050743103027</v>
+        <v>-4.630131721496582</v>
       </c>
       <c r="N23" t="n">
-        <v>6.807259559631348</v>
+        <v>5.619922161102295</v>
       </c>
     </row>
     <row r="24">
@@ -1559,11 +1561,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1701118800</v>
+        <v>1701205200</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1572,34 +1574,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.30000019073486</v>
+        <v>25.5</v>
       </c>
       <c r="F24" t="n">
-        <v>36.87020874023438</v>
+        <v>36.5341796875</v>
       </c>
       <c r="G24" t="n">
-        <v>34.20745849609375</v>
+        <v>34.11013793945312</v>
       </c>
       <c r="H24" t="n">
-        <v>-63.04344177246094</v>
+        <v>-46.39268493652344</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3295343</v>
       </c>
       <c r="J24" t="n">
-        <v>96538.4140625</v>
+        <v>96438.5234375</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>47.60000228881836</v>
       </c>
       <c r="L24" t="n">
-        <v>0.306915283203125</v>
+        <v>5.093637466430664</v>
       </c>
       <c r="M24" t="n">
-        <v>-5.909633636474609</v>
+        <v>-1.846425771713257</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6076340675354</v>
+        <v>5.305742263793945</v>
       </c>
     </row>
     <row r="25">
@@ -1607,11 +1609,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1701129600</v>
+        <v>1701216000</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1620,34 +1622,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.80000114440918</v>
+        <v>34.60000228881836</v>
       </c>
       <c r="F25" t="n">
-        <v>33.5211181640625</v>
+        <v>33.15231323242188</v>
       </c>
       <c r="G25" t="n">
-        <v>34.63308715820312</v>
+        <v>32.18496704101562</v>
       </c>
       <c r="H25" t="n">
-        <v>-49.74420166015625</v>
+        <v>-46.21696472167969</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3552199.5</v>
       </c>
       <c r="J25" t="n">
-        <v>96568.5234375</v>
+        <v>96516.5234375</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6028491258621216</v>
+        <v>0.03911621123552322</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.692673206329346</v>
+        <v>-7.298107624053955</v>
       </c>
       <c r="N25" t="n">
-        <v>4.410022258758545</v>
+        <v>8.00152587890625</v>
       </c>
     </row>
     <row r="26">
@@ -1655,11 +1657,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1701140400</v>
+        <v>1701226800</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1668,34 +1670,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.80000114440918</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>30.4560546875</v>
+        <v>31.05703735351562</v>
       </c>
       <c r="G26" t="n">
-        <v>31.90469360351562</v>
+        <v>31.23095703125</v>
       </c>
       <c r="H26" t="n">
-        <v>-50.61109924316406</v>
+        <v>-38.91647338867188</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3658488.75</v>
       </c>
       <c r="J26" t="n">
-        <v>96712.9375</v>
+        <v>96670.0859375</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>87.80000305175781</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.9082470536231995</v>
+        <v>0.1487670838832855</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.5228271484375</v>
+        <v>-2.338186025619507</v>
       </c>
       <c r="N26" t="n">
-        <v>4.402583122253418</v>
+        <v>3.607929944992065</v>
       </c>
     </row>
     <row r="27">
@@ -1703,11 +1705,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1701151200</v>
+        <v>1701237600</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1716,34 +1718,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.60000228881836</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="F27" t="n">
-        <v>26.06948852539062</v>
+        <v>28.2027587890625</v>
       </c>
       <c r="G27" t="n">
-        <v>25.29937744140625</v>
+        <v>27.08084106445312</v>
       </c>
       <c r="H27" t="n">
-        <v>-53.09986877441406</v>
+        <v>-38.90754699707031</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3682119</v>
       </c>
       <c r="J27" t="n">
-        <v>96756.4296875</v>
+        <v>96693.765625</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.459794998168945</v>
+        <v>3.353532552719116</v>
       </c>
       <c r="M27" t="n">
-        <v>-8.497721672058105</v>
+        <v>-8.707406997680664</v>
       </c>
       <c r="N27" t="n">
-        <v>14.20685291290283</v>
+        <v>11.30033779144287</v>
       </c>
     </row>
     <row r="28">
@@ -1751,11 +1753,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1701162000</v>
+        <v>1701248400</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1764,34 +1766,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>23.54324340820312</v>
+        <v>24.63088989257812</v>
       </c>
       <c r="G28" t="n">
-        <v>22.62350463867188</v>
+        <v>23.64324951171875</v>
       </c>
       <c r="H28" t="n">
-        <v>-49.48347473144531</v>
+        <v>-37.02667236328125</v>
       </c>
       <c r="I28" t="n">
+        <v>3397311</v>
+      </c>
+      <c r="J28" t="n">
+        <v>96581.0546875</v>
+      </c>
+      <c r="K28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>96756.875</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8.199999809265137</v>
-      </c>
       <c r="L28" t="n">
-        <v>3.407089710235596</v>
+        <v>2.259387254714966</v>
       </c>
       <c r="M28" t="n">
-        <v>-5.949184417724609</v>
+        <v>-6.03728723526001</v>
       </c>
       <c r="N28" t="n">
-        <v>11.40012264251709</v>
+        <v>10.81599807739258</v>
       </c>
     </row>
     <row r="29">
@@ -1799,11 +1801,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1701172800</v>
+        <v>1701259200</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1812,34 +1814,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>68.30000305175781</v>
+        <v>73</v>
       </c>
       <c r="F29" t="n">
-        <v>24.576416015625</v>
+        <v>23.99008178710938</v>
       </c>
       <c r="G29" t="n">
-        <v>23.30511474609375</v>
+        <v>22.690673828125</v>
       </c>
       <c r="H29" t="n">
-        <v>-45.79153442382812</v>
+        <v>-40.646484375</v>
       </c>
       <c r="I29" t="n">
+        <v>3394399</v>
+      </c>
+      <c r="J29" t="n">
+        <v>96781.1796875</v>
+      </c>
+      <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>96961.796875</v>
-      </c>
-      <c r="K29" t="n">
-        <v>99.20000457763672</v>
-      </c>
       <c r="L29" t="n">
-        <v>3.492143392562866</v>
+        <v>4.119540691375732</v>
       </c>
       <c r="M29" t="n">
-        <v>-6.449953556060791</v>
+        <v>-5.748701095581055</v>
       </c>
       <c r="N29" t="n">
-        <v>8.900357246398926</v>
+        <v>9.812994956970215</v>
       </c>
     </row>
     <row r="30">
@@ -1847,11 +1849,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1701183600</v>
+        <v>1701270000</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1860,34 +1862,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.90000152587891</v>
+        <v>46</v>
       </c>
       <c r="F30" t="n">
-        <v>29.87734985351562</v>
+        <v>30.08441162109375</v>
       </c>
       <c r="G30" t="n">
-        <v>26.95999145507812</v>
+        <v>27.1231689453125</v>
       </c>
       <c r="H30" t="n">
-        <v>-48.81721496582031</v>
+        <v>-54.97320556640625</v>
       </c>
       <c r="I30" t="n">
+        <v>3321904.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>96856.0390625</v>
+      </c>
+      <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>97041.578125</v>
-      </c>
-      <c r="K30" t="n">
-        <v>19.80000114440918</v>
-      </c>
       <c r="L30" t="n">
-        <v>3.403505802154541</v>
+        <v>1.703212857246399</v>
       </c>
       <c r="M30" t="n">
-        <v>-6.403865814208984</v>
+        <v>-6.961655139923096</v>
       </c>
       <c r="N30" t="n">
-        <v>8.203387260437012</v>
+        <v>7.824868202209473</v>
       </c>
     </row>
     <row r="31">
@@ -1895,11 +1897,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1701194400</v>
+        <v>1701280800</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1908,34 +1910,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.29999923706055</v>
+        <v>29.39999961853027</v>
       </c>
       <c r="F31" t="n">
-        <v>34.307861328125</v>
+        <v>35.67239379882812</v>
       </c>
       <c r="G31" t="n">
-        <v>30.71017456054688</v>
+        <v>32.37127685546875</v>
       </c>
       <c r="H31" t="n">
-        <v>-49.99235534667969</v>
+        <v>-53.9921875</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3255732</v>
       </c>
       <c r="J31" t="n">
-        <v>96820.4921875</v>
+        <v>96585.8671875</v>
       </c>
       <c r="K31" t="n">
-        <v>1.300000071525574</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>3.566535472869873</v>
+        <v>1.071201205253601</v>
       </c>
       <c r="M31" t="n">
-        <v>-7.421133995056152</v>
+        <v>-5.842534065246582</v>
       </c>
       <c r="N31" t="n">
-        <v>6.610610961914062</v>
+        <v>6.20025634765625</v>
       </c>
     </row>
     <row r="32">
@@ -1943,11 +1945,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1701205200</v>
+        <v>1701291600</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1956,34 +1958,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.89999961853027</v>
+        <v>22.5</v>
       </c>
       <c r="F32" t="n">
-        <v>35.2080078125</v>
+        <v>37.7615966796875</v>
       </c>
       <c r="G32" t="n">
-        <v>32.50167846679688</v>
+        <v>35.3001708984375</v>
       </c>
       <c r="H32" t="n">
-        <v>-47.30577087402344</v>
+        <v>-58.24934387207031</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3271923.75</v>
       </c>
       <c r="J32" t="n">
-        <v>96523.8984375</v>
+        <v>96242.0234375</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="L32" t="n">
-        <v>3.409184455871582</v>
+        <v>0.9883447289466858</v>
       </c>
       <c r="M32" t="n">
-        <v>-4.225895881652832</v>
+        <v>-4.250558853149414</v>
       </c>
       <c r="N32" t="n">
-        <v>5.002697944641113</v>
+        <v>5.008228778839111</v>
       </c>
     </row>
     <row r="33">
@@ -1991,11 +1993,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1701216000</v>
+        <v>1701302400</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2004,34 +2006,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.89999961853027</v>
+        <v>23.30000114440918</v>
       </c>
       <c r="F33" t="n">
-        <v>33.41839599609375</v>
+        <v>35.57135009765625</v>
       </c>
       <c r="G33" t="n">
-        <v>33.53546142578125</v>
+        <v>35.9691162109375</v>
       </c>
       <c r="H33" t="n">
-        <v>-44.77738952636719</v>
+        <v>-48.31658935546875</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3175895.25</v>
       </c>
       <c r="J33" t="n">
-        <v>96510.6640625</v>
+        <v>96228.875</v>
       </c>
       <c r="K33" t="n">
-        <v>15.5</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.189213871955872</v>
+        <v>0.2241479456424713</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.295048713684082</v>
+        <v>-3.63946533203125</v>
       </c>
       <c r="N33" t="n">
-        <v>4.215990543365479</v>
+        <v>4.417761325836182</v>
       </c>
     </row>
     <row r="34">
@@ -2039,11 +2041,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1701226800</v>
+        <v>1701313200</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2052,34 +2054,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.40000152587891</v>
+        <v>26.5</v>
       </c>
       <c r="F34" t="n">
-        <v>31.486328125</v>
+        <v>34.25473022460938</v>
       </c>
       <c r="G34" t="n">
-        <v>31.07513427734375</v>
+        <v>34.06076049804688</v>
       </c>
       <c r="H34" t="n">
-        <v>-46.37115478515625</v>
+        <v>-49.57356262207031</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03200000151991844</v>
+        <v>3414575.25</v>
       </c>
       <c r="J34" t="n">
-        <v>96680.1171875</v>
+        <v>96442.0234375</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>62.10000228881836</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8844726085662842</v>
+        <v>2.385412454605103</v>
       </c>
       <c r="M34" t="n">
-        <v>-7.393302917480469</v>
+        <v>-5.970673561096191</v>
       </c>
       <c r="N34" t="n">
-        <v>11.60025691986084</v>
+        <v>11.00001907348633</v>
       </c>
     </row>
     <row r="35">
@@ -2087,11 +2089,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1701237600</v>
+        <v>1701324000</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2100,34 +2102,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.10000228881836</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="F35" t="n">
-        <v>28.228515625</v>
+        <v>28.46426391601562</v>
       </c>
       <c r="G35" t="n">
-        <v>27.199462890625</v>
+        <v>27.73110961914062</v>
       </c>
       <c r="H35" t="n">
-        <v>-45.53372192382812</v>
+        <v>-52.91740417480469</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01999999955296516</v>
+        <v>3253678.25</v>
       </c>
       <c r="J35" t="n">
-        <v>96679.453125</v>
+        <v>96521.34375</v>
       </c>
       <c r="K35" t="n">
-        <v>66.30000305175781</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.874374985694885</v>
+        <v>4.731227874755859</v>
       </c>
       <c r="M35" t="n">
-        <v>-8.520400047302246</v>
+        <v>-7.281754970550537</v>
       </c>
       <c r="N35" t="n">
-        <v>12.10114765167236</v>
+        <v>13.52800750732422</v>
       </c>
     </row>
     <row r="36">
@@ -2135,11 +2137,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1701248400</v>
+        <v>1701334800</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2148,34 +2150,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>74.30000305175781</v>
+        <v>61.29999923706055</v>
       </c>
       <c r="F36" t="n">
-        <v>24.80905151367188</v>
+        <v>24.89254760742188</v>
       </c>
       <c r="G36" t="n">
-        <v>23.82754516601562</v>
+        <v>23.92935180664062</v>
       </c>
       <c r="H36" t="n">
-        <v>-43.73294067382812</v>
+        <v>-53.47062683105469</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01600000075995922</v>
+        <v>3353181.75</v>
       </c>
       <c r="J36" t="n">
-        <v>96578.96875</v>
+        <v>96607.640625</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L36" t="n">
-        <v>1.658124923706055</v>
+        <v>2.019763231277466</v>
       </c>
       <c r="M36" t="n">
-        <v>-6.369887351989746</v>
+        <v>-6.258806228637695</v>
       </c>
       <c r="N36" t="n">
-        <v>10.80144119262695</v>
+        <v>10.40175819396973</v>
       </c>
     </row>
     <row r="37">
@@ -2183,11 +2185,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1701259200</v>
+        <v>1701345600</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2196,34 +2198,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>78.40000152587891</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="F37" t="n">
-        <v>24.06613159179688</v>
+        <v>23.81695556640625</v>
       </c>
       <c r="G37" t="n">
-        <v>22.75997924804688</v>
+        <v>22.55740356445312</v>
       </c>
       <c r="H37" t="n">
-        <v>-49.06085205078125</v>
+        <v>-49.19534301757812</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3112586.75</v>
       </c>
       <c r="J37" t="n">
-        <v>96713.703125</v>
+        <v>96768.9375</v>
       </c>
       <c r="K37" t="n">
-        <v>8.5</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="L37" t="n">
-        <v>3.320651769638062</v>
+        <v>4.333620548248291</v>
       </c>
       <c r="M37" t="n">
-        <v>-6.208119869232178</v>
+        <v>-6.232597351074219</v>
       </c>
       <c r="N37" t="n">
-        <v>10.32423686981201</v>
+        <v>10.21402931213379</v>
       </c>
     </row>
     <row r="38">
@@ -2231,11 +2233,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1701270000</v>
+        <v>1701356400</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2244,34 +2246,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.90000152587891</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="F38" t="n">
-        <v>30.32345581054688</v>
+        <v>30.75567626953125</v>
       </c>
       <c r="G38" t="n">
-        <v>27.23184204101562</v>
+        <v>27.7379150390625</v>
       </c>
       <c r="H38" t="n">
-        <v>-54.47320556640625</v>
+        <v>-54.15623474121094</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3015528</v>
       </c>
       <c r="J38" t="n">
-        <v>96817.0234375</v>
+        <v>96779.4609375</v>
       </c>
       <c r="K38" t="n">
-        <v>14.69999980926514</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="L38" t="n">
-        <v>1.721767544746399</v>
+        <v>-0.7953393459320068</v>
       </c>
       <c r="M38" t="n">
-        <v>-6.381508827209473</v>
+        <v>-6.598302841186523</v>
       </c>
       <c r="N38" t="n">
-        <v>7.428505897521973</v>
+        <v>7.213827610015869</v>
       </c>
     </row>
     <row r="39">
@@ -2279,11 +2281,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1701280800</v>
+        <v>1701367200</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2292,34 +2294,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.10000228881836</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="F39" t="n">
-        <v>35.6334228515625</v>
+        <v>35.9737548828125</v>
       </c>
       <c r="G39" t="n">
-        <v>32.19671630859375</v>
+        <v>32.9287109375</v>
       </c>
       <c r="H39" t="n">
-        <v>-55.32748413085938</v>
+        <v>-57.15837097167969</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2962152.5</v>
       </c>
       <c r="J39" t="n">
-        <v>96559.0546875</v>
+        <v>96499.5859375</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6000000238418579</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>3.949089288711548</v>
+        <v>-1.320502877235413</v>
       </c>
       <c r="M39" t="n">
-        <v>-4.822941780090332</v>
+        <v>-4.45050048828125</v>
       </c>
       <c r="N39" t="n">
-        <v>6.107707500457764</v>
+        <v>4.702154636383057</v>
       </c>
     </row>
     <row r="40">
@@ -2327,11 +2329,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1701291600</v>
+        <v>1701378000</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2340,34 +2342,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.70000076293945</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>36.87301635742188</v>
+        <v>38.24288940429688</v>
       </c>
       <c r="G40" t="n">
-        <v>34.6083984375</v>
+        <v>35.86514282226562</v>
       </c>
       <c r="H40" t="n">
-        <v>-57.32550048828125</v>
+        <v>-51.74674987792969</v>
       </c>
       <c r="I40" t="n">
+        <v>2926592.75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>96193.5859375</v>
+      </c>
+      <c r="K40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>96226.0078125</v>
-      </c>
-      <c r="K40" t="n">
-        <v>68.5</v>
-      </c>
       <c r="L40" t="n">
-        <v>5.325654029846191</v>
+        <v>0.08843017369508743</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.284370064735413</v>
+        <v>-3.765405178070068</v>
       </c>
       <c r="N40" t="n">
-        <v>6.206640720367432</v>
+        <v>4.106469631195068</v>
       </c>
     </row>
     <row r="41">
@@ -2375,11 +2377,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1701302400</v>
+        <v>1701388800</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2388,34 +2390,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.70000076293945</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="F41" t="n">
-        <v>34.27963256835938</v>
+        <v>35.51260375976562</v>
       </c>
       <c r="G41" t="n">
-        <v>33.508544921875</v>
+        <v>36.1593017578125</v>
       </c>
       <c r="H41" t="n">
-        <v>-56.94577026367188</v>
+        <v>-51.47325134277344</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2800000011920929</v>
+        <v>2567301.25</v>
       </c>
       <c r="J41" t="n">
-        <v>96287.9140625</v>
+        <v>96201.5859375</v>
       </c>
       <c r="K41" t="n">
-        <v>92.09999847412109</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.150510311126709</v>
+        <v>-0.08980224281549454</v>
       </c>
       <c r="M41" t="n">
-        <v>-6.419763088226318</v>
+        <v>-4.169953346252441</v>
       </c>
       <c r="N41" t="n">
-        <v>9.808097839355469</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2423,11 +2425,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1701313200</v>
+        <v>1701399600</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2436,34 +2438,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.29999923706055</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F42" t="n">
-        <v>32.40032958984375</v>
+        <v>32.42617797851562</v>
       </c>
       <c r="G42" t="n">
-        <v>31.60211181640625</v>
+        <v>33.8775634765625</v>
       </c>
       <c r="H42" t="n">
-        <v>-51.749267578125</v>
+        <v>-45.92019653320312</v>
       </c>
       <c r="I42" t="n">
-        <v>1.360000014305115</v>
+        <v>2565262.5</v>
       </c>
       <c r="J42" t="n">
-        <v>96476.4609375</v>
+        <v>96348.6171875</v>
       </c>
       <c r="K42" t="n">
-        <v>95.59999847412109</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>7.269968032836914</v>
+        <v>-1.985602974891663</v>
       </c>
       <c r="M42" t="n">
-        <v>-6.387570858001709</v>
+        <v>-3.219938993453979</v>
       </c>
       <c r="N42" t="n">
-        <v>12.00113201141357</v>
+        <v>5.203560829162598</v>
       </c>
     </row>
     <row r="43">
@@ -2471,11 +2473,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1701324000</v>
+        <v>1701410400</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2484,34 +2486,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>45.10000228881836</v>
+        <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>28.95632934570312</v>
+        <v>28.58724975585938</v>
       </c>
       <c r="G43" t="n">
-        <v>27.83843994140625</v>
+        <v>28.072265625</v>
       </c>
       <c r="H43" t="n">
-        <v>-56.84651184082031</v>
+        <v>-47.14900207519531</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07999999821186066</v>
+        <v>3043841.25</v>
       </c>
       <c r="J43" t="n">
-        <v>96616.75</v>
+        <v>96485.9375</v>
       </c>
       <c r="K43" t="n">
-        <v>69.40000152587891</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="L43" t="n">
-        <v>2.267521858215332</v>
+        <v>1.739343166351318</v>
       </c>
       <c r="M43" t="n">
-        <v>-7.792851448059082</v>
+        <v>-7.289694786071777</v>
       </c>
       <c r="N43" t="n">
-        <v>11.30051326751709</v>
+        <v>12.0013542175293</v>
       </c>
     </row>
     <row r="44">
@@ -2519,11 +2521,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1701334800</v>
+        <v>1701421200</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2532,34 +2534,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>62.10000228881836</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="F44" t="n">
-        <v>24.83230590820312</v>
+        <v>25.02322387695312</v>
       </c>
       <c r="G44" t="n">
-        <v>23.89639282226562</v>
+        <v>24.06875610351562</v>
       </c>
       <c r="H44" t="n">
-        <v>-55.50816345214844</v>
+        <v>-45.26887512207031</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03999999910593033</v>
+        <v>3493398</v>
       </c>
       <c r="J44" t="n">
-        <v>96583.2265625</v>
+        <v>96596.453125</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.471530675888062</v>
+        <v>4.371381759643555</v>
       </c>
       <c r="M44" t="n">
-        <v>-6.423898696899414</v>
+        <v>-4.466076374053955</v>
       </c>
       <c r="N44" t="n">
-        <v>11.52272129058838</v>
+        <v>8.32415771484375</v>
       </c>
     </row>
     <row r="45">
@@ -2567,11 +2569,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1701345600</v>
+        <v>1701432000</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2580,34 +2582,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>70.30000305175781</v>
+        <v>71.80000305175781</v>
       </c>
       <c r="F45" t="n">
-        <v>23.816162109375</v>
+        <v>24.35330200195312</v>
       </c>
       <c r="G45" t="n">
-        <v>22.49606323242188</v>
+        <v>23.05242919921875</v>
       </c>
       <c r="H45" t="n">
-        <v>-56.23651123046875</v>
+        <v>-57.96791076660156</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3807117.5</v>
       </c>
       <c r="J45" t="n">
-        <v>96750.078125</v>
+        <v>96785.78125</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L45" t="n">
-        <v>2.467907667160034</v>
+        <v>4.614987850189209</v>
       </c>
       <c r="M45" t="n">
-        <v>-5.924606800079346</v>
+        <v>-5.518664360046387</v>
       </c>
       <c r="N45" t="n">
-        <v>9.618292808532715</v>
+        <v>8.918118476867676</v>
       </c>
     </row>
     <row r="46">
@@ -2615,11 +2617,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1701356400</v>
+        <v>1701442800</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2628,34 +2630,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.79999923706055</v>
+        <v>54.29999923706055</v>
       </c>
       <c r="F46" t="n">
-        <v>30.7408447265625</v>
+        <v>29.93804931640625</v>
       </c>
       <c r="G46" t="n">
-        <v>27.64593505859375</v>
+        <v>27.36593627929688</v>
       </c>
       <c r="H46" t="n">
-        <v>-56.57586669921875</v>
+        <v>-55.72981262207031</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3914182.25</v>
       </c>
       <c r="J46" t="n">
-        <v>96777.171875</v>
+        <v>96825.2890625</v>
       </c>
       <c r="K46" t="n">
-        <v>3.200000047683716</v>
+        <v>68.20000457763672</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2488696277141571</v>
+        <v>-1.606328129768372</v>
       </c>
       <c r="M46" t="n">
-        <v>-6.514882564544678</v>
+        <v>-5.081252098083496</v>
       </c>
       <c r="N46" t="n">
-        <v>7.200000286102295</v>
+        <v>6.102119922637939</v>
       </c>
     </row>
     <row r="47">
@@ -2663,11 +2665,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1701367200</v>
+        <v>1701453600</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2676,34 +2678,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.60000038146973</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="F47" t="n">
-        <v>36.39178466796875</v>
+        <v>34.03207397460938</v>
       </c>
       <c r="G47" t="n">
-        <v>33.05538940429688</v>
+        <v>31.12429809570312</v>
       </c>
       <c r="H47" t="n">
-        <v>-57.50555419921875</v>
+        <v>-53.88804626464844</v>
       </c>
       <c r="I47" t="n">
+        <v>3723789.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96572.7890625</v>
+      </c>
+      <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>96472.4140625</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5</v>
-      </c>
       <c r="L47" t="n">
-        <v>-0.6616894602775574</v>
+        <v>-1.989006280899048</v>
       </c>
       <c r="M47" t="n">
-        <v>-5.755927562713623</v>
+        <v>-3.559306621551514</v>
       </c>
       <c r="N47" t="n">
-        <v>5.703045845031738</v>
+        <v>4.099999904632568</v>
       </c>
     </row>
     <row r="48">
@@ -2711,11 +2713,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1701378000</v>
+        <v>1701464400</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2724,34 +2726,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F48" t="n">
-        <v>38.58206176757812</v>
+        <v>37.18075561523438</v>
       </c>
       <c r="G48" t="n">
-        <v>36.05743408203125</v>
+        <v>35.17459106445312</v>
       </c>
       <c r="H48" t="n">
-        <v>-53.66815185546875</v>
+        <v>-55.06338500976562</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3582743.5</v>
       </c>
       <c r="J48" t="n">
-        <v>96176.2734375</v>
+        <v>96218.6484375</v>
       </c>
       <c r="K48" t="n">
-        <v>44.40000152587891</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1648217737674713</v>
+        <v>-0.6385595798492432</v>
       </c>
       <c r="M48" t="n">
-        <v>-4.389596939086914</v>
+        <v>0.9241186380386353</v>
       </c>
       <c r="N48" t="n">
-        <v>4.4093017578125</v>
+        <v>2.609790086746216</v>
       </c>
     </row>
     <row r="49">
@@ -2759,11 +2761,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1701388800</v>
+        <v>1701475200</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2772,34 +2774,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.20000076293945</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="F49" t="n">
-        <v>36.08834838867188</v>
+        <v>35.6865234375</v>
       </c>
       <c r="G49" t="n">
-        <v>36.40451049804688</v>
+        <v>35.81472778320312</v>
       </c>
       <c r="H49" t="n">
-        <v>-46.90518188476562</v>
+        <v>-54.48806762695312</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3232584.75</v>
       </c>
       <c r="J49" t="n">
-        <v>96198.4765625</v>
+        <v>96187.5625</v>
       </c>
       <c r="K49" t="n">
-        <v>21.89999961853027</v>
+        <v>3.600000143051147</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.04668212682008743</v>
+        <v>0.7433300614356995</v>
       </c>
       <c r="M49" t="n">
-        <v>-4.627824783325195</v>
+        <v>-4.01125955581665</v>
       </c>
       <c r="N49" t="n">
-        <v>7.008124828338623</v>
+        <v>5.203914642333984</v>
       </c>
     </row>
     <row r="50">
@@ -2807,11 +2809,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1701399600</v>
+        <v>1701486000</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2820,34 +2822,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.20000076293945</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="F50" t="n">
-        <v>33.71258544921875</v>
+        <v>33.23178100585938</v>
       </c>
       <c r="G50" t="n">
-        <v>34.1055908203125</v>
+        <v>33.47872924804688</v>
       </c>
       <c r="H50" t="n">
-        <v>-51.99942016601562</v>
+        <v>-54.55908203125</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3549837</v>
       </c>
       <c r="J50" t="n">
-        <v>96369.140625</v>
+        <v>96274.875</v>
       </c>
       <c r="K50" t="n">
-        <v>80.80000305175781</v>
+        <v>77.5</v>
       </c>
       <c r="L50" t="n">
-        <v>0.70965576171875</v>
+        <v>-1.859277248382568</v>
       </c>
       <c r="M50" t="n">
-        <v>-4.738747596740723</v>
+        <v>0.7110888361930847</v>
       </c>
       <c r="N50" t="n">
-        <v>7.705966949462891</v>
+        <v>3.002442836761475</v>
       </c>
     </row>
     <row r="51">
@@ -2855,11 +2857,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1701410400</v>
+        <v>1701496800</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2868,34 +2870,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" t="n">
-        <v>27.91305541992188</v>
+        <v>29.23968505859375</v>
       </c>
       <c r="G51" t="n">
-        <v>27.10684204101562</v>
+        <v>28.247802734375</v>
       </c>
       <c r="H51" t="n">
-        <v>-58.20668029785156</v>
+        <v>-53.50996398925781</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3968156.5</v>
       </c>
       <c r="J51" t="n">
-        <v>96508.5078125</v>
+        <v>96437.1328125</v>
       </c>
       <c r="K51" t="n">
-        <v>82.90000152587891</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="L51" t="n">
-        <v>2.892731904983521</v>
+        <v>1.611494064331055</v>
       </c>
       <c r="M51" t="n">
-        <v>-8.021181106567383</v>
+        <v>-7.662404537200928</v>
       </c>
       <c r="N51" t="n">
-        <v>12.5</v>
+        <v>9.10001277923584</v>
       </c>
     </row>
     <row r="52">
@@ -2903,11 +2905,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1701421200</v>
+        <v>1701507600</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2916,34 +2918,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>67.5</v>
+        <v>61.29999923706055</v>
       </c>
       <c r="F52" t="n">
-        <v>24.86395263671875</v>
+        <v>26.80230712890625</v>
       </c>
       <c r="G52" t="n">
-        <v>23.91195678710938</v>
+        <v>25.66461181640625</v>
       </c>
       <c r="H52" t="n">
-        <v>-63.12527465820312</v>
+        <v>-51.392578125</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>4149175.75</v>
       </c>
       <c r="J52" t="n">
-        <v>96563.140625</v>
+        <v>96454.921875</v>
       </c>
       <c r="K52" t="n">
-        <v>55</v>
+        <v>42.5</v>
       </c>
       <c r="L52" t="n">
-        <v>2.224025726318359</v>
+        <v>2.409243106842041</v>
       </c>
       <c r="M52" t="n">
-        <v>-6.11175012588501</v>
+        <v>-6.109323501586914</v>
       </c>
       <c r="N52" t="n">
-        <v>10.60941123962402</v>
+        <v>7.817574977874756</v>
       </c>
     </row>
     <row r="53">
@@ -2951,11 +2953,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1701432000</v>
+        <v>1701518400</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2964,34 +2966,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>72.40000152587891</v>
+        <v>62.70000076293945</v>
       </c>
       <c r="F53" t="n">
-        <v>24.3140869140625</v>
+        <v>25.77749633789062</v>
       </c>
       <c r="G53" t="n">
-        <v>22.9925537109375</v>
+        <v>24.50369262695312</v>
       </c>
       <c r="H53" t="n">
-        <v>-61.57363891601562</v>
+        <v>-53.06282043457031</v>
       </c>
       <c r="I53" t="n">
+        <v>4040397.25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>96571.3359375</v>
+      </c>
+      <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>96744.8203125</v>
-      </c>
-      <c r="K53" t="n">
-        <v>96.09999847412109</v>
-      </c>
       <c r="L53" t="n">
-        <v>4.632885456085205</v>
+        <v>2.996342658996582</v>
       </c>
       <c r="M53" t="n">
-        <v>-5.834504127502441</v>
+        <v>-5.074086666107178</v>
       </c>
       <c r="N53" t="n">
-        <v>9.000703811645508</v>
+        <v>8.10169506072998</v>
       </c>
     </row>
     <row r="54">
@@ -2999,11 +3001,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1701442800</v>
+        <v>1701529200</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3012,34 +3014,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>50.5</v>
+        <v>44.90000152587891</v>
       </c>
       <c r="F54" t="n">
-        <v>30.49960327148438</v>
+        <v>31.94647216796875</v>
       </c>
       <c r="G54" t="n">
-        <v>27.71542358398438</v>
+        <v>29.46511840820312</v>
       </c>
       <c r="H54" t="n">
-        <v>-55.90518188476562</v>
+        <v>-56.87478637695312</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>4044934</v>
       </c>
       <c r="J54" t="n">
-        <v>96779.2421875</v>
+        <v>96599.2265625</v>
       </c>
       <c r="K54" t="n">
-        <v>84.59999847412109</v>
+        <v>9</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.3433642387390137</v>
+        <v>-1.115556597709656</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.258227348327637</v>
+        <v>-3.834946155548096</v>
       </c>
       <c r="N54" t="n">
-        <v>5.700019359588623</v>
+        <v>4.801406860351562</v>
       </c>
     </row>
     <row r="55">
@@ -3047,11 +3049,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1701453600</v>
+        <v>1701540000</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3060,34 +3062,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.79999923706055</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="F55" t="n">
-        <v>35.11233520507812</v>
+        <v>35.89288330078125</v>
       </c>
       <c r="G55" t="n">
-        <v>32.22775268554688</v>
+        <v>33.60488891601562</v>
       </c>
       <c r="H55" t="n">
-        <v>-59.7154541015625</v>
+        <v>-55.3687744140625</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4042883.75</v>
       </c>
       <c r="J55" t="n">
-        <v>96481.7734375</v>
+        <v>96304.734375</v>
       </c>
       <c r="K55" t="n">
-        <v>99.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
-        <v>-2.493854999542236</v>
+        <v>-2.198735237121582</v>
       </c>
       <c r="M55" t="n">
-        <v>-3.885405302047729</v>
+        <v>0.2724243104457855</v>
       </c>
       <c r="N55" t="n">
-        <v>4.300014019012451</v>
+        <v>2.513189792633057</v>
       </c>
     </row>
     <row r="56">
@@ -3095,11 +3097,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1701464400</v>
+        <v>1701550800</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3108,34 +3110,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.30000114440918</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F56" t="n">
-        <v>35.57217407226562</v>
+        <v>34.2264404296875</v>
       </c>
       <c r="G56" t="n">
-        <v>33.9688720703125</v>
+        <v>33.0972900390625</v>
       </c>
       <c r="H56" t="n">
-        <v>-58.79753112792969</v>
+        <v>-51.77850341796875</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>4217201</v>
       </c>
       <c r="J56" t="n">
-        <v>96201.453125</v>
+        <v>96155.03125</v>
       </c>
       <c r="K56" t="n">
-        <v>26.39999961853027</v>
+        <v>98.5</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.4416943192481995</v>
+        <v>0.4917871057987213</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.004702148493379354</v>
+        <v>-0.3526904284954071</v>
       </c>
       <c r="N56" t="n">
-        <v>3.520787477493286</v>
+        <v>1.815396904945374</v>
       </c>
     </row>
     <row r="57">
@@ -3143,11 +3145,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1701475200</v>
+        <v>1701561600</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3156,34 +3158,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.5</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="F57" t="n">
-        <v>33.97073364257812</v>
+        <v>32.72076416015625</v>
       </c>
       <c r="G57" t="n">
-        <v>33.84396362304688</v>
+        <v>32.33343505859375</v>
       </c>
       <c r="H57" t="n">
-        <v>-54.6368408203125</v>
+        <v>-51.67781066894531</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07999999821186066</v>
+        <v>4145224</v>
       </c>
       <c r="J57" t="n">
-        <v>96206.6875</v>
+        <v>96191.4453125</v>
       </c>
       <c r="K57" t="n">
-        <v>92.40000152587891</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9504370093345642</v>
+        <v>-3.690392971038818</v>
       </c>
       <c r="M57" t="n">
-        <v>2.666479349136353</v>
+        <v>3.796337842941284</v>
       </c>
       <c r="N57" t="n">
-        <v>3.700085401535034</v>
+        <v>6.901519775390625</v>
       </c>
     </row>
     <row r="58">
@@ -3191,11 +3193,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1701486000</v>
+        <v>1701572400</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3204,34 +3206,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.70000076293945</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F58" t="n">
-        <v>33.14889526367188</v>
+        <v>30.37240600585938</v>
       </c>
       <c r="G58" t="n">
-        <v>32.97897338867188</v>
+        <v>30.89541625976562</v>
       </c>
       <c r="H58" t="n">
-        <v>-57.00849914550781</v>
+        <v>-53.33113098144531</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06400000303983688</v>
+        <v>4097527.75</v>
       </c>
       <c r="J58" t="n">
-        <v>96414.8203125</v>
+        <v>96313.3828125</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2.93463134765625</v>
+        <v>-1.190283179283142</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.287268042564392</v>
+        <v>1.028730392456055</v>
       </c>
       <c r="N58" t="n">
-        <v>5.110278606414795</v>
+        <v>1.801881194114685</v>
       </c>
     </row>
     <row r="59">
@@ -3239,11 +3241,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1701496800</v>
+        <v>1701583200</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3252,34 +3254,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>52.5</v>
+        <v>55.29999923706055</v>
       </c>
       <c r="F59" t="n">
-        <v>28.06979370117188</v>
+        <v>29.05279541015625</v>
       </c>
       <c r="G59" t="n">
-        <v>27.09619140625</v>
+        <v>29.506591796875</v>
       </c>
       <c r="H59" t="n">
-        <v>-48.10015869140625</v>
+        <v>-57.96017456054688</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2800000011920929</v>
+        <v>4074606</v>
       </c>
       <c r="J59" t="n">
-        <v>96466.3984375</v>
+        <v>96241.765625</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7456493973731995</v>
+        <v>-2.062404632568359</v>
       </c>
       <c r="M59" t="n">
-        <v>-9.22762393951416</v>
+        <v>2.577445030212402</v>
       </c>
       <c r="N59" t="n">
-        <v>12.00320720672607</v>
+        <v>4.200253963470459</v>
       </c>
     </row>
     <row r="60">
@@ -3287,11 +3289,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1701507600</v>
+        <v>1701594000</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3300,34 +3302,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>70.40000152587891</v>
+        <v>73.40000152587891</v>
       </c>
       <c r="F60" t="n">
-        <v>24.94912719726562</v>
+        <v>25.31576538085938</v>
       </c>
       <c r="G60" t="n">
-        <v>24.02291870117188</v>
+        <v>25.54879760742188</v>
       </c>
       <c r="H60" t="n">
-        <v>-24.74470520019531</v>
+        <v>-63.122802734375</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1400000005960464</v>
+        <v>4477790.5</v>
       </c>
       <c r="J60" t="n">
-        <v>96417.8125</v>
+        <v>96315.3984375</v>
       </c>
       <c r="K60" t="n">
-        <v>3.900000095367432</v>
+        <v>95.80000305175781</v>
       </c>
       <c r="L60" t="n">
-        <v>3.359284639358521</v>
+        <v>1.444631338119507</v>
       </c>
       <c r="M60" t="n">
-        <v>-6.257826805114746</v>
+        <v>-2.761158466339111</v>
       </c>
       <c r="N60" t="n">
-        <v>10.40308380126953</v>
+        <v>4.600796222686768</v>
       </c>
     </row>
     <row r="61">
@@ -3335,11 +3337,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1701518400</v>
+        <v>1701604800</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3348,34 +3350,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>69.20000457763672</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="F61" t="n">
-        <v>25.00918579101562</v>
+        <v>26.3487548828125</v>
       </c>
       <c r="G61" t="n">
-        <v>23.75048828125</v>
+        <v>25.31719970703125</v>
       </c>
       <c r="H61" t="n">
-        <v>-51.53860473632812</v>
+        <v>-56.00027465820312</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>4302524</v>
       </c>
       <c r="J61" t="n">
-        <v>96581.7421875</v>
+        <v>96473.5546875</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>95.70000457763672</v>
       </c>
       <c r="L61" t="n">
-        <v>2.510339260101318</v>
+        <v>1.752395033836365</v>
       </c>
       <c r="M61" t="n">
-        <v>-5.866200923919678</v>
+        <v>-2.472172737121582</v>
       </c>
       <c r="N61" t="n">
-        <v>9.700006484985352</v>
+        <v>3.700000047683716</v>
       </c>
     </row>
     <row r="62">
@@ -3383,11 +3385,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1701529200</v>
+        <v>1701615600</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3396,34 +3398,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>45.70000076293945</v>
+        <v>51.60000228881836</v>
       </c>
       <c r="F62" t="n">
-        <v>31.24392700195312</v>
+        <v>30.2281494140625</v>
       </c>
       <c r="G62" t="n">
-        <v>28.24246215820312</v>
+        <v>28.4378662109375</v>
       </c>
       <c r="H62" t="n">
-        <v>-59.63955688476562</v>
+        <v>-55.55110168457031</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>4312876.5</v>
       </c>
       <c r="J62" t="n">
-        <v>96629.3515625</v>
+        <v>96588.7421875</v>
       </c>
       <c r="K62" t="n">
-        <v>16.5</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="L62" t="n">
-        <v>-3.05279278755188</v>
+        <v>-1.012243628501892</v>
       </c>
       <c r="M62" t="n">
-        <v>-5.318332195281982</v>
+        <v>-0.7092651128768921</v>
       </c>
       <c r="N62" t="n">
-        <v>6.314248085021973</v>
+        <v>1.800000071525574</v>
       </c>
     </row>
     <row r="63">
@@ -3431,11 +3433,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1701540000</v>
+        <v>1701626400</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3444,34 +3446,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.60000038146973</v>
+        <v>43</v>
       </c>
       <c r="F63" t="n">
-        <v>36.142578125</v>
+        <v>32.6358642578125</v>
       </c>
       <c r="G63" t="n">
-        <v>33.15289306640625</v>
+        <v>30.8795166015625</v>
       </c>
       <c r="H63" t="n">
-        <v>-49.31549072265625</v>
+        <v>-57.79457092285156</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>4158939.75</v>
       </c>
       <c r="J63" t="n">
-        <v>96322.7421875</v>
+        <v>96381.984375</v>
       </c>
       <c r="K63" t="n">
-        <v>38.29999923706055</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L63" t="n">
-        <v>-1.80740225315094</v>
+        <v>-1.261247515678406</v>
       </c>
       <c r="M63" t="n">
-        <v>-3.606064319610596</v>
+        <v>1.919970631599426</v>
       </c>
       <c r="N63" t="n">
-        <v>3.700000047683716</v>
+        <v>2.114563226699829</v>
       </c>
     </row>
     <row r="64">
@@ -3479,11 +3481,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1701550800</v>
+        <v>1701637200</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3492,34 +3494,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.5</v>
+        <v>37.10000228881836</v>
       </c>
       <c r="F64" t="n">
-        <v>37.50921630859375</v>
+        <v>34.52603149414062</v>
       </c>
       <c r="G64" t="n">
-        <v>35.59652709960938</v>
+        <v>32.21615600585938</v>
       </c>
       <c r="H64" t="n">
-        <v>-44.24053955078125</v>
+        <v>-46.17582702636719</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>4060014</v>
       </c>
       <c r="J64" t="n">
-        <v>96011.1875</v>
+        <v>96150.4921875</v>
       </c>
       <c r="K64" t="n">
-        <v>93.90000152587891</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="L64" t="n">
-        <v>-1.419360280036926</v>
+        <v>-2.528920888900757</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.607143521308899</v>
+        <v>4.718259334564209</v>
       </c>
       <c r="N64" t="n">
-        <v>3.005239248275757</v>
+        <v>3.51165771484375</v>
       </c>
     </row>
     <row r="65">
@@ -3527,11 +3529,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1701561600</v>
+        <v>1701648000</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3540,34 +3542,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F65" t="n">
-        <v>33.26904296875</v>
+        <v>33.12783813476562</v>
       </c>
       <c r="G65" t="n">
-        <v>32.54190063476562</v>
+        <v>32.17822265625</v>
       </c>
       <c r="H65" t="n">
-        <v>-41.06364440917969</v>
+        <v>-36.7740478515625</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3879194</v>
       </c>
       <c r="J65" t="n">
-        <v>96112.2734375</v>
+        <v>96107.453125</v>
       </c>
       <c r="K65" t="n">
-        <v>72.90000152587891</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="L65" t="n">
-        <v>-3.044646024703979</v>
+        <v>-1.375187993049622</v>
       </c>
       <c r="M65" t="n">
-        <v>5.221325397491455</v>
+        <v>3.21563458442688</v>
       </c>
       <c r="N65" t="n">
-        <v>8.200339317321777</v>
+        <v>3.502569675445557</v>
       </c>
     </row>
     <row r="66">
@@ -3575,11 +3577,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1701572400</v>
+        <v>1701658800</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3588,34 +3590,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>47.5</v>
+        <v>48.29999923706055</v>
       </c>
       <c r="F66" t="n">
-        <v>30.66836547851562</v>
+        <v>31.10244750976562</v>
       </c>
       <c r="G66" t="n">
-        <v>30.71514892578125</v>
+        <v>30.67471313476562</v>
       </c>
       <c r="H66" t="n">
-        <v>-52.96539306640625</v>
+        <v>-35.98176574707031</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1000000014901161</v>
+        <v>4195481</v>
       </c>
       <c r="J66" t="n">
-        <v>96370.7734375</v>
+        <v>96398.984375</v>
       </c>
       <c r="K66" t="n">
-        <v>27.80000114440918</v>
+        <v>5</v>
       </c>
       <c r="L66" t="n">
-        <v>0.05113036930561066</v>
+        <v>-2.462731838226318</v>
       </c>
       <c r="M66" t="n">
-        <v>1.311406254768372</v>
+        <v>0.8875902891159058</v>
       </c>
       <c r="N66" t="n">
-        <v>2.007476091384888</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3623,11 +3625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1701583200</v>
+        <v>1701669600</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3636,34 +3638,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>52.60000228881836</v>
+        <v>62.29999923706055</v>
       </c>
       <c r="F67" t="n">
-        <v>29.66748046875</v>
+        <v>28.09274291992188</v>
       </c>
       <c r="G67" t="n">
-        <v>28.75808715820312</v>
+        <v>27.43960571289062</v>
       </c>
       <c r="H67" t="n">
-        <v>-65.65568542480469</v>
+        <v>-66.69718933105469</v>
       </c>
       <c r="I67" t="n">
-        <v>8.560000419616699</v>
+        <v>4742044</v>
       </c>
       <c r="J67" t="n">
-        <v>96388.765625</v>
+        <v>96467.0703125</v>
       </c>
       <c r="K67" t="n">
-        <v>42.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.05674316361546516</v>
+        <v>-3.113361835479736</v>
       </c>
       <c r="M67" t="n">
-        <v>-3.139135599136353</v>
+        <v>-0.2068212777376175</v>
       </c>
       <c r="N67" t="n">
-        <v>3.100000143051147</v>
+        <v>4.501968860626221</v>
       </c>
     </row>
     <row r="68">
@@ -3671,11 +3673,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1701594000</v>
+        <v>1701680400</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3684,34 +3686,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>68.5</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="F68" t="n">
-        <v>25.89749145507812</v>
+        <v>25.64633178710938</v>
       </c>
       <c r="G68" t="n">
-        <v>25.11566162109375</v>
+        <v>24.68228149414062</v>
       </c>
       <c r="H68" t="n">
-        <v>-66.56645202636719</v>
+        <v>-65.14170837402344</v>
       </c>
       <c r="I68" t="n">
-        <v>4.360000133514404</v>
+        <v>4768252.5</v>
       </c>
       <c r="J68" t="n">
-        <v>96389.734375</v>
+        <v>96439.578125</v>
       </c>
       <c r="K68" t="n">
-        <v>99.40000152587891</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
-        <v>3.678334951400757</v>
+        <v>3.449614286422729</v>
       </c>
       <c r="M68" t="n">
-        <v>-4.89739990234375</v>
+        <v>-2.612216711044312</v>
       </c>
       <c r="N68" t="n">
-        <v>8.40000057220459</v>
+        <v>4.705720901489258</v>
       </c>
     </row>
     <row r="69">
@@ -3719,11 +3721,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1701604800</v>
+        <v>1701691200</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3732,34 +3734,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>69.59999847412109</v>
+        <v>78.09999847412109</v>
       </c>
       <c r="F69" t="n">
-        <v>25.36117553710938</v>
+        <v>25.05859375</v>
       </c>
       <c r="G69" t="n">
-        <v>24.13433837890625</v>
+        <v>23.85372924804688</v>
       </c>
       <c r="H69" t="n">
-        <v>-50.8564453125</v>
+        <v>-63.81843566894531</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4589308.5</v>
       </c>
       <c r="J69" t="n">
-        <v>96560.2109375</v>
+        <v>96605.3203125</v>
       </c>
       <c r="K69" t="n">
-        <v>5.099999904632568</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
-        <v>2.467475414276123</v>
+        <v>2.527580499649048</v>
       </c>
       <c r="M69" t="n">
-        <v>-5.165930271148682</v>
+        <v>-4.276709079742432</v>
       </c>
       <c r="N69" t="n">
-        <v>8.00019645690918</v>
+        <v>5.902647495269775</v>
       </c>
     </row>
     <row r="70">
@@ -3767,11 +3769,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1701615600</v>
+        <v>1701702000</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3780,34 +3782,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.90000152587891</v>
+        <v>61.5</v>
       </c>
       <c r="F70" t="n">
-        <v>30.7662353515625</v>
+        <v>28.4937744140625</v>
       </c>
       <c r="G70" t="n">
-        <v>28.33920288085938</v>
+        <v>26.58502197265625</v>
       </c>
       <c r="H70" t="n">
-        <v>-53.79066467285156</v>
+        <v>-64.41050720214844</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4296964.5</v>
       </c>
       <c r="J70" t="n">
-        <v>96676.25</v>
+        <v>96759.25</v>
       </c>
       <c r="K70" t="n">
         <v>100</v>
       </c>
       <c r="L70" t="n">
-        <v>0.05194579809904099</v>
+        <v>1.245207548141479</v>
       </c>
       <c r="M70" t="n">
-        <v>-4.174645900726318</v>
+        <v>-3.121438026428223</v>
       </c>
       <c r="N70" t="n">
-        <v>4.406481266021729</v>
+        <v>3.305488586425781</v>
       </c>
     </row>
     <row r="71">
@@ -3815,11 +3817,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1701626400</v>
+        <v>1701712800</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3828,34 +3830,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.5</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="F71" t="n">
-        <v>35.12548828125</v>
+        <v>32.41146850585938</v>
       </c>
       <c r="G71" t="n">
-        <v>32.77456665039062</v>
+        <v>30.34100341796875</v>
       </c>
       <c r="H71" t="n">
-        <v>-45.75149536132812</v>
+        <v>-44.76881408691406</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03999999910593033</v>
+        <v>4408752.5</v>
       </c>
       <c r="J71" t="n">
-        <v>96433.421875</v>
+        <v>96641.75</v>
       </c>
       <c r="K71" t="n">
-        <v>100</v>
+        <v>91.5</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.1478588879108429</v>
+        <v>1.478063941001892</v>
       </c>
       <c r="M71" t="n">
-        <v>-3.616061925888062</v>
+        <v>-1.749560475349426</v>
       </c>
       <c r="N71" t="n">
-        <v>3.502977848052979</v>
+        <v>2.306983232498169</v>
       </c>
     </row>
     <row r="72">
@@ -3863,11 +3865,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1701637200</v>
+        <v>1701723600</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3876,34 +3878,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34</v>
+        <v>41.5</v>
       </c>
       <c r="F72" t="n">
-        <v>34.5423583984375</v>
+        <v>32.64556884765625</v>
       </c>
       <c r="G72" t="n">
-        <v>32.98532104492188</v>
+        <v>31.37261962890625</v>
       </c>
       <c r="H72" t="n">
-        <v>-49.70549011230469</v>
+        <v>-41.47830200195312</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4479999840259552</v>
+        <v>4587166</v>
       </c>
       <c r="J72" t="n">
-        <v>96283.71875</v>
+        <v>96417.0546875</v>
       </c>
       <c r="K72" t="n">
         <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>-3.05968976020813</v>
+        <v>1.605983853340149</v>
       </c>
       <c r="M72" t="n">
-        <v>-3.132255792617798</v>
+        <v>0.2939892411231995</v>
       </c>
       <c r="N72" t="n">
-        <v>4.300000190734863</v>
+        <v>1.81500244140625</v>
       </c>
     </row>
     <row r="73">
@@ -3911,11 +3913,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1701648000</v>
+        <v>1701734400</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3924,34 +3926,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>40.20000076293945</v>
+        <v>41.90000152587891</v>
       </c>
       <c r="F73" t="n">
-        <v>31.96652221679688</v>
+        <v>32.57705688476562</v>
       </c>
       <c r="G73" t="n">
-        <v>31.48001098632812</v>
+        <v>31.64675903320312</v>
       </c>
       <c r="H73" t="n">
-        <v>-42.33549499511719</v>
+        <v>-22.37353515625</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9600000381469727</v>
+        <v>4486183</v>
       </c>
       <c r="J73" t="n">
-        <v>96327.5546875</v>
+        <v>96394.8984375</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L73" t="n">
-        <v>4.65029764175415</v>
+        <v>1.093842744827271</v>
       </c>
       <c r="M73" t="n">
-        <v>-5.410834789276123</v>
+        <v>-0.06294189393520355</v>
       </c>
       <c r="N73" t="n">
-        <v>9.207595825195312</v>
+        <v>1.800154685974121</v>
       </c>
     </row>
     <row r="74">
@@ -3959,11 +3961,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1701658800</v>
+        <v>1701745200</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3972,34 +3974,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>42.90000152587891</v>
+        <v>70.59999847412109</v>
       </c>
       <c r="F74" t="n">
-        <v>31.18692016601562</v>
+        <v>26.75311279296875</v>
       </c>
       <c r="G74" t="n">
-        <v>30.85311889648438</v>
+        <v>25.56106567382812</v>
       </c>
       <c r="H74" t="n">
-        <v>-50.32421875</v>
+        <v>-40.23809814453125</v>
       </c>
       <c r="I74" t="n">
-        <v>1.120000004768372</v>
+        <v>4636987.5</v>
       </c>
       <c r="J74" t="n">
-        <v>96483.9921875</v>
+        <v>96698.828125</v>
       </c>
       <c r="K74" t="n">
-        <v>91.70000457763672</v>
+        <v>99.30000305175781</v>
       </c>
       <c r="L74" t="n">
-        <v>1.585273385047913</v>
+        <v>-4.916271686553955</v>
       </c>
       <c r="M74" t="n">
-        <v>-3.058708429336548</v>
+        <v>-0.5519433617591858</v>
       </c>
       <c r="N74" t="n">
-        <v>6.603888988494873</v>
+        <v>5.401968955993652</v>
       </c>
     </row>
     <row r="75">
@@ -4007,11 +4009,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1701669600</v>
+        <v>1701756000</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4020,34 +4022,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>57.10000228881836</v>
+        <v>69.5</v>
       </c>
       <c r="F75" t="n">
-        <v>28.33688354492188</v>
+        <v>26.77651977539062</v>
       </c>
       <c r="G75" t="n">
-        <v>27.6024169921875</v>
+        <v>25.80502319335938</v>
       </c>
       <c r="H75" t="n">
-        <v>-47.96797180175781</v>
+        <v>-68.18356323242188</v>
       </c>
       <c r="I75" t="n">
-        <v>4.360000133514404</v>
+        <v>4805582.5</v>
       </c>
       <c r="J75" t="n">
-        <v>96604.3359375</v>
+        <v>96667.3046875</v>
       </c>
       <c r="K75" t="n">
-        <v>70.20000457763672</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="L75" t="n">
-        <v>1.520773887634277</v>
+        <v>-1.009594678878784</v>
       </c>
       <c r="M75" t="n">
-        <v>-3.390305042266846</v>
+        <v>0.6846289038658142</v>
       </c>
       <c r="N75" t="n">
-        <v>6.501939296722412</v>
+        <v>1.600589752197266</v>
       </c>
     </row>
     <row r="76">
@@ -4055,11 +4057,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1701680400</v>
+        <v>1701766800</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4068,34 +4070,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>76.80000305175781</v>
+        <v>72</v>
       </c>
       <c r="F76" t="n">
-        <v>24.85238647460938</v>
+        <v>26.16293334960938</v>
       </c>
       <c r="G76" t="n">
-        <v>23.85540771484375</v>
+        <v>25.3514404296875</v>
       </c>
       <c r="H76" t="n">
-        <v>-48.74212646484375</v>
+        <v>-72.57987976074219</v>
       </c>
       <c r="I76" t="n">
-        <v>4.159999847412109</v>
+        <v>4757409</v>
       </c>
       <c r="J76" t="n">
-        <v>96571.3359375</v>
+        <v>96569.8046875</v>
       </c>
       <c r="K76" t="n">
-        <v>66.20000457763672</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
-        <v>2.954821825027466</v>
+        <v>2.161789417266846</v>
       </c>
       <c r="M76" t="n">
-        <v>-5.5796799659729</v>
+        <v>-2.995712757110596</v>
       </c>
       <c r="N76" t="n">
-        <v>9.214169502258301</v>
+        <v>5.021289348602295</v>
       </c>
     </row>
     <row r="77">
@@ -4103,11 +4105,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1701691200</v>
+        <v>1701777600</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4116,34 +4118,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>77.20000457763672</v>
+        <v>75</v>
       </c>
       <c r="F77" t="n">
-        <v>24.52774047851562</v>
+        <v>25.46041870117188</v>
       </c>
       <c r="G77" t="n">
-        <v>23.33035278320312</v>
+        <v>24.37673950195312</v>
       </c>
       <c r="H77" t="n">
-        <v>-50.69618225097656</v>
+        <v>-70.45526123046875</v>
       </c>
       <c r="I77" t="n">
-        <v>2.480000019073486</v>
+        <v>4488715.5</v>
       </c>
       <c r="J77" t="n">
-        <v>96774.453125</v>
+        <v>96711.7109375</v>
       </c>
       <c r="K77" t="n">
-        <v>9.100000381469727</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L77" t="n">
-        <v>4.086555004119873</v>
+        <v>3.093718290328979</v>
       </c>
       <c r="M77" t="n">
-        <v>-5.581606388092041</v>
+        <v>-4.362646579742432</v>
       </c>
       <c r="N77" t="n">
-        <v>10.80000019073486</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4151,11 +4153,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1701702000</v>
+        <v>1701788400</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4164,34 +4166,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50.90000152587891</v>
+        <v>56.10000228881836</v>
       </c>
       <c r="F78" t="n">
-        <v>30.5728759765625</v>
+        <v>29.92535400390625</v>
       </c>
       <c r="G78" t="n">
-        <v>27.6859130859375</v>
+        <v>27.80801391601562</v>
       </c>
       <c r="H78" t="n">
-        <v>-42.41545104980469</v>
+        <v>-73.29283142089844</v>
       </c>
       <c r="I78" t="n">
-        <v>1.248000025749207</v>
+        <v>4345181</v>
       </c>
       <c r="J78" t="n">
-        <v>96875.1796875</v>
+        <v>96782.5859375</v>
       </c>
       <c r="K78" t="n">
-        <v>79.09999847412109</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9027392268180847</v>
+        <v>0.9705810546875</v>
       </c>
       <c r="M78" t="n">
-        <v>-6.737419128417969</v>
+        <v>-3.690500497817993</v>
       </c>
       <c r="N78" t="n">
-        <v>7.508100986480713</v>
+        <v>4.226721286773682</v>
       </c>
     </row>
     <row r="79">
@@ -4199,11 +4201,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1701712800</v>
+        <v>1701799200</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4212,34 +4214,34 @@
         </is>
       </c>
       <c r="E79" t="n">
+        <v>39.90000152587891</v>
+      </c>
+      <c r="F79" t="n">
+        <v>33.94540405273438</v>
+      </c>
+      <c r="G79" t="n">
+        <v>31.77081298828125</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-74.52581787109375</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4308296.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>96599.3984375</v>
+      </c>
+      <c r="K79" t="n">
         <v>34.20000076293945</v>
       </c>
-      <c r="F79" t="n">
-        <v>35.39349365234375</v>
-      </c>
-      <c r="G79" t="n">
-        <v>32.32907104492188</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-43.58473205566406</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="J79" t="n">
-        <v>96617.015625</v>
-      </c>
-      <c r="K79" t="n">
-        <v>73.5</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.3309472501277924</v>
+        <v>-0.5073901414871216</v>
       </c>
       <c r="M79" t="n">
-        <v>-5.57302713394165</v>
+        <v>-2.136965274810791</v>
       </c>
       <c r="N79" t="n">
-        <v>5.307843685150146</v>
+        <v>2.509368896484375</v>
       </c>
     </row>
     <row r="80">
@@ -4247,11 +4249,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1701723600</v>
+        <v>1701810000</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4260,34 +4262,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="F80" t="n">
-        <v>35.849609375</v>
+        <v>35.99240112304688</v>
       </c>
       <c r="G80" t="n">
-        <v>33.43630981445312</v>
+        <v>34.33514404296875</v>
       </c>
       <c r="H80" t="n">
-        <v>-45.32948303222656</v>
+        <v>-74.07315063476562</v>
       </c>
       <c r="I80" t="n">
-        <v>0.07999999821186066</v>
+        <v>4149130.25</v>
       </c>
       <c r="J80" t="n">
-        <v>96342.5078125</v>
+        <v>96289.1484375</v>
       </c>
       <c r="K80" t="n">
-        <v>2.200000047683716</v>
+        <v>65.20000457763672</v>
       </c>
       <c r="L80" t="n">
-        <v>-6.017399787902832</v>
+        <v>-0.3148242235183716</v>
       </c>
       <c r="M80" t="n">
-        <v>-3.619956016540527</v>
+        <v>-1.534401774406433</v>
       </c>
       <c r="N80" t="n">
-        <v>6.013652324676514</v>
+        <v>2.400745153427124</v>
       </c>
     </row>
     <row r="81">
@@ -4295,11 +4297,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1701734400</v>
+        <v>1701820800</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4308,34 +4310,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.29999923706055</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F81" t="n">
-        <v>32.63983154296875</v>
+        <v>34.9437255859375</v>
       </c>
       <c r="G81" t="n">
-        <v>32.20501708984375</v>
+        <v>34.11212158203125</v>
       </c>
       <c r="H81" t="n">
-        <v>-43.23863220214844</v>
+        <v>-49.42987060546875</v>
       </c>
       <c r="I81" t="n">
-        <v>0.6000000238418579</v>
+        <v>3989927.25</v>
       </c>
       <c r="J81" t="n">
-        <v>96397.9921875</v>
+        <v>96216.7421875</v>
       </c>
       <c r="K81" t="n">
-        <v>99.40000152587891</v>
+        <v>55</v>
       </c>
       <c r="L81" t="n">
-        <v>-1.693552255630493</v>
+        <v>-3.046281576156616</v>
       </c>
       <c r="M81" t="n">
-        <v>-5.886159420013428</v>
+        <v>2.390452861785889</v>
       </c>
       <c r="N81" t="n">
-        <v>7.509322643280029</v>
+        <v>4.502391338348389</v>
       </c>
     </row>
     <row r="82">
@@ -4343,11 +4345,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1701745200</v>
+        <v>1701831600</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4356,34 +4358,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34</v>
+        <v>66.80000305175781</v>
       </c>
       <c r="F82" t="n">
-        <v>33.04638671875</v>
+        <v>27.48895263671875</v>
       </c>
       <c r="G82" t="n">
-        <v>32.57107543945312</v>
+        <v>26.54714965820312</v>
       </c>
       <c r="H82" t="n">
-        <v>-9.22027587890625</v>
+        <v>-42.89920043945312</v>
       </c>
       <c r="I82" t="n">
-        <v>0.300000011920929</v>
+        <v>5113460</v>
       </c>
       <c r="J82" t="n">
-        <v>96540.125</v>
+        <v>96524.0859375</v>
       </c>
       <c r="K82" t="n">
         <v>100</v>
       </c>
       <c r="L82" t="n">
-        <v>9.277343633584678e-05</v>
+        <v>2.723134756088257</v>
       </c>
       <c r="M82" t="n">
-        <v>-1.367480397224426</v>
+        <v>1.035798311233521</v>
       </c>
       <c r="N82" t="n">
-        <v>3.404797315597534</v>
+        <v>2.914765357971191</v>
       </c>
     </row>
     <row r="83">
@@ -4391,11 +4393,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1701756000</v>
+        <v>1701842400</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4404,34 +4406,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>58</v>
+        <v>79.5</v>
       </c>
       <c r="F83" t="n">
-        <v>28.06466674804688</v>
+        <v>24.453125</v>
       </c>
       <c r="G83" t="n">
-        <v>26.95751953125</v>
+        <v>23.52459716796875</v>
       </c>
       <c r="H83" t="n">
-        <v>-54.86582946777344</v>
+        <v>-54.08837890625</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6800000071525574</v>
+        <v>4865988</v>
       </c>
       <c r="J83" t="n">
-        <v>96696.703125</v>
+        <v>96590.0859375</v>
       </c>
       <c r="K83" t="n">
-        <v>1.399999976158142</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
-        <v>3.037592649459839</v>
+        <v>4.359868049621582</v>
       </c>
       <c r="M83" t="n">
-        <v>-7.036931037902832</v>
+        <v>0.3281347453594208</v>
       </c>
       <c r="N83" t="n">
-        <v>9.807416915893555</v>
+        <v>5.013599395751953</v>
       </c>
     </row>
     <row r="84">
@@ -4439,11 +4441,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1701766800</v>
+        <v>1701853200</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4452,34 +4454,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.30000305175781</v>
+        <v>74.40000152587891</v>
       </c>
       <c r="F84" t="n">
-        <v>25.47552490234375</v>
+        <v>25.71038818359375</v>
       </c>
       <c r="G84" t="n">
-        <v>24.49453735351562</v>
+        <v>24.8182373046875</v>
       </c>
       <c r="H84" t="n">
-        <v>-48.11282348632812</v>
+        <v>-51.32899475097656</v>
       </c>
       <c r="I84" t="n">
-        <v>1.264000058174133</v>
+        <v>4673052.5</v>
       </c>
       <c r="J84" t="n">
-        <v>96705.2890625</v>
+        <v>96459.6171875</v>
       </c>
       <c r="K84" t="n">
-        <v>26.80000114440918</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
-        <v>3.801284074783325</v>
+        <v>4.025671482086182</v>
       </c>
       <c r="M84" t="n">
-        <v>-4.722028732299805</v>
+        <v>-0.9273754954338074</v>
       </c>
       <c r="N84" t="n">
-        <v>8.914948463439941</v>
+        <v>6.401270389556885</v>
       </c>
     </row>
     <row r="85">
@@ -4487,11 +4489,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1701777600</v>
+        <v>1701864000</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4500,34 +4502,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>75.20000457763672</v>
+        <v>78.40000152587891</v>
       </c>
       <c r="F85" t="n">
-        <v>24.39013671875</v>
+        <v>25.1534423828125</v>
       </c>
       <c r="G85" t="n">
-        <v>22.98587036132812</v>
+        <v>24.02203369140625</v>
       </c>
       <c r="H85" t="n">
-        <v>-59.14694213867188</v>
+        <v>-49.40126037597656</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6000000238418579</v>
+        <v>4739695</v>
       </c>
       <c r="J85" t="n">
-        <v>96883.6796875</v>
+        <v>96596.75</v>
       </c>
       <c r="K85" t="n">
-        <v>93.40000152587891</v>
+        <v>72.90000152587891</v>
       </c>
       <c r="L85" t="n">
-        <v>5.232143402099609</v>
+        <v>4.937251091003418</v>
       </c>
       <c r="M85" t="n">
-        <v>-5.716769695281982</v>
+        <v>-4.758819580078125</v>
       </c>
       <c r="N85" t="n">
-        <v>9.802098274230957</v>
+        <v>8.701452255249023</v>
       </c>
     </row>
     <row r="86">
@@ -4535,11 +4537,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1701788400</v>
+        <v>1701874800</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4548,34 +4550,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49.5</v>
+        <v>58.60000228881836</v>
       </c>
       <c r="F86" t="n">
-        <v>29.493408203125</v>
+        <v>29.30831909179688</v>
       </c>
       <c r="G86" t="n">
-        <v>27.020751953125</v>
+        <v>27.01943969726562</v>
       </c>
       <c r="H86" t="n">
-        <v>-37.59468078613281</v>
+        <v>-46.05064392089844</v>
       </c>
       <c r="I86" t="n">
-        <v>0.300000011920929</v>
+        <v>4769773.5</v>
       </c>
       <c r="J86" t="n">
-        <v>96921.9375</v>
+        <v>96713.6015625</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="L86" t="n">
-        <v>3.939741134643555</v>
+        <v>2.564003944396973</v>
       </c>
       <c r="M86" t="n">
-        <v>-6.128239631652832</v>
+        <v>-5.005668640136719</v>
       </c>
       <c r="N86" t="n">
-        <v>7.908638954162598</v>
+        <v>5.809455871582031</v>
       </c>
     </row>
     <row r="87">
@@ -4583,11 +4585,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1701799200</v>
+        <v>1701885600</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4596,34 +4598,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.89999961853027</v>
+        <v>43.29999923706055</v>
       </c>
       <c r="F87" t="n">
-        <v>35.41519165039062</v>
+        <v>33.28390502929688</v>
       </c>
       <c r="G87" t="n">
-        <v>31.94369506835938</v>
+        <v>30.94744873046875</v>
       </c>
       <c r="H87" t="n">
-        <v>-55.29827880859375</v>
+        <v>-44.48356628417969</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>4718486.5</v>
       </c>
       <c r="J87" t="n">
-        <v>96680.875</v>
+        <v>96496.8671875</v>
       </c>
       <c r="K87" t="n">
-        <v>44.40000152587891</v>
+        <v>58.29999923706055</v>
       </c>
       <c r="L87" t="n">
-        <v>4.866139888763428</v>
+        <v>0.8592821955680847</v>
       </c>
       <c r="M87" t="n">
-        <v>-4.713696002960205</v>
+        <v>-3.841630697250366</v>
       </c>
       <c r="N87" t="n">
-        <v>6.513257026672363</v>
+        <v>3.509417057037354</v>
       </c>
     </row>
     <row r="88">
@@ -4631,11 +4633,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1701810000</v>
+        <v>1701896400</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4644,34 +4646,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20.80000114440918</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="F88" t="n">
-        <v>37.73907470703125</v>
+        <v>34.48690795898438</v>
       </c>
       <c r="G88" t="n">
-        <v>35.30795288085938</v>
+        <v>32.65460205078125</v>
       </c>
       <c r="H88" t="n">
-        <v>-40.78799438476562</v>
+        <v>-41.05593872070312</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>4655184</v>
       </c>
       <c r="J88" t="n">
-        <v>96333.984375</v>
+        <v>96269.4765625</v>
       </c>
       <c r="K88" t="n">
-        <v>25.60000038146973</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="L88" t="n">
-        <v>1.988129854202271</v>
+        <v>2.289413928985596</v>
       </c>
       <c r="M88" t="n">
-        <v>-3.615261077880859</v>
+        <v>-1.162849068641663</v>
       </c>
       <c r="N88" t="n">
-        <v>6.100171089172363</v>
+        <v>2.807486057281494</v>
       </c>
     </row>
     <row r="89">
@@ -4679,11 +4681,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1701820800</v>
+        <v>1701907200</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4692,34 +4694,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.20000076293945</v>
+        <v>60</v>
       </c>
       <c r="F89" t="n">
-        <v>35.78939819335938</v>
+        <v>28.63720703125</v>
       </c>
       <c r="G89" t="n">
-        <v>36.09555053710938</v>
+        <v>28.40957641601562</v>
       </c>
       <c r="H89" t="n">
-        <v>-51.42999267578125</v>
+        <v>-34.77200317382812</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>4971103.5</v>
       </c>
       <c r="J89" t="n">
-        <v>96293.8984375</v>
+        <v>96333.6484375</v>
       </c>
       <c r="K89" t="n">
-        <v>98.20000457763672</v>
+        <v>96.20000457763672</v>
       </c>
       <c r="L89" t="n">
-        <v>3.236830949783325</v>
+        <v>-2.569375038146973</v>
       </c>
       <c r="M89" t="n">
-        <v>-3.006960391998291</v>
+        <v>0.05378417670726776</v>
       </c>
       <c r="N89" t="n">
-        <v>6.617744445800781</v>
+        <v>4.315742015838623</v>
       </c>
     </row>
     <row r="90">
@@ -4727,11 +4729,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1701831600</v>
+        <v>1701918000</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4740,34 +4742,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33</v>
+        <v>71.5</v>
       </c>
       <c r="F90" t="n">
-        <v>32.68496704101562</v>
+        <v>26.73831176757812</v>
       </c>
       <c r="G90" t="n">
-        <v>31.73873901367188</v>
+        <v>25.53436279296875</v>
       </c>
       <c r="H90" t="n">
-        <v>-52.29594421386719</v>
+        <v>-63.36065673828125</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>4946312</v>
       </c>
       <c r="J90" t="n">
-        <v>96576.6796875</v>
+        <v>96549.9921875</v>
       </c>
       <c r="K90" t="n">
-        <v>37.79999923706055</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
-        <v>6.701074123382568</v>
+        <v>6.172656059265137</v>
       </c>
       <c r="M90" t="n">
-        <v>-8.731501579284668</v>
+        <v>2.66607666015625</v>
       </c>
       <c r="N90" t="n">
-        <v>12.60101222991943</v>
+        <v>8.000933647155762</v>
       </c>
     </row>
     <row r="91">
@@ -4775,11 +4777,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1701842400</v>
+        <v>1701928800</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4788,34 +4790,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.20000076293945</v>
+        <v>67.30000305175781</v>
       </c>
       <c r="F91" t="n">
-        <v>27.48556518554688</v>
+        <v>27.67709350585938</v>
       </c>
       <c r="G91" t="n">
-        <v>26.51248168945312</v>
+        <v>26.83914184570312</v>
       </c>
       <c r="H91" t="n">
-        <v>-53.29164123535156</v>
+        <v>-64.97039794921875</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>5135833.5</v>
       </c>
       <c r="J91" t="n">
-        <v>96595.9609375</v>
+        <v>96536.1875</v>
       </c>
       <c r="K91" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
-        <v>6.134040355682373</v>
+        <v>2.533796310424805</v>
       </c>
       <c r="M91" t="n">
-        <v>-7.93456506729126</v>
+        <v>-3.597346067428589</v>
       </c>
       <c r="N91" t="n">
-        <v>14.21289825439453</v>
+        <v>6.414628028869629</v>
       </c>
     </row>
     <row r="92">
@@ -4823,11 +4825,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1701853200</v>
+        <v>1701939600</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4836,34 +4838,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>67.90000152587891</v>
+        <v>70.09999847412109</v>
       </c>
       <c r="F92" t="n">
-        <v>25.20343017578125</v>
+        <v>26.88037109375</v>
       </c>
       <c r="G92" t="n">
-        <v>24.12042236328125</v>
+        <v>25.93502807617188</v>
       </c>
       <c r="H92" t="n">
-        <v>-51.51994323730469</v>
+        <v>-66.55853271484375</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>5082599</v>
       </c>
       <c r="J92" t="n">
-        <v>96694.9921875</v>
+        <v>96451.875</v>
       </c>
       <c r="K92" t="n">
-        <v>99.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>2.453056573867798</v>
+        <v>1.096977472305298</v>
       </c>
       <c r="M92" t="n">
-        <v>-5.49111795425415</v>
+        <v>-3.787265539169312</v>
       </c>
       <c r="N92" t="n">
-        <v>8.810144424438477</v>
+        <v>4.510074138641357</v>
       </c>
     </row>
     <row r="93">
@@ -4871,11 +4873,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1701864000</v>
+        <v>1701950400</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4884,34 +4886,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>76.40000152587891</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="F93" t="n">
-        <v>23.93576049804688</v>
+        <v>25.534423828125</v>
       </c>
       <c r="G93" t="n">
-        <v>22.59588623046875</v>
+        <v>24.44281005859375</v>
       </c>
       <c r="H93" t="n">
-        <v>-51.73228454589844</v>
+        <v>-66.52984619140625</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>5033571</v>
       </c>
       <c r="J93" t="n">
-        <v>96846.2578125</v>
+        <v>96625.125</v>
       </c>
       <c r="K93" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
-        <v>4.037018775939941</v>
+        <v>2.388703584671021</v>
       </c>
       <c r="M93" t="n">
-        <v>-4.302145957946777</v>
+        <v>-4.352736949920654</v>
       </c>
       <c r="N93" t="n">
-        <v>7.412097454071045</v>
+        <v>6.300043106079102</v>
       </c>
     </row>
     <row r="94">
@@ -4919,11 +4921,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1701874800</v>
+        <v>1701961200</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4932,34 +4934,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>51.20000076293945</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="F94" t="n">
-        <v>28.59933471679688</v>
+        <v>27.33090209960938</v>
       </c>
       <c r="G94" t="n">
-        <v>25.7481689453125</v>
+        <v>25.73928833007812</v>
       </c>
       <c r="H94" t="n">
-        <v>-53.12106323242188</v>
+        <v>-66.62957763671875</v>
       </c>
       <c r="I94" t="n">
-        <v>0.07999999821186066</v>
+        <v>4986083</v>
       </c>
       <c r="J94" t="n">
-        <v>96899.5625</v>
+        <v>96713.5</v>
       </c>
       <c r="K94" t="n">
-        <v>7.700000286102295</v>
+        <v>99.5</v>
       </c>
       <c r="L94" t="n">
-        <v>4.666396617889404</v>
+        <v>1.069958448410034</v>
       </c>
       <c r="M94" t="n">
-        <v>-5.115632057189941</v>
+        <v>-4.607985973358154</v>
       </c>
       <c r="N94" t="n">
-        <v>7.599999904632568</v>
+        <v>5.701025485992432</v>
       </c>
     </row>
     <row r="95">
@@ -4967,11 +4969,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1701885600</v>
+        <v>1701972000</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4980,34 +4982,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.5</v>
+        <v>49.29999923706055</v>
       </c>
       <c r="F95" t="n">
-        <v>34.71450805664062</v>
+        <v>31.67263793945312</v>
       </c>
       <c r="G95" t="n">
-        <v>31.41424560546875</v>
+        <v>29.5137939453125</v>
       </c>
       <c r="H95" t="n">
-        <v>-51.90240478515625</v>
+        <v>-65.563232421875</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>5003426</v>
       </c>
       <c r="J95" t="n">
-        <v>96616.4140625</v>
+        <v>96497.5</v>
       </c>
       <c r="K95" t="n">
-        <v>1.800000071525574</v>
+        <v>80.20000457763672</v>
       </c>
       <c r="L95" t="n">
-        <v>3.426337718963623</v>
+        <v>-2.757553577423096</v>
       </c>
       <c r="M95" t="n">
-        <v>-4.354911804199219</v>
+        <v>-2.038098096847534</v>
       </c>
       <c r="N95" t="n">
-        <v>6.609591007232666</v>
+        <v>4.330674648284912</v>
       </c>
     </row>
     <row r="96">
@@ -5015,11 +5017,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1701896400</v>
+        <v>1701982800</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5028,34 +5030,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.80000114440918</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="F96" t="n">
-        <v>37.16250610351562</v>
+        <v>32.23931884765625</v>
       </c>
       <c r="G96" t="n">
-        <v>34.62832641601562</v>
+        <v>30.60665893554688</v>
       </c>
       <c r="H96" t="n">
-        <v>-49.7886962890625</v>
+        <v>-59.41850280761719</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>4924515</v>
       </c>
       <c r="J96" t="n">
-        <v>96292.1328125</v>
+        <v>96260.328125</v>
       </c>
       <c r="K96" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
-        <v>1.283974528312683</v>
+        <v>1.061591744422913</v>
       </c>
       <c r="M96" t="n">
-        <v>-3.663731575012207</v>
+        <v>-3.30535888671875</v>
       </c>
       <c r="N96" t="n">
-        <v>5.910295009613037</v>
+        <v>3.907262563705444</v>
       </c>
     </row>
     <row r="97">
@@ -5063,11 +5065,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1701907200</v>
+        <v>1701993600</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5076,34 +5078,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.10000038146973</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="F97" t="n">
-        <v>35.50970458984375</v>
+        <v>31.63973999023438</v>
       </c>
       <c r="G97" t="n">
-        <v>34.72601318359375</v>
+        <v>31.12240600585938</v>
       </c>
       <c r="H97" t="n">
-        <v>-46.53445434570312</v>
+        <v>-39.11213684082031</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>4710311.5</v>
       </c>
       <c r="J97" t="n">
-        <v>96321.765625</v>
+        <v>96284.5859375</v>
       </c>
       <c r="K97" t="n">
-        <v>100</v>
+        <v>71.70000457763672</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3456762731075287</v>
+        <v>-1.486474633216858</v>
       </c>
       <c r="M97" t="n">
-        <v>-4.201694011688232</v>
+        <v>-2.850231885910034</v>
       </c>
       <c r="N97" t="n">
-        <v>6.113319396972656</v>
+        <v>4.402544975280762</v>
       </c>
     </row>
     <row r="98">
@@ -5111,11 +5113,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1701918000</v>
+        <v>1702004400</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5124,34 +5126,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.70000076293945</v>
+        <v>66.70000457763672</v>
       </c>
       <c r="F98" t="n">
-        <v>33.01150512695312</v>
+        <v>27.7039794921875</v>
       </c>
       <c r="G98" t="n">
-        <v>32.0218505859375</v>
+        <v>26.99212646484375</v>
       </c>
       <c r="H98" t="n">
-        <v>-55.139404296875</v>
+        <v>-38.23486328125</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>4713803.5</v>
       </c>
       <c r="J98" t="n">
-        <v>96547.203125</v>
+        <v>96462.03125</v>
       </c>
       <c r="K98" t="n">
-        <v>84.5</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
-        <v>1.590278267860413</v>
+        <v>1.76058828830719</v>
       </c>
       <c r="M98" t="n">
-        <v>-8.698342323303223</v>
+        <v>-3.532888174057007</v>
       </c>
       <c r="N98" t="n">
-        <v>10.60001373291016</v>
+        <v>8.400400161743164</v>
       </c>
     </row>
     <row r="99">
@@ -5159,11 +5161,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1701928800</v>
+        <v>1702015200</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5172,34 +5174,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>61.60000228881836</v>
+        <v>70.80000305175781</v>
       </c>
       <c r="F99" t="n">
-        <v>26.93301391601562</v>
+        <v>26.72293090820312</v>
       </c>
       <c r="G99" t="n">
-        <v>25.858154296875</v>
+        <v>25.8333740234375</v>
       </c>
       <c r="H99" t="n">
-        <v>-64.07278442382812</v>
+        <v>-40.74531555175781</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5039307.5</v>
       </c>
       <c r="J99" t="n">
-        <v>96621.25</v>
+        <v>96528.09375</v>
       </c>
       <c r="K99" t="n">
-        <v>10.90000057220459</v>
+        <v>87.70000457763672</v>
       </c>
       <c r="L99" t="n">
-        <v>6.328635215759277</v>
+        <v>-0.9746337532997131</v>
       </c>
       <c r="M99" t="n">
-        <v>-7.142880916595459</v>
+        <v>-4.426897048950195</v>
       </c>
       <c r="N99" t="n">
-        <v>12.90259265899658</v>
+        <v>7.206521511077881</v>
       </c>
     </row>
     <row r="100">
@@ -5207,11 +5209,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1701939600</v>
+        <v>1702026000</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5220,34 +5222,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>69.20000457763672</v>
+        <v>78.20000457763672</v>
       </c>
       <c r="F100" t="n">
-        <v>24.9625244140625</v>
+        <v>25.38714599609375</v>
       </c>
       <c r="G100" t="n">
-        <v>23.95236206054688</v>
+        <v>24.817626953125</v>
       </c>
       <c r="H100" t="n">
-        <v>-63.21978759765625</v>
+        <v>-42.07565307617188</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>5076032</v>
       </c>
       <c r="J100" t="n">
-        <v>96684.625</v>
+        <v>96505.3984375</v>
       </c>
       <c r="K100" t="n">
-        <v>91.30000305175781</v>
+        <v>96</v>
       </c>
       <c r="L100" t="n">
-        <v>2.209948778152466</v>
+        <v>1.434348106384277</v>
       </c>
       <c r="M100" t="n">
-        <v>-6.34661865234375</v>
+        <v>-3.401340246200562</v>
       </c>
       <c r="N100" t="n">
-        <v>10.50535583496094</v>
+        <v>5.905551433563232</v>
       </c>
     </row>
     <row r="101">
@@ -5255,11 +5257,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1701950400</v>
+        <v>1702036800</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5268,34 +5270,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>76.20000457763672</v>
+        <v>87.90000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>24.02169799804688</v>
+        <v>23.61175537109375</v>
       </c>
       <c r="G101" t="n">
-        <v>22.71051025390625</v>
+        <v>22.44534301757812</v>
       </c>
       <c r="H101" t="n">
-        <v>-64.34803771972656</v>
+        <v>-58.38104248046875</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>5100495.5</v>
       </c>
       <c r="J101" t="n">
-        <v>96859.359375</v>
+        <v>96706.6796875</v>
       </c>
       <c r="K101" t="n">
-        <v>60.10000228881836</v>
+        <v>66.5</v>
       </c>
       <c r="L101" t="n">
-        <v>4.314409255981445</v>
+        <v>3.995871543884277</v>
       </c>
       <c r="M101" t="n">
-        <v>-5.090527057647705</v>
+        <v>-3.841286420822144</v>
       </c>
       <c r="N101" t="n">
-        <v>9.713961601257324</v>
+        <v>6.803576946258545</v>
       </c>
     </row>
     <row r="102">
@@ -5303,11 +5305,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1701961200</v>
+        <v>1702047600</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5316,34 +5318,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>48.10000228881836</v>
+        <v>72.09999847412109</v>
       </c>
       <c r="F102" t="n">
-        <v>30.021240234375</v>
+        <v>26.73556518554688</v>
       </c>
       <c r="G102" t="n">
-        <v>27.08349609375</v>
+        <v>24.82803344726562</v>
       </c>
       <c r="H102" t="n">
-        <v>-61.86264038085938</v>
+        <v>-64.80613708496094</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>5139638.5</v>
       </c>
       <c r="J102" t="n">
-        <v>96949.5234375</v>
+        <v>96813.5234375</v>
       </c>
       <c r="K102" t="n">
-        <v>74.70000457763672</v>
+        <v>87</v>
       </c>
       <c r="L102" t="n">
-        <v>2.201174259185791</v>
+        <v>2.244218587875366</v>
       </c>
       <c r="M102" t="n">
-        <v>-6.449379920959473</v>
+        <v>-4.088505744934082</v>
       </c>
       <c r="N102" t="n">
-        <v>7.100508213043213</v>
+        <v>4.421430110931396</v>
       </c>
     </row>
     <row r="103">
@@ -5351,11 +5353,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1701972000</v>
+        <v>1702058400</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5364,34 +5366,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.90000152587891</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="F103" t="n">
-        <v>34.677490234375</v>
+        <v>30.59518432617188</v>
       </c>
       <c r="G103" t="n">
-        <v>31.57644653320312</v>
+        <v>28.37030029296875</v>
       </c>
       <c r="H103" t="n">
-        <v>-60.93861389160156</v>
+        <v>-75.68367004394531</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>4890725.5</v>
       </c>
       <c r="J103" t="n">
-        <v>96696.5390625</v>
+        <v>96580.609375</v>
       </c>
       <c r="K103" t="n">
-        <v>100</v>
+        <v>38.60000228881836</v>
       </c>
       <c r="L103" t="n">
-        <v>1.017480492591858</v>
+        <v>0.6813647150993347</v>
       </c>
       <c r="M103" t="n">
-        <v>-5.111049652099609</v>
+        <v>-3.385981321334839</v>
       </c>
       <c r="N103" t="n">
-        <v>4.907114505767822</v>
+        <v>3.715650320053101</v>
       </c>
     </row>
     <row r="104">
@@ -5399,11 +5401,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1701982800</v>
+        <v>1702069200</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5412,34 +5414,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.10000038146973</v>
+        <v>49.90000152587891</v>
       </c>
       <c r="F104" t="n">
-        <v>35.93655395507812</v>
+        <v>31.73141479492188</v>
       </c>
       <c r="G104" t="n">
-        <v>33.73153686523438</v>
+        <v>30.12246704101562</v>
       </c>
       <c r="H104" t="n">
-        <v>-57.15411376953125</v>
+        <v>-46.69677734375</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>5052922</v>
       </c>
       <c r="J104" t="n">
-        <v>96412.6953125</v>
+        <v>96350.6875</v>
       </c>
       <c r="K104" t="n">
-        <v>100</v>
+        <v>89.20000457763672</v>
       </c>
       <c r="L104" t="n">
-        <v>4.641952991485596</v>
+        <v>-0.3282934427261353</v>
       </c>
       <c r="M104" t="n">
-        <v>-6.030495643615723</v>
+        <v>-4.549350261688232</v>
       </c>
       <c r="N104" t="n">
-        <v>5.104428291320801</v>
+        <v>4.304428100585938</v>
       </c>
     </row>
     <row r="105">
@@ -5447,11 +5449,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1701993600</v>
+        <v>1702080000</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5460,34 +5462,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.60000038146973</v>
+        <v>64.80000305175781</v>
       </c>
       <c r="F105" t="n">
-        <v>33.30960083007812</v>
+        <v>28.4564208984375</v>
       </c>
       <c r="G105" t="n">
-        <v>32.94842529296875</v>
+        <v>27.50021362304688</v>
       </c>
       <c r="H105" t="n">
-        <v>-55.80183410644531</v>
+        <v>-75.38072204589844</v>
       </c>
       <c r="I105" t="n">
-        <v>0.07999999821186066</v>
+        <v>5127604.5</v>
       </c>
       <c r="J105" t="n">
-        <v>96473.6171875</v>
+        <v>96423.140625</v>
       </c>
       <c r="K105" t="n">
-        <v>61.5</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
-        <v>1.686076641082764</v>
+        <v>-3.935527324676514</v>
       </c>
       <c r="M105" t="n">
-        <v>-5.497353553771973</v>
+        <v>-1.710976481437683</v>
       </c>
       <c r="N105" t="n">
-        <v>8.115931510925293</v>
+        <v>5.500116348266602</v>
       </c>
     </row>
     <row r="106">
@@ -5495,11 +5497,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1702004400</v>
+        <v>1702090800</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5508,34 +5510,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.20000076293945</v>
+        <v>81.09999847412109</v>
       </c>
       <c r="F106" t="n">
-        <v>30.14486694335938</v>
+        <v>25.48193359375</v>
       </c>
       <c r="G106" t="n">
-        <v>29.591064453125</v>
+        <v>24.40936279296875</v>
       </c>
       <c r="H106" t="n">
-        <v>-56.75347900390625</v>
+        <v>-74.69731140136719</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03999999910593033</v>
+        <v>5549815.5</v>
       </c>
       <c r="J106" t="n">
-        <v>96651.8671875</v>
+        <v>96679.1875</v>
       </c>
       <c r="K106" t="n">
-        <v>38.90000152587891</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L106" t="n">
-        <v>1.643022418022156</v>
+        <v>-3.44158935546875</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.676242351531982</v>
+        <v>3.316442728042603</v>
       </c>
       <c r="N106" t="n">
-        <v>11.5070333480835</v>
+        <v>5.904556274414062</v>
       </c>
     </row>
     <row r="107">
@@ -5543,11 +5545,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1702015200</v>
+        <v>1702101600</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5556,34 +5558,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>53.40000152587891</v>
+        <v>81.5</v>
       </c>
       <c r="F107" t="n">
-        <v>28.10452270507812</v>
+        <v>25.1187744140625</v>
       </c>
       <c r="G107" t="n">
-        <v>27.30859375</v>
+        <v>24.10504150390625</v>
       </c>
       <c r="H107" t="n">
-        <v>-56.78199768066406</v>
+        <v>-73.07383728027344</v>
       </c>
       <c r="I107" t="n">
-        <v>4.920000076293945</v>
+        <v>5205739</v>
       </c>
       <c r="J107" t="n">
-        <v>96699.515625</v>
+        <v>96597.953125</v>
       </c>
       <c r="K107" t="n">
-        <v>98.09999847412109</v>
+        <v>98.20000457763672</v>
       </c>
       <c r="L107" t="n">
-        <v>2.436059474945068</v>
+        <v>-1.203991651535034</v>
       </c>
       <c r="M107" t="n">
-        <v>-7.994462490081787</v>
+        <v>4.164514064788818</v>
       </c>
       <c r="N107" t="n">
-        <v>11.60000038146973</v>
+        <v>4.803626537322998</v>
       </c>
     </row>
     <row r="108">
@@ -5591,11 +5593,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1702026000</v>
+        <v>1702112400</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5604,34 +5606,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>74.09999847412109</v>
+        <v>84</v>
       </c>
       <c r="F108" t="n">
-        <v>24.17678833007812</v>
+        <v>24.3875732421875</v>
       </c>
       <c r="G108" t="n">
-        <v>23.16342163085938</v>
+        <v>23.36318969726562</v>
       </c>
       <c r="H108" t="n">
-        <v>-46.890869140625</v>
+        <v>-71.09457397460938</v>
       </c>
       <c r="I108" t="n">
-        <v>12.23999977111816</v>
+        <v>5027136</v>
       </c>
       <c r="J108" t="n">
-        <v>96714.7109375</v>
+        <v>96464.1171875</v>
       </c>
       <c r="K108" t="n">
-        <v>52</v>
+        <v>90.90000152587891</v>
       </c>
       <c r="L108" t="n">
-        <v>3.98138427734375</v>
+        <v>2.94952130317688</v>
       </c>
       <c r="M108" t="n">
-        <v>-5.361088752746582</v>
+        <v>1.945649385452271</v>
       </c>
       <c r="N108" t="n">
-        <v>10.69999980926514</v>
+        <v>3.808074951171875</v>
       </c>
     </row>
     <row r="109">
@@ -5639,11 +5641,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1702036800</v>
+        <v>1702123200</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5652,34 +5654,34 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>78.09999847412109</v>
+        <v>84.40000152587891</v>
       </c>
       <c r="F109" t="n">
-        <v>23.6783447265625</v>
+        <v>24.36932373046875</v>
       </c>
       <c r="G109" t="n">
-        <v>22.462890625</v>
+        <v>24.04287719726562</v>
       </c>
       <c r="H109" t="n">
-        <v>-47.32672119140625</v>
+        <v>-66.48789978027344</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1200000047683716</v>
+        <v>5044010</v>
       </c>
       <c r="J109" t="n">
-        <v>96888.0546875</v>
+        <v>96653.859375</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L109" t="n">
-        <v>4.685522556304932</v>
+        <v>2.854538440704346</v>
       </c>
       <c r="M109" t="n">
-        <v>-4.169870376586914</v>
+        <v>0.3786645531654358</v>
       </c>
       <c r="N109" t="n">
-        <v>9.817944526672363</v>
+        <v>4.700253963470459</v>
       </c>
     </row>
     <row r="110">
@@ -5687,11 +5689,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1702047600</v>
+        <v>1702134000</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5700,34 +5702,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>52.90000152587891</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="F110" t="n">
-        <v>29.65756225585938</v>
+        <v>26.93338012695312</v>
       </c>
       <c r="G110" t="n">
-        <v>26.88525390625</v>
+        <v>25.12930297851562</v>
       </c>
       <c r="H110" t="n">
-        <v>-48.45930480957031</v>
+        <v>-70.329345703125</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1280000060796738</v>
+        <v>5149568.5</v>
       </c>
       <c r="J110" t="n">
-        <v>96962.140625</v>
+        <v>96779.875</v>
       </c>
       <c r="K110" t="n">
-        <v>67.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L110" t="n">
-        <v>1.388969659805298</v>
+        <v>3.624736309051514</v>
       </c>
       <c r="M110" t="n">
-        <v>-6.178203105926514</v>
+        <v>-3.681296348571777</v>
       </c>
       <c r="N110" t="n">
-        <v>7</v>
+        <v>5.627057552337646</v>
       </c>
     </row>
     <row r="111">
@@ -5735,11 +5737,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1702058400</v>
+        <v>1702144800</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5748,34 +5750,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.40000152587891</v>
+        <v>55</v>
       </c>
       <c r="F111" t="n">
-        <v>34.46185302734375</v>
+        <v>30.62969970703125</v>
       </c>
       <c r="G111" t="n">
-        <v>31.31903076171875</v>
+        <v>28.68203735351562</v>
       </c>
       <c r="H111" t="n">
-        <v>-60.40028381347656</v>
+        <v>-59.19105529785156</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1200000047683716</v>
+        <v>4958115.5</v>
       </c>
       <c r="J111" t="n">
-        <v>96702.8359375</v>
+        <v>96570.03125</v>
       </c>
       <c r="K111" t="n">
-        <v>99.90000152587891</v>
+        <v>90.5</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.8164648413658142</v>
+        <v>0.9660839438438416</v>
       </c>
       <c r="M111" t="n">
-        <v>-6.15640115737915</v>
+        <v>-2.711071729660034</v>
       </c>
       <c r="N111" t="n">
-        <v>5.606213569641113</v>
+        <v>3.014198303222656</v>
       </c>
     </row>
     <row r="112">
@@ -5783,11 +5785,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1702069200</v>
+        <v>1702155600</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5796,34 +5798,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.40000152587891</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="F112" t="n">
-        <v>30.1273193359375</v>
+        <v>30.82171630859375</v>
       </c>
       <c r="G112" t="n">
-        <v>29.80502319335938</v>
+        <v>29.52557373046875</v>
       </c>
       <c r="H112" t="n">
-        <v>-59.50111389160156</v>
+        <v>-50.61309814453125</v>
       </c>
       <c r="I112" t="n">
-        <v>8.880000114440918</v>
+        <v>5103054.5</v>
       </c>
       <c r="J112" t="n">
-        <v>96540.0625</v>
+        <v>96398.6484375</v>
       </c>
       <c r="K112" t="n">
-        <v>99.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
-        <v>-1.208393573760986</v>
+        <v>-0.03713134676218033</v>
       </c>
       <c r="M112" t="n">
-        <v>-1.229028344154358</v>
+        <v>-2.92217755317688</v>
       </c>
       <c r="N112" t="n">
-        <v>3.515415668487549</v>
+        <v>2.913665771484375</v>
       </c>
     </row>
     <row r="113">
@@ -5831,11 +5833,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1702080000</v>
+        <v>1702166400</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5844,34 +5846,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>60.70000076293945</v>
+        <v>58.10000228881836</v>
       </c>
       <c r="F113" t="n">
-        <v>28.08779907226562</v>
+        <v>30.22787475585938</v>
       </c>
       <c r="G113" t="n">
-        <v>27.36856079101562</v>
+        <v>29.46609497070312</v>
       </c>
       <c r="H113" t="n">
-        <v>-62.10528564453125</v>
+        <v>-67.5679931640625</v>
       </c>
       <c r="I113" t="n">
-        <v>4.360000133514404</v>
+        <v>5111089</v>
       </c>
       <c r="J113" t="n">
-        <v>96629.34375</v>
+        <v>96459.71875</v>
       </c>
       <c r="K113" t="n">
-        <v>25.60000038146973</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
-        <v>-5.500546932220459</v>
+        <v>-2.4276123046875</v>
       </c>
       <c r="M113" t="n">
-        <v>-5.068437576293945</v>
+        <v>-1.069811940193176</v>
       </c>
       <c r="N113" t="n">
-        <v>10.00156211853027</v>
+        <v>3.301628589630127</v>
       </c>
     </row>
     <row r="114">
@@ -5879,11 +5881,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1702090800</v>
+        <v>1702177200</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5892,34 +5894,34 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>67.40000152587891</v>
+        <v>63.5</v>
       </c>
       <c r="F114" t="n">
-        <v>25.39669799804688</v>
+        <v>29.28411865234375</v>
       </c>
       <c r="G114" t="n">
-        <v>24.62533569335938</v>
+        <v>28.63934326171875</v>
       </c>
       <c r="H114" t="n">
-        <v>-64.95793151855469</v>
+        <v>-66.72743225097656</v>
       </c>
       <c r="I114" t="n">
-        <v>2.380000114440918</v>
+        <v>4865744.5</v>
       </c>
       <c r="J114" t="n">
-        <v>96808.3046875</v>
+        <v>96604.5546875</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2000000029802322</v>
+        <v>99</v>
       </c>
       <c r="L114" t="n">
-        <v>-2.466286659240723</v>
+        <v>1.335248947143555</v>
       </c>
       <c r="M114" t="n">
-        <v>-4.4688401222229</v>
+        <v>0.4669384658336639</v>
       </c>
       <c r="N114" t="n">
-        <v>9.900703430175781</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="115">
@@ -5927,11 +5929,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1702101600</v>
+        <v>1702188000</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5940,34 +5942,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>72</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="F115" t="n">
-        <v>24.75628662109375</v>
+        <v>26.8673095703125</v>
       </c>
       <c r="G115" t="n">
-        <v>24.15875244140625</v>
+        <v>27.09640502929688</v>
       </c>
       <c r="H115" t="n">
-        <v>-64.63591003417969</v>
+        <v>-69.63557434082031</v>
       </c>
       <c r="I115" t="n">
-        <v>1.159999966621399</v>
+        <v>5093041.5</v>
       </c>
       <c r="J115" t="n">
-        <v>96745.6640625</v>
+        <v>96594.46875</v>
       </c>
       <c r="K115" t="n">
-        <v>96.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
-        <v>1.441213369369507</v>
+        <v>3.816230297088623</v>
       </c>
       <c r="M115" t="n">
-        <v>-1.999162554740906</v>
+        <v>-2.997478008270264</v>
       </c>
       <c r="N115" t="n">
-        <v>3.406494140625</v>
+        <v>7.100789070129395</v>
       </c>
     </row>
     <row r="116">
@@ -5975,11 +5977,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1702112400</v>
+        <v>1702198800</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5988,34 +5990,34 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>78.09999847412109</v>
+        <v>83.5</v>
       </c>
       <c r="F116" t="n">
-        <v>23.95953369140625</v>
+        <v>24.91238403320312</v>
       </c>
       <c r="G116" t="n">
-        <v>23.25588989257812</v>
+        <v>24.06570434570312</v>
       </c>
       <c r="H116" t="n">
-        <v>-43.15074157714844</v>
+        <v>-72.001708984375</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5759999752044678</v>
+        <v>5065765.5</v>
       </c>
       <c r="J116" t="n">
-        <v>96670.9609375</v>
+        <v>96531.40625</v>
       </c>
       <c r="K116" t="n">
-        <v>98.40000152587891</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
-        <v>2.885148763656616</v>
+        <v>3.036540508270264</v>
       </c>
       <c r="M116" t="n">
-        <v>-3.629289388656616</v>
+        <v>-3.818925619125366</v>
       </c>
       <c r="N116" t="n">
-        <v>7.709227085113525</v>
+        <v>7.301127910614014</v>
       </c>
     </row>
     <row r="117">
@@ -6023,11 +6025,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1702123200</v>
+        <v>1702209600</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6036,34 +6038,34 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.30000305175781</v>
+        <v>84.5</v>
       </c>
       <c r="F117" t="n">
-        <v>23.86566162109375</v>
+        <v>24.6810302734375</v>
       </c>
       <c r="G117" t="n">
-        <v>22.7940673828125</v>
+        <v>23.62319946289062</v>
       </c>
       <c r="H117" t="n">
-        <v>-43.84748840332031</v>
+        <v>-70.16435241699219</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>5106411.5</v>
       </c>
       <c r="J117" t="n">
-        <v>96802.375</v>
+        <v>96691.3046875</v>
       </c>
       <c r="K117" t="n">
-        <v>3.100000143051147</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="L117" t="n">
-        <v>2.633129835128784</v>
+        <v>2.526230335235596</v>
       </c>
       <c r="M117" t="n">
-        <v>-3.902602434158325</v>
+        <v>-4.973881721496582</v>
       </c>
       <c r="N117" t="n">
-        <v>7.206775188446045</v>
+        <v>7.726733684539795</v>
       </c>
     </row>
     <row r="118">
@@ -6071,11 +6073,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1702134000</v>
+        <v>1702220400</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6084,34 +6086,34 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.60000228881836</v>
+        <v>66.09999847412109</v>
       </c>
       <c r="F118" t="n">
-        <v>29.388671875</v>
+        <v>28.34408569335938</v>
       </c>
       <c r="G118" t="n">
-        <v>26.73858642578125</v>
+        <v>26.2398681640625</v>
       </c>
       <c r="H118" t="n">
-        <v>-33.80050659179688</v>
+        <v>-63.57902526855469</v>
       </c>
       <c r="I118" t="n">
-        <v>0.01999999955296516</v>
+        <v>5006177</v>
       </c>
       <c r="J118" t="n">
-        <v>96904.65625</v>
+        <v>96782.984375</v>
       </c>
       <c r="K118" t="n">
-        <v>26.60000038146973</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
-        <v>1.637409687042236</v>
+        <v>2.056276798248291</v>
       </c>
       <c r="M118" t="n">
-        <v>-5.305947303771973</v>
+        <v>-5.853032112121582</v>
       </c>
       <c r="N118" t="n">
-        <v>5.801016330718994</v>
+        <v>6.513476848602295</v>
       </c>
     </row>
     <row r="119">
@@ -6119,11 +6121,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1702144800</v>
+        <v>1702231200</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6132,34 +6134,34 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.79999923706055</v>
+        <v>50</v>
       </c>
       <c r="F119" t="n">
-        <v>34.08279418945312</v>
+        <v>32.21044921875</v>
       </c>
       <c r="G119" t="n">
-        <v>31.22607421875</v>
+        <v>29.66830444335938</v>
       </c>
       <c r="H119" t="n">
-        <v>-29.95587158203125</v>
+        <v>-61.182373046875</v>
       </c>
       <c r="I119" t="n">
-        <v>0.03999999910593033</v>
+        <v>4910516</v>
       </c>
       <c r="J119" t="n">
-        <v>96630.7734375</v>
+        <v>96577.9921875</v>
       </c>
       <c r="K119" t="n">
-        <v>62.29999923706055</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="L119" t="n">
-        <v>0.628063976764679</v>
+        <v>0.4538256824016571</v>
       </c>
       <c r="M119" t="n">
-        <v>-4.304116249084473</v>
+        <v>-5.853200435638428</v>
       </c>
       <c r="N119" t="n">
-        <v>4.106731414794922</v>
+        <v>5.613492488861084</v>
       </c>
     </row>
     <row r="120">
@@ -6167,11 +6169,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1702155600</v>
+        <v>1702242000</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6180,34 +6182,34 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.30000114440918</v>
+        <v>47.79999923706055</v>
       </c>
       <c r="F120" t="n">
-        <v>36.03408813476562</v>
+        <v>32.26174926757812</v>
       </c>
       <c r="G120" t="n">
-        <v>33.85818481445312</v>
+        <v>30.60791015625</v>
       </c>
       <c r="H120" t="n">
-        <v>-27.278076171875</v>
+        <v>-61.13459777832031</v>
       </c>
       <c r="I120" t="n">
-        <v>0.01999999955296516</v>
+        <v>4855105</v>
       </c>
       <c r="J120" t="n">
-        <v>96280.3125</v>
+        <v>96301.015625</v>
       </c>
       <c r="K120" t="n">
-        <v>99.59999847412109</v>
+        <v>98.80000305175781</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0643017590045929</v>
+        <v>0.1653735339641571</v>
       </c>
       <c r="M120" t="n">
-        <v>-4.000666618347168</v>
+        <v>-4.614223480224609</v>
       </c>
       <c r="N120" t="n">
-        <v>3.710102796554565</v>
+        <v>5.003049850463867</v>
       </c>
     </row>
     <row r="121">
@@ -6215,11 +6217,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1702166400</v>
+        <v>1702252800</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6228,34 +6230,34 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.29999923706055</v>
+        <v>51.60000228881836</v>
       </c>
       <c r="F121" t="n">
-        <v>33.42831420898438</v>
+        <v>31.30023193359375</v>
       </c>
       <c r="G121" t="n">
-        <v>32.5885009765625</v>
+        <v>30.6546630859375</v>
       </c>
       <c r="H121" t="n">
-        <v>-41.24501037597656</v>
+        <v>-61.078125</v>
       </c>
       <c r="I121" t="n">
-        <v>2.039999961853027</v>
+        <v>4796070</v>
       </c>
       <c r="J121" t="n">
-        <v>96340.171875</v>
+        <v>96327.390625</v>
       </c>
       <c r="K121" t="n">
-        <v>41.5</v>
+        <v>81.59999847412109</v>
       </c>
       <c r="L121" t="n">
-        <v>-3.28674054145813</v>
+        <v>-0.4233666956424713</v>
       </c>
       <c r="M121" t="n">
-        <v>-1.918012619018555</v>
+        <v>-1.746945738792419</v>
       </c>
       <c r="N121" t="n">
-        <v>5.108603000640869</v>
+        <v>2.200122117996216</v>
       </c>
     </row>
     <row r="122">
@@ -6263,11 +6265,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1702177200</v>
+        <v>1702263600</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6276,34 +6278,34 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>51.60000228881836</v>
+        <v>55.60000228881836</v>
       </c>
       <c r="F122" t="n">
-        <v>29.03189086914062</v>
+        <v>30.67242431640625</v>
       </c>
       <c r="G122" t="n">
-        <v>28.11700439453125</v>
+        <v>30.08172607421875</v>
       </c>
       <c r="H122" t="n">
-        <v>-36.38093566894531</v>
+        <v>-62.14157104492188</v>
       </c>
       <c r="I122" t="n">
-        <v>5.159999847412109</v>
+        <v>4914876.5</v>
       </c>
       <c r="J122" t="n">
-        <v>96616.109375</v>
+        <v>96477.8984375</v>
       </c>
       <c r="K122" t="n">
         <v>100</v>
       </c>
       <c r="L122" t="n">
-        <v>5.415878772735596</v>
+        <v>-1.407172799110413</v>
       </c>
       <c r="M122" t="n">
-        <v>-1.462436437606812</v>
+        <v>-1.94618034362793</v>
       </c>
       <c r="N122" t="n">
-        <v>8.217697143554688</v>
+        <v>3.600000143051147</v>
       </c>
     </row>
     <row r="123">
@@ -6311,11 +6313,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1702188000</v>
+        <v>1702274400</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6324,34 +6326,34 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>76.20000457763672</v>
+        <v>67.20000457763672</v>
       </c>
       <c r="F123" t="n">
-        <v>24.56491088867188</v>
+        <v>27.84719848632812</v>
       </c>
       <c r="G123" t="n">
-        <v>23.4239501953125</v>
+        <v>27.4735107421875</v>
       </c>
       <c r="H123" t="n">
-        <v>-40.63363647460938</v>
+        <v>-54.99644470214844</v>
       </c>
       <c r="I123" t="n">
-        <v>37.20000076293945</v>
+        <v>4750506.5</v>
       </c>
       <c r="J123" t="n">
-        <v>96658.1484375</v>
+        <v>96421.03125</v>
       </c>
       <c r="K123" t="n">
-        <v>99.80000305175781</v>
+        <v>90.80000305175781</v>
       </c>
       <c r="L123" t="n">
-        <v>2.894863128662109</v>
+        <v>2.075495481491089</v>
       </c>
       <c r="M123" t="n">
-        <v>-1.235573649406433</v>
+        <v>-3.605266094207764</v>
       </c>
       <c r="N123" t="n">
-        <v>5.003390789031982</v>
+        <v>6.700888156890869</v>
       </c>
     </row>
     <row r="124">
@@ -6359,11 +6361,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1702198800</v>
+        <v>1702285200</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6372,34 +6374,34 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>72.80000305175781</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="F124" t="n">
-        <v>25.33123779296875</v>
+        <v>26.18490600585938</v>
       </c>
       <c r="G124" t="n">
-        <v>24.25491333007812</v>
+        <v>25.42376708984375</v>
       </c>
       <c r="H124" t="n">
-        <v>-35.90997314453125</v>
+        <v>-63.74404907226562</v>
       </c>
       <c r="I124" t="n">
-        <v>34.68000030517578</v>
+        <v>4525396</v>
       </c>
       <c r="J124" t="n">
-        <v>96560.8671875</v>
+        <v>96400.8203125</v>
       </c>
       <c r="K124" t="n">
-        <v>99</v>
+        <v>94.80000305175781</v>
       </c>
       <c r="L124" t="n">
-        <v>2.386252403259277</v>
+        <v>2.217753887176514</v>
       </c>
       <c r="M124" t="n">
-        <v>-4.906186580657959</v>
+        <v>-6.314084529876709</v>
       </c>
       <c r="N124" t="n">
-        <v>7.409872531890869</v>
+        <v>9.708571434020996</v>
       </c>
     </row>
     <row r="125">
@@ -6407,11 +6409,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1702209600</v>
+        <v>1702296000</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6420,34 +6422,34 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>77.09999847412109</v>
+        <v>72.80000305175781</v>
       </c>
       <c r="F125" t="n">
-        <v>24.3837890625</v>
+        <v>24.89288330078125</v>
       </c>
       <c r="G125" t="n">
-        <v>23.19674682617188</v>
+        <v>23.84805297851562</v>
       </c>
       <c r="H125" t="n">
-        <v>-36.24337768554688</v>
+        <v>-62.61286926269531</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>4288092.5</v>
       </c>
       <c r="J125" t="n">
-        <v>96669.515625</v>
+        <v>96573.3515625</v>
       </c>
       <c r="K125" t="n">
-        <v>26.5</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
-        <v>2.743964672088623</v>
+        <v>2.694474935531616</v>
       </c>
       <c r="M125" t="n">
-        <v>-5.057985782623291</v>
+        <v>-5.60986328125</v>
       </c>
       <c r="N125" t="n">
-        <v>7.200000286102295</v>
+        <v>10.0038423538208</v>
       </c>
     </row>
     <row r="126">
@@ -6455,11 +6457,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1702220400</v>
+        <v>1702306800</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6468,34 +6470,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>54.40000152587891</v>
+        <v>54.5</v>
       </c>
       <c r="F126" t="n">
-        <v>28.99594116210938</v>
+        <v>28.88079833984375</v>
       </c>
       <c r="G126" t="n">
-        <v>26.68502807617188</v>
+        <v>26.72314453125</v>
       </c>
       <c r="H126" t="n">
-        <v>-37.52336120605469</v>
+        <v>-62.60679626464844</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>4262823</v>
       </c>
       <c r="J126" t="n">
-        <v>96722.7421875</v>
+        <v>96675.640625</v>
       </c>
       <c r="K126" t="n">
-        <v>16.20000076293945</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
-        <v>0.9779736399650574</v>
+        <v>-0.1540209949016571</v>
       </c>
       <c r="M126" t="n">
-        <v>-4.577292442321777</v>
+        <v>-6.407137393951416</v>
       </c>
       <c r="N126" t="n">
-        <v>5.313123226165771</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="127">
@@ -6503,11 +6505,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1702231200</v>
+        <v>1702317600</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6516,34 +6518,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.60000228881836</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="F127" t="n">
-        <v>33.6466064453125</v>
+        <v>32.68194580078125</v>
       </c>
       <c r="G127" t="n">
-        <v>31.07135009765625</v>
+        <v>30.16351318359375</v>
       </c>
       <c r="H127" t="n">
-        <v>-49.84713745117188</v>
+        <v>-68.3165283203125</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>4209437</v>
       </c>
       <c r="J127" t="n">
-        <v>96447.2109375</v>
+        <v>96453.5234375</v>
       </c>
       <c r="K127" t="n">
         <v>100</v>
       </c>
       <c r="L127" t="n">
-        <v>1.579035639762878</v>
+        <v>-1.416787028312683</v>
       </c>
       <c r="M127" t="n">
-        <v>-3.743806123733521</v>
+        <v>-5.003746032714844</v>
       </c>
       <c r="N127" t="n">
-        <v>4.305960655212402</v>
+        <v>5.321324348449707</v>
       </c>
     </row>
     <row r="128">
@@ -6551,11 +6553,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1702242000</v>
+        <v>1702328400</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6564,34 +6566,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.20000076293945</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="F128" t="n">
-        <v>34.96319580078125</v>
+        <v>34.04653930664062</v>
       </c>
       <c r="G128" t="n">
-        <v>33.39981079101562</v>
+        <v>32.15249633789062</v>
       </c>
       <c r="H128" t="n">
-        <v>-53.09556579589844</v>
+        <v>-63.24516296386719</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1800000071525574</v>
+        <v>4249015</v>
       </c>
       <c r="J128" t="n">
-        <v>96130.828125</v>
+        <v>96197.4609375</v>
       </c>
       <c r="K128" t="n">
-        <v>86.30000305175781</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.07510986179113388</v>
+        <v>-1.038808584213257</v>
       </c>
       <c r="M128" t="n">
-        <v>-2.197892904281616</v>
+        <v>-4.042363166809082</v>
       </c>
       <c r="N128" t="n">
-        <v>3.200000047683716</v>
+        <v>4.80903959274292</v>
       </c>
     </row>
     <row r="129">
@@ -6599,11 +6601,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1702252800</v>
+        <v>1702339200</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6612,34 +6614,34 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.20000076293945</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F129" t="n">
-        <v>32.55169677734375</v>
+        <v>33.30239868164062</v>
       </c>
       <c r="G129" t="n">
-        <v>31.87033081054688</v>
+        <v>32.69491577148438</v>
       </c>
       <c r="H129" t="n">
-        <v>-58.00668334960938</v>
+        <v>-68.36335754394531</v>
       </c>
       <c r="I129" t="n">
-        <v>2.519999980926514</v>
+        <v>3955080.5</v>
       </c>
       <c r="J129" t="n">
-        <v>96213.375</v>
+        <v>96239.6640625</v>
       </c>
       <c r="K129" t="n">
-        <v>99.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
-        <v>2.472387552261353</v>
+        <v>-2.031657695770264</v>
       </c>
       <c r="M129" t="n">
-        <v>-5.30145263671875</v>
+        <v>-1.674728989601135</v>
       </c>
       <c r="N129" t="n">
-        <v>7.110021114349365</v>
+        <v>3.820313692092896</v>
       </c>
     </row>
     <row r="130">
@@ -6647,11 +6649,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1702263600</v>
+        <v>1702350000</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6660,34 +6662,34 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.5</v>
+        <v>45.5</v>
       </c>
       <c r="F130" t="n">
-        <v>29.18283081054688</v>
+        <v>31.62081909179688</v>
       </c>
       <c r="G130" t="n">
-        <v>28.33541870117188</v>
+        <v>31.4293212890625</v>
       </c>
       <c r="H130" t="n">
-        <v>-55.65876770019531</v>
+        <v>-55.70320129394531</v>
       </c>
       <c r="I130" t="n">
-        <v>2.799999952316284</v>
+        <v>4444043</v>
       </c>
       <c r="J130" t="n">
-        <v>96487.6171875</v>
+        <v>96370.828125</v>
       </c>
       <c r="K130" t="n">
-        <v>91.40000152587891</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
-        <v>1.025263667106628</v>
+        <v>-0.3622705042362213</v>
       </c>
       <c r="M130" t="n">
-        <v>-6.717604637145996</v>
+        <v>-1.053051710128784</v>
       </c>
       <c r="N130" t="n">
-        <v>10.00030422210693</v>
+        <v>1.72449779510498</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -55,9 +55,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>27/11/2023</t>
-  </si>
-  <si>
     <t>28/11/2023</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
   </si>
   <si>
     <t>00:00</t>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1701054000</v>
+        <v>1701140400</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -546,34 +546,34 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>26.60000038146973</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>29.60638427734375</v>
+        <v>32.76010131835938</v>
       </c>
       <c r="G2">
-        <v>29.9713134765625</v>
+        <v>32.06558227539062</v>
       </c>
       <c r="H2">
-        <v>-63.28759765625</v>
+        <v>-49.05793762207031</v>
       </c>
       <c r="I2">
-        <v>20.6028881072998</v>
+        <v>27.53974342346191</v>
       </c>
       <c r="J2">
-        <v>96722.03125</v>
+        <v>96826.984375</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L2">
-        <v>0.6379809379577637</v>
+        <v>1.635930180549622</v>
       </c>
       <c r="M2">
-        <v>-3.834675312042236</v>
+        <v>-4.135146617889404</v>
       </c>
       <c r="N2">
-        <v>6.600998878479004</v>
+        <v>6.800095558166504</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1701064800</v>
+        <v>1701151200</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -590,34 +590,34 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>39.70000076293945</v>
+        <v>58.79999923706055</v>
       </c>
       <c r="F3">
-        <v>26.65740966796875</v>
+        <v>27.24148559570312</v>
       </c>
       <c r="G3">
-        <v>26.10299682617188</v>
+        <v>26.3138427734375</v>
       </c>
       <c r="H3">
-        <v>-63.42951965332031</v>
+        <v>-47.20578002929688</v>
       </c>
       <c r="I3">
-        <v>19.70501136779785</v>
+        <v>32.8764533996582</v>
       </c>
       <c r="J3">
-        <v>96727.953125</v>
+        <v>96831.828125</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>5.781260967254639</v>
+        <v>3.215461254119873</v>
       </c>
       <c r="M3">
-        <v>-5.243510723114014</v>
+        <v>-7.783359050750732</v>
       </c>
       <c r="N3">
-        <v>12.10151958465576</v>
+        <v>12.12297344207764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1701075600</v>
+        <v>1701162000</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -634,34 +634,34 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>62.70000076293945</v>
+        <v>69.30000305175781</v>
       </c>
       <c r="F4">
-        <v>23.19223022460938</v>
+        <v>24.84738159179688</v>
       </c>
       <c r="G4">
-        <v>22.36026000976562</v>
+        <v>23.86514282226562</v>
       </c>
       <c r="H4">
-        <v>-65.42353820800781</v>
+        <v>-50.04743957519531</v>
       </c>
       <c r="I4">
-        <v>20.53144645690918</v>
+        <v>31.95671463012695</v>
       </c>
       <c r="J4">
-        <v>96766.6484375</v>
+        <v>96814.4296875</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>5.759161472320557</v>
+        <v>3.980595588684082</v>
       </c>
       <c r="M4">
-        <v>-6.693791389465332</v>
+        <v>-7.186392784118652</v>
       </c>
       <c r="N4">
-        <v>13.50649452209473</v>
+        <v>12.69999980926514</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1701086400</v>
+        <v>1701172800</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -678,34 +678,34 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>73.59999847412109</v>
+        <v>76.5</v>
       </c>
       <c r="F5">
-        <v>21.94180297851562</v>
+        <v>23.91921997070312</v>
       </c>
       <c r="G5">
-        <v>20.66860961914062</v>
+        <v>22.59121704101562</v>
       </c>
       <c r="H5">
-        <v>-61.57550048828125</v>
+        <v>-50.29206848144531</v>
       </c>
       <c r="I5">
-        <v>19.5590648651123</v>
+        <v>33.67280960083008</v>
       </c>
       <c r="J5">
-        <v>97095.5546875</v>
+        <v>97042.2421875</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="L5">
-        <v>5.282656192779541</v>
+        <v>3.757661104202271</v>
       </c>
       <c r="M5">
-        <v>-5.073683738708496</v>
+        <v>-6.093015193939209</v>
       </c>
       <c r="N5">
-        <v>10.21871948242188</v>
+        <v>10.51312446594238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1701097200</v>
+        <v>1701183600</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -722,34 +722,34 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>38.29999923706055</v>
+        <v>53.5</v>
       </c>
       <c r="F6">
-        <v>28.61581420898438</v>
+        <v>29.01535034179688</v>
       </c>
       <c r="G6">
-        <v>25.7176513671875</v>
+        <v>26.0501708984375</v>
       </c>
       <c r="H6">
-        <v>-54.34423828125</v>
+        <v>-55.86973571777344</v>
       </c>
       <c r="I6">
-        <v>19.00662040710449</v>
+        <v>34.26414108276367</v>
       </c>
       <c r="J6">
-        <v>97169.0234375</v>
+        <v>97110.0078125</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>91.20000457763672</v>
       </c>
       <c r="L6">
-        <v>3.169174671173096</v>
+        <v>2.101933479309082</v>
       </c>
       <c r="M6">
-        <v>-6.023234844207764</v>
+        <v>-7.508837699890137</v>
       </c>
       <c r="N6">
-        <v>7.316251277923584</v>
+        <v>8.307031631469727</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1701108000</v>
+        <v>1701194400</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -766,34 +766,34 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>22.5</v>
+        <v>32.5</v>
       </c>
       <c r="F7">
-        <v>34.39764404296875</v>
+        <v>34.69821166992188</v>
       </c>
       <c r="G7">
-        <v>31.3709716796875</v>
+        <v>31.3800048828125</v>
       </c>
       <c r="H7">
-        <v>-57.51321411132812</v>
+        <v>-54.30517578125</v>
       </c>
       <c r="I7">
-        <v>18.76216316223145</v>
+        <v>34.34688568115234</v>
       </c>
       <c r="J7">
-        <v>96894.140625</v>
+        <v>96823.8046875</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="L7">
-        <v>1.601755380630493</v>
+        <v>1.6591796875</v>
       </c>
       <c r="M7">
-        <v>-4.523137092590332</v>
+        <v>-5.821647644042969</v>
       </c>
       <c r="N7">
-        <v>4.512959957122803</v>
+        <v>6.20703125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1701118800</v>
+        <v>1701205200</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -810,34 +810,34 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>17.89999961853027</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F8">
-        <v>36.66171264648438</v>
+        <v>36.8487548828125</v>
       </c>
       <c r="G8">
-        <v>34.24044799804688</v>
+        <v>34.59262084960938</v>
       </c>
       <c r="H8">
-        <v>-59.17485046386719</v>
+        <v>-57.28578186035156</v>
       </c>
       <c r="I8">
-        <v>20.66362953186035</v>
+        <v>34.40872955322266</v>
       </c>
       <c r="J8">
-        <v>96580.9609375</v>
+        <v>96433.3046875</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>0.3904687464237213</v>
+        <v>1.429233312606812</v>
       </c>
       <c r="M8">
-        <v>-4.37224006652832</v>
+        <v>-3.905606508255005</v>
       </c>
       <c r="N8">
-        <v>4.901137828826904</v>
+        <v>5.304865837097168</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1701129600</v>
+        <v>1701216000</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -854,34 +854,34 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>21.5</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="F9">
-        <v>34.03976440429688</v>
+        <v>34.0660400390625</v>
       </c>
       <c r="G9">
-        <v>34.71420288085938</v>
+        <v>33.12350463867188</v>
       </c>
       <c r="H9">
-        <v>-63.94499206542969</v>
+        <v>-56.84066772460938</v>
       </c>
       <c r="I9">
-        <v>23.64104461669922</v>
+        <v>34.05797576904297</v>
       </c>
       <c r="J9">
-        <v>96602.2890625</v>
+        <v>96478.4765625</v>
       </c>
       <c r="K9">
-        <v>0.300000011920929</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="L9">
-        <v>1.004931569099426</v>
+        <v>6.078578948974609</v>
       </c>
       <c r="M9">
-        <v>-2.378117561340332</v>
+        <v>-3.265584707260132</v>
       </c>
       <c r="N9">
-        <v>2.806170701980591</v>
+        <v>7.71337890625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1701140400</v>
+        <v>1701226800</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -898,34 +898,34 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>29.39999961853027</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="F10">
-        <v>31.9639892578125</v>
+        <v>32.10549926757812</v>
       </c>
       <c r="G10">
-        <v>31.72543334960938</v>
+        <v>31.14349365234375</v>
       </c>
       <c r="H10">
-        <v>-62.462646484375</v>
+        <v>-48.93516540527344</v>
       </c>
       <c r="I10">
-        <v>27.13116455078125</v>
+        <v>37.93223190307617</v>
       </c>
       <c r="J10">
-        <v>96785.796875</v>
+        <v>96701.5234375</v>
       </c>
       <c r="K10">
-        <v>6.700000286102295</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="L10">
-        <v>3.182504892349243</v>
+        <v>6.267138481140137</v>
       </c>
       <c r="M10">
-        <v>-6.289762020111084</v>
+        <v>-5.905617713928223</v>
       </c>
       <c r="N10">
-        <v>8.609301567077637</v>
+        <v>10.50722408294678</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1701151200</v>
+        <v>1701237600</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -942,34 +942,34 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>57.5</v>
+        <v>46.5</v>
       </c>
       <c r="F11">
-        <v>26.99615478515625</v>
+        <v>27.96942138671875</v>
       </c>
       <c r="G11">
-        <v>26.09225463867188</v>
+        <v>27.07177734375</v>
       </c>
       <c r="H11">
-        <v>-58.36091613769531</v>
+        <v>-45.16416931152344</v>
       </c>
       <c r="I11">
-        <v>31.50350189208984</v>
+        <v>34.17530059814453</v>
       </c>
       <c r="J11">
-        <v>96830.2578125</v>
+        <v>96769.265625</v>
       </c>
       <c r="K11">
-        <v>44.5</v>
+        <v>3.100000143051147</v>
       </c>
       <c r="L11">
-        <v>3.60998272895813</v>
+        <v>1.955732345581055</v>
       </c>
       <c r="M11">
-        <v>-8.066420555114746</v>
+        <v>-7.504575252532959</v>
       </c>
       <c r="N11">
-        <v>12.70162677764893</v>
+        <v>11.32269287109375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1701162000</v>
+        <v>1701248400</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -986,34 +986,34 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>73.90000152587891</v>
+        <v>64.20000457763672</v>
       </c>
       <c r="F12">
-        <v>24.29156494140625</v>
+        <v>24.50775146484375</v>
       </c>
       <c r="G12">
-        <v>23.2242431640625</v>
+        <v>23.55279541015625</v>
       </c>
       <c r="H12">
-        <v>-56.29231262207031</v>
+        <v>-45.37022399902344</v>
       </c>
       <c r="I12">
-        <v>32.94313430786133</v>
+        <v>32.78852462768555</v>
       </c>
       <c r="J12">
-        <v>96822.4765625</v>
+        <v>96685.2578125</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.544289588928223</v>
+        <v>2.160795927047729</v>
       </c>
       <c r="M12">
-        <v>-6.038647174835205</v>
+        <v>-6.935314655303955</v>
       </c>
       <c r="N12">
-        <v>11.60850143432617</v>
+        <v>11.80166053771973</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1701172800</v>
+        <v>1701259200</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1030,34 +1030,34 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>72.90000152587891</v>
       </c>
       <c r="F13">
-        <v>24.5762939453125</v>
+        <v>23.79937744140625</v>
       </c>
       <c r="G13">
-        <v>23.30215454101562</v>
+        <v>22.49984741210938</v>
       </c>
       <c r="H13">
-        <v>-51.36027526855469</v>
+        <v>-47.18006896972656</v>
       </c>
       <c r="I13">
-        <v>32.67276382446289</v>
+        <v>33.4197883605957</v>
       </c>
       <c r="J13">
-        <v>96987.71875</v>
+        <v>96845.2109375</v>
       </c>
       <c r="K13">
-        <v>38.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3.811784505844116</v>
+        <v>2.696271896362305</v>
       </c>
       <c r="M13">
-        <v>-6.316897869110107</v>
+        <v>-5.818190574645996</v>
       </c>
       <c r="N13">
-        <v>10.00267124176025</v>
+        <v>9.227669715881348</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1701183600</v>
+        <v>1701270000</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1074,34 +1074,34 @@
         <v>34</v>
       </c>
       <c r="E14">
-        <v>56.29999923706055</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="F14">
-        <v>28.18380737304688</v>
+        <v>30.46221923828125</v>
       </c>
       <c r="G14">
-        <v>25.91812133789062</v>
+        <v>27.439208984375</v>
       </c>
       <c r="H14">
-        <v>-52.76777648925781</v>
+        <v>-43.28564453125</v>
       </c>
       <c r="I14">
-        <v>34.85661315917969</v>
+        <v>32.80480575561523</v>
       </c>
       <c r="J14">
-        <v>97096.0234375</v>
+        <v>96908.796875</v>
       </c>
       <c r="K14">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.610424757003784</v>
+        <v>1.902470707893372</v>
       </c>
       <c r="M14">
-        <v>-6.672109127044678</v>
+        <v>-6.197514533996582</v>
       </c>
       <c r="N14">
-        <v>7.827200412750244</v>
+        <v>6.803314208984375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1701194400</v>
+        <v>1701280800</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1118,34 +1118,34 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>31.30000114440918</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F15">
-        <v>35.49261474609375</v>
+        <v>35.79351806640625</v>
       </c>
       <c r="G15">
-        <v>32.21969604492188</v>
+        <v>32.60244750976562</v>
       </c>
       <c r="H15">
-        <v>-51.09165954589844</v>
+        <v>-59.09428405761719</v>
       </c>
       <c r="I15">
-        <v>36.5149040222168</v>
+        <v>31.64155769348145</v>
       </c>
       <c r="J15">
-        <v>96782.7890625</v>
+        <v>96649.8203125</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.493268966674805</v>
+        <v>1.452397465705872</v>
       </c>
       <c r="M15">
-        <v>-5.383034706115723</v>
+        <v>-5.091367244720459</v>
       </c>
       <c r="N15">
-        <v>5.615478515625</v>
+        <v>5.606591701507568</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1153,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1701205200</v>
+        <v>1701291600</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1162,34 +1162,34 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <v>24.89999961853027</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="F16">
-        <v>36.69284057617188</v>
+        <v>38.28390502929688</v>
       </c>
       <c r="G16">
-        <v>34.52313232421875</v>
+        <v>35.71929931640625</v>
       </c>
       <c r="H16">
-        <v>-54.70281982421875</v>
+        <v>-60.74420166015625</v>
       </c>
       <c r="I16">
-        <v>36.74441528320312</v>
+        <v>30.63762092590332</v>
       </c>
       <c r="J16">
-        <v>96432.6171875</v>
+        <v>96285.4375</v>
       </c>
       <c r="K16">
-        <v>72.5</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.90338134765625</v>
+        <v>2.257312059402466</v>
       </c>
       <c r="M16">
-        <v>-3.395694494247437</v>
+        <v>-4.268652439117432</v>
       </c>
       <c r="N16">
-        <v>5.105427265167236</v>
+        <v>5.504687786102295</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1701216000</v>
+        <v>1701302400</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1206,34 +1206,34 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>38.5</v>
+        <v>20.30000114440918</v>
       </c>
       <c r="F17">
-        <v>32.5118408203125</v>
+        <v>35.57803344726562</v>
       </c>
       <c r="G17">
-        <v>31.4644775390625</v>
+        <v>35.88043212890625</v>
       </c>
       <c r="H17">
-        <v>-51.73396301269531</v>
+        <v>-58.88034057617188</v>
       </c>
       <c r="I17">
-        <v>39.45131301879883</v>
+        <v>29.32650566101074</v>
       </c>
       <c r="J17">
-        <v>96514.1953125</v>
+        <v>96284.4140625</v>
       </c>
       <c r="K17">
-        <v>91</v>
+        <v>27.5</v>
       </c>
       <c r="L17">
-        <v>-0.4900024235248566</v>
+        <v>3.72576642036438</v>
       </c>
       <c r="M17">
-        <v>-9.12437629699707</v>
+        <v>-3.1671142578125</v>
       </c>
       <c r="N17">
-        <v>10.1122350692749</v>
+        <v>7.205814361572266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1241,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1701226800</v>
+        <v>1701313200</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1250,34 +1250,34 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>42.60000228881836</v>
+        <v>24.30000114440918</v>
       </c>
       <c r="F18">
-        <v>31.25189208984375</v>
+        <v>32.0416259765625</v>
       </c>
       <c r="G18">
-        <v>30.28485107421875</v>
+        <v>32.93197631835938</v>
       </c>
       <c r="H18">
-        <v>-51.87203979492188</v>
+        <v>-65.82846069335938</v>
       </c>
       <c r="I18">
-        <v>41.20126342773438</v>
+        <v>26.33414268493652</v>
       </c>
       <c r="J18">
-        <v>96684.15625</v>
+        <v>96513.0390625</v>
       </c>
       <c r="K18">
-        <v>94.59999847412109</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>0.8617138266563416</v>
+        <v>2.794960975646973</v>
       </c>
       <c r="M18">
-        <v>-6.838292121887207</v>
+        <v>-4.263351917266846</v>
       </c>
       <c r="N18">
-        <v>10.30513095855713</v>
+        <v>10.71500301361084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1701237600</v>
+        <v>1701324000</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1294,34 +1294,34 @@
         <v>31</v>
       </c>
       <c r="E19">
-        <v>53.60000228881836</v>
+        <v>44.90000152587891</v>
       </c>
       <c r="F19">
-        <v>28.16238403320312</v>
+        <v>27.49667358398438</v>
       </c>
       <c r="G19">
-        <v>27.05050659179688</v>
+        <v>26.82321166992188</v>
       </c>
       <c r="H19">
-        <v>-43.0440673828125</v>
+        <v>-27.23835754394531</v>
       </c>
       <c r="I19">
-        <v>40.32256698608398</v>
+        <v>28.97124862670898</v>
       </c>
       <c r="J19">
-        <v>96673.8671875</v>
+        <v>96589.515625</v>
       </c>
       <c r="K19">
-        <v>39.40000152587891</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="L19">
-        <v>1.404401779174805</v>
+        <v>4.815927505493164</v>
       </c>
       <c r="M19">
-        <v>-8.936532974243164</v>
+        <v>-6.889257431030273</v>
       </c>
       <c r="N19">
-        <v>11.81100463867188</v>
+        <v>13.60000038146973</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1701248400</v>
+        <v>1701334800</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1338,34 +1338,34 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>67.20000457763672</v>
+        <v>57.90000152587891</v>
       </c>
       <c r="F20">
-        <v>25.06411743164062</v>
+        <v>24.5811767578125</v>
       </c>
       <c r="G20">
-        <v>24.07244873046875</v>
+        <v>23.752197265625</v>
       </c>
       <c r="H20">
-        <v>-36.183837890625</v>
+        <v>-56.20529174804688</v>
       </c>
       <c r="I20">
-        <v>40.02502822875977</v>
+        <v>30.54999542236328</v>
       </c>
       <c r="J20">
-        <v>96618.203125</v>
+        <v>96667.3828125</v>
       </c>
       <c r="K20">
-        <v>4.800000190734863</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="L20">
-        <v>1.628237247467041</v>
+        <v>2.071158409118652</v>
       </c>
       <c r="M20">
-        <v>-6.034028053283691</v>
+        <v>-5.135720252990723</v>
       </c>
       <c r="N20">
-        <v>10.69999980926514</v>
+        <v>9.110610961914062</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1373,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1701259200</v>
+        <v>1701345600</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1382,34 +1382,34 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>65.40000152587891</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="F21">
-        <v>24.36471557617188</v>
+        <v>23.54019165039062</v>
       </c>
       <c r="G21">
-        <v>23.06396484375</v>
+        <v>22.2896728515625</v>
       </c>
       <c r="H21">
-        <v>-40.61585998535156</v>
+        <v>-43.21101379394531</v>
       </c>
       <c r="I21">
-        <v>38.74026489257812</v>
+        <v>30.45086097717285</v>
       </c>
       <c r="J21">
-        <v>96785.7578125</v>
+        <v>96821.234375</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="L21">
-        <v>3.392824649810791</v>
+        <v>3.961595296859741</v>
       </c>
       <c r="M21">
-        <v>-5.180405139923096</v>
+        <v>-5.577780723571777</v>
       </c>
       <c r="N21">
-        <v>8.630377769470215</v>
+        <v>9.324020385742188</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1701270000</v>
+        <v>1701356400</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1426,34 +1426,34 @@
         <v>34</v>
       </c>
       <c r="E22">
-        <v>43.70000076293945</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="F22">
-        <v>30.27069091796875</v>
+        <v>30.39898681640625</v>
       </c>
       <c r="G22">
-        <v>27.24264526367188</v>
+        <v>27.42373657226562</v>
       </c>
       <c r="H22">
-        <v>-40.575927734375</v>
+        <v>-41.80499267578125</v>
       </c>
       <c r="I22">
-        <v>37.54123687744141</v>
+        <v>29.28480529785156</v>
       </c>
       <c r="J22">
-        <v>96868.1640625</v>
+        <v>96841.0703125</v>
       </c>
       <c r="K22">
-        <v>4.800000190734863</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.707954049110413</v>
+        <v>1.667253375053406</v>
       </c>
       <c r="M22">
-        <v>-6.445188045501709</v>
+        <v>-6.1212158203125</v>
       </c>
       <c r="N22">
-        <v>7.120080471038818</v>
+        <v>6.906591892242432</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1701280800</v>
+        <v>1701367200</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1470,34 +1470,34 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>28.80000114440918</v>
+        <v>23.30000114440918</v>
       </c>
       <c r="F23">
-        <v>35.75906372070312</v>
+        <v>35.89508056640625</v>
       </c>
       <c r="G23">
-        <v>32.58026123046875</v>
+        <v>32.719482421875</v>
       </c>
       <c r="H23">
-        <v>-46.91168212890625</v>
+        <v>-33.25190734863281</v>
       </c>
       <c r="I23">
-        <v>35.10641098022461</v>
+        <v>28.83572196960449</v>
       </c>
       <c r="J23">
-        <v>96611.1015625</v>
+        <v>96568.6875</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>0.9978076219558716</v>
+        <v>0.7333154082298279</v>
       </c>
       <c r="M23">
-        <v>-5.42825174331665</v>
+        <v>-5.172677993774414</v>
       </c>
       <c r="N23">
-        <v>5.607822895050049</v>
+        <v>5.403598308563232</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1505,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1701291600</v>
+        <v>1701378000</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="E24">
-        <v>22.20000076293945</v>
+        <v>16.80000114440918</v>
       </c>
       <c r="F24">
-        <v>37.96002197265625</v>
+        <v>38.2296142578125</v>
       </c>
       <c r="G24">
-        <v>35.42416381835938</v>
+        <v>35.6427001953125</v>
       </c>
       <c r="H24">
-        <v>-51.62335205078125</v>
+        <v>-54.71331787109375</v>
       </c>
       <c r="I24">
-        <v>35.01970291137695</v>
+        <v>27.14054870605469</v>
       </c>
       <c r="J24">
-        <v>96241.3515625</v>
+        <v>96240.9609375</v>
       </c>
       <c r="K24">
         <v>5</v>
       </c>
       <c r="L24">
-        <v>0.9750219583511353</v>
+        <v>1.592526793479919</v>
       </c>
       <c r="M24">
-        <v>-4.626774787902832</v>
+        <v>-4.701555252075195</v>
       </c>
       <c r="N24">
-        <v>5.40345287322998</v>
+        <v>5.306886196136475</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1549,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1701302400</v>
+        <v>1701388800</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1558,34 +1558,34 @@
         <v>37</v>
       </c>
       <c r="E25">
-        <v>22.70000076293945</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>35.71044921875</v>
+        <v>34.95751953125</v>
       </c>
       <c r="G25">
-        <v>36.05685424804688</v>
+        <v>35.64996337890625</v>
       </c>
       <c r="H25">
-        <v>-50.583251953125</v>
+        <v>-52.26409912109375</v>
       </c>
       <c r="I25">
-        <v>33.41474151611328</v>
+        <v>23.33504676818848</v>
       </c>
       <c r="J25">
-        <v>96255.03125</v>
+        <v>96293.5703125</v>
       </c>
       <c r="K25">
-        <v>24.30000114440918</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="L25">
-        <v>-1.028232455253601</v>
+        <v>-1.818939208984375</v>
       </c>
       <c r="M25">
-        <v>-3.640751838684082</v>
+        <v>-4.510537147521973</v>
       </c>
       <c r="N25">
-        <v>4.906610012054443</v>
+        <v>6.900000095367432</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1701313200</v>
+        <v>1701399600</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1602,34 +1602,34 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>23.20000076293945</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>34.83984375</v>
+        <v>32.45745849609375</v>
       </c>
       <c r="G26">
-        <v>34.3701171875</v>
+        <v>33.90274047851562</v>
       </c>
       <c r="H26">
-        <v>-52.11463928222656</v>
+        <v>-49.91107177734375</v>
       </c>
       <c r="I26">
-        <v>31.77697372436523</v>
+        <v>22.94342041015625</v>
       </c>
       <c r="J26">
-        <v>96442.7421875</v>
+        <v>96451.015625</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>2.86376690864563</v>
+        <v>2.813405752182007</v>
       </c>
       <c r="M26">
-        <v>-6.25536584854126</v>
+        <v>-4.260341644287109</v>
       </c>
       <c r="N26">
-        <v>11.32193660736084</v>
+        <v>7.41452169418335</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1637,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1701324000</v>
+        <v>1701410400</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1646,34 +1646,34 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>45.90000152587891</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="F27">
-        <v>28.12722778320312</v>
+        <v>27.724365234375</v>
       </c>
       <c r="G27">
-        <v>27.3729248046875</v>
+        <v>27.31716918945312</v>
       </c>
       <c r="H27">
-        <v>-55.6392822265625</v>
+        <v>-46.219482421875</v>
       </c>
       <c r="I27">
-        <v>33.48590469360352</v>
+        <v>25.48726081848145</v>
       </c>
       <c r="J27">
-        <v>96537.4296875</v>
+        <v>96470.109375</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>4.555182933807373</v>
+        <v>2.840641975402832</v>
       </c>
       <c r="M27">
-        <v>-6.460427284240723</v>
+        <v>-5.740117073059082</v>
       </c>
       <c r="N27">
-        <v>12.60000038146973</v>
+        <v>11.80575180053711</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1701334800</v>
+        <v>1701421200</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1690,34 +1690,34 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>57.70000076293945</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="F28">
-        <v>25.56268310546875</v>
+        <v>24.69052124023438</v>
       </c>
       <c r="G28">
-        <v>24.6624755859375</v>
+        <v>23.92138671875</v>
       </c>
       <c r="H28">
-        <v>-46.66377258300781</v>
+        <v>-45.558837890625</v>
       </c>
       <c r="I28">
-        <v>36.07644653320312</v>
+        <v>29.15049934387207</v>
       </c>
       <c r="J28">
-        <v>96633.703125</v>
+        <v>96560.3359375</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="L28">
-        <v>1.982980966567993</v>
+        <v>1.265095233917236</v>
       </c>
       <c r="M28">
-        <v>-5.708305358886719</v>
+        <v>-6.371621131896973</v>
       </c>
       <c r="N28">
-        <v>9.004239082336426</v>
+        <v>10.42277812957764</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1725,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1701345600</v>
+        <v>1701432000</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1734,34 +1734,34 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>64.5</v>
+        <v>77.30000305175781</v>
       </c>
       <c r="F29">
-        <v>24.12075805664062</v>
+        <v>23.779296875</v>
       </c>
       <c r="G29">
-        <v>22.8021240234375</v>
+        <v>22.51986694335938</v>
       </c>
       <c r="H29">
-        <v>-47.69303894042969</v>
+        <v>-43.20375061035156</v>
       </c>
       <c r="I29">
-        <v>36.00357055664062</v>
+        <v>32.57454681396484</v>
       </c>
       <c r="J29">
-        <v>96803.2421875</v>
+        <v>96798.8984375</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="L29">
-        <v>5.071974754333496</v>
+        <v>3.588002920150757</v>
       </c>
       <c r="M29">
-        <v>-5.158886432647705</v>
+        <v>-5.775641918182373</v>
       </c>
       <c r="N29">
-        <v>9.513275146484375</v>
+        <v>10.20118618011475</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1701356400</v>
+        <v>1701442800</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1778,34 +1778,34 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="F30">
-        <v>30.15817260742188</v>
+        <v>30.84036254882812</v>
       </c>
       <c r="G30">
-        <v>27.33270263671875</v>
+        <v>27.95626831054688</v>
       </c>
       <c r="H30">
-        <v>-59.61082458496094</v>
+        <v>-39.00173950195312</v>
       </c>
       <c r="I30">
-        <v>35.4515380859375</v>
+        <v>33.53420639038086</v>
       </c>
       <c r="J30">
-        <v>96856.8984375</v>
+        <v>96832.328125</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="L30">
-        <v>-0.07830321788787842</v>
+        <v>-1.845414996147156</v>
       </c>
       <c r="M30">
-        <v>-5.523468971252441</v>
+        <v>-5.429206371307373</v>
       </c>
       <c r="N30">
-        <v>5.910478115081787</v>
+        <v>6.303253173828125</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1701367200</v>
+        <v>1701453600</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1822,34 +1822,34 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>32.90000152587891</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="F31">
-        <v>35.42800903320312</v>
+        <v>35.72979736328125</v>
       </c>
       <c r="G31">
-        <v>32.4312744140625</v>
+        <v>32.79891967773438</v>
       </c>
       <c r="H31">
-        <v>-60.16816711425781</v>
+        <v>-36.38996887207031</v>
       </c>
       <c r="I31">
-        <v>37.29072189331055</v>
+        <v>32.91134262084961</v>
       </c>
       <c r="J31">
-        <v>96563.4609375</v>
+        <v>96530.0234375</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="L31">
-        <v>-0.8526464700698853</v>
+        <v>-1.7294921875</v>
       </c>
       <c r="M31">
-        <v>-4.341079235076904</v>
+        <v>-3.447582960128784</v>
       </c>
       <c r="N31">
-        <v>4.400629997253418</v>
+        <v>3.501449584960938</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1857,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1701378000</v>
+        <v>1701464400</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1866,34 +1866,34 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>22.89999961853027</v>
+        <v>21.70000076293945</v>
       </c>
       <c r="F32">
-        <v>37.94235229492188</v>
+        <v>38.05010986328125</v>
       </c>
       <c r="G32">
-        <v>35.44439697265625</v>
+        <v>35.67449951171875</v>
       </c>
       <c r="H32">
-        <v>-64.31124877929688</v>
+        <v>-39.43264770507812</v>
       </c>
       <c r="I32">
-        <v>33.51811599731445</v>
+        <v>32.08176040649414</v>
       </c>
       <c r="J32">
-        <v>96250.5390625</v>
+        <v>96212.6171875</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>1.784724116325378</v>
+        <v>0.8341869711875916</v>
       </c>
       <c r="M32">
-        <v>-4.121039867401123</v>
+        <v>-3.255580902099609</v>
       </c>
       <c r="N32">
-        <v>5.099999904632568</v>
+        <v>4.600735187530518</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1901,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1701388800</v>
+        <v>1701475200</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1910,34 +1910,34 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>22.30000114440918</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="F33">
-        <v>35.64996337890625</v>
+        <v>35.63186645507812</v>
       </c>
       <c r="G33">
-        <v>35.94439697265625</v>
+        <v>36.20892333984375</v>
       </c>
       <c r="H33">
-        <v>-60.40237426757812</v>
+        <v>-43.25836181640625</v>
       </c>
       <c r="I33">
-        <v>29.74645614624023</v>
+        <v>30.12189292907715</v>
       </c>
       <c r="J33">
-        <v>96270.3359375</v>
+        <v>96241.65625</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="L33">
-        <v>1.042077660560608</v>
+        <v>-1.402849078178406</v>
       </c>
       <c r="M33">
-        <v>-3.969921827316284</v>
+        <v>-2.747992992401123</v>
       </c>
       <c r="N33">
-        <v>5.80001974105835</v>
+        <v>3.20738673210144</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1701399600</v>
+        <v>1701486000</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1954,34 +1954,34 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>23.30000114440918</v>
+        <v>26</v>
       </c>
       <c r="F34">
-        <v>32.77731323242188</v>
+        <v>32.3223876953125</v>
       </c>
       <c r="G34">
-        <v>33.7647705078125</v>
+        <v>33.42288208007812</v>
       </c>
       <c r="H34">
-        <v>-63.62220764160156</v>
+        <v>-24.28805541992188</v>
       </c>
       <c r="I34">
-        <v>27.58613014221191</v>
+        <v>27.2984619140625</v>
       </c>
       <c r="J34">
-        <v>96428.7421875</v>
+        <v>96418.1875</v>
       </c>
       <c r="K34">
-        <v>37.10000228881836</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>1.955512642860413</v>
+        <v>-1.062541484832764</v>
       </c>
       <c r="M34">
-        <v>-4.304394245147705</v>
+        <v>-3.217775821685791</v>
       </c>
       <c r="N34">
-        <v>8.007763862609863</v>
+        <v>3.800254106521606</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1701410400</v>
+        <v>1701496800</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1998,34 +1998,34 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>42</v>
+        <v>32.10000228881836</v>
       </c>
       <c r="F35">
-        <v>28.284423828125</v>
+        <v>28.93063354492188</v>
       </c>
       <c r="G35">
-        <v>27.77880859375</v>
+        <v>28.70443725585938</v>
       </c>
       <c r="H35">
-        <v>-68.15921020507812</v>
+        <v>-50.88191223144531</v>
       </c>
       <c r="I35">
-        <v>28.22726249694824</v>
+        <v>29.73431396484375</v>
       </c>
       <c r="J35">
-        <v>96481.515625</v>
+        <v>96413.125</v>
       </c>
       <c r="K35">
-        <v>56.90000152587891</v>
+        <v>1.700000047683716</v>
       </c>
       <c r="L35">
-        <v>3.663232326507568</v>
+        <v>2.461088895797729</v>
       </c>
       <c r="M35">
-        <v>-6.332521915435791</v>
+        <v>-5.404606819152832</v>
       </c>
       <c r="N35">
-        <v>12.11393928527832</v>
+        <v>10.69999980926514</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2033,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1701421200</v>
+        <v>1701507600</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -2042,34 +2042,34 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>71.59999847412109</v>
+        <v>62.5</v>
       </c>
       <c r="F36">
-        <v>25.17465209960938</v>
+        <v>25.44833374023438</v>
       </c>
       <c r="G36">
-        <v>24.2010498046875</v>
+        <v>24.69894409179688</v>
       </c>
       <c r="H36">
-        <v>-45.02413940429688</v>
+        <v>-35.85696411132812</v>
       </c>
       <c r="I36">
-        <v>33.41397094726562</v>
+        <v>31.30568695068359</v>
       </c>
       <c r="J36">
-        <v>96565.9375</v>
+        <v>96478.0234375</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>2.214147806167603</v>
+        <v>3.869794845581055</v>
       </c>
       <c r="M36">
-        <v>-6.4466233253479</v>
+        <v>-4.187734127044678</v>
       </c>
       <c r="N36">
-        <v>10.10988807678223</v>
+        <v>8.5125732421875</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2077,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1701432000</v>
+        <v>1701518400</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -2086,34 +2086,34 @@
         <v>33</v>
       </c>
       <c r="E37">
-        <v>73.30000305175781</v>
+        <v>65.90000152587891</v>
       </c>
       <c r="F37">
-        <v>24.36309814453125</v>
+        <v>24.84469604492188</v>
       </c>
       <c r="G37">
-        <v>23.08078002929688</v>
+        <v>23.61419677734375</v>
       </c>
       <c r="H37">
-        <v>-41.097412109375</v>
+        <v>-64.01286315917969</v>
       </c>
       <c r="I37">
-        <v>35.58888244628906</v>
+        <v>32.23433303833008</v>
       </c>
       <c r="J37">
-        <v>96758.265625</v>
+        <v>96670.7734375</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>3.8079833984375</v>
+        <v>2.979063749313354</v>
       </c>
       <c r="M37">
-        <v>-5.975363731384277</v>
+        <v>-5.424160003662109</v>
       </c>
       <c r="N37">
-        <v>10.19999980926514</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2121,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1701442800</v>
+        <v>1701529200</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2130,34 +2130,34 @@
         <v>34</v>
       </c>
       <c r="E38">
-        <v>48.79999923706055</v>
+        <v>39.20000076293945</v>
       </c>
       <c r="F38">
-        <v>30.8388671875</v>
+        <v>32.9107666015625</v>
       </c>
       <c r="G38">
-        <v>27.9503173828125</v>
+        <v>30.02816772460938</v>
       </c>
       <c r="H38">
-        <v>-49.67770385742188</v>
+        <v>-51.5592041015625</v>
       </c>
       <c r="I38">
-        <v>37.89431762695312</v>
+        <v>35.05850982666016</v>
       </c>
       <c r="J38">
-        <v>96820.140625</v>
+        <v>96675.2890625</v>
       </c>
       <c r="K38">
-        <v>24.30000114440918</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>-2.201176643371582</v>
+        <v>-5.009195327758789</v>
       </c>
       <c r="M38">
-        <v>-5.535529613494873</v>
+        <v>-2.673224925994873</v>
       </c>
       <c r="N38">
-        <v>6.503158569335938</v>
+        <v>6.207011699676514</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1701453600</v>
+        <v>1701540000</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2174,34 +2174,34 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>31.70000076293945</v>
+        <v>26.5</v>
       </c>
       <c r="F39">
-        <v>35.67044067382812</v>
+        <v>36.99850463867188</v>
       </c>
       <c r="G39">
-        <v>32.7025146484375</v>
+        <v>34.21728515625</v>
       </c>
       <c r="H39">
-        <v>-35.87831115722656</v>
+        <v>-65.13096618652344</v>
       </c>
       <c r="I39">
-        <v>37.48219680786133</v>
+        <v>34.2824821472168</v>
       </c>
       <c r="J39">
-        <v>96532.65625</v>
+        <v>96383.8984375</v>
       </c>
       <c r="K39">
-        <v>33.79999923706055</v>
+        <v>57.90000152587891</v>
       </c>
       <c r="L39">
-        <v>-2.489047765731812</v>
+        <v>-2.787797689437866</v>
       </c>
       <c r="M39">
-        <v>-3.287841796875</v>
+        <v>1.355410099029541</v>
       </c>
       <c r="N39">
-        <v>3.700094223022461</v>
+        <v>3.299999952316284</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2209,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1701464400</v>
+        <v>1701550800</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2218,34 +2218,34 @@
         <v>36</v>
       </c>
       <c r="E40">
-        <v>26.60000038146973</v>
+        <v>21.30000114440918</v>
       </c>
       <c r="F40">
-        <v>36.80459594726562</v>
+        <v>38.71365356445312</v>
       </c>
       <c r="G40">
-        <v>35.10397338867188</v>
+        <v>36.70367431640625</v>
       </c>
       <c r="H40">
-        <v>-40.30775451660156</v>
+        <v>-65.49629211425781</v>
       </c>
       <c r="I40">
-        <v>36.95185089111328</v>
+        <v>35.64937591552734</v>
       </c>
       <c r="J40">
-        <v>96227.0546875</v>
+        <v>96046.9765625</v>
       </c>
       <c r="K40">
-        <v>60.5</v>
+        <v>95.80000305175781</v>
       </c>
       <c r="L40">
-        <v>-0.2369799762964249</v>
+        <v>0.0272216796875</v>
       </c>
       <c r="M40">
-        <v>-1.572397470474243</v>
+        <v>0.06647705286741257</v>
       </c>
       <c r="N40">
-        <v>3.126760482788086</v>
+        <v>2.400000095367432</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2253,7 +2253,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1701475200</v>
+        <v>1701561600</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -2262,34 +2262,34 @@
         <v>37</v>
       </c>
       <c r="E41">
-        <v>27.30000114440918</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="F41">
-        <v>35.16015625</v>
+        <v>35.97830200195312</v>
       </c>
       <c r="G41">
-        <v>35.71908569335938</v>
+        <v>35.37255859375</v>
       </c>
       <c r="H41">
-        <v>-49.22308349609375</v>
+        <v>-62.4268798828125</v>
       </c>
       <c r="I41">
-        <v>34.91243362426758</v>
+        <v>33.98472595214844</v>
       </c>
       <c r="J41">
-        <v>96226.2734375</v>
+        <v>96134.1015625</v>
       </c>
       <c r="K41">
-        <v>68.70000457763672</v>
+        <v>89.30000305175781</v>
       </c>
       <c r="L41">
-        <v>-1.833872079849243</v>
+        <v>-2.313867092132568</v>
       </c>
       <c r="M41">
-        <v>1.18975830078125</v>
+        <v>-4.112502574920654</v>
       </c>
       <c r="N41">
-        <v>2.513293504714966</v>
+        <v>6.508063793182373</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2297,7 +2297,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1701486000</v>
+        <v>1701572400</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2306,34 +2306,34 @@
         <v>30</v>
       </c>
       <c r="E42">
-        <v>28.20000076293945</v>
+        <v>32</v>
       </c>
       <c r="F42">
-        <v>34.2744140625</v>
+        <v>32.63128662109375</v>
       </c>
       <c r="G42">
-        <v>34.17050170898438</v>
+        <v>33.40664672851562</v>
       </c>
       <c r="H42">
-        <v>-46.94459533691406</v>
+        <v>-61.98551940917969</v>
       </c>
       <c r="I42">
-        <v>31.15844917297363</v>
+        <v>32.48532867431641</v>
       </c>
       <c r="J42">
-        <v>96360.5703125</v>
+        <v>96334.484375</v>
       </c>
       <c r="K42">
-        <v>89.59999847412109</v>
+        <v>89.5</v>
       </c>
       <c r="L42">
-        <v>0.1707202047109604</v>
+        <v>-0.81494140625</v>
       </c>
       <c r="M42">
-        <v>-0.7675244212150574</v>
+        <v>1.737565875053406</v>
       </c>
       <c r="N42">
-        <v>1.010132312774658</v>
+        <v>3.01528787612915</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1701496800</v>
+        <v>1701583200</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2350,34 +2350,34 @@
         <v>31</v>
       </c>
       <c r="E43">
-        <v>32.20000076293945</v>
+        <v>40.90000152587891</v>
       </c>
       <c r="F43">
-        <v>30.16366577148438</v>
+        <v>31.70504760742188</v>
       </c>
       <c r="G43">
-        <v>29.85211181640625</v>
+        <v>30.94277954101562</v>
       </c>
       <c r="H43">
-        <v>-49.42936706542969</v>
+        <v>-75.81918334960938</v>
       </c>
       <c r="I43">
-        <v>33.16254043579102</v>
+        <v>40.72727203369141</v>
       </c>
       <c r="J43">
-        <v>96428.2109375</v>
+        <v>96465.9375</v>
       </c>
       <c r="K43">
-        <v>0.6000000238418579</v>
+        <v>100</v>
       </c>
       <c r="L43">
-        <v>2.360683441162109</v>
+        <v>2.572075128555298</v>
       </c>
       <c r="M43">
-        <v>-5.667979717254639</v>
+        <v>-0.2122119069099426</v>
       </c>
       <c r="N43">
-        <v>9.50919246673584</v>
+        <v>3.811840772628784</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2385,7 +2385,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1701507600</v>
+        <v>1701594000</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -2394,34 +2394,34 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>58.29999923706055</v>
+        <v>59.79999923706055</v>
       </c>
       <c r="F44">
-        <v>26.45541381835938</v>
+        <v>27.336669921875</v>
       </c>
       <c r="G44">
-        <v>25.64291381835938</v>
+        <v>26.39791870117188</v>
       </c>
       <c r="H44">
-        <v>-45.91416931152344</v>
+        <v>-59.05355834960938</v>
       </c>
       <c r="I44">
-        <v>37.8310661315918</v>
+        <v>41.51936340332031</v>
       </c>
       <c r="J44">
-        <v>96476.0234375</v>
+        <v>96430.5234375</v>
       </c>
       <c r="K44">
-        <v>3.700000047683716</v>
+        <v>16.20000076293945</v>
       </c>
       <c r="L44">
-        <v>1.459111332893372</v>
+        <v>2.843974590301514</v>
       </c>
       <c r="M44">
-        <v>-5.96644401550293</v>
+        <v>-5.293285846710205</v>
       </c>
       <c r="N44">
-        <v>9.43747615814209</v>
+        <v>7.505905151367188</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2429,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1701518400</v>
+        <v>1701604800</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -2438,34 +2438,34 @@
         <v>33</v>
       </c>
       <c r="E45">
-        <v>66.40000152587891</v>
+        <v>63.60000228881836</v>
       </c>
       <c r="F45">
-        <v>25.40402221679688</v>
+        <v>26.57321166992188</v>
       </c>
       <c r="G45">
-        <v>24.118408203125</v>
+        <v>25.33493041992188</v>
       </c>
       <c r="H45">
-        <v>-39.54780578613281</v>
+        <v>-57.80270385742188</v>
       </c>
       <c r="I45">
-        <v>36.80976486206055</v>
+        <v>42.3696174621582</v>
       </c>
       <c r="J45">
-        <v>96651.140625</v>
+        <v>96639.078125</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45">
-        <v>1.757771015167236</v>
+        <v>0.2005273401737213</v>
       </c>
       <c r="M45">
-        <v>-4.417819499969482</v>
+        <v>-2.953425168991089</v>
       </c>
       <c r="N45">
-        <v>6.300000190734863</v>
+        <v>3.30169677734375</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2473,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1701529200</v>
+        <v>1701615600</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -2482,34 +2482,34 @@
         <v>34</v>
       </c>
       <c r="E46">
-        <v>46.20000076293945</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="F46">
-        <v>30.82223510742188</v>
+        <v>30.01736450195312</v>
       </c>
       <c r="G46">
-        <v>28.77761840820312</v>
+        <v>27.999267578125</v>
       </c>
       <c r="H46">
-        <v>-61.33108520507812</v>
+        <v>-57.51104736328125</v>
       </c>
       <c r="I46">
-        <v>37.28142547607422</v>
+        <v>42.63569641113281</v>
       </c>
       <c r="J46">
-        <v>96708.8515625</v>
+        <v>96749.8359375</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>98.09999847412109</v>
       </c>
       <c r="L46">
-        <v>-1.421223163604736</v>
+        <v>-0.4332055449485779</v>
       </c>
       <c r="M46">
-        <v>-0.7656958103179932</v>
+        <v>-0.3682031035423279</v>
       </c>
       <c r="N46">
-        <v>2.001120090484619</v>
+        <v>0.9114022254943848</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2517,7 +2517,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1701540000</v>
+        <v>1701626400</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -2526,34 +2526,34 @@
         <v>35</v>
       </c>
       <c r="E47">
-        <v>32.70000076293945</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="F47">
-        <v>35.54049682617188</v>
+        <v>32.49996948242188</v>
       </c>
       <c r="G47">
-        <v>32.94732666015625</v>
+        <v>30.17648315429688</v>
       </c>
       <c r="H47">
-        <v>-56.01419067382812</v>
+        <v>-59.819091796875</v>
       </c>
       <c r="I47">
-        <v>36.19853591918945</v>
+        <v>42.26334762573242</v>
       </c>
       <c r="J47">
-        <v>96437.7421875</v>
+        <v>96552.6640625</v>
       </c>
       <c r="K47">
-        <v>69.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L47">
-        <v>-0.1453320235013962</v>
+        <v>-3.26611328125</v>
       </c>
       <c r="M47">
-        <v>0.2931494116783142</v>
+        <v>4.449203968048096</v>
       </c>
       <c r="N47">
-        <v>1.116076707839966</v>
+        <v>3.900341749191284</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2561,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1701550800</v>
+        <v>1701637200</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2570,34 +2570,34 @@
         <v>36</v>
       </c>
       <c r="E48">
-        <v>30.89999961853027</v>
+        <v>39.90000152587891</v>
       </c>
       <c r="F48">
-        <v>36.13632202148438</v>
+        <v>33.42724609375</v>
       </c>
       <c r="G48">
-        <v>33.9927978515625</v>
+        <v>31.67864990234375</v>
       </c>
       <c r="H48">
-        <v>-51.07572937011719</v>
+        <v>-61.63935852050781</v>
       </c>
       <c r="I48">
-        <v>38.92414093017578</v>
+        <v>44.75122833251953</v>
       </c>
       <c r="J48">
-        <v>96171.7109375</v>
+        <v>96329.0234375</v>
       </c>
       <c r="K48">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L48">
-        <v>-2.627353429794312</v>
+        <v>-0.4758056402206421</v>
       </c>
       <c r="M48">
-        <v>-5.193696022033691</v>
+        <v>5.229831218719482</v>
       </c>
       <c r="N48">
-        <v>4.713284492492676</v>
+        <v>3.70654296875</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2605,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1701561600</v>
+        <v>1701648000</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2614,34 +2614,34 @@
         <v>37</v>
       </c>
       <c r="E49">
-        <v>42.70000076293945</v>
+        <v>55.79999923706055</v>
       </c>
       <c r="F49">
-        <v>32.10812377929688</v>
+        <v>29.50588989257812</v>
       </c>
       <c r="G49">
-        <v>31.285888671875</v>
+        <v>28.68710327148438</v>
       </c>
       <c r="H49">
-        <v>-48.24571228027344</v>
+        <v>-68.78640747070312</v>
       </c>
       <c r="I49">
-        <v>37.13921356201172</v>
+        <v>48.47270202636719</v>
       </c>
       <c r="J49">
-        <v>96256.6015625</v>
+        <v>96375.3359375</v>
       </c>
       <c r="K49">
-        <v>73.90000152587891</v>
+        <v>90.40000152587891</v>
       </c>
       <c r="L49">
-        <v>-2.755710363388062</v>
+        <v>-1.878989219665527</v>
       </c>
       <c r="M49">
-        <v>0.07707763463258743</v>
+        <v>1.326347589492798</v>
       </c>
       <c r="N49">
-        <v>3.506301879882812</v>
+        <v>3.100114583969116</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2649,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1701572400</v>
+        <v>1701658800</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -2658,34 +2658,34 @@
         <v>30</v>
       </c>
       <c r="E50">
-        <v>49.70000076293945</v>
+        <v>53.60000228881836</v>
       </c>
       <c r="F50">
-        <v>29.70553588867188</v>
+        <v>30.21923828125</v>
       </c>
       <c r="G50">
-        <v>29.17459106445312</v>
+        <v>30.22640991210938</v>
       </c>
       <c r="H50">
-        <v>-47.51190185546875</v>
+        <v>-53.85928344726562</v>
       </c>
       <c r="I50">
-        <v>36.93745803833008</v>
+        <v>41.54958724975586</v>
       </c>
       <c r="J50">
-        <v>96410.9765625</v>
+        <v>96487.5546875</v>
       </c>
       <c r="K50">
-        <v>68</v>
+        <v>91.40000152587891</v>
       </c>
       <c r="L50">
-        <v>-3.024262666702271</v>
+        <v>0.4606152176856995</v>
       </c>
       <c r="M50">
-        <v>0.238718256354332</v>
+        <v>1.708388686180115</v>
       </c>
       <c r="N50">
-        <v>4.910904884338379</v>
+        <v>1.900779724121094</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2693,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1701583200</v>
+        <v>1701669600</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -2702,34 +2702,34 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>56.29999923706055</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F51">
-        <v>28.51815795898438</v>
+        <v>29.5517578125</v>
       </c>
       <c r="G51">
-        <v>28.11248779296875</v>
+        <v>29.16390991210938</v>
       </c>
       <c r="H51">
-        <v>-47.73500061035156</v>
+        <v>-61.47264099121094</v>
       </c>
       <c r="I51">
-        <v>40.90763473510742</v>
+        <v>42.4091911315918</v>
       </c>
       <c r="J51">
-        <v>96422.7578125</v>
+        <v>96489.953125</v>
       </c>
       <c r="K51">
-        <v>100</v>
+        <v>71.30000305175781</v>
       </c>
       <c r="L51">
-        <v>-0.8397387266159058</v>
+        <v>2.249833822250366</v>
       </c>
       <c r="M51">
-        <v>-0.2696752846240997</v>
+        <v>0.9604613780975342</v>
       </c>
       <c r="N51">
-        <v>1.700562357902527</v>
+        <v>3.110739469528198</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2737,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1701594000</v>
+        <v>1701680400</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2746,34 +2746,34 @@
         <v>32</v>
       </c>
       <c r="E52">
-        <v>70.30000305175781</v>
+        <v>77</v>
       </c>
       <c r="F52">
-        <v>25.28573608398438</v>
+        <v>24.48580932617188</v>
       </c>
       <c r="G52">
-        <v>24.28756713867188</v>
+        <v>23.71560668945312</v>
       </c>
       <c r="H52">
-        <v>-47.49685668945312</v>
+        <v>-49.30816650390625</v>
       </c>
       <c r="I52">
-        <v>46.1987190246582</v>
+        <v>45.69745635986328</v>
       </c>
       <c r="J52">
-        <v>96416.5078125</v>
+        <v>96443.3984375</v>
       </c>
       <c r="K52">
-        <v>100</v>
+        <v>95.20000457763672</v>
       </c>
       <c r="L52">
-        <v>3.179723978042603</v>
+        <v>4.13555908203125</v>
       </c>
       <c r="M52">
-        <v>-3.650698184967041</v>
+        <v>-3.946748018264771</v>
       </c>
       <c r="N52">
-        <v>5.600703716278076</v>
+        <v>8.900020599365234</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2781,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1701604800</v>
+        <v>1701691200</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -2790,34 +2790,34 @@
         <v>33</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>77.09999847412109</v>
       </c>
       <c r="F53">
-        <v>25.6646728515625</v>
+        <v>24.73770141601562</v>
       </c>
       <c r="G53">
-        <v>24.45944213867188</v>
+        <v>23.54605102539062</v>
       </c>
       <c r="H53">
-        <v>-44.63385009765625</v>
+        <v>-50.35713195800781</v>
       </c>
       <c r="I53">
-        <v>44.92958831787109</v>
+        <v>47.10914993286133</v>
       </c>
       <c r="J53">
-        <v>96600.0234375</v>
+        <v>96734.703125</v>
       </c>
       <c r="K53">
-        <v>99.5</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L53">
-        <v>2.792485237121582</v>
+        <v>0.328662097454071</v>
       </c>
       <c r="M53">
-        <v>-3.988508224487305</v>
+        <v>-2.740016937255859</v>
       </c>
       <c r="N53">
-        <v>6.110261917114258</v>
+        <v>4.100971221923828</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2825,7 +2825,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1701615600</v>
+        <v>1701702000</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -2834,34 +2834,34 @@
         <v>34</v>
       </c>
       <c r="E54">
-        <v>53.70000076293945</v>
+        <v>69.09999847412109</v>
       </c>
       <c r="F54">
-        <v>29.56536865234375</v>
+        <v>26.14926147460938</v>
       </c>
       <c r="G54">
-        <v>27.6490478515625</v>
+        <v>24.90817260742188</v>
       </c>
       <c r="H54">
-        <v>-49.63137817382812</v>
+        <v>-39.88720703125</v>
       </c>
       <c r="I54">
-        <v>42.6598014831543</v>
+        <v>44.42350387573242</v>
       </c>
       <c r="J54">
-        <v>96678.015625</v>
+        <v>96861.0546875</v>
       </c>
       <c r="K54">
-        <v>81</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L54">
-        <v>-1.110275864601135</v>
+        <v>1.189533710479736</v>
       </c>
       <c r="M54">
-        <v>-2.026562452316284</v>
+        <v>-2.578967332839966</v>
       </c>
       <c r="N54">
-        <v>3.410089254379272</v>
+        <v>3.103257656097412</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2869,7 +2869,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1701626400</v>
+        <v>1701712800</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -2878,34 +2878,34 @@
         <v>35</v>
       </c>
       <c r="E55">
-        <v>40.60000228881836</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="F55">
-        <v>33.00607299804688</v>
+        <v>32.33404541015625</v>
       </c>
       <c r="G55">
-        <v>31.26571655273438</v>
+        <v>30.20437622070312</v>
       </c>
       <c r="H55">
-        <v>-55.2281494140625</v>
+        <v>-42.2177734375</v>
       </c>
       <c r="I55">
-        <v>43.17729568481445</v>
+        <v>41.66108322143555</v>
       </c>
       <c r="J55">
-        <v>96437.1796875</v>
+        <v>96688.4765625</v>
       </c>
       <c r="K55">
-        <v>100</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="L55">
-        <v>-1.565436959266663</v>
+        <v>-0.8905102610588074</v>
       </c>
       <c r="M55">
-        <v>-0.14666748046875</v>
+        <v>0.1305004805326462</v>
       </c>
       <c r="N55">
-        <v>2.409332036972046</v>
+        <v>2.506921529769897</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2913,7 +2913,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1701637200</v>
+        <v>1701723600</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -2922,34 +2922,34 @@
         <v>36</v>
       </c>
       <c r="E56">
-        <v>39.90000152587891</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="F56">
-        <v>33.03741455078125</v>
+        <v>33.93060302734375</v>
       </c>
       <c r="G56">
-        <v>31.70068359375</v>
+        <v>32.09109497070312</v>
       </c>
       <c r="H56">
-        <v>-39.94242858886719</v>
+        <v>-65.81231689453125</v>
       </c>
       <c r="I56">
-        <v>43.83748245239258</v>
+        <v>38.7978630065918</v>
       </c>
       <c r="J56">
-        <v>96247.5078125</v>
+        <v>96491.640625</v>
       </c>
       <c r="K56">
-        <v>98.30000305175781</v>
+        <v>87.80000305175781</v>
       </c>
       <c r="L56">
-        <v>-0.8294286727905273</v>
+        <v>-2.325727462768555</v>
       </c>
       <c r="M56">
-        <v>-0.4632616937160492</v>
+        <v>-3.433366537094116</v>
       </c>
       <c r="N56">
-        <v>1.906726121902466</v>
+        <v>3.409140825271606</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2957,7 +2957,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1701648000</v>
+        <v>1701734400</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -2966,34 +2966,34 @@
         <v>37</v>
       </c>
       <c r="E57">
-        <v>45.29999923706055</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F57">
-        <v>31.61285400390625</v>
+        <v>33.35726928710938</v>
       </c>
       <c r="G57">
-        <v>30.57412719726562</v>
+        <v>32.88156127929688</v>
       </c>
       <c r="H57">
-        <v>-35.47840881347656</v>
+        <v>-64.84567260742188</v>
       </c>
       <c r="I57">
-        <v>43.36032867431641</v>
+        <v>34.66778564453125</v>
       </c>
       <c r="J57">
-        <v>96291.3671875</v>
+        <v>96483.0703125</v>
       </c>
       <c r="K57">
-        <v>93.40000152587891</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>-2.173244476318359</v>
+        <v>-1.249858379364014</v>
       </c>
       <c r="M57">
-        <v>1.224387168884277</v>
+        <v>-1.977983355522156</v>
       </c>
       <c r="N57">
-        <v>2.5</v>
+        <v>2.507226705551147</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1701658800</v>
+        <v>1701745200</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -3010,34 +3010,34 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>58.29999923706055</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="F58">
-        <v>29.06439208984375</v>
+        <v>30.40554809570312</v>
       </c>
       <c r="G58">
-        <v>28.48825073242188</v>
+        <v>30.05426025390625</v>
       </c>
       <c r="H58">
-        <v>-42.13041687011719</v>
+        <v>-63.85600280761719</v>
       </c>
       <c r="I58">
-        <v>43.65083312988281</v>
+        <v>40.33658981323242</v>
       </c>
       <c r="J58">
-        <v>96501.34375</v>
+        <v>96729.8671875</v>
       </c>
       <c r="K58">
-        <v>99.59999847412109</v>
+        <v>5</v>
       </c>
       <c r="L58">
-        <v>-1.724709391593933</v>
+        <v>-2.006728410720825</v>
       </c>
       <c r="M58">
-        <v>2.132541418075562</v>
+        <v>-1.506899356842041</v>
       </c>
       <c r="N58">
-        <v>4.014994144439697</v>
+        <v>3.7000732421875</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3045,7 +3045,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1701669600</v>
+        <v>1701756000</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -3054,34 +3054,34 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>66.5</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F59">
-        <v>26.9542236328125</v>
+        <v>28.80990600585938</v>
       </c>
       <c r="G59">
-        <v>26.01742553710938</v>
+        <v>28.38998413085938</v>
       </c>
       <c r="H59">
-        <v>-44.88949584960938</v>
+        <v>-57.04402160644531</v>
       </c>
       <c r="I59">
-        <v>47.90731430053711</v>
+        <v>40.50490570068359</v>
       </c>
       <c r="J59">
-        <v>96608.359375</v>
+        <v>96679.6484375</v>
       </c>
       <c r="K59">
-        <v>79.30000305175781</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="L59">
-        <v>0.6877588033676147</v>
+        <v>-1.461140155792236</v>
       </c>
       <c r="M59">
-        <v>-8.106071472167969</v>
+        <v>1.629550695419312</v>
       </c>
       <c r="N59">
-        <v>9.706647872924805</v>
+        <v>3.016401529312134</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3089,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1701680400</v>
+        <v>1701766800</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -3098,34 +3098,34 @@
         <v>32</v>
       </c>
       <c r="E60">
-        <v>79.59999847412109</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="F60">
-        <v>24.64541625976562</v>
+        <v>25.13211059570312</v>
       </c>
       <c r="G60">
-        <v>23.52304077148438</v>
+        <v>24.91949462890625</v>
       </c>
       <c r="H60">
-        <v>-51.44515991210938</v>
+        <v>-55.26774597167969</v>
       </c>
       <c r="I60">
-        <v>46.47237777709961</v>
+        <v>45.7995719909668</v>
       </c>
       <c r="J60">
-        <v>96500.2734375</v>
+        <v>96714.6875</v>
       </c>
       <c r="K60">
-        <v>100</v>
+        <v>98.70000457763672</v>
       </c>
       <c r="L60">
-        <v>3.299548149108887</v>
+        <v>2.154523849487305</v>
       </c>
       <c r="M60">
-        <v>-2.070131778717041</v>
+        <v>-3.480007171630859</v>
       </c>
       <c r="N60">
-        <v>4.924304485321045</v>
+        <v>7.599999904632568</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3133,7 +3133,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1701691200</v>
+        <v>1701777600</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -3142,34 +3142,34 @@
         <v>33</v>
       </c>
       <c r="E61">
-        <v>77.5</v>
+        <v>76.70000457763672</v>
       </c>
       <c r="F61">
-        <v>25.2415771484375</v>
+        <v>25.18051147460938</v>
       </c>
       <c r="G61">
-        <v>24.07501220703125</v>
+        <v>24.11312866210938</v>
       </c>
       <c r="H61">
-        <v>-50.78010559082031</v>
+        <v>-52.50340270996094</v>
       </c>
       <c r="I61">
-        <v>46.19012451171875</v>
+        <v>45.15124893188477</v>
       </c>
       <c r="J61">
-        <v>96713.7109375</v>
+        <v>96862.078125</v>
       </c>
       <c r="K61">
-        <v>91.80000305175781</v>
+        <v>99.20000457763672</v>
       </c>
       <c r="L61">
-        <v>2.171516180038452</v>
+        <v>4.081757545471191</v>
       </c>
       <c r="M61">
-        <v>-4.163589000701904</v>
+        <v>-5.151472091674805</v>
       </c>
       <c r="N61">
-        <v>6.204154491424561</v>
+        <v>8.602062225341797</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3177,7 +3177,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1701702000</v>
+        <v>1701788400</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -3186,34 +3186,34 @@
         <v>34</v>
       </c>
       <c r="E62">
-        <v>56.90000152587891</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="F62">
-        <v>29.476806640625</v>
+        <v>30.61236572265625</v>
       </c>
       <c r="G62">
-        <v>27.2738037109375</v>
+        <v>28.07400512695312</v>
       </c>
       <c r="H62">
-        <v>-50.81242370605469</v>
+        <v>-54.55751037597656</v>
       </c>
       <c r="I62">
-        <v>45.37135314941406</v>
+        <v>42.30575942993164</v>
       </c>
       <c r="J62">
-        <v>96819.6171875</v>
+        <v>96930.1875</v>
       </c>
       <c r="K62">
-        <v>99.5</v>
+        <v>5</v>
       </c>
       <c r="L62">
-        <v>-0.789965808391571</v>
+        <v>2.353798866271973</v>
       </c>
       <c r="M62">
-        <v>-4.380468845367432</v>
+        <v>-4.913225173950195</v>
       </c>
       <c r="N62">
-        <v>5.106671810150146</v>
+        <v>5.513760089874268</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3221,7 +3221,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1701712800</v>
+        <v>1701799200</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -3230,34 +3230,34 @@
         <v>35</v>
       </c>
       <c r="E63">
-        <v>40.40000152587891</v>
+        <v>36.5</v>
       </c>
       <c r="F63">
-        <v>33.3839111328125</v>
+        <v>35.18777465820312</v>
       </c>
       <c r="G63">
-        <v>31.26272583007812</v>
+        <v>32.46621704101562</v>
       </c>
       <c r="H63">
-        <v>-47.93815612792969</v>
+        <v>-51.29991149902344</v>
       </c>
       <c r="I63">
-        <v>41.90153884887695</v>
+        <v>40.89444732666016</v>
       </c>
       <c r="J63">
-        <v>96590.875</v>
+        <v>96697.3984375</v>
       </c>
       <c r="K63">
-        <v>97.80000305175781</v>
+        <v>60.70000076293945</v>
       </c>
       <c r="L63">
-        <v>-1.481227993965149</v>
+        <v>0.7533886432647705</v>
       </c>
       <c r="M63">
-        <v>-2.480258703231812</v>
+        <v>-4.0157470703125</v>
       </c>
       <c r="N63">
-        <v>3.604428052902222</v>
+        <v>4.607001781463623</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3265,7 +3265,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1701723600</v>
+        <v>1701810000</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -3274,34 +3274,34 @@
         <v>36</v>
       </c>
       <c r="E64">
-        <v>41.29999923706055</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="F64">
-        <v>32.83953857421875</v>
+        <v>36.41619873046875</v>
       </c>
       <c r="G64">
-        <v>31.575439453125</v>
+        <v>34.29010009765625</v>
       </c>
       <c r="H64">
-        <v>-47.29676818847656</v>
+        <v>-56.35324096679688</v>
       </c>
       <c r="I64">
-        <v>40.62889862060547</v>
+        <v>39.71415710449219</v>
       </c>
       <c r="J64">
-        <v>96412.8515625</v>
+        <v>96430.1484375</v>
       </c>
       <c r="K64">
-        <v>91.90000152587891</v>
+        <v>76.70000457763672</v>
       </c>
       <c r="L64">
-        <v>0.0726635754108429</v>
+        <v>6.49010705947876</v>
       </c>
       <c r="M64">
-        <v>-2.116523504257202</v>
+        <v>-3.703293323516846</v>
       </c>
       <c r="N64">
-        <v>3.205346822738647</v>
+        <v>6.900238037109375</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3309,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1701734400</v>
+        <v>1701820800</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
@@ -3318,34 +3318,34 @@
         <v>37</v>
       </c>
       <c r="E65">
-        <v>42.40000152587891</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="F65">
-        <v>32.59463500976562</v>
+        <v>34.30194091796875</v>
       </c>
       <c r="G65">
-        <v>31.89263916015625</v>
+        <v>33.60711669921875</v>
       </c>
       <c r="H65">
-        <v>-43.99964904785156</v>
+        <v>-54.62496948242188</v>
       </c>
       <c r="I65">
-        <v>36.34547424316406</v>
+        <v>37.09013748168945</v>
       </c>
       <c r="J65">
-        <v>96402.53125</v>
+        <v>96478.4921875</v>
       </c>
       <c r="K65">
-        <v>22.30000114440918</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="L65">
-        <v>0.6153417825698853</v>
+        <v>4.201416015625</v>
       </c>
       <c r="M65">
-        <v>1.563588857650757</v>
+        <v>-4.052045822143555</v>
       </c>
       <c r="N65">
-        <v>1.820041537284851</v>
+        <v>7.505237102508545</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3353,7 +3353,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1701745200</v>
+        <v>1701831600</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
@@ -3362,34 +3362,34 @@
         <v>30</v>
       </c>
       <c r="E66">
-        <v>59.20000076293945</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="F66">
-        <v>28.61422729492188</v>
+        <v>31.22067260742188</v>
       </c>
       <c r="G66">
-        <v>28.06512451171875</v>
+        <v>30.40408325195312</v>
       </c>
       <c r="H66">
-        <v>-37.2423095703125</v>
+        <v>-53.65020751953125</v>
       </c>
       <c r="I66">
-        <v>39.8392448425293</v>
+        <v>46.2093391418457</v>
       </c>
       <c r="J66">
-        <v>96573.5078125</v>
+        <v>96666.015625</v>
       </c>
       <c r="K66">
-        <v>100</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L66">
-        <v>3.779863119125366</v>
+        <v>2.235327005386353</v>
       </c>
       <c r="M66">
-        <v>-2.885461330413818</v>
+        <v>-5.898366451263428</v>
       </c>
       <c r="N66">
-        <v>6.719516754150391</v>
+        <v>10.90081405639648</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3397,7 +3397,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1701756000</v>
+        <v>1701842400</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -3406,34 +3406,34 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>73.5</v>
+        <v>64</v>
       </c>
       <c r="F67">
-        <v>25.87384033203125</v>
+        <v>27.0692138671875</v>
       </c>
       <c r="G67">
-        <v>24.87918090820312</v>
+        <v>25.90554809570312</v>
       </c>
       <c r="H67">
-        <v>-72.63714599609375</v>
+        <v>-56.190673828125</v>
       </c>
       <c r="I67">
-        <v>42.4400634765625</v>
+        <v>42.24289703369141</v>
       </c>
       <c r="J67">
-        <v>96674.34375</v>
+        <v>96737.9921875</v>
       </c>
       <c r="K67">
-        <v>100</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L67">
-        <v>2.80791974067688</v>
+        <v>3.031696796417236</v>
       </c>
       <c r="M67">
-        <v>-4.859591960906982</v>
+        <v>-8.204914093017578</v>
       </c>
       <c r="N67">
-        <v>9.70496940612793</v>
+        <v>11.8194408416748</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3441,7 +3441,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1701766800</v>
+        <v>1701853200</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -3450,34 +3450,34 @@
         <v>32</v>
       </c>
       <c r="E68">
-        <v>76.59999847412109</v>
+        <v>68.5</v>
       </c>
       <c r="F68">
-        <v>24.75131225585938</v>
+        <v>25.41766357421875</v>
       </c>
       <c r="G68">
-        <v>23.79779052734375</v>
+        <v>24.26718139648438</v>
       </c>
       <c r="H68">
-        <v>-69.79234313964844</v>
+        <v>-56.76402282714844</v>
       </c>
       <c r="I68">
-        <v>43.25851440429688</v>
+        <v>43.77570343017578</v>
       </c>
       <c r="J68">
-        <v>96717.75</v>
+        <v>96738.8046875</v>
       </c>
       <c r="K68">
-        <v>97.20000457763672</v>
+        <v>77.20000457763672</v>
       </c>
       <c r="L68">
-        <v>2.118308067321777</v>
+        <v>3.700607776641846</v>
       </c>
       <c r="M68">
-        <v>-5.447863578796387</v>
+        <v>-6.415795803070068</v>
       </c>
       <c r="N68">
-        <v>9.31613826751709</v>
+        <v>11.19999980926514</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3485,7 +3485,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1701777600</v>
+        <v>1701864000</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
@@ -3494,34 +3494,34 @@
         <v>33</v>
       </c>
       <c r="E69">
-        <v>75.59999847412109</v>
+        <v>75</v>
       </c>
       <c r="F69">
-        <v>24.67840576171875</v>
+        <v>24.08154296875</v>
       </c>
       <c r="G69">
-        <v>23.5262451171875</v>
+        <v>22.77203369140625</v>
       </c>
       <c r="H69">
-        <v>-54.96380615234375</v>
+        <v>-54.76852416992188</v>
       </c>
       <c r="I69">
-        <v>44.21735382080078</v>
+        <v>31.87237739562988</v>
       </c>
       <c r="J69">
-        <v>96856.546875</v>
+        <v>96909.7421875</v>
       </c>
       <c r="K69">
-        <v>74.20000457763672</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>3.71850323677063</v>
+        <v>4.601464748382568</v>
       </c>
       <c r="M69">
-        <v>-4.892138481140137</v>
+        <v>-6.270730018615723</v>
       </c>
       <c r="N69">
-        <v>8.400891304016113</v>
+        <v>11.50194358825684</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3529,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1701788400</v>
+        <v>1701874800</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
@@ -3538,34 +3538,34 @@
         <v>34</v>
       </c>
       <c r="E70">
-        <v>56</v>
+        <v>50.5</v>
       </c>
       <c r="F70">
-        <v>29.17340087890625</v>
+        <v>29.10540771484375</v>
       </c>
       <c r="G70">
-        <v>26.6827392578125</v>
+        <v>26.33355712890625</v>
       </c>
       <c r="H70">
-        <v>-50.87800598144531</v>
+        <v>-46.83970642089844</v>
       </c>
       <c r="I70">
-        <v>40.31755065917969</v>
+        <v>31.08478927612305</v>
       </c>
       <c r="J70">
-        <v>96937.1171875</v>
+        <v>96967.5546875</v>
       </c>
       <c r="K70">
-        <v>76.59999847412109</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>2.520317316055298</v>
+        <v>3.318920850753784</v>
       </c>
       <c r="M70">
-        <v>-5.434889793395996</v>
+        <v>-7.259501934051514</v>
       </c>
       <c r="N70">
-        <v>6.501768589019775</v>
+        <v>8.804295539855957</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3573,7 +3573,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1701799200</v>
+        <v>1701885600</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
@@ -3582,34 +3582,34 @@
         <v>35</v>
       </c>
       <c r="E71">
-        <v>38.10000228881836</v>
+        <v>33.70000076293945</v>
       </c>
       <c r="F71">
-        <v>33.88296508789062</v>
+        <v>34.10617065429688</v>
       </c>
       <c r="G71">
-        <v>31.08523559570312</v>
+        <v>30.83544921875</v>
       </c>
       <c r="H71">
-        <v>-47.01025390625</v>
+        <v>-60.14736938476562</v>
       </c>
       <c r="I71">
-        <v>39.93734741210938</v>
+        <v>32.36807250976562</v>
       </c>
       <c r="J71">
-        <v>96720.3125</v>
+        <v>96712.8671875</v>
       </c>
       <c r="K71">
-        <v>39.5</v>
+        <v>0.5</v>
       </c>
       <c r="L71">
-        <v>2.332785606384277</v>
+        <v>3.737734317779541</v>
       </c>
       <c r="M71">
-        <v>-5.165280818939209</v>
+        <v>-5.451769828796387</v>
       </c>
       <c r="N71">
-        <v>6.000073432922363</v>
+        <v>7.006674289703369</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3617,7 +3617,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1701810000</v>
+        <v>1701896400</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -3626,34 +3626,34 @@
         <v>36</v>
       </c>
       <c r="E72">
-        <v>34.20000076293945</v>
+        <v>26.30000114440918</v>
       </c>
       <c r="F72">
-        <v>34.4378662109375</v>
+        <v>36.49163818359375</v>
       </c>
       <c r="G72">
-        <v>32.86541748046875</v>
+        <v>34.04721069335938</v>
       </c>
       <c r="H72">
-        <v>-48.37614440917969</v>
+        <v>-55.5577392578125</v>
       </c>
       <c r="I72">
-        <v>39.788330078125</v>
+        <v>33.61868286132812</v>
       </c>
       <c r="J72">
-        <v>96455.1875</v>
+        <v>96359.5859375</v>
       </c>
       <c r="K72">
-        <v>72.59999847412109</v>
+        <v>93.70000457763672</v>
       </c>
       <c r="L72">
-        <v>0.25616455078125</v>
+        <v>2.527570724487305</v>
       </c>
       <c r="M72">
-        <v>-5.468437194824219</v>
+        <v>-4.864016056060791</v>
       </c>
       <c r="N72">
-        <v>6.513916015625</v>
+        <v>6.701025485992432</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3661,7 +3661,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1701820800</v>
+        <v>1701907200</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -3670,34 +3670,34 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <v>34.60000228881836</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="F73">
-        <v>33.79849243164062</v>
+        <v>35.0843505859375</v>
       </c>
       <c r="G73">
-        <v>32.92697143554688</v>
+        <v>34.42410278320312</v>
       </c>
       <c r="H73">
-        <v>-31.91648864746094</v>
+        <v>-58.34291076660156</v>
       </c>
       <c r="I73">
-        <v>41.89121627807617</v>
+        <v>33.58226013183594</v>
       </c>
       <c r="J73">
-        <v>96493.9609375</v>
+        <v>96335.5546875</v>
       </c>
       <c r="K73">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="L73">
-        <v>4.300131797790527</v>
+        <v>3.444140434265137</v>
       </c>
       <c r="M73">
-        <v>-3.037763595581055</v>
+        <v>-4.269863128662109</v>
       </c>
       <c r="N73">
-        <v>6.401009559631348</v>
+        <v>7.605942726135254</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3705,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1701831600</v>
+        <v>1701918000</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -3714,34 +3714,34 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <v>38.70000076293945</v>
+        <v>31.20000076293945</v>
       </c>
       <c r="F74">
-        <v>32.38876342773438</v>
+        <v>32.468505859375</v>
       </c>
       <c r="G74">
-        <v>31.79537963867188</v>
+        <v>32.7698974609375</v>
       </c>
       <c r="H74">
-        <v>-27.67396545410156</v>
+        <v>-29.06944274902344</v>
       </c>
       <c r="I74">
-        <v>38.32465362548828</v>
+        <v>31.4864616394043</v>
       </c>
       <c r="J74">
-        <v>96593.4140625</v>
+        <v>96431.0859375</v>
       </c>
       <c r="K74">
-        <v>87.70000457763672</v>
+        <v>5</v>
       </c>
       <c r="L74">
-        <v>3.460900783538818</v>
+        <v>3.594518899917603</v>
       </c>
       <c r="M74">
-        <v>-1.727519512176514</v>
+        <v>-3.188835382461548</v>
       </c>
       <c r="N74">
-        <v>6.400703430175781</v>
+        <v>8.90113353729248</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3749,7 +3749,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1701842400</v>
+        <v>1701928800</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -3758,34 +3758,34 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <v>54.90000152587891</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="F75">
-        <v>27.12985229492188</v>
+        <v>27.44647216796875</v>
       </c>
       <c r="G75">
-        <v>26.1251220703125</v>
+        <v>26.42898559570312</v>
       </c>
       <c r="H75">
-        <v>-58.66656494140625</v>
+        <v>-28.60191345214844</v>
       </c>
       <c r="I75">
-        <v>39.62377548217773</v>
+        <v>34.37100982666016</v>
       </c>
       <c r="J75">
-        <v>96737.6484375</v>
+        <v>96546.875</v>
       </c>
       <c r="K75">
-        <v>0.6000000238418579</v>
+        <v>15.40000057220459</v>
       </c>
       <c r="L75">
-        <v>5.036081314086914</v>
+        <v>5.256359577178955</v>
       </c>
       <c r="M75">
-        <v>-7.057150840759277</v>
+        <v>-7.206745624542236</v>
       </c>
       <c r="N75">
-        <v>12.70174598693848</v>
+        <v>13.10258769989014</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3793,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1701853200</v>
+        <v>1701939600</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -3802,34 +3802,34 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <v>71.70000457763672</v>
+        <v>59.40000152587891</v>
       </c>
       <c r="F76">
-        <v>24.69091796875</v>
+        <v>25.16357421875</v>
       </c>
       <c r="G76">
-        <v>23.54620361328125</v>
+        <v>24.1055908203125</v>
       </c>
       <c r="H76">
-        <v>-30.76802062988281</v>
+        <v>-35.32736206054688</v>
       </c>
       <c r="I76">
-        <v>38.63079833984375</v>
+        <v>33.92344284057617</v>
       </c>
       <c r="J76">
-        <v>96730.4765625</v>
+        <v>96640.203125</v>
       </c>
       <c r="K76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>4.747883319854736</v>
+        <v>2.508383750915527</v>
       </c>
       <c r="M76">
-        <v>-5.343031883239746</v>
+        <v>-5.508896350860596</v>
       </c>
       <c r="N76">
-        <v>9.801040649414062</v>
+        <v>9.31174373626709</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3837,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1701864000</v>
+        <v>1701950400</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -3846,34 +3846,34 @@
         <v>33</v>
       </c>
       <c r="E77">
-        <v>68.80000305175781</v>
+        <v>66.70000457763672</v>
       </c>
       <c r="F77">
-        <v>24.59457397460938</v>
+        <v>24.07537841796875</v>
       </c>
       <c r="G77">
-        <v>23.3233642578125</v>
+        <v>22.76705932617188</v>
       </c>
       <c r="H77">
-        <v>-59.07350158691406</v>
+        <v>-36.58387756347656</v>
       </c>
       <c r="I77">
-        <v>33.88111877441406</v>
+        <v>33.72025680541992</v>
       </c>
       <c r="J77">
-        <v>96853.4765625</v>
+        <v>96830.0703125</v>
       </c>
       <c r="K77">
-        <v>100</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="L77">
-        <v>4.459658145904541</v>
+        <v>3.371486663818359</v>
       </c>
       <c r="M77">
-        <v>-6.639912128448486</v>
+        <v>-5.542212009429932</v>
       </c>
       <c r="N77">
-        <v>9.304701805114746</v>
+        <v>8.504878044128418</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3881,7 +3881,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1701874800</v>
+        <v>1701961200</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -3890,34 +3890,34 @@
         <v>34</v>
       </c>
       <c r="E78">
-        <v>60.5</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F78">
-        <v>26.14578247070312</v>
+        <v>29.16494750976562</v>
       </c>
       <c r="G78">
-        <v>24.29971313476562</v>
+        <v>26.397705078125</v>
       </c>
       <c r="H78">
-        <v>-59.71533203125</v>
+        <v>-48.58328247070312</v>
       </c>
       <c r="I78">
-        <v>29.38895797729492</v>
+        <v>33.39591979980469</v>
       </c>
       <c r="J78">
-        <v>97001.515625</v>
+        <v>96881.515625</v>
       </c>
       <c r="K78">
-        <v>99.70000457763672</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="L78">
-        <v>4.791271686553955</v>
+        <v>2.240385770797729</v>
       </c>
       <c r="M78">
-        <v>-6.778451919555664</v>
+        <v>-6.846965312957764</v>
       </c>
       <c r="N78">
-        <v>9.310863494873047</v>
+        <v>7.300000190734863</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3925,7 +3925,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1701885600</v>
+        <v>1701972000</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -3934,34 +3934,34 @@
         <v>35</v>
       </c>
       <c r="E79">
-        <v>35.10000228881836</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="F79">
-        <v>31.97052001953125</v>
+        <v>33.80703735351562</v>
       </c>
       <c r="G79">
-        <v>29.04037475585938</v>
+        <v>30.70159912109375</v>
       </c>
       <c r="H79">
-        <v>-58.04588317871094</v>
+        <v>-30.20442199707031</v>
       </c>
       <c r="I79">
-        <v>27.69510841369629</v>
+        <v>31.47928619384766</v>
       </c>
       <c r="J79">
-        <v>96794.9140625</v>
+        <v>96592.1796875</v>
       </c>
       <c r="K79">
-        <v>54.70000076293945</v>
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>5.177870750427246</v>
+        <v>1.461733341217041</v>
       </c>
       <c r="M79">
-        <v>-5.140143871307373</v>
+        <v>-5.484216213226318</v>
       </c>
       <c r="N79">
-        <v>8.504852294921875</v>
+        <v>5.417915344238281</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3969,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1701896400</v>
+        <v>1701982800</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -3978,34 +3978,34 @@
         <v>36</v>
       </c>
       <c r="E80">
-        <v>23.5</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="F80">
-        <v>36.00009155273438</v>
+        <v>35.61602783203125</v>
       </c>
       <c r="G80">
-        <v>33.65289306640625</v>
+        <v>33.21231079101562</v>
       </c>
       <c r="H80">
-        <v>-55.3193359375</v>
+        <v>-44.54074096679688</v>
       </c>
       <c r="I80">
-        <v>32.08799743652344</v>
+        <v>31.45764541625977</v>
       </c>
       <c r="J80">
-        <v>96417.0546875</v>
+        <v>96303.8984375</v>
       </c>
       <c r="K80">
-        <v>6.099999904632568</v>
+        <v>5</v>
       </c>
       <c r="L80">
-        <v>4.783327579498291</v>
+        <v>0.93896484375</v>
       </c>
       <c r="M80">
-        <v>-5.727531433105469</v>
+        <v>-4.219672679901123</v>
       </c>
       <c r="N80">
-        <v>8.501299858093262</v>
+        <v>4.317207336425781</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4013,7 +4013,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1701907200</v>
+        <v>1701993600</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -4022,34 +4022,34 @@
         <v>37</v>
       </c>
       <c r="E81">
-        <v>26.10000038146973</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="F81">
-        <v>33.72940063476562</v>
+        <v>34.22525024414062</v>
       </c>
       <c r="G81">
-        <v>33.796630859375</v>
+        <v>33.5025634765625</v>
       </c>
       <c r="H81">
-        <v>-54.075927734375</v>
+        <v>-49.25138854980469</v>
       </c>
       <c r="I81">
-        <v>32.76580810546875</v>
+        <v>30.82441520690918</v>
       </c>
       <c r="J81">
-        <v>96430.6328125</v>
+        <v>96342.9296875</v>
       </c>
       <c r="K81">
-        <v>78.59999847412109</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L81">
-        <v>4.7281174659729</v>
+        <v>-1.152358412742615</v>
       </c>
       <c r="M81">
-        <v>-2.265270948410034</v>
+        <v>-3.787744045257568</v>
       </c>
       <c r="N81">
-        <v>8.200098037719727</v>
+        <v>5.100067138671875</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4057,7 +4057,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1701918000</v>
+        <v>1702004400</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -4066,34 +4066,34 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>42.20000076293945</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="F82">
-        <v>30.9466552734375</v>
+        <v>32.6390380859375</v>
       </c>
       <c r="G82">
-        <v>29.988525390625</v>
+        <v>32.9498291015625</v>
       </c>
       <c r="H82">
-        <v>-51.51712036132812</v>
+        <v>-60.72431945800781</v>
       </c>
       <c r="I82">
-        <v>38.01570510864258</v>
+        <v>30.93678092956543</v>
       </c>
       <c r="J82">
-        <v>96643.828125</v>
+        <v>96437.7421875</v>
       </c>
       <c r="K82">
-        <v>16.80000114440918</v>
+        <v>66.59999847412109</v>
       </c>
       <c r="L82">
-        <v>5.084609031677246</v>
+        <v>0.8494824171066284</v>
       </c>
       <c r="M82">
-        <v>-10.40203094482422</v>
+        <v>-2.094528675079346</v>
       </c>
       <c r="N82">
-        <v>13.40025615692139</v>
+        <v>2.313346862792969</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4101,7 +4101,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1701928800</v>
+        <v>1702015200</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -4110,34 +4110,34 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>64.09999847412109</v>
+        <v>36</v>
       </c>
       <c r="F83">
-        <v>25.99533081054688</v>
+        <v>30.37164306640625</v>
       </c>
       <c r="G83">
-        <v>24.8487548828125</v>
+        <v>29.21343994140625</v>
       </c>
       <c r="H83">
-        <v>-56.99114990234375</v>
+        <v>-77.13221740722656</v>
       </c>
       <c r="I83">
-        <v>35.88278579711914</v>
+        <v>32.13082885742188</v>
       </c>
       <c r="J83">
-        <v>96628.359375</v>
+        <v>96459.5390625</v>
       </c>
       <c r="K83">
-        <v>5</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L83">
-        <v>5.154711723327637</v>
+        <v>5.911535739898682</v>
       </c>
       <c r="M83">
-        <v>-7.624457836151123</v>
+        <v>-6.871442794799805</v>
       </c>
       <c r="N83">
-        <v>13.60822772979736</v>
+        <v>10.1131591796875</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4145,7 +4145,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1701939600</v>
+        <v>1702026000</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -4154,34 +4154,34 @@
         <v>32</v>
       </c>
       <c r="E84">
-        <v>63.70000076293945</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F84">
-        <v>24.7359619140625</v>
+        <v>25.58480834960938</v>
       </c>
       <c r="G84">
-        <v>23.7060546875</v>
+        <v>24.45416259765625</v>
       </c>
       <c r="H84">
-        <v>-58.76716613769531</v>
+        <v>-75.40090942382812</v>
       </c>
       <c r="I84">
-        <v>35.03484344482422</v>
+        <v>34.60795974731445</v>
       </c>
       <c r="J84">
-        <v>96676.9140625</v>
+        <v>96534.4765625</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="L84">
-        <v>2.616242647171021</v>
+        <v>2.268681526184082</v>
       </c>
       <c r="M84">
-        <v>-4.806691646575928</v>
+        <v>-7.550251483917236</v>
       </c>
       <c r="N84">
-        <v>9.007796287536621</v>
+        <v>10.40361309051514</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4189,7 +4189,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1701950400</v>
+        <v>1702036800</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -4198,34 +4198,34 @@
         <v>33</v>
       </c>
       <c r="E85">
-        <v>69.80000305175781</v>
+        <v>62.70000076293945</v>
       </c>
       <c r="F85">
-        <v>23.76364135742188</v>
+        <v>24.94476318359375</v>
       </c>
       <c r="G85">
-        <v>22.50445556640625</v>
+        <v>23.64849853515625</v>
       </c>
       <c r="H85">
-        <v>-59.12045288085938</v>
+        <v>-43.23908996582031</v>
       </c>
       <c r="I85">
-        <v>34.26559829711914</v>
+        <v>35.34458541870117</v>
       </c>
       <c r="J85">
-        <v>96897.9140625</v>
+        <v>96719.5625</v>
       </c>
       <c r="K85">
-        <v>5</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="L85">
-        <v>4.191850662231445</v>
+        <v>3.940759181976318</v>
       </c>
       <c r="M85">
-        <v>-4.569941520690918</v>
+        <v>-6.0020432472229</v>
       </c>
       <c r="N85">
-        <v>8.107306480407715</v>
+        <v>9.800871849060059</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4233,7 +4233,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1701961200</v>
+        <v>1702047600</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -4242,34 +4242,34 @@
         <v>34</v>
       </c>
       <c r="E86">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="F86">
-        <v>28.50076293945312</v>
+        <v>30.28912353515625</v>
       </c>
       <c r="G86">
-        <v>25.9132080078125</v>
+        <v>27.4326171875</v>
       </c>
       <c r="H86">
-        <v>-53.92173767089844</v>
+        <v>-64.43174743652344</v>
       </c>
       <c r="I86">
-        <v>32.9646110534668</v>
+        <v>35.8352165222168</v>
       </c>
       <c r="J86">
-        <v>96976.6875</v>
+        <v>96791.609375</v>
       </c>
       <c r="K86">
-        <v>63.5</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="L86">
-        <v>2.031989812850952</v>
+        <v>0.4489990174770355</v>
       </c>
       <c r="M86">
-        <v>-6.345293045043945</v>
+        <v>-6.278168678283691</v>
       </c>
       <c r="N86">
-        <v>7.400000095367432</v>
+        <v>6.804428100585938</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4277,7 +4277,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1701972000</v>
+        <v>1702058400</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -4286,34 +4286,34 @@
         <v>35</v>
       </c>
       <c r="E87">
-        <v>31.70000076293945</v>
+        <v>33</v>
       </c>
       <c r="F87">
-        <v>33.30239868164062</v>
+        <v>34.6817626953125</v>
       </c>
       <c r="G87">
-        <v>30.24166870117188</v>
+        <v>31.66830444335938</v>
       </c>
       <c r="H87">
-        <v>-55.22976684570312</v>
+        <v>-63.45968627929688</v>
       </c>
       <c r="I87">
-        <v>33.01726913452148</v>
+        <v>35.14977264404297</v>
       </c>
       <c r="J87">
-        <v>96742.5546875</v>
+        <v>96548.8828125</v>
       </c>
       <c r="K87">
-        <v>47.5</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="L87">
-        <v>1.334169864654541</v>
+        <v>-0.09212890267372131</v>
       </c>
       <c r="M87">
-        <v>-5.960410118103027</v>
+        <v>-4.817101955413818</v>
       </c>
       <c r="N87">
-        <v>6.400000095367432</v>
+        <v>4.53021240234375</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4321,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1701982800</v>
+        <v>1702069200</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -4330,34 +4330,34 @@
         <v>36</v>
       </c>
       <c r="E88">
-        <v>26.60000038146973</v>
+        <v>25</v>
       </c>
       <c r="F88">
-        <v>35.04959106445312</v>
+        <v>36.6783447265625</v>
       </c>
       <c r="G88">
-        <v>32.55224609375</v>
+        <v>34.55996704101562</v>
       </c>
       <c r="H88">
-        <v>-57.76364135742188</v>
+        <v>-61.15785217285156</v>
       </c>
       <c r="I88">
-        <v>31.45801162719727</v>
+        <v>33.69903945922852</v>
       </c>
       <c r="J88">
-        <v>96486.8671875</v>
+        <v>96256.4921875</v>
       </c>
       <c r="K88">
-        <v>60.40000152587891</v>
+        <v>93.59999847412109</v>
       </c>
       <c r="L88">
-        <v>2.709604501724243</v>
+        <v>0.4726171791553497</v>
       </c>
       <c r="M88">
-        <v>-4.677802562713623</v>
+        <v>-3.598278760910034</v>
       </c>
       <c r="N88">
-        <v>5.703932285308838</v>
+        <v>3.711817979812622</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4365,7 +4365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1701993600</v>
+        <v>1702080000</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -4374,34 +4374,34 @@
         <v>37</v>
       </c>
       <c r="E89">
-        <v>26.60000038146973</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F89">
-        <v>33.81292724609375</v>
+        <v>35.37521362304688</v>
       </c>
       <c r="G89">
-        <v>33.63742065429688</v>
+        <v>35.23281860351562</v>
       </c>
       <c r="H89">
-        <v>-72.14979553222656</v>
+        <v>-63.52313232421875</v>
       </c>
       <c r="I89">
-        <v>30.30963134765625</v>
+        <v>29.85798645019531</v>
       </c>
       <c r="J89">
-        <v>96486.328125</v>
+        <v>96263.4765625</v>
       </c>
       <c r="K89">
-        <v>38.70000076293945</v>
+        <v>100</v>
       </c>
       <c r="L89">
-        <v>1.83138906955719</v>
+        <v>0.5027099251747131</v>
       </c>
       <c r="M89">
-        <v>-0.5903418064117432</v>
+        <v>-2.413298368453979</v>
       </c>
       <c r="N89">
-        <v>2.200182914733887</v>
+        <v>2.600496530532837</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4409,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1702004400</v>
+        <v>1702090800</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
@@ -4418,34 +4418,34 @@
         <v>30</v>
       </c>
       <c r="E90">
-        <v>38.29999923706055</v>
+        <v>29.80000114440918</v>
       </c>
       <c r="F90">
-        <v>31.762939453125</v>
+        <v>33.2052001953125</v>
       </c>
       <c r="G90">
-        <v>30.8046875</v>
+        <v>32.79879760742188</v>
       </c>
       <c r="H90">
-        <v>-71.638916015625</v>
+        <v>-61.77774047851562</v>
       </c>
       <c r="I90">
-        <v>37.37575531005859</v>
+        <v>34.46489334106445</v>
       </c>
       <c r="J90">
-        <v>96693.9765625</v>
+        <v>96467.7109375</v>
       </c>
       <c r="K90">
-        <v>100</v>
+        <v>48.90000152587891</v>
       </c>
       <c r="L90">
-        <v>5.951039791107178</v>
+        <v>3.655717611312866</v>
       </c>
       <c r="M90">
-        <v>-7.088911056518555</v>
+        <v>-3.810549259185791</v>
       </c>
       <c r="N90">
-        <v>10.40058612823486</v>
+        <v>9.511160850524902</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4453,7 +4453,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1702015200</v>
+        <v>1702101600</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -4462,34 +4462,34 @@
         <v>31</v>
       </c>
       <c r="E91">
-        <v>53.60000228881836</v>
+        <v>52.79999923706055</v>
       </c>
       <c r="F91">
-        <v>28.4453125</v>
+        <v>29.18118286132812</v>
       </c>
       <c r="G91">
-        <v>27.20974731445312</v>
+        <v>27.94479370117188</v>
       </c>
       <c r="H91">
-        <v>-70.10218811035156</v>
+        <v>-62.49217224121094</v>
       </c>
       <c r="I91">
-        <v>38.46131896972656</v>
+        <v>40.30625152587891</v>
       </c>
       <c r="J91">
-        <v>96691.5859375</v>
+        <v>96607.25</v>
       </c>
       <c r="K91">
-        <v>75.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L91">
-        <v>2.376909017562866</v>
+        <v>1.918681621551514</v>
       </c>
       <c r="M91">
-        <v>-8.553872108459473</v>
+        <v>-8.18190860748291</v>
       </c>
       <c r="N91">
-        <v>10.70263957977295</v>
+        <v>10.50000476837158</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4497,7 +4497,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1702026000</v>
+        <v>1702112400</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
@@ -4506,34 +4506,34 @@
         <v>32</v>
       </c>
       <c r="E92">
-        <v>65.90000152587891</v>
+        <v>65.70000457763672</v>
       </c>
       <c r="F92">
-        <v>25.37954711914062</v>
+        <v>26.595947265625</v>
       </c>
       <c r="G92">
-        <v>24.2515869140625</v>
+        <v>25.40298461914062</v>
       </c>
       <c r="H92">
-        <v>-69.59941101074219</v>
+        <v>-63.45306396484375</v>
       </c>
       <c r="I92">
-        <v>36.15167617797852</v>
+        <v>41.09125900268555</v>
       </c>
       <c r="J92">
-        <v>96625.359375</v>
+        <v>96596.921875</v>
       </c>
       <c r="K92">
-        <v>5</v>
+        <v>71.30000305175781</v>
       </c>
       <c r="L92">
-        <v>3.090625047683716</v>
+        <v>3.093227386474609</v>
       </c>
       <c r="M92">
-        <v>-6.393356800079346</v>
+        <v>-6.534516334533691</v>
       </c>
       <c r="N92">
-        <v>10.70889949798584</v>
+        <v>9.113750457763672</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4541,7 +4541,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1702036800</v>
+        <v>1702123200</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
@@ -4550,34 +4550,34 @@
         <v>33</v>
       </c>
       <c r="E93">
-        <v>70.90000152587891</v>
+        <v>72.30000305175781</v>
       </c>
       <c r="F93">
-        <v>24.56112670898438</v>
+        <v>25.24105834960938</v>
       </c>
       <c r="G93">
-        <v>23.27279663085938</v>
+        <v>23.90634155273438</v>
       </c>
       <c r="H93">
-        <v>-70.3389892578125</v>
+        <v>-58.08145141601562</v>
       </c>
       <c r="I93">
-        <v>35.90645217895508</v>
+        <v>40.8260498046875</v>
       </c>
       <c r="J93">
-        <v>96867.078125</v>
+        <v>96736.2109375</v>
       </c>
       <c r="K93">
-        <v>50.90000152587891</v>
+        <v>44.5</v>
       </c>
       <c r="L93">
-        <v>4.493618011474609</v>
+        <v>3.73901104927063</v>
       </c>
       <c r="M93">
-        <v>-5.297348499298096</v>
+        <v>-6.320527076721191</v>
       </c>
       <c r="N93">
-        <v>9.201174736022949</v>
+        <v>9.1131591796875</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4585,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1702047600</v>
+        <v>1702134000</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
@@ -4594,34 +4594,34 @@
         <v>34</v>
       </c>
       <c r="E94">
-        <v>50.40000152587891</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="F94">
-        <v>29.66488647460938</v>
+        <v>30.62081909179688</v>
       </c>
       <c r="G94">
-        <v>26.96310424804688</v>
+        <v>27.81103515625</v>
       </c>
       <c r="H94">
-        <v>-70.80604553222656</v>
+        <v>-50.35592651367188</v>
       </c>
       <c r="I94">
-        <v>35.91950607299805</v>
+        <v>40.26237106323242</v>
       </c>
       <c r="J94">
-        <v>96970.0859375</v>
+        <v>96841.125</v>
       </c>
       <c r="K94">
-        <v>98.09999847412109</v>
+        <v>28.80000114440918</v>
       </c>
       <c r="L94">
-        <v>1.605847120285034</v>
+        <v>-0.2667871117591858</v>
       </c>
       <c r="M94">
-        <v>-6.560600280761719</v>
+        <v>-6.035222053527832</v>
       </c>
       <c r="N94">
-        <v>7.0068359375</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4629,7 +4629,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1702058400</v>
+        <v>1702144800</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
@@ -4638,34 +4638,34 @@
         <v>35</v>
       </c>
       <c r="E95">
-        <v>35.10000228881836</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="F95">
-        <v>34.24456787109375</v>
+        <v>35.249267578125</v>
       </c>
       <c r="G95">
-        <v>31.40853881835938</v>
+        <v>32.23065185546875</v>
       </c>
       <c r="H95">
-        <v>-67.81771850585938</v>
+        <v>-51.96943664550781</v>
       </c>
       <c r="I95">
-        <v>34.854248046875</v>
+        <v>39.40312576293945</v>
       </c>
       <c r="J95">
-        <v>96727.5234375</v>
+        <v>96600.2734375</v>
       </c>
       <c r="K95">
-        <v>73.80000305175781</v>
+        <v>47.29999923706055</v>
       </c>
       <c r="L95">
-        <v>0.6055712699890137</v>
+        <v>-0.2083373963832855</v>
       </c>
       <c r="M95">
-        <v>-4.785373210906982</v>
+        <v>-4.81509256362915</v>
       </c>
       <c r="N95">
-        <v>4.606884956359863</v>
+        <v>4.804925441741943</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4673,7 +4673,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1702069200</v>
+        <v>1702155600</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
@@ -4682,34 +4682,34 @@
         <v>36</v>
       </c>
       <c r="E96">
-        <v>27.10000038146973</v>
+        <v>27.5</v>
       </c>
       <c r="F96">
-        <v>36.32318115234375</v>
+        <v>36.70388793945312</v>
       </c>
       <c r="G96">
-        <v>34.15090942382812</v>
+        <v>34.7283935546875</v>
       </c>
       <c r="H96">
-        <v>-68.62538146972656</v>
+        <v>-63.20916748046875</v>
       </c>
       <c r="I96">
-        <v>35.14420318603516</v>
+        <v>38.10948944091797</v>
       </c>
       <c r="J96">
-        <v>96431.6796875</v>
+        <v>96309.6171875</v>
       </c>
       <c r="K96">
-        <v>99.20000457763672</v>
+        <v>100</v>
       </c>
       <c r="L96">
-        <v>3.781601428985596</v>
+        <v>-0.5896435379981995</v>
       </c>
       <c r="M96">
-        <v>-4.368403434753418</v>
+        <v>-4.412456035614014</v>
       </c>
       <c r="N96">
-        <v>4.600067138671875</v>
+        <v>4.71055793762207</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4717,7 +4717,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1702080000</v>
+        <v>1702166400</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
@@ -4726,34 +4726,34 @@
         <v>37</v>
       </c>
       <c r="E97">
-        <v>38.29999923706055</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F97">
-        <v>32.05935668945312</v>
+        <v>33.06546020507812</v>
       </c>
       <c r="G97">
-        <v>30.97329711914062</v>
+        <v>32.1817626953125</v>
       </c>
       <c r="H97">
-        <v>-64.30987548828125</v>
+        <v>-52.13807678222656</v>
       </c>
       <c r="I97">
-        <v>36.28060913085938</v>
+        <v>35.73822402954102</v>
       </c>
       <c r="J97">
-        <v>96512.9609375</v>
+        <v>96381.25</v>
       </c>
       <c r="K97">
-        <v>90.80000305175781</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="L97">
-        <v>-1.013461947441101</v>
+        <v>4.222719669342041</v>
       </c>
       <c r="M97">
-        <v>-8.907026290893555</v>
+        <v>-6.643808364868164</v>
       </c>
       <c r="N97">
-        <v>9.509332656860352</v>
+        <v>8.701296806335449</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4761,7 +4761,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1702090800</v>
+        <v>1702177200</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
@@ -4770,34 +4770,34 @@
         <v>30</v>
       </c>
       <c r="E98">
-        <v>42.40000152587891</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="F98">
-        <v>31.01080322265625</v>
+        <v>31.7847900390625</v>
       </c>
       <c r="G98">
-        <v>29.93011474609375</v>
+        <v>31.68963623046875</v>
       </c>
       <c r="H98">
-        <v>-46.4874267578125</v>
+        <v>-39.00105285644531</v>
       </c>
       <c r="I98">
-        <v>36.83950042724609</v>
+        <v>34.89860534667969</v>
       </c>
       <c r="J98">
-        <v>96686.703125</v>
+        <v>96487.09375</v>
       </c>
       <c r="K98">
         <v>100</v>
       </c>
       <c r="L98">
-        <v>4.773041725158691</v>
+        <v>2.361706495285034</v>
       </c>
       <c r="M98">
-        <v>-6.140695571899414</v>
+        <v>-5.283046722412109</v>
       </c>
       <c r="N98">
-        <v>9.801745414733887</v>
+        <v>10.2172269821167</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4805,7 +4805,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1702101600</v>
+        <v>1702188000</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -4814,34 +4814,34 @@
         <v>31</v>
       </c>
       <c r="E99">
-        <v>57.20000076293945</v>
+        <v>55.10000228881836</v>
       </c>
       <c r="F99">
-        <v>28.1436767578125</v>
+        <v>27.81527709960938</v>
       </c>
       <c r="G99">
-        <v>26.86325073242188</v>
+        <v>26.8387451171875</v>
       </c>
       <c r="H99">
-        <v>-6.408294677734375</v>
+        <v>-34.83158874511719</v>
       </c>
       <c r="I99">
-        <v>37.07411575317383</v>
+        <v>39.86136627197266</v>
       </c>
       <c r="J99">
-        <v>96692.6796875</v>
+        <v>96614.1953125</v>
       </c>
       <c r="K99">
-        <v>90.80000305175781</v>
+        <v>21</v>
       </c>
       <c r="L99">
-        <v>1.997687935829163</v>
+        <v>4.233127117156982</v>
       </c>
       <c r="M99">
-        <v>-8.702004432678223</v>
+        <v>-7.832001686096191</v>
       </c>
       <c r="N99">
-        <v>11.80174541473389</v>
+        <v>12.00257015228271</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4849,7 +4849,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1702112400</v>
+        <v>1702198800</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
@@ -4858,34 +4858,34 @@
         <v>32</v>
       </c>
       <c r="E100">
-        <v>66.40000152587891</v>
+        <v>58.60000228881836</v>
       </c>
       <c r="F100">
-        <v>26.12545776367188</v>
+        <v>25.9271240234375</v>
       </c>
       <c r="G100">
-        <v>24.90545654296875</v>
+        <v>24.75390625</v>
       </c>
       <c r="H100">
-        <v>-68.84814453125</v>
+        <v>-54.03054809570312</v>
       </c>
       <c r="I100">
-        <v>38.08535385131836</v>
+        <v>39.21926498413086</v>
       </c>
       <c r="J100">
-        <v>96693.484375</v>
+        <v>96555.7109375</v>
       </c>
       <c r="K100">
-        <v>9.300000190734863</v>
+        <v>100</v>
       </c>
       <c r="L100">
-        <v>2.004040479660034</v>
+        <v>5.135412693023682</v>
       </c>
       <c r="M100">
-        <v>-6.226535320281982</v>
+        <v>-5.967172622680664</v>
       </c>
       <c r="N100">
-        <v>8.903613090515137</v>
+        <v>11.10140705108643</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4893,7 +4893,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1702123200</v>
+        <v>1702209600</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -4902,34 +4902,34 @@
         <v>33</v>
       </c>
       <c r="E101">
-        <v>69.30000305175781</v>
+        <v>63.5</v>
       </c>
       <c r="F101">
-        <v>25.20932006835938</v>
+        <v>24.5841064453125</v>
       </c>
       <c r="G101">
-        <v>23.928955078125</v>
+        <v>23.31588745117188</v>
       </c>
       <c r="H101">
-        <v>-69.40664672851562</v>
+        <v>-64.58551025390625</v>
       </c>
       <c r="I101">
-        <v>37.80858612060547</v>
+        <v>38.45742797851562</v>
       </c>
       <c r="J101">
-        <v>96914.1484375</v>
+        <v>96747.1171875</v>
       </c>
       <c r="K101">
-        <v>6.5</v>
+        <v>100</v>
       </c>
       <c r="L101">
-        <v>3.036657571792603</v>
+        <v>4.201996803283691</v>
       </c>
       <c r="M101">
-        <v>-5.068095684051514</v>
+        <v>-6.107780456542969</v>
       </c>
       <c r="N101">
-        <v>8</v>
+        <v>10.80140781402588</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4937,7 +4937,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1702134000</v>
+        <v>1702220400</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
@@ -4946,34 +4946,34 @@
         <v>34</v>
       </c>
       <c r="E102">
-        <v>49.29999923706055</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F102">
-        <v>30.08535766601562</v>
+        <v>29.74221801757812</v>
       </c>
       <c r="G102">
-        <v>27.31658935546875</v>
+        <v>27.0225830078125</v>
       </c>
       <c r="H102">
-        <v>-65.35804748535156</v>
+        <v>-62.01516723632812</v>
       </c>
       <c r="I102">
-        <v>38.07578659057617</v>
+        <v>38.29570388793945</v>
       </c>
       <c r="J102">
-        <v>97012.7421875</v>
+        <v>96840.3671875</v>
       </c>
       <c r="K102">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L102">
-        <v>2.157468318939209</v>
+        <v>2.167949199676514</v>
       </c>
       <c r="M102">
-        <v>-5.924521446228027</v>
+        <v>-7.322980880737305</v>
       </c>
       <c r="N102">
-        <v>6.700036525726318</v>
+        <v>8.123075485229492</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4981,7 +4981,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1702144800</v>
+        <v>1702231200</v>
       </c>
       <c r="C103" t="s">
         <v>25</v>
@@ -4990,34 +4990,34 @@
         <v>35</v>
       </c>
       <c r="E103">
-        <v>34.60000228881836</v>
+        <v>33.5</v>
       </c>
       <c r="F103">
-        <v>34.63360595703125</v>
+        <v>34.6614990234375</v>
       </c>
       <c r="G103">
-        <v>31.72198486328125</v>
+        <v>31.54959106445312</v>
       </c>
       <c r="H103">
-        <v>-64.21511840820312</v>
+        <v>-64.95355224609375</v>
       </c>
       <c r="I103">
-        <v>37.02465057373047</v>
+        <v>37.99798202514648</v>
       </c>
       <c r="J103">
-        <v>96721.5390625</v>
+        <v>96580.390625</v>
       </c>
       <c r="K103">
-        <v>20.80000114440918</v>
+        <v>100</v>
       </c>
       <c r="L103">
-        <v>1.555043935775757</v>
+        <v>0.4515234231948853</v>
       </c>
       <c r="M103">
-        <v>-4.736420631408691</v>
+        <v>-6.037331581115723</v>
       </c>
       <c r="N103">
-        <v>5.000033855438232</v>
+        <v>6.200000286102295</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5025,7 +5025,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1702155600</v>
+        <v>1702242000</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -5034,34 +5034,34 @@
         <v>36</v>
       </c>
       <c r="E104">
-        <v>28.20000076293945</v>
+        <v>28.5</v>
       </c>
       <c r="F104">
-        <v>35.91079711914062</v>
+        <v>36.18875122070312</v>
       </c>
       <c r="G104">
-        <v>34.29580688476562</v>
+        <v>34.00717163085938</v>
       </c>
       <c r="H104">
-        <v>-61.58544921875</v>
+        <v>-63.556396484375</v>
       </c>
       <c r="I104">
-        <v>35.9197998046875</v>
+        <v>38.01597213745117</v>
       </c>
       <c r="J104">
-        <v>96397.9921875</v>
+        <v>96295.765625</v>
       </c>
       <c r="K104">
         <v>100</v>
       </c>
       <c r="L104">
-        <v>0.6811962723731995</v>
+        <v>0.4418359398841858</v>
       </c>
       <c r="M104">
-        <v>-2.44305419921875</v>
+        <v>-3.854423761367798</v>
       </c>
       <c r="N104">
-        <v>3.416433811187744</v>
+        <v>4.613946437835693</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5069,7 +5069,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1702166400</v>
+        <v>1702252800</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -5078,34 +5078,34 @@
         <v>37</v>
       </c>
       <c r="E105">
-        <v>38.40000152587891</v>
+        <v>30.5</v>
       </c>
       <c r="F105">
-        <v>32.21725463867188</v>
+        <v>34.84637451171875</v>
       </c>
       <c r="G105">
-        <v>31.10736083984375</v>
+        <v>34.25799560546875</v>
       </c>
       <c r="H105">
-        <v>-59.58750915527344</v>
+        <v>-64.2252197265625</v>
       </c>
       <c r="I105">
-        <v>39.39401626586914</v>
+        <v>37.11706161499023</v>
       </c>
       <c r="J105">
-        <v>96444.7421875</v>
+        <v>96262.8203125</v>
       </c>
       <c r="K105">
-        <v>96.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L105">
-        <v>0.009374999441206455</v>
+        <v>3.077880859375</v>
       </c>
       <c r="M105">
-        <v>-8.811352729797363</v>
+        <v>-1.532980918884277</v>
       </c>
       <c r="N105">
-        <v>9.402813911437988</v>
+        <v>5.200466156005859</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5113,7 +5113,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1702177200</v>
+        <v>1702263600</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
@@ -5122,34 +5122,34 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>42.79999923706055</v>
+        <v>46</v>
       </c>
       <c r="F106">
-        <v>30.7576904296875</v>
+        <v>31.2000732421875</v>
       </c>
       <c r="G106">
-        <v>29.74801635742188</v>
+        <v>30.36151123046875</v>
       </c>
       <c r="H106">
-        <v>-55.73591613769531</v>
+        <v>-65.09176635742188</v>
       </c>
       <c r="I106">
-        <v>39.70354080200195</v>
+        <v>41.45743179321289</v>
       </c>
       <c r="J106">
-        <v>96646.078125</v>
+        <v>96498.65625</v>
       </c>
       <c r="K106">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L106">
-        <v>1.208000421524048</v>
+        <v>5.661149978637695</v>
       </c>
       <c r="M106">
-        <v>-8.798332214355469</v>
+        <v>-5.970373630523682</v>
       </c>
       <c r="N106">
-        <v>11.10000038146973</v>
+        <v>11.20234489440918</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5157,7 +5157,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1702188000</v>
+        <v>1702274400</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
@@ -5166,34 +5166,34 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>51.10000228881836</v>
+        <v>65.40000152587891</v>
       </c>
       <c r="F107">
-        <v>28.89901733398438</v>
+        <v>27.11892700195312</v>
       </c>
       <c r="G107">
-        <v>27.75869750976562</v>
+        <v>26.00897216796875</v>
       </c>
       <c r="H107">
-        <v>-62.62014770507812</v>
+        <v>-60.66159057617188</v>
       </c>
       <c r="I107">
-        <v>40.48305892944336</v>
+        <v>42.14458465576172</v>
       </c>
       <c r="J107">
-        <v>96594.4921875</v>
+        <v>96545.8515625</v>
       </c>
       <c r="K107">
-        <v>99.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L107">
-        <v>3.687246084213257</v>
+        <v>3.832148313522339</v>
       </c>
       <c r="M107">
-        <v>-8.794777870178223</v>
+        <v>-7.129286766052246</v>
       </c>
       <c r="N107">
-        <v>11.41957855224609</v>
+        <v>11.80009746551514</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5201,7 +5201,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1702198800</v>
+        <v>1702285200</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
@@ -5210,34 +5210,34 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>66.59999847412109</v>
+        <v>71.5</v>
       </c>
       <c r="F108">
-        <v>25.00814819335938</v>
+        <v>25.4517822265625</v>
       </c>
       <c r="G108">
-        <v>23.77804565429688</v>
+        <v>24.32754516601562</v>
       </c>
       <c r="H108">
-        <v>-69.23980712890625</v>
+        <v>-60.57376098632812</v>
       </c>
       <c r="I108">
-        <v>40.29082870483398</v>
+        <v>42.65343856811523</v>
       </c>
       <c r="J108">
-        <v>96612.453125</v>
+        <v>96492.1171875</v>
       </c>
       <c r="K108">
-        <v>82.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L108">
-        <v>3.115866661071777</v>
+        <v>4.362741470336914</v>
       </c>
       <c r="M108">
-        <v>-8.122624397277832</v>
+        <v>-6.090141296386719</v>
       </c>
       <c r="N108">
-        <v>11.40000057220459</v>
+        <v>10.90684032440186</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5245,7 +5245,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1702209600</v>
+        <v>1702296000</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
@@ -5254,34 +5254,34 @@
         <v>33</v>
       </c>
       <c r="E109">
-        <v>72</v>
+        <v>69.09999847412109</v>
       </c>
       <c r="F109">
-        <v>24.354736328125</v>
+        <v>24.6202392578125</v>
       </c>
       <c r="G109">
-        <v>23.04562377929688</v>
+        <v>23.40060424804688</v>
       </c>
       <c r="H109">
-        <v>-45.29006958007812</v>
+        <v>-64.56510925292969</v>
       </c>
       <c r="I109">
-        <v>37.44745254516602</v>
+        <v>41.3238639831543</v>
       </c>
       <c r="J109">
-        <v>96732.171875</v>
+        <v>96726.265625</v>
       </c>
       <c r="K109">
-        <v>27.89999961853027</v>
+        <v>100</v>
       </c>
       <c r="L109">
-        <v>3.059699535369873</v>
+        <v>4.130859375</v>
       </c>
       <c r="M109">
-        <v>-6.342360496520996</v>
+        <v>-6.1602783203125</v>
       </c>
       <c r="N109">
-        <v>9.70030689239502</v>
+        <v>10.22032451629639</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5289,7 +5289,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1702220400</v>
+        <v>1702306800</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -5298,34 +5298,34 @@
         <v>34</v>
       </c>
       <c r="E110">
-        <v>50.10000228881836</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="F110">
-        <v>29.40081787109375</v>
+        <v>29.120849609375</v>
       </c>
       <c r="G110">
-        <v>26.70834350585938</v>
+        <v>26.67303466796875</v>
       </c>
       <c r="H110">
-        <v>-53.607666015625</v>
+        <v>-54.25869750976562</v>
       </c>
       <c r="I110">
-        <v>35.32490539550781</v>
+        <v>38.85343933105469</v>
       </c>
       <c r="J110">
-        <v>96817.0859375</v>
+        <v>96807.1640625</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>97.20000457763672</v>
       </c>
       <c r="L110">
-        <v>2.017734289169312</v>
+        <v>1.798442363739014</v>
       </c>
       <c r="M110">
-        <v>-6.685766220092773</v>
+        <v>-7.449440956115723</v>
       </c>
       <c r="N110">
-        <v>7.608752727508545</v>
+        <v>8.301025390625</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5333,7 +5333,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1702231200</v>
+        <v>1702317600</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
@@ -5342,34 +5342,34 @@
         <v>35</v>
       </c>
       <c r="E111">
-        <v>35.79999923706055</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="F111">
-        <v>34.31918334960938</v>
+        <v>34.06494140625</v>
       </c>
       <c r="G111">
-        <v>31.3826904296875</v>
+        <v>31.1549072265625</v>
       </c>
       <c r="H111">
-        <v>-54.530517578125</v>
+        <v>-45.89279174804688</v>
       </c>
       <c r="I111">
-        <v>34.56232070922852</v>
+        <v>38.90879821777344</v>
       </c>
       <c r="J111">
-        <v>96608.4140625</v>
+        <v>96603.171875</v>
       </c>
       <c r="K111">
-        <v>100</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="L111">
-        <v>2.075197696685791</v>
+        <v>-0.02434570342302322</v>
       </c>
       <c r="M111">
-        <v>-4.516860485076904</v>
+        <v>-5.418708324432373</v>
       </c>
       <c r="N111">
-        <v>5.000171184539795</v>
+        <v>5.815753936767578</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5377,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1702242000</v>
+        <v>1702328400</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
@@ -5386,34 +5386,34 @@
         <v>36</v>
       </c>
       <c r="E112">
-        <v>26.70000076293945</v>
+        <v>27</v>
       </c>
       <c r="F112">
-        <v>36.89089965820312</v>
+        <v>36.5635986328125</v>
       </c>
       <c r="G112">
-        <v>34.30548095703125</v>
+        <v>34.1143798828125</v>
       </c>
       <c r="H112">
-        <v>-51.17214965820312</v>
+        <v>-64.94203186035156</v>
       </c>
       <c r="I112">
-        <v>33.30712127685547</v>
+        <v>39.48422241210938</v>
       </c>
       <c r="J112">
-        <v>96295</v>
+        <v>96290.609375</v>
       </c>
       <c r="K112">
-        <v>20.5</v>
+        <v>25.30000114440918</v>
       </c>
       <c r="L112">
-        <v>4.214321136474609</v>
+        <v>-1.343676686286926</v>
       </c>
       <c r="M112">
-        <v>-3.093403339385986</v>
+        <v>-4.253503322601318</v>
       </c>
       <c r="N112">
-        <v>5.001693725585938</v>
+        <v>5.005406379699707</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5421,7 +5421,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1702252800</v>
+        <v>1702339200</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -5430,34 +5430,34 @@
         <v>37</v>
       </c>
       <c r="E113">
-        <v>25.89999961853027</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="F113">
-        <v>35.07284545898438</v>
+        <v>33.237548828125</v>
       </c>
       <c r="G113">
-        <v>34.693603515625</v>
+        <v>32.93930053710938</v>
       </c>
       <c r="H113">
-        <v>-59.03079223632812</v>
+        <v>-63.19789123535156</v>
       </c>
       <c r="I113">
-        <v>28.49814033508301</v>
+        <v>40.31473541259766</v>
       </c>
       <c r="J113">
-        <v>96279.390625</v>
+        <v>96323.4609375</v>
       </c>
       <c r="K113">
-        <v>7.300000190734863</v>
+        <v>94.09999847412109</v>
       </c>
       <c r="L113">
-        <v>1.933918356895447</v>
+        <v>-3.672587871551514</v>
       </c>
       <c r="M113">
-        <v>-2.927458524703979</v>
+        <v>-3.166911602020264</v>
       </c>
       <c r="N113">
-        <v>4.900049209594727</v>
+        <v>6.90008544921875</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5465,7 +5465,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1702263600</v>
+        <v>1702350000</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -5474,34 +5474,34 @@
         <v>30</v>
       </c>
       <c r="E114">
-        <v>31.10000038146973</v>
+        <v>52.90000152587891</v>
       </c>
       <c r="F114">
-        <v>32.2713623046875</v>
+        <v>28.01910400390625</v>
       </c>
       <c r="G114">
-        <v>32.85345458984375</v>
+        <v>28.8218994140625</v>
       </c>
       <c r="H114">
-        <v>-56.76747131347656</v>
+        <v>-58.77830505371094</v>
       </c>
       <c r="I114">
-        <v>27.53713607788086</v>
+        <v>40.69554138183594</v>
       </c>
       <c r="J114">
-        <v>96449.8671875</v>
+        <v>96548.890625</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L114">
-        <v>2.207102060317993</v>
+        <v>-1.492321729660034</v>
       </c>
       <c r="M114">
-        <v>-1.533913493156433</v>
+        <v>-2.550722599029541</v>
       </c>
       <c r="N114">
-        <v>3.302191257476807</v>
+        <v>4.806494235992432</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5509,7 +5509,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1702274400</v>
+        <v>1702360800</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -5518,34 +5518,34 @@
         <v>31</v>
       </c>
       <c r="E115">
-        <v>50.40000152587891</v>
+        <v>66.40000152587891</v>
       </c>
       <c r="F115">
-        <v>28.1014404296875</v>
+        <v>26.98565673828125</v>
       </c>
       <c r="G115">
-        <v>27.18060302734375</v>
+        <v>25.94247436523438</v>
       </c>
       <c r="H115">
-        <v>-57.46546936035156</v>
+        <v>-55.24002075195312</v>
       </c>
       <c r="I115">
-        <v>31.61086845397949</v>
+        <v>43.23136901855469</v>
       </c>
       <c r="J115">
-        <v>96549.4296875</v>
+        <v>96596.9921875</v>
       </c>
       <c r="K115">
-        <v>5.300000190734863</v>
+        <v>100</v>
       </c>
       <c r="L115">
-        <v>3.145405292510986</v>
+        <v>4.116723537445068</v>
       </c>
       <c r="M115">
-        <v>-7.920803070068359</v>
+        <v>-6.044863224029541</v>
       </c>
       <c r="N115">
-        <v>11.7117395401001</v>
+        <v>9.909790992736816</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5553,7 +5553,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1702285200</v>
+        <v>1702371600</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -5562,34 +5562,34 @@
         <v>32</v>
       </c>
       <c r="E116">
-        <v>62.90000152587891</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="F116">
-        <v>25.50051879882812</v>
+        <v>25.11663818359375</v>
       </c>
       <c r="G116">
-        <v>24.46609497070312</v>
+        <v>24.04641723632812</v>
       </c>
       <c r="H116">
-        <v>-59.87345886230469</v>
+        <v>-63.77801513671875</v>
       </c>
       <c r="I116">
-        <v>29.84095573425293</v>
+        <v>42.44310760498047</v>
       </c>
       <c r="J116">
-        <v>96457.5546875</v>
+        <v>96576.25</v>
       </c>
       <c r="K116">
-        <v>18.39999961853027</v>
+        <v>100</v>
       </c>
       <c r="L116">
-        <v>1.96966552734375</v>
+        <v>3.615942239761353</v>
       </c>
       <c r="M116">
-        <v>-6.260290622711182</v>
+        <v>-5.565507888793945</v>
       </c>
       <c r="N116">
-        <v>10.72237491607666</v>
+        <v>9.507555961608887</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5597,7 +5597,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1702296000</v>
+        <v>1702382400</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -5606,34 +5606,34 @@
         <v>33</v>
       </c>
       <c r="E117">
-        <v>62.40000152587891</v>
+        <v>70.5</v>
       </c>
       <c r="F117">
-        <v>25.07925415039062</v>
+        <v>24.30630493164062</v>
       </c>
       <c r="G117">
-        <v>23.8525390625</v>
+        <v>23.1060791015625</v>
       </c>
       <c r="H117">
-        <v>-68.84246826171875</v>
+        <v>-61.28141784667969</v>
       </c>
       <c r="I117">
-        <v>34.27106475830078</v>
+        <v>40.4896125793457</v>
       </c>
       <c r="J117">
-        <v>96608.6484375</v>
+        <v>96777.5859375</v>
       </c>
       <c r="K117">
-        <v>70.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L117">
-        <v>3.385107278823853</v>
+        <v>4.654731273651123</v>
       </c>
       <c r="M117">
-        <v>-5.550422191619873</v>
+        <v>-5.590827465057373</v>
       </c>
       <c r="N117">
-        <v>8.511735916137695</v>
+        <v>9.322097778320312</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5641,7 +5641,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1702306800</v>
+        <v>1702393200</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -5650,34 +5650,34 @@
         <v>34</v>
       </c>
       <c r="E118">
-        <v>50.90000152587891</v>
+        <v>50.10000228881836</v>
       </c>
       <c r="F118">
-        <v>29.99285888671875</v>
+        <v>27.83251953125</v>
       </c>
       <c r="G118">
-        <v>27.44158935546875</v>
+        <v>25.26913452148438</v>
       </c>
       <c r="H118">
-        <v>-74.08982849121094</v>
+        <v>-58.45619201660156</v>
       </c>
       <c r="I118">
-        <v>35.09115219116211</v>
+        <v>38.00580596923828</v>
       </c>
       <c r="J118">
-        <v>96701.7734375</v>
+        <v>96914.6640625</v>
       </c>
       <c r="K118">
-        <v>17.5</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="L118">
-        <v>-1.541892051696777</v>
+        <v>2.765068292617798</v>
       </c>
       <c r="M118">
-        <v>-4.926804065704346</v>
+        <v>-7.458298206329346</v>
       </c>
       <c r="N118">
-        <v>5.513159275054932</v>
+        <v>8.746980667114258</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5685,7 +5685,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1702317600</v>
+        <v>1702404000</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -5694,34 +5694,34 @@
         <v>35</v>
       </c>
       <c r="E119">
-        <v>35.79999923706055</v>
+        <v>36</v>
       </c>
       <c r="F119">
-        <v>34.60275268554688</v>
+        <v>31.03265380859375</v>
       </c>
       <c r="G119">
-        <v>31.9547119140625</v>
+        <v>28.330810546875</v>
       </c>
       <c r="H119">
-        <v>-74.5712890625</v>
+        <v>-59.10983276367188</v>
       </c>
       <c r="I119">
-        <v>34.17146301269531</v>
+        <v>36.71420669555664</v>
       </c>
       <c r="J119">
-        <v>96470.5546875</v>
+        <v>96715.1875</v>
       </c>
       <c r="K119">
         <v>100</v>
       </c>
       <c r="L119">
-        <v>0.1142529249191284</v>
+        <v>2.520810604095459</v>
       </c>
       <c r="M119">
-        <v>-3.816603899002075</v>
+        <v>-7.576225280761719</v>
       </c>
       <c r="N119">
-        <v>3.408958911895752</v>
+        <v>8.603888511657715</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5729,7 +5729,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1702328400</v>
+        <v>1702414800</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -5738,34 +5738,34 @@
         <v>36</v>
       </c>
       <c r="E120">
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="F120">
-        <v>37.03436279296875</v>
+        <v>33.94036865234375</v>
       </c>
       <c r="G120">
-        <v>34.74810791015625</v>
+        <v>31.82073974609375</v>
       </c>
       <c r="H120">
-        <v>-74.3701171875</v>
+        <v>-58.07002258300781</v>
       </c>
       <c r="I120">
-        <v>32.11181640625</v>
+        <v>35.27309417724609</v>
       </c>
       <c r="J120">
-        <v>96185.9609375</v>
+        <v>96438.265625</v>
       </c>
       <c r="K120">
-        <v>69.70000457763672</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L120">
-        <v>2.581025362014771</v>
+        <v>-0.2028784155845642</v>
       </c>
       <c r="M120">
-        <v>-2.808210372924805</v>
+        <v>-6.745392799377441</v>
       </c>
       <c r="N120">
-        <v>3.600280046463013</v>
+        <v>7.406598091125488</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5773,7 +5773,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1702339200</v>
+        <v>1702425600</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -5782,34 +5782,34 @@
         <v>37</v>
       </c>
       <c r="E121">
-        <v>27.80000114440918</v>
+        <v>30.5</v>
       </c>
       <c r="F121">
-        <v>34.5250244140625</v>
+        <v>32.30642700195312</v>
       </c>
       <c r="G121">
-        <v>34.23251342773438</v>
+        <v>31.86251831054688</v>
       </c>
       <c r="H121">
-        <v>-74.79129028320312</v>
+        <v>-58.57017517089844</v>
       </c>
       <c r="I121">
-        <v>34.39435958862305</v>
+        <v>34.84814453125</v>
       </c>
       <c r="J121">
-        <v>96221.625</v>
+        <v>96440.1484375</v>
       </c>
       <c r="K121">
-        <v>80.40000152587891</v>
+        <v>96.20000457763672</v>
       </c>
       <c r="L121">
-        <v>2.781975030899048</v>
+        <v>2.876865148544312</v>
       </c>
       <c r="M121">
-        <v>-6.360649108886719</v>
+        <v>-5.754140377044678</v>
       </c>
       <c r="N121">
-        <v>8.408875465393066</v>
+        <v>9.002400398254395</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5817,7 +5817,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1702350000</v>
+        <v>1702436400</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -5826,34 +5826,34 @@
         <v>30</v>
       </c>
       <c r="E122">
-        <v>32.10000228881836</v>
+        <v>44.60000228881836</v>
       </c>
       <c r="F122">
-        <v>33.66494750976562</v>
+        <v>29.74887084960938</v>
       </c>
       <c r="G122">
-        <v>32.75930786132812</v>
+        <v>29.02557373046875</v>
       </c>
       <c r="H122">
-        <v>-54.89830017089844</v>
+        <v>-51.29727172851562</v>
       </c>
       <c r="I122">
-        <v>36.60246658325195</v>
+        <v>35.97082901000977</v>
       </c>
       <c r="J122">
-        <v>96361.9609375</v>
+        <v>96569.2890625</v>
       </c>
       <c r="K122">
-        <v>95.30000305175781</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="L122">
-        <v>1.286188960075378</v>
+        <v>1.690434575080872</v>
       </c>
       <c r="M122">
-        <v>-6.431288719177246</v>
+        <v>-6.316997051239014</v>
       </c>
       <c r="N122">
-        <v>8.702300071716309</v>
+        <v>9.51126766204834</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5861,7 +5861,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1702360800</v>
+        <v>1702447200</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -5870,34 +5870,34 @@
         <v>31</v>
       </c>
       <c r="E123">
-        <v>46.60000228881836</v>
+        <v>63.60000228881836</v>
       </c>
       <c r="F123">
-        <v>30.24853515625</v>
+        <v>26.5902099609375</v>
       </c>
       <c r="G123">
-        <v>29.06732177734375</v>
+        <v>25.7392578125</v>
       </c>
       <c r="H123">
-        <v>-65.79698181152344</v>
+        <v>-54.74342346191406</v>
       </c>
       <c r="I123">
-        <v>41.78527450561523</v>
+        <v>39.44158935546875</v>
       </c>
       <c r="J123">
-        <v>96500.71875</v>
+        <v>96607.21875</v>
       </c>
       <c r="K123">
-        <v>100</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="L123">
-        <v>1.472243666648865</v>
+        <v>3.235402822494507</v>
       </c>
       <c r="M123">
-        <v>-7.614079475402832</v>
+        <v>-5.209130764007568</v>
       </c>
       <c r="N123">
-        <v>8.21712589263916</v>
+        <v>10.40683650970459</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5905,7 +5905,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1702371600</v>
+        <v>1702458000</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -5914,34 +5914,34 @@
         <v>32</v>
       </c>
       <c r="E124">
-        <v>60.79999923706055</v>
+        <v>62.29999923706055</v>
       </c>
       <c r="F124">
-        <v>27.37570190429688</v>
+        <v>25.71295166015625</v>
       </c>
       <c r="G124">
-        <v>26.15841674804688</v>
+        <v>24.72946166992188</v>
       </c>
       <c r="H124">
-        <v>-61.88133239746094</v>
+        <v>-58.746337890625</v>
       </c>
       <c r="I124">
-        <v>43.28069305419922</v>
+        <v>39.40901947021484</v>
       </c>
       <c r="J124">
-        <v>96446.0625</v>
+        <v>96574.078125</v>
       </c>
       <c r="K124">
-        <v>99.59999847412109</v>
+        <v>99</v>
       </c>
       <c r="L124">
-        <v>2.176989793777466</v>
+        <v>1.718774318695068</v>
       </c>
       <c r="M124">
-        <v>-6.199377536773682</v>
+        <v>-4.243837833404541</v>
       </c>
       <c r="N124">
-        <v>7.704751014709473</v>
+        <v>7.503620147705078</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5949,7 +5949,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1702382400</v>
+        <v>1702468800</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -5958,34 +5958,34 @@
         <v>33</v>
       </c>
       <c r="E125">
-        <v>66</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="F125">
-        <v>26.54110717773438</v>
+        <v>24.80337524414062</v>
       </c>
       <c r="G125">
-        <v>25.2388916015625</v>
+        <v>23.62399291992188</v>
       </c>
       <c r="H125">
-        <v>-58.92066955566406</v>
+        <v>-55.80598449707031</v>
       </c>
       <c r="I125">
-        <v>42.36923980712891</v>
+        <v>36.94345855712891</v>
       </c>
       <c r="J125">
-        <v>96661.15625</v>
+        <v>96661.40625</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="L125">
-        <v>1.581347584724426</v>
+        <v>3.934223651885986</v>
       </c>
       <c r="M125">
-        <v>-6.137929439544678</v>
+        <v>-3.580507755279541</v>
       </c>
       <c r="N125">
-        <v>7.700508117675781</v>
+        <v>7.309615612030029</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5993,7 +5993,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1702393200</v>
+        <v>1702479600</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -6002,34 +6002,34 @@
         <v>34</v>
       </c>
       <c r="E126">
-        <v>47.40000152587891</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="F126">
-        <v>30.97421264648438</v>
+        <v>29.34677124023438</v>
       </c>
       <c r="G126">
-        <v>28.28549194335938</v>
+        <v>26.5828857421875</v>
       </c>
       <c r="H126">
-        <v>-45.20220947265625</v>
+        <v>-34.84547424316406</v>
       </c>
       <c r="I126">
-        <v>40.8361701965332</v>
+        <v>36.92970657348633</v>
       </c>
       <c r="J126">
-        <v>96742.3984375</v>
+        <v>96753.515625</v>
       </c>
       <c r="K126">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L126">
-        <v>-2.839968204498291</v>
+        <v>3.0123291015625</v>
       </c>
       <c r="M126">
-        <v>-5.450790882110596</v>
+        <v>-5.431599140167236</v>
       </c>
       <c r="N126">
-        <v>6.400000095367432</v>
+        <v>6.340640544891357</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6037,7 +6037,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1702404000</v>
+        <v>1702490400</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -6046,34 +6046,34 @@
         <v>35</v>
       </c>
       <c r="E127">
-        <v>37.79999923706055</v>
+        <v>29.5</v>
       </c>
       <c r="F127">
-        <v>33.28530883789062</v>
+        <v>34.21734619140625</v>
       </c>
       <c r="G127">
-        <v>31.37261962890625</v>
+        <v>31.37185668945312</v>
       </c>
       <c r="H127">
-        <v>-45.92988586425781</v>
+        <v>-49.43194580078125</v>
       </c>
       <c r="I127">
-        <v>39.41257095336914</v>
+        <v>34.21205520629883</v>
       </c>
       <c r="J127">
-        <v>96520.6484375</v>
+        <v>96449.875</v>
       </c>
       <c r="K127">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="L127">
-        <v>-2.810458898544312</v>
+        <v>1.085959434509277</v>
       </c>
       <c r="M127">
-        <v>-3.509013652801514</v>
+        <v>-4.159768104553223</v>
       </c>
       <c r="N127">
-        <v>5.5</v>
+        <v>5.502898216247559</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6081,7 +6081,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1702414800</v>
+        <v>1702501200</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -6090,34 +6090,34 @@
         <v>36</v>
       </c>
       <c r="E128">
-        <v>33.20000076293945</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="F128">
-        <v>34.63272094726562</v>
+        <v>37.16207885742188</v>
       </c>
       <c r="G128">
-        <v>32.85870361328125</v>
+        <v>34.65283203125</v>
       </c>
       <c r="H128">
-        <v>-64.89518737792969</v>
+        <v>-38.57327270507812</v>
       </c>
       <c r="I128">
-        <v>37.7689208984375</v>
+        <v>33.2130012512207</v>
       </c>
       <c r="J128">
-        <v>96262.8046875</v>
+        <v>96094.5390625</v>
       </c>
       <c r="K128">
-        <v>85</v>
+        <v>35.10000228881836</v>
       </c>
       <c r="L128">
-        <v>3.308251857757568</v>
+        <v>-1.479794859886169</v>
       </c>
       <c r="M128">
-        <v>-3.951547861099243</v>
+        <v>-4.835002422332764</v>
       </c>
       <c r="N128">
-        <v>5.405358791351318</v>
+        <v>6.209900379180908</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6125,7 +6125,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1702425600</v>
+        <v>1702512000</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>37</v>
       </c>
       <c r="E129">
-        <v>34.70000076293945</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="F129">
-        <v>33.42416381835938</v>
+        <v>33.9521484375</v>
       </c>
       <c r="G129">
-        <v>33.04803466796875</v>
+        <v>33.03973388671875</v>
       </c>
       <c r="H129">
-        <v>-68.47750854492188</v>
+        <v>-55.29588317871094</v>
       </c>
       <c r="I129">
-        <v>35.66157531738281</v>
+        <v>40.04855346679688</v>
       </c>
       <c r="J129">
-        <v>96257.015625</v>
+        <v>96135.625</v>
       </c>
       <c r="K129">
-        <v>64.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L129">
-        <v>0.9310131669044495</v>
+        <v>7.467529296875</v>
       </c>
       <c r="M129">
-        <v>-1.987858891487122</v>
+        <v>-4.508998870849609</v>
       </c>
       <c r="N129">
-        <v>5.700000286102295</v>
+        <v>9.407556533813477</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6169,7 +6169,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1702436400</v>
+        <v>1702522800</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -6178,34 +6178,34 @@
         <v>30</v>
       </c>
       <c r="E130">
-        <v>45.20000076293945</v>
+        <v>45.60000228881836</v>
       </c>
       <c r="F130">
-        <v>30.6634521484375</v>
+        <v>30.25588989257812</v>
       </c>
       <c r="G130">
-        <v>30.27377319335938</v>
+        <v>29.53607177734375</v>
       </c>
       <c r="H130">
-        <v>-70.85914611816406</v>
+        <v>-62.91311645507812</v>
       </c>
       <c r="I130">
-        <v>39.79132843017578</v>
+        <v>40.31364822387695</v>
       </c>
       <c r="J130">
-        <v>96462.0859375</v>
+        <v>96396.4609375</v>
       </c>
       <c r="K130">
-        <v>62.5</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L130">
-        <v>-1.184475064277649</v>
+        <v>4.758393287658691</v>
       </c>
       <c r="M130">
-        <v>-0.3103271424770355</v>
+        <v>-6.395771503448486</v>
       </c>
       <c r="N130">
-        <v>2.306370496749878</v>
+        <v>12.30360412597656</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -55,12 +55,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>28/11/2023</t>
-  </si>
-  <si>
-    <t>29/11/2023</t>
-  </si>
-  <si>
     <t>30/11/2023</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>00:00</t>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1701140400</v>
+        <v>1701313200</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -546,34 +546,34 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F2">
-        <v>32.76010131835938</v>
+        <v>30.33731079101562</v>
       </c>
       <c r="G2">
-        <v>32.06558227539062</v>
+        <v>31.081787109375</v>
       </c>
       <c r="H2">
-        <v>-49.05793762207031</v>
+        <v>-28.93508911132812</v>
       </c>
       <c r="I2">
-        <v>27.53974342346191</v>
+        <v>23.98355484008789</v>
       </c>
       <c r="J2">
-        <v>96826.984375</v>
+        <v>96667.5703125</v>
       </c>
       <c r="K2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.635930180549622</v>
+        <v>1.64791738986969</v>
       </c>
       <c r="M2">
-        <v>-4.135146617889404</v>
+        <v>-3.994916915893555</v>
       </c>
       <c r="N2">
-        <v>6.800095558166504</v>
+        <v>7.400000095367432</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1701151200</v>
+        <v>1701324000</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -590,34 +590,34 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>58.79999923706055</v>
+        <v>38.29999923706055</v>
       </c>
       <c r="F3">
-        <v>27.24148559570312</v>
+        <v>27.75042724609375</v>
       </c>
       <c r="G3">
-        <v>26.3138427734375</v>
+        <v>27.31179809570312</v>
       </c>
       <c r="H3">
-        <v>-47.20578002929688</v>
+        <v>-25.97482299804688</v>
       </c>
       <c r="I3">
-        <v>32.8764533996582</v>
+        <v>23.93882751464844</v>
       </c>
       <c r="J3">
-        <v>96831.828125</v>
+        <v>96679.734375</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.215461254119873</v>
+        <v>1.525017023086548</v>
       </c>
       <c r="M3">
-        <v>-7.783359050750732</v>
+        <v>-7.490314960479736</v>
       </c>
       <c r="N3">
-        <v>12.12297344207764</v>
+        <v>12.00654315948486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1701162000</v>
+        <v>1701334800</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -634,34 +634,34 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>69.30000305175781</v>
+        <v>51</v>
       </c>
       <c r="F4">
-        <v>24.84738159179688</v>
+        <v>24.42196655273438</v>
       </c>
       <c r="G4">
-        <v>23.86514282226562</v>
+        <v>23.88223266601562</v>
       </c>
       <c r="H4">
-        <v>-50.04743957519531</v>
+        <v>-33.83912658691406</v>
       </c>
       <c r="I4">
-        <v>31.95671463012695</v>
+        <v>22.0700798034668</v>
       </c>
       <c r="J4">
-        <v>96814.4296875</v>
+        <v>96606.296875</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L4">
-        <v>3.980595588684082</v>
+        <v>3.373007774353027</v>
       </c>
       <c r="M4">
-        <v>-7.186392784118652</v>
+        <v>-5.625510215759277</v>
       </c>
       <c r="N4">
-        <v>12.69999980926514</v>
+        <v>11.30039978027344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1701172800</v>
+        <v>1701345600</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -678,34 +678,34 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>76.5</v>
+        <v>61.5</v>
       </c>
       <c r="F5">
-        <v>23.91921997070312</v>
+        <v>22.85086059570312</v>
       </c>
       <c r="G5">
-        <v>22.59121704101562</v>
+        <v>21.6607666015625</v>
       </c>
       <c r="H5">
-        <v>-50.29206848144531</v>
+        <v>-14.0570068359375</v>
       </c>
       <c r="I5">
-        <v>33.67280960083008</v>
+        <v>21.77882766723633</v>
       </c>
       <c r="J5">
-        <v>97042.2421875</v>
+        <v>96811.1328125</v>
       </c>
       <c r="K5">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.757661104202271</v>
+        <v>2.943320274353027</v>
       </c>
       <c r="M5">
-        <v>-6.093015193939209</v>
+        <v>-5.087050437927246</v>
       </c>
       <c r="N5">
-        <v>10.51312446594238</v>
+        <v>9.309314727783203</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1701183600</v>
+        <v>1701356400</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -722,34 +722,34 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>53.5</v>
+        <v>34.40000152587891</v>
       </c>
       <c r="F6">
-        <v>29.01535034179688</v>
+        <v>29.55587768554688</v>
       </c>
       <c r="G6">
-        <v>26.0501708984375</v>
+        <v>26.5892333984375</v>
       </c>
       <c r="H6">
-        <v>-55.86973571777344</v>
+        <v>-22.58869934082031</v>
       </c>
       <c r="I6">
-        <v>34.26414108276367</v>
+        <v>19.32038116455078</v>
       </c>
       <c r="J6">
-        <v>97110.0078125</v>
+        <v>96900.265625</v>
       </c>
       <c r="K6">
-        <v>91.20000457763672</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.101933479309082</v>
+        <v>1.741142511367798</v>
       </c>
       <c r="M6">
-        <v>-7.508837699890137</v>
+        <v>-6.195998191833496</v>
       </c>
       <c r="N6">
-        <v>8.307031631469727</v>
+        <v>7.217510223388672</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1701194400</v>
+        <v>1701367200</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -766,34 +766,34 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>32.5</v>
+        <v>17.10000038146973</v>
       </c>
       <c r="F7">
-        <v>34.69821166992188</v>
+        <v>35.8624267578125</v>
       </c>
       <c r="G7">
-        <v>31.3800048828125</v>
+        <v>32.64300537109375</v>
       </c>
       <c r="H7">
-        <v>-54.30517578125</v>
+        <v>-35.57266235351562</v>
       </c>
       <c r="I7">
-        <v>34.34688568115234</v>
+        <v>19.94844245910645</v>
       </c>
       <c r="J7">
-        <v>96823.8046875</v>
+        <v>96630.9296875</v>
       </c>
       <c r="K7">
-        <v>3.200000047683716</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>1.6591796875</v>
+        <v>1.140068292617798</v>
       </c>
       <c r="M7">
-        <v>-5.821647644042969</v>
+        <v>-5.715260982513428</v>
       </c>
       <c r="N7">
-        <v>6.20703125</v>
+        <v>6.610278606414795</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1701205200</v>
+        <v>1701378000</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -810,34 +810,34 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>24.89999961853027</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="F8">
-        <v>36.8487548828125</v>
+        <v>38.20703125</v>
       </c>
       <c r="G8">
-        <v>34.59262084960938</v>
+        <v>35.71749877929688</v>
       </c>
       <c r="H8">
-        <v>-57.28578186035156</v>
+        <v>-34.83094787597656</v>
       </c>
       <c r="I8">
-        <v>34.40872955322266</v>
+        <v>21.59772300720215</v>
       </c>
       <c r="J8">
-        <v>96433.3046875</v>
+        <v>96295.3984375</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="L8">
-        <v>1.429233312606812</v>
+        <v>0.08504882454872131</v>
       </c>
       <c r="M8">
-        <v>-3.905606508255005</v>
+        <v>-5.070778846740723</v>
       </c>
       <c r="N8">
-        <v>5.304865837097168</v>
+        <v>6.128228187561035</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1701216000</v>
+        <v>1701388800</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -854,34 +854,34 @@
         <v>37</v>
       </c>
       <c r="E9">
+        <v>14.40000057220459</v>
+      </c>
+      <c r="F9">
+        <v>34.8033447265625</v>
+      </c>
+      <c r="G9">
+        <v>36.10760498046875</v>
+      </c>
+      <c r="H9">
+        <v>-74.49566650390625</v>
+      </c>
+      <c r="I9">
+        <v>22.17067337036133</v>
+      </c>
+      <c r="J9">
+        <v>96321.8671875</v>
+      </c>
+      <c r="K9">
         <v>32.20000076293945</v>
       </c>
-      <c r="F9">
-        <v>34.0660400390625</v>
-      </c>
-      <c r="G9">
-        <v>33.12350463867188</v>
-      </c>
-      <c r="H9">
-        <v>-56.84066772460938</v>
-      </c>
-      <c r="I9">
-        <v>34.05797576904297</v>
-      </c>
-      <c r="J9">
-        <v>96478.4765625</v>
-      </c>
-      <c r="K9">
-        <v>28.89999961853027</v>
-      </c>
       <c r="L9">
-        <v>6.078578948974609</v>
+        <v>-1.345539569854736</v>
       </c>
       <c r="M9">
-        <v>-3.265584707260132</v>
+        <v>-3.867114067077637</v>
       </c>
       <c r="N9">
-        <v>7.71337890625</v>
+        <v>4.401877880096436</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1701226800</v>
+        <v>1701399600</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -898,34 +898,34 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>38.20000076293945</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="F10">
-        <v>32.10549926757812</v>
+        <v>31.37277221679688</v>
       </c>
       <c r="G10">
-        <v>31.14349365234375</v>
+        <v>32.76385498046875</v>
       </c>
       <c r="H10">
-        <v>-48.93516540527344</v>
+        <v>-49.44892883300781</v>
       </c>
       <c r="I10">
-        <v>37.93223190307617</v>
+        <v>23.49354553222656</v>
       </c>
       <c r="J10">
-        <v>96701.5234375</v>
+        <v>96533.7890625</v>
       </c>
       <c r="K10">
-        <v>85.40000152587891</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>6.267138481140137</v>
+        <v>1.402994394302368</v>
       </c>
       <c r="M10">
-        <v>-5.905617713928223</v>
+        <v>-3.887412071228027</v>
       </c>
       <c r="N10">
-        <v>10.50722408294678</v>
+        <v>5.008752346038818</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1701237600</v>
+        <v>1701410400</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -942,34 +942,34 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>46.5</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F11">
-        <v>27.96942138671875</v>
+        <v>28.49893188476562</v>
       </c>
       <c r="G11">
-        <v>27.07177734375</v>
+        <v>28.14102172851562</v>
       </c>
       <c r="H11">
-        <v>-45.16416931152344</v>
+        <v>-44.90408325195312</v>
       </c>
       <c r="I11">
-        <v>34.17530059814453</v>
+        <v>28.94281196594238</v>
       </c>
       <c r="J11">
-        <v>96769.265625</v>
+        <v>96553.3671875</v>
       </c>
       <c r="K11">
-        <v>3.100000143051147</v>
+        <v>68.70000457763672</v>
       </c>
       <c r="L11">
-        <v>1.955732345581055</v>
+        <v>3.988083362579346</v>
       </c>
       <c r="M11">
-        <v>-7.504575252532959</v>
+        <v>-6.132782936096191</v>
       </c>
       <c r="N11">
-        <v>11.32269287109375</v>
+        <v>12.6072416305542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1701248400</v>
+        <v>1701421200</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -986,34 +986,34 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>64.20000457763672</v>
+        <v>61.20000076293945</v>
       </c>
       <c r="F12">
-        <v>24.50775146484375</v>
+        <v>25.25283813476562</v>
       </c>
       <c r="G12">
-        <v>23.55279541015625</v>
+        <v>24.58758544921875</v>
       </c>
       <c r="H12">
-        <v>-45.37022399902344</v>
+        <v>-44.56455993652344</v>
       </c>
       <c r="I12">
-        <v>32.78852462768555</v>
+        <v>30.91928100585938</v>
       </c>
       <c r="J12">
-        <v>96685.2578125</v>
+        <v>96560.9921875</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="L12">
-        <v>2.160795927047729</v>
+        <v>0.4763134717941284</v>
       </c>
       <c r="M12">
-        <v>-6.935314655303955</v>
+        <v>-6.280131816864014</v>
       </c>
       <c r="N12">
-        <v>11.80166053771973</v>
+        <v>10.40000057220459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1701259200</v>
+        <v>1701432000</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1030,34 +1030,34 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>72.90000152587891</v>
+        <v>74.80000305175781</v>
       </c>
       <c r="F13">
-        <v>23.79937744140625</v>
+        <v>23.95779418945312</v>
       </c>
       <c r="G13">
-        <v>22.49984741210938</v>
+        <v>22.679443359375</v>
       </c>
       <c r="H13">
-        <v>-47.18006896972656</v>
+        <v>-16.79278564453125</v>
       </c>
       <c r="I13">
-        <v>33.4197883605957</v>
+        <v>35.33396911621094</v>
       </c>
       <c r="J13">
-        <v>96845.2109375</v>
+        <v>96828.1796875</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>2.696271896362305</v>
+        <v>3.588874340057373</v>
       </c>
       <c r="M13">
-        <v>-5.818190574645996</v>
+        <v>-5.874394416809082</v>
       </c>
       <c r="N13">
-        <v>9.227669715881348</v>
+        <v>9.20004940032959</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1701270000</v>
+        <v>1701442800</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1074,34 +1074,34 @@
         <v>34</v>
       </c>
       <c r="E14">
-        <v>41.70000076293945</v>
+        <v>49.5</v>
       </c>
       <c r="F14">
-        <v>30.46221923828125</v>
+        <v>30.2935791015625</v>
       </c>
       <c r="G14">
-        <v>27.439208984375</v>
+        <v>27.28268432617188</v>
       </c>
       <c r="H14">
-        <v>-43.28564453125</v>
+        <v>-13.56198120117188</v>
       </c>
       <c r="I14">
-        <v>32.80480575561523</v>
+        <v>35.73020172119141</v>
       </c>
       <c r="J14">
-        <v>96908.796875</v>
+        <v>96898.0546875</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>1.902470707893372</v>
+        <v>0.6681652665138245</v>
       </c>
       <c r="M14">
-        <v>-6.197514533996582</v>
+        <v>-6.509135723114014</v>
       </c>
       <c r="N14">
-        <v>6.803314208984375</v>
+        <v>7.004814147949219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1701280800</v>
+        <v>1701453600</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1118,34 +1118,34 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>26.70000076293945</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>35.79351806640625</v>
+        <v>35.536865234375</v>
       </c>
       <c r="G15">
-        <v>32.60244750976562</v>
+        <v>32.49258422851562</v>
       </c>
       <c r="H15">
-        <v>-59.09428405761719</v>
+        <v>-12.59274291992188</v>
       </c>
       <c r="I15">
-        <v>31.64155769348145</v>
+        <v>32.15219879150391</v>
       </c>
       <c r="J15">
-        <v>96649.8203125</v>
+        <v>96617.2421875</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>1.452397465705872</v>
+        <v>0.3244726359844208</v>
       </c>
       <c r="M15">
-        <v>-5.091367244720459</v>
+        <v>-4.603620529174805</v>
       </c>
       <c r="N15">
-        <v>5.606591701507568</v>
+        <v>4.616719245910645</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1153,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1701291600</v>
+        <v>1701464400</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1162,34 +1162,34 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <v>20.10000038146973</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F16">
-        <v>38.28390502929688</v>
+        <v>37.94619750976562</v>
       </c>
       <c r="G16">
-        <v>35.71929931640625</v>
+        <v>35.37933349609375</v>
       </c>
       <c r="H16">
-        <v>-60.74420166015625</v>
+        <v>-20.929931640625</v>
       </c>
       <c r="I16">
-        <v>30.63762092590332</v>
+        <v>28.71039581298828</v>
       </c>
       <c r="J16">
-        <v>96285.4375</v>
+        <v>96300.9765625</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>2.257312059402466</v>
+        <v>3.777438879013062</v>
       </c>
       <c r="M16">
-        <v>-4.268652439117432</v>
+        <v>-3.353627920150757</v>
       </c>
       <c r="N16">
-        <v>5.504687786102295</v>
+        <v>5.400000095367432</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1701302400</v>
+        <v>1701475200</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1206,34 +1206,34 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>20.30000114440918</v>
+        <v>18.30000114440918</v>
       </c>
       <c r="F17">
-        <v>35.57803344726562</v>
+        <v>34.85269165039062</v>
       </c>
       <c r="G17">
-        <v>35.88043212890625</v>
+        <v>35.62371826171875</v>
       </c>
       <c r="H17">
-        <v>-58.88034057617188</v>
+        <v>-36.79119873046875</v>
       </c>
       <c r="I17">
-        <v>29.32650566101074</v>
+        <v>24.71758079528809</v>
       </c>
       <c r="J17">
-        <v>96284.4140625</v>
+        <v>96352.359375</v>
       </c>
       <c r="K17">
-        <v>27.5</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="L17">
-        <v>3.72576642036438</v>
+        <v>0.2154443264007568</v>
       </c>
       <c r="M17">
-        <v>-3.1671142578125</v>
+        <v>-3.8459312915802</v>
       </c>
       <c r="N17">
-        <v>7.205814361572266</v>
+        <v>4.400000095367432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1241,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1701313200</v>
+        <v>1701486000</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1250,34 +1250,34 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>24.30000114440918</v>
+        <v>21.30000114440918</v>
       </c>
       <c r="F18">
-        <v>32.0416259765625</v>
+        <v>31.36599731445312</v>
       </c>
       <c r="G18">
-        <v>32.93197631835938</v>
+        <v>32.82656860351562</v>
       </c>
       <c r="H18">
-        <v>-65.82846069335938</v>
+        <v>-37.28164672851562</v>
       </c>
       <c r="I18">
-        <v>26.33414268493652</v>
+        <v>21.79216575622559</v>
       </c>
       <c r="J18">
-        <v>96513.0390625</v>
+        <v>96492.2890625</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="L18">
-        <v>2.794960975646973</v>
+        <v>3.61811637878418</v>
       </c>
       <c r="M18">
-        <v>-4.263351917266846</v>
+        <v>-3.679175853729248</v>
       </c>
       <c r="N18">
-        <v>10.71500301361084</v>
+        <v>9.322466850280762</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1701324000</v>
+        <v>1701496800</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1294,34 +1294,34 @@
         <v>31</v>
       </c>
       <c r="E19">
-        <v>44.90000152587891</v>
+        <v>50.10000228881836</v>
       </c>
       <c r="F19">
-        <v>27.49667358398438</v>
+        <v>27.90985107421875</v>
       </c>
       <c r="G19">
-        <v>26.82321166992188</v>
+        <v>27.42532348632812</v>
       </c>
       <c r="H19">
-        <v>-27.23835754394531</v>
+        <v>-34.01385498046875</v>
       </c>
       <c r="I19">
-        <v>28.97124862670898</v>
+        <v>27.60989570617676</v>
       </c>
       <c r="J19">
-        <v>96589.515625</v>
+        <v>96499.765625</v>
       </c>
       <c r="K19">
-        <v>3.900000095367432</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>4.815927505493164</v>
+        <v>2.7026207447052</v>
       </c>
       <c r="M19">
-        <v>-6.889257431030273</v>
+        <v>-6.387013912200928</v>
       </c>
       <c r="N19">
-        <v>13.60000038146973</v>
+        <v>12.01083374023438</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1701334800</v>
+        <v>1701507600</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1338,34 +1338,34 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>57.90000152587891</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="F20">
-        <v>24.5811767578125</v>
+        <v>25.060302734375</v>
       </c>
       <c r="G20">
-        <v>23.752197265625</v>
+        <v>24.29403686523438</v>
       </c>
       <c r="H20">
-        <v>-56.20529174804688</v>
+        <v>-21.9351806640625</v>
       </c>
       <c r="I20">
-        <v>30.54999542236328</v>
+        <v>31.11441421508789</v>
       </c>
       <c r="J20">
-        <v>96667.3828125</v>
+        <v>96577.8046875</v>
       </c>
       <c r="K20">
-        <v>2.900000095367432</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L20">
-        <v>2.071158409118652</v>
+        <v>2.016104698181152</v>
       </c>
       <c r="M20">
-        <v>-5.135720252990723</v>
+        <v>-6.199277400970459</v>
       </c>
       <c r="N20">
-        <v>9.110610961914062</v>
+        <v>10.51016235351562</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1373,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1701345600</v>
+        <v>1701518400</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1382,34 +1382,34 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>61.40000152587891</v>
+        <v>69.5</v>
       </c>
       <c r="F21">
-        <v>23.54019165039062</v>
+        <v>24.01446533203125</v>
       </c>
       <c r="G21">
-        <v>22.2896728515625</v>
+        <v>22.83035278320312</v>
       </c>
       <c r="H21">
-        <v>-43.21101379394531</v>
+        <v>-12.82101440429688</v>
       </c>
       <c r="I21">
-        <v>30.45086097717285</v>
+        <v>30.02948379516602</v>
       </c>
       <c r="J21">
-        <v>96821.234375</v>
+        <v>96738.7734375</v>
       </c>
       <c r="K21">
-        <v>5.400000095367432</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="L21">
-        <v>3.961595296859741</v>
+        <v>4.241456031799316</v>
       </c>
       <c r="M21">
-        <v>-5.577780723571777</v>
+        <v>-5.741801738739014</v>
       </c>
       <c r="N21">
-        <v>9.324020385742188</v>
+        <v>10.50162792205811</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1701356400</v>
+        <v>1701529200</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1426,34 +1426,34 @@
         <v>34</v>
       </c>
       <c r="E22">
-        <v>36.90000152587891</v>
+        <v>42.90000152587891</v>
       </c>
       <c r="F22">
-        <v>30.39898681640625</v>
+        <v>31.50009155273438</v>
       </c>
       <c r="G22">
-        <v>27.42373657226562</v>
+        <v>28.46896362304688</v>
       </c>
       <c r="H22">
-        <v>-41.80499267578125</v>
+        <v>-11.55581665039062</v>
       </c>
       <c r="I22">
-        <v>29.28480529785156</v>
+        <v>32.94131851196289</v>
       </c>
       <c r="J22">
-        <v>96841.0703125</v>
+        <v>96771.703125</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.100000143051147</v>
       </c>
       <c r="L22">
-        <v>1.667253375053406</v>
+        <v>-2.220615148544312</v>
       </c>
       <c r="M22">
-        <v>-6.1212158203125</v>
+        <v>-6.127292156219482</v>
       </c>
       <c r="N22">
-        <v>6.906591892242432</v>
+        <v>7.313043117523193</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1701367200</v>
+        <v>1701540000</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1470,34 +1470,34 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>23.30000114440918</v>
+        <v>28.80000114440918</v>
       </c>
       <c r="F23">
-        <v>35.89508056640625</v>
+        <v>36.07730102539062</v>
       </c>
       <c r="G23">
-        <v>32.719482421875</v>
+        <v>33.10760498046875</v>
       </c>
       <c r="H23">
-        <v>-33.25190734863281</v>
+        <v>-41.77976989746094</v>
       </c>
       <c r="I23">
-        <v>28.83572196960449</v>
+        <v>32.76116943359375</v>
       </c>
       <c r="J23">
-        <v>96568.6875</v>
+        <v>96484.578125</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="L23">
-        <v>0.7333154082298279</v>
+        <v>-1.666528224945068</v>
       </c>
       <c r="M23">
-        <v>-5.172677993774414</v>
+        <v>-3.933000326156616</v>
       </c>
       <c r="N23">
-        <v>5.403598308563232</v>
+        <v>4.006421566009521</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1505,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1701378000</v>
+        <v>1701550800</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="E24">
-        <v>16.80000114440918</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="F24">
-        <v>38.2296142578125</v>
+        <v>38.40072631835938</v>
       </c>
       <c r="G24">
-        <v>35.6427001953125</v>
+        <v>35.95208740234375</v>
       </c>
       <c r="H24">
-        <v>-54.71331787109375</v>
+        <v>-35.02790832519531</v>
       </c>
       <c r="I24">
-        <v>27.14054870605469</v>
+        <v>32.50620269775391</v>
       </c>
       <c r="J24">
-        <v>96240.9609375</v>
+        <v>96186.703125</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>74.20000457763672</v>
       </c>
       <c r="L24">
-        <v>1.592526793479919</v>
+        <v>1.697651386260986</v>
       </c>
       <c r="M24">
-        <v>-4.701555252075195</v>
+        <v>-3.849384784698486</v>
       </c>
       <c r="N24">
-        <v>5.306886196136475</v>
+        <v>5.400123596191406</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1549,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1701388800</v>
+        <v>1701561600</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1558,34 +1558,34 @@
         <v>37</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="F25">
-        <v>34.95751953125</v>
+        <v>35.7364501953125</v>
       </c>
       <c r="G25">
-        <v>35.64996337890625</v>
+        <v>36.17190551757812</v>
       </c>
       <c r="H25">
-        <v>-52.26409912109375</v>
+        <v>-17.7222900390625</v>
       </c>
       <c r="I25">
-        <v>23.33504676818848</v>
+        <v>29.64983367919922</v>
       </c>
       <c r="J25">
-        <v>96293.5703125</v>
+        <v>96221.8046875</v>
       </c>
       <c r="K25">
-        <v>9.699999809265137</v>
+        <v>42.60000228881836</v>
       </c>
       <c r="L25">
-        <v>-1.818939208984375</v>
+        <v>0.3625292778015137</v>
       </c>
       <c r="M25">
-        <v>-4.510537147521973</v>
+        <v>-4.346972465515137</v>
       </c>
       <c r="N25">
-        <v>6.900000095367432</v>
+        <v>6.403756618499756</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1701399600</v>
+        <v>1701572400</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1602,34 +1602,34 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="F26">
-        <v>32.45745849609375</v>
+        <v>32.62457275390625</v>
       </c>
       <c r="G26">
-        <v>33.90274047851562</v>
+        <v>33.0477294921875</v>
       </c>
       <c r="H26">
-        <v>-49.91107177734375</v>
+        <v>-13.12823486328125</v>
       </c>
       <c r="I26">
-        <v>22.94342041015625</v>
+        <v>29.4846248626709</v>
       </c>
       <c r="J26">
-        <v>96451.015625</v>
+        <v>96367.3984375</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>25.80000114440918</v>
       </c>
       <c r="L26">
-        <v>2.813405752182007</v>
+        <v>4.243049144744873</v>
       </c>
       <c r="M26">
-        <v>-4.260341644287109</v>
+        <v>-4.725722312927246</v>
       </c>
       <c r="N26">
-        <v>7.41452169418335</v>
+        <v>11.90034198760986</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1637,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1701410400</v>
+        <v>1701583200</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1646,34 +1646,34 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>44.29999923706055</v>
+        <v>59.10000228881836</v>
       </c>
       <c r="F27">
-        <v>27.724365234375</v>
+        <v>27.70730590820312</v>
       </c>
       <c r="G27">
-        <v>27.31716918945312</v>
+        <v>26.96737670898438</v>
       </c>
       <c r="H27">
-        <v>-46.219482421875</v>
+        <v>-13.07785034179688</v>
       </c>
       <c r="I27">
-        <v>25.48726081848145</v>
+        <v>32.62126922607422</v>
       </c>
       <c r="J27">
-        <v>96470.109375</v>
+        <v>96431.0546875</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="L27">
-        <v>2.840641975402832</v>
+        <v>4.806494235992432</v>
       </c>
       <c r="M27">
-        <v>-5.740117073059082</v>
+        <v>-7.784919261932373</v>
       </c>
       <c r="N27">
-        <v>11.80575180053711</v>
+        <v>14.20714473724365</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1701421200</v>
+        <v>1701594000</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1690,34 +1690,34 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>66.90000152587891</v>
+        <v>73.80000305175781</v>
       </c>
       <c r="F28">
-        <v>24.69052124023438</v>
+        <v>24.98541259765625</v>
       </c>
       <c r="G28">
-        <v>23.92138671875</v>
+        <v>23.99734497070312</v>
       </c>
       <c r="H28">
-        <v>-45.558837890625</v>
+        <v>-21.98014831542969</v>
       </c>
       <c r="I28">
-        <v>29.15049934387207</v>
+        <v>36.57748413085938</v>
       </c>
       <c r="J28">
-        <v>96560.3359375</v>
+        <v>96560.6171875</v>
       </c>
       <c r="K28">
-        <v>5.200000286102295</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="L28">
-        <v>1.265095233917236</v>
+        <v>2.527517080307007</v>
       </c>
       <c r="M28">
-        <v>-6.371621131896973</v>
+        <v>-6.149181842803955</v>
       </c>
       <c r="N28">
-        <v>10.42277812957764</v>
+        <v>10.70719623565674</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1725,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1701432000</v>
+        <v>1701604800</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1734,34 +1734,34 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>77.30000305175781</v>
+        <v>72.5</v>
       </c>
       <c r="F29">
-        <v>23.779296875</v>
+        <v>25.13824462890625</v>
       </c>
       <c r="G29">
-        <v>22.51986694335938</v>
+        <v>23.906005859375</v>
       </c>
       <c r="H29">
-        <v>-43.20375061035156</v>
+        <v>-35.7178955078125</v>
       </c>
       <c r="I29">
-        <v>32.57454681396484</v>
+        <v>36.28102874755859</v>
       </c>
       <c r="J29">
-        <v>96798.8984375</v>
+        <v>96695.09375</v>
       </c>
       <c r="K29">
-        <v>4.900000095367432</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L29">
-        <v>3.588002920150757</v>
+        <v>3.084445714950562</v>
       </c>
       <c r="M29">
-        <v>-5.775641918182373</v>
+        <v>-6.743798732757568</v>
       </c>
       <c r="N29">
-        <v>10.20118618011475</v>
+        <v>10.31991004943848</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1701442800</v>
+        <v>1701615600</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1778,34 +1778,34 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>46.79999923706055</v>
+        <v>46.60000228881836</v>
       </c>
       <c r="F30">
-        <v>30.84036254882812</v>
+        <v>31.43954467773438</v>
       </c>
       <c r="G30">
-        <v>27.95626831054688</v>
+        <v>28.42724609375</v>
       </c>
       <c r="H30">
-        <v>-39.00173950195312</v>
+        <v>-13.76885986328125</v>
       </c>
       <c r="I30">
-        <v>33.53420639038086</v>
+        <v>36.08381652832031</v>
       </c>
       <c r="J30">
-        <v>96832.328125</v>
+        <v>96754.1796875</v>
       </c>
       <c r="K30">
-        <v>0.4000000059604645</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="L30">
-        <v>-1.845414996147156</v>
+        <v>-3.583339691162109</v>
       </c>
       <c r="M30">
-        <v>-5.429206371307373</v>
+        <v>-5.386176586151123</v>
       </c>
       <c r="N30">
-        <v>6.303253173828125</v>
+        <v>6.826791286468506</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1701453600</v>
+        <v>1701626400</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1822,34 +1822,34 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>30.60000038146973</v>
+        <v>31</v>
       </c>
       <c r="F31">
-        <v>35.72979736328125</v>
+        <v>36.18426513671875</v>
       </c>
       <c r="G31">
-        <v>32.79891967773438</v>
+        <v>33.16546630859375</v>
       </c>
       <c r="H31">
-        <v>-36.38996887207031</v>
+        <v>-13.15121459960938</v>
       </c>
       <c r="I31">
-        <v>32.91134262084961</v>
+        <v>35.15024566650391</v>
       </c>
       <c r="J31">
-        <v>96530.0234375</v>
+        <v>96485.640625</v>
       </c>
       <c r="K31">
-        <v>2.200000047683716</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="L31">
-        <v>-1.7294921875</v>
+        <v>-2.912619590759277</v>
       </c>
       <c r="M31">
-        <v>-3.447582960128784</v>
+        <v>-3.234540939331055</v>
       </c>
       <c r="N31">
-        <v>3.501449584960938</v>
+        <v>3.621771335601807</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1857,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1701464400</v>
+        <v>1701637200</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1866,34 +1866,34 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>21.70000076293945</v>
+        <v>22.5</v>
       </c>
       <c r="F32">
-        <v>38.05010986328125</v>
+        <v>38.3070068359375</v>
       </c>
       <c r="G32">
-        <v>35.67449951171875</v>
+        <v>36.04190063476562</v>
       </c>
       <c r="H32">
-        <v>-39.43264770507812</v>
+        <v>-13.99493408203125</v>
       </c>
       <c r="I32">
-        <v>32.08176040649414</v>
+        <v>33.0145149230957</v>
       </c>
       <c r="J32">
-        <v>96212.6171875</v>
+        <v>96149.203125</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>74.80000305175781</v>
       </c>
       <c r="L32">
-        <v>0.8341869711875916</v>
+        <v>-0.4962304532527924</v>
       </c>
       <c r="M32">
-        <v>-3.255580902099609</v>
+        <v>-3.686852931976318</v>
       </c>
       <c r="N32">
-        <v>4.600735187530518</v>
+        <v>3.900004625320435</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1901,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1701475200</v>
+        <v>1701648000</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1910,34 +1910,34 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>22.39999961853027</v>
+        <v>24</v>
       </c>
       <c r="F33">
-        <v>35.63186645507812</v>
+        <v>35.68560791015625</v>
       </c>
       <c r="G33">
-        <v>36.20892333984375</v>
+        <v>36.36444091796875</v>
       </c>
       <c r="H33">
-        <v>-43.25836181640625</v>
+        <v>-10.05947875976562</v>
       </c>
       <c r="I33">
-        <v>30.12189292907715</v>
+        <v>31.10654067993164</v>
       </c>
       <c r="J33">
-        <v>96241.65625</v>
+        <v>96155.03125</v>
       </c>
       <c r="K33">
-        <v>8.800000190734863</v>
+        <v>73</v>
       </c>
       <c r="L33">
-        <v>-1.402849078178406</v>
+        <v>-1.260268568992615</v>
       </c>
       <c r="M33">
-        <v>-2.747992992401123</v>
+        <v>-3.230000019073486</v>
       </c>
       <c r="N33">
-        <v>3.20738673210144</v>
+        <v>3.700000047683716</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1701486000</v>
+        <v>1701658800</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1954,34 +1954,34 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F34">
-        <v>32.3223876953125</v>
+        <v>32.67022705078125</v>
       </c>
       <c r="G34">
-        <v>33.42288208007812</v>
+        <v>32.63153076171875</v>
       </c>
       <c r="H34">
-        <v>-24.28805541992188</v>
+        <v>-8.099151611328125</v>
       </c>
       <c r="I34">
-        <v>27.2984619140625</v>
+        <v>33.2132453918457</v>
       </c>
       <c r="J34">
-        <v>96418.1875</v>
+        <v>96408.7109375</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>88.5</v>
       </c>
       <c r="L34">
-        <v>-1.062541484832764</v>
+        <v>-0.7278246879577637</v>
       </c>
       <c r="M34">
-        <v>-3.217775821685791</v>
+        <v>-1.549775362014771</v>
       </c>
       <c r="N34">
-        <v>3.800254106521606</v>
+        <v>4.507236003875732</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1701496800</v>
+        <v>1701669600</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1998,34 +1998,34 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>32.10000228881836</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="F35">
-        <v>28.93063354492188</v>
+        <v>30.33636474609375</v>
       </c>
       <c r="G35">
-        <v>28.70443725585938</v>
+        <v>29.57427978515625</v>
       </c>
       <c r="H35">
-        <v>-50.88191223144531</v>
+        <v>-11.88128662109375</v>
       </c>
       <c r="I35">
-        <v>29.73431396484375</v>
+        <v>36.70857620239258</v>
       </c>
       <c r="J35">
-        <v>96413.125</v>
+        <v>96534.6640625</v>
       </c>
       <c r="K35">
-        <v>1.700000047683716</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="L35">
-        <v>2.461088895797729</v>
+        <v>2.012045860290527</v>
       </c>
       <c r="M35">
-        <v>-5.404606819152832</v>
+        <v>-4.914162635803223</v>
       </c>
       <c r="N35">
-        <v>10.69999980926514</v>
+        <v>6.700009822845459</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2033,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1701507600</v>
+        <v>1701680400</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -2042,34 +2042,34 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>62.5</v>
+        <v>63</v>
       </c>
       <c r="F36">
-        <v>25.44833374023438</v>
+        <v>27.14047241210938</v>
       </c>
       <c r="G36">
-        <v>24.69894409179688</v>
+        <v>26.49191284179688</v>
       </c>
       <c r="H36">
-        <v>-35.85696411132812</v>
+        <v>-13.75509643554688</v>
       </c>
       <c r="I36">
-        <v>31.30568695068359</v>
+        <v>38.61403656005859</v>
       </c>
       <c r="J36">
-        <v>96478.0234375</v>
+        <v>96504.1875</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="L36">
-        <v>3.869794845581055</v>
+        <v>2.03155517578125</v>
       </c>
       <c r="M36">
-        <v>-4.187734127044678</v>
+        <v>-4.859118461608887</v>
       </c>
       <c r="N36">
-        <v>8.5125732421875</v>
+        <v>7.500034332275391</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2077,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1701518400</v>
+        <v>1701691200</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -2086,34 +2086,34 @@
         <v>33</v>
       </c>
       <c r="E37">
-        <v>65.90000152587891</v>
+        <v>67</v>
       </c>
       <c r="F37">
-        <v>24.84469604492188</v>
+        <v>26.28195190429688</v>
       </c>
       <c r="G37">
-        <v>23.61419677734375</v>
+        <v>25.0369873046875</v>
       </c>
       <c r="H37">
-        <v>-64.01286315917969</v>
+        <v>-42.96551513671875</v>
       </c>
       <c r="I37">
-        <v>32.23433303833008</v>
+        <v>40.51571273803711</v>
       </c>
       <c r="J37">
-        <v>96670.7734375</v>
+        <v>96717.3046875</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="L37">
-        <v>2.979063749313354</v>
+        <v>3.791083812713623</v>
       </c>
       <c r="M37">
-        <v>-5.424160003662109</v>
+        <v>-4.12017822265625</v>
       </c>
       <c r="N37">
-        <v>8.5</v>
+        <v>6.408187866210938</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2121,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1701529200</v>
+        <v>1701702000</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2130,34 +2130,34 @@
         <v>34</v>
       </c>
       <c r="E38">
-        <v>39.20000076293945</v>
+        <v>45</v>
       </c>
       <c r="F38">
-        <v>32.9107666015625</v>
+        <v>32.00662231445312</v>
       </c>
       <c r="G38">
-        <v>30.02816772460938</v>
+        <v>29.42941284179688</v>
       </c>
       <c r="H38">
-        <v>-51.5592041015625</v>
+        <v>-71.31094360351562</v>
       </c>
       <c r="I38">
-        <v>35.05850982666016</v>
+        <v>41.64301300048828</v>
       </c>
       <c r="J38">
-        <v>96675.2890625</v>
+        <v>96811.328125</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.800000071525574</v>
       </c>
       <c r="L38">
-        <v>-5.009195327758789</v>
+        <v>0.3868017494678497</v>
       </c>
       <c r="M38">
-        <v>-2.673224925994873</v>
+        <v>-4.338962078094482</v>
       </c>
       <c r="N38">
-        <v>6.207011699676514</v>
+        <v>4.504428386688232</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1701540000</v>
+        <v>1701712800</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2174,34 +2174,34 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>26.5</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="F39">
-        <v>36.99850463867188</v>
+        <v>35.3536376953125</v>
       </c>
       <c r="G39">
-        <v>34.21728515625</v>
+        <v>33.28378295898438</v>
       </c>
       <c r="H39">
-        <v>-65.13096618652344</v>
+        <v>-33.72334289550781</v>
       </c>
       <c r="I39">
-        <v>34.2824821472168</v>
+        <v>42.14002227783203</v>
       </c>
       <c r="J39">
-        <v>96383.8984375</v>
+        <v>96589.7265625</v>
       </c>
       <c r="K39">
-        <v>57.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L39">
-        <v>-2.787797689437866</v>
+        <v>-3.500624895095825</v>
       </c>
       <c r="M39">
-        <v>1.355410099029541</v>
+        <v>-1.050852060317993</v>
       </c>
       <c r="N39">
-        <v>3.299999952316284</v>
+        <v>3.723437547683716</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2209,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1701550800</v>
+        <v>1701723600</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2218,34 +2218,34 @@
         <v>36</v>
       </c>
       <c r="E40">
-        <v>21.30000114440918</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="F40">
-        <v>38.71365356445312</v>
+        <v>36.02557373046875</v>
       </c>
       <c r="G40">
-        <v>36.70367431640625</v>
+        <v>33.98568725585938</v>
       </c>
       <c r="H40">
-        <v>-65.49629211425781</v>
+        <v>-35.16397094726562</v>
       </c>
       <c r="I40">
-        <v>35.64937591552734</v>
+        <v>41.11484146118164</v>
       </c>
       <c r="J40">
-        <v>96046.9765625</v>
+        <v>96393.671875</v>
       </c>
       <c r="K40">
-        <v>95.80000305175781</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="L40">
-        <v>0.0272216796875</v>
+        <v>0.2972753942012787</v>
       </c>
       <c r="M40">
-        <v>0.06647705286741257</v>
+        <v>-3.055212259292603</v>
       </c>
       <c r="N40">
-        <v>2.400000095367432</v>
+        <v>4.105841159820557</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2253,7 +2253,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1701561600</v>
+        <v>1701734400</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -2262,34 +2262,34 @@
         <v>37</v>
       </c>
       <c r="E41">
-        <v>24.70000076293945</v>
+        <v>61</v>
       </c>
       <c r="F41">
-        <v>35.97830200195312</v>
+        <v>24.95346069335938</v>
       </c>
       <c r="G41">
-        <v>35.37255859375</v>
+        <v>25.010009765625</v>
       </c>
       <c r="H41">
-        <v>-62.4268798828125</v>
+        <v>-32.18550109863281</v>
       </c>
       <c r="I41">
-        <v>33.98472595214844</v>
+        <v>41.07261276245117</v>
       </c>
       <c r="J41">
-        <v>96134.1015625</v>
+        <v>96575.703125</v>
       </c>
       <c r="K41">
-        <v>89.30000305175781</v>
+        <v>100</v>
       </c>
       <c r="L41">
-        <v>-2.313867092132568</v>
+        <v>-2.262939453125</v>
       </c>
       <c r="M41">
-        <v>-4.112502574920654</v>
+        <v>7.433432579040527</v>
       </c>
       <c r="N41">
-        <v>6.508063793182373</v>
+        <v>9.002028465270996</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2297,7 +2297,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1701572400</v>
+        <v>1701745200</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2306,34 +2306,34 @@
         <v>30</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="F42">
-        <v>32.63128662109375</v>
+        <v>27.2261962890625</v>
       </c>
       <c r="G42">
-        <v>33.40664672851562</v>
+        <v>27.08062744140625</v>
       </c>
       <c r="H42">
-        <v>-61.98551940917969</v>
+        <v>-61.04020690917969</v>
       </c>
       <c r="I42">
-        <v>32.48532867431641</v>
+        <v>37.83733749389648</v>
       </c>
       <c r="J42">
-        <v>96334.484375</v>
+        <v>96671.2109375</v>
       </c>
       <c r="K42">
-        <v>89.5</v>
+        <v>100</v>
       </c>
       <c r="L42">
-        <v>-0.81494140625</v>
+        <v>1.852077603340149</v>
       </c>
       <c r="M42">
-        <v>1.737565875053406</v>
+        <v>-0.0807177722454071</v>
       </c>
       <c r="N42">
-        <v>3.01528787612915</v>
+        <v>2.000085592269897</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1701583200</v>
+        <v>1701756000</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2350,34 +2350,34 @@
         <v>31</v>
       </c>
       <c r="E43">
-        <v>40.90000152587891</v>
+        <v>59.10000228881836</v>
       </c>
       <c r="F43">
-        <v>31.70504760742188</v>
+        <v>26.86367797851562</v>
       </c>
       <c r="G43">
-        <v>30.94277954101562</v>
+        <v>26.52999877929688</v>
       </c>
       <c r="H43">
-        <v>-75.81918334960938</v>
+        <v>-73.04649353027344</v>
       </c>
       <c r="I43">
-        <v>40.72727203369141</v>
+        <v>38.06495666503906</v>
       </c>
       <c r="J43">
-        <v>96465.9375</v>
+        <v>96690.9296875</v>
       </c>
       <c r="K43">
         <v>100</v>
       </c>
       <c r="L43">
-        <v>2.572075128555298</v>
+        <v>-0.5658056735992432</v>
       </c>
       <c r="M43">
-        <v>-0.2122119069099426</v>
+        <v>-1.479208946228027</v>
       </c>
       <c r="N43">
-        <v>3.811840772628784</v>
+        <v>1.703594207763672</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2385,7 +2385,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1701594000</v>
+        <v>1701766800</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -2394,34 +2394,34 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>59.79999923706055</v>
+        <v>68.90000152587891</v>
       </c>
       <c r="F44">
-        <v>27.336669921875</v>
+        <v>25.58416748046875</v>
       </c>
       <c r="G44">
-        <v>26.39791870117188</v>
+        <v>25.40423583984375</v>
       </c>
       <c r="H44">
-        <v>-59.05355834960938</v>
+        <v>-71.757080078125</v>
       </c>
       <c r="I44">
-        <v>41.51936340332031</v>
+        <v>42.89546585083008</v>
       </c>
       <c r="J44">
-        <v>96430.5234375</v>
+        <v>96648.7265625</v>
       </c>
       <c r="K44">
-        <v>16.20000076293945</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="L44">
-        <v>2.843974590301514</v>
+        <v>1.046413540840149</v>
       </c>
       <c r="M44">
-        <v>-5.293285846710205</v>
+        <v>-3.34844708442688</v>
       </c>
       <c r="N44">
-        <v>7.505905151367188</v>
+        <v>5.914062976837158</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2429,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1701604800</v>
+        <v>1701777600</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -2438,34 +2438,34 @@
         <v>33</v>
       </c>
       <c r="E45">
-        <v>63.60000228881836</v>
+        <v>70.20000457763672</v>
       </c>
       <c r="F45">
-        <v>26.57321166992188</v>
+        <v>25.47659301757812</v>
       </c>
       <c r="G45">
-        <v>25.33493041992188</v>
+        <v>24.49560546875</v>
       </c>
       <c r="H45">
-        <v>-57.80270385742188</v>
+        <v>-70.04806518554688</v>
       </c>
       <c r="I45">
-        <v>42.3696174621582</v>
+        <v>41.13934707641602</v>
       </c>
       <c r="J45">
-        <v>96639.078125</v>
+        <v>96826.765625</v>
       </c>
       <c r="K45">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>0.2005273401737213</v>
+        <v>2.5145263671875</v>
       </c>
       <c r="M45">
-        <v>-2.953425168991089</v>
+        <v>-5.07037353515625</v>
       </c>
       <c r="N45">
-        <v>3.30169677734375</v>
+        <v>9.007075309753418</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2473,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1701615600</v>
+        <v>1701788400</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -2482,34 +2482,34 @@
         <v>34</v>
       </c>
       <c r="E46">
-        <v>50.70000076293945</v>
+        <v>50.60000228881836</v>
       </c>
       <c r="F46">
-        <v>30.01736450195312</v>
+        <v>31.15777587890625</v>
       </c>
       <c r="G46">
-        <v>27.999267578125</v>
+        <v>28.54031372070312</v>
       </c>
       <c r="H46">
-        <v>-57.51104736328125</v>
+        <v>-68.78727722167969</v>
       </c>
       <c r="I46">
-        <v>42.63569641113281</v>
+        <v>42.28030395507812</v>
       </c>
       <c r="J46">
-        <v>96749.8359375</v>
+        <v>96903.8984375</v>
       </c>
       <c r="K46">
-        <v>98.09999847412109</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="L46">
-        <v>-0.4332055449485779</v>
+        <v>0.6707617044448853</v>
       </c>
       <c r="M46">
-        <v>-0.3682031035423279</v>
+        <v>-6.031601428985596</v>
       </c>
       <c r="N46">
-        <v>0.9114022254943848</v>
+        <v>6.710984230041504</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2517,7 +2517,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1701626400</v>
+        <v>1701799200</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -2526,34 +2526,34 @@
         <v>35</v>
       </c>
       <c r="E47">
-        <v>43.40000152587891</v>
+        <v>33.5</v>
       </c>
       <c r="F47">
-        <v>32.49996948242188</v>
+        <v>36.04818725585938</v>
       </c>
       <c r="G47">
-        <v>30.17648315429688</v>
+        <v>33.1177978515625</v>
       </c>
       <c r="H47">
-        <v>-59.819091796875</v>
+        <v>-69.51988220214844</v>
       </c>
       <c r="I47">
-        <v>42.26334762573242</v>
+        <v>42.17321395874023</v>
       </c>
       <c r="J47">
-        <v>96552.6640625</v>
+        <v>96656.4765625</v>
       </c>
       <c r="K47">
-        <v>100</v>
+        <v>70.30000305175781</v>
       </c>
       <c r="L47">
-        <v>-3.26611328125</v>
+        <v>1.097062945365906</v>
       </c>
       <c r="M47">
-        <v>4.449203968048096</v>
+        <v>-4.943854808807373</v>
       </c>
       <c r="N47">
-        <v>3.900341749191284</v>
+        <v>5.400000095367432</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2561,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1701637200</v>
+        <v>1701810000</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2570,34 +2570,34 @@
         <v>36</v>
       </c>
       <c r="E48">
-        <v>39.90000152587891</v>
+        <v>29.60000038146973</v>
       </c>
       <c r="F48">
-        <v>33.42724609375</v>
+        <v>36.49203491210938</v>
       </c>
       <c r="G48">
-        <v>31.67864990234375</v>
+        <v>34.78912353515625</v>
       </c>
       <c r="H48">
-        <v>-61.63935852050781</v>
+        <v>-68.49093627929688</v>
       </c>
       <c r="I48">
-        <v>44.75122833251953</v>
+        <v>42.37580490112305</v>
       </c>
       <c r="J48">
-        <v>96329.0234375</v>
+        <v>96362.8046875</v>
       </c>
       <c r="K48">
-        <v>100</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L48">
-        <v>-0.4758056402206421</v>
+        <v>4.393874645233154</v>
       </c>
       <c r="M48">
-        <v>5.229831218719482</v>
+        <v>-5.698783874511719</v>
       </c>
       <c r="N48">
-        <v>3.70654296875</v>
+        <v>6.506517887115479</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2605,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1701648000</v>
+        <v>1701820800</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2614,34 +2614,34 @@
         <v>37</v>
       </c>
       <c r="E49">
-        <v>55.79999923706055</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="F49">
-        <v>29.50588989257812</v>
+        <v>31.93780517578125</v>
       </c>
       <c r="G49">
-        <v>28.68710327148438</v>
+        <v>31.54638671875</v>
       </c>
       <c r="H49">
-        <v>-68.78640747070312</v>
+        <v>-59.22737121582031</v>
       </c>
       <c r="I49">
-        <v>48.47270202636719</v>
+        <v>41.09748458862305</v>
       </c>
       <c r="J49">
-        <v>96375.3359375</v>
+        <v>96394.875</v>
       </c>
       <c r="K49">
-        <v>90.40000152587891</v>
+        <v>100</v>
       </c>
       <c r="L49">
-        <v>-1.878989219665527</v>
+        <v>-1.569665551185608</v>
       </c>
       <c r="M49">
-        <v>1.326347589492798</v>
+        <v>-7.1578369140625</v>
       </c>
       <c r="N49">
-        <v>3.100114583969116</v>
+        <v>10.30964946746826</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2649,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1701658800</v>
+        <v>1701831600</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -2658,34 +2658,34 @@
         <v>30</v>
       </c>
       <c r="E50">
-        <v>53.60000228881836</v>
+        <v>48</v>
       </c>
       <c r="F50">
-        <v>30.21923828125</v>
+        <v>30.57559204101562</v>
       </c>
       <c r="G50">
-        <v>30.22640991210938</v>
+        <v>29.56344604492188</v>
       </c>
       <c r="H50">
-        <v>-53.85928344726562</v>
+        <v>-60.42919921875</v>
       </c>
       <c r="I50">
-        <v>41.54958724975586</v>
+        <v>43.30776596069336</v>
       </c>
       <c r="J50">
-        <v>96487.5546875</v>
+        <v>96661.7734375</v>
       </c>
       <c r="K50">
-        <v>91.40000152587891</v>
+        <v>97.30000305175781</v>
       </c>
       <c r="L50">
-        <v>0.4606152176856995</v>
+        <v>5.616488933563232</v>
       </c>
       <c r="M50">
-        <v>1.708388686180115</v>
+        <v>-7.823278427124023</v>
       </c>
       <c r="N50">
-        <v>1.900779724121094</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2693,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1701669600</v>
+        <v>1701842400</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -2702,34 +2702,34 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>54.20000076293945</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>29.5517578125</v>
+        <v>27.57119750976562</v>
       </c>
       <c r="G51">
-        <v>29.16390991210938</v>
+        <v>26.61126708984375</v>
       </c>
       <c r="H51">
-        <v>-61.47264099121094</v>
+        <v>-62.02751159667969</v>
       </c>
       <c r="I51">
-        <v>42.4091911315918</v>
+        <v>43.73160934448242</v>
       </c>
       <c r="J51">
-        <v>96489.953125</v>
+        <v>96611.3125</v>
       </c>
       <c r="K51">
-        <v>71.30000305175781</v>
+        <v>7</v>
       </c>
       <c r="L51">
-        <v>2.249833822250366</v>
+        <v>6.078837871551514</v>
       </c>
       <c r="M51">
-        <v>0.9604613780975342</v>
+        <v>-7.13305139541626</v>
       </c>
       <c r="N51">
-        <v>3.110739469528198</v>
+        <v>12.80000019073486</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2737,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1701680400</v>
+        <v>1701853200</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2746,34 +2746,34 @@
         <v>32</v>
       </c>
       <c r="E52">
-        <v>77</v>
+        <v>69.40000152587891</v>
       </c>
       <c r="F52">
-        <v>24.48580932617188</v>
+        <v>24.97683715820312</v>
       </c>
       <c r="G52">
-        <v>23.71560668945312</v>
+        <v>23.9256591796875</v>
       </c>
       <c r="H52">
-        <v>-49.30816650390625</v>
+        <v>-60.52293395996094</v>
       </c>
       <c r="I52">
-        <v>45.69745635986328</v>
+        <v>42.46342086791992</v>
       </c>
       <c r="J52">
-        <v>96443.3984375</v>
+        <v>96668.2890625</v>
       </c>
       <c r="K52">
-        <v>95.20000457763672</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="L52">
-        <v>4.13555908203125</v>
+        <v>2.599465370178223</v>
       </c>
       <c r="M52">
-        <v>-3.946748018264771</v>
+        <v>-5.56667947769165</v>
       </c>
       <c r="N52">
-        <v>8.900020599365234</v>
+        <v>9.11994457244873</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2781,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1701691200</v>
+        <v>1701864000</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -2790,34 +2790,34 @@
         <v>33</v>
       </c>
       <c r="E53">
-        <v>77.09999847412109</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="F53">
-        <v>24.73770141601562</v>
+        <v>23.3634033203125</v>
       </c>
       <c r="G53">
-        <v>23.54605102539062</v>
+        <v>22.029541015625</v>
       </c>
       <c r="H53">
-        <v>-50.35713195800781</v>
+        <v>-59.53401184082031</v>
       </c>
       <c r="I53">
-        <v>47.10914993286133</v>
+        <v>34.75345993041992</v>
       </c>
       <c r="J53">
-        <v>96734.703125</v>
+        <v>96897.2109375</v>
       </c>
       <c r="K53">
-        <v>99.40000152587891</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="L53">
-        <v>0.328662097454071</v>
+        <v>4.217494964599609</v>
       </c>
       <c r="M53">
-        <v>-2.740016937255859</v>
+        <v>-4.540194988250732</v>
       </c>
       <c r="N53">
-        <v>4.100971221923828</v>
+        <v>7.704689025878906</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2825,7 +2825,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1701702000</v>
+        <v>1701874800</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -2834,34 +2834,34 @@
         <v>34</v>
       </c>
       <c r="E54">
-        <v>69.09999847412109</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="F54">
-        <v>26.14926147460938</v>
+        <v>28.48416137695312</v>
       </c>
       <c r="G54">
-        <v>24.90817260742188</v>
+        <v>25.74118041992188</v>
       </c>
       <c r="H54">
-        <v>-39.88720703125</v>
+        <v>-62.38215637207031</v>
       </c>
       <c r="I54">
-        <v>44.42350387573242</v>
+        <v>23.6374568939209</v>
       </c>
       <c r="J54">
-        <v>96861.0546875</v>
+        <v>96947.4375</v>
       </c>
       <c r="K54">
-        <v>99.70000457763672</v>
+        <v>73.80000305175781</v>
       </c>
       <c r="L54">
-        <v>1.189533710479736</v>
+        <v>4.568229675292969</v>
       </c>
       <c r="M54">
-        <v>-2.578967332839966</v>
+        <v>-6.314316272735596</v>
       </c>
       <c r="N54">
-        <v>3.103257656097412</v>
+        <v>9.001406669616699</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2869,7 +2869,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1701712800</v>
+        <v>1701885600</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -2878,34 +2878,34 @@
         <v>35</v>
       </c>
       <c r="E55">
-        <v>44.40000152587891</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F55">
-        <v>32.33404541015625</v>
+        <v>34.74273681640625</v>
       </c>
       <c r="G55">
-        <v>30.20437622070312</v>
+        <v>31.42373657226562</v>
       </c>
       <c r="H55">
-        <v>-42.2177734375</v>
+        <v>-60.190673828125</v>
       </c>
       <c r="I55">
-        <v>41.66108322143555</v>
+        <v>25.02274513244629</v>
       </c>
       <c r="J55">
-        <v>96688.4765625</v>
+        <v>96676.7265625</v>
       </c>
       <c r="K55">
-        <v>39.40000152587891</v>
+        <v>32.10000228881836</v>
       </c>
       <c r="L55">
-        <v>-0.8905102610588074</v>
+        <v>5.036821365356445</v>
       </c>
       <c r="M55">
-        <v>0.1305004805326462</v>
+        <v>-4.966811180114746</v>
       </c>
       <c r="N55">
-        <v>2.506921529769897</v>
+        <v>8.000779151916504</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2913,7 +2913,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1701723600</v>
+        <v>1701896400</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -2922,34 +2922,34 @@
         <v>36</v>
       </c>
       <c r="E56">
-        <v>37.79999923706055</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="F56">
-        <v>33.93060302734375</v>
+        <v>37.18603515625</v>
       </c>
       <c r="G56">
-        <v>32.09109497070312</v>
+        <v>34.6368408203125</v>
       </c>
       <c r="H56">
-        <v>-65.81231689453125</v>
+        <v>-60.75485229492188</v>
       </c>
       <c r="I56">
-        <v>38.7978630065918</v>
+        <v>28.29107475280762</v>
       </c>
       <c r="J56">
-        <v>96491.640625</v>
+        <v>96349.65625</v>
       </c>
       <c r="K56">
-        <v>87.80000305175781</v>
+        <v>94.09999847412109</v>
       </c>
       <c r="L56">
-        <v>-2.325727462768555</v>
+        <v>5.0929856300354</v>
       </c>
       <c r="M56">
-        <v>-3.433366537094116</v>
+        <v>-5.844746112823486</v>
       </c>
       <c r="N56">
-        <v>3.409140825271606</v>
+        <v>7.922308444976807</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2957,7 +2957,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1701734400</v>
+        <v>1701907200</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -2966,34 +2966,34 @@
         <v>37</v>
       </c>
       <c r="E57">
-        <v>36.29999923706055</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="F57">
-        <v>33.35726928710938</v>
+        <v>34.14666748046875</v>
       </c>
       <c r="G57">
-        <v>32.88156127929688</v>
+        <v>33.76113891601562</v>
       </c>
       <c r="H57">
-        <v>-64.84567260742188</v>
+        <v>-60.59136962890625</v>
       </c>
       <c r="I57">
-        <v>34.66778564453125</v>
+        <v>31.57012748718262</v>
       </c>
       <c r="J57">
-        <v>96483.0703125</v>
+        <v>96403.3359375</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>29.39999961853027</v>
       </c>
       <c r="L57">
-        <v>-1.249858379364014</v>
+        <v>4.179294109344482</v>
       </c>
       <c r="M57">
-        <v>-1.977983355522156</v>
+        <v>-3.317092180252075</v>
       </c>
       <c r="N57">
-        <v>2.507226705551147</v>
+        <v>7.707445621490479</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1701745200</v>
+        <v>1701918000</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -3010,34 +3010,34 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>48.70000076293945</v>
+        <v>41</v>
       </c>
       <c r="F58">
-        <v>30.40554809570312</v>
+        <v>31.2454833984375</v>
       </c>
       <c r="G58">
-        <v>30.05426025390625</v>
+        <v>30.44155883789062</v>
       </c>
       <c r="H58">
-        <v>-63.85600280761719</v>
+        <v>-60.03431701660156</v>
       </c>
       <c r="I58">
-        <v>40.33658981323242</v>
+        <v>35.11399459838867</v>
       </c>
       <c r="J58">
-        <v>96729.8671875</v>
+        <v>96607.0546875</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="L58">
-        <v>-2.006728410720825</v>
+        <v>5.314013481140137</v>
       </c>
       <c r="M58">
-        <v>-1.506899356842041</v>
+        <v>-5.83831787109375</v>
       </c>
       <c r="N58">
-        <v>3.7000732421875</v>
+        <v>12.10012245178223</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3045,7 +3045,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1701756000</v>
+        <v>1701928800</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -3054,34 +3054,34 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>54.90000152587891</v>
+        <v>44</v>
       </c>
       <c r="F59">
-        <v>28.80990600585938</v>
+        <v>27.60308837890625</v>
       </c>
       <c r="G59">
-        <v>28.38998413085938</v>
+        <v>26.80117797851562</v>
       </c>
       <c r="H59">
-        <v>-57.04402160644531</v>
+        <v>-59.97970581054688</v>
       </c>
       <c r="I59">
-        <v>40.50490570068359</v>
+        <v>31.06500244140625</v>
       </c>
       <c r="J59">
-        <v>96679.6484375</v>
+        <v>96586.9609375</v>
       </c>
       <c r="K59">
-        <v>0.2000000029802322</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>-1.461140155792236</v>
+        <v>4.4938645362854</v>
       </c>
       <c r="M59">
-        <v>1.629550695419312</v>
+        <v>-7.582370281219482</v>
       </c>
       <c r="N59">
-        <v>3.016401529312134</v>
+        <v>12.90024089813232</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3089,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1701766800</v>
+        <v>1701939600</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -3098,34 +3098,34 @@
         <v>32</v>
       </c>
       <c r="E60">
-        <v>73.30000305175781</v>
+        <v>62.40000152587891</v>
       </c>
       <c r="F60">
-        <v>25.13211059570312</v>
+        <v>24.19796752929688</v>
       </c>
       <c r="G60">
-        <v>24.91949462890625</v>
+        <v>23.19073486328125</v>
       </c>
       <c r="H60">
-        <v>-55.26774597167969</v>
+        <v>-62.42706298828125</v>
       </c>
       <c r="I60">
-        <v>45.7995719909668</v>
+        <v>30.10408973693848</v>
       </c>
       <c r="J60">
-        <v>96714.6875</v>
+        <v>96517.2890625</v>
       </c>
       <c r="K60">
-        <v>98.70000457763672</v>
+        <v>55</v>
       </c>
       <c r="L60">
-        <v>2.154523849487305</v>
+        <v>5.181110858917236</v>
       </c>
       <c r="M60">
-        <v>-3.480007171630859</v>
+        <v>-5.84585428237915</v>
       </c>
       <c r="N60">
-        <v>7.599999904632568</v>
+        <v>12.50428676605225</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3133,7 +3133,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1701777600</v>
+        <v>1701950400</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -3142,34 +3142,34 @@
         <v>33</v>
       </c>
       <c r="E61">
-        <v>76.70000457763672</v>
+        <v>72.20000457763672</v>
       </c>
       <c r="F61">
-        <v>25.18051147460938</v>
+        <v>23.33642578125</v>
       </c>
       <c r="G61">
-        <v>24.11312866210938</v>
+        <v>22.03436279296875</v>
       </c>
       <c r="H61">
-        <v>-52.50340270996094</v>
+        <v>-62.61528015136719</v>
       </c>
       <c r="I61">
-        <v>45.15124893188477</v>
+        <v>30.86890602111816</v>
       </c>
       <c r="J61">
-        <v>96862.078125</v>
+        <v>96815.515625</v>
       </c>
       <c r="K61">
-        <v>99.20000457763672</v>
+        <v>100</v>
       </c>
       <c r="L61">
-        <v>4.081757545471191</v>
+        <v>2.169943809509277</v>
       </c>
       <c r="M61">
-        <v>-5.151472091674805</v>
+        <v>-4.743520259857178</v>
       </c>
       <c r="N61">
-        <v>8.602062225341797</v>
+        <v>8.001406669616699</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3177,7 +3177,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1701788400</v>
+        <v>1701961200</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -3186,34 +3186,34 @@
         <v>34</v>
       </c>
       <c r="E62">
-        <v>52.40000152587891</v>
+        <v>48.5</v>
       </c>
       <c r="F62">
-        <v>30.61236572265625</v>
+        <v>29.14736938476562</v>
       </c>
       <c r="G62">
-        <v>28.07400512695312</v>
+        <v>26.29483032226562</v>
       </c>
       <c r="H62">
-        <v>-54.55751037597656</v>
+        <v>-63.01983642578125</v>
       </c>
       <c r="I62">
-        <v>42.30575942993164</v>
+        <v>29.80479621887207</v>
       </c>
       <c r="J62">
-        <v>96930.1875</v>
+        <v>96867.9296875</v>
       </c>
       <c r="K62">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L62">
-        <v>2.353798866271973</v>
+        <v>1.630849599838257</v>
       </c>
       <c r="M62">
-        <v>-4.913225173950195</v>
+        <v>-6.285048484802246</v>
       </c>
       <c r="N62">
-        <v>5.513760089874268</v>
+        <v>7.601407051086426</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3221,7 +3221,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1701799200</v>
+        <v>1701972000</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -3230,34 +3230,34 @@
         <v>35</v>
       </c>
       <c r="E63">
-        <v>36.5</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="F63">
-        <v>35.18777465820312</v>
+        <v>34.7230224609375</v>
       </c>
       <c r="G63">
-        <v>32.46621704101562</v>
+        <v>31.63677978515625</v>
       </c>
       <c r="H63">
-        <v>-51.29991149902344</v>
+        <v>-69.75186157226562</v>
       </c>
       <c r="I63">
-        <v>40.89444732666016</v>
+        <v>30.85869216918945</v>
       </c>
       <c r="J63">
-        <v>96697.3984375</v>
+        <v>96611.1796875</v>
       </c>
       <c r="K63">
-        <v>60.70000076293945</v>
+        <v>100</v>
       </c>
       <c r="L63">
-        <v>0.7533886432647705</v>
+        <v>1.064987778663635</v>
       </c>
       <c r="M63">
-        <v>-4.0157470703125</v>
+        <v>-5.543188571929932</v>
       </c>
       <c r="N63">
-        <v>4.607001781463623</v>
+        <v>6.400000095367432</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3265,7 +3265,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1701810000</v>
+        <v>1701982800</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -3274,34 +3274,34 @@
         <v>36</v>
       </c>
       <c r="E64">
-        <v>31.89999961853027</v>
+        <v>22.5</v>
       </c>
       <c r="F64">
-        <v>36.41619873046875</v>
+        <v>37.81292724609375</v>
       </c>
       <c r="G64">
-        <v>34.29010009765625</v>
+        <v>35.46426391601562</v>
       </c>
       <c r="H64">
-        <v>-56.35324096679688</v>
+        <v>-69.23002624511719</v>
       </c>
       <c r="I64">
-        <v>39.71415710449219</v>
+        <v>31.73979949951172</v>
       </c>
       <c r="J64">
-        <v>96430.1484375</v>
+        <v>96259.1796875</v>
       </c>
       <c r="K64">
-        <v>76.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L64">
-        <v>6.49010705947876</v>
+        <v>-0.4023779332637787</v>
       </c>
       <c r="M64">
-        <v>-3.703293323516846</v>
+        <v>-4.338261604309082</v>
       </c>
       <c r="N64">
-        <v>6.900238037109375</v>
+        <v>6.200000286102295</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3309,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1701820800</v>
+        <v>1701993600</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
@@ -3318,34 +3318,34 @@
         <v>37</v>
       </c>
       <c r="E65">
-        <v>35.79999923706055</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>34.30194091796875</v>
+        <v>36.74734497070312</v>
       </c>
       <c r="G65">
-        <v>33.60711669921875</v>
+        <v>36.1663818359375</v>
       </c>
       <c r="H65">
-        <v>-54.62496948242188</v>
+        <v>-66.74012756347656</v>
       </c>
       <c r="I65">
-        <v>37.09013748168945</v>
+        <v>31.45797729492188</v>
       </c>
       <c r="J65">
-        <v>96478.4921875</v>
+        <v>96294.0546875</v>
       </c>
       <c r="K65">
-        <v>4.400000095367432</v>
+        <v>100</v>
       </c>
       <c r="L65">
-        <v>4.201416015625</v>
+        <v>1.102412104606628</v>
       </c>
       <c r="M65">
-        <v>-4.052045822143555</v>
+        <v>-3.802866220474243</v>
       </c>
       <c r="N65">
-        <v>7.505237102508545</v>
+        <v>6.405816555023193</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3353,7 +3353,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1701831600</v>
+        <v>1702004400</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
@@ -3362,34 +3362,34 @@
         <v>30</v>
       </c>
       <c r="E66">
-        <v>47.40000152587891</v>
+        <v>44.10000228881836</v>
       </c>
       <c r="F66">
-        <v>31.22067260742188</v>
+        <v>31.30853271484375</v>
       </c>
       <c r="G66">
-        <v>30.40408325195312</v>
+        <v>30.1064453125</v>
       </c>
       <c r="H66">
-        <v>-53.65020751953125</v>
+        <v>-56.14675903320312</v>
       </c>
       <c r="I66">
-        <v>46.2093391418457</v>
+        <v>36.17429733276367</v>
       </c>
       <c r="J66">
-        <v>96666.015625</v>
+        <v>96601.375</v>
       </c>
       <c r="K66">
-        <v>99.90000152587891</v>
+        <v>95.30000305175781</v>
       </c>
       <c r="L66">
-        <v>2.235327005386353</v>
+        <v>7.585605144500732</v>
       </c>
       <c r="M66">
-        <v>-5.898366451263428</v>
+        <v>-7.977299690246582</v>
       </c>
       <c r="N66">
-        <v>10.90081405639648</v>
+        <v>13.90629577636719</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3397,7 +3397,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1701842400</v>
+        <v>1702015200</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -3406,34 +3406,34 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>64</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="F67">
-        <v>27.0692138671875</v>
+        <v>28.5401611328125</v>
       </c>
       <c r="G67">
-        <v>25.90554809570312</v>
+        <v>27.68087768554688</v>
       </c>
       <c r="H67">
-        <v>-56.190673828125</v>
+        <v>-58.42323303222656</v>
       </c>
       <c r="I67">
-        <v>42.24289703369141</v>
+        <v>34.26235961914062</v>
       </c>
       <c r="J67">
-        <v>96737.9921875</v>
+        <v>96510.5546875</v>
       </c>
       <c r="K67">
-        <v>4.800000190734863</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="L67">
-        <v>3.031696796417236</v>
+        <v>3.649938821792603</v>
       </c>
       <c r="M67">
-        <v>-8.204914093017578</v>
+        <v>-7.48259973526001</v>
       </c>
       <c r="N67">
-        <v>11.8194408416748</v>
+        <v>12.20377254486084</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3441,7 +3441,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1701853200</v>
+        <v>1702026000</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -3450,34 +3450,34 @@
         <v>32</v>
       </c>
       <c r="E68">
-        <v>68.5</v>
+        <v>64.70000457763672</v>
       </c>
       <c r="F68">
-        <v>25.41766357421875</v>
+        <v>25.6800537109375</v>
       </c>
       <c r="G68">
-        <v>24.26718139648438</v>
+        <v>24.62826538085938</v>
       </c>
       <c r="H68">
-        <v>-56.76402282714844</v>
+        <v>-54.36540222167969</v>
       </c>
       <c r="I68">
-        <v>43.77570343017578</v>
+        <v>34.25930786132812</v>
       </c>
       <c r="J68">
-        <v>96738.8046875</v>
+        <v>96540.3671875</v>
       </c>
       <c r="K68">
-        <v>77.20000457763672</v>
+        <v>74.20000457763672</v>
       </c>
       <c r="L68">
-        <v>3.700607776641846</v>
+        <v>1.266291499137878</v>
       </c>
       <c r="M68">
-        <v>-6.415795803070068</v>
+        <v>-6.78484582901001</v>
       </c>
       <c r="N68">
-        <v>11.19999980926514</v>
+        <v>11.90988159179688</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3485,7 +3485,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1701864000</v>
+        <v>1702036800</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
@@ -3494,34 +3494,34 @@
         <v>33</v>
       </c>
       <c r="E69">
-        <v>75</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="F69">
-        <v>24.08154296875</v>
+        <v>25.50628662109375</v>
       </c>
       <c r="G69">
-        <v>22.77203369140625</v>
+        <v>24.35531616210938</v>
       </c>
       <c r="H69">
-        <v>-54.76852416992188</v>
+        <v>-49.24089050292969</v>
       </c>
       <c r="I69">
-        <v>31.87237739562988</v>
+        <v>35.02995681762695</v>
       </c>
       <c r="J69">
-        <v>96909.7421875</v>
+        <v>96751.0546875</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>64.90000152587891</v>
       </c>
       <c r="L69">
-        <v>4.601464748382568</v>
+        <v>1.809370040893555</v>
       </c>
       <c r="M69">
-        <v>-6.270730018615723</v>
+        <v>-6.248036861419678</v>
       </c>
       <c r="N69">
-        <v>11.50194358825684</v>
+        <v>10.22345638275146</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3529,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1701874800</v>
+        <v>1702047600</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
@@ -3538,34 +3538,34 @@
         <v>34</v>
       </c>
       <c r="E70">
-        <v>50.5</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="F70">
-        <v>29.10540771484375</v>
+        <v>31.1982421875</v>
       </c>
       <c r="G70">
-        <v>26.33355712890625</v>
+        <v>28.43179321289062</v>
       </c>
       <c r="H70">
-        <v>-46.83970642089844</v>
+        <v>-47.01019287109375</v>
       </c>
       <c r="I70">
-        <v>31.08478927612305</v>
+        <v>36.40240859985352</v>
       </c>
       <c r="J70">
-        <v>96967.5546875</v>
+        <v>96855.609375</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="L70">
-        <v>3.318920850753784</v>
+        <v>-3.753185987472534</v>
       </c>
       <c r="M70">
-        <v>-7.259501934051514</v>
+        <v>-4.651645183563232</v>
       </c>
       <c r="N70">
-        <v>8.804295539855957</v>
+        <v>6.602256298065186</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3573,7 +3573,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1701885600</v>
+        <v>1702058400</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
@@ -3582,34 +3582,34 @@
         <v>35</v>
       </c>
       <c r="E71">
-        <v>33.70000076293945</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="F71">
-        <v>34.10617065429688</v>
+        <v>35.23745727539062</v>
       </c>
       <c r="G71">
-        <v>30.83544921875</v>
+        <v>32.5615234375</v>
       </c>
       <c r="H71">
-        <v>-60.14736938476562</v>
+        <v>-45.77410888671875</v>
       </c>
       <c r="I71">
-        <v>32.36807250976562</v>
+        <v>36.83736801147461</v>
       </c>
       <c r="J71">
-        <v>96712.8671875</v>
+        <v>96615.390625</v>
       </c>
       <c r="K71">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="L71">
-        <v>3.737734317779541</v>
+        <v>-3.352494955062866</v>
       </c>
       <c r="M71">
-        <v>-5.451769828796387</v>
+        <v>-3.02593731880188</v>
       </c>
       <c r="N71">
-        <v>7.006674289703369</v>
+        <v>3.801296234130859</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3617,7 +3617,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1701896400</v>
+        <v>1702069200</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -3626,34 +3626,34 @@
         <v>36</v>
       </c>
       <c r="E72">
-        <v>26.30000114440918</v>
+        <v>31.30000114440918</v>
       </c>
       <c r="F72">
-        <v>36.49163818359375</v>
+        <v>34.71163940429688</v>
       </c>
       <c r="G72">
-        <v>34.04721069335938</v>
+        <v>33.34304809570312</v>
       </c>
       <c r="H72">
-        <v>-55.5577392578125</v>
+        <v>-45.39569091796875</v>
       </c>
       <c r="I72">
-        <v>33.61868286132812</v>
+        <v>38.16379165649414</v>
       </c>
       <c r="J72">
-        <v>96359.5859375</v>
+        <v>96428.1171875</v>
       </c>
       <c r="K72">
-        <v>93.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L72">
-        <v>2.527570724487305</v>
+        <v>-1.638552188873291</v>
       </c>
       <c r="M72">
-        <v>-4.864016056060791</v>
+        <v>-2.171738147735596</v>
       </c>
       <c r="N72">
-        <v>6.701025485992432</v>
+        <v>3.809261083602905</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3661,7 +3661,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1701907200</v>
+        <v>1702080000</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -3670,34 +3670,34 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <v>26.89999961853027</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="F73">
-        <v>35.0843505859375</v>
+        <v>32.85009765625</v>
       </c>
       <c r="G73">
-        <v>34.42410278320312</v>
+        <v>32.54901123046875</v>
       </c>
       <c r="H73">
-        <v>-58.34291076660156</v>
+        <v>-48.94584655761719</v>
       </c>
       <c r="I73">
-        <v>33.58226013183594</v>
+        <v>31.04313659667969</v>
       </c>
       <c r="J73">
-        <v>96335.5546875</v>
+        <v>96481.1953125</v>
       </c>
       <c r="K73">
-        <v>94.5</v>
+        <v>51.5</v>
       </c>
       <c r="L73">
-        <v>3.444140434265137</v>
+        <v>4.407734394073486</v>
       </c>
       <c r="M73">
-        <v>-4.269863128662109</v>
+        <v>-0.6085742115974426</v>
       </c>
       <c r="N73">
-        <v>7.605942726135254</v>
+        <v>5.905920505523682</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3705,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1701918000</v>
+        <v>1702090800</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -3714,34 +3714,34 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <v>31.20000076293945</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="F74">
-        <v>32.468505859375</v>
+        <v>29.92059326171875</v>
       </c>
       <c r="G74">
-        <v>32.7698974609375</v>
+        <v>30.97030639648438</v>
       </c>
       <c r="H74">
-        <v>-29.06944274902344</v>
+        <v>-48.81971740722656</v>
       </c>
       <c r="I74">
-        <v>31.4864616394043</v>
+        <v>27.7689208984375</v>
       </c>
       <c r="J74">
-        <v>96431.0859375</v>
+        <v>96580.375</v>
       </c>
       <c r="K74">
         <v>5</v>
       </c>
       <c r="L74">
-        <v>3.594518899917603</v>
+        <v>2.340898275375366</v>
       </c>
       <c r="M74">
-        <v>-3.188835382461548</v>
+        <v>-0.5556982159614563</v>
       </c>
       <c r="N74">
-        <v>8.90113353729248</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3749,7 +3749,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1701928800</v>
+        <v>1702101600</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -3758,34 +3758,34 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <v>51.20000076293945</v>
+        <v>42.5</v>
       </c>
       <c r="F75">
-        <v>27.44647216796875</v>
+        <v>29.08383178710938</v>
       </c>
       <c r="G75">
-        <v>26.42898559570312</v>
+        <v>29.68154907226562</v>
       </c>
       <c r="H75">
-        <v>-28.60191345214844</v>
+        <v>-47.43142700195312</v>
       </c>
       <c r="I75">
-        <v>34.37100982666016</v>
+        <v>33.4340934753418</v>
       </c>
       <c r="J75">
-        <v>96546.875</v>
+        <v>96535.625</v>
       </c>
       <c r="K75">
-        <v>15.40000057220459</v>
+        <v>5</v>
       </c>
       <c r="L75">
-        <v>5.256359577178955</v>
+        <v>0.3497241139411926</v>
       </c>
       <c r="M75">
-        <v>-7.206745624542236</v>
+        <v>-3.296398878097534</v>
       </c>
       <c r="N75">
-        <v>13.10258769989014</v>
+        <v>4.103039741516113</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3793,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1701939600</v>
+        <v>1702112400</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -3802,34 +3802,34 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <v>59.40000152587891</v>
+        <v>68.5</v>
       </c>
       <c r="F76">
-        <v>25.16357421875</v>
+        <v>25.73907470703125</v>
       </c>
       <c r="G76">
-        <v>24.1055908203125</v>
+        <v>25.23736572265625</v>
       </c>
       <c r="H76">
-        <v>-35.32736206054688</v>
+        <v>-53.33087158203125</v>
       </c>
       <c r="I76">
-        <v>33.92344284057617</v>
+        <v>36.52606964111328</v>
       </c>
       <c r="J76">
-        <v>96640.203125</v>
+        <v>96569.0234375</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="L76">
-        <v>2.508383750915527</v>
+        <v>0.7282348275184631</v>
       </c>
       <c r="M76">
-        <v>-5.508896350860596</v>
+        <v>-4.273305416107178</v>
       </c>
       <c r="N76">
-        <v>9.31174373626709</v>
+        <v>7.805153846740723</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3837,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1701950400</v>
+        <v>1702123200</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -3846,34 +3846,34 @@
         <v>33</v>
       </c>
       <c r="E77">
-        <v>66.70000457763672</v>
+        <v>72</v>
       </c>
       <c r="F77">
-        <v>24.07537841796875</v>
+        <v>25.58453369140625</v>
       </c>
       <c r="G77">
-        <v>22.76705932617188</v>
+        <v>24.52127075195312</v>
       </c>
       <c r="H77">
-        <v>-36.58387756347656</v>
+        <v>-50.15455627441406</v>
       </c>
       <c r="I77">
-        <v>33.72025680541992</v>
+        <v>36.95691299438477</v>
       </c>
       <c r="J77">
-        <v>96830.0703125</v>
+        <v>96699.6953125</v>
       </c>
       <c r="K77">
-        <v>12.60000038146973</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="L77">
-        <v>3.371486663818359</v>
+        <v>2.529367685317993</v>
       </c>
       <c r="M77">
-        <v>-5.542212009429932</v>
+        <v>-3.608649730682373</v>
       </c>
       <c r="N77">
-        <v>8.504878044128418</v>
+        <v>6.508087158203125</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3881,7 +3881,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1701961200</v>
+        <v>1702134000</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -3890,34 +3890,34 @@
         <v>34</v>
       </c>
       <c r="E78">
-        <v>46.70000076293945</v>
+        <v>42.10000228881836</v>
       </c>
       <c r="F78">
-        <v>29.16494750976562</v>
+        <v>32.68911743164062</v>
       </c>
       <c r="G78">
-        <v>26.397705078125</v>
+        <v>30.1256103515625</v>
       </c>
       <c r="H78">
-        <v>-48.58328247070312</v>
+        <v>-45.61639404296875</v>
       </c>
       <c r="I78">
-        <v>33.39591979980469</v>
+        <v>36.72505569458008</v>
       </c>
       <c r="J78">
-        <v>96881.515625</v>
+        <v>96774.3046875</v>
       </c>
       <c r="K78">
-        <v>8.600000381469727</v>
+        <v>5</v>
       </c>
       <c r="L78">
-        <v>2.240385770797729</v>
+        <v>-4.026359558105469</v>
       </c>
       <c r="M78">
-        <v>-6.846965312957764</v>
+        <v>-3.06573224067688</v>
       </c>
       <c r="N78">
-        <v>7.300000190734863</v>
+        <v>5.505983352661133</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3925,7 +3925,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1701972000</v>
+        <v>1702144800</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -3934,34 +3934,34 @@
         <v>35</v>
       </c>
       <c r="E79">
-        <v>31.60000038146973</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="F79">
-        <v>33.80703735351562</v>
+        <v>36.72637939453125</v>
       </c>
       <c r="G79">
-        <v>30.70159912109375</v>
+        <v>34.08901977539062</v>
       </c>
       <c r="H79">
-        <v>-30.20442199707031</v>
+        <v>-41.44960021972656</v>
       </c>
       <c r="I79">
-        <v>31.47928619384766</v>
+        <v>37.36704254150391</v>
       </c>
       <c r="J79">
-        <v>96592.1796875</v>
+        <v>96537.59375</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="L79">
-        <v>1.461733341217041</v>
+        <v>-2.342250823974609</v>
       </c>
       <c r="M79">
-        <v>-5.484216213226318</v>
+        <v>-2.25732421875</v>
       </c>
       <c r="N79">
-        <v>5.417915344238281</v>
+        <v>3.60813307762146</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3969,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1701982800</v>
+        <v>1702155600</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -3978,34 +3978,34 @@
         <v>36</v>
       </c>
       <c r="E80">
-        <v>26.39999961853027</v>
+        <v>25.5</v>
       </c>
       <c r="F80">
-        <v>35.61602783203125</v>
+        <v>37.53045654296875</v>
       </c>
       <c r="G80">
-        <v>33.21231079101562</v>
+        <v>35.97921752929688</v>
       </c>
       <c r="H80">
-        <v>-44.54074096679688</v>
+        <v>-38.84779357910156</v>
       </c>
       <c r="I80">
-        <v>31.45764541625977</v>
+        <v>37.28839874267578</v>
       </c>
       <c r="J80">
-        <v>96303.8984375</v>
+        <v>96215.609375</v>
       </c>
       <c r="K80">
-        <v>5</v>
+        <v>98.20000457763672</v>
       </c>
       <c r="L80">
-        <v>0.93896484375</v>
+        <v>-2.726940870285034</v>
       </c>
       <c r="M80">
-        <v>-4.219672679901123</v>
+        <v>-2.471081495285034</v>
       </c>
       <c r="N80">
-        <v>4.317207336425781</v>
+        <v>4.001447200775146</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4013,7 +4013,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1701993600</v>
+        <v>1702166400</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -4022,34 +4022,34 @@
         <v>37</v>
       </c>
       <c r="E81">
-        <v>27.60000038146973</v>
+        <v>33</v>
       </c>
       <c r="F81">
-        <v>34.22525024414062</v>
+        <v>34.00906372070312</v>
       </c>
       <c r="G81">
-        <v>33.5025634765625</v>
+        <v>34.19189453125</v>
       </c>
       <c r="H81">
-        <v>-49.25138854980469</v>
+        <v>-13.13128662109375</v>
       </c>
       <c r="I81">
-        <v>30.82441520690918</v>
+        <v>36.70834732055664</v>
       </c>
       <c r="J81">
-        <v>96342.9296875</v>
+        <v>96253.0859375</v>
       </c>
       <c r="K81">
-        <v>5.099999904632568</v>
+        <v>42.5</v>
       </c>
       <c r="L81">
-        <v>-1.152358412742615</v>
+        <v>-2.111796855926514</v>
       </c>
       <c r="M81">
-        <v>-3.787744045257568</v>
+        <v>-4.240666389465332</v>
       </c>
       <c r="N81">
-        <v>5.100067138671875</v>
+        <v>7.416522979736328</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4057,7 +4057,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1702004400</v>
+        <v>1702177200</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -4066,34 +4066,34 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>30.39999961853027</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="F82">
-        <v>32.6390380859375</v>
+        <v>32.30926513671875</v>
       </c>
       <c r="G82">
-        <v>32.9498291015625</v>
+        <v>32.05923461914062</v>
       </c>
       <c r="H82">
-        <v>-60.72431945800781</v>
+        <v>-19.192626953125</v>
       </c>
       <c r="I82">
-        <v>30.93678092956543</v>
+        <v>40.30351257324219</v>
       </c>
       <c r="J82">
-        <v>96437.7421875</v>
+        <v>96463.5625</v>
       </c>
       <c r="K82">
-        <v>66.59999847412109</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L82">
-        <v>0.8494824171066284</v>
+        <v>2.273102998733521</v>
       </c>
       <c r="M82">
-        <v>-2.094528675079346</v>
+        <v>-2.840302705764771</v>
       </c>
       <c r="N82">
-        <v>2.313346862792969</v>
+        <v>4.200000286102295</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4101,7 +4101,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1702015200</v>
+        <v>1702188000</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -4110,34 +4110,34 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>36</v>
+        <v>50.90000152587891</v>
       </c>
       <c r="F83">
-        <v>30.37164306640625</v>
+        <v>29.27078247070312</v>
       </c>
       <c r="G83">
-        <v>29.21343994140625</v>
+        <v>28.6708984375</v>
       </c>
       <c r="H83">
-        <v>-77.13221740722656</v>
+        <v>-16.75439453125</v>
       </c>
       <c r="I83">
-        <v>32.13082885742188</v>
+        <v>38.70499420166016</v>
       </c>
       <c r="J83">
-        <v>96459.5390625</v>
+        <v>96459.046875</v>
       </c>
       <c r="K83">
-        <v>99.59999847412109</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="L83">
-        <v>5.911535739898682</v>
+        <v>2.689792394638062</v>
       </c>
       <c r="M83">
-        <v>-6.871442794799805</v>
+        <v>-5.388747215270996</v>
       </c>
       <c r="N83">
-        <v>10.1131591796875</v>
+        <v>9.607550621032715</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4145,7 +4145,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1702026000</v>
+        <v>1702198800</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -4154,34 +4154,34 @@
         <v>32</v>
       </c>
       <c r="E84">
-        <v>61.79999923706055</v>
+        <v>59.90000152587891</v>
       </c>
       <c r="F84">
-        <v>25.58480834960938</v>
+        <v>28.177001953125</v>
       </c>
       <c r="G84">
-        <v>24.45416259765625</v>
+        <v>27.21975708007812</v>
       </c>
       <c r="H84">
-        <v>-75.40090942382812</v>
+        <v>-62.77476501464844</v>
       </c>
       <c r="I84">
-        <v>34.60795974731445</v>
+        <v>42.35296630859375</v>
       </c>
       <c r="J84">
-        <v>96534.4765625</v>
+        <v>96403.6015625</v>
       </c>
       <c r="K84">
-        <v>17.70000076293945</v>
+        <v>92.30000305175781</v>
       </c>
       <c r="L84">
-        <v>2.268681526184082</v>
+        <v>2.395903348922729</v>
       </c>
       <c r="M84">
-        <v>-7.550251483917236</v>
+        <v>-5.851366996765137</v>
       </c>
       <c r="N84">
-        <v>10.40361309051514</v>
+        <v>9.600000381469727</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4189,7 +4189,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1702036800</v>
+        <v>1702209600</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -4198,34 +4198,34 @@
         <v>33</v>
       </c>
       <c r="E85">
-        <v>62.70000076293945</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="F85">
-        <v>24.94476318359375</v>
+        <v>26.86099243164062</v>
       </c>
       <c r="G85">
-        <v>23.64849853515625</v>
+        <v>25.68435668945312</v>
       </c>
       <c r="H85">
-        <v>-43.23908996582031</v>
+        <v>-56.99629211425781</v>
       </c>
       <c r="I85">
-        <v>35.34458541870117</v>
+        <v>42.78697204589844</v>
       </c>
       <c r="J85">
-        <v>96719.5625</v>
+        <v>96595.2734375</v>
       </c>
       <c r="K85">
-        <v>5.599999904632568</v>
+        <v>23.39999961853027</v>
       </c>
       <c r="L85">
-        <v>3.940759181976318</v>
+        <v>2.702485322952271</v>
       </c>
       <c r="M85">
-        <v>-6.0020432472229</v>
+        <v>-5.360815525054932</v>
       </c>
       <c r="N85">
-        <v>9.800871849060059</v>
+        <v>9.105766296386719</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4233,7 +4233,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1702047600</v>
+        <v>1702220400</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -4242,34 +4242,34 @@
         <v>34</v>
       </c>
       <c r="E86">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F86">
-        <v>30.28912353515625</v>
+        <v>32.10903930664062</v>
       </c>
       <c r="G86">
-        <v>27.4326171875</v>
+        <v>29.58804321289062</v>
       </c>
       <c r="H86">
-        <v>-64.43174743652344</v>
+        <v>-57.60733032226562</v>
       </c>
       <c r="I86">
-        <v>35.8352165222168</v>
+        <v>42.90834045410156</v>
       </c>
       <c r="J86">
-        <v>96791.609375</v>
+        <v>96686.390625</v>
       </c>
       <c r="K86">
-        <v>26.39999961853027</v>
+        <v>15.30000019073486</v>
       </c>
       <c r="L86">
-        <v>0.4489990174770355</v>
+        <v>-2.592153310775757</v>
       </c>
       <c r="M86">
-        <v>-6.278168678283691</v>
+        <v>-3.757848978042603</v>
       </c>
       <c r="N86">
-        <v>6.804428100585938</v>
+        <v>4.910123825073242</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4277,7 +4277,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1702058400</v>
+        <v>1702231200</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -4286,34 +4286,34 @@
         <v>35</v>
       </c>
       <c r="E87">
-        <v>33</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="F87">
-        <v>34.6817626953125</v>
+        <v>36.21337890625</v>
       </c>
       <c r="G87">
-        <v>31.66830444335938</v>
+        <v>33.82269287109375</v>
       </c>
       <c r="H87">
-        <v>-63.45968627929688</v>
+        <v>-57.14808654785156</v>
       </c>
       <c r="I87">
-        <v>35.14977264404297</v>
+        <v>42.76503372192383</v>
       </c>
       <c r="J87">
-        <v>96548.8828125</v>
+        <v>96426.734375</v>
       </c>
       <c r="K87">
-        <v>11.30000019073486</v>
+        <v>85.5</v>
       </c>
       <c r="L87">
-        <v>-0.09212890267372131</v>
+        <v>-2.311977386474609</v>
       </c>
       <c r="M87">
-        <v>-4.817101955413818</v>
+        <v>-1.016015648841858</v>
       </c>
       <c r="N87">
-        <v>4.53021240234375</v>
+        <v>2.80609130859375</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4321,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1702069200</v>
+        <v>1702242000</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -4330,34 +4330,34 @@
         <v>36</v>
       </c>
       <c r="E88">
-        <v>25</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="F88">
-        <v>36.6783447265625</v>
+        <v>36.30767822265625</v>
       </c>
       <c r="G88">
-        <v>34.55996704101562</v>
+        <v>34.7706298828125</v>
       </c>
       <c r="H88">
-        <v>-61.15785217285156</v>
+        <v>-53.64068603515625</v>
       </c>
       <c r="I88">
-        <v>33.69903945922852</v>
+        <v>40.20364379882812</v>
       </c>
       <c r="J88">
-        <v>96256.4921875</v>
+        <v>96103.703125</v>
       </c>
       <c r="K88">
-        <v>93.59999847412109</v>
+        <v>13.90000057220459</v>
       </c>
       <c r="L88">
-        <v>0.4726171791553497</v>
+        <v>-1.801027774810791</v>
       </c>
       <c r="M88">
-        <v>-3.598278760910034</v>
+        <v>-1.441806554794312</v>
       </c>
       <c r="N88">
-        <v>3.711817979812622</v>
+        <v>3.613061189651489</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4365,7 +4365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1702080000</v>
+        <v>1702252800</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -4374,34 +4374,34 @@
         <v>37</v>
       </c>
       <c r="E89">
-        <v>24.60000038146973</v>
+        <v>44.10000228881836</v>
       </c>
       <c r="F89">
-        <v>35.37521362304688</v>
+        <v>32.111083984375</v>
       </c>
       <c r="G89">
-        <v>35.23281860351562</v>
+        <v>31.49160766601562</v>
       </c>
       <c r="H89">
-        <v>-63.52313232421875</v>
+        <v>-60.65348815917969</v>
       </c>
       <c r="I89">
-        <v>29.85798645019531</v>
+        <v>41.59714508056641</v>
       </c>
       <c r="J89">
-        <v>96263.4765625</v>
+        <v>96133.3671875</v>
       </c>
       <c r="K89">
-        <v>100</v>
+        <v>97.70000457763672</v>
       </c>
       <c r="L89">
-        <v>0.5027099251747131</v>
+        <v>5.692653656005859</v>
       </c>
       <c r="M89">
-        <v>-2.413298368453979</v>
+        <v>-4.926747798919678</v>
       </c>
       <c r="N89">
-        <v>2.600496530532837</v>
+        <v>9.905157089233398</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4409,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1702090800</v>
+        <v>1702263600</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
@@ -4418,34 +4418,34 @@
         <v>30</v>
       </c>
       <c r="E90">
-        <v>29.80000114440918</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="F90">
-        <v>33.2052001953125</v>
+        <v>29.68402099609375</v>
       </c>
       <c r="G90">
-        <v>32.79879760742188</v>
+        <v>28.73379516601562</v>
       </c>
       <c r="H90">
-        <v>-61.77774047851562</v>
+        <v>-46.74894714355469</v>
       </c>
       <c r="I90">
-        <v>34.46489334106445</v>
+        <v>45.10905838012695</v>
       </c>
       <c r="J90">
-        <v>96467.7109375</v>
+        <v>96401.7734375</v>
       </c>
       <c r="K90">
-        <v>48.90000152587891</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L90">
-        <v>3.655717611312866</v>
+        <v>-0.6692724227905273</v>
       </c>
       <c r="M90">
-        <v>-3.810549259185791</v>
+        <v>-0.8781396150588989</v>
       </c>
       <c r="N90">
-        <v>9.511160850524902</v>
+        <v>3.10359263420105</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4453,7 +4453,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1702101600</v>
+        <v>1702274400</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -4462,34 +4462,34 @@
         <v>31</v>
       </c>
       <c r="E91">
-        <v>52.79999923706055</v>
+        <v>62.79999923706055</v>
       </c>
       <c r="F91">
-        <v>29.18118286132812</v>
+        <v>27.36416625976562</v>
       </c>
       <c r="G91">
-        <v>27.94479370117188</v>
+        <v>26.69967651367188</v>
       </c>
       <c r="H91">
-        <v>-62.49217224121094</v>
+        <v>-59.44354248046875</v>
       </c>
       <c r="I91">
-        <v>40.30625152587891</v>
+        <v>48.64455795288086</v>
       </c>
       <c r="J91">
-        <v>96607.25</v>
+        <v>96489.2421875</v>
       </c>
       <c r="K91">
-        <v>100</v>
+        <v>29.70000076293945</v>
       </c>
       <c r="L91">
-        <v>1.918681621551514</v>
+        <v>-0.2608715891838074</v>
       </c>
       <c r="M91">
-        <v>-8.18190860748291</v>
+        <v>-4.281740665435791</v>
       </c>
       <c r="N91">
-        <v>10.50000476837158</v>
+        <v>7.405659675598145</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4497,7 +4497,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1702112400</v>
+        <v>1702285200</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
@@ -4506,34 +4506,34 @@
         <v>32</v>
       </c>
       <c r="E92">
-        <v>65.70000457763672</v>
+        <v>84.20000457763672</v>
       </c>
       <c r="F92">
-        <v>26.595947265625</v>
+        <v>24.16049194335938</v>
       </c>
       <c r="G92">
-        <v>25.40298461914062</v>
+        <v>23.03656005859375</v>
       </c>
       <c r="H92">
-        <v>-63.45306396484375</v>
+        <v>-59.49093627929688</v>
       </c>
       <c r="I92">
-        <v>41.09125900268555</v>
+        <v>52.830810546875</v>
       </c>
       <c r="J92">
-        <v>96596.921875</v>
+        <v>96475.890625</v>
       </c>
       <c r="K92">
-        <v>71.30000305175781</v>
+        <v>100</v>
       </c>
       <c r="L92">
-        <v>3.093227386474609</v>
+        <v>4.967534065246582</v>
       </c>
       <c r="M92">
-        <v>-6.534516334533691</v>
+        <v>-5.718415260314941</v>
       </c>
       <c r="N92">
-        <v>9.113750457763672</v>
+        <v>9.708114624023438</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4541,7 +4541,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1702123200</v>
+        <v>1702296000</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
@@ -4550,34 +4550,34 @@
         <v>33</v>
       </c>
       <c r="E93">
-        <v>72.30000305175781</v>
+        <v>79.20000457763672</v>
       </c>
       <c r="F93">
-        <v>25.24105834960938</v>
+        <v>24.54257202148438</v>
       </c>
       <c r="G93">
-        <v>23.90634155273438</v>
+        <v>23.40774536132812</v>
       </c>
       <c r="H93">
-        <v>-58.08145141601562</v>
+        <v>-45.62882995605469</v>
       </c>
       <c r="I93">
-        <v>40.8260498046875</v>
+        <v>49.5433464050293</v>
       </c>
       <c r="J93">
-        <v>96736.2109375</v>
+        <v>96594.7890625</v>
       </c>
       <c r="K93">
-        <v>44.5</v>
+        <v>99.5</v>
       </c>
       <c r="L93">
-        <v>3.73901104927063</v>
+        <v>3.645234346389771</v>
       </c>
       <c r="M93">
-        <v>-6.320527076721191</v>
+        <v>-6.642420291900635</v>
       </c>
       <c r="N93">
-        <v>9.1131591796875</v>
+        <v>10.20997428894043</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4585,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1702134000</v>
+        <v>1702306800</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
@@ -4594,34 +4594,34 @@
         <v>34</v>
       </c>
       <c r="E94">
-        <v>48.79999923706055</v>
+        <v>70.80000305175781</v>
       </c>
       <c r="F94">
-        <v>30.62081909179688</v>
+        <v>25.530517578125</v>
       </c>
       <c r="G94">
-        <v>27.81103515625</v>
+        <v>24.1002197265625</v>
       </c>
       <c r="H94">
-        <v>-50.35592651367188</v>
+        <v>-66.60809326171875</v>
       </c>
       <c r="I94">
-        <v>40.26237106323242</v>
+        <v>47.81234359741211</v>
       </c>
       <c r="J94">
-        <v>96841.125</v>
+        <v>96765.015625</v>
       </c>
       <c r="K94">
-        <v>28.80000114440918</v>
+        <v>95.20000457763672</v>
       </c>
       <c r="L94">
-        <v>-0.2667871117591858</v>
+        <v>1.598857402801514</v>
       </c>
       <c r="M94">
-        <v>-6.035222053527832</v>
+        <v>-6.228755950927734</v>
       </c>
       <c r="N94">
-        <v>6.5</v>
+        <v>7.805356025695801</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4629,7 +4629,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1702144800</v>
+        <v>1702317600</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
@@ -4638,34 +4638,34 @@
         <v>35</v>
       </c>
       <c r="E95">
-        <v>33.79999923706055</v>
+        <v>56.60000228881836</v>
       </c>
       <c r="F95">
-        <v>35.249267578125</v>
+        <v>28.6754150390625</v>
       </c>
       <c r="G95">
-        <v>32.23065185546875</v>
+        <v>26.82315063476562</v>
       </c>
       <c r="H95">
-        <v>-51.96943664550781</v>
+        <v>-68.01094055175781</v>
       </c>
       <c r="I95">
-        <v>39.40312576293945</v>
+        <v>47.25668334960938</v>
       </c>
       <c r="J95">
-        <v>96600.2734375</v>
+        <v>96632.2890625</v>
       </c>
       <c r="K95">
-        <v>47.29999923706055</v>
+        <v>54.5</v>
       </c>
       <c r="L95">
-        <v>-0.2083373963832855</v>
+        <v>0.6415087580680847</v>
       </c>
       <c r="M95">
-        <v>-4.81509256362915</v>
+        <v>-3.625715255737305</v>
       </c>
       <c r="N95">
-        <v>4.804925441741943</v>
+        <v>4.700460910797119</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4673,7 +4673,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1702155600</v>
+        <v>1702328400</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
@@ -4682,34 +4682,34 @@
         <v>36</v>
       </c>
       <c r="E96">
-        <v>27.5</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="F96">
-        <v>36.70388793945312</v>
+        <v>32.95806884765625</v>
       </c>
       <c r="G96">
-        <v>34.7283935546875</v>
+        <v>30.87527465820312</v>
       </c>
       <c r="H96">
-        <v>-63.20916748046875</v>
+        <v>-69.28878784179688</v>
       </c>
       <c r="I96">
-        <v>38.10948944091797</v>
+        <v>45.47930526733398</v>
       </c>
       <c r="J96">
-        <v>96309.6171875</v>
+        <v>96286.4921875</v>
       </c>
       <c r="K96">
-        <v>100</v>
+        <v>22.89999961853027</v>
       </c>
       <c r="L96">
-        <v>-0.5896435379981995</v>
+        <v>1.475258708000183</v>
       </c>
       <c r="M96">
-        <v>-4.412456035614014</v>
+        <v>-3.06976056098938</v>
       </c>
       <c r="N96">
-        <v>4.71055793762207</v>
+        <v>4.309814929962158</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4717,7 +4717,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1702166400</v>
+        <v>1702339200</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
@@ -4726,34 +4726,34 @@
         <v>37</v>
       </c>
       <c r="E97">
-        <v>35.70000076293945</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="F97">
-        <v>33.06546020507812</v>
+        <v>32.50677490234375</v>
       </c>
       <c r="G97">
-        <v>32.1817626953125</v>
+        <v>31.8126220703125</v>
       </c>
       <c r="H97">
-        <v>-52.13807678222656</v>
+        <v>-67.20156860351562</v>
       </c>
       <c r="I97">
-        <v>35.73822402954102</v>
+        <v>43.38368225097656</v>
       </c>
       <c r="J97">
-        <v>96381.25</v>
+        <v>96224.6015625</v>
       </c>
       <c r="K97">
-        <v>19.39999961853027</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="L97">
-        <v>4.222719669342041</v>
+        <v>4.743239402770996</v>
       </c>
       <c r="M97">
-        <v>-6.643808364868164</v>
+        <v>-2.501638174057007</v>
       </c>
       <c r="N97">
-        <v>8.701296806335449</v>
+        <v>6.519466400146484</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4761,7 +4761,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1702177200</v>
+        <v>1702350000</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
@@ -4770,34 +4770,34 @@
         <v>30</v>
       </c>
       <c r="E98">
-        <v>38.20000076293945</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="F98">
-        <v>31.7847900390625</v>
+        <v>29.43450927734375</v>
       </c>
       <c r="G98">
-        <v>31.68963623046875</v>
+        <v>29.24380493164062</v>
       </c>
       <c r="H98">
-        <v>-39.00105285644531</v>
+        <v>-66.60057067871094</v>
       </c>
       <c r="I98">
-        <v>34.89860534667969</v>
+        <v>40.29480743408203</v>
       </c>
       <c r="J98">
-        <v>96487.09375</v>
+        <v>96383.5078125</v>
       </c>
       <c r="K98">
-        <v>100</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="L98">
-        <v>2.361706495285034</v>
+        <v>4.599396705627441</v>
       </c>
       <c r="M98">
-        <v>-5.283046722412109</v>
+        <v>-3.000800609588623</v>
       </c>
       <c r="N98">
-        <v>10.2172269821167</v>
+        <v>10.70270442962646</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4805,7 +4805,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1702188000</v>
+        <v>1702360800</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -4814,34 +4814,34 @@
         <v>31</v>
       </c>
       <c r="E99">
-        <v>55.10000228881836</v>
+        <v>57.79999923706055</v>
       </c>
       <c r="F99">
-        <v>27.81527709960938</v>
+        <v>27.749755859375</v>
       </c>
       <c r="G99">
-        <v>26.8387451171875</v>
+        <v>27.109130859375</v>
       </c>
       <c r="H99">
-        <v>-34.83158874511719</v>
+        <v>-63.99600219726562</v>
       </c>
       <c r="I99">
-        <v>39.86136627197266</v>
+        <v>46.51570129394531</v>
       </c>
       <c r="J99">
-        <v>96614.1953125</v>
+        <v>96479.90625</v>
       </c>
       <c r="K99">
-        <v>21</v>
+        <v>23.30000114440918</v>
       </c>
       <c r="L99">
-        <v>4.233127117156982</v>
+        <v>3.613649845123291</v>
       </c>
       <c r="M99">
-        <v>-7.832001686096191</v>
+        <v>-7.732651233673096</v>
       </c>
       <c r="N99">
-        <v>12.00257015228271</v>
+        <v>12.20652198791504</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4849,7 +4849,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1702198800</v>
+        <v>1702371600</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
@@ -4858,34 +4858,34 @@
         <v>32</v>
       </c>
       <c r="E100">
-        <v>58.60000228881836</v>
+        <v>71.40000152587891</v>
       </c>
       <c r="F100">
-        <v>25.9271240234375</v>
+        <v>25.30874633789062</v>
       </c>
       <c r="G100">
-        <v>24.75390625</v>
+        <v>24.38058471679688</v>
       </c>
       <c r="H100">
-        <v>-54.03054809570312</v>
+        <v>-64.60684204101562</v>
       </c>
       <c r="I100">
-        <v>39.21926498413086</v>
+        <v>45.97797012329102</v>
       </c>
       <c r="J100">
-        <v>96555.7109375</v>
+        <v>96484.4296875</v>
       </c>
       <c r="K100">
-        <v>100</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="L100">
-        <v>5.135412693023682</v>
+        <v>3.617990732192993</v>
       </c>
       <c r="M100">
-        <v>-5.967172622680664</v>
+        <v>-7.013569355010986</v>
       </c>
       <c r="N100">
-        <v>11.10140705108643</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4893,7 +4893,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1702209600</v>
+        <v>1702382400</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -4902,34 +4902,34 @@
         <v>33</v>
       </c>
       <c r="E101">
-        <v>63.5</v>
+        <v>66.59999847412109</v>
       </c>
       <c r="F101">
-        <v>24.5841064453125</v>
+        <v>24.49636840820312</v>
       </c>
       <c r="G101">
-        <v>23.31588745117188</v>
+        <v>23.37149047851562</v>
       </c>
       <c r="H101">
-        <v>-64.58551025390625</v>
+        <v>-65.20564270019531</v>
       </c>
       <c r="I101">
-        <v>38.45742797851562</v>
+        <v>42.88604736328125</v>
       </c>
       <c r="J101">
-        <v>96747.1171875</v>
+        <v>96622.9765625</v>
       </c>
       <c r="K101">
-        <v>100</v>
+        <v>74.90000152587891</v>
       </c>
       <c r="L101">
-        <v>4.201996803283691</v>
+        <v>3.149523973464966</v>
       </c>
       <c r="M101">
-        <v>-6.107780456542969</v>
+        <v>-6.578884124755859</v>
       </c>
       <c r="N101">
-        <v>10.80140781402588</v>
+        <v>10.90084743499756</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4937,7 +4937,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1702220400</v>
+        <v>1702393200</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
@@ -4946,34 +4946,34 @@
         <v>34</v>
       </c>
       <c r="E102">
-        <v>46.70000076293945</v>
+        <v>47.29999923706055</v>
       </c>
       <c r="F102">
-        <v>29.74221801757812</v>
+        <v>29.5</v>
       </c>
       <c r="G102">
-        <v>27.0225830078125</v>
+        <v>26.857421875</v>
       </c>
       <c r="H102">
-        <v>-62.01516723632812</v>
+        <v>-71.92327880859375</v>
       </c>
       <c r="I102">
-        <v>38.29570388793945</v>
+        <v>43.1013298034668</v>
       </c>
       <c r="J102">
-        <v>96840.3671875</v>
+        <v>96729.25</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="L102">
-        <v>2.167949199676514</v>
+        <v>0.1121801733970642</v>
       </c>
       <c r="M102">
-        <v>-7.322980880737305</v>
+        <v>-7.389255046844482</v>
       </c>
       <c r="N102">
-        <v>8.123075485229492</v>
+        <v>8.018246650695801</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4981,7 +4981,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1702231200</v>
+        <v>1702404000</v>
       </c>
       <c r="C103" t="s">
         <v>25</v>
@@ -4990,34 +4990,34 @@
         <v>35</v>
       </c>
       <c r="E103">
-        <v>33.5</v>
+        <v>29.80000114440918</v>
       </c>
       <c r="F103">
-        <v>34.6614990234375</v>
+        <v>34.43618774414062</v>
       </c>
       <c r="G103">
-        <v>31.54959106445312</v>
+        <v>31.558349609375</v>
       </c>
       <c r="H103">
-        <v>-64.95355224609375</v>
+        <v>-69.78005981445312</v>
       </c>
       <c r="I103">
-        <v>37.99798202514648</v>
+        <v>38.40654373168945</v>
       </c>
       <c r="J103">
-        <v>96580.390625</v>
+        <v>96571.6171875</v>
       </c>
       <c r="K103">
-        <v>100</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L103">
-        <v>0.4515234231948853</v>
+        <v>-0.1531542986631393</v>
       </c>
       <c r="M103">
-        <v>-6.037331581115723</v>
+        <v>-5.252250671386719</v>
       </c>
       <c r="N103">
-        <v>6.200000286102295</v>
+        <v>6.11725378036499</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5025,7 +5025,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1702242000</v>
+        <v>1702414800</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -5034,34 +5034,34 @@
         <v>36</v>
       </c>
       <c r="E104">
-        <v>28.5</v>
+        <v>25.5</v>
       </c>
       <c r="F104">
-        <v>36.18875122070312</v>
+        <v>36.70730590820312</v>
       </c>
       <c r="G104">
-        <v>34.00717163085938</v>
+        <v>34.32052612304688</v>
       </c>
       <c r="H104">
-        <v>-63.556396484375</v>
+        <v>-67.47415161132812</v>
       </c>
       <c r="I104">
-        <v>38.01597213745117</v>
+        <v>37.57795715332031</v>
       </c>
       <c r="J104">
-        <v>96295.765625</v>
+        <v>96252.5546875</v>
       </c>
       <c r="K104">
-        <v>100</v>
+        <v>16.30000114440918</v>
       </c>
       <c r="L104">
-        <v>0.4418359398841858</v>
+        <v>0.3077563345432281</v>
       </c>
       <c r="M104">
-        <v>-3.854423761367798</v>
+        <v>-4.87847900390625</v>
       </c>
       <c r="N104">
-        <v>4.613946437835693</v>
+        <v>5.801615715026855</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5069,7 +5069,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1702252800</v>
+        <v>1702425600</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -5078,34 +5078,34 @@
         <v>37</v>
       </c>
       <c r="E105">
-        <v>30.5</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="F105">
-        <v>34.84637451171875</v>
+        <v>35.32998657226562</v>
       </c>
       <c r="G105">
-        <v>34.25799560546875</v>
+        <v>35.21115112304688</v>
       </c>
       <c r="H105">
-        <v>-64.2252197265625</v>
+        <v>-70.97541809082031</v>
       </c>
       <c r="I105">
-        <v>37.11706161499023</v>
+        <v>36.03860092163086</v>
       </c>
       <c r="J105">
-        <v>96262.8203125</v>
+        <v>96242.09375</v>
       </c>
       <c r="K105">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="L105">
-        <v>3.077880859375</v>
+        <v>-0.1431542932987213</v>
       </c>
       <c r="M105">
-        <v>-1.532980918884277</v>
+        <v>-3.584995031356812</v>
       </c>
       <c r="N105">
-        <v>5.200466156005859</v>
+        <v>4.903955459594727</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5113,7 +5113,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1702263600</v>
+        <v>1702436400</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
@@ -5122,34 +5122,34 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>46</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="F106">
-        <v>31.2000732421875</v>
+        <v>32.53750610351562</v>
       </c>
       <c r="G106">
-        <v>30.36151123046875</v>
+        <v>32.53271484375</v>
       </c>
       <c r="H106">
-        <v>-65.09176635742188</v>
+        <v>-43.16276550292969</v>
       </c>
       <c r="I106">
-        <v>41.45743179321289</v>
+        <v>33.79753494262695</v>
       </c>
       <c r="J106">
-        <v>96498.65625</v>
+        <v>96417.9296875</v>
       </c>
       <c r="K106">
-        <v>100</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="L106">
-        <v>5.661149978637695</v>
+        <v>3.911076545715332</v>
       </c>
       <c r="M106">
-        <v>-5.970373630523682</v>
+        <v>-5.274279594421387</v>
       </c>
       <c r="N106">
-        <v>11.20234489440918</v>
+        <v>11.9097900390625</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5157,7 +5157,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1702274400</v>
+        <v>1702447200</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
@@ -5166,34 +5166,34 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>65.40000152587891</v>
+        <v>58.60000228881836</v>
       </c>
       <c r="F107">
-        <v>27.11892700195312</v>
+        <v>27.72256469726562</v>
       </c>
       <c r="G107">
-        <v>26.00897216796875</v>
+        <v>26.66864013671875</v>
       </c>
       <c r="H107">
-        <v>-60.66159057617188</v>
+        <v>-45.01774597167969</v>
       </c>
       <c r="I107">
-        <v>42.14458465576172</v>
+        <v>39.44180679321289</v>
       </c>
       <c r="J107">
-        <v>96545.8515625</v>
+        <v>96529.625</v>
       </c>
       <c r="K107">
         <v>100</v>
       </c>
       <c r="L107">
-        <v>3.832148313522339</v>
+        <v>4.28579568862915</v>
       </c>
       <c r="M107">
-        <v>-7.129286766052246</v>
+        <v>-8.591811180114746</v>
       </c>
       <c r="N107">
-        <v>11.80009746551514</v>
+        <v>13.30113983154297</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5201,7 +5201,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1702285200</v>
+        <v>1702458000</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
@@ -5210,34 +5210,34 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>71.5</v>
+        <v>67.59999847412109</v>
       </c>
       <c r="F108">
-        <v>25.4517822265625</v>
+        <v>25.62368774414062</v>
       </c>
       <c r="G108">
-        <v>24.32754516601562</v>
+        <v>24.54696655273438</v>
       </c>
       <c r="H108">
-        <v>-60.57376098632812</v>
+        <v>-53.10160827636719</v>
       </c>
       <c r="I108">
-        <v>42.65343856811523</v>
+        <v>37.80696487426758</v>
       </c>
       <c r="J108">
-        <v>96492.1171875</v>
+        <v>96500.5859375</v>
       </c>
       <c r="K108">
-        <v>100</v>
+        <v>23.20000076293945</v>
       </c>
       <c r="L108">
-        <v>4.362741470336914</v>
+        <v>2.528088331222534</v>
       </c>
       <c r="M108">
-        <v>-6.090141296386719</v>
+        <v>-7.0719895362854</v>
       </c>
       <c r="N108">
-        <v>10.90684032440186</v>
+        <v>12.30140686035156</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5245,7 +5245,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1702296000</v>
+        <v>1702468800</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
@@ -5254,34 +5254,34 @@
         <v>33</v>
       </c>
       <c r="E109">
-        <v>69.09999847412109</v>
+        <v>69.80000305175781</v>
       </c>
       <c r="F109">
-        <v>24.6202392578125</v>
+        <v>24.76348876953125</v>
       </c>
       <c r="G109">
-        <v>23.40060424804688</v>
+        <v>23.57998657226562</v>
       </c>
       <c r="H109">
-        <v>-64.56510925292969</v>
+        <v>-50.48451232910156</v>
       </c>
       <c r="I109">
-        <v>41.3238639831543</v>
+        <v>35.26414108276367</v>
       </c>
       <c r="J109">
-        <v>96726.265625</v>
+        <v>96631.2578125</v>
       </c>
       <c r="K109">
-        <v>100</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="L109">
-        <v>4.130859375</v>
+        <v>2.800554037094116</v>
       </c>
       <c r="M109">
-        <v>-6.1602783203125</v>
+        <v>-6.510805606842041</v>
       </c>
       <c r="N109">
-        <v>10.22032451629639</v>
+        <v>11.00051307678223</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5289,7 +5289,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1702306800</v>
+        <v>1702479600</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -5298,34 +5298,34 @@
         <v>34</v>
       </c>
       <c r="E110">
-        <v>45.29999923706055</v>
+        <v>34.70000076293945</v>
       </c>
       <c r="F110">
-        <v>29.120849609375</v>
+        <v>30.54110717773438</v>
       </c>
       <c r="G110">
-        <v>26.67303466796875</v>
+        <v>27.96432495117188</v>
       </c>
       <c r="H110">
-        <v>-54.25869750976562</v>
+        <v>-49.51809692382812</v>
       </c>
       <c r="I110">
-        <v>38.85343933105469</v>
+        <v>33.22998809814453</v>
       </c>
       <c r="J110">
-        <v>96807.1640625</v>
+        <v>96722.75</v>
       </c>
       <c r="K110">
-        <v>97.20000457763672</v>
+        <v>10</v>
       </c>
       <c r="L110">
-        <v>1.798442363739014</v>
+        <v>0.1845458894968033</v>
       </c>
       <c r="M110">
-        <v>-7.449440956115723</v>
+        <v>-7.059450626373291</v>
       </c>
       <c r="N110">
-        <v>8.301025390625</v>
+        <v>7.703129768371582</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5333,7 +5333,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1702317600</v>
+        <v>1702490400</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
@@ -5342,34 +5342,34 @@
         <v>35</v>
       </c>
       <c r="E111">
-        <v>31.89999961853027</v>
+        <v>21.30000114440918</v>
       </c>
       <c r="F111">
-        <v>34.06494140625</v>
+        <v>35.34640502929688</v>
       </c>
       <c r="G111">
-        <v>31.1549072265625</v>
+        <v>32.39837646484375</v>
       </c>
       <c r="H111">
-        <v>-45.89279174804688</v>
+        <v>-45.8990478515625</v>
       </c>
       <c r="I111">
-        <v>38.90879821777344</v>
+        <v>29.78899002075195</v>
       </c>
       <c r="J111">
-        <v>96603.171875</v>
+        <v>96505.96875</v>
       </c>
       <c r="K111">
-        <v>89.40000152587891</v>
+        <v>5</v>
       </c>
       <c r="L111">
-        <v>-0.02434570342302322</v>
+        <v>-0.4248950183391571</v>
       </c>
       <c r="M111">
-        <v>-5.418708324432373</v>
+        <v>-5.432907581329346</v>
       </c>
       <c r="N111">
-        <v>5.815753936767578</v>
+        <v>6.114697456359863</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5377,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1702328400</v>
+        <v>1702501200</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
@@ -5386,34 +5386,34 @@
         <v>36</v>
       </c>
       <c r="E112">
-        <v>27</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="F112">
-        <v>36.5635986328125</v>
+        <v>37.38607788085938</v>
       </c>
       <c r="G112">
-        <v>34.1143798828125</v>
+        <v>35.01483154296875</v>
       </c>
       <c r="H112">
-        <v>-64.94203186035156</v>
+        <v>-38.84896850585938</v>
       </c>
       <c r="I112">
-        <v>39.48422241210938</v>
+        <v>28.7750358581543</v>
       </c>
       <c r="J112">
-        <v>96290.609375</v>
+        <v>96176.0859375</v>
       </c>
       <c r="K112">
-        <v>25.30000114440918</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="L112">
-        <v>-1.343676686286926</v>
+        <v>-0.2752612233161926</v>
       </c>
       <c r="M112">
-        <v>-4.253503322601318</v>
+        <v>-4.762089729309082</v>
       </c>
       <c r="N112">
-        <v>5.005406379699707</v>
+        <v>5.60001277923584</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5421,7 +5421,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1702339200</v>
+        <v>1702512000</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -5430,34 +5430,34 @@
         <v>37</v>
       </c>
       <c r="E113">
-        <v>33.79999923706055</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="F113">
-        <v>33.237548828125</v>
+        <v>35.34808349609375</v>
       </c>
       <c r="G113">
-        <v>32.93930053710938</v>
+        <v>35.6038818359375</v>
       </c>
       <c r="H113">
-        <v>-63.19789123535156</v>
+        <v>-46.84036254882812</v>
       </c>
       <c r="I113">
-        <v>40.31473541259766</v>
+        <v>29.60741806030273</v>
       </c>
       <c r="J113">
-        <v>96323.4609375</v>
+        <v>96154.1640625</v>
       </c>
       <c r="K113">
-        <v>94.09999847412109</v>
+        <v>5</v>
       </c>
       <c r="L113">
-        <v>-3.672587871551514</v>
+        <v>-1.544824242591858</v>
       </c>
       <c r="M113">
-        <v>-3.166911602020264</v>
+        <v>-3.445844650268555</v>
       </c>
       <c r="N113">
-        <v>6.90008544921875</v>
+        <v>4.914941310882568</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5465,7 +5465,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1702350000</v>
+        <v>1702522800</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -5474,34 +5474,34 @@
         <v>30</v>
       </c>
       <c r="E114">
-        <v>52.90000152587891</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="F114">
-        <v>28.01910400390625</v>
+        <v>32.73834228515625</v>
       </c>
       <c r="G114">
-        <v>28.8218994140625</v>
+        <v>32.68582153320312</v>
       </c>
       <c r="H114">
-        <v>-58.77830505371094</v>
+        <v>-51.48680114746094</v>
       </c>
       <c r="I114">
-        <v>40.69554138183594</v>
+        <v>34.31781768798828</v>
       </c>
       <c r="J114">
-        <v>96548.890625</v>
+        <v>96358.8359375</v>
       </c>
       <c r="K114">
-        <v>100</v>
+        <v>99.09999847412109</v>
       </c>
       <c r="L114">
-        <v>-1.492321729660034</v>
+        <v>4.010195255279541</v>
       </c>
       <c r="M114">
-        <v>-2.550722599029541</v>
+        <v>-5.28948974609375</v>
       </c>
       <c r="N114">
-        <v>4.806494235992432</v>
+        <v>11.00067806243896</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5509,7 +5509,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1702360800</v>
+        <v>1702533600</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -5518,34 +5518,34 @@
         <v>31</v>
       </c>
       <c r="E115">
-        <v>66.40000152587891</v>
+        <v>60.40000152587891</v>
       </c>
       <c r="F115">
-        <v>26.98565673828125</v>
+        <v>28.13339233398438</v>
       </c>
       <c r="G115">
-        <v>25.94247436523438</v>
+        <v>27.12576293945312</v>
       </c>
       <c r="H115">
-        <v>-55.24002075195312</v>
+        <v>-49.37130737304688</v>
       </c>
       <c r="I115">
-        <v>43.23136901855469</v>
+        <v>34.98800659179688</v>
       </c>
       <c r="J115">
-        <v>96596.9921875</v>
+        <v>96351.0390625</v>
       </c>
       <c r="K115">
-        <v>100</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="L115">
-        <v>4.116723537445068</v>
+        <v>3.497731924057007</v>
       </c>
       <c r="M115">
-        <v>-6.044863224029541</v>
+        <v>-8.110031127929688</v>
       </c>
       <c r="N115">
-        <v>9.909790992736816</v>
+        <v>12.200364112854</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5553,7 +5553,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1702371600</v>
+        <v>1702544400</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -5562,34 +5562,34 @@
         <v>32</v>
       </c>
       <c r="E116">
-        <v>72.40000152587891</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="F116">
-        <v>25.11663818359375</v>
+        <v>25.32009887695312</v>
       </c>
       <c r="G116">
-        <v>24.04641723632812</v>
+        <v>24.17745971679688</v>
       </c>
       <c r="H116">
-        <v>-63.77801513671875</v>
+        <v>-58.48457336425781</v>
       </c>
       <c r="I116">
-        <v>42.44310760498047</v>
+        <v>36.97494125366211</v>
       </c>
       <c r="J116">
-        <v>96576.25</v>
+        <v>96378.21875</v>
       </c>
       <c r="K116">
-        <v>100</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L116">
-        <v>3.615942239761353</v>
+        <v>2.388857364654541</v>
       </c>
       <c r="M116">
-        <v>-5.565507888793945</v>
+        <v>-6.951574325561523</v>
       </c>
       <c r="N116">
-        <v>9.507555961608887</v>
+        <v>12.00248241424561</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5597,7 +5597,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1702382400</v>
+        <v>1702555200</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -5606,34 +5606,34 @@
         <v>33</v>
       </c>
       <c r="E117">
-        <v>70.5</v>
+        <v>74.70000457763672</v>
       </c>
       <c r="F117">
-        <v>24.30630493164062</v>
+        <v>24.67401123046875</v>
       </c>
       <c r="G117">
-        <v>23.1060791015625</v>
+        <v>23.42254638671875</v>
       </c>
       <c r="H117">
-        <v>-61.28141784667969</v>
+        <v>-59.93194580078125</v>
       </c>
       <c r="I117">
-        <v>40.4896125793457</v>
+        <v>38.44526672363281</v>
       </c>
       <c r="J117">
-        <v>96777.5859375</v>
+        <v>96578.1953125</v>
       </c>
       <c r="K117">
-        <v>100</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="L117">
-        <v>4.654731273651123</v>
+        <v>3.753088235855103</v>
       </c>
       <c r="M117">
-        <v>-5.590827465057373</v>
+        <v>-7.084709167480469</v>
       </c>
       <c r="N117">
-        <v>9.322097778320312</v>
+        <v>10.7006778717041</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5641,7 +5641,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1702393200</v>
+        <v>1702566000</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -5650,34 +5650,34 @@
         <v>34</v>
       </c>
       <c r="E118">
-        <v>50.10000228881836</v>
+        <v>51</v>
       </c>
       <c r="F118">
-        <v>27.83251953125</v>
+        <v>30.121337890625</v>
       </c>
       <c r="G118">
-        <v>25.26913452148438</v>
+        <v>27.4688720703125</v>
       </c>
       <c r="H118">
-        <v>-58.45619201660156</v>
+        <v>-54.85704040527344</v>
       </c>
       <c r="I118">
-        <v>38.00580596923828</v>
+        <v>38.9429817199707</v>
       </c>
       <c r="J118">
-        <v>96914.6640625</v>
+        <v>96665.6171875</v>
       </c>
       <c r="K118">
-        <v>99.80000305175781</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="L118">
-        <v>2.765068292617798</v>
+        <v>-0.1831909120082855</v>
       </c>
       <c r="M118">
-        <v>-7.458298206329346</v>
+        <v>-6.861577033996582</v>
       </c>
       <c r="N118">
-        <v>8.746980667114258</v>
+        <v>7.401378631591797</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5685,7 +5685,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1702404000</v>
+        <v>1702576800</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -5694,34 +5694,34 @@
         <v>35</v>
       </c>
       <c r="E119">
-        <v>36</v>
+        <v>34.60000228881836</v>
       </c>
       <c r="F119">
-        <v>31.03265380859375</v>
+        <v>34.7669677734375</v>
       </c>
       <c r="G119">
-        <v>28.330810546875</v>
+        <v>31.94302368164062</v>
       </c>
       <c r="H119">
-        <v>-59.10983276367188</v>
+        <v>-54.99281311035156</v>
       </c>
       <c r="I119">
-        <v>36.71420669555664</v>
+        <v>37.80546569824219</v>
       </c>
       <c r="J119">
-        <v>96715.1875</v>
+        <v>96427.890625</v>
       </c>
       <c r="K119">
-        <v>100</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="L119">
-        <v>2.520810604095459</v>
+        <v>-1.577070236206055</v>
       </c>
       <c r="M119">
-        <v>-7.576225280761719</v>
+        <v>-4.173793792724609</v>
       </c>
       <c r="N119">
-        <v>8.603888511657715</v>
+        <v>4.81439208984375</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5729,7 +5729,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1702414800</v>
+        <v>1702587600</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -5738,34 +5738,34 @@
         <v>36</v>
       </c>
       <c r="E120">
-        <v>27</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F120">
-        <v>33.94036865234375</v>
+        <v>37.02853393554688</v>
       </c>
       <c r="G120">
-        <v>31.82073974609375</v>
+        <v>34.87130737304688</v>
       </c>
       <c r="H120">
-        <v>-58.07002258300781</v>
+        <v>-52.83740234375</v>
       </c>
       <c r="I120">
-        <v>35.27309417724609</v>
+        <v>36.83833694458008</v>
       </c>
       <c r="J120">
-        <v>96438.265625</v>
+        <v>96093.0234375</v>
       </c>
       <c r="K120">
-        <v>99.40000152587891</v>
+        <v>15.30000019073486</v>
       </c>
       <c r="L120">
-        <v>-0.2028784155845642</v>
+        <v>-1.606450200080872</v>
       </c>
       <c r="M120">
-        <v>-6.745392799377441</v>
+        <v>-2.477131366729736</v>
       </c>
       <c r="N120">
-        <v>7.406598091125488</v>
+        <v>3.913159132003784</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5773,7 +5773,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1702425600</v>
+        <v>1702598400</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -5782,34 +5782,34 @@
         <v>37</v>
       </c>
       <c r="E121">
-        <v>30.5</v>
+        <v>26.5</v>
       </c>
       <c r="F121">
-        <v>32.30642700195312</v>
+        <v>35.83615112304688</v>
       </c>
       <c r="G121">
-        <v>31.86251831054688</v>
+        <v>35.7633056640625</v>
       </c>
       <c r="H121">
-        <v>-58.57017517089844</v>
+        <v>-52.91264343261719</v>
       </c>
       <c r="I121">
-        <v>34.84814453125</v>
+        <v>35.18529891967773</v>
       </c>
       <c r="J121">
-        <v>96440.1484375</v>
+        <v>96054.3515625</v>
       </c>
       <c r="K121">
-        <v>96.20000457763672</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="L121">
-        <v>2.876865148544312</v>
+        <v>-1.116164565086365</v>
       </c>
       <c r="M121">
-        <v>-5.754140377044678</v>
+        <v>0.1831298768520355</v>
       </c>
       <c r="N121">
-        <v>9.002400398254395</v>
+        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5817,7 +5817,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1702436400</v>
+        <v>1702609200</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -5826,34 +5826,34 @@
         <v>30</v>
       </c>
       <c r="E122">
-        <v>44.60000228881836</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="F122">
-        <v>29.74887084960938</v>
+        <v>34.37673950195312</v>
       </c>
       <c r="G122">
-        <v>29.02557373046875</v>
+        <v>33.6671142578125</v>
       </c>
       <c r="H122">
-        <v>-51.29727172851562</v>
+        <v>-44.589111328125</v>
       </c>
       <c r="I122">
-        <v>35.97082901000977</v>
+        <v>34.72793197631836</v>
       </c>
       <c r="J122">
-        <v>96569.2890625</v>
+        <v>96199.0390625</v>
       </c>
       <c r="K122">
-        <v>98.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L122">
-        <v>1.690434575080872</v>
+        <v>5.105778694152832</v>
       </c>
       <c r="M122">
-        <v>-6.316997051239014</v>
+        <v>-4.148766994476318</v>
       </c>
       <c r="N122">
-        <v>9.51126766204834</v>
+        <v>8.905971527099609</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5861,7 +5861,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1702447200</v>
+        <v>1702620000</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -5870,34 +5870,34 @@
         <v>31</v>
       </c>
       <c r="E123">
-        <v>63.60000228881836</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F123">
-        <v>26.5902099609375</v>
+        <v>29.63186645507812</v>
       </c>
       <c r="G123">
-        <v>25.7392578125</v>
+        <v>28.74600219726562</v>
       </c>
       <c r="H123">
-        <v>-54.74342346191406</v>
+        <v>-58.83091735839844</v>
       </c>
       <c r="I123">
-        <v>39.44158935546875</v>
+        <v>36.14628982543945</v>
       </c>
       <c r="J123">
-        <v>96607.21875</v>
+        <v>96336.3046875</v>
       </c>
       <c r="K123">
-        <v>78.90000152587891</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="L123">
-        <v>3.235402822494507</v>
+        <v>2.465422391891479</v>
       </c>
       <c r="M123">
-        <v>-5.209130764007568</v>
+        <v>-9.152461051940918</v>
       </c>
       <c r="N123">
-        <v>10.40683650970459</v>
+        <v>12.70107841491699</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5905,7 +5905,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1702458000</v>
+        <v>1702630800</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -5914,34 +5914,34 @@
         <v>32</v>
       </c>
       <c r="E124">
-        <v>62.29999923706055</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="F124">
-        <v>25.71295166015625</v>
+        <v>25.96524047851562</v>
       </c>
       <c r="G124">
-        <v>24.72946166992188</v>
+        <v>24.82736206054688</v>
       </c>
       <c r="H124">
-        <v>-58.746337890625</v>
+        <v>-60.49996948242188</v>
       </c>
       <c r="I124">
-        <v>39.40901947021484</v>
+        <v>37.09088516235352</v>
       </c>
       <c r="J124">
-        <v>96574.078125</v>
+        <v>96310.4765625</v>
       </c>
       <c r="K124">
-        <v>99</v>
+        <v>54.60000228881836</v>
       </c>
       <c r="L124">
-        <v>1.718774318695068</v>
+        <v>3.221640586853027</v>
       </c>
       <c r="M124">
-        <v>-4.243837833404541</v>
+        <v>-6.762509822845459</v>
       </c>
       <c r="N124">
-        <v>7.503620147705078</v>
+        <v>11.80705451965332</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5949,7 +5949,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1702468800</v>
+        <v>1702641600</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -5958,34 +5958,34 @@
         <v>33</v>
       </c>
       <c r="E125">
-        <v>63.20000076293945</v>
+        <v>67.09999847412109</v>
       </c>
       <c r="F125">
-        <v>24.80337524414062</v>
+        <v>25.32778930664062</v>
       </c>
       <c r="G125">
-        <v>23.62399291992188</v>
+        <v>24.10098266601562</v>
       </c>
       <c r="H125">
-        <v>-55.80598449707031</v>
+        <v>-53.40965270996094</v>
       </c>
       <c r="I125">
-        <v>36.94345855712891</v>
+        <v>35.13257598876953</v>
       </c>
       <c r="J125">
-        <v>96661.40625</v>
+        <v>96513.390625</v>
       </c>
       <c r="K125">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>3.934223651885986</v>
+        <v>3.327275276184082</v>
       </c>
       <c r="M125">
-        <v>-3.580507755279541</v>
+        <v>-6.92492151260376</v>
       </c>
       <c r="N125">
-        <v>7.309615612030029</v>
+        <v>10.80532169342041</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5993,7 +5993,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1702479600</v>
+        <v>1702652400</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -6002,34 +6002,34 @@
         <v>34</v>
       </c>
       <c r="E126">
-        <v>46.79999923706055</v>
+        <v>43.60000228881836</v>
       </c>
       <c r="F126">
-        <v>29.34677124023438</v>
+        <v>30.95687866210938</v>
       </c>
       <c r="G126">
-        <v>26.5828857421875</v>
+        <v>28.15017700195312</v>
       </c>
       <c r="H126">
-        <v>-34.84547424316406</v>
+        <v>-53.49720764160156</v>
       </c>
       <c r="I126">
-        <v>36.92970657348633</v>
+        <v>33.05097961425781</v>
       </c>
       <c r="J126">
-        <v>96753.515625</v>
+        <v>96568.875</v>
       </c>
       <c r="K126">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="L126">
-        <v>3.0123291015625</v>
+        <v>-0.4579077064990997</v>
       </c>
       <c r="M126">
-        <v>-5.431599140167236</v>
+        <v>-6.248017311096191</v>
       </c>
       <c r="N126">
-        <v>6.340640544891357</v>
+        <v>7.101406097412109</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6037,7 +6037,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1702490400</v>
+        <v>1702663200</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -6046,34 +6046,34 @@
         <v>35</v>
       </c>
       <c r="E127">
-        <v>29.5</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="F127">
-        <v>34.21734619140625</v>
+        <v>35.97360229492188</v>
       </c>
       <c r="G127">
-        <v>31.37185668945312</v>
+        <v>33.01516723632812</v>
       </c>
       <c r="H127">
-        <v>-49.43194580078125</v>
+        <v>-52.30137634277344</v>
       </c>
       <c r="I127">
-        <v>34.21205520629883</v>
+        <v>30.92434692382812</v>
       </c>
       <c r="J127">
-        <v>96449.875</v>
+        <v>96331.8359375</v>
       </c>
       <c r="K127">
-        <v>36</v>
+        <v>64.80000305175781</v>
       </c>
       <c r="L127">
-        <v>1.085959434509277</v>
+        <v>-1.422502398490906</v>
       </c>
       <c r="M127">
-        <v>-4.159768104553223</v>
+        <v>-4.826291561126709</v>
       </c>
       <c r="N127">
-        <v>5.502898216247559</v>
+        <v>5.803431510925293</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6081,7 +6081,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1702501200</v>
+        <v>1702674000</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -6090,34 +6090,34 @@
         <v>36</v>
       </c>
       <c r="E128">
-        <v>21.89999961853027</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="F128">
-        <v>37.16207885742188</v>
+        <v>38.30560302734375</v>
       </c>
       <c r="G128">
-        <v>34.65283203125</v>
+        <v>35.99008178710938</v>
       </c>
       <c r="H128">
-        <v>-38.57327270507812</v>
+        <v>-50.9664306640625</v>
       </c>
       <c r="I128">
-        <v>33.2130012512207</v>
+        <v>29.50232696533203</v>
       </c>
       <c r="J128">
-        <v>96094.5390625</v>
+        <v>95992.2734375</v>
       </c>
       <c r="K128">
-        <v>35.10000228881836</v>
+        <v>98.30000305175781</v>
       </c>
       <c r="L128">
-        <v>-1.479794859886169</v>
+        <v>-1.438313007354736</v>
       </c>
       <c r="M128">
-        <v>-4.835002422332764</v>
+        <v>-3.511721134185791</v>
       </c>
       <c r="N128">
-        <v>6.209900379180908</v>
+        <v>4.7034912109375</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6125,7 +6125,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1702512000</v>
+        <v>1702684800</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>37</v>
       </c>
       <c r="E129">
-        <v>33.29999923706055</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="F129">
-        <v>33.9521484375</v>
+        <v>36.599365234375</v>
       </c>
       <c r="G129">
-        <v>33.03973388671875</v>
+        <v>36.75787353515625</v>
       </c>
       <c r="H129">
-        <v>-55.29588317871094</v>
+        <v>-41.45001220703125</v>
       </c>
       <c r="I129">
-        <v>40.04855346679688</v>
+        <v>29.20735931396484</v>
       </c>
       <c r="J129">
-        <v>96135.625</v>
+        <v>95996.3046875</v>
       </c>
       <c r="K129">
-        <v>100</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="L129">
-        <v>7.467529296875</v>
+        <v>-1.351787090301514</v>
       </c>
       <c r="M129">
-        <v>-4.508998870849609</v>
+        <v>-2.511684417724609</v>
       </c>
       <c r="N129">
-        <v>9.407556533813477</v>
+        <v>3.600411653518677</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6169,7 +6169,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1702522800</v>
+        <v>1702695600</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -6178,34 +6178,34 @@
         <v>30</v>
       </c>
       <c r="E130">
-        <v>45.60000228881836</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="F130">
-        <v>30.25588989257812</v>
+        <v>34.30517578125</v>
       </c>
       <c r="G130">
-        <v>29.53607177734375</v>
+        <v>35.39590454101562</v>
       </c>
       <c r="H130">
-        <v>-62.91311645507812</v>
+        <v>-49.72712707519531</v>
       </c>
       <c r="I130">
-        <v>40.31364822387695</v>
+        <v>26.83342361450195</v>
       </c>
       <c r="J130">
-        <v>96396.4609375</v>
+        <v>96146.046875</v>
       </c>
       <c r="K130">
-        <v>98.90000152587891</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="L130">
-        <v>4.758393287658691</v>
+        <v>-0.1064868122339249</v>
       </c>
       <c r="M130">
-        <v>-6.395771503448486</v>
+        <v>-3.586943387985229</v>
       </c>
       <c r="N130">
-        <v>12.30360412597656</v>
+        <v>4.10076904296875</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -55,30 +55,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>30/11/2023</t>
-  </si>
-  <si>
-    <t>01/12/2023</t>
-  </si>
-  <si>
-    <t>02/12/2023</t>
-  </si>
-  <si>
-    <t>03/12/2023</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>05/12/2023</t>
-  </si>
-  <si>
-    <t>06/12/2023</t>
-  </si>
-  <si>
-    <t>07/12/2023</t>
-  </si>
-  <si>
     <t>08/12/2023</t>
   </si>
   <si>
@@ -104,6 +80,30 @@
   </si>
   <si>
     <t>16/12/2023</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>23/12/2023</t>
+  </si>
+  <si>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>00:00</t>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1701313200</v>
+        <v>1702004400</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -546,34 +546,34 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>26.20000076293945</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="F2">
-        <v>30.33731079101562</v>
+        <v>30.70184326171875</v>
       </c>
       <c r="G2">
-        <v>31.081787109375</v>
+        <v>29.638671875</v>
       </c>
       <c r="H2">
-        <v>-28.93508911132812</v>
+        <v>-69.266845703125</v>
       </c>
       <c r="I2">
-        <v>23.98355484008789</v>
+        <v>33.9354133605957</v>
       </c>
       <c r="J2">
-        <v>96667.5703125</v>
+        <v>96677.5703125</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>1.64791738986969</v>
+        <v>1.684072256088257</v>
       </c>
       <c r="M2">
-        <v>-3.994916915893555</v>
+        <v>-6.774338245391846</v>
       </c>
       <c r="N2">
-        <v>7.400000095367432</v>
+        <v>8.699999809265137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1701324000</v>
+        <v>1702015200</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -590,34 +590,34 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>38.29999923706055</v>
+        <v>63.10000228881836</v>
       </c>
       <c r="F3">
-        <v>27.75042724609375</v>
+        <v>27.06561279296875</v>
       </c>
       <c r="G3">
-        <v>27.31179809570312</v>
+        <v>25.99105834960938</v>
       </c>
       <c r="H3">
-        <v>-25.97482299804688</v>
+        <v>-68.32559204101562</v>
       </c>
       <c r="I3">
-        <v>23.93882751464844</v>
+        <v>35.76157379150391</v>
       </c>
       <c r="J3">
-        <v>96679.734375</v>
+        <v>96625.578125</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>1.525017023086548</v>
+        <v>4.463698863983154</v>
       </c>
       <c r="M3">
-        <v>-7.490314960479736</v>
+        <v>-6.981064319610596</v>
       </c>
       <c r="N3">
-        <v>12.00654315948486</v>
+        <v>10.70089149475098</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1701334800</v>
+        <v>1702026000</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -634,34 +634,34 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>74.5</v>
       </c>
       <c r="F4">
-        <v>24.42196655273438</v>
+        <v>25.04129028320312</v>
       </c>
       <c r="G4">
-        <v>23.88223266601562</v>
+        <v>24.01553344726562</v>
       </c>
       <c r="H4">
-        <v>-33.83912658691406</v>
+        <v>-68.26646423339844</v>
       </c>
       <c r="I4">
-        <v>22.0700798034668</v>
+        <v>36.52966690063477</v>
       </c>
       <c r="J4">
-        <v>96606.296875</v>
+        <v>96669.7421875</v>
       </c>
       <c r="K4">
-        <v>5.099999904632568</v>
+        <v>89</v>
       </c>
       <c r="L4">
-        <v>3.373007774353027</v>
+        <v>2.948007822036743</v>
       </c>
       <c r="M4">
-        <v>-5.625510215759277</v>
+        <v>-5.143144607543945</v>
       </c>
       <c r="N4">
-        <v>11.30039978027344</v>
+        <v>9.513589859008789</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1701345600</v>
+        <v>1702036800</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -678,34 +678,34 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>61.5</v>
+        <v>74.90000152587891</v>
       </c>
       <c r="F5">
-        <v>22.85086059570312</v>
+        <v>24.59085083007812</v>
       </c>
       <c r="G5">
-        <v>21.6607666015625</v>
+        <v>23.32315063476562</v>
       </c>
       <c r="H5">
-        <v>-14.0570068359375</v>
+        <v>-68.97479248046875</v>
       </c>
       <c r="I5">
-        <v>21.77882766723633</v>
+        <v>36.8270378112793</v>
       </c>
       <c r="J5">
-        <v>96811.1328125</v>
+        <v>96873.2890625</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L5">
-        <v>2.943320274353027</v>
+        <v>4.184096813201904</v>
       </c>
       <c r="M5">
-        <v>-5.087050437927246</v>
+        <v>-5.053920745849609</v>
       </c>
       <c r="N5">
-        <v>9.309314727783203</v>
+        <v>8.807929992675781</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1701356400</v>
+        <v>1702047600</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -722,34 +722,34 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>34.40000152587891</v>
+        <v>47.70000076293945</v>
       </c>
       <c r="F6">
-        <v>29.55587768554688</v>
+        <v>30.6737060546875</v>
       </c>
       <c r="G6">
-        <v>26.5892333984375</v>
+        <v>27.7568359375</v>
       </c>
       <c r="H6">
-        <v>-22.58869934082031</v>
+        <v>-69.28713989257812</v>
       </c>
       <c r="I6">
-        <v>19.32038116455078</v>
+        <v>35.79609680175781</v>
       </c>
       <c r="J6">
-        <v>96900.265625</v>
+        <v>96943.7890625</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>1.741142511367798</v>
+        <v>1.778735280036926</v>
       </c>
       <c r="M6">
-        <v>-6.195998191833496</v>
+        <v>-6.033315181732178</v>
       </c>
       <c r="N6">
-        <v>7.217510223388672</v>
+        <v>6.601629734039307</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1701367200</v>
+        <v>1702058400</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -766,34 +766,34 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>17.10000038146973</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F7">
-        <v>35.8624267578125</v>
+        <v>35.26834106445312</v>
       </c>
       <c r="G7">
-        <v>32.64300537109375</v>
+        <v>32.55191040039062</v>
       </c>
       <c r="H7">
-        <v>-35.57266235351562</v>
+        <v>-71.552490234375</v>
       </c>
       <c r="I7">
-        <v>19.94844245910645</v>
+        <v>35.09778213500977</v>
       </c>
       <c r="J7">
-        <v>96630.9296875</v>
+        <v>96716.0546875</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="L7">
-        <v>1.140068292617798</v>
+        <v>1.301254868507385</v>
       </c>
       <c r="M7">
-        <v>-5.715260982513428</v>
+        <v>-3.163613319396973</v>
       </c>
       <c r="N7">
-        <v>6.610278606414795</v>
+        <v>2.607372999191284</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1701378000</v>
+        <v>1702069200</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -810,34 +810,34 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>12.40000057220459</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="F8">
-        <v>38.20703125</v>
+        <v>36.5714111328125</v>
       </c>
       <c r="G8">
-        <v>35.71749877929688</v>
+        <v>34.69778442382812</v>
       </c>
       <c r="H8">
-        <v>-34.83094787597656</v>
+        <v>-70.17047119140625</v>
       </c>
       <c r="I8">
-        <v>21.59772300720215</v>
+        <v>32.77964782714844</v>
       </c>
       <c r="J8">
-        <v>96295.3984375</v>
+        <v>96423.4921875</v>
       </c>
       <c r="K8">
-        <v>22.39999961853027</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L8">
-        <v>0.08504882454872131</v>
+        <v>1.147939443588257</v>
       </c>
       <c r="M8">
-        <v>-5.070778846740723</v>
+        <v>-2.821872472763062</v>
       </c>
       <c r="N8">
-        <v>6.128228187561035</v>
+        <v>2.108264684677124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1701388800</v>
+        <v>1702080000</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -854,34 +854,34 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>14.40000057220459</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="F9">
-        <v>34.8033447265625</v>
+        <v>33.29696655273438</v>
       </c>
       <c r="G9">
-        <v>36.10760498046875</v>
+        <v>32.71658325195312</v>
       </c>
       <c r="H9">
-        <v>-74.49566650390625</v>
+        <v>-64.005615234375</v>
       </c>
       <c r="I9">
-        <v>22.17067337036133</v>
+        <v>34.54011917114258</v>
       </c>
       <c r="J9">
-        <v>96321.8671875</v>
+        <v>96471.0390625</v>
       </c>
       <c r="K9">
-        <v>32.20000076293945</v>
+        <v>93.09999847412109</v>
       </c>
       <c r="L9">
-        <v>-1.345539569854736</v>
+        <v>4.534838676452637</v>
       </c>
       <c r="M9">
-        <v>-3.867114067077637</v>
+        <v>-5.880746841430664</v>
       </c>
       <c r="N9">
-        <v>4.401877880096436</v>
+        <v>10.00279426574707</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1701399600</v>
+        <v>1702090800</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -898,34 +898,34 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>19.39999961853027</v>
+        <v>43.20000076293945</v>
       </c>
       <c r="F10">
-        <v>31.37277221679688</v>
+        <v>30.92257690429688</v>
       </c>
       <c r="G10">
-        <v>32.76385498046875</v>
+        <v>30.6656494140625</v>
       </c>
       <c r="H10">
-        <v>-49.44892883300781</v>
+        <v>-64.99945068359375</v>
       </c>
       <c r="I10">
-        <v>23.49354553222656</v>
+        <v>31.89371871948242</v>
       </c>
       <c r="J10">
-        <v>96533.7890625</v>
+        <v>96590.9140625</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="L10">
-        <v>1.402994394302368</v>
+        <v>3.430466175079346</v>
       </c>
       <c r="M10">
-        <v>-3.887412071228027</v>
+        <v>-4.339943885803223</v>
       </c>
       <c r="N10">
-        <v>5.008752346038818</v>
+        <v>9.913500785827637</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1701410400</v>
+        <v>1702101600</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -942,34 +942,34 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>39.70000076293945</v>
+        <v>60.79999923706055</v>
       </c>
       <c r="F11">
-        <v>28.49893188476562</v>
+        <v>27.25906372070312</v>
       </c>
       <c r="G11">
-        <v>28.14102172851562</v>
+        <v>26.43423461914062</v>
       </c>
       <c r="H11">
-        <v>-44.90408325195312</v>
+        <v>-60.45773315429688</v>
       </c>
       <c r="I11">
-        <v>28.94281196594238</v>
+        <v>36.16414260864258</v>
       </c>
       <c r="J11">
-        <v>96553.3671875</v>
+        <v>96617.3515625</v>
       </c>
       <c r="K11">
-        <v>68.70000457763672</v>
+        <v>59.5</v>
       </c>
       <c r="L11">
-        <v>3.988083362579346</v>
+        <v>3.070627450942993</v>
       </c>
       <c r="M11">
-        <v>-6.132782936096191</v>
+        <v>-6.162981033325195</v>
       </c>
       <c r="N11">
-        <v>12.6072416305542</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1701421200</v>
+        <v>1702112400</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -986,34 +986,34 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>61.20000076293945</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="F12">
-        <v>25.25283813476562</v>
+        <v>25.04937744140625</v>
       </c>
       <c r="G12">
-        <v>24.58758544921875</v>
+        <v>24.10287475585938</v>
       </c>
       <c r="H12">
-        <v>-44.56455993652344</v>
+        <v>-57.87107849121094</v>
       </c>
       <c r="I12">
-        <v>30.91928100585938</v>
+        <v>36.73674011230469</v>
       </c>
       <c r="J12">
-        <v>96560.9921875</v>
+        <v>96575.4375</v>
       </c>
       <c r="K12">
-        <v>17.89999961853027</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L12">
-        <v>0.4763134717941284</v>
+        <v>1.350544452667236</v>
       </c>
       <c r="M12">
-        <v>-6.280131816864014</v>
+        <v>-5.312914848327637</v>
       </c>
       <c r="N12">
-        <v>10.40000057220459</v>
+        <v>9.616070747375488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1701432000</v>
+        <v>1702123200</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1030,34 +1030,34 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>74.80000305175781</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="F13">
-        <v>23.95779418945312</v>
+        <v>24.51129150390625</v>
       </c>
       <c r="G13">
-        <v>22.679443359375</v>
+        <v>23.26708984375</v>
       </c>
       <c r="H13">
-        <v>-16.79278564453125</v>
+        <v>-56.34373474121094</v>
       </c>
       <c r="I13">
-        <v>35.33396911621094</v>
+        <v>37.09453582763672</v>
       </c>
       <c r="J13">
-        <v>96828.1796875</v>
+        <v>96713.1328125</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>57.90000152587891</v>
       </c>
       <c r="L13">
-        <v>3.588874340057373</v>
+        <v>1.83230459690094</v>
       </c>
       <c r="M13">
-        <v>-5.874394416809082</v>
+        <v>-5.784016132354736</v>
       </c>
       <c r="N13">
-        <v>9.20004940032959</v>
+        <v>9.206877708435059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1701442800</v>
+        <v>1702134000</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1074,34 +1074,34 @@
         <v>34</v>
       </c>
       <c r="E14">
-        <v>49.5</v>
+        <v>47.79999923706055</v>
       </c>
       <c r="F14">
-        <v>30.2935791015625</v>
+        <v>30.8553466796875</v>
       </c>
       <c r="G14">
-        <v>27.28268432617188</v>
+        <v>27.90673828125</v>
       </c>
       <c r="H14">
-        <v>-13.56198120117188</v>
+        <v>-53.06892395019531</v>
       </c>
       <c r="I14">
-        <v>35.73020172119141</v>
+        <v>36.79898834228516</v>
       </c>
       <c r="J14">
-        <v>96898.0546875</v>
+        <v>96765.4609375</v>
       </c>
       <c r="K14">
         <v>5</v>
       </c>
       <c r="L14">
-        <v>0.6681652665138245</v>
+        <v>0.4501928687095642</v>
       </c>
       <c r="M14">
-        <v>-6.509135723114014</v>
+        <v>-6.403998851776123</v>
       </c>
       <c r="N14">
-        <v>7.004814147949219</v>
+        <v>6.812155246734619</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1701453600</v>
+        <v>1702144800</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1118,34 +1118,34 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>32.10000228881836</v>
       </c>
       <c r="F15">
-        <v>35.536865234375</v>
+        <v>36.10723876953125</v>
       </c>
       <c r="G15">
-        <v>32.49258422851562</v>
+        <v>33.0572509765625</v>
       </c>
       <c r="H15">
-        <v>-12.59274291992188</v>
+        <v>-69.99626159667969</v>
       </c>
       <c r="I15">
-        <v>32.15219879150391</v>
+        <v>35.87361907958984</v>
       </c>
       <c r="J15">
-        <v>96617.2421875</v>
+        <v>96512.5625</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
-        <v>0.3244726359844208</v>
+        <v>0.7858325242996216</v>
       </c>
       <c r="M15">
-        <v>-4.603620529174805</v>
+        <v>-4.520368576049805</v>
       </c>
       <c r="N15">
-        <v>4.616719245910645</v>
+        <v>4.206168651580811</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1153,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1701464400</v>
+        <v>1702155600</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1162,34 +1162,34 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <v>18.89999961853027</v>
+        <v>22.5</v>
       </c>
       <c r="F16">
-        <v>37.94619750976562</v>
+        <v>38.47698974609375</v>
       </c>
       <c r="G16">
-        <v>35.37933349609375</v>
+        <v>36.320068359375</v>
       </c>
       <c r="H16">
-        <v>-20.929931640625</v>
+        <v>-65.86708068847656</v>
       </c>
       <c r="I16">
-        <v>28.71039581298828</v>
+        <v>34.65211486816406</v>
       </c>
       <c r="J16">
-        <v>96300.9765625</v>
+        <v>96155.1484375</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>70.09999847412109</v>
       </c>
       <c r="L16">
-        <v>3.777438879013062</v>
+        <v>0.7296459674835205</v>
       </c>
       <c r="M16">
-        <v>-3.353627920150757</v>
+        <v>-2.362795352935791</v>
       </c>
       <c r="N16">
-        <v>5.400000095367432</v>
+        <v>4.502350807189941</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1701475200</v>
+        <v>1702166400</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1206,34 +1206,34 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>18.30000114440918</v>
+        <v>27.80000114440918</v>
       </c>
       <c r="F17">
-        <v>34.85269165039062</v>
+        <v>35.31591796875</v>
       </c>
       <c r="G17">
-        <v>35.62371826171875</v>
+        <v>35.55288696289062</v>
       </c>
       <c r="H17">
-        <v>-36.79119873046875</v>
+        <v>-61.86700439453125</v>
       </c>
       <c r="I17">
-        <v>24.71758079528809</v>
+        <v>33.90030670166016</v>
       </c>
       <c r="J17">
-        <v>96352.359375</v>
+        <v>96218.8671875</v>
       </c>
       <c r="K17">
-        <v>5.200000286102295</v>
+        <v>88.30000305175781</v>
       </c>
       <c r="L17">
-        <v>0.2154443264007568</v>
+        <v>1.425786137580872</v>
       </c>
       <c r="M17">
-        <v>-3.8459312915802</v>
+        <v>1.94351065158844</v>
       </c>
       <c r="N17">
-        <v>4.400000095367432</v>
+        <v>2.906597852706909</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1241,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1701486000</v>
+        <v>1702177200</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1250,34 +1250,34 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>21.30000114440918</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="F18">
-        <v>31.36599731445312</v>
+        <v>32.23916625976562</v>
       </c>
       <c r="G18">
-        <v>32.82656860351562</v>
+        <v>31.6494140625</v>
       </c>
       <c r="H18">
-        <v>-37.28164672851562</v>
+        <v>-60.21560668945312</v>
       </c>
       <c r="I18">
-        <v>21.79216575622559</v>
+        <v>35.24269104003906</v>
       </c>
       <c r="J18">
-        <v>96492.2890625</v>
+        <v>96506.015625</v>
       </c>
       <c r="K18">
-        <v>0.1000000014901161</v>
+        <v>92.59999847412109</v>
       </c>
       <c r="L18">
-        <v>3.61811637878418</v>
+        <v>5.872443675994873</v>
       </c>
       <c r="M18">
-        <v>-3.679175853729248</v>
+        <v>-8.088740348815918</v>
       </c>
       <c r="N18">
-        <v>9.322466850280762</v>
+        <v>14.60014057159424</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1701496800</v>
+        <v>1702188000</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1294,34 +1294,34 @@
         <v>31</v>
       </c>
       <c r="E19">
-        <v>50.10000228881836</v>
+        <v>62.79999923706055</v>
       </c>
       <c r="F19">
-        <v>27.90985107421875</v>
+        <v>27.40084838867188</v>
       </c>
       <c r="G19">
-        <v>27.42532348632812</v>
+        <v>26.5341796875</v>
       </c>
       <c r="H19">
-        <v>-34.01385498046875</v>
+        <v>-61.4888916015625</v>
       </c>
       <c r="I19">
-        <v>27.60989570617676</v>
+        <v>39.55951309204102</v>
       </c>
       <c r="J19">
-        <v>96499.765625</v>
+        <v>96625.6640625</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>60.10000228881836</v>
       </c>
       <c r="L19">
-        <v>2.7026207447052</v>
+        <v>2.111589193344116</v>
       </c>
       <c r="M19">
-        <v>-6.387013912200928</v>
+        <v>-7.356201171875</v>
       </c>
       <c r="N19">
-        <v>12.01083374023438</v>
+        <v>11.41133403778076</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1701507600</v>
+        <v>1702198800</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1338,34 +1338,34 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>63.79999923706055</v>
+        <v>68.5</v>
       </c>
       <c r="F20">
-        <v>25.060302734375</v>
+        <v>25.18670654296875</v>
       </c>
       <c r="G20">
-        <v>24.29403686523438</v>
+        <v>24.25692749023438</v>
       </c>
       <c r="H20">
-        <v>-21.9351806640625</v>
+        <v>-67.14532470703125</v>
       </c>
       <c r="I20">
-        <v>31.11441421508789</v>
+        <v>37.44435119628906</v>
       </c>
       <c r="J20">
-        <v>96577.8046875</v>
+        <v>96590.5546875</v>
       </c>
       <c r="K20">
-        <v>4.800000190734863</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="L20">
-        <v>2.016104698181152</v>
+        <v>3.044504404067993</v>
       </c>
       <c r="M20">
-        <v>-6.199277400970459</v>
+        <v>-6.3282470703125</v>
       </c>
       <c r="N20">
-        <v>10.51016235351562</v>
+        <v>11.2178316116333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1373,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1701518400</v>
+        <v>1702209600</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1382,34 +1382,34 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>24.01446533203125</v>
+        <v>24.70965576171875</v>
       </c>
       <c r="G21">
-        <v>22.83035278320312</v>
+        <v>23.45840454101562</v>
       </c>
       <c r="H21">
-        <v>-12.82101440429688</v>
+        <v>-58.10627746582031</v>
       </c>
       <c r="I21">
-        <v>30.02948379516602</v>
+        <v>40.56877517700195</v>
       </c>
       <c r="J21">
-        <v>96738.7734375</v>
+        <v>96760.546875</v>
       </c>
       <c r="K21">
-        <v>12.69999980926514</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>4.241456031799316</v>
+        <v>3.851596593856812</v>
       </c>
       <c r="M21">
-        <v>-5.741801738739014</v>
+        <v>-6.229748249053955</v>
       </c>
       <c r="N21">
-        <v>10.50162792205811</v>
+        <v>10.80174541473389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1701529200</v>
+        <v>1702220400</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1426,34 +1426,34 @@
         <v>34</v>
       </c>
       <c r="E22">
-        <v>42.90000152587891</v>
+        <v>48.40000152587891</v>
       </c>
       <c r="F22">
-        <v>31.50009155273438</v>
+        <v>30.36917114257812</v>
       </c>
       <c r="G22">
-        <v>28.46896362304688</v>
+        <v>27.42694091796875</v>
       </c>
       <c r="H22">
-        <v>-11.55581665039062</v>
+        <v>-58.33625793457031</v>
       </c>
       <c r="I22">
-        <v>32.94131851196289</v>
+        <v>37.27926254272461</v>
       </c>
       <c r="J22">
-        <v>96771.703125</v>
+        <v>96813.5390625</v>
       </c>
       <c r="K22">
-        <v>3.100000143051147</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-2.220615148544312</v>
+        <v>1.505185484886169</v>
       </c>
       <c r="M22">
-        <v>-6.127292156219482</v>
+        <v>-7.22659158706665</v>
       </c>
       <c r="N22">
-        <v>7.313043117523193</v>
+        <v>7.824463844299316</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1701540000</v>
+        <v>1702231200</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1470,34 +1470,34 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>28.80000114440918</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>36.07730102539062</v>
+        <v>35.640380859375</v>
       </c>
       <c r="G23">
-        <v>33.10760498046875</v>
+        <v>32.2783203125</v>
       </c>
       <c r="H23">
-        <v>-41.77976989746094</v>
+        <v>-59.98332214355469</v>
       </c>
       <c r="I23">
-        <v>32.76116943359375</v>
+        <v>33.95700836181641</v>
       </c>
       <c r="J23">
-        <v>96484.578125</v>
+        <v>96522.8203125</v>
       </c>
       <c r="K23">
-        <v>4.5</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="L23">
-        <v>-1.666528224945068</v>
+        <v>1.237753868103027</v>
       </c>
       <c r="M23">
-        <v>-3.933000326156616</v>
+        <v>-5.881012916564941</v>
       </c>
       <c r="N23">
-        <v>4.006421566009521</v>
+        <v>5.916500568389893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1505,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1701550800</v>
+        <v>1702242000</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="E24">
-        <v>21.10000038146973</v>
+        <v>22.89999961853027</v>
       </c>
       <c r="F24">
-        <v>38.40072631835938</v>
+        <v>37.80313110351562</v>
       </c>
       <c r="G24">
-        <v>35.95208740234375</v>
+        <v>35.44912719726562</v>
       </c>
       <c r="H24">
-        <v>-35.02790832519531</v>
+        <v>-55.96282958984375</v>
       </c>
       <c r="I24">
-        <v>32.50620269775391</v>
+        <v>32.83429336547852</v>
       </c>
       <c r="J24">
-        <v>96186.703125</v>
+        <v>96144.1796875</v>
       </c>
       <c r="K24">
-        <v>74.20000457763672</v>
+        <v>54.70000076293945</v>
       </c>
       <c r="L24">
-        <v>1.697651386260986</v>
+        <v>-1.04412841796875</v>
       </c>
       <c r="M24">
-        <v>-3.849384784698486</v>
+        <v>-3.784291982650757</v>
       </c>
       <c r="N24">
-        <v>5.400123596191406</v>
+        <v>6.099999904632568</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1549,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1701561600</v>
+        <v>1702252800</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1558,34 +1558,34 @@
         <v>37</v>
       </c>
       <c r="E25">
-        <v>21.60000038146973</v>
+        <v>21.30000114440918</v>
       </c>
       <c r="F25">
-        <v>35.7364501953125</v>
+        <v>36.10739135742188</v>
       </c>
       <c r="G25">
-        <v>36.17190551757812</v>
+        <v>35.87423706054688</v>
       </c>
       <c r="H25">
-        <v>-17.7222900390625</v>
+        <v>-52.07438659667969</v>
       </c>
       <c r="I25">
-        <v>29.64983367919922</v>
+        <v>32.20888137817383</v>
       </c>
       <c r="J25">
-        <v>96221.8046875</v>
+        <v>96143.6328125</v>
       </c>
       <c r="K25">
-        <v>42.60000228881836</v>
+        <v>85.59999847412109</v>
       </c>
       <c r="L25">
-        <v>0.3625292778015137</v>
+        <v>2.528505802154541</v>
       </c>
       <c r="M25">
-        <v>-4.346972465515137</v>
+        <v>-5.345510005950928</v>
       </c>
       <c r="N25">
-        <v>6.403756618499756</v>
+        <v>8.718060493469238</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1701572400</v>
+        <v>1702263600</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1602,34 +1602,34 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>26.39999961853027</v>
+        <v>33.5</v>
       </c>
       <c r="F26">
-        <v>32.62457275390625</v>
+        <v>32.36514282226562</v>
       </c>
       <c r="G26">
-        <v>33.0477294921875</v>
+        <v>31.42959594726562</v>
       </c>
       <c r="H26">
-        <v>-13.12823486328125</v>
+        <v>-51.33415222167969</v>
       </c>
       <c r="I26">
-        <v>29.4846248626709</v>
+        <v>33.37704467773438</v>
       </c>
       <c r="J26">
-        <v>96367.3984375</v>
+        <v>96448.9921875</v>
       </c>
       <c r="K26">
-        <v>25.80000114440918</v>
+        <v>96</v>
       </c>
       <c r="L26">
-        <v>4.243049144744873</v>
+        <v>3.9114990234375</v>
       </c>
       <c r="M26">
-        <v>-4.725722312927246</v>
+        <v>-8.138449668884277</v>
       </c>
       <c r="N26">
-        <v>11.90034198760986</v>
+        <v>11.10671997070312</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1637,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1701583200</v>
+        <v>1702274400</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1646,34 +1646,34 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>59.10000228881836</v>
+        <v>62.10000228881836</v>
       </c>
       <c r="F27">
-        <v>27.70730590820312</v>
+        <v>26.82342529296875</v>
       </c>
       <c r="G27">
-        <v>26.96737670898438</v>
+        <v>25.85482788085938</v>
       </c>
       <c r="H27">
-        <v>-13.07785034179688</v>
+        <v>-46.64167785644531</v>
       </c>
       <c r="I27">
-        <v>32.62126922607422</v>
+        <v>36.03902053833008</v>
       </c>
       <c r="J27">
-        <v>96431.0546875</v>
+        <v>96501.109375</v>
       </c>
       <c r="K27">
-        <v>10.60000038146973</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="L27">
-        <v>4.806494235992432</v>
+        <v>2.816909074783325</v>
       </c>
       <c r="M27">
-        <v>-7.784919261932373</v>
+        <v>-8.538583755493164</v>
       </c>
       <c r="N27">
-        <v>14.20714473724365</v>
+        <v>12.80391693115234</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1701594000</v>
+        <v>1702285200</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1690,34 +1690,34 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>73.80000305175781</v>
+        <v>72.5</v>
       </c>
       <c r="F28">
-        <v>24.98541259765625</v>
+        <v>25.0263671875</v>
       </c>
       <c r="G28">
-        <v>23.99734497070312</v>
+        <v>23.99679565429688</v>
       </c>
       <c r="H28">
-        <v>-21.98014831542969</v>
+        <v>-48.55218505859375</v>
       </c>
       <c r="I28">
-        <v>36.57748413085938</v>
+        <v>35.9232063293457</v>
       </c>
       <c r="J28">
-        <v>96560.6171875</v>
+        <v>96471.6875</v>
       </c>
       <c r="K28">
-        <v>10.69999980926514</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2.527517080307007</v>
+        <v>2.392255783081055</v>
       </c>
       <c r="M28">
-        <v>-6.149181842803955</v>
+        <v>-6.987021446228027</v>
       </c>
       <c r="N28">
-        <v>10.70719623565674</v>
+        <v>11.51102352142334</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1725,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1701604800</v>
+        <v>1702296000</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1734,34 +1734,34 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>72.5</v>
+        <v>77.30000305175781</v>
       </c>
       <c r="F29">
-        <v>25.13824462890625</v>
+        <v>23.99874877929688</v>
       </c>
       <c r="G29">
-        <v>23.906005859375</v>
+        <v>22.73046875</v>
       </c>
       <c r="H29">
-        <v>-35.7178955078125</v>
+        <v>-50.93971252441406</v>
       </c>
       <c r="I29">
-        <v>36.28102874755859</v>
+        <v>37.20486450195312</v>
       </c>
       <c r="J29">
-        <v>96695.09375</v>
+        <v>96676.6796875</v>
       </c>
       <c r="K29">
-        <v>4.800000190734863</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>3.084445714950562</v>
+        <v>3.894621610641479</v>
       </c>
       <c r="M29">
-        <v>-6.743798732757568</v>
+        <v>-6.369675159454346</v>
       </c>
       <c r="N29">
-        <v>10.31991004943848</v>
+        <v>10.10531044006348</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1701615600</v>
+        <v>1702306800</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1778,34 +1778,34 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>46.60000228881836</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F30">
-        <v>31.43954467773438</v>
+        <v>30.11111450195312</v>
       </c>
       <c r="G30">
-        <v>28.42724609375</v>
+        <v>27.08892822265625</v>
       </c>
       <c r="H30">
-        <v>-13.76885986328125</v>
+        <v>-51.46246337890625</v>
       </c>
       <c r="I30">
-        <v>36.08381652832031</v>
+        <v>35.87633895874023</v>
       </c>
       <c r="J30">
-        <v>96754.1796875</v>
+        <v>96763.7109375</v>
       </c>
       <c r="K30">
-        <v>8.800000190734863</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="L30">
-        <v>-3.583339691162109</v>
+        <v>0.4848339855670929</v>
       </c>
       <c r="M30">
-        <v>-5.386176586151123</v>
+        <v>-6.745217323303223</v>
       </c>
       <c r="N30">
-        <v>6.826791286468506</v>
+        <v>7.208518505096436</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1701626400</v>
+        <v>1702317600</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1822,34 +1822,34 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>31</v>
+        <v>33.5</v>
       </c>
       <c r="F31">
-        <v>36.18426513671875</v>
+        <v>35.2335205078125</v>
       </c>
       <c r="G31">
-        <v>33.16546630859375</v>
+        <v>32.13095092773438</v>
       </c>
       <c r="H31">
-        <v>-13.15121459960938</v>
+        <v>-53.54411315917969</v>
       </c>
       <c r="I31">
-        <v>35.15024566650391</v>
+        <v>35.21121597290039</v>
       </c>
       <c r="J31">
-        <v>96485.640625</v>
+        <v>96528.3125</v>
       </c>
       <c r="K31">
-        <v>5.900000095367432</v>
+        <v>95.30000305175781</v>
       </c>
       <c r="L31">
-        <v>-2.912619590759277</v>
+        <v>0.1579394489526749</v>
       </c>
       <c r="M31">
-        <v>-3.234540939331055</v>
+        <v>-4.75759744644165</v>
       </c>
       <c r="N31">
-        <v>3.621771335601807</v>
+        <v>4.306445598602295</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1857,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1701637200</v>
+        <v>1702328400</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1866,34 +1866,34 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="F32">
-        <v>38.3070068359375</v>
+        <v>37.0355224609375</v>
       </c>
       <c r="G32">
-        <v>36.04190063476562</v>
+        <v>35.10128784179688</v>
       </c>
       <c r="H32">
-        <v>-13.99493408203125</v>
+        <v>-49.55583190917969</v>
       </c>
       <c r="I32">
-        <v>33.0145149230957</v>
+        <v>34.82604217529297</v>
       </c>
       <c r="J32">
-        <v>96149.203125</v>
+        <v>96201.1953125</v>
       </c>
       <c r="K32">
-        <v>74.80000305175781</v>
+        <v>92.90000152587891</v>
       </c>
       <c r="L32">
-        <v>-0.4962304532527924</v>
+        <v>-0.1827368140220642</v>
       </c>
       <c r="M32">
-        <v>-3.686852931976318</v>
+        <v>-3.308171272277832</v>
       </c>
       <c r="N32">
-        <v>3.900004625320435</v>
+        <v>3.500076293945312</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1901,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1701648000</v>
+        <v>1702339200</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1910,34 +1910,34 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="F33">
-        <v>35.68560791015625</v>
+        <v>34.94140625</v>
       </c>
       <c r="G33">
-        <v>36.36444091796875</v>
+        <v>34.79458618164062</v>
       </c>
       <c r="H33">
-        <v>-10.05947875976562</v>
+        <v>-52.26901245117188</v>
       </c>
       <c r="I33">
-        <v>31.10654067993164</v>
+        <v>36.32673263549805</v>
       </c>
       <c r="J33">
-        <v>96155.03125</v>
+        <v>96241.21875</v>
       </c>
       <c r="K33">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L33">
-        <v>-1.260268568992615</v>
+        <v>-1.971672296524048</v>
       </c>
       <c r="M33">
-        <v>-3.230000019073486</v>
+        <v>-5.428264141082764</v>
       </c>
       <c r="N33">
-        <v>3.700000047683716</v>
+        <v>7.705479621887207</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1701658800</v>
+        <v>1702350000</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1954,34 +1954,34 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="F34">
-        <v>32.67022705078125</v>
+        <v>31.807861328125</v>
       </c>
       <c r="G34">
-        <v>32.63153076171875</v>
+        <v>32.00723266601562</v>
       </c>
       <c r="H34">
-        <v>-8.099151611328125</v>
+        <v>-51.89138793945312</v>
       </c>
       <c r="I34">
-        <v>33.2132453918457</v>
+        <v>38.74963760375977</v>
       </c>
       <c r="J34">
-        <v>96408.7109375</v>
+        <v>96471.453125</v>
       </c>
       <c r="K34">
-        <v>88.5</v>
+        <v>96.80000305175781</v>
       </c>
       <c r="L34">
-        <v>-0.7278246879577637</v>
+        <v>-0.188852533698082</v>
       </c>
       <c r="M34">
-        <v>-1.549775362014771</v>
+        <v>-3.177446126937866</v>
       </c>
       <c r="N34">
-        <v>4.507236003875732</v>
+        <v>6.300000190734863</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1701669600</v>
+        <v>1702360800</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1998,34 +1998,34 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>45.79999923706055</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F35">
-        <v>30.33636474609375</v>
+        <v>28.23379516601562</v>
       </c>
       <c r="G35">
-        <v>29.57427978515625</v>
+        <v>27.53146362304688</v>
       </c>
       <c r="H35">
-        <v>-11.88128662109375</v>
+        <v>-51.34346008300781</v>
       </c>
       <c r="I35">
-        <v>36.70857620239258</v>
+        <v>39.80049514770508</v>
       </c>
       <c r="J35">
-        <v>96534.6640625</v>
+        <v>96561.8515625</v>
       </c>
       <c r="K35">
-        <v>37.40000152587891</v>
+        <v>66.30000305175781</v>
       </c>
       <c r="L35">
-        <v>2.012045860290527</v>
+        <v>3.274682521820068</v>
       </c>
       <c r="M35">
-        <v>-4.914162635803223</v>
+        <v>-6.986406326293945</v>
       </c>
       <c r="N35">
-        <v>6.700009822845459</v>
+        <v>11.70499324798584</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2033,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1701680400</v>
+        <v>1702371600</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -2042,34 +2042,34 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F36">
-        <v>27.14047241210938</v>
+        <v>25.38827514648438</v>
       </c>
       <c r="G36">
-        <v>26.49191284179688</v>
+        <v>24.60128784179688</v>
       </c>
       <c r="H36">
-        <v>-13.75509643554688</v>
+        <v>-54.59339904785156</v>
       </c>
       <c r="I36">
-        <v>38.61403656005859</v>
+        <v>38.31965255737305</v>
       </c>
       <c r="J36">
-        <v>96504.1875</v>
+        <v>96525.53125</v>
       </c>
       <c r="K36">
-        <v>0.699999988079071</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L36">
-        <v>2.03155517578125</v>
+        <v>3.428644895553589</v>
       </c>
       <c r="M36">
-        <v>-4.859118461608887</v>
+        <v>-6.070324420928955</v>
       </c>
       <c r="N36">
-        <v>7.500034332275391</v>
+        <v>11.30000019073486</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2077,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1701691200</v>
+        <v>1702382400</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -2086,34 +2086,34 @@
         <v>33</v>
       </c>
       <c r="E37">
-        <v>67</v>
+        <v>72.09999847412109</v>
       </c>
       <c r="F37">
-        <v>26.28195190429688</v>
+        <v>24.6544189453125</v>
       </c>
       <c r="G37">
-        <v>25.0369873046875</v>
+        <v>23.48855590820312</v>
       </c>
       <c r="H37">
-        <v>-42.96551513671875</v>
+        <v>-57.30252075195312</v>
       </c>
       <c r="I37">
-        <v>40.51571273803711</v>
+        <v>37.55289840698242</v>
       </c>
       <c r="J37">
-        <v>96717.3046875</v>
+        <v>96717.5234375</v>
       </c>
       <c r="K37">
-        <v>0.2000000029802322</v>
+        <v>66.5</v>
       </c>
       <c r="L37">
-        <v>3.791083812713623</v>
+        <v>3.646345138549805</v>
       </c>
       <c r="M37">
-        <v>-4.12017822265625</v>
+        <v>-5.708310604095459</v>
       </c>
       <c r="N37">
-        <v>6.408187866210938</v>
+        <v>9.60704231262207</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2121,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1701702000</v>
+        <v>1702393200</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2130,34 +2130,34 @@
         <v>34</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="F38">
-        <v>32.00662231445312</v>
+        <v>30.9034423828125</v>
       </c>
       <c r="G38">
-        <v>29.42941284179688</v>
+        <v>28.03439331054688</v>
       </c>
       <c r="H38">
-        <v>-71.31094360351562</v>
+        <v>-55.23214721679688</v>
       </c>
       <c r="I38">
-        <v>41.64301300048828</v>
+        <v>36.57888412475586</v>
       </c>
       <c r="J38">
-        <v>96811.328125</v>
+        <v>96774.9765625</v>
       </c>
       <c r="K38">
-        <v>1.800000071525574</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="L38">
-        <v>0.3868017494678497</v>
+        <v>0.3023803532123566</v>
       </c>
       <c r="M38">
-        <v>-4.338962078094482</v>
+        <v>-6.069599628448486</v>
       </c>
       <c r="N38">
-        <v>4.504428386688232</v>
+        <v>6.711193084716797</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1701712800</v>
+        <v>1702404000</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2174,34 +2174,34 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>32.40000152587891</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="F39">
-        <v>35.3536376953125</v>
+        <v>35.843505859375</v>
       </c>
       <c r="G39">
-        <v>33.28378295898438</v>
+        <v>32.8280029296875</v>
       </c>
       <c r="H39">
-        <v>-33.72334289550781</v>
+        <v>-62.472900390625</v>
       </c>
       <c r="I39">
-        <v>42.14002227783203</v>
+        <v>34.36763763427734</v>
       </c>
       <c r="J39">
-        <v>96589.7265625</v>
+        <v>96539.5625</v>
       </c>
       <c r="K39">
         <v>100</v>
       </c>
       <c r="L39">
-        <v>-3.500624895095825</v>
+        <v>0.3015112280845642</v>
       </c>
       <c r="M39">
-        <v>-1.050852060317993</v>
+        <v>-4.784482479095459</v>
       </c>
       <c r="N39">
-        <v>3.723437547683716</v>
+        <v>5.099999904632568</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2209,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1701723600</v>
+        <v>1702414800</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2218,34 +2218,34 @@
         <v>36</v>
       </c>
       <c r="E40">
-        <v>31.10000038146973</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="F40">
-        <v>36.02557373046875</v>
+        <v>38.13580322265625</v>
       </c>
       <c r="G40">
-        <v>33.98568725585938</v>
+        <v>35.87689208984375</v>
       </c>
       <c r="H40">
-        <v>-35.16397094726562</v>
+        <v>-64.88420104980469</v>
       </c>
       <c r="I40">
-        <v>41.11484146118164</v>
+        <v>33.83990097045898</v>
       </c>
       <c r="J40">
-        <v>96393.671875</v>
+        <v>96208.0625</v>
       </c>
       <c r="K40">
-        <v>47.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L40">
-        <v>0.2972753942012787</v>
+        <v>1.52581787109375</v>
       </c>
       <c r="M40">
-        <v>-3.055212259292603</v>
+        <v>-3.150844573974609</v>
       </c>
       <c r="N40">
-        <v>4.105841159820557</v>
+        <v>4.713241100311279</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2253,7 +2253,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1701734400</v>
+        <v>1702425600</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -2262,34 +2262,34 @@
         <v>37</v>
       </c>
       <c r="E41">
-        <v>61</v>
+        <v>23.5</v>
       </c>
       <c r="F41">
-        <v>24.95346069335938</v>
+        <v>36.04754638671875</v>
       </c>
       <c r="G41">
-        <v>25.010009765625</v>
+        <v>36.6142578125</v>
       </c>
       <c r="H41">
-        <v>-32.18550109863281</v>
+        <v>-68.91500854492188</v>
       </c>
       <c r="I41">
-        <v>41.07261276245117</v>
+        <v>33.45241546630859</v>
       </c>
       <c r="J41">
-        <v>96575.703125</v>
+        <v>96203.2421875</v>
       </c>
       <c r="K41">
         <v>100</v>
       </c>
       <c r="L41">
-        <v>-2.262939453125</v>
+        <v>0.9604101181030273</v>
       </c>
       <c r="M41">
-        <v>7.433432579040527</v>
+        <v>-3.309504270553589</v>
       </c>
       <c r="N41">
-        <v>9.002028465270996</v>
+        <v>4.505841255187988</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2297,7 +2297,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1701745200</v>
+        <v>1702436400</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2306,34 +2306,34 @@
         <v>30</v>
       </c>
       <c r="E42">
-        <v>55.70000076293945</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="F42">
-        <v>27.2261962890625</v>
+        <v>33.34674072265625</v>
       </c>
       <c r="G42">
-        <v>27.08062744140625</v>
+        <v>33.5341796875</v>
       </c>
       <c r="H42">
-        <v>-61.04020690917969</v>
+        <v>-60.379638671875</v>
       </c>
       <c r="I42">
-        <v>37.83733749389648</v>
+        <v>37.10621643066406</v>
       </c>
       <c r="J42">
-        <v>96671.2109375</v>
+        <v>96436.8203125</v>
       </c>
       <c r="K42">
         <v>100</v>
       </c>
       <c r="L42">
-        <v>1.852077603340149</v>
+        <v>1.654084444046021</v>
       </c>
       <c r="M42">
-        <v>-0.0807177722454071</v>
+        <v>-5.064106464385986</v>
       </c>
       <c r="N42">
-        <v>2.000085592269897</v>
+        <v>9.501377105712891</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1701756000</v>
+        <v>1702447200</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2350,34 +2350,34 @@
         <v>31</v>
       </c>
       <c r="E43">
-        <v>59.10000228881836</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="F43">
-        <v>26.86367797851562</v>
+        <v>28.04583740234375</v>
       </c>
       <c r="G43">
-        <v>26.52999877929688</v>
+        <v>26.92800903320312</v>
       </c>
       <c r="H43">
-        <v>-73.04649353027344</v>
+        <v>-60.13215637207031</v>
       </c>
       <c r="I43">
-        <v>38.06495666503906</v>
+        <v>38.93734741210938</v>
       </c>
       <c r="J43">
-        <v>96690.9296875</v>
+        <v>96485.8125</v>
       </c>
       <c r="K43">
-        <v>100</v>
+        <v>17.10000038146973</v>
       </c>
       <c r="L43">
-        <v>-0.5658056735992432</v>
+        <v>4.454960823059082</v>
       </c>
       <c r="M43">
-        <v>-1.479208946228027</v>
+        <v>-7.766298770904541</v>
       </c>
       <c r="N43">
-        <v>1.703594207763672</v>
+        <v>13.4022798538208</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2385,7 +2385,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1701766800</v>
+        <v>1702458000</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -2394,34 +2394,34 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>68.90000152587891</v>
+        <v>73.70000457763672</v>
       </c>
       <c r="F44">
-        <v>25.58416748046875</v>
+        <v>25.43710327148438</v>
       </c>
       <c r="G44">
-        <v>25.40423583984375</v>
+        <v>24.36593627929688</v>
       </c>
       <c r="H44">
-        <v>-71.757080078125</v>
+        <v>-57.19432067871094</v>
       </c>
       <c r="I44">
-        <v>42.89546585083008</v>
+        <v>37.94715881347656</v>
       </c>
       <c r="J44">
-        <v>96648.7265625</v>
+        <v>96480.4375</v>
       </c>
       <c r="K44">
-        <v>12.19999980926514</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="L44">
-        <v>1.046413540840149</v>
+        <v>1.681528329849243</v>
       </c>
       <c r="M44">
-        <v>-3.34844708442688</v>
+        <v>-7.039694786071777</v>
       </c>
       <c r="N44">
-        <v>5.914062976837158</v>
+        <v>11.30328559875488</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2429,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1701777600</v>
+        <v>1702468800</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -2438,34 +2438,34 @@
         <v>33</v>
       </c>
       <c r="E45">
-        <v>70.20000457763672</v>
+        <v>77.20000457763672</v>
       </c>
       <c r="F45">
-        <v>25.47659301757812</v>
+        <v>24.40728759765625</v>
       </c>
       <c r="G45">
-        <v>24.49560546875</v>
+        <v>23.0955810546875</v>
       </c>
       <c r="H45">
-        <v>-70.04806518554688</v>
+        <v>-57.38299560546875</v>
       </c>
       <c r="I45">
-        <v>41.13934707641602</v>
+        <v>37.98132705688477</v>
       </c>
       <c r="J45">
-        <v>96826.765625</v>
+        <v>96664.3046875</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="L45">
-        <v>2.5145263671875</v>
+        <v>3.2080078125</v>
       </c>
       <c r="M45">
-        <v>-5.07037353515625</v>
+        <v>-6.218613147735596</v>
       </c>
       <c r="N45">
-        <v>9.007075309753418</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2473,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1701788400</v>
+        <v>1702479600</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -2482,34 +2482,34 @@
         <v>34</v>
       </c>
       <c r="E46">
-        <v>50.60000228881836</v>
+        <v>48.10000228881836</v>
       </c>
       <c r="F46">
-        <v>31.15777587890625</v>
+        <v>30.2989501953125</v>
       </c>
       <c r="G46">
-        <v>28.54031372070312</v>
+        <v>27.26113891601562</v>
       </c>
       <c r="H46">
-        <v>-68.78727722167969</v>
+        <v>-57.44064331054688</v>
       </c>
       <c r="I46">
-        <v>42.28030395507812</v>
+        <v>37.27113723754883</v>
       </c>
       <c r="J46">
-        <v>96903.8984375</v>
+        <v>96747.4609375</v>
       </c>
       <c r="K46">
-        <v>7.599999904632568</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0.6707617044448853</v>
+        <v>2.347805023193359</v>
       </c>
       <c r="M46">
-        <v>-6.031601428985596</v>
+        <v>-6.129370212554932</v>
       </c>
       <c r="N46">
-        <v>6.710984230041504</v>
+        <v>7.105332851409912</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2517,7 +2517,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1701799200</v>
+        <v>1702490400</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -2526,34 +2526,34 @@
         <v>35</v>
       </c>
       <c r="E47">
-        <v>33.5</v>
+        <v>31.30000114440918</v>
       </c>
       <c r="F47">
-        <v>36.04818725585938</v>
+        <v>35.86090087890625</v>
       </c>
       <c r="G47">
-        <v>33.1177978515625</v>
+        <v>32.5723876953125</v>
       </c>
       <c r="H47">
-        <v>-69.51988220214844</v>
+        <v>-55.17814636230469</v>
       </c>
       <c r="I47">
-        <v>42.17321395874023</v>
+        <v>34.49505996704102</v>
       </c>
       <c r="J47">
-        <v>96656.4765625</v>
+        <v>96482.8984375</v>
       </c>
       <c r="K47">
-        <v>70.30000305175781</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1.097062945365906</v>
+        <v>1.91995108127594</v>
       </c>
       <c r="M47">
-        <v>-4.943854808807373</v>
+        <v>-5.514416217803955</v>
       </c>
       <c r="N47">
-        <v>5.400000095367432</v>
+        <v>5.9005126953125</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2561,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1701810000</v>
+        <v>1702501200</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2570,34 +2570,34 @@
         <v>36</v>
       </c>
       <c r="E48">
-        <v>29.60000038146973</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="F48">
-        <v>36.49203491210938</v>
+        <v>38.62570190429688</v>
       </c>
       <c r="G48">
-        <v>34.78912353515625</v>
+        <v>36.01376342773438</v>
       </c>
       <c r="H48">
-        <v>-68.49093627929688</v>
+        <v>-54.52000427246094</v>
       </c>
       <c r="I48">
-        <v>42.37580490112305</v>
+        <v>35.37400436401367</v>
       </c>
       <c r="J48">
-        <v>96362.8046875</v>
+        <v>96145.7265625</v>
       </c>
       <c r="K48">
-        <v>99.59999847412109</v>
+        <v>37.20000076293945</v>
       </c>
       <c r="L48">
-        <v>4.393874645233154</v>
+        <v>3.131020545959473</v>
       </c>
       <c r="M48">
-        <v>-5.698783874511719</v>
+        <v>-3.569770336151123</v>
       </c>
       <c r="N48">
-        <v>6.506517887115479</v>
+        <v>5.200109958648682</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2605,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1701820800</v>
+        <v>1702512000</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2614,34 +2614,34 @@
         <v>37</v>
       </c>
       <c r="E49">
-        <v>42.70000076293945</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="F49">
-        <v>31.93780517578125</v>
+        <v>36.61074829101562</v>
       </c>
       <c r="G49">
-        <v>31.54638671875</v>
+        <v>36.25094604492188</v>
       </c>
       <c r="H49">
-        <v>-59.22737121582031</v>
+        <v>-52.43955993652344</v>
       </c>
       <c r="I49">
-        <v>41.09748458862305</v>
+        <v>34.08847045898438</v>
       </c>
       <c r="J49">
-        <v>96394.875</v>
+        <v>96137.796875</v>
       </c>
       <c r="K49">
-        <v>100</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L49">
-        <v>-1.569665551185608</v>
+        <v>4.718134880065918</v>
       </c>
       <c r="M49">
-        <v>-7.1578369140625</v>
+        <v>-1.966396450996399</v>
       </c>
       <c r="N49">
-        <v>10.30964946746826</v>
+        <v>7.50951099395752</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2649,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1701831600</v>
+        <v>1702522800</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -2658,34 +2658,34 @@
         <v>30</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>30.5</v>
       </c>
       <c r="F50">
-        <v>30.57559204101562</v>
+        <v>33.2252197265625</v>
       </c>
       <c r="G50">
-        <v>29.56344604492188</v>
+        <v>32.25558471679688</v>
       </c>
       <c r="H50">
-        <v>-60.42919921875</v>
+        <v>-52.28041076660156</v>
       </c>
       <c r="I50">
-        <v>43.30776596069336</v>
+        <v>36.02272796630859</v>
       </c>
       <c r="J50">
-        <v>96661.7734375</v>
+        <v>96413.984375</v>
       </c>
       <c r="K50">
-        <v>97.30000305175781</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="L50">
-        <v>5.616488933563232</v>
+        <v>4.07400369644165</v>
       </c>
       <c r="M50">
-        <v>-7.823278427124023</v>
+        <v>-9.446037292480469</v>
       </c>
       <c r="N50">
-        <v>12.5</v>
+        <v>12.30371284484863</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2693,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1701842400</v>
+        <v>1702533600</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -2702,34 +2702,34 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="F51">
-        <v>27.57119750976562</v>
+        <v>27.224853515625</v>
       </c>
       <c r="G51">
-        <v>26.61126708984375</v>
+        <v>26.35592651367188</v>
       </c>
       <c r="H51">
-        <v>-62.02751159667969</v>
+        <v>-53.13539123535156</v>
       </c>
       <c r="I51">
-        <v>43.73160934448242</v>
+        <v>33.83084487915039</v>
       </c>
       <c r="J51">
-        <v>96611.3125</v>
+        <v>96438.578125</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>6.078837871551514</v>
+        <v>5.032414436340332</v>
       </c>
       <c r="M51">
-        <v>-7.13305139541626</v>
+        <v>-7.554550647735596</v>
       </c>
       <c r="N51">
-        <v>12.80000019073486</v>
+        <v>14.20407009124756</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2737,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1701853200</v>
+        <v>1702544400</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2746,34 +2746,34 @@
         <v>32</v>
       </c>
       <c r="E52">
-        <v>69.40000152587891</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="F52">
-        <v>24.97683715820312</v>
+        <v>24.4844970703125</v>
       </c>
       <c r="G52">
-        <v>23.9256591796875</v>
+        <v>23.44326782226562</v>
       </c>
       <c r="H52">
-        <v>-60.52293395996094</v>
+        <v>-53.03659057617188</v>
       </c>
       <c r="I52">
-        <v>42.46342086791992</v>
+        <v>36.16192245483398</v>
       </c>
       <c r="J52">
-        <v>96668.2890625</v>
+        <v>96497.1171875</v>
       </c>
       <c r="K52">
-        <v>9.600000381469727</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2.599465370178223</v>
+        <v>2.294509172439575</v>
       </c>
       <c r="M52">
-        <v>-5.56667947769165</v>
+        <v>-5.658530235290527</v>
       </c>
       <c r="N52">
-        <v>9.11994457244873</v>
+        <v>10.0170431137085</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2781,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1701864000</v>
+        <v>1702555200</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -2790,34 +2790,34 @@
         <v>33</v>
       </c>
       <c r="E53">
-        <v>76.30000305175781</v>
+        <v>68.80000305175781</v>
       </c>
       <c r="F53">
-        <v>23.3634033203125</v>
+        <v>23.63385009765625</v>
       </c>
       <c r="G53">
-        <v>22.029541015625</v>
+        <v>22.35595703125</v>
       </c>
       <c r="H53">
-        <v>-59.53401184082031</v>
+        <v>-57.60166931152344</v>
       </c>
       <c r="I53">
-        <v>34.75345993041992</v>
+        <v>33.88024139404297</v>
       </c>
       <c r="J53">
-        <v>96897.2109375</v>
+        <v>96651.34375</v>
       </c>
       <c r="K53">
-        <v>19.60000038146973</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>4.217494964599609</v>
+        <v>2.321557521820068</v>
       </c>
       <c r="M53">
-        <v>-4.540194988250732</v>
+        <v>-5.642775535583496</v>
       </c>
       <c r="N53">
-        <v>7.704689025878906</v>
+        <v>9.330594062805176</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2825,7 +2825,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1701874800</v>
+        <v>1702566000</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -2834,34 +2834,34 @@
         <v>34</v>
       </c>
       <c r="E54">
-        <v>44.79999923706055</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="F54">
-        <v>28.48416137695312</v>
+        <v>29.23516845703125</v>
       </c>
       <c r="G54">
-        <v>25.74118041992188</v>
+        <v>26.24038696289062</v>
       </c>
       <c r="H54">
-        <v>-62.38215637207031</v>
+        <v>-57.31745910644531</v>
       </c>
       <c r="I54">
-        <v>23.6374568939209</v>
+        <v>32.35649108886719</v>
       </c>
       <c r="J54">
-        <v>96947.4375</v>
+        <v>96757.7734375</v>
       </c>
       <c r="K54">
-        <v>73.80000305175781</v>
+        <v>88.59999847412109</v>
       </c>
       <c r="L54">
-        <v>4.568229675292969</v>
+        <v>2.446738243103027</v>
       </c>
       <c r="M54">
-        <v>-6.314316272735596</v>
+        <v>-6.631259441375732</v>
       </c>
       <c r="N54">
-        <v>9.001406669616699</v>
+        <v>7.723885536193848</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2869,7 +2869,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1701885600</v>
+        <v>1702576800</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -2878,34 +2878,34 @@
         <v>35</v>
       </c>
       <c r="E55">
-        <v>25.89999961853027</v>
+        <v>27.80000114440918</v>
       </c>
       <c r="F55">
-        <v>34.74273681640625</v>
+        <v>35.18182373046875</v>
       </c>
       <c r="G55">
-        <v>31.42373657226562</v>
+        <v>31.79525756835938</v>
       </c>
       <c r="H55">
-        <v>-60.190673828125</v>
+        <v>-47.09832763671875</v>
       </c>
       <c r="I55">
-        <v>25.02274513244629</v>
+        <v>30.11248397827148</v>
       </c>
       <c r="J55">
-        <v>96676.7265625</v>
+        <v>96463.1015625</v>
       </c>
       <c r="K55">
-        <v>32.10000228881836</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="L55">
-        <v>5.036821365356445</v>
+        <v>1.508276343345642</v>
       </c>
       <c r="M55">
-        <v>-4.966811180114746</v>
+        <v>-5.971923828125</v>
       </c>
       <c r="N55">
-        <v>8.000779151916504</v>
+        <v>6.501434326171875</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2913,7 +2913,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1701896400</v>
+        <v>1702587600</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -2922,34 +2922,34 @@
         <v>36</v>
       </c>
       <c r="E56">
-        <v>21.39999961853027</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="F56">
-        <v>37.18603515625</v>
+        <v>37.94509887695312</v>
       </c>
       <c r="G56">
-        <v>34.6368408203125</v>
+        <v>35.30279541015625</v>
       </c>
       <c r="H56">
-        <v>-60.75485229492188</v>
+        <v>-54.66709899902344</v>
       </c>
       <c r="I56">
-        <v>28.29107475280762</v>
+        <v>31.81548690795898</v>
       </c>
       <c r="J56">
-        <v>96349.65625</v>
+        <v>96132.8125</v>
       </c>
       <c r="K56">
-        <v>94.09999847412109</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L56">
-        <v>5.0929856300354</v>
+        <v>2.958789110183716</v>
       </c>
       <c r="M56">
-        <v>-5.844746112823486</v>
+        <v>-4.324772834777832</v>
       </c>
       <c r="N56">
-        <v>7.922308444976807</v>
+        <v>5.809911251068115</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2957,7 +2957,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1701907200</v>
+        <v>1702598400</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -2966,34 +2966,34 @@
         <v>37</v>
       </c>
       <c r="E57">
-        <v>29.20000076293945</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="F57">
-        <v>34.14666748046875</v>
+        <v>34.82098388671875</v>
       </c>
       <c r="G57">
-        <v>33.76113891601562</v>
+        <v>34.64862060546875</v>
       </c>
       <c r="H57">
-        <v>-60.59136962890625</v>
+        <v>-52.05104064941406</v>
       </c>
       <c r="I57">
-        <v>31.57012748718262</v>
+        <v>31.22552490234375</v>
       </c>
       <c r="J57">
-        <v>96403.3359375</v>
+        <v>96190.28125</v>
       </c>
       <c r="K57">
-        <v>29.39999961853027</v>
+        <v>100</v>
       </c>
       <c r="L57">
-        <v>4.179294109344482</v>
+        <v>5.70159912109375</v>
       </c>
       <c r="M57">
-        <v>-3.317092180252075</v>
+        <v>-1.129228472709656</v>
       </c>
       <c r="N57">
-        <v>7.707445621490479</v>
+        <v>8.72777271270752</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1701918000</v>
+        <v>1702609200</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -3010,34 +3010,34 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>41</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="F58">
-        <v>31.2454833984375</v>
+        <v>31.73025512695312</v>
       </c>
       <c r="G58">
-        <v>30.44155883789062</v>
+        <v>31.89443969726562</v>
       </c>
       <c r="H58">
-        <v>-60.03431701660156</v>
+        <v>-58.73052978515625</v>
       </c>
       <c r="I58">
-        <v>35.11399459838867</v>
+        <v>28.85135841369629</v>
       </c>
       <c r="J58">
-        <v>96607.0546875</v>
+        <v>96370.390625</v>
       </c>
       <c r="K58">
-        <v>38.79999923706055</v>
+        <v>100</v>
       </c>
       <c r="L58">
-        <v>5.314013481140137</v>
+        <v>4.840805530548096</v>
       </c>
       <c r="M58">
-        <v>-5.83831787109375</v>
+        <v>-4.002421855926514</v>
       </c>
       <c r="N58">
-        <v>12.10012245178223</v>
+        <v>13.01932430267334</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3045,7 +3045,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1701928800</v>
+        <v>1702620000</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -3054,34 +3054,34 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>44</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="F59">
-        <v>27.60308837890625</v>
+        <v>27.184326171875</v>
       </c>
       <c r="G59">
-        <v>26.80117797851562</v>
+        <v>26.27175903320312</v>
       </c>
       <c r="H59">
-        <v>-59.97970581054688</v>
+        <v>-49.79534912109375</v>
       </c>
       <c r="I59">
-        <v>31.06500244140625</v>
+        <v>30.25344276428223</v>
       </c>
       <c r="J59">
-        <v>96586.9609375</v>
+        <v>96460.8203125</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="L59">
-        <v>4.4938645362854</v>
+        <v>6.18264627456665</v>
       </c>
       <c r="M59">
-        <v>-7.582370281219482</v>
+        <v>-6.450790882110596</v>
       </c>
       <c r="N59">
-        <v>12.90024089813232</v>
+        <v>13.40000629425049</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3089,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1701939600</v>
+        <v>1702630800</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -3098,34 +3098,34 @@
         <v>32</v>
       </c>
       <c r="E60">
-        <v>62.40000152587891</v>
+        <v>65.59999847412109</v>
       </c>
       <c r="F60">
-        <v>24.19796752929688</v>
+        <v>24.36422729492188</v>
       </c>
       <c r="G60">
-        <v>23.19073486328125</v>
+        <v>23.41189575195312</v>
       </c>
       <c r="H60">
-        <v>-62.42706298828125</v>
+        <v>-53.57096862792969</v>
       </c>
       <c r="I60">
-        <v>30.10408973693848</v>
+        <v>29.78408622741699</v>
       </c>
       <c r="J60">
-        <v>96517.2890625</v>
+        <v>96487.6484375</v>
       </c>
       <c r="K60">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="L60">
-        <v>5.181110858917236</v>
+        <v>3.804970502853394</v>
       </c>
       <c r="M60">
-        <v>-5.84585428237915</v>
+        <v>-6.193244457244873</v>
       </c>
       <c r="N60">
-        <v>12.50428676605225</v>
+        <v>11.70025634765625</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3133,7 +3133,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1701950400</v>
+        <v>1702641600</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -3142,34 +3142,34 @@
         <v>33</v>
       </c>
       <c r="E61">
-        <v>72.20000457763672</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="F61">
-        <v>23.33642578125</v>
+        <v>23.3123779296875</v>
       </c>
       <c r="G61">
-        <v>22.03436279296875</v>
+        <v>22.0672607421875</v>
       </c>
       <c r="H61">
-        <v>-62.61528015136719</v>
+        <v>-53.13914489746094</v>
       </c>
       <c r="I61">
-        <v>30.86890602111816</v>
+        <v>30.42599296569824</v>
       </c>
       <c r="J61">
-        <v>96815.515625</v>
+        <v>96654.515625</v>
       </c>
       <c r="K61">
-        <v>100</v>
+        <v>57.5</v>
       </c>
       <c r="L61">
-        <v>2.169943809509277</v>
+        <v>3.194343090057373</v>
       </c>
       <c r="M61">
-        <v>-4.743520259857178</v>
+        <v>-5.53350830078125</v>
       </c>
       <c r="N61">
-        <v>8.001406669616699</v>
+        <v>9.90000057220459</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3177,7 +3177,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1701961200</v>
+        <v>1702652400</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -3186,34 +3186,34 @@
         <v>34</v>
       </c>
       <c r="E62">
-        <v>48.5</v>
+        <v>52.5</v>
       </c>
       <c r="F62">
-        <v>29.14736938476562</v>
+        <v>28.50579833984375</v>
       </c>
       <c r="G62">
-        <v>26.29483032226562</v>
+        <v>25.54461669921875</v>
       </c>
       <c r="H62">
-        <v>-63.01983642578125</v>
+        <v>-60.08229064941406</v>
       </c>
       <c r="I62">
-        <v>29.80479621887207</v>
+        <v>30.85203742980957</v>
       </c>
       <c r="J62">
-        <v>96867.9296875</v>
+        <v>96746.71875</v>
       </c>
       <c r="K62">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L62">
-        <v>1.630849599838257</v>
+        <v>2.140878915786743</v>
       </c>
       <c r="M62">
-        <v>-6.285048484802246</v>
+        <v>-6.826142311096191</v>
       </c>
       <c r="N62">
-        <v>7.601407051086426</v>
+        <v>7.700341701507568</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3221,7 +3221,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1701972000</v>
+        <v>1702663200</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -3230,34 +3230,34 @@
         <v>35</v>
       </c>
       <c r="E63">
-        <v>32.79999923706055</v>
+        <v>35</v>
       </c>
       <c r="F63">
-        <v>34.7230224609375</v>
+        <v>33.39239501953125</v>
       </c>
       <c r="G63">
-        <v>31.63677978515625</v>
+        <v>30.0606689453125</v>
       </c>
       <c r="H63">
-        <v>-69.75186157226562</v>
+        <v>-52.7841796875</v>
       </c>
       <c r="I63">
-        <v>30.85869216918945</v>
+        <v>29.4131965637207</v>
       </c>
       <c r="J63">
-        <v>96611.1796875</v>
+        <v>96521.6796875</v>
       </c>
       <c r="K63">
-        <v>100</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="L63">
-        <v>1.064987778663635</v>
+        <v>1.38311767578125</v>
       </c>
       <c r="M63">
-        <v>-5.543188571929932</v>
+        <v>-5.820353984832764</v>
       </c>
       <c r="N63">
-        <v>6.400000095367432</v>
+        <v>6.424358367919922</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3265,7 +3265,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1701982800</v>
+        <v>1702674000</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -3274,34 +3274,34 @@
         <v>36</v>
       </c>
       <c r="E64">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>37.81292724609375</v>
+        <v>38.06951904296875</v>
       </c>
       <c r="G64">
-        <v>35.46426391601562</v>
+        <v>35.46282958984375</v>
       </c>
       <c r="H64">
-        <v>-69.23002624511719</v>
+        <v>-53.20075988769531</v>
       </c>
       <c r="I64">
-        <v>31.73979949951172</v>
+        <v>24.03525733947754</v>
       </c>
       <c r="J64">
-        <v>96259.1796875</v>
+        <v>96165.375</v>
       </c>
       <c r="K64">
-        <v>100</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L64">
-        <v>-0.4023779332637787</v>
+        <v>3.450593233108521</v>
       </c>
       <c r="M64">
-        <v>-4.338261604309082</v>
+        <v>-3.745598077774048</v>
       </c>
       <c r="N64">
-        <v>6.200000286102295</v>
+        <v>6.605920314788818</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3309,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1701993600</v>
+        <v>1702684800</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
@@ -3318,34 +3318,34 @@
         <v>37</v>
       </c>
       <c r="E65">
-        <v>21</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="F65">
-        <v>36.74734497070312</v>
+        <v>34.79254150390625</v>
       </c>
       <c r="G65">
-        <v>36.1663818359375</v>
+        <v>35.91018676757812</v>
       </c>
       <c r="H65">
-        <v>-66.74012756347656</v>
+        <v>-47.77049255371094</v>
       </c>
       <c r="I65">
-        <v>31.45797729492188</v>
+        <v>24.58062362670898</v>
       </c>
       <c r="J65">
-        <v>96294.0546875</v>
+        <v>96165.4375</v>
       </c>
       <c r="K65">
-        <v>100</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="L65">
-        <v>1.102412104606628</v>
+        <v>3.844963312149048</v>
       </c>
       <c r="M65">
-        <v>-3.802866220474243</v>
+        <v>-2.676918983459473</v>
       </c>
       <c r="N65">
-        <v>6.405816555023193</v>
+        <v>6.599999904632568</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3353,7 +3353,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1702004400</v>
+        <v>1702695600</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
@@ -3362,34 +3362,34 @@
         <v>30</v>
       </c>
       <c r="E66">
-        <v>44.10000228881836</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="F66">
-        <v>31.30853271484375</v>
+        <v>30.2833251953125</v>
       </c>
       <c r="G66">
-        <v>30.1064453125</v>
+        <v>29.84024047851562</v>
       </c>
       <c r="H66">
-        <v>-56.14675903320312</v>
+        <v>-61.28204345703125</v>
       </c>
       <c r="I66">
-        <v>36.17429733276367</v>
+        <v>32.10215377807617</v>
       </c>
       <c r="J66">
-        <v>96601.375</v>
+        <v>96404.921875</v>
       </c>
       <c r="K66">
-        <v>95.30000305175781</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>7.585605144500732</v>
+        <v>2.525043964385986</v>
       </c>
       <c r="M66">
-        <v>-7.977299690246582</v>
+        <v>-8.838258743286133</v>
       </c>
       <c r="N66">
-        <v>13.90629577636719</v>
+        <v>14.00289058685303</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3397,7 +3397,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1702015200</v>
+        <v>1702706400</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -3406,34 +3406,34 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>52.70000076293945</v>
+        <v>64.5</v>
       </c>
       <c r="F67">
-        <v>28.5401611328125</v>
+        <v>26.63189697265625</v>
       </c>
       <c r="G67">
-        <v>27.68087768554688</v>
+        <v>25.79531860351562</v>
       </c>
       <c r="H67">
-        <v>-58.42323303222656</v>
+        <v>-49.25151062011719</v>
       </c>
       <c r="I67">
-        <v>34.26235961914062</v>
+        <v>32.98154067993164</v>
       </c>
       <c r="J67">
-        <v>96510.5546875</v>
+        <v>96447.9453125</v>
       </c>
       <c r="K67">
-        <v>19.20000076293945</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>3.649938821792603</v>
+        <v>5.631386756896973</v>
       </c>
       <c r="M67">
-        <v>-7.48259973526001</v>
+        <v>-7.024699687957764</v>
       </c>
       <c r="N67">
-        <v>12.20377254486084</v>
+        <v>13.69999980926514</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3441,7 +3441,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1702026000</v>
+        <v>1702717200</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -3450,34 +3450,34 @@
         <v>32</v>
       </c>
       <c r="E68">
-        <v>64.70000457763672</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F68">
-        <v>25.6800537109375</v>
+        <v>24.45046997070312</v>
       </c>
       <c r="G68">
-        <v>24.62826538085938</v>
+        <v>23.55224609375</v>
       </c>
       <c r="H68">
-        <v>-54.36540222167969</v>
+        <v>-56.74574279785156</v>
       </c>
       <c r="I68">
-        <v>34.25930786132812</v>
+        <v>33.30620574951172</v>
       </c>
       <c r="J68">
-        <v>96540.3671875</v>
+        <v>96452.4609375</v>
       </c>
       <c r="K68">
-        <v>74.20000457763672</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="L68">
-        <v>1.266291499137878</v>
+        <v>1.807451128959656</v>
       </c>
       <c r="M68">
-        <v>-6.78484582901001</v>
+        <v>-6.402721881866455</v>
       </c>
       <c r="N68">
-        <v>11.90988159179688</v>
+        <v>11.11930370330811</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3485,7 +3485,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1702036800</v>
+        <v>1702728000</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
@@ -3494,34 +3494,34 @@
         <v>33</v>
       </c>
       <c r="E69">
-        <v>63.40000152587891</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F69">
-        <v>25.50628662109375</v>
+        <v>23.7398681640625</v>
       </c>
       <c r="G69">
-        <v>24.35531616210938</v>
+        <v>22.5511474609375</v>
       </c>
       <c r="H69">
-        <v>-49.24089050292969</v>
+        <v>-39.14485168457031</v>
       </c>
       <c r="I69">
-        <v>35.02995681762695</v>
+        <v>30.6801929473877</v>
       </c>
       <c r="J69">
-        <v>96751.0546875</v>
+        <v>96614.203125</v>
       </c>
       <c r="K69">
-        <v>64.90000152587891</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>1.809370040893555</v>
+        <v>2.861179113388062</v>
       </c>
       <c r="M69">
-        <v>-6.248036861419678</v>
+        <v>-6.283498287200928</v>
       </c>
       <c r="N69">
-        <v>10.22345638275146</v>
+        <v>10.61079883575439</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3529,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1702047600</v>
+        <v>1702738800</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
@@ -3538,34 +3538,34 @@
         <v>34</v>
       </c>
       <c r="E70">
-        <v>45.29999923706055</v>
+        <v>42.90000152587891</v>
       </c>
       <c r="F70">
-        <v>31.1982421875</v>
+        <v>30.31710815429688</v>
       </c>
       <c r="G70">
-        <v>28.43179321289062</v>
+        <v>27.28326416015625</v>
       </c>
       <c r="H70">
-        <v>-47.01019287109375</v>
+        <v>-38.78707885742188</v>
       </c>
       <c r="I70">
-        <v>36.40240859985352</v>
+        <v>29.00018310546875</v>
       </c>
       <c r="J70">
-        <v>96855.609375</v>
+        <v>96680.6328125</v>
       </c>
       <c r="K70">
-        <v>99.5</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>-3.753185987472534</v>
+        <v>1.354455590248108</v>
       </c>
       <c r="M70">
-        <v>-4.651645183563232</v>
+        <v>-6.664079666137695</v>
       </c>
       <c r="N70">
-        <v>6.602256298065186</v>
+        <v>7.412693977355957</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3573,7 +3573,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1702058400</v>
+        <v>1702749600</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
@@ -3582,34 +3582,34 @@
         <v>35</v>
       </c>
       <c r="E71">
-        <v>31.89999961853027</v>
+        <v>27.5</v>
       </c>
       <c r="F71">
-        <v>35.23745727539062</v>
+        <v>35.69210815429688</v>
       </c>
       <c r="G71">
-        <v>32.5615234375</v>
+        <v>32.40814208984375</v>
       </c>
       <c r="H71">
-        <v>-45.77410888671875</v>
+        <v>-37.11561584472656</v>
       </c>
       <c r="I71">
-        <v>36.83736801147461</v>
+        <v>26.40354347229004</v>
       </c>
       <c r="J71">
-        <v>96615.390625</v>
+        <v>96410.390625</v>
       </c>
       <c r="K71">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>-3.352494955062866</v>
+        <v>0.8667358160018921</v>
       </c>
       <c r="M71">
-        <v>-3.02593731880188</v>
+        <v>-5.629306316375732</v>
       </c>
       <c r="N71">
-        <v>3.801296234130859</v>
+        <v>5.700000286102295</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3617,7 +3617,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1702069200</v>
+        <v>1702760400</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -3626,34 +3626,34 @@
         <v>36</v>
       </c>
       <c r="E72">
-        <v>31.30000114440918</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="F72">
-        <v>34.71163940429688</v>
+        <v>38.04269409179688</v>
       </c>
       <c r="G72">
-        <v>33.34304809570312</v>
+        <v>35.52926635742188</v>
       </c>
       <c r="H72">
-        <v>-45.39569091796875</v>
+        <v>-31.63455200195312</v>
       </c>
       <c r="I72">
-        <v>38.16379165649414</v>
+        <v>26.45493125915527</v>
       </c>
       <c r="J72">
-        <v>96428.1171875</v>
+        <v>96099</v>
       </c>
       <c r="K72">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>-1.638552188873291</v>
+        <v>2.1005859375</v>
       </c>
       <c r="M72">
-        <v>-2.171738147735596</v>
+        <v>-3.785432100296021</v>
       </c>
       <c r="N72">
-        <v>3.809261083602905</v>
+        <v>5.100812435150146</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3661,7 +3661,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1702080000</v>
+        <v>1702771200</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -3670,34 +3670,34 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <v>35.79999923706055</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="F73">
-        <v>32.85009765625</v>
+        <v>35.16650390625</v>
       </c>
       <c r="G73">
-        <v>32.54901123046875</v>
+        <v>36.10659790039062</v>
       </c>
       <c r="H73">
-        <v>-48.94584655761719</v>
+        <v>-26.91357421875</v>
       </c>
       <c r="I73">
-        <v>31.04313659667969</v>
+        <v>27.24397468566895</v>
       </c>
       <c r="J73">
-        <v>96481.1953125</v>
+        <v>96118.1796875</v>
       </c>
       <c r="K73">
-        <v>51.5</v>
+        <v>62.90000152587891</v>
       </c>
       <c r="L73">
-        <v>4.407734394073486</v>
+        <v>1.279643535614014</v>
       </c>
       <c r="M73">
-        <v>-0.6085742115974426</v>
+        <v>-3.549960851669312</v>
       </c>
       <c r="N73">
-        <v>5.905920505523682</v>
+        <v>4.708497524261475</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3705,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1702090800</v>
+        <v>1702782000</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -3714,34 +3714,34 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <v>43.40000152587891</v>
+        <v>39</v>
       </c>
       <c r="F74">
-        <v>29.92059326171875</v>
+        <v>29.89608764648438</v>
       </c>
       <c r="G74">
-        <v>30.97030639648438</v>
+        <v>29.53582763671875</v>
       </c>
       <c r="H74">
-        <v>-48.81971740722656</v>
+        <v>-32.0928955078125</v>
       </c>
       <c r="I74">
-        <v>27.7689208984375</v>
+        <v>29.66337776184082</v>
       </c>
       <c r="J74">
-        <v>96580.375</v>
+        <v>96404.8359375</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>2.340898275375366</v>
+        <v>3.024692296981812</v>
       </c>
       <c r="M74">
-        <v>-0.5556982159614563</v>
+        <v>-8.089726448059082</v>
       </c>
       <c r="N74">
-        <v>2.5</v>
+        <v>14.10360431671143</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3749,7 +3749,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1702101600</v>
+        <v>1702792800</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -3758,34 +3758,34 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <v>42.5</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="F75">
-        <v>29.08383178710938</v>
+        <v>27.10104370117188</v>
       </c>
       <c r="G75">
-        <v>29.68154907226562</v>
+        <v>26.37548828125</v>
       </c>
       <c r="H75">
-        <v>-47.43142700195312</v>
+        <v>-24.37174987792969</v>
       </c>
       <c r="I75">
-        <v>33.4340934753418</v>
+        <v>32.90180206298828</v>
       </c>
       <c r="J75">
-        <v>96535.625</v>
+        <v>96533.0546875</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>10.90000057220459</v>
       </c>
       <c r="L75">
-        <v>0.3497241139411926</v>
+        <v>2.349650859832764</v>
       </c>
       <c r="M75">
-        <v>-3.296398878097534</v>
+        <v>-7.812050819396973</v>
       </c>
       <c r="N75">
-        <v>4.103039741516113</v>
+        <v>12.20070362091064</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3793,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1702112400</v>
+        <v>1702803600</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -3802,34 +3802,34 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <v>68.5</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="F76">
-        <v>25.73907470703125</v>
+        <v>24.403076171875</v>
       </c>
       <c r="G76">
-        <v>25.23736572265625</v>
+        <v>23.49728393554688</v>
       </c>
       <c r="H76">
-        <v>-53.33087158203125</v>
+        <v>-54.87094116210938</v>
       </c>
       <c r="I76">
-        <v>36.52606964111328</v>
+        <v>33.39368057250977</v>
       </c>
       <c r="J76">
-        <v>96569.0234375</v>
+        <v>96507.8984375</v>
       </c>
       <c r="K76">
-        <v>30.10000038146973</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="L76">
-        <v>0.7282348275184631</v>
+        <v>3.755903244018555</v>
       </c>
       <c r="M76">
-        <v>-4.273305416107178</v>
+        <v>-6.560216903686523</v>
       </c>
       <c r="N76">
-        <v>7.805153846740723</v>
+        <v>11.60170269012451</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3837,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1702123200</v>
+        <v>1702814400</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -3846,34 +3846,34 @@
         <v>33</v>
       </c>
       <c r="E77">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77">
-        <v>25.58453369140625</v>
+        <v>24.50921630859375</v>
       </c>
       <c r="G77">
-        <v>24.52127075195312</v>
+        <v>23.27606201171875</v>
       </c>
       <c r="H77">
-        <v>-50.15455627441406</v>
+        <v>-58.00656127929688</v>
       </c>
       <c r="I77">
-        <v>36.95691299438477</v>
+        <v>33.54767608642578</v>
       </c>
       <c r="J77">
-        <v>96699.6953125</v>
+        <v>96680.90625</v>
       </c>
       <c r="K77">
-        <v>9.600000381469727</v>
+        <v>100</v>
       </c>
       <c r="L77">
-        <v>2.529367685317993</v>
+        <v>3.407167911529541</v>
       </c>
       <c r="M77">
-        <v>-3.608649730682373</v>
+        <v>-6.802070140838623</v>
       </c>
       <c r="N77">
-        <v>6.508087158203125</v>
+        <v>9.821268081665039</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3881,7 +3881,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1702134000</v>
+        <v>1702825200</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -3890,34 +3890,34 @@
         <v>34</v>
       </c>
       <c r="E78">
-        <v>42.10000228881836</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F78">
-        <v>32.68911743164062</v>
+        <v>30.38046264648438</v>
       </c>
       <c r="G78">
-        <v>30.1256103515625</v>
+        <v>27.54812622070312</v>
       </c>
       <c r="H78">
-        <v>-45.61639404296875</v>
+        <v>-62.72416687011719</v>
       </c>
       <c r="I78">
-        <v>36.72505569458008</v>
+        <v>32.71963500976562</v>
       </c>
       <c r="J78">
-        <v>96774.3046875</v>
+        <v>96699.9609375</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="L78">
-        <v>-4.026359558105469</v>
+        <v>1.907289981842041</v>
       </c>
       <c r="M78">
-        <v>-3.06573224067688</v>
+        <v>-6.738054275512695</v>
       </c>
       <c r="N78">
-        <v>5.505983352661133</v>
+        <v>7.822550296783447</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3925,7 +3925,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1702144800</v>
+        <v>1702836000</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -3934,34 +3934,34 @@
         <v>35</v>
       </c>
       <c r="E79">
-        <v>29.89999961853027</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="F79">
-        <v>36.72637939453125</v>
+        <v>35.85049438476562</v>
       </c>
       <c r="G79">
-        <v>34.08901977539062</v>
+        <v>32.58062744140625</v>
       </c>
       <c r="H79">
-        <v>-41.44960021972656</v>
+        <v>-63.48391723632812</v>
       </c>
       <c r="I79">
-        <v>37.36704254150391</v>
+        <v>31.80534553527832</v>
       </c>
       <c r="J79">
-        <v>96537.59375</v>
+        <v>96383.46875</v>
       </c>
       <c r="K79">
-        <v>5.599999904632568</v>
+        <v>96.20000457763672</v>
       </c>
       <c r="L79">
-        <v>-2.342250823974609</v>
+        <v>0.0838330090045929</v>
       </c>
       <c r="M79">
-        <v>-2.25732421875</v>
+        <v>-5.308642387390137</v>
       </c>
       <c r="N79">
-        <v>3.60813307762146</v>
+        <v>5.10945463180542</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3969,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1702155600</v>
+        <v>1702846800</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -3978,34 +3978,34 @@
         <v>36</v>
       </c>
       <c r="E80">
-        <v>25.5</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="F80">
-        <v>37.53045654296875</v>
+        <v>38.33990478515625</v>
       </c>
       <c r="G80">
-        <v>35.97921752929688</v>
+        <v>36.0927734375</v>
       </c>
       <c r="H80">
-        <v>-38.84779357910156</v>
+        <v>-59.47508239746094</v>
       </c>
       <c r="I80">
-        <v>37.28839874267578</v>
+        <v>32.14579772949219</v>
       </c>
       <c r="J80">
-        <v>96215.609375</v>
+        <v>96045.578125</v>
       </c>
       <c r="K80">
-        <v>98.20000457763672</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="L80">
-        <v>-2.726940870285034</v>
+        <v>0.5677441358566284</v>
       </c>
       <c r="M80">
-        <v>-2.471081495285034</v>
+        <v>-2.601865291595459</v>
       </c>
       <c r="N80">
-        <v>4.001447200775146</v>
+        <v>4.501874446868896</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4013,7 +4013,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1702166400</v>
+        <v>1702857600</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -4022,34 +4022,34 @@
         <v>37</v>
       </c>
       <c r="E81">
-        <v>33</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="F81">
-        <v>34.00906372070312</v>
+        <v>36.45196533203125</v>
       </c>
       <c r="G81">
-        <v>34.19189453125</v>
+        <v>36.01626586914062</v>
       </c>
       <c r="H81">
-        <v>-13.13128662109375</v>
+        <v>-59.53080749511719</v>
       </c>
       <c r="I81">
-        <v>36.70834732055664</v>
+        <v>32.62504196166992</v>
       </c>
       <c r="J81">
-        <v>96253.0859375</v>
+        <v>96015.875</v>
       </c>
       <c r="K81">
-        <v>42.5</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L81">
-        <v>-2.111796855926514</v>
+        <v>4.86767578125</v>
       </c>
       <c r="M81">
-        <v>-4.240666389465332</v>
+        <v>-4.611869812011719</v>
       </c>
       <c r="N81">
-        <v>7.416522979736328</v>
+        <v>9.200390815734863</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4057,7 +4057,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1702177200</v>
+        <v>1702868400</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -4066,34 +4066,34 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>38.70000076293945</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="F82">
-        <v>32.30926513671875</v>
+        <v>30.92550659179688</v>
       </c>
       <c r="G82">
-        <v>32.05923461914062</v>
+        <v>30.26824951171875</v>
       </c>
       <c r="H82">
-        <v>-19.192626953125</v>
+        <v>-59.02378845214844</v>
       </c>
       <c r="I82">
-        <v>40.30351257324219</v>
+        <v>39.23039627075195</v>
       </c>
       <c r="J82">
-        <v>96463.5625</v>
+        <v>96363.296875</v>
       </c>
       <c r="K82">
-        <v>27.60000038146973</v>
+        <v>100</v>
       </c>
       <c r="L82">
-        <v>2.273102998733521</v>
+        <v>3.081584453582764</v>
       </c>
       <c r="M82">
-        <v>-2.840302705764771</v>
+        <v>-9.567783355712891</v>
       </c>
       <c r="N82">
-        <v>4.200000286102295</v>
+        <v>13.70237922668457</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4101,7 +4101,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1702188000</v>
+        <v>1702879200</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -4110,34 +4110,34 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>50.90000152587891</v>
+        <v>64.40000152587891</v>
       </c>
       <c r="F83">
-        <v>29.27078247070312</v>
+        <v>26.86322021484375</v>
       </c>
       <c r="G83">
-        <v>28.6708984375</v>
+        <v>26.20355224609375</v>
       </c>
       <c r="H83">
-        <v>-16.75439453125</v>
+        <v>-60.02745056152344</v>
       </c>
       <c r="I83">
-        <v>38.70499420166016</v>
+        <v>43.2765998840332</v>
       </c>
       <c r="J83">
-        <v>96459.046875</v>
+        <v>96488.2890625</v>
       </c>
       <c r="K83">
-        <v>2.299999952316284</v>
+        <v>23.80000114440918</v>
       </c>
       <c r="L83">
-        <v>2.689792394638062</v>
+        <v>1.887470602989197</v>
       </c>
       <c r="M83">
-        <v>-5.388747215270996</v>
+        <v>-7.486354827880859</v>
       </c>
       <c r="N83">
-        <v>9.607550621032715</v>
+        <v>11.00736427307129</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4145,7 +4145,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1702198800</v>
+        <v>1702890000</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -4154,34 +4154,34 @@
         <v>32</v>
       </c>
       <c r="E84">
-        <v>59.90000152587891</v>
+        <v>74.59999847412109</v>
       </c>
       <c r="F84">
-        <v>28.177001953125</v>
+        <v>24.49978637695312</v>
       </c>
       <c r="G84">
-        <v>27.21975708007812</v>
+        <v>23.5654296875</v>
       </c>
       <c r="H84">
-        <v>-62.77476501464844</v>
+        <v>-52.23724365234375</v>
       </c>
       <c r="I84">
-        <v>42.35296630859375</v>
+        <v>40.99714279174805</v>
       </c>
       <c r="J84">
-        <v>96403.6015625</v>
+        <v>96438.4609375</v>
       </c>
       <c r="K84">
-        <v>92.30000305175781</v>
+        <v>100</v>
       </c>
       <c r="L84">
-        <v>2.395903348922729</v>
+        <v>3.053735256195068</v>
       </c>
       <c r="M84">
-        <v>-5.851366996765137</v>
+        <v>-6.184799671173096</v>
       </c>
       <c r="N84">
-        <v>9.600000381469727</v>
+        <v>11.00466442108154</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4189,7 +4189,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1702209600</v>
+        <v>1702900800</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -4198,34 +4198,34 @@
         <v>33</v>
       </c>
       <c r="E85">
-        <v>67.80000305175781</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="F85">
-        <v>26.86099243164062</v>
+        <v>24.5023193359375</v>
       </c>
       <c r="G85">
-        <v>25.68435668945312</v>
+        <v>23.34811401367188</v>
       </c>
       <c r="H85">
-        <v>-56.99629211425781</v>
+        <v>-58.86766052246094</v>
       </c>
       <c r="I85">
-        <v>42.78697204589844</v>
+        <v>39.28916931152344</v>
       </c>
       <c r="J85">
-        <v>96595.2734375</v>
+        <v>96537.890625</v>
       </c>
       <c r="K85">
-        <v>23.39999961853027</v>
+        <v>65.30000305175781</v>
       </c>
       <c r="L85">
-        <v>2.702485322952271</v>
+        <v>4.244538307189941</v>
       </c>
       <c r="M85">
-        <v>-5.360815525054932</v>
+        <v>-5.422350883483887</v>
       </c>
       <c r="N85">
-        <v>9.105766296386719</v>
+        <v>10.30548763275146</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4233,7 +4233,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1702220400</v>
+        <v>1702911600</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -4242,34 +4242,34 @@
         <v>34</v>
       </c>
       <c r="E86">
-        <v>47</v>
+        <v>49.70000076293945</v>
       </c>
       <c r="F86">
-        <v>32.10903930664062</v>
+        <v>29.98471069335938</v>
       </c>
       <c r="G86">
-        <v>29.58804321289062</v>
+        <v>27.32376098632812</v>
       </c>
       <c r="H86">
-        <v>-57.60733032226562</v>
+        <v>-53.13835144042969</v>
       </c>
       <c r="I86">
-        <v>42.90834045410156</v>
+        <v>40.05827331542969</v>
       </c>
       <c r="J86">
-        <v>96686.390625</v>
+        <v>96616.2109375</v>
       </c>
       <c r="K86">
-        <v>15.30000019073486</v>
+        <v>100</v>
       </c>
       <c r="L86">
-        <v>-2.592153310775757</v>
+        <v>2.773320198059082</v>
       </c>
       <c r="M86">
-        <v>-3.757848978042603</v>
+        <v>-5.507336139678955</v>
       </c>
       <c r="N86">
-        <v>4.910123825073242</v>
+        <v>6.706421852111816</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4277,7 +4277,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1702231200</v>
+        <v>1702922400</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -4286,34 +4286,34 @@
         <v>35</v>
       </c>
       <c r="E87">
-        <v>33.79999923706055</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="F87">
-        <v>36.21337890625</v>
+        <v>33.95285034179688</v>
       </c>
       <c r="G87">
-        <v>33.82269287109375</v>
+        <v>31.465576171875</v>
       </c>
       <c r="H87">
-        <v>-57.14808654785156</v>
+        <v>-62.13746643066406</v>
       </c>
       <c r="I87">
-        <v>42.76503372192383</v>
+        <v>39.39523696899414</v>
       </c>
       <c r="J87">
-        <v>96426.734375</v>
+        <v>96381.1015625</v>
       </c>
       <c r="K87">
-        <v>85.5</v>
+        <v>100</v>
       </c>
       <c r="L87">
-        <v>-2.311977386474609</v>
+        <v>0.9485692977905273</v>
       </c>
       <c r="M87">
-        <v>-1.016015648841858</v>
+        <v>-3.970109701156616</v>
       </c>
       <c r="N87">
-        <v>2.80609130859375</v>
+        <v>4.415125370025635</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4321,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1702242000</v>
+        <v>1702933200</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -4330,34 +4330,34 @@
         <v>36</v>
       </c>
       <c r="E88">
-        <v>31.10000038146973</v>
+        <v>28.30000114440918</v>
       </c>
       <c r="F88">
-        <v>36.30767822265625</v>
+        <v>36.21524047851562</v>
       </c>
       <c r="G88">
-        <v>34.7706298828125</v>
+        <v>34.02313232421875</v>
       </c>
       <c r="H88">
-        <v>-53.64068603515625</v>
+        <v>-61.91859436035156</v>
       </c>
       <c r="I88">
-        <v>40.20364379882812</v>
+        <v>38.70431137084961</v>
       </c>
       <c r="J88">
-        <v>96103.703125</v>
+        <v>96052.7578125</v>
       </c>
       <c r="K88">
-        <v>13.90000057220459</v>
+        <v>100</v>
       </c>
       <c r="L88">
-        <v>-1.801027774810791</v>
+        <v>-0.8883495926856995</v>
       </c>
       <c r="M88">
-        <v>-1.441806554794312</v>
+        <v>-4.12664794921875</v>
       </c>
       <c r="N88">
-        <v>3.613061189651489</v>
+        <v>4.404972076416016</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4365,7 +4365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1702252800</v>
+        <v>1702944000</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -4374,34 +4374,34 @@
         <v>37</v>
       </c>
       <c r="E89">
-        <v>44.10000228881836</v>
+        <v>31.30000114440918</v>
       </c>
       <c r="F89">
-        <v>32.111083984375</v>
+        <v>34.03964233398438</v>
       </c>
       <c r="G89">
-        <v>31.49160766601562</v>
+        <v>34.0909423828125</v>
       </c>
       <c r="H89">
-        <v>-60.65348815917969</v>
+        <v>-63.10980224609375</v>
       </c>
       <c r="I89">
-        <v>41.59714508056641</v>
+        <v>37.38059616088867</v>
       </c>
       <c r="J89">
-        <v>96133.3671875</v>
+        <v>96061.015625</v>
       </c>
       <c r="K89">
-        <v>97.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L89">
-        <v>5.692653656005859</v>
+        <v>-1.732973575592041</v>
       </c>
       <c r="M89">
-        <v>-4.926747798919678</v>
+        <v>-4.168313026428223</v>
       </c>
       <c r="N89">
-        <v>9.905157089233398</v>
+        <v>6.102200984954834</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4409,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1702263600</v>
+        <v>1702954800</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
@@ -4418,34 +4418,34 @@
         <v>30</v>
       </c>
       <c r="E90">
-        <v>53.20000076293945</v>
+        <v>39</v>
       </c>
       <c r="F90">
-        <v>29.68402099609375</v>
+        <v>31.72894287109375</v>
       </c>
       <c r="G90">
-        <v>28.73379516601562</v>
+        <v>31.09939575195312</v>
       </c>
       <c r="H90">
-        <v>-46.74894714355469</v>
+        <v>-62.06513977050781</v>
       </c>
       <c r="I90">
-        <v>45.10905838012695</v>
+        <v>42.85033416748047</v>
       </c>
       <c r="J90">
-        <v>96401.7734375</v>
+        <v>96246.1484375</v>
       </c>
       <c r="K90">
-        <v>99.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L90">
-        <v>-0.6692724227905273</v>
+        <v>2.021350145339966</v>
       </c>
       <c r="M90">
-        <v>-0.8781396150588989</v>
+        <v>-5.478796482086182</v>
       </c>
       <c r="N90">
-        <v>3.10359263420105</v>
+        <v>9.906183242797852</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4453,7 +4453,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1702274400</v>
+        <v>1702965600</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -4462,34 +4462,34 @@
         <v>31</v>
       </c>
       <c r="E91">
-        <v>62.79999923706055</v>
+        <v>52.79999923706055</v>
       </c>
       <c r="F91">
-        <v>27.36416625976562</v>
+        <v>28.47412109375</v>
       </c>
       <c r="G91">
-        <v>26.69967651367188</v>
+        <v>28.00265502929688</v>
       </c>
       <c r="H91">
-        <v>-59.44354248046875</v>
+        <v>-62.15902709960938</v>
       </c>
       <c r="I91">
-        <v>48.64455795288086</v>
+        <v>46.22258377075195</v>
       </c>
       <c r="J91">
-        <v>96489.2421875</v>
+        <v>96351.6171875</v>
       </c>
       <c r="K91">
-        <v>29.70000076293945</v>
+        <v>100</v>
       </c>
       <c r="L91">
-        <v>-0.2608715891838074</v>
+        <v>-2.992202043533325</v>
       </c>
       <c r="M91">
-        <v>-4.281740665435791</v>
+        <v>-7.132670879364014</v>
       </c>
       <c r="N91">
-        <v>7.405659675598145</v>
+        <v>11.60105037689209</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4497,7 +4497,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1702285200</v>
+        <v>1702976400</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
@@ -4506,34 +4506,34 @@
         <v>32</v>
       </c>
       <c r="E92">
-        <v>84.20000457763672</v>
+        <v>70.70000457763672</v>
       </c>
       <c r="F92">
-        <v>24.16049194335938</v>
+        <v>25.37527465820312</v>
       </c>
       <c r="G92">
-        <v>23.03656005859375</v>
+        <v>24.42123413085938</v>
       </c>
       <c r="H92">
-        <v>-59.49093627929688</v>
+        <v>-61.44610595703125</v>
       </c>
       <c r="I92">
-        <v>52.830810546875</v>
+        <v>47.28882217407227</v>
       </c>
       <c r="J92">
-        <v>96475.890625</v>
+        <v>96373.78125</v>
       </c>
       <c r="K92">
-        <v>100</v>
+        <v>86.80000305175781</v>
       </c>
       <c r="L92">
-        <v>4.967534065246582</v>
+        <v>3.363002777099609</v>
       </c>
       <c r="M92">
-        <v>-5.718415260314941</v>
+        <v>-4.231635570526123</v>
       </c>
       <c r="N92">
-        <v>9.708114624023438</v>
+        <v>7.810863494873047</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4541,7 +4541,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1702296000</v>
+        <v>1702987200</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
@@ -4550,34 +4550,34 @@
         <v>33</v>
       </c>
       <c r="E93">
-        <v>79.20000457763672</v>
+        <v>82.80000305175781</v>
       </c>
       <c r="F93">
-        <v>24.54257202148438</v>
+        <v>23.54278564453125</v>
       </c>
       <c r="G93">
-        <v>23.40774536132812</v>
+        <v>22.434326171875</v>
       </c>
       <c r="H93">
-        <v>-45.62882995605469</v>
+        <v>-57.65998840332031</v>
       </c>
       <c r="I93">
-        <v>49.5433464050293</v>
+        <v>48.8790283203125</v>
       </c>
       <c r="J93">
-        <v>96594.7890625</v>
+        <v>96590.2109375</v>
       </c>
       <c r="K93">
-        <v>99.5</v>
+        <v>94.5</v>
       </c>
       <c r="L93">
-        <v>3.645234346389771</v>
+        <v>2.674472570419312</v>
       </c>
       <c r="M93">
-        <v>-6.642420291900635</v>
+        <v>-3.30364990234375</v>
       </c>
       <c r="N93">
-        <v>10.20997428894043</v>
+        <v>6.702901363372803</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4585,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1702306800</v>
+        <v>1702998000</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
@@ -4594,34 +4594,34 @@
         <v>34</v>
       </c>
       <c r="E94">
-        <v>70.80000305175781</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F94">
-        <v>25.530517578125</v>
+        <v>24.87826538085938</v>
       </c>
       <c r="G94">
-        <v>24.1002197265625</v>
+        <v>23.51922607421875</v>
       </c>
       <c r="H94">
-        <v>-66.60809326171875</v>
+        <v>-53.95184326171875</v>
       </c>
       <c r="I94">
-        <v>47.81234359741211</v>
+        <v>49.69363021850586</v>
       </c>
       <c r="J94">
-        <v>96765.015625</v>
+        <v>96771.0546875</v>
       </c>
       <c r="K94">
-        <v>95.20000457763672</v>
+        <v>100</v>
       </c>
       <c r="L94">
-        <v>1.598857402801514</v>
+        <v>0.004831542726606131</v>
       </c>
       <c r="M94">
-        <v>-6.228755950927734</v>
+        <v>-3.901157140731812</v>
       </c>
       <c r="N94">
-        <v>7.805356025695801</v>
+        <v>4.807470798492432</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4629,7 +4629,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1702317600</v>
+        <v>1703008800</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
@@ -4638,34 +4638,34 @@
         <v>35</v>
       </c>
       <c r="E95">
-        <v>56.60000228881836</v>
+        <v>66.09999847412109</v>
       </c>
       <c r="F95">
-        <v>28.6754150390625</v>
+        <v>27.23532104492188</v>
       </c>
       <c r="G95">
-        <v>26.82315063476562</v>
+        <v>25.56170654296875</v>
       </c>
       <c r="H95">
-        <v>-68.01094055175781</v>
+        <v>-50.58598327636719</v>
       </c>
       <c r="I95">
-        <v>47.25668334960938</v>
+        <v>46.18319320678711</v>
       </c>
       <c r="J95">
-        <v>96632.2890625</v>
+        <v>96630.328125</v>
       </c>
       <c r="K95">
-        <v>54.5</v>
+        <v>100</v>
       </c>
       <c r="L95">
-        <v>0.6415087580680847</v>
+        <v>-3.767363309860229</v>
       </c>
       <c r="M95">
-        <v>-3.625715255737305</v>
+        <v>-0.5709252953529358</v>
       </c>
       <c r="N95">
-        <v>4.700460910797119</v>
+        <v>4.501649379730225</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4673,7 +4673,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1702328400</v>
+        <v>1703019600</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
@@ -4682,34 +4682,34 @@
         <v>36</v>
       </c>
       <c r="E96">
-        <v>40.79999923706055</v>
+        <v>64.90000152587891</v>
       </c>
       <c r="F96">
-        <v>32.95806884765625</v>
+        <v>27.31478881835938</v>
       </c>
       <c r="G96">
-        <v>30.87527465820312</v>
+        <v>26.1339111328125</v>
       </c>
       <c r="H96">
-        <v>-69.28878784179688</v>
+        <v>-71.43038940429688</v>
       </c>
       <c r="I96">
-        <v>45.47930526733398</v>
+        <v>45.30596923828125</v>
       </c>
       <c r="J96">
-        <v>96286.4921875</v>
+        <v>96404.7578125</v>
       </c>
       <c r="K96">
-        <v>22.89999961853027</v>
+        <v>100</v>
       </c>
       <c r="L96">
-        <v>1.475258708000183</v>
+        <v>-2.889313936233521</v>
       </c>
       <c r="M96">
-        <v>-3.06976056098938</v>
+        <v>0.563732922077179</v>
       </c>
       <c r="N96">
-        <v>4.309814929962158</v>
+        <v>3.7000732421875</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4717,7 +4717,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1702339200</v>
+        <v>1703030400</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
@@ -4726,34 +4726,34 @@
         <v>37</v>
       </c>
       <c r="E97">
-        <v>42.70000076293945</v>
+        <v>66</v>
       </c>
       <c r="F97">
-        <v>32.50677490234375</v>
+        <v>27.19479370117188</v>
       </c>
       <c r="G97">
-        <v>31.8126220703125</v>
+        <v>26.49758911132812</v>
       </c>
       <c r="H97">
-        <v>-67.20156860351562</v>
+        <v>-59.53656005859375</v>
       </c>
       <c r="I97">
-        <v>43.38368225097656</v>
+        <v>39.89177322387695</v>
       </c>
       <c r="J97">
-        <v>96224.6015625</v>
+        <v>96354.265625</v>
       </c>
       <c r="K97">
-        <v>5.300000190734863</v>
+        <v>100</v>
       </c>
       <c r="L97">
-        <v>4.743239402770996</v>
+        <v>-3.338854789733887</v>
       </c>
       <c r="M97">
-        <v>-2.501638174057007</v>
+        <v>2.389716625213623</v>
       </c>
       <c r="N97">
-        <v>6.519466400146484</v>
+        <v>5.900000095367432</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4761,7 +4761,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1702350000</v>
+        <v>1703041200</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
@@ -4770,34 +4770,34 @@
         <v>30</v>
       </c>
       <c r="E98">
-        <v>48.79999923706055</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="F98">
-        <v>29.43450927734375</v>
+        <v>26.01144409179688</v>
       </c>
       <c r="G98">
-        <v>29.24380493164062</v>
+        <v>25.87356567382812</v>
       </c>
       <c r="H98">
-        <v>-66.60057067871094</v>
+        <v>-59.09881591796875</v>
       </c>
       <c r="I98">
-        <v>40.29480743408203</v>
+        <v>41.41723251342773</v>
       </c>
       <c r="J98">
-        <v>96383.5078125</v>
+        <v>96478.3046875</v>
       </c>
       <c r="K98">
-        <v>26.60000038146973</v>
+        <v>77.5</v>
       </c>
       <c r="L98">
-        <v>4.599396705627441</v>
+        <v>-2.773530244827271</v>
       </c>
       <c r="M98">
-        <v>-3.000800609588623</v>
+        <v>-1.283051729202271</v>
       </c>
       <c r="N98">
-        <v>10.70270442962646</v>
+        <v>4.701205253601074</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4805,7 +4805,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1702360800</v>
+        <v>1703052000</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -4814,34 +4814,34 @@
         <v>31</v>
       </c>
       <c r="E99">
-        <v>57.79999923706055</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="F99">
-        <v>27.749755859375</v>
+        <v>25.32733154296875</v>
       </c>
       <c r="G99">
-        <v>27.109130859375</v>
+        <v>25.64242553710938</v>
       </c>
       <c r="H99">
-        <v>-63.99600219726562</v>
+        <v>-39.80026245117188</v>
       </c>
       <c r="I99">
-        <v>46.51570129394531</v>
+        <v>39.86142349243164</v>
       </c>
       <c r="J99">
-        <v>96479.90625</v>
+        <v>96372.5234375</v>
       </c>
       <c r="K99">
-        <v>23.30000114440918</v>
+        <v>45.60000228881836</v>
       </c>
       <c r="L99">
-        <v>3.613649845123291</v>
+        <v>-1.325236797332764</v>
       </c>
       <c r="M99">
-        <v>-7.732651233673096</v>
+        <v>1.443207979202271</v>
       </c>
       <c r="N99">
-        <v>12.20652198791504</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4849,7 +4849,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1702371600</v>
+        <v>1703062800</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
@@ -4858,34 +4858,34 @@
         <v>32</v>
       </c>
       <c r="E100">
-        <v>71.40000152587891</v>
+        <v>71.90000152587891</v>
       </c>
       <c r="F100">
-        <v>25.30874633789062</v>
+        <v>24.67623901367188</v>
       </c>
       <c r="G100">
-        <v>24.38058471679688</v>
+        <v>24.95205688476562</v>
       </c>
       <c r="H100">
-        <v>-64.60684204101562</v>
+        <v>-37.09602355957031</v>
       </c>
       <c r="I100">
-        <v>45.97797012329102</v>
+        <v>41.92531204223633</v>
       </c>
       <c r="J100">
-        <v>96484.4296875</v>
+        <v>96343.3671875</v>
       </c>
       <c r="K100">
-        <v>19.10000038146973</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="L100">
-        <v>3.617990732192993</v>
+        <v>0.8646264672279358</v>
       </c>
       <c r="M100">
-        <v>-7.013569355010986</v>
+        <v>-2.18145751953125</v>
       </c>
       <c r="N100">
-        <v>12</v>
+        <v>2.409213542938232</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4893,7 +4893,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1702382400</v>
+        <v>1703073600</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -4902,34 +4902,34 @@
         <v>33</v>
       </c>
       <c r="E101">
-        <v>66.59999847412109</v>
+        <v>69.40000152587891</v>
       </c>
       <c r="F101">
-        <v>24.49636840820312</v>
+        <v>24.89059448242188</v>
       </c>
       <c r="G101">
-        <v>23.37149047851562</v>
+        <v>24.42721557617188</v>
       </c>
       <c r="H101">
-        <v>-65.20564270019531</v>
+        <v>-45.16409301757812</v>
       </c>
       <c r="I101">
-        <v>42.88604736328125</v>
+        <v>42.56048583984375</v>
       </c>
       <c r="J101">
-        <v>96622.9765625</v>
+        <v>96522.578125</v>
       </c>
       <c r="K101">
-        <v>74.90000152587891</v>
+        <v>5</v>
       </c>
       <c r="L101">
-        <v>3.149523973464966</v>
+        <v>-1.263129830360413</v>
       </c>
       <c r="M101">
-        <v>-6.578884124755859</v>
+        <v>-1.499316334724426</v>
       </c>
       <c r="N101">
-        <v>10.90084743499756</v>
+        <v>3.701653242111206</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4937,7 +4937,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1702393200</v>
+        <v>1703084400</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
@@ -4946,34 +4946,34 @@
         <v>34</v>
       </c>
       <c r="E102">
-        <v>47.29999923706055</v>
+        <v>46.90000152587891</v>
       </c>
       <c r="F102">
-        <v>29.5</v>
+        <v>30.1536865234375</v>
       </c>
       <c r="G102">
-        <v>26.857421875</v>
+        <v>27.85064697265625</v>
       </c>
       <c r="H102">
-        <v>-71.92327880859375</v>
+        <v>-64.11756896972656</v>
       </c>
       <c r="I102">
-        <v>43.1013298034668</v>
+        <v>42.62994003295898</v>
       </c>
       <c r="J102">
-        <v>96729.25</v>
+        <v>96598.1875</v>
       </c>
       <c r="K102">
-        <v>28.20000076293945</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="L102">
-        <v>0.1121801733970642</v>
+        <v>-3.836015462875366</v>
       </c>
       <c r="M102">
-        <v>-7.389255046844482</v>
+        <v>-2.95361328125</v>
       </c>
       <c r="N102">
-        <v>8.018246650695801</v>
+        <v>5.311111927032471</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4981,7 +4981,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1702404000</v>
+        <v>1703095200</v>
       </c>
       <c r="C103" t="s">
         <v>25</v>
@@ -4990,34 +4990,34 @@
         <v>35</v>
       </c>
       <c r="E103">
-        <v>29.80000114440918</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="F103">
-        <v>34.43618774414062</v>
+        <v>32.91900634765625</v>
       </c>
       <c r="G103">
-        <v>31.558349609375</v>
+        <v>30.60598754882812</v>
       </c>
       <c r="H103">
-        <v>-69.78005981445312</v>
+        <v>-62.81520080566406</v>
       </c>
       <c r="I103">
-        <v>38.40654373168945</v>
+        <v>42.90588760375977</v>
       </c>
       <c r="J103">
-        <v>96571.6171875</v>
+        <v>96460.140625</v>
       </c>
       <c r="K103">
-        <v>5.099999904632568</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="L103">
-        <v>-0.1531542986631393</v>
+        <v>-2.384504318237305</v>
       </c>
       <c r="M103">
-        <v>-5.252250671386719</v>
+        <v>-2.998681545257568</v>
       </c>
       <c r="N103">
-        <v>6.11725378036499</v>
+        <v>4.209031581878662</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5025,7 +5025,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1702414800</v>
+        <v>1703106000</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -5034,34 +5034,34 @@
         <v>36</v>
       </c>
       <c r="E104">
-        <v>25.5</v>
+        <v>31</v>
       </c>
       <c r="F104">
-        <v>36.70730590820312</v>
+        <v>35.63351440429688</v>
       </c>
       <c r="G104">
-        <v>34.32052612304688</v>
+        <v>33.44113159179688</v>
       </c>
       <c r="H104">
-        <v>-67.47415161132812</v>
+        <v>-56.3056640625</v>
       </c>
       <c r="I104">
-        <v>37.57795715332031</v>
+        <v>41.44944381713867</v>
       </c>
       <c r="J104">
-        <v>96252.5546875</v>
+        <v>96131.7109375</v>
       </c>
       <c r="K104">
-        <v>16.30000114440918</v>
+        <v>100</v>
       </c>
       <c r="L104">
-        <v>0.3077563345432281</v>
+        <v>-1.429633736610413</v>
       </c>
       <c r="M104">
-        <v>-4.87847900390625</v>
+        <v>-3.298139572143555</v>
       </c>
       <c r="N104">
-        <v>5.801615715026855</v>
+        <v>4.303491115570068</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5069,7 +5069,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1702425600</v>
+        <v>1703116800</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -5078,34 +5078,34 @@
         <v>37</v>
       </c>
       <c r="E105">
-        <v>25.60000038146973</v>
+        <v>40.10000228881836</v>
       </c>
       <c r="F105">
-        <v>35.32998657226562</v>
+        <v>32.982666015625</v>
       </c>
       <c r="G105">
-        <v>35.21115112304688</v>
+        <v>32.23416137695312</v>
       </c>
       <c r="H105">
-        <v>-70.97541809082031</v>
+        <v>-54.30691528320312</v>
       </c>
       <c r="I105">
-        <v>36.03860092163086</v>
+        <v>43.57332229614258</v>
       </c>
       <c r="J105">
-        <v>96242.09375</v>
+        <v>96196.8515625</v>
       </c>
       <c r="K105">
-        <v>46</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L105">
-        <v>-0.1431542932987213</v>
+        <v>-5.336655139923096</v>
       </c>
       <c r="M105">
-        <v>-3.584995031356812</v>
+        <v>-2.190073251724243</v>
       </c>
       <c r="N105">
-        <v>4.903955459594727</v>
+        <v>7.600067138671875</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5113,7 +5113,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1702436400</v>
+        <v>1703127600</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
@@ -5122,34 +5122,34 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>28.39999961853027</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F106">
-        <v>32.53750610351562</v>
+        <v>29.65805053710938</v>
       </c>
       <c r="G106">
-        <v>32.53271484375</v>
+        <v>29.1654052734375</v>
       </c>
       <c r="H106">
-        <v>-43.16276550292969</v>
+        <v>-50.73719787597656</v>
       </c>
       <c r="I106">
-        <v>33.79753494262695</v>
+        <v>46.05716323852539</v>
       </c>
       <c r="J106">
-        <v>96417.9296875</v>
+        <v>96471.7265625</v>
       </c>
       <c r="K106">
-        <v>7.599999904632568</v>
+        <v>100</v>
       </c>
       <c r="L106">
-        <v>3.911076545715332</v>
+        <v>-3.260532140731812</v>
       </c>
       <c r="M106">
-        <v>-5.274279594421387</v>
+        <v>-1.298845171928406</v>
       </c>
       <c r="N106">
-        <v>11.9097900390625</v>
+        <v>6.206966876983643</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5157,7 +5157,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1702447200</v>
+        <v>1703138400</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
@@ -5166,34 +5166,34 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>58.60000228881836</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="F107">
-        <v>27.72256469726562</v>
+        <v>27.7701416015625</v>
       </c>
       <c r="G107">
-        <v>26.66864013671875</v>
+        <v>27.06082153320312</v>
       </c>
       <c r="H107">
-        <v>-45.01774597167969</v>
+        <v>-48.46354675292969</v>
       </c>
       <c r="I107">
-        <v>39.44180679321289</v>
+        <v>46.41344833374023</v>
       </c>
       <c r="J107">
-        <v>96529.625</v>
+        <v>96455.0859375</v>
       </c>
       <c r="K107">
-        <v>100</v>
+        <v>83.20000457763672</v>
       </c>
       <c r="L107">
-        <v>4.28579568862915</v>
+        <v>-4.156247615814209</v>
       </c>
       <c r="M107">
-        <v>-8.591811180114746</v>
+        <v>-1.27728271484375</v>
       </c>
       <c r="N107">
-        <v>13.30113983154297</v>
+        <v>8.401025772094727</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5201,7 +5201,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1702458000</v>
+        <v>1703149200</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
@@ -5210,34 +5210,34 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>67.59999847412109</v>
+        <v>68.30000305175781</v>
       </c>
       <c r="F108">
-        <v>25.62368774414062</v>
+        <v>26.61062622070312</v>
       </c>
       <c r="G108">
-        <v>24.54696655273438</v>
+        <v>25.8843994140625</v>
       </c>
       <c r="H108">
-        <v>-53.10160827636719</v>
+        <v>-51.56611633300781</v>
       </c>
       <c r="I108">
-        <v>37.80696487426758</v>
+        <v>46.00886917114258</v>
       </c>
       <c r="J108">
-        <v>96500.5859375</v>
+        <v>96392.6171875</v>
       </c>
       <c r="K108">
-        <v>23.20000076293945</v>
+        <v>47</v>
       </c>
       <c r="L108">
-        <v>2.528088331222534</v>
+        <v>-1.643945217132568</v>
       </c>
       <c r="M108">
-        <v>-7.0719895362854</v>
+        <v>-2.295366048812866</v>
       </c>
       <c r="N108">
-        <v>12.30140686035156</v>
+        <v>7.400412082672119</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5245,7 +5245,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1702468800</v>
+        <v>1703160000</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
@@ -5254,34 +5254,34 @@
         <v>33</v>
       </c>
       <c r="E109">
-        <v>69.80000305175781</v>
+        <v>69.70000457763672</v>
       </c>
       <c r="F109">
-        <v>24.76348876953125</v>
+        <v>26.3787841796875</v>
       </c>
       <c r="G109">
-        <v>23.57998657226562</v>
+        <v>25.3240966796875</v>
       </c>
       <c r="H109">
-        <v>-50.48451232910156</v>
+        <v>-55.36260986328125</v>
       </c>
       <c r="I109">
-        <v>35.26414108276367</v>
+        <v>46.31155395507812</v>
       </c>
       <c r="J109">
-        <v>96631.2578125</v>
+        <v>96564.8984375</v>
       </c>
       <c r="K109">
-        <v>15.10000038146973</v>
+        <v>100</v>
       </c>
       <c r="L109">
-        <v>2.800554037094116</v>
+        <v>-1.819780230522156</v>
       </c>
       <c r="M109">
-        <v>-6.510805606842041</v>
+        <v>-2.857824563980103</v>
       </c>
       <c r="N109">
-        <v>11.00051307678223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5289,7 +5289,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1702479600</v>
+        <v>1703170800</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -5298,34 +5298,34 @@
         <v>34</v>
       </c>
       <c r="E110">
-        <v>34.70000076293945</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="F110">
-        <v>30.54110717773438</v>
+        <v>30.94009399414062</v>
       </c>
       <c r="G110">
-        <v>27.96432495117188</v>
+        <v>28.4410400390625</v>
       </c>
       <c r="H110">
-        <v>-49.51809692382812</v>
+        <v>-57.42770385742188</v>
       </c>
       <c r="I110">
-        <v>33.22998809814453</v>
+        <v>46.82949829101562</v>
       </c>
       <c r="J110">
-        <v>96722.75</v>
+        <v>96677.1796875</v>
       </c>
       <c r="K110">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L110">
-        <v>0.1845458894968033</v>
+        <v>-3.949252843856812</v>
       </c>
       <c r="M110">
-        <v>-7.059450626373291</v>
+        <v>-3.0455322265625</v>
       </c>
       <c r="N110">
-        <v>7.703129768371582</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5333,7 +5333,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1702490400</v>
+        <v>1703181600</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
@@ -5342,34 +5342,34 @@
         <v>35</v>
       </c>
       <c r="E111">
-        <v>21.30000114440918</v>
+        <v>35.90000152587891</v>
       </c>
       <c r="F111">
-        <v>35.34640502929688</v>
+        <v>35.44012451171875</v>
       </c>
       <c r="G111">
-        <v>32.39837646484375</v>
+        <v>32.70751953125</v>
       </c>
       <c r="H111">
-        <v>-45.8990478515625</v>
+        <v>-60.36927795410156</v>
       </c>
       <c r="I111">
-        <v>29.78899002075195</v>
+        <v>46.13814926147461</v>
       </c>
       <c r="J111">
-        <v>96505.96875</v>
+        <v>96426.3515625</v>
       </c>
       <c r="K111">
-        <v>5</v>
+        <v>64.30000305175781</v>
       </c>
       <c r="L111">
-        <v>-0.4248950183391571</v>
+        <v>-3.058117628097534</v>
       </c>
       <c r="M111">
-        <v>-5.432907581329346</v>
+        <v>-2.786227941513062</v>
       </c>
       <c r="N111">
-        <v>6.114697456359863</v>
+        <v>4.724020481109619</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5377,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1702501200</v>
+        <v>1703192400</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
@@ -5386,34 +5386,34 @@
         <v>36</v>
       </c>
       <c r="E112">
-        <v>17.70000076293945</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="F112">
-        <v>37.38607788085938</v>
+        <v>36.39053344726562</v>
       </c>
       <c r="G112">
-        <v>35.01483154296875</v>
+        <v>34.80999755859375</v>
       </c>
       <c r="H112">
-        <v>-38.84896850585938</v>
+        <v>-62.36506652832031</v>
       </c>
       <c r="I112">
-        <v>28.7750358581543</v>
+        <v>43.67710113525391</v>
       </c>
       <c r="J112">
-        <v>96176.0859375</v>
+        <v>96136.0625</v>
       </c>
       <c r="K112">
-        <v>23.89999961853027</v>
+        <v>92</v>
       </c>
       <c r="L112">
-        <v>-0.2752612233161926</v>
+        <v>-2.522541522979736</v>
       </c>
       <c r="M112">
-        <v>-4.762089729309082</v>
+        <v>-0.3379931449890137</v>
       </c>
       <c r="N112">
-        <v>5.60001277923584</v>
+        <v>4.600333213806152</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5421,7 +5421,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1702512000</v>
+        <v>1703203200</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -5430,34 +5430,34 @@
         <v>37</v>
       </c>
       <c r="E113">
-        <v>19.70000076293945</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="F113">
-        <v>35.34808349609375</v>
+        <v>35.77145385742188</v>
       </c>
       <c r="G113">
-        <v>35.6038818359375</v>
+        <v>35.37493896484375</v>
       </c>
       <c r="H113">
-        <v>-46.84036254882812</v>
+        <v>-66.00248718261719</v>
       </c>
       <c r="I113">
-        <v>29.60741806030273</v>
+        <v>42.85476303100586</v>
       </c>
       <c r="J113">
-        <v>96154.1640625</v>
+        <v>96141.9375</v>
       </c>
       <c r="K113">
-        <v>5</v>
+        <v>95.90000152587891</v>
       </c>
       <c r="L113">
-        <v>-1.544824242591858</v>
+        <v>-1.745895981788635</v>
       </c>
       <c r="M113">
-        <v>-3.445844650268555</v>
+        <v>-2.035634756088257</v>
       </c>
       <c r="N113">
-        <v>4.914941310882568</v>
+        <v>4.100045680999756</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5465,7 +5465,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1702522800</v>
+        <v>1703214000</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -5474,34 +5474,34 @@
         <v>30</v>
       </c>
       <c r="E114">
-        <v>29.20000076293945</v>
+        <v>42.90000152587891</v>
       </c>
       <c r="F114">
-        <v>32.73834228515625</v>
+        <v>32.41741943359375</v>
       </c>
       <c r="G114">
-        <v>32.68582153320312</v>
+        <v>31.53842163085938</v>
       </c>
       <c r="H114">
-        <v>-51.48680114746094</v>
+        <v>-66.52139282226562</v>
       </c>
       <c r="I114">
-        <v>34.31781768798828</v>
+        <v>46.23921585083008</v>
       </c>
       <c r="J114">
-        <v>96358.8359375</v>
+        <v>96440.765625</v>
       </c>
       <c r="K114">
-        <v>99.09999847412109</v>
+        <v>100</v>
       </c>
       <c r="L114">
-        <v>4.010195255279541</v>
+        <v>-4.268239498138428</v>
       </c>
       <c r="M114">
-        <v>-5.28948974609375</v>
+        <v>1.149821758270264</v>
       </c>
       <c r="N114">
-        <v>11.00067806243896</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5509,7 +5509,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1702533600</v>
+        <v>1703224800</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -5518,34 +5518,34 @@
         <v>31</v>
       </c>
       <c r="E115">
-        <v>60.40000152587891</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="F115">
-        <v>28.13339233398438</v>
+        <v>30.73739624023438</v>
       </c>
       <c r="G115">
-        <v>27.12576293945312</v>
+        <v>29.75302124023438</v>
       </c>
       <c r="H115">
-        <v>-49.37130737304688</v>
+        <v>-65.60711669921875</v>
       </c>
       <c r="I115">
-        <v>34.98800659179688</v>
+        <v>46.67550659179688</v>
       </c>
       <c r="J115">
-        <v>96351.0390625</v>
+        <v>96486.328125</v>
       </c>
       <c r="K115">
-        <v>5.400000095367432</v>
+        <v>100</v>
       </c>
       <c r="L115">
-        <v>3.497731924057007</v>
+        <v>0.5769116282463074</v>
       </c>
       <c r="M115">
-        <v>-8.110031127929688</v>
+        <v>-0.1693505793809891</v>
       </c>
       <c r="N115">
-        <v>12.200364112854</v>
+        <v>2.30108904838562</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5553,7 +5553,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1702544400</v>
+        <v>1703235600</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -5562,34 +5562,34 @@
         <v>32</v>
       </c>
       <c r="E116">
-        <v>72.59999847412109</v>
+        <v>51.40000152587891</v>
       </c>
       <c r="F116">
-        <v>25.32009887695312</v>
+        <v>29.94754028320312</v>
       </c>
       <c r="G116">
-        <v>24.17745971679688</v>
+        <v>29.150390625</v>
       </c>
       <c r="H116">
-        <v>-58.48457336425781</v>
+        <v>-61.72041320800781</v>
       </c>
       <c r="I116">
-        <v>36.97494125366211</v>
+        <v>46.54762649536133</v>
       </c>
       <c r="J116">
-        <v>96378.21875</v>
+        <v>96401.4296875</v>
       </c>
       <c r="K116">
-        <v>99.70000457763672</v>
+        <v>90.20000457763672</v>
       </c>
       <c r="L116">
-        <v>2.388857364654541</v>
+        <v>-2.723874568939209</v>
       </c>
       <c r="M116">
-        <v>-6.951574325561523</v>
+        <v>-2.414138078689575</v>
       </c>
       <c r="N116">
-        <v>12.00248241424561</v>
+        <v>6.200091361999512</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5597,7 +5597,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1702555200</v>
+        <v>1703246400</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -5606,34 +5606,34 @@
         <v>33</v>
       </c>
       <c r="E117">
-        <v>74.70000457763672</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="F117">
-        <v>24.67401123046875</v>
+        <v>28.44488525390625</v>
       </c>
       <c r="G117">
-        <v>23.42254638671875</v>
+        <v>27.44662475585938</v>
       </c>
       <c r="H117">
-        <v>-59.93194580078125</v>
+        <v>-58.31459045410156</v>
       </c>
       <c r="I117">
-        <v>38.44526672363281</v>
+        <v>46.38523483276367</v>
       </c>
       <c r="J117">
-        <v>96578.1953125</v>
+        <v>96584.3359375</v>
       </c>
       <c r="K117">
-        <v>76.59999847412109</v>
+        <v>51.60000228881836</v>
       </c>
       <c r="L117">
-        <v>3.753088235855103</v>
+        <v>-2.807805061340332</v>
       </c>
       <c r="M117">
-        <v>-7.084709167480469</v>
+        <v>-1.690546870231628</v>
       </c>
       <c r="N117">
-        <v>10.7006778717041</v>
+        <v>6.500341892242432</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5641,7 +5641,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1702566000</v>
+        <v>1703257200</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -5650,34 +5650,34 @@
         <v>34</v>
       </c>
       <c r="E118">
-        <v>51</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F118">
-        <v>30.121337890625</v>
+        <v>32.23898315429688</v>
       </c>
       <c r="G118">
-        <v>27.4688720703125</v>
+        <v>29.48831176757812</v>
       </c>
       <c r="H118">
-        <v>-54.85704040527344</v>
+        <v>-59.40609741210938</v>
       </c>
       <c r="I118">
-        <v>38.9429817199707</v>
+        <v>44.91270446777344</v>
       </c>
       <c r="J118">
-        <v>96665.6171875</v>
+        <v>96675.0625</v>
       </c>
       <c r="K118">
-        <v>12.10000038146973</v>
+        <v>5</v>
       </c>
       <c r="L118">
-        <v>-0.1831909120082855</v>
+        <v>-4.846628189086914</v>
       </c>
       <c r="M118">
-        <v>-6.861577033996582</v>
+        <v>-3.963054180145264</v>
       </c>
       <c r="N118">
-        <v>7.401378631591797</v>
+        <v>6.599999904632568</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5685,7 +5685,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1702576800</v>
+        <v>1703268000</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -5694,34 +5694,34 @@
         <v>35</v>
       </c>
       <c r="E119">
-        <v>34.60000228881836</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="F119">
-        <v>34.7669677734375</v>
+        <v>36.19473266601562</v>
       </c>
       <c r="G119">
-        <v>31.94302368164062</v>
+        <v>33.33633422851562</v>
       </c>
       <c r="H119">
-        <v>-54.99281311035156</v>
+        <v>-54.90046691894531</v>
       </c>
       <c r="I119">
-        <v>37.80546569824219</v>
+        <v>43.30939102172852</v>
       </c>
       <c r="J119">
-        <v>96427.890625</v>
+        <v>96429.2421875</v>
       </c>
       <c r="K119">
-        <v>5.300000190734863</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="L119">
-        <v>-1.577070236206055</v>
+        <v>-3.540026664733887</v>
       </c>
       <c r="M119">
-        <v>-4.173793792724609</v>
+        <v>-2.884792327880859</v>
       </c>
       <c r="N119">
-        <v>4.81439208984375</v>
+        <v>5.101466178894043</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5729,7 +5729,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1702587600</v>
+        <v>1703278800</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -5738,34 +5738,34 @@
         <v>36</v>
       </c>
       <c r="E120">
-        <v>26.20000076293945</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F120">
-        <v>37.02853393554688</v>
+        <v>38.41336059570312</v>
       </c>
       <c r="G120">
-        <v>34.87130737304688</v>
+        <v>36.0797119140625</v>
       </c>
       <c r="H120">
-        <v>-52.83740234375</v>
+        <v>-60.55471801757812</v>
       </c>
       <c r="I120">
-        <v>36.83833694458008</v>
+        <v>40.31094741821289</v>
       </c>
       <c r="J120">
-        <v>96093.0234375</v>
+        <v>96097.046875</v>
       </c>
       <c r="K120">
-        <v>15.30000019073486</v>
+        <v>12.90000057220459</v>
       </c>
       <c r="L120">
-        <v>-1.606450200080872</v>
+        <v>-2.485871553421021</v>
       </c>
       <c r="M120">
-        <v>-2.477131366729736</v>
+        <v>-3.087900400161743</v>
       </c>
       <c r="N120">
-        <v>3.913159132003784</v>
+        <v>4.599999904632568</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5773,7 +5773,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1702598400</v>
+        <v>1703289600</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -5782,34 +5782,34 @@
         <v>37</v>
       </c>
       <c r="E121">
-        <v>26.5</v>
+        <v>23.30000114440918</v>
       </c>
       <c r="F121">
-        <v>35.83615112304688</v>
+        <v>36.93350219726562</v>
       </c>
       <c r="G121">
-        <v>35.7633056640625</v>
+        <v>36.65206909179688</v>
       </c>
       <c r="H121">
-        <v>-52.91264343261719</v>
+        <v>-60.44131469726562</v>
       </c>
       <c r="I121">
-        <v>35.18529891967773</v>
+        <v>36.58537292480469</v>
       </c>
       <c r="J121">
-        <v>96054.3515625</v>
+        <v>96083.3046875</v>
       </c>
       <c r="K121">
-        <v>30.60000038146973</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L121">
-        <v>-1.116164565086365</v>
+        <v>-0.5112646222114563</v>
       </c>
       <c r="M121">
-        <v>0.1831298768520355</v>
+        <v>-3.985102415084839</v>
       </c>
       <c r="N121">
-        <v>1.399999976158142</v>
+        <v>5.205662250518799</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5817,7 +5817,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1702609200</v>
+        <v>1703300400</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -5826,34 +5826,34 @@
         <v>30</v>
       </c>
       <c r="E122">
-        <v>28.20000076293945</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="F122">
-        <v>34.37673950195312</v>
+        <v>34.38583374023438</v>
       </c>
       <c r="G122">
-        <v>33.6671142578125</v>
+        <v>35.37686157226562</v>
       </c>
       <c r="H122">
-        <v>-44.589111328125</v>
+        <v>-62.09178161621094</v>
       </c>
       <c r="I122">
-        <v>34.72793197631836</v>
+        <v>35.9389762878418</v>
       </c>
       <c r="J122">
-        <v>96199.0390625</v>
+        <v>96227.265625</v>
       </c>
       <c r="K122">
-        <v>100</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L122">
-        <v>5.105778694152832</v>
+        <v>0.6594530940055847</v>
       </c>
       <c r="M122">
-        <v>-4.148766994476318</v>
+        <v>-4.726586818695068</v>
       </c>
       <c r="N122">
-        <v>8.905971527099609</v>
+        <v>8.608599662780762</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5861,7 +5861,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1702620000</v>
+        <v>1703311200</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -5870,34 +5870,34 @@
         <v>31</v>
       </c>
       <c r="E123">
-        <v>44.70000076293945</v>
+        <v>31.30000114440918</v>
       </c>
       <c r="F123">
-        <v>29.63186645507812</v>
+        <v>33.3389892578125</v>
       </c>
       <c r="G123">
-        <v>28.74600219726562</v>
+        <v>32.83822631835938</v>
       </c>
       <c r="H123">
-        <v>-58.83091735839844</v>
+        <v>-59.81744384765625</v>
       </c>
       <c r="I123">
-        <v>36.14628982543945</v>
+        <v>39.13857269287109</v>
       </c>
       <c r="J123">
-        <v>96336.3046875</v>
+        <v>96337.3671875</v>
       </c>
       <c r="K123">
-        <v>31.39999961853027</v>
+        <v>100</v>
       </c>
       <c r="L123">
-        <v>2.465422391891479</v>
+        <v>4.475385665893555</v>
       </c>
       <c r="M123">
-        <v>-9.152461051940918</v>
+        <v>-3.158520460128784</v>
       </c>
       <c r="N123">
-        <v>12.70107841491699</v>
+        <v>6.007054328918457</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5905,7 +5905,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1702630800</v>
+        <v>1703322000</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -5914,34 +5914,34 @@
         <v>32</v>
       </c>
       <c r="E124">
-        <v>66.90000152587891</v>
+        <v>51.70000076293945</v>
       </c>
       <c r="F124">
-        <v>25.96524047851562</v>
+        <v>29.42236328125</v>
       </c>
       <c r="G124">
-        <v>24.82736206054688</v>
+        <v>28.7252197265625</v>
       </c>
       <c r="H124">
-        <v>-60.49996948242188</v>
+        <v>-57.67149353027344</v>
       </c>
       <c r="I124">
-        <v>37.09088516235352</v>
+        <v>40.65962600708008</v>
       </c>
       <c r="J124">
-        <v>96310.4765625</v>
+        <v>96267.2421875</v>
       </c>
       <c r="K124">
-        <v>54.60000228881836</v>
+        <v>91.59999847412109</v>
       </c>
       <c r="L124">
-        <v>3.221640586853027</v>
+        <v>3.371537923812866</v>
       </c>
       <c r="M124">
-        <v>-6.762509822845459</v>
+        <v>-3.376887083053589</v>
       </c>
       <c r="N124">
-        <v>11.80705451965332</v>
+        <v>7.013159275054932</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5949,7 +5949,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1702641600</v>
+        <v>1703332800</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -5958,34 +5958,34 @@
         <v>33</v>
       </c>
       <c r="E125">
-        <v>67.09999847412109</v>
+        <v>56.29999923706055</v>
       </c>
       <c r="F125">
-        <v>25.32778930664062</v>
+        <v>28.73553466796875</v>
       </c>
       <c r="G125">
-        <v>24.10098266601562</v>
+        <v>27.70632934570312</v>
       </c>
       <c r="H125">
-        <v>-53.40965270996094</v>
+        <v>-59.26380920410156</v>
       </c>
       <c r="I125">
-        <v>35.13257598876953</v>
+        <v>41.02738189697266</v>
       </c>
       <c r="J125">
-        <v>96513.390625</v>
+        <v>96481.6640625</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="L125">
-        <v>3.327275276184082</v>
+        <v>2.671538114547729</v>
       </c>
       <c r="M125">
-        <v>-6.92492151260376</v>
+        <v>-4.426791667938232</v>
       </c>
       <c r="N125">
-        <v>10.80532169342041</v>
+        <v>7.011653900146484</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5993,7 +5993,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1702652400</v>
+        <v>1703343600</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -6002,34 +6002,34 @@
         <v>34</v>
       </c>
       <c r="E126">
-        <v>43.60000228881836</v>
+        <v>41.10000228881836</v>
       </c>
       <c r="F126">
-        <v>30.95687866210938</v>
+        <v>33.28512573242188</v>
       </c>
       <c r="G126">
-        <v>28.15017700195312</v>
+        <v>30.99734497070312</v>
       </c>
       <c r="H126">
-        <v>-53.49720764160156</v>
+        <v>-52.68296813964844</v>
       </c>
       <c r="I126">
-        <v>33.05097961425781</v>
+        <v>40.79513168334961</v>
       </c>
       <c r="J126">
-        <v>96568.875</v>
+        <v>96515.0859375</v>
       </c>
       <c r="K126">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="L126">
-        <v>-0.4579077064990997</v>
+        <v>-3.101264476776123</v>
       </c>
       <c r="M126">
-        <v>-6.248017311096191</v>
+        <v>-2.496315956115723</v>
       </c>
       <c r="N126">
-        <v>7.101406097412109</v>
+        <v>3.914770841598511</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6037,7 +6037,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1702663200</v>
+        <v>1703354400</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -6046,34 +6046,34 @@
         <v>35</v>
       </c>
       <c r="E127">
-        <v>27.89999961853027</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="F127">
-        <v>35.97360229492188</v>
+        <v>36.81375122070312</v>
       </c>
       <c r="G127">
-        <v>33.01516723632812</v>
+        <v>34.53033447265625</v>
       </c>
       <c r="H127">
-        <v>-52.30137634277344</v>
+        <v>-59.47737121582031</v>
       </c>
       <c r="I127">
-        <v>30.92434692382812</v>
+        <v>39.41270065307617</v>
       </c>
       <c r="J127">
-        <v>96331.8359375</v>
+        <v>96249.734375</v>
       </c>
       <c r="K127">
-        <v>64.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L127">
-        <v>-1.422502398490906</v>
+        <v>-2.021467208862305</v>
       </c>
       <c r="M127">
-        <v>-4.826291561126709</v>
+        <v>0.0749218761920929</v>
       </c>
       <c r="N127">
-        <v>5.803431510925293</v>
+        <v>2.404586553573608</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6081,7 +6081,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1702674000</v>
+        <v>1703365200</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -6090,34 +6090,34 @@
         <v>36</v>
       </c>
       <c r="E128">
-        <v>21.20000076293945</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F128">
-        <v>38.30560302734375</v>
+        <v>38.95236206054688</v>
       </c>
       <c r="G128">
-        <v>35.99008178710938</v>
+        <v>37.09317016601562</v>
       </c>
       <c r="H128">
-        <v>-50.9664306640625</v>
+        <v>-59.3369140625</v>
       </c>
       <c r="I128">
-        <v>29.50232696533203</v>
+        <v>39.89316940307617</v>
       </c>
       <c r="J128">
-        <v>95992.2734375</v>
+        <v>95931.234375</v>
       </c>
       <c r="K128">
-        <v>98.30000305175781</v>
+        <v>94.20000457763672</v>
       </c>
       <c r="L128">
-        <v>-1.438313007354736</v>
+        <v>-0.3710302710533142</v>
       </c>
       <c r="M128">
-        <v>-3.511721134185791</v>
+        <v>0.5606347322463989</v>
       </c>
       <c r="N128">
-        <v>4.7034912109375</v>
+        <v>2.905920505523682</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6125,7 +6125,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1702684800</v>
+        <v>1703376000</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>37</v>
       </c>
       <c r="E129">
-        <v>21.10000038146973</v>
+        <v>28.30000114440918</v>
       </c>
       <c r="F129">
-        <v>36.599365234375</v>
+        <v>37.32504272460938</v>
       </c>
       <c r="G129">
-        <v>36.75787353515625</v>
+        <v>37.13018798828125</v>
       </c>
       <c r="H129">
-        <v>-41.45001220703125</v>
+        <v>-64.93803405761719</v>
       </c>
       <c r="I129">
-        <v>29.20735931396484</v>
+        <v>42.00531387329102</v>
       </c>
       <c r="J129">
-        <v>95996.3046875</v>
+        <v>95957.4375</v>
       </c>
       <c r="K129">
-        <v>83.40000152587891</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L129">
-        <v>-1.351787090301514</v>
+        <v>-1.253300786018372</v>
       </c>
       <c r="M129">
-        <v>-2.511684417724609</v>
+        <v>-1.792214274406433</v>
       </c>
       <c r="N129">
-        <v>3.600411653518677</v>
+        <v>2.90081787109375</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6169,7 +6169,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1702695600</v>
+        <v>1703386800</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -6178,34 +6178,34 @@
         <v>30</v>
       </c>
       <c r="E130">
-        <v>23.10000038146973</v>
+        <v>37.60000228881836</v>
       </c>
       <c r="F130">
-        <v>34.30517578125</v>
+        <v>33.80697631835938</v>
       </c>
       <c r="G130">
-        <v>35.39590454101562</v>
+        <v>33.3612060546875</v>
       </c>
       <c r="H130">
-        <v>-49.72712707519531</v>
+        <v>-68.23670959472656</v>
       </c>
       <c r="I130">
-        <v>26.83342361450195</v>
+        <v>41.09590911865234</v>
       </c>
       <c r="J130">
-        <v>96146.046875</v>
+        <v>96128.578125</v>
       </c>
       <c r="K130">
-        <v>39.70000076293945</v>
+        <v>99.5</v>
       </c>
       <c r="L130">
-        <v>-0.1064868122339249</v>
+        <v>-2.976357460021973</v>
       </c>
       <c r="M130">
-        <v>-3.586943387985229</v>
+        <v>2.804548263549805</v>
       </c>
       <c r="N130">
-        <v>4.10076904296875</v>
+        <v>6.905920505523682</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -55,9 +55,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>08/12/2023</t>
-  </si>
-  <si>
     <t>09/12/2023</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>24/12/2023</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>00:00</t>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1702004400</v>
+        <v>1702090800</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -546,34 +546,34 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>46.20000076293945</v>
+        <v>40.60000228881836</v>
       </c>
       <c r="F2">
-        <v>30.70184326171875</v>
+        <v>32.06515502929688</v>
       </c>
       <c r="G2">
-        <v>29.638671875</v>
+        <v>31.10882568359375</v>
       </c>
       <c r="H2">
-        <v>-69.266845703125</v>
+        <v>-68.99574279785156</v>
       </c>
       <c r="I2">
-        <v>33.9354133605957</v>
+        <v>39.22841262817383</v>
       </c>
       <c r="J2">
-        <v>96677.5703125</v>
+        <v>96634.578125</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>1.684072256088257</v>
+        <v>3.531301259994507</v>
       </c>
       <c r="M2">
-        <v>-6.774338245391846</v>
+        <v>-5.320107460021973</v>
       </c>
       <c r="N2">
-        <v>8.699999809265137</v>
+        <v>7.902198791503906</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1702015200</v>
+        <v>1702101600</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -590,34 +590,34 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>63.10000228881836</v>
+        <v>56.70000076293945</v>
       </c>
       <c r="F3">
-        <v>27.06561279296875</v>
+        <v>28.6744384765625</v>
       </c>
       <c r="G3">
-        <v>25.99105834960938</v>
+        <v>27.49990844726562</v>
       </c>
       <c r="H3">
-        <v>-68.32559204101562</v>
+        <v>-60.64088439941406</v>
       </c>
       <c r="I3">
-        <v>35.76157379150391</v>
+        <v>37.83125686645508</v>
       </c>
       <c r="J3">
-        <v>96625.578125</v>
+        <v>96565.8359375</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="L3">
-        <v>4.463698863983154</v>
+        <v>5.104091644287109</v>
       </c>
       <c r="M3">
-        <v>-6.981064319610596</v>
+        <v>-6.172433853149414</v>
       </c>
       <c r="N3">
-        <v>10.70089149475098</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1702026000</v>
+        <v>1702112400</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -634,34 +634,34 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>74.5</v>
+        <v>70.70000457763672</v>
       </c>
       <c r="F4">
-        <v>25.04129028320312</v>
+        <v>26.0733642578125</v>
       </c>
       <c r="G4">
-        <v>24.01553344726562</v>
+        <v>25.015869140625</v>
       </c>
       <c r="H4">
-        <v>-68.26646423339844</v>
+        <v>-57.13613891601562</v>
       </c>
       <c r="I4">
-        <v>36.52966690063477</v>
+        <v>37.50629043579102</v>
       </c>
       <c r="J4">
-        <v>96669.7421875</v>
+        <v>96559.328125</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>98.20000457763672</v>
       </c>
       <c r="L4">
-        <v>2.948007822036743</v>
+        <v>1.70229971408844</v>
       </c>
       <c r="M4">
-        <v>-5.143144607543945</v>
+        <v>-5.730273246765137</v>
       </c>
       <c r="N4">
-        <v>9.513589859008789</v>
+        <v>8.600000381469727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1702036800</v>
+        <v>1702123200</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -678,34 +678,34 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>74.90000152587891</v>
+        <v>73.5</v>
       </c>
       <c r="F5">
-        <v>24.59085083007812</v>
+        <v>25.470947265625</v>
       </c>
       <c r="G5">
-        <v>23.32315063476562</v>
+        <v>24.13427734375</v>
       </c>
       <c r="H5">
-        <v>-68.97479248046875</v>
+        <v>-59.83578491210938</v>
       </c>
       <c r="I5">
-        <v>36.8270378112793</v>
+        <v>38.48696136474609</v>
       </c>
       <c r="J5">
-        <v>96873.2890625</v>
+        <v>96685.625</v>
       </c>
       <c r="K5">
-        <v>99.90000152587891</v>
+        <v>78.40000152587891</v>
       </c>
       <c r="L5">
-        <v>4.184096813201904</v>
+        <v>2.603994131088257</v>
       </c>
       <c r="M5">
-        <v>-5.053920745849609</v>
+        <v>-5.212861061096191</v>
       </c>
       <c r="N5">
-        <v>8.807929992675781</v>
+        <v>8.003387451171875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1702047600</v>
+        <v>1702134000</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -722,34 +722,34 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>47.70000076293945</v>
+        <v>48.29999923706055</v>
       </c>
       <c r="F6">
-        <v>30.6737060546875</v>
+        <v>31.32583618164062</v>
       </c>
       <c r="G6">
-        <v>27.7568359375</v>
+        <v>28.48361206054688</v>
       </c>
       <c r="H6">
-        <v>-69.28713989257812</v>
+        <v>-63.18373107910156</v>
       </c>
       <c r="I6">
-        <v>35.79609680175781</v>
+        <v>37.23963165283203</v>
       </c>
       <c r="J6">
-        <v>96943.7890625</v>
+        <v>96726.5234375</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="L6">
-        <v>1.778735280036926</v>
+        <v>1.473896503448486</v>
       </c>
       <c r="M6">
-        <v>-6.033315181732178</v>
+        <v>-5.514975547790527</v>
       </c>
       <c r="N6">
-        <v>6.601629734039307</v>
+        <v>6.012693881988525</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1702058400</v>
+        <v>1702144800</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -766,34 +766,34 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>32.29999923706055</v>
+        <v>32.5</v>
       </c>
       <c r="F7">
-        <v>35.26834106445312</v>
+        <v>36.10003662109375</v>
       </c>
       <c r="G7">
-        <v>32.55191040039062</v>
+        <v>33.23373413085938</v>
       </c>
       <c r="H7">
-        <v>-71.552490234375</v>
+        <v>-61.82572937011719</v>
       </c>
       <c r="I7">
-        <v>35.09778213500977</v>
+        <v>37.25754547119141</v>
       </c>
       <c r="J7">
-        <v>96716.0546875</v>
+        <v>96471.4921875</v>
       </c>
       <c r="K7">
-        <v>74.09999847412109</v>
+        <v>51.60000228881836</v>
       </c>
       <c r="L7">
-        <v>1.301254868507385</v>
+        <v>1.258107900619507</v>
       </c>
       <c r="M7">
-        <v>-3.163613319396973</v>
+        <v>-3.506777286529541</v>
       </c>
       <c r="N7">
-        <v>2.607372999191284</v>
+        <v>3.905539035797119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1702069200</v>
+        <v>1702155600</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -810,34 +810,34 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>26.10000038146973</v>
+        <v>35.60000228881836</v>
       </c>
       <c r="F8">
-        <v>36.5714111328125</v>
+        <v>34.5008544921875</v>
       </c>
       <c r="G8">
-        <v>34.69778442382812</v>
+        <v>32.95236206054688</v>
       </c>
       <c r="H8">
-        <v>-70.17047119140625</v>
+        <v>-57.25811767578125</v>
       </c>
       <c r="I8">
-        <v>32.77964782714844</v>
+        <v>41.05585861206055</v>
       </c>
       <c r="J8">
-        <v>96423.4921875</v>
+        <v>96231.3359375</v>
       </c>
       <c r="K8">
-        <v>99.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>1.147939443588257</v>
+        <v>7.018532752990723</v>
       </c>
       <c r="M8">
-        <v>-2.821872472763062</v>
+        <v>3.468234777450562</v>
       </c>
       <c r="N8">
-        <v>2.108264684677124</v>
+        <v>7.002587795257568</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1702080000</v>
+        <v>1702166400</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -854,34 +854,34 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>35.29999923706055</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F9">
-        <v>33.29696655273438</v>
+        <v>34.00173950195312</v>
       </c>
       <c r="G9">
-        <v>32.71658325195312</v>
+        <v>34.12310791015625</v>
       </c>
       <c r="H9">
-        <v>-64.005615234375</v>
+        <v>-57.80886840820312</v>
       </c>
       <c r="I9">
-        <v>34.54011917114258</v>
+        <v>40.94907379150391</v>
       </c>
       <c r="J9">
-        <v>96471.0390625</v>
+        <v>96252.1953125</v>
       </c>
       <c r="K9">
-        <v>93.09999847412109</v>
+        <v>99.09999847412109</v>
       </c>
       <c r="L9">
-        <v>4.534838676452637</v>
+        <v>0.9447924494743347</v>
       </c>
       <c r="M9">
-        <v>-5.880746841430664</v>
+        <v>2.121401309967041</v>
       </c>
       <c r="N9">
-        <v>10.00279426574707</v>
+        <v>2.707048892974854</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1702090800</v>
+        <v>1702177200</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -898,34 +898,34 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>43.20000076293945</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="F10">
-        <v>30.92257690429688</v>
+        <v>32.74301147460938</v>
       </c>
       <c r="G10">
-        <v>30.6656494140625</v>
+        <v>32.281005859375</v>
       </c>
       <c r="H10">
-        <v>-64.99945068359375</v>
+        <v>-61.76716613769531</v>
       </c>
       <c r="I10">
-        <v>31.89371871948242</v>
+        <v>39.64955520629883</v>
       </c>
       <c r="J10">
-        <v>96590.9140625</v>
+        <v>96517.2890625</v>
       </c>
       <c r="K10">
-        <v>76.59999847412109</v>
+        <v>94.70000457763672</v>
       </c>
       <c r="L10">
-        <v>3.430466175079346</v>
+        <v>3.335214853286743</v>
       </c>
       <c r="M10">
-        <v>-4.339943885803223</v>
+        <v>-5.462316989898682</v>
       </c>
       <c r="N10">
-        <v>9.913500785827637</v>
+        <v>9.502570152282715</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1702101600</v>
+        <v>1702188000</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -942,34 +942,34 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>60.79999923706055</v>
+        <v>57.60000228881836</v>
       </c>
       <c r="F11">
-        <v>27.25906372070312</v>
+        <v>28.23379516601562</v>
       </c>
       <c r="G11">
-        <v>26.43423461914062</v>
+        <v>27.30911254882812</v>
       </c>
       <c r="H11">
-        <v>-60.45773315429688</v>
+        <v>-56.04293823242188</v>
       </c>
       <c r="I11">
-        <v>36.16414260864258</v>
+        <v>41.82345962524414</v>
       </c>
       <c r="J11">
-        <v>96617.3515625</v>
+        <v>96584.9765625</v>
       </c>
       <c r="K11">
-        <v>59.5</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="L11">
-        <v>3.070627450942993</v>
+        <v>3.085888624191284</v>
       </c>
       <c r="M11">
-        <v>-6.162981033325195</v>
+        <v>-7.391650199890137</v>
       </c>
       <c r="N11">
-        <v>11.10000038146973</v>
+        <v>11.31185722351074</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1702112400</v>
+        <v>1702198800</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -986,34 +986,34 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>74.30000305175781</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="F12">
-        <v>25.04937744140625</v>
+        <v>25.34738159179688</v>
       </c>
       <c r="G12">
-        <v>24.10287475585938</v>
+        <v>24.35726928710938</v>
       </c>
       <c r="H12">
-        <v>-57.87107849121094</v>
+        <v>-53.60923767089844</v>
       </c>
       <c r="I12">
-        <v>36.73674011230469</v>
+        <v>39.06221008300781</v>
       </c>
       <c r="J12">
-        <v>96575.4375</v>
+        <v>96595.6171875</v>
       </c>
       <c r="K12">
-        <v>99.90000152587891</v>
+        <v>20</v>
       </c>
       <c r="L12">
-        <v>1.350544452667236</v>
+        <v>1.528164029121399</v>
       </c>
       <c r="M12">
-        <v>-5.312914848327637</v>
+        <v>-6.419713973999023</v>
       </c>
       <c r="N12">
-        <v>9.616070747375488</v>
+        <v>10.19999980926514</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1702123200</v>
+        <v>1702209600</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1030,34 +1030,34 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>75.09999847412109</v>
+        <v>71.30000305175781</v>
       </c>
       <c r="F13">
-        <v>24.51129150390625</v>
+        <v>24.699951171875</v>
       </c>
       <c r="G13">
-        <v>23.26708984375</v>
+        <v>23.42410278320312</v>
       </c>
       <c r="H13">
-        <v>-56.34373474121094</v>
+        <v>-58.54983520507812</v>
       </c>
       <c r="I13">
-        <v>37.09453582763672</v>
+        <v>40.22984313964844</v>
       </c>
       <c r="J13">
-        <v>96713.1328125</v>
+        <v>96774.421875</v>
       </c>
       <c r="K13">
-        <v>57.90000152587891</v>
+        <v>4.5</v>
       </c>
       <c r="L13">
-        <v>1.83230459690094</v>
+        <v>3.395370960235596</v>
       </c>
       <c r="M13">
-        <v>-5.784016132354736</v>
+        <v>-6.6080002784729</v>
       </c>
       <c r="N13">
-        <v>9.206877708435059</v>
+        <v>10.20361328125</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1702134000</v>
+        <v>1702220400</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1074,34 +1074,34 @@
         <v>34</v>
       </c>
       <c r="E14">
-        <v>47.79999923706055</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="F14">
-        <v>30.8553466796875</v>
+        <v>30.48477172851562</v>
       </c>
       <c r="G14">
-        <v>27.90673828125</v>
+        <v>27.53787231445312</v>
       </c>
       <c r="H14">
-        <v>-53.06892395019531</v>
+        <v>-63.14753723144531</v>
       </c>
       <c r="I14">
-        <v>36.79898834228516</v>
+        <v>36.33356857299805</v>
       </c>
       <c r="J14">
-        <v>96765.4609375</v>
+        <v>96803.1328125</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="L14">
-        <v>0.4501928687095642</v>
+        <v>2.843291044235229</v>
       </c>
       <c r="M14">
-        <v>-6.403998851776123</v>
+        <v>-7.354968070983887</v>
       </c>
       <c r="N14">
-        <v>6.812155246734619</v>
+        <v>8.605625152587891</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1702144800</v>
+        <v>1702231200</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1118,34 +1118,34 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>32.10000228881836</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="F15">
-        <v>36.10723876953125</v>
+        <v>35.76779174804688</v>
       </c>
       <c r="G15">
-        <v>33.0572509765625</v>
+        <v>32.28585815429688</v>
       </c>
       <c r="H15">
-        <v>-69.99626159667969</v>
+        <v>-66.60920715332031</v>
       </c>
       <c r="I15">
-        <v>35.87361907958984</v>
+        <v>33.03173446655273</v>
       </c>
       <c r="J15">
-        <v>96512.5625</v>
+        <v>96512.2265625</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="L15">
-        <v>0.7858325242996216</v>
+        <v>1.428774356842041</v>
       </c>
       <c r="M15">
-        <v>-4.520368576049805</v>
+        <v>-6.480019569396973</v>
       </c>
       <c r="N15">
-        <v>4.206168651580811</v>
+        <v>6.40487813949585</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1153,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1702155600</v>
+        <v>1702242000</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1162,34 +1162,34 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <v>22.5</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F16">
-        <v>38.47698974609375</v>
+        <v>36.93270874023438</v>
       </c>
       <c r="G16">
-        <v>36.320068359375</v>
+        <v>34.73919677734375</v>
       </c>
       <c r="H16">
-        <v>-65.86708068847656</v>
+        <v>-67.63201904296875</v>
       </c>
       <c r="I16">
-        <v>34.65211486816406</v>
+        <v>33.14008712768555</v>
       </c>
       <c r="J16">
-        <v>96155.1484375</v>
+        <v>96185.0390625</v>
       </c>
       <c r="K16">
-        <v>70.09999847412109</v>
+        <v>60.60000228881836</v>
       </c>
       <c r="L16">
-        <v>0.7296459674835205</v>
+        <v>-0.4349658191204071</v>
       </c>
       <c r="M16">
-        <v>-2.362795352935791</v>
+        <v>-4.973696231842041</v>
       </c>
       <c r="N16">
-        <v>4.502350807189941</v>
+        <v>6.200135707855225</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1702166400</v>
+        <v>1702252800</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1206,34 +1206,34 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>27.80000114440918</v>
+        <v>24.30000114440918</v>
       </c>
       <c r="F17">
-        <v>35.31591796875</v>
+        <v>35.44119262695312</v>
       </c>
       <c r="G17">
-        <v>35.55288696289062</v>
+        <v>35.31466674804688</v>
       </c>
       <c r="H17">
-        <v>-61.86700439453125</v>
+        <v>-67.73574829101562</v>
       </c>
       <c r="I17">
-        <v>33.90030670166016</v>
+        <v>29.48227691650391</v>
       </c>
       <c r="J17">
-        <v>96218.8671875</v>
+        <v>96126.1484375</v>
       </c>
       <c r="K17">
-        <v>88.30000305175781</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="L17">
-        <v>1.425786137580872</v>
+        <v>-0.3203930556774139</v>
       </c>
       <c r="M17">
-        <v>1.94351065158844</v>
+        <v>-5.321088790893555</v>
       </c>
       <c r="N17">
-        <v>2.906597852706909</v>
+        <v>8.000361442565918</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1241,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1702177200</v>
+        <v>1702263600</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1250,34 +1250,34 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>36.40000152587891</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="F18">
-        <v>32.23916625976562</v>
+        <v>31.14508056640625</v>
       </c>
       <c r="G18">
-        <v>31.6494140625</v>
+        <v>30.58779907226562</v>
       </c>
       <c r="H18">
-        <v>-60.21560668945312</v>
+        <v>-57.25105285644531</v>
       </c>
       <c r="I18">
-        <v>35.24269104003906</v>
+        <v>30.70534896850586</v>
       </c>
       <c r="J18">
-        <v>96506.015625</v>
+        <v>96448.6171875</v>
       </c>
       <c r="K18">
-        <v>92.59999847412109</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>5.872443675994873</v>
+        <v>1.702670812606812</v>
       </c>
       <c r="M18">
-        <v>-8.088740348815918</v>
+        <v>-9.645107269287109</v>
       </c>
       <c r="N18">
-        <v>14.60014057159424</v>
+        <v>13.61086940765381</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1702188000</v>
+        <v>1702274400</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1294,34 +1294,34 @@
         <v>31</v>
       </c>
       <c r="E19">
-        <v>62.79999923706055</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="F19">
-        <v>27.40084838867188</v>
+        <v>27.20632934570312</v>
       </c>
       <c r="G19">
-        <v>26.5341796875</v>
+        <v>26.3931884765625</v>
       </c>
       <c r="H19">
-        <v>-61.4888916015625</v>
+        <v>-49.82809448242188</v>
       </c>
       <c r="I19">
-        <v>39.55951309204102</v>
+        <v>32.95486450195312</v>
       </c>
       <c r="J19">
-        <v>96625.6640625</v>
+        <v>96536.046875</v>
       </c>
       <c r="K19">
-        <v>60.10000228881836</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2.111589193344116</v>
+        <v>0.3811865150928497</v>
       </c>
       <c r="M19">
-        <v>-7.356201171875</v>
+        <v>-9.20729923248291</v>
       </c>
       <c r="N19">
-        <v>11.41133403778076</v>
+        <v>13.31084632873535</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1702198800</v>
+        <v>1702285200</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1338,34 +1338,34 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>68.5</v>
+        <v>62.5</v>
       </c>
       <c r="F20">
-        <v>25.18670654296875</v>
+        <v>24.83059692382812</v>
       </c>
       <c r="G20">
-        <v>24.25692749023438</v>
+        <v>23.99575805664062</v>
       </c>
       <c r="H20">
-        <v>-67.14532470703125</v>
+        <v>-47.29830932617188</v>
       </c>
       <c r="I20">
-        <v>37.44435119628906</v>
+        <v>34.80149841308594</v>
       </c>
       <c r="J20">
-        <v>96590.5546875</v>
+        <v>96568.6328125</v>
       </c>
       <c r="K20">
-        <v>5.900000095367432</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="L20">
-        <v>3.044504404067993</v>
+        <v>3.070363759994507</v>
       </c>
       <c r="M20">
-        <v>-6.3282470703125</v>
+        <v>-5.884768009185791</v>
       </c>
       <c r="N20">
-        <v>11.2178316116333</v>
+        <v>10.50584125518799</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1373,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1702209600</v>
+        <v>1702296000</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1382,34 +1382,34 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>69</v>
+        <v>66.80000305175781</v>
       </c>
       <c r="F21">
-        <v>24.70965576171875</v>
+        <v>24.02496337890625</v>
       </c>
       <c r="G21">
-        <v>23.45840454101562</v>
+        <v>22.80294799804688</v>
       </c>
       <c r="H21">
-        <v>-58.10627746582031</v>
+        <v>-39.74996948242188</v>
       </c>
       <c r="I21">
-        <v>40.56877517700195</v>
+        <v>35.14969253540039</v>
       </c>
       <c r="J21">
-        <v>96760.546875</v>
+        <v>96766.3125</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3.851596593856812</v>
+        <v>4.792822360992432</v>
       </c>
       <c r="M21">
-        <v>-6.229748249053955</v>
+        <v>-5.801586627960205</v>
       </c>
       <c r="N21">
-        <v>10.80174541473389</v>
+        <v>10.01329326629639</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1702220400</v>
+        <v>1702306800</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1426,34 +1426,34 @@
         <v>34</v>
       </c>
       <c r="E22">
-        <v>48.40000152587891</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F22">
-        <v>30.36917114257812</v>
+        <v>30.2159423828125</v>
       </c>
       <c r="G22">
-        <v>27.42694091796875</v>
+        <v>27.23776245117188</v>
       </c>
       <c r="H22">
-        <v>-58.33625793457031</v>
+        <v>-35.64414978027344</v>
       </c>
       <c r="I22">
-        <v>37.27926254272461</v>
+        <v>31.78162956237793</v>
       </c>
       <c r="J22">
-        <v>96813.5390625</v>
+        <v>96844.3984375</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>17.39999961853027</v>
       </c>
       <c r="L22">
-        <v>1.505185484886169</v>
+        <v>0.3656249940395355</v>
       </c>
       <c r="M22">
-        <v>-7.22659158706665</v>
+        <v>-6.374509334564209</v>
       </c>
       <c r="N22">
-        <v>7.824463844299316</v>
+        <v>6.81373929977417</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1702231200</v>
+        <v>1702317600</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1470,34 +1470,34 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>29.80000114440918</v>
       </c>
       <c r="F23">
-        <v>35.640380859375</v>
+        <v>35.24172973632812</v>
       </c>
       <c r="G23">
-        <v>32.2783203125</v>
+        <v>32.0185546875</v>
       </c>
       <c r="H23">
-        <v>-59.98332214355469</v>
+        <v>-48.16426086425781</v>
       </c>
       <c r="I23">
-        <v>33.95700836181641</v>
+        <v>29.47793388366699</v>
       </c>
       <c r="J23">
-        <v>96522.8203125</v>
+        <v>96575.7109375</v>
       </c>
       <c r="K23">
-        <v>2.200000047683716</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.237753868103027</v>
+        <v>0.6200731992721558</v>
       </c>
       <c r="M23">
-        <v>-5.881012916564941</v>
+        <v>-5.168622970581055</v>
       </c>
       <c r="N23">
-        <v>5.916500568389893</v>
+        <v>5.100070953369141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1505,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1702242000</v>
+        <v>1702328400</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="E24">
-        <v>22.89999961853027</v>
+        <v>21.30000114440918</v>
       </c>
       <c r="F24">
-        <v>37.80313110351562</v>
+        <v>37.41738891601562</v>
       </c>
       <c r="G24">
-        <v>35.44912719726562</v>
+        <v>34.82501220703125</v>
       </c>
       <c r="H24">
-        <v>-55.96282958984375</v>
+        <v>-48.68074035644531</v>
       </c>
       <c r="I24">
-        <v>32.83429336547852</v>
+        <v>28.27888107299805</v>
       </c>
       <c r="J24">
-        <v>96144.1796875</v>
+        <v>96275.3984375</v>
       </c>
       <c r="K24">
-        <v>54.70000076293945</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="L24">
-        <v>-1.04412841796875</v>
+        <v>2.151389122009277</v>
       </c>
       <c r="M24">
-        <v>-3.784291982650757</v>
+        <v>-4.511337757110596</v>
       </c>
       <c r="N24">
-        <v>6.099999904632568</v>
+        <v>4.504233837127686</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1549,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1702252800</v>
+        <v>1702339200</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1558,34 +1558,34 @@
         <v>37</v>
       </c>
       <c r="E25">
-        <v>21.30000114440918</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="F25">
-        <v>36.10739135742188</v>
+        <v>34.47607421875</v>
       </c>
       <c r="G25">
-        <v>35.87423706054688</v>
+        <v>35.01156616210938</v>
       </c>
       <c r="H25">
-        <v>-52.07438659667969</v>
+        <v>-45.60723876953125</v>
       </c>
       <c r="I25">
-        <v>32.20888137817383</v>
+        <v>26.1145191192627</v>
       </c>
       <c r="J25">
-        <v>96143.6328125</v>
+        <v>96280.3125</v>
       </c>
       <c r="K25">
-        <v>85.59999847412109</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.528505802154541</v>
+        <v>2.832951545715332</v>
       </c>
       <c r="M25">
-        <v>-5.345510005950928</v>
+        <v>-2.618173837661743</v>
       </c>
       <c r="N25">
-        <v>8.718060493469238</v>
+        <v>4.500037670135498</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1702263600</v>
+        <v>1702350000</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1602,34 +1602,34 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>33.5</v>
+        <v>23.5</v>
       </c>
       <c r="F26">
-        <v>32.36514282226562</v>
+        <v>32.83145141601562</v>
       </c>
       <c r="G26">
-        <v>31.42959594726562</v>
+        <v>33.70089721679688</v>
       </c>
       <c r="H26">
-        <v>-51.33415222167969</v>
+        <v>-44.23280334472656</v>
       </c>
       <c r="I26">
-        <v>33.37704467773438</v>
+        <v>28.18459892272949</v>
       </c>
       <c r="J26">
-        <v>96448.9921875</v>
+        <v>96463.5390625</v>
       </c>
       <c r="K26">
-        <v>96</v>
+        <v>31.20000076293945</v>
       </c>
       <c r="L26">
-        <v>3.9114990234375</v>
+        <v>2.231259822845459</v>
       </c>
       <c r="M26">
-        <v>-8.138449668884277</v>
+        <v>-4.047214031219482</v>
       </c>
       <c r="N26">
-        <v>11.10671997070312</v>
+        <v>6.900000095367432</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1637,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1702274400</v>
+        <v>1702360800</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1646,34 +1646,34 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>62.10000228881836</v>
+        <v>58.10000228881836</v>
       </c>
       <c r="F27">
-        <v>26.82342529296875</v>
+        <v>27.48834228515625</v>
       </c>
       <c r="G27">
-        <v>25.85482788085938</v>
+        <v>26.70758056640625</v>
       </c>
       <c r="H27">
-        <v>-46.64167785644531</v>
+        <v>-44.96705627441406</v>
       </c>
       <c r="I27">
-        <v>36.03902053833008</v>
+        <v>34.62282562255859</v>
       </c>
       <c r="J27">
-        <v>96501.109375</v>
+        <v>96579.4140625</v>
       </c>
       <c r="K27">
-        <v>1.100000023841858</v>
+        <v>51</v>
       </c>
       <c r="L27">
-        <v>2.816909074783325</v>
+        <v>4.62747049331665</v>
       </c>
       <c r="M27">
-        <v>-8.538583755493164</v>
+        <v>-8.165200233459473</v>
       </c>
       <c r="N27">
-        <v>12.80391693115234</v>
+        <v>13.60000038146973</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1702285200</v>
+        <v>1702371600</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1690,34 +1690,34 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>72.5</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="F28">
-        <v>25.0263671875</v>
+        <v>25.2017822265625</v>
       </c>
       <c r="G28">
-        <v>23.99679565429688</v>
+        <v>24.34750366210938</v>
       </c>
       <c r="H28">
-        <v>-48.55218505859375</v>
+        <v>-46.66879272460938</v>
       </c>
       <c r="I28">
-        <v>35.9232063293457</v>
+        <v>33.3769416809082</v>
       </c>
       <c r="J28">
-        <v>96471.6875</v>
+        <v>96525.75</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>2.392255783081055</v>
+        <v>3.658969640731812</v>
       </c>
       <c r="M28">
-        <v>-6.987021446228027</v>
+        <v>-5.984133243560791</v>
       </c>
       <c r="N28">
-        <v>11.51102352142334</v>
+        <v>11.5009298324585</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1725,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1702296000</v>
+        <v>1702382400</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1734,34 +1734,34 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>77.30000305175781</v>
+        <v>67.5</v>
       </c>
       <c r="F29">
-        <v>23.99874877929688</v>
+        <v>24.77426147460938</v>
       </c>
       <c r="G29">
-        <v>22.73046875</v>
+        <v>23.573486328125</v>
       </c>
       <c r="H29">
-        <v>-50.93971252441406</v>
+        <v>-43.7491455078125</v>
       </c>
       <c r="I29">
-        <v>37.20486450195312</v>
+        <v>32.48795700073242</v>
       </c>
       <c r="J29">
-        <v>96676.6796875</v>
+        <v>96756.3671875</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="L29">
-        <v>3.894621610641479</v>
+        <v>2.961357355117798</v>
       </c>
       <c r="M29">
-        <v>-6.369675159454346</v>
+        <v>-5.465991020202637</v>
       </c>
       <c r="N29">
-        <v>10.10531044006348</v>
+        <v>9.81168270111084</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1702306800</v>
+        <v>1702393200</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1778,34 +1778,34 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>52.20000076293945</v>
+        <v>41.60000228881836</v>
       </c>
       <c r="F30">
-        <v>30.11111450195312</v>
+        <v>31.25509643554688</v>
       </c>
       <c r="G30">
-        <v>27.08892822265625</v>
+        <v>28.33453369140625</v>
       </c>
       <c r="H30">
-        <v>-51.46246337890625</v>
+        <v>-45.46452331542969</v>
       </c>
       <c r="I30">
-        <v>35.87633895874023</v>
+        <v>32.04167938232422</v>
       </c>
       <c r="J30">
-        <v>96763.7109375</v>
+        <v>96816.3359375</v>
       </c>
       <c r="K30">
-        <v>61.40000152587891</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.4848339855670929</v>
+        <v>-0.6937768459320068</v>
       </c>
       <c r="M30">
-        <v>-6.745217323303223</v>
+        <v>-5.975697994232178</v>
       </c>
       <c r="N30">
-        <v>7.208518505096436</v>
+        <v>6.530142307281494</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1702317600</v>
+        <v>1702404000</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1822,34 +1822,34 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>33.5</v>
+        <v>29.60000038146973</v>
       </c>
       <c r="F31">
-        <v>35.2335205078125</v>
+        <v>35.87384033203125</v>
       </c>
       <c r="G31">
-        <v>32.13095092773438</v>
+        <v>32.77645874023438</v>
       </c>
       <c r="H31">
-        <v>-53.54411315917969</v>
+        <v>-66.15728759765625</v>
       </c>
       <c r="I31">
-        <v>35.21121597290039</v>
+        <v>33.54410171508789</v>
       </c>
       <c r="J31">
-        <v>96528.3125</v>
+        <v>96577.375</v>
       </c>
       <c r="K31">
-        <v>95.30000305175781</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.1579394489526749</v>
+        <v>-0.2137133777141571</v>
       </c>
       <c r="M31">
-        <v>-4.75759744644165</v>
+        <v>-4.673642635345459</v>
       </c>
       <c r="N31">
-        <v>4.306445598602295</v>
+        <v>4.500180721282959</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1857,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1702328400</v>
+        <v>1702414800</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1866,34 +1866,34 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>24</v>
+        <v>20.80000114440918</v>
       </c>
       <c r="F32">
-        <v>37.0355224609375</v>
+        <v>38.24728393554688</v>
       </c>
       <c r="G32">
-        <v>35.10128784179688</v>
+        <v>35.60736083984375</v>
       </c>
       <c r="H32">
-        <v>-49.55583190917969</v>
+        <v>-65.14114379882812</v>
       </c>
       <c r="I32">
-        <v>34.82604217529297</v>
+        <v>32.74305725097656</v>
       </c>
       <c r="J32">
-        <v>96201.1953125</v>
+        <v>96265.9765625</v>
       </c>
       <c r="K32">
-        <v>92.90000152587891</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="L32">
-        <v>-0.1827368140220642</v>
+        <v>2.173295736312866</v>
       </c>
       <c r="M32">
-        <v>-3.308171272277832</v>
+        <v>-4.726233005523682</v>
       </c>
       <c r="N32">
-        <v>3.500076293945312</v>
+        <v>4.707246780395508</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1901,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1702339200</v>
+        <v>1702425600</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1910,34 +1910,34 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>27.70000076293945</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="F33">
-        <v>34.94140625</v>
+        <v>35.18844604492188</v>
       </c>
       <c r="G33">
-        <v>34.79458618164062</v>
+        <v>36.06817626953125</v>
       </c>
       <c r="H33">
-        <v>-52.26901245117188</v>
+        <v>-63.24983215332031</v>
       </c>
       <c r="I33">
-        <v>36.32673263549805</v>
+        <v>31.83968353271484</v>
       </c>
       <c r="J33">
-        <v>96241.21875</v>
+        <v>96285.0625</v>
       </c>
       <c r="K33">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="L33">
-        <v>-1.971672296524048</v>
+        <v>-0.8959326148033142</v>
       </c>
       <c r="M33">
-        <v>-5.428264141082764</v>
+        <v>-2.734633684158325</v>
       </c>
       <c r="N33">
-        <v>7.705479621887207</v>
+        <v>3.002343893051147</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1702350000</v>
+        <v>1702436400</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1954,34 +1954,34 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>37.90000152587891</v>
+        <v>29.80000114440918</v>
       </c>
       <c r="F34">
-        <v>31.807861328125</v>
+        <v>33.15496826171875</v>
       </c>
       <c r="G34">
-        <v>32.00723266601562</v>
+        <v>33.158447265625</v>
       </c>
       <c r="H34">
-        <v>-51.89138793945312</v>
+        <v>-62.04454040527344</v>
       </c>
       <c r="I34">
-        <v>38.74963760375977</v>
+        <v>34.80410766601562</v>
       </c>
       <c r="J34">
-        <v>96471.453125</v>
+        <v>96450.1875</v>
       </c>
       <c r="K34">
-        <v>96.80000305175781</v>
+        <v>46</v>
       </c>
       <c r="L34">
-        <v>-0.188852533698082</v>
+        <v>4.086484432220459</v>
       </c>
       <c r="M34">
-        <v>-3.177446126937866</v>
+        <v>-4.415966510772705</v>
       </c>
       <c r="N34">
-        <v>6.300000190734863</v>
+        <v>8.800082206726074</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1702360800</v>
+        <v>1702447200</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1998,34 +1998,34 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>54.20000076293945</v>
+        <v>56.10000228881836</v>
       </c>
       <c r="F35">
-        <v>28.23379516601562</v>
+        <v>28.24008178710938</v>
       </c>
       <c r="G35">
-        <v>27.53146362304688</v>
+        <v>27.41650390625</v>
       </c>
       <c r="H35">
-        <v>-51.34346008300781</v>
+        <v>-62.49473571777344</v>
       </c>
       <c r="I35">
-        <v>39.80049514770508</v>
+        <v>35.93148040771484</v>
       </c>
       <c r="J35">
-        <v>96561.8515625</v>
+        <v>96521.9921875</v>
       </c>
       <c r="K35">
-        <v>66.30000305175781</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="L35">
-        <v>3.274682521820068</v>
+        <v>3.091772317886353</v>
       </c>
       <c r="M35">
-        <v>-6.986406326293945</v>
+        <v>-9.284780502319336</v>
       </c>
       <c r="N35">
-        <v>11.70499324798584</v>
+        <v>13.60736083984375</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2033,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1702371600</v>
+        <v>1702458000</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -2042,34 +2042,34 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>64.40000152587891</v>
       </c>
       <c r="F36">
-        <v>25.38827514648438</v>
+        <v>25.26443481445312</v>
       </c>
       <c r="G36">
-        <v>24.60128784179688</v>
+        <v>24.3544921875</v>
       </c>
       <c r="H36">
-        <v>-54.59339904785156</v>
+        <v>-62.59744262695312</v>
       </c>
       <c r="I36">
-        <v>38.31965255737305</v>
+        <v>36.09277725219727</v>
       </c>
       <c r="J36">
-        <v>96525.53125</v>
+        <v>96550.578125</v>
       </c>
       <c r="K36">
-        <v>99.70000457763672</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="L36">
-        <v>3.428644895553589</v>
+        <v>3.104106426239014</v>
       </c>
       <c r="M36">
-        <v>-6.070324420928955</v>
+        <v>-5.700764179229736</v>
       </c>
       <c r="N36">
-        <v>11.30000019073486</v>
+        <v>11.00871658325195</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2077,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1702382400</v>
+        <v>1702468800</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -2086,34 +2086,34 @@
         <v>33</v>
       </c>
       <c r="E37">
-        <v>72.09999847412109</v>
+        <v>73</v>
       </c>
       <c r="F37">
-        <v>24.6544189453125</v>
+        <v>24.13299560546875</v>
       </c>
       <c r="G37">
-        <v>23.48855590820312</v>
+        <v>22.86264038085938</v>
       </c>
       <c r="H37">
-        <v>-57.30252075195312</v>
+        <v>-57.5230712890625</v>
       </c>
       <c r="I37">
-        <v>37.55289840698242</v>
+        <v>37.54476928710938</v>
       </c>
       <c r="J37">
-        <v>96717.5234375</v>
+        <v>96715.9453125</v>
       </c>
       <c r="K37">
-        <v>66.5</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="L37">
-        <v>3.646345138549805</v>
+        <v>4.112348556518555</v>
       </c>
       <c r="M37">
-        <v>-5.708310604095459</v>
+        <v>-5.784071922302246</v>
       </c>
       <c r="N37">
-        <v>9.60704231262207</v>
+        <v>9.71445369720459</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2121,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1702393200</v>
+        <v>1702479600</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2130,34 +2130,34 @@
         <v>34</v>
       </c>
       <c r="E38">
-        <v>43.40000152587891</v>
+        <v>46.60000228881836</v>
       </c>
       <c r="F38">
-        <v>30.9034423828125</v>
+        <v>30.15042114257812</v>
       </c>
       <c r="G38">
-        <v>28.03439331054688</v>
+        <v>27.21685791015625</v>
       </c>
       <c r="H38">
-        <v>-55.23214721679688</v>
+        <v>-56.78115844726562</v>
       </c>
       <c r="I38">
-        <v>36.57888412475586</v>
+        <v>36.45438766479492</v>
       </c>
       <c r="J38">
-        <v>96774.9765625</v>
+        <v>96768.2734375</v>
       </c>
       <c r="K38">
-        <v>9.800000190734863</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>0.3023803532123566</v>
+        <v>1.971306085586548</v>
       </c>
       <c r="M38">
-        <v>-6.069599628448486</v>
+        <v>-7.256425380706787</v>
       </c>
       <c r="N38">
-        <v>6.711193084716797</v>
+        <v>8.100642204284668</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1702404000</v>
+        <v>1702490400</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2174,34 +2174,34 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>28.89999961853027</v>
+        <v>29.5</v>
       </c>
       <c r="F39">
-        <v>35.843505859375</v>
+        <v>35.62930297851562</v>
       </c>
       <c r="G39">
-        <v>32.8280029296875</v>
+        <v>32.10183715820312</v>
       </c>
       <c r="H39">
-        <v>-62.472900390625</v>
+        <v>-55.50531005859375</v>
       </c>
       <c r="I39">
-        <v>34.36763763427734</v>
+        <v>35.3311653137207</v>
       </c>
       <c r="J39">
-        <v>96539.5625</v>
+        <v>96536.2265625</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>0.3015112280845642</v>
+        <v>1.599965810775757</v>
       </c>
       <c r="M39">
-        <v>-4.784482479095459</v>
+        <v>-6.623598575592041</v>
       </c>
       <c r="N39">
-        <v>5.099999904632568</v>
+        <v>6.91131591796875</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2209,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1702414800</v>
+        <v>1702501200</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2218,34 +2218,34 @@
         <v>36</v>
       </c>
       <c r="E40">
-        <v>22.10000038146973</v>
+        <v>28.5</v>
       </c>
       <c r="F40">
-        <v>38.13580322265625</v>
+        <v>36.63882446289062</v>
       </c>
       <c r="G40">
-        <v>35.87689208984375</v>
+        <v>34.3974609375</v>
       </c>
       <c r="H40">
-        <v>-64.88420104980469</v>
+        <v>-57.25752258300781</v>
       </c>
       <c r="I40">
-        <v>33.83990097045898</v>
+        <v>38.99871826171875</v>
       </c>
       <c r="J40">
-        <v>96208.0625</v>
+        <v>96212.890625</v>
       </c>
       <c r="K40">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L40">
-        <v>1.52581787109375</v>
+        <v>7.153771877288818</v>
       </c>
       <c r="M40">
-        <v>-3.150844573974609</v>
+        <v>-5.871188640594482</v>
       </c>
       <c r="N40">
-        <v>4.713241100311279</v>
+        <v>7.520390510559082</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2253,7 +2253,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1702425600</v>
+        <v>1702512000</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -2262,34 +2262,34 @@
         <v>37</v>
       </c>
       <c r="E41">
-        <v>23.5</v>
+        <v>38.60000228881836</v>
       </c>
       <c r="F41">
-        <v>36.04754638671875</v>
+        <v>32.60369873046875</v>
       </c>
       <c r="G41">
-        <v>36.6142578125</v>
+        <v>31.89132690429688</v>
       </c>
       <c r="H41">
-        <v>-68.91500854492188</v>
+        <v>-53.76744079589844</v>
       </c>
       <c r="I41">
-        <v>33.45241546630859</v>
+        <v>36.19167327880859</v>
       </c>
       <c r="J41">
-        <v>96203.2421875</v>
+        <v>96272.375</v>
       </c>
       <c r="K41">
-        <v>100</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="L41">
-        <v>0.9604101181030273</v>
+        <v>8.881198883056641</v>
       </c>
       <c r="M41">
-        <v>-3.309504270553589</v>
+        <v>-5.370370864868164</v>
       </c>
       <c r="N41">
-        <v>4.505841255187988</v>
+        <v>12.30642223358154</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2297,7 +2297,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1702436400</v>
+        <v>1702522800</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2306,34 +2306,34 @@
         <v>30</v>
       </c>
       <c r="E42">
-        <v>28.89999961853027</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="F42">
-        <v>33.34674072265625</v>
+        <v>29.21267700195312</v>
       </c>
       <c r="G42">
-        <v>33.5341796875</v>
+        <v>28.33856201171875</v>
       </c>
       <c r="H42">
-        <v>-60.379638671875</v>
+        <v>-56.12492370605469</v>
       </c>
       <c r="I42">
-        <v>37.10621643066406</v>
+        <v>40.40042495727539</v>
       </c>
       <c r="J42">
-        <v>96436.8203125</v>
+        <v>96560.6796875</v>
       </c>
       <c r="K42">
-        <v>100</v>
+        <v>43.20000076293945</v>
       </c>
       <c r="L42">
-        <v>1.654084444046021</v>
+        <v>6.383859634399414</v>
       </c>
       <c r="M42">
-        <v>-5.064106464385986</v>
+        <v>-9.25372314453125</v>
       </c>
       <c r="N42">
-        <v>9.501377105712891</v>
+        <v>14.62459468841553</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1702447200</v>
+        <v>1702533600</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2350,34 +2350,34 @@
         <v>31</v>
       </c>
       <c r="E43">
-        <v>59.70000076293945</v>
+        <v>63.70000076293945</v>
       </c>
       <c r="F43">
-        <v>28.04583740234375</v>
+        <v>26.18002319335938</v>
       </c>
       <c r="G43">
-        <v>26.92800903320312</v>
+        <v>25.29379272460938</v>
       </c>
       <c r="H43">
-        <v>-60.13215637207031</v>
+        <v>-53.96159362792969</v>
       </c>
       <c r="I43">
-        <v>38.93734741210938</v>
+        <v>37.8901481628418</v>
       </c>
       <c r="J43">
-        <v>96485.8125</v>
+        <v>96490.0546875</v>
       </c>
       <c r="K43">
-        <v>17.10000038146973</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="L43">
-        <v>4.454960823059082</v>
+        <v>6.168110370635986</v>
       </c>
       <c r="M43">
-        <v>-7.766298770904541</v>
+        <v>-6.671908855438232</v>
       </c>
       <c r="N43">
-        <v>13.4022798538208</v>
+        <v>13.91162872314453</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2385,7 +2385,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1702458000</v>
+        <v>1702544400</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -2394,34 +2394,34 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>73.70000457763672</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="F44">
-        <v>25.43710327148438</v>
+        <v>23.95382690429688</v>
       </c>
       <c r="G44">
-        <v>24.36593627929688</v>
+        <v>23.088134765625</v>
       </c>
       <c r="H44">
-        <v>-57.19432067871094</v>
+        <v>-51.526611328125</v>
       </c>
       <c r="I44">
-        <v>37.94715881347656</v>
+        <v>35.79741668701172</v>
       </c>
       <c r="J44">
-        <v>96480.4375</v>
+        <v>96472.8671875</v>
       </c>
       <c r="K44">
-        <v>43.79999923706055</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="L44">
-        <v>1.681528329849243</v>
+        <v>1.931616187095642</v>
       </c>
       <c r="M44">
-        <v>-7.039694786071777</v>
+        <v>-5.852375507354736</v>
       </c>
       <c r="N44">
-        <v>11.30328559875488</v>
+        <v>10.3095703125</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2429,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1702468800</v>
+        <v>1702555200</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -2438,34 +2438,34 @@
         <v>33</v>
       </c>
       <c r="E45">
-        <v>77.20000457763672</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="F45">
-        <v>24.40728759765625</v>
+        <v>23.00640869140625</v>
       </c>
       <c r="G45">
-        <v>23.0955810546875</v>
+        <v>21.77236938476562</v>
       </c>
       <c r="H45">
-        <v>-57.38299560546875</v>
+        <v>-49.69168090820312</v>
       </c>
       <c r="I45">
-        <v>37.98132705688477</v>
+        <v>31.92885780334473</v>
       </c>
       <c r="J45">
-        <v>96664.3046875</v>
+        <v>96685.671875</v>
       </c>
       <c r="K45">
-        <v>10.19999980926514</v>
+        <v>31.80000114440918</v>
       </c>
       <c r="L45">
-        <v>3.2080078125</v>
+        <v>3.050471067428589</v>
       </c>
       <c r="M45">
-        <v>-6.218613147735596</v>
+        <v>-4.921184062957764</v>
       </c>
       <c r="N45">
-        <v>9.5</v>
+        <v>9.20017147064209</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2473,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1702479600</v>
+        <v>1702566000</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -2482,34 +2482,34 @@
         <v>34</v>
       </c>
       <c r="E46">
-        <v>48.10000228881836</v>
+        <v>47.10000228881836</v>
       </c>
       <c r="F46">
-        <v>30.2989501953125</v>
+        <v>28.78115844726562</v>
       </c>
       <c r="G46">
-        <v>27.26113891601562</v>
+        <v>25.75689697265625</v>
       </c>
       <c r="H46">
-        <v>-57.44064331054688</v>
+        <v>-10.23455810546875</v>
       </c>
       <c r="I46">
-        <v>37.27113723754883</v>
+        <v>31.7263126373291</v>
       </c>
       <c r="J46">
-        <v>96747.4609375</v>
+        <v>96806.8359375</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L46">
-        <v>2.347805023193359</v>
+        <v>3.785073041915894</v>
       </c>
       <c r="M46">
-        <v>-6.129370212554932</v>
+        <v>-7.084457874298096</v>
       </c>
       <c r="N46">
-        <v>7.105332851409912</v>
+        <v>8.929953575134277</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2517,7 +2517,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1702490400</v>
+        <v>1702576800</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -2526,34 +2526,34 @@
         <v>35</v>
       </c>
       <c r="E47">
-        <v>31.30000114440918</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="F47">
-        <v>35.86090087890625</v>
+        <v>35.42446899414062</v>
       </c>
       <c r="G47">
-        <v>32.5723876953125</v>
+        <v>31.88031005859375</v>
       </c>
       <c r="H47">
-        <v>-55.17814636230469</v>
+        <v>-10.3167724609375</v>
       </c>
       <c r="I47">
-        <v>34.49505996704102</v>
+        <v>30.4695930480957</v>
       </c>
       <c r="J47">
-        <v>96482.8984375</v>
+        <v>96531.2734375</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>1.91995108127594</v>
+        <v>2.956984758377075</v>
       </c>
       <c r="M47">
-        <v>-5.514416217803955</v>
+        <v>-6.159916877746582</v>
       </c>
       <c r="N47">
-        <v>5.9005126953125</v>
+        <v>7.526318550109863</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2561,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1702501200</v>
+        <v>1702587600</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2570,34 +2570,34 @@
         <v>36</v>
       </c>
       <c r="E48">
-        <v>23.10000038146973</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="F48">
-        <v>38.62570190429688</v>
+        <v>38.1995849609375</v>
       </c>
       <c r="G48">
-        <v>36.01376342773438</v>
+        <v>35.38665771484375</v>
       </c>
       <c r="H48">
-        <v>-54.52000427246094</v>
+        <v>-56.16778564453125</v>
       </c>
       <c r="I48">
-        <v>35.37400436401367</v>
+        <v>28.79023933410645</v>
       </c>
       <c r="J48">
-        <v>96145.7265625</v>
+        <v>96175.8984375</v>
       </c>
       <c r="K48">
-        <v>37.20000076293945</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>3.131020545959473</v>
+        <v>3.944531202316284</v>
       </c>
       <c r="M48">
-        <v>-3.569770336151123</v>
+        <v>-5.094487190246582</v>
       </c>
       <c r="N48">
-        <v>5.200109958648682</v>
+        <v>6.804839611053467</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2605,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1702512000</v>
+        <v>1702598400</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2614,34 +2614,34 @@
         <v>37</v>
       </c>
       <c r="E49">
-        <v>22.10000038146973</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="F49">
-        <v>36.61074829101562</v>
+        <v>34.8009033203125</v>
       </c>
       <c r="G49">
-        <v>36.25094604492188</v>
+        <v>35.368408203125</v>
       </c>
       <c r="H49">
-        <v>-52.43955993652344</v>
+        <v>-61.06986999511719</v>
       </c>
       <c r="I49">
-        <v>34.08847045898438</v>
+        <v>26.76163101196289</v>
       </c>
       <c r="J49">
-        <v>96137.796875</v>
+        <v>96202.2109375</v>
       </c>
       <c r="K49">
-        <v>99.40000152587891</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>4.718134880065918</v>
+        <v>4.635610103607178</v>
       </c>
       <c r="M49">
-        <v>-1.966396450996399</v>
+        <v>-3.861122846603394</v>
       </c>
       <c r="N49">
-        <v>7.50951099395752</v>
+        <v>9.308279991149902</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2649,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1702522800</v>
+        <v>1702609200</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -2658,34 +2658,34 @@
         <v>30</v>
       </c>
       <c r="E50">
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="F50">
-        <v>33.2252197265625</v>
+        <v>30.77328491210938</v>
       </c>
       <c r="G50">
-        <v>32.25558471679688</v>
+        <v>30.67660522460938</v>
       </c>
       <c r="H50">
-        <v>-52.28041076660156</v>
+        <v>-60.22244262695312</v>
       </c>
       <c r="I50">
-        <v>36.02272796630859</v>
+        <v>27.62372970581055</v>
       </c>
       <c r="J50">
-        <v>96413.984375</v>
+        <v>96453.21875</v>
       </c>
       <c r="K50">
-        <v>83.40000152587891</v>
+        <v>50</v>
       </c>
       <c r="L50">
-        <v>4.07400369644165</v>
+        <v>5.360661506652832</v>
       </c>
       <c r="M50">
-        <v>-9.446037292480469</v>
+        <v>-7.386630535125732</v>
       </c>
       <c r="N50">
-        <v>12.30371284484863</v>
+        <v>15.10256958007812</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2693,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1702533600</v>
+        <v>1702620000</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -2702,34 +2702,34 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>47.40000152587891</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>27.224853515625</v>
+        <v>26.04953002929688</v>
       </c>
       <c r="G51">
-        <v>26.35592651367188</v>
+        <v>25.34918212890625</v>
       </c>
       <c r="H51">
-        <v>-53.13539123535156</v>
+        <v>-53.58857727050781</v>
       </c>
       <c r="I51">
-        <v>33.83084487915039</v>
+        <v>28.02834892272949</v>
       </c>
       <c r="J51">
-        <v>96438.578125</v>
+        <v>96466.2109375</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="L51">
-        <v>5.032414436340332</v>
+        <v>4.859213829040527</v>
       </c>
       <c r="M51">
-        <v>-7.554550647735596</v>
+        <v>-7.025951862335205</v>
       </c>
       <c r="N51">
-        <v>14.20407009124756</v>
+        <v>14.00443172454834</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2737,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1702544400</v>
+        <v>1702630800</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2746,34 +2746,34 @@
         <v>32</v>
       </c>
       <c r="E52">
-        <v>68.09999847412109</v>
+        <v>70.09999847412109</v>
       </c>
       <c r="F52">
-        <v>24.4844970703125</v>
+        <v>23.26226806640625</v>
       </c>
       <c r="G52">
-        <v>23.44326782226562</v>
+        <v>22.55859375</v>
       </c>
       <c r="H52">
-        <v>-53.03659057617188</v>
+        <v>-58.08967590332031</v>
       </c>
       <c r="I52">
-        <v>36.16192245483398</v>
+        <v>25.9424877166748</v>
       </c>
       <c r="J52">
-        <v>96497.1171875</v>
+        <v>96418.8125</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L52">
-        <v>2.294509172439575</v>
+        <v>4.330363750457764</v>
       </c>
       <c r="M52">
-        <v>-5.658530235290527</v>
+        <v>-6.189475059509277</v>
       </c>
       <c r="N52">
-        <v>10.0170431137085</v>
+        <v>13.2137975692749</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2781,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1702555200</v>
+        <v>1702641600</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -2790,34 +2790,34 @@
         <v>33</v>
       </c>
       <c r="E53">
-        <v>68.80000305175781</v>
+        <v>82.30000305175781</v>
       </c>
       <c r="F53">
-        <v>23.63385009765625</v>
+        <v>22.17684936523438</v>
       </c>
       <c r="G53">
-        <v>22.35595703125</v>
+        <v>20.96951293945312</v>
       </c>
       <c r="H53">
-        <v>-57.60166931152344</v>
+        <v>-46.63951110839844</v>
       </c>
       <c r="I53">
-        <v>33.88024139404297</v>
+        <v>26.34741401672363</v>
       </c>
       <c r="J53">
-        <v>96651.34375</v>
+        <v>96645.7265625</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="L53">
-        <v>2.321557521820068</v>
+        <v>4.255485534667969</v>
       </c>
       <c r="M53">
-        <v>-5.642775535583496</v>
+        <v>-5.423869609832764</v>
       </c>
       <c r="N53">
-        <v>9.330594062805176</v>
+        <v>10.72016620635986</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2825,7 +2825,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1702566000</v>
+        <v>1702652400</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -2834,34 +2834,34 @@
         <v>34</v>
       </c>
       <c r="E54">
-        <v>45.29999923706055</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="F54">
-        <v>29.23516845703125</v>
+        <v>29.3843994140625</v>
       </c>
       <c r="G54">
-        <v>26.24038696289062</v>
+        <v>26.39306640625</v>
       </c>
       <c r="H54">
-        <v>-57.31745910644531</v>
+        <v>-53.97224426269531</v>
       </c>
       <c r="I54">
-        <v>32.35649108886719</v>
+        <v>23.90606117248535</v>
       </c>
       <c r="J54">
-        <v>96757.7734375</v>
+        <v>96715.203125</v>
       </c>
       <c r="K54">
-        <v>88.59999847412109</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>2.446738243103027</v>
+        <v>3.901010751724243</v>
       </c>
       <c r="M54">
-        <v>-6.631259441375732</v>
+        <v>-7.19561243057251</v>
       </c>
       <c r="N54">
-        <v>7.723885536193848</v>
+        <v>9.400339126586914</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2869,7 +2869,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1702576800</v>
+        <v>1702663200</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -2878,34 +2878,34 @@
         <v>35</v>
       </c>
       <c r="E55">
-        <v>27.80000114440918</v>
+        <v>24</v>
       </c>
       <c r="F55">
-        <v>35.18182373046875</v>
+        <v>36.1192626953125</v>
       </c>
       <c r="G55">
-        <v>31.79525756835938</v>
+        <v>32.4705810546875</v>
       </c>
       <c r="H55">
-        <v>-47.09832763671875</v>
+        <v>-49.94908142089844</v>
       </c>
       <c r="I55">
-        <v>30.11248397827148</v>
+        <v>23.90812683105469</v>
       </c>
       <c r="J55">
-        <v>96463.1015625</v>
+        <v>96416.578125</v>
       </c>
       <c r="K55">
-        <v>0.4000000059604645</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1.508276343345642</v>
+        <v>2.279938936233521</v>
       </c>
       <c r="M55">
-        <v>-5.971923828125</v>
+        <v>-7.005654335021973</v>
       </c>
       <c r="N55">
-        <v>6.501434326171875</v>
+        <v>7.718835353851318</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2913,7 +2913,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1702587600</v>
+        <v>1702674000</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -2922,34 +2922,34 @@
         <v>36</v>
       </c>
       <c r="E56">
-        <v>22.70000076293945</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="F56">
-        <v>37.94509887695312</v>
+        <v>38.74185180664062</v>
       </c>
       <c r="G56">
-        <v>35.30279541015625</v>
+        <v>36.02609252929688</v>
       </c>
       <c r="H56">
-        <v>-54.66709899902344</v>
+        <v>-47.74809265136719</v>
       </c>
       <c r="I56">
-        <v>31.81548690795898</v>
+        <v>30.7625675201416</v>
       </c>
       <c r="J56">
-        <v>96132.8125</v>
+        <v>96125.21875</v>
       </c>
       <c r="K56">
-        <v>99.90000152587891</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>2.958789110183716</v>
+        <v>0.5148999094963074</v>
       </c>
       <c r="M56">
-        <v>-4.324772834777832</v>
+        <v>-5.586598873138428</v>
       </c>
       <c r="N56">
-        <v>5.809911251068115</v>
+        <v>7.516068458557129</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2957,7 +2957,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1702598400</v>
+        <v>1702684800</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -2966,34 +2966,34 @@
         <v>37</v>
       </c>
       <c r="E57">
-        <v>26.10000038146973</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="F57">
-        <v>34.82098388671875</v>
+        <v>34.56771850585938</v>
       </c>
       <c r="G57">
-        <v>34.64862060546875</v>
+        <v>33.7646484375</v>
       </c>
       <c r="H57">
-        <v>-52.05104064941406</v>
+        <v>-58.22914123535156</v>
       </c>
       <c r="I57">
-        <v>31.22552490234375</v>
+        <v>40.8935432434082</v>
       </c>
       <c r="J57">
-        <v>96190.28125</v>
+        <v>96275.5078125</v>
       </c>
       <c r="K57">
         <v>100</v>
       </c>
       <c r="L57">
-        <v>5.70159912109375</v>
+        <v>7.249953269958496</v>
       </c>
       <c r="M57">
-        <v>-1.129228472709656</v>
+        <v>-8.552756309509277</v>
       </c>
       <c r="N57">
-        <v>8.72777271270752</v>
+        <v>13.21584510803223</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1702609200</v>
+        <v>1702695600</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -3010,34 +3010,34 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>32.40000152587891</v>
+        <v>54.10000228881836</v>
       </c>
       <c r="F58">
-        <v>31.73025512695312</v>
+        <v>29.05267333984375</v>
       </c>
       <c r="G58">
-        <v>31.89443969726562</v>
+        <v>28.27838134765625</v>
       </c>
       <c r="H58">
-        <v>-58.73052978515625</v>
+        <v>-61.72055053710938</v>
       </c>
       <c r="I58">
-        <v>28.85135841369629</v>
+        <v>39.33863830566406</v>
       </c>
       <c r="J58">
-        <v>96370.390625</v>
+        <v>96517.5234375</v>
       </c>
       <c r="K58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>4.840805530548096</v>
+        <v>6.632514476776123</v>
       </c>
       <c r="M58">
-        <v>-4.002421855926514</v>
+        <v>-7.187204360961914</v>
       </c>
       <c r="N58">
-        <v>13.01932430267334</v>
+        <v>14.00001430511475</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3045,7 +3045,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1702620000</v>
+        <v>1702706400</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -3054,34 +3054,34 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>51.20000076293945</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F59">
-        <v>27.184326171875</v>
+        <v>26.90985107421875</v>
       </c>
       <c r="G59">
-        <v>26.27175903320312</v>
+        <v>26.21685791015625</v>
       </c>
       <c r="H59">
-        <v>-49.79534912109375</v>
+        <v>-47.30557250976562</v>
       </c>
       <c r="I59">
-        <v>30.25344276428223</v>
+        <v>35.41990661621094</v>
       </c>
       <c r="J59">
-        <v>96460.8203125</v>
+        <v>96470.140625</v>
       </c>
       <c r="K59">
-        <v>73.30000305175781</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>6.18264627456665</v>
+        <v>4.859858512878418</v>
       </c>
       <c r="M59">
-        <v>-6.450790882110596</v>
+        <v>-6.563095569610596</v>
       </c>
       <c r="N59">
-        <v>13.40000629425049</v>
+        <v>13.40570068359375</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3089,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1702630800</v>
+        <v>1702717200</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -3098,34 +3098,34 @@
         <v>32</v>
       </c>
       <c r="E60">
-        <v>65.59999847412109</v>
+        <v>71.70000457763672</v>
       </c>
       <c r="F60">
-        <v>24.36422729492188</v>
+        <v>24.72439575195312</v>
       </c>
       <c r="G60">
-        <v>23.41189575195312</v>
+        <v>23.94747924804688</v>
       </c>
       <c r="H60">
-        <v>-53.57096862792969</v>
+        <v>-46.13705444335938</v>
       </c>
       <c r="I60">
-        <v>29.78408622741699</v>
+        <v>35.73736953735352</v>
       </c>
       <c r="J60">
-        <v>96487.6484375</v>
+        <v>96468.75</v>
       </c>
       <c r="K60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3.804970502853394</v>
+        <v>3.364953517913818</v>
       </c>
       <c r="M60">
-        <v>-6.193244457244873</v>
+        <v>-5.526557445526123</v>
       </c>
       <c r="N60">
-        <v>11.70025634765625</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3133,7 +3133,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1702641600</v>
+        <v>1702728000</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -3142,34 +3142,34 @@
         <v>33</v>
       </c>
       <c r="E61">
-        <v>73.90000152587891</v>
+        <v>78.09999847412109</v>
       </c>
       <c r="F61">
-        <v>23.3123779296875</v>
+        <v>23.70993041992188</v>
       </c>
       <c r="G61">
-        <v>22.0672607421875</v>
+        <v>22.47702026367188</v>
       </c>
       <c r="H61">
-        <v>-53.13914489746094</v>
+        <v>-37.57522583007812</v>
       </c>
       <c r="I61">
-        <v>30.42599296569824</v>
+        <v>36.36293029785156</v>
       </c>
       <c r="J61">
-        <v>96654.515625</v>
+        <v>96688.890625</v>
       </c>
       <c r="K61">
-        <v>57.5</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="L61">
-        <v>3.194343090057373</v>
+        <v>3.011127948760986</v>
       </c>
       <c r="M61">
-        <v>-5.53350830078125</v>
+        <v>-5.786730766296387</v>
       </c>
       <c r="N61">
-        <v>9.90000057220459</v>
+        <v>10.10648155212402</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3177,7 +3177,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1702652400</v>
+        <v>1702738800</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -3186,34 +3186,34 @@
         <v>34</v>
       </c>
       <c r="E62">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="F62">
-        <v>28.50579833984375</v>
+        <v>28.23471069335938</v>
       </c>
       <c r="G62">
-        <v>25.54461669921875</v>
+        <v>25.22573852539062</v>
       </c>
       <c r="H62">
-        <v>-60.08229064941406</v>
+        <v>-42.00895690917969</v>
       </c>
       <c r="I62">
-        <v>30.85203742980957</v>
+        <v>35.27412414550781</v>
       </c>
       <c r="J62">
-        <v>96746.71875</v>
+        <v>96780.1328125</v>
       </c>
       <c r="K62">
-        <v>92</v>
+        <v>2.100000143051147</v>
       </c>
       <c r="L62">
-        <v>2.140878915786743</v>
+        <v>3.944050312042236</v>
       </c>
       <c r="M62">
-        <v>-6.826142311096191</v>
+        <v>-7.520956993103027</v>
       </c>
       <c r="N62">
-        <v>7.700341701507568</v>
+        <v>9.105484008789062</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3221,7 +3221,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1702663200</v>
+        <v>1702749600</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -3230,34 +3230,34 @@
         <v>35</v>
       </c>
       <c r="E63">
-        <v>35</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="F63">
-        <v>33.39239501953125</v>
+        <v>34.48171997070312</v>
       </c>
       <c r="G63">
-        <v>30.0606689453125</v>
+        <v>30.939208984375</v>
       </c>
       <c r="H63">
-        <v>-52.7841796875</v>
+        <v>-45.44419860839844</v>
       </c>
       <c r="I63">
-        <v>29.4131965637207</v>
+        <v>32.48304748535156</v>
       </c>
       <c r="J63">
-        <v>96521.6796875</v>
+        <v>96466.7421875</v>
       </c>
       <c r="K63">
-        <v>0.4000000059604645</v>
+        <v>70.5</v>
       </c>
       <c r="L63">
-        <v>1.38311767578125</v>
+        <v>2.282924652099609</v>
       </c>
       <c r="M63">
-        <v>-5.820353984832764</v>
+        <v>-6.263827800750732</v>
       </c>
       <c r="N63">
-        <v>6.424358367919922</v>
+        <v>6.711350440979004</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3265,7 +3265,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1702674000</v>
+        <v>1702760400</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -3274,34 +3274,34 @@
         <v>36</v>
       </c>
       <c r="E64">
-        <v>17</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="F64">
-        <v>38.06951904296875</v>
+        <v>37.340576171875</v>
       </c>
       <c r="G64">
-        <v>35.46282958984375</v>
+        <v>34.90692138671875</v>
       </c>
       <c r="H64">
-        <v>-53.20075988769531</v>
+        <v>-67.07818603515625</v>
       </c>
       <c r="I64">
-        <v>24.03525733947754</v>
+        <v>33.74217224121094</v>
       </c>
       <c r="J64">
-        <v>96165.375</v>
+        <v>96147.34375</v>
       </c>
       <c r="K64">
-        <v>4.599999904632568</v>
+        <v>91.90000152587891</v>
       </c>
       <c r="L64">
-        <v>3.450593233108521</v>
+        <v>0.533447265625</v>
       </c>
       <c r="M64">
-        <v>-3.745598077774048</v>
+        <v>-3.845744609832764</v>
       </c>
       <c r="N64">
-        <v>6.605920314788818</v>
+        <v>5.201577186584473</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3309,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1702684800</v>
+        <v>1702771200</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
@@ -3318,34 +3318,34 @@
         <v>37</v>
       </c>
       <c r="E65">
-        <v>18.70000076293945</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F65">
-        <v>34.79254150390625</v>
+        <v>35.10226440429688</v>
       </c>
       <c r="G65">
-        <v>35.91018676757812</v>
+        <v>34.6778564453125</v>
       </c>
       <c r="H65">
-        <v>-47.77049255371094</v>
+        <v>-66.74197387695312</v>
       </c>
       <c r="I65">
-        <v>24.58062362670898</v>
+        <v>37.19856643676758</v>
       </c>
       <c r="J65">
-        <v>96165.4375</v>
+        <v>96189.7109375</v>
       </c>
       <c r="K65">
-        <v>2.400000095367432</v>
+        <v>100</v>
       </c>
       <c r="L65">
-        <v>3.844963312149048</v>
+        <v>4.374015808105469</v>
       </c>
       <c r="M65">
-        <v>-2.676918983459473</v>
+        <v>-2.843769550323486</v>
       </c>
       <c r="N65">
-        <v>6.599999904632568</v>
+        <v>8.101152420043945</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3353,7 +3353,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1702695600</v>
+        <v>1702782000</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
@@ -3362,34 +3362,34 @@
         <v>30</v>
       </c>
       <c r="E66">
-        <v>46.29999923706055</v>
+        <v>35.10000228881836</v>
       </c>
       <c r="F66">
-        <v>30.2833251953125</v>
+        <v>31.87835693359375</v>
       </c>
       <c r="G66">
-        <v>29.84024047851562</v>
+        <v>32.1318359375</v>
       </c>
       <c r="H66">
-        <v>-61.28204345703125</v>
+        <v>-66.096923828125</v>
       </c>
       <c r="I66">
-        <v>32.10215377807617</v>
+        <v>33.08579254150391</v>
       </c>
       <c r="J66">
-        <v>96404.921875</v>
+        <v>96348.1953125</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L66">
-        <v>2.525043964385986</v>
+        <v>4.592897891998291</v>
       </c>
       <c r="M66">
-        <v>-8.838258743286133</v>
+        <v>-3.903078556060791</v>
       </c>
       <c r="N66">
-        <v>14.00289058685303</v>
+        <v>11.21725749969482</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3397,7 +3397,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1702706400</v>
+        <v>1702792800</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -3406,34 +3406,34 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>64.5</v>
+        <v>52.5</v>
       </c>
       <c r="F67">
-        <v>26.63189697265625</v>
+        <v>27.18853759765625</v>
       </c>
       <c r="G67">
-        <v>25.79531860351562</v>
+        <v>26.49954223632812</v>
       </c>
       <c r="H67">
-        <v>-49.25151062011719</v>
+        <v>-64.71408081054688</v>
       </c>
       <c r="I67">
-        <v>32.98154067993164</v>
+        <v>30.86597442626953</v>
       </c>
       <c r="J67">
-        <v>96447.9453125</v>
+        <v>96450.0234375</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L67">
-        <v>5.631386756896973</v>
+        <v>5.337167739868164</v>
       </c>
       <c r="M67">
-        <v>-7.024699687957764</v>
+        <v>-7.754704475402832</v>
       </c>
       <c r="N67">
-        <v>13.69999980926514</v>
+        <v>14.80406856536865</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3441,7 +3441,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1702717200</v>
+        <v>1702803600</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -3450,34 +3450,34 @@
         <v>32</v>
       </c>
       <c r="E68">
-        <v>75.80000305175781</v>
+        <v>70.80000305175781</v>
       </c>
       <c r="F68">
-        <v>24.45046997070312</v>
+        <v>24.18020629882812</v>
       </c>
       <c r="G68">
-        <v>23.55224609375</v>
+        <v>23.3720703125</v>
       </c>
       <c r="H68">
-        <v>-56.74574279785156</v>
+        <v>-63.67173767089844</v>
       </c>
       <c r="I68">
-        <v>33.30620574951172</v>
+        <v>35.33904266357422</v>
       </c>
       <c r="J68">
-        <v>96452.4609375</v>
+        <v>96538.7109375</v>
       </c>
       <c r="K68">
-        <v>0.1000000014901161</v>
+        <v>100</v>
       </c>
       <c r="L68">
-        <v>1.807451128959656</v>
+        <v>1.5789794921875</v>
       </c>
       <c r="M68">
-        <v>-6.402721881866455</v>
+        <v>-6.425825119018555</v>
       </c>
       <c r="N68">
-        <v>11.11930370330811</v>
+        <v>11.30430889129639</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3485,7 +3485,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1702728000</v>
+        <v>1702814400</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
@@ -3494,34 +3494,34 @@
         <v>33</v>
       </c>
       <c r="E69">
-        <v>76.40000152587891</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="F69">
-        <v>23.7398681640625</v>
+        <v>23.69137573242188</v>
       </c>
       <c r="G69">
-        <v>22.5511474609375</v>
+        <v>22.49371337890625</v>
       </c>
       <c r="H69">
-        <v>-39.14485168457031</v>
+        <v>-62.92253112792969</v>
       </c>
       <c r="I69">
-        <v>30.6801929473877</v>
+        <v>35.17353820800781</v>
       </c>
       <c r="J69">
-        <v>96614.203125</v>
+        <v>96664.5</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L69">
-        <v>2.861179113388062</v>
+        <v>3.838608264923096</v>
       </c>
       <c r="M69">
-        <v>-6.283498287200928</v>
+        <v>-6.693566799163818</v>
       </c>
       <c r="N69">
-        <v>10.61079883575439</v>
+        <v>11.40008068084717</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3529,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1702738800</v>
+        <v>1702825200</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
@@ -3538,34 +3538,34 @@
         <v>34</v>
       </c>
       <c r="E70">
-        <v>42.90000152587891</v>
+        <v>48.5</v>
       </c>
       <c r="F70">
-        <v>30.31710815429688</v>
+        <v>29.76336669921875</v>
       </c>
       <c r="G70">
-        <v>27.28326416015625</v>
+        <v>26.7369384765625</v>
       </c>
       <c r="H70">
-        <v>-38.78707885742188</v>
+        <v>-65.84710693359375</v>
       </c>
       <c r="I70">
-        <v>29.00018310546875</v>
+        <v>35.15436172485352</v>
       </c>
       <c r="J70">
-        <v>96680.6328125</v>
+        <v>96706.3046875</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>94.70000457763672</v>
       </c>
       <c r="L70">
-        <v>1.354455590248108</v>
+        <v>2.088415384292603</v>
       </c>
       <c r="M70">
-        <v>-6.664079666137695</v>
+        <v>-6.186899185180664</v>
       </c>
       <c r="N70">
-        <v>7.412693977355957</v>
+        <v>7.00930643081665</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3573,7 +3573,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1702749600</v>
+        <v>1702836000</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
@@ -3582,34 +3582,34 @@
         <v>35</v>
       </c>
       <c r="E71">
-        <v>27.5</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F71">
-        <v>35.69210815429688</v>
+        <v>34.82681274414062</v>
       </c>
       <c r="G71">
-        <v>32.40814208984375</v>
+        <v>31.69662475585938</v>
       </c>
       <c r="H71">
-        <v>-37.11561584472656</v>
+        <v>-68.59382629394531</v>
       </c>
       <c r="I71">
-        <v>26.40354347229004</v>
+        <v>35.69242095947266</v>
       </c>
       <c r="J71">
-        <v>96410.390625</v>
+        <v>96443.8515625</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>76.20000457763672</v>
       </c>
       <c r="L71">
-        <v>0.8667358160018921</v>
+        <v>2.038088321685791</v>
       </c>
       <c r="M71">
-        <v>-5.629306316375732</v>
+        <v>-4.249064922332764</v>
       </c>
       <c r="N71">
-        <v>5.700000286102295</v>
+        <v>4.104220390319824</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3617,7 +3617,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1702760400</v>
+        <v>1702846800</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -3626,34 +3626,34 @@
         <v>36</v>
       </c>
       <c r="E72">
-        <v>19.60000038146973</v>
+        <v>26.30000114440918</v>
       </c>
       <c r="F72">
-        <v>38.04269409179688</v>
+        <v>36.24240112304688</v>
       </c>
       <c r="G72">
-        <v>35.52926635742188</v>
+        <v>34.40066528320312</v>
       </c>
       <c r="H72">
-        <v>-31.63455200195312</v>
+        <v>-67.21791076660156</v>
       </c>
       <c r="I72">
-        <v>26.45493125915527</v>
+        <v>35.72706985473633</v>
       </c>
       <c r="J72">
-        <v>96099</v>
+        <v>96114.75</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L72">
-        <v>2.1005859375</v>
+        <v>-0.07925780862569809</v>
       </c>
       <c r="M72">
-        <v>-3.785432100296021</v>
+        <v>-2.407324075698853</v>
       </c>
       <c r="N72">
-        <v>5.100812435150146</v>
+        <v>3.60000467300415</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3661,7 +3661,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1702771200</v>
+        <v>1702857600</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -3670,34 +3670,34 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <v>20.60000038146973</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="F73">
-        <v>35.16650390625</v>
+        <v>33.1640625</v>
       </c>
       <c r="G73">
-        <v>36.10659790039062</v>
+        <v>34.025390625</v>
       </c>
       <c r="H73">
-        <v>-26.91357421875</v>
+        <v>-66.85682678222656</v>
       </c>
       <c r="I73">
-        <v>27.24397468566895</v>
+        <v>36.18461227416992</v>
       </c>
       <c r="J73">
-        <v>96118.1796875</v>
+        <v>96187.28125</v>
       </c>
       <c r="K73">
-        <v>62.90000152587891</v>
+        <v>72.09999847412109</v>
       </c>
       <c r="L73">
-        <v>1.279643535614014</v>
+        <v>-0.8400561213493347</v>
       </c>
       <c r="M73">
-        <v>-3.549960851669312</v>
+        <v>0.5331737995147705</v>
       </c>
       <c r="N73">
-        <v>4.708497524261475</v>
+        <v>2.500871419906616</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3705,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1702782000</v>
+        <v>1702868400</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -3714,34 +3714,34 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <v>39</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="F74">
-        <v>29.89608764648438</v>
+        <v>30.26144409179688</v>
       </c>
       <c r="G74">
-        <v>29.53582763671875</v>
+        <v>30.10330200195312</v>
       </c>
       <c r="H74">
-        <v>-32.0928955078125</v>
+        <v>-66.59133911132812</v>
       </c>
       <c r="I74">
-        <v>29.66337776184082</v>
+        <v>39.41594314575195</v>
       </c>
       <c r="J74">
-        <v>96404.8359375</v>
+        <v>96434.203125</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L74">
-        <v>3.024692296981812</v>
+        <v>6.166535377502441</v>
       </c>
       <c r="M74">
-        <v>-8.089726448059082</v>
+        <v>-5.949912071228027</v>
       </c>
       <c r="N74">
-        <v>14.10360431671143</v>
+        <v>12.91110897064209</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3749,7 +3749,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1702792800</v>
+        <v>1702879200</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -3758,34 +3758,34 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <v>58.70000076293945</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="F75">
-        <v>27.10104370117188</v>
+        <v>27.51614379882812</v>
       </c>
       <c r="G75">
-        <v>26.37548828125</v>
+        <v>27.08795166015625</v>
       </c>
       <c r="H75">
-        <v>-24.37174987792969</v>
+        <v>-67.271728515625</v>
       </c>
       <c r="I75">
-        <v>32.90180206298828</v>
+        <v>39.60673522949219</v>
       </c>
       <c r="J75">
-        <v>96533.0546875</v>
+        <v>96490.2109375</v>
       </c>
       <c r="K75">
-        <v>10.90000057220459</v>
+        <v>84.90000152587891</v>
       </c>
       <c r="L75">
-        <v>2.349650859832764</v>
+        <v>2.158801317214966</v>
       </c>
       <c r="M75">
-        <v>-7.812050819396973</v>
+        <v>-6.765473365783691</v>
       </c>
       <c r="N75">
-        <v>12.20070362091064</v>
+        <v>11.31171894073486</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3793,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1702803600</v>
+        <v>1702890000</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -3802,34 +3802,34 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <v>74.09999847412109</v>
+        <v>63.90000152587891</v>
       </c>
       <c r="F76">
-        <v>24.403076171875</v>
+        <v>25.00271606445312</v>
       </c>
       <c r="G76">
-        <v>23.49728393554688</v>
+        <v>24.35919189453125</v>
       </c>
       <c r="H76">
-        <v>-54.87094116210938</v>
+        <v>-62.11029052734375</v>
       </c>
       <c r="I76">
-        <v>33.39368057250977</v>
+        <v>41.93416595458984</v>
       </c>
       <c r="J76">
-        <v>96507.8984375</v>
+        <v>96480.6640625</v>
       </c>
       <c r="K76">
-        <v>6.900000095367432</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="L76">
-        <v>3.755903244018555</v>
+        <v>3.476672172546387</v>
       </c>
       <c r="M76">
-        <v>-6.560216903686523</v>
+        <v>-4.865576267242432</v>
       </c>
       <c r="N76">
-        <v>11.60170269012451</v>
+        <v>9.900703430175781</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3837,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1702814400</v>
+        <v>1702900800</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -3846,34 +3846,34 @@
         <v>33</v>
       </c>
       <c r="E77">
-        <v>73</v>
+        <v>73.70000457763672</v>
       </c>
       <c r="F77">
-        <v>24.50921630859375</v>
+        <v>23.7730712890625</v>
       </c>
       <c r="G77">
-        <v>23.27606201171875</v>
+        <v>22.6173095703125</v>
       </c>
       <c r="H77">
-        <v>-58.00656127929688</v>
+        <v>-60.80560302734375</v>
       </c>
       <c r="I77">
-        <v>33.54767608642578</v>
+        <v>42.97745895385742</v>
       </c>
       <c r="J77">
-        <v>96680.90625</v>
+        <v>96613.0859375</v>
       </c>
       <c r="K77">
-        <v>100</v>
+        <v>64.09999847412109</v>
       </c>
       <c r="L77">
-        <v>3.407167911529541</v>
+        <v>3.513022422790527</v>
       </c>
       <c r="M77">
-        <v>-6.802070140838623</v>
+        <v>-4.368811130523682</v>
       </c>
       <c r="N77">
-        <v>9.821268081665039</v>
+        <v>9.600053787231445</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3881,7 +3881,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1702825200</v>
+        <v>1702911600</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -3890,34 +3890,34 @@
         <v>34</v>
       </c>
       <c r="E78">
-        <v>46.70000076293945</v>
+        <v>48.40000152587891</v>
       </c>
       <c r="F78">
-        <v>30.38046264648438</v>
+        <v>29.68984985351562</v>
       </c>
       <c r="G78">
-        <v>27.54812622070312</v>
+        <v>26.80178833007812</v>
       </c>
       <c r="H78">
-        <v>-62.72416687011719</v>
+        <v>-60.40733337402344</v>
       </c>
       <c r="I78">
-        <v>32.71963500976562</v>
+        <v>43.69621658325195</v>
       </c>
       <c r="J78">
-        <v>96699.9609375</v>
+        <v>96696.8203125</v>
       </c>
       <c r="K78">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L78">
-        <v>1.907289981842041</v>
+        <v>1.962470650672913</v>
       </c>
       <c r="M78">
-        <v>-6.738054275512695</v>
+        <v>-6.555974006652832</v>
       </c>
       <c r="N78">
-        <v>7.822550296783447</v>
+        <v>7.30275297164917</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3925,7 +3925,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1702836000</v>
+        <v>1702922400</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -3934,34 +3934,34 @@
         <v>35</v>
       </c>
       <c r="E79">
-        <v>30.39999961853027</v>
+        <v>33.60000228881836</v>
       </c>
       <c r="F79">
-        <v>35.85049438476562</v>
+        <v>33.86868286132812</v>
       </c>
       <c r="G79">
-        <v>32.58062744140625</v>
+        <v>31.11135864257812</v>
       </c>
       <c r="H79">
-        <v>-63.48391723632812</v>
+        <v>-68.20594787597656</v>
       </c>
       <c r="I79">
-        <v>31.80534553527832</v>
+        <v>42.7200927734375</v>
       </c>
       <c r="J79">
-        <v>96383.46875</v>
+        <v>96458.2578125</v>
       </c>
       <c r="K79">
-        <v>96.20000457763672</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L79">
-        <v>0.0838330090045929</v>
+        <v>0.756787121295929</v>
       </c>
       <c r="M79">
-        <v>-5.308642387390137</v>
+        <v>-4.618872165679932</v>
       </c>
       <c r="N79">
-        <v>5.10945463180542</v>
+        <v>5.305184841156006</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3969,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1702846800</v>
+        <v>1702933200</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -3978,34 +3978,34 @@
         <v>36</v>
       </c>
       <c r="E80">
-        <v>20.89999961853027</v>
+        <v>28</v>
       </c>
       <c r="F80">
-        <v>38.33990478515625</v>
+        <v>35.27789306640625</v>
       </c>
       <c r="G80">
-        <v>36.0927734375</v>
+        <v>33.46652221679688</v>
       </c>
       <c r="H80">
-        <v>-59.47508239746094</v>
+        <v>-63.00711059570312</v>
       </c>
       <c r="I80">
-        <v>32.14579772949219</v>
+        <v>41.83517837524414</v>
       </c>
       <c r="J80">
-        <v>96045.578125</v>
+        <v>96171.21875</v>
       </c>
       <c r="K80">
-        <v>26.70000076293945</v>
+        <v>100</v>
       </c>
       <c r="L80">
-        <v>0.5677441358566284</v>
+        <v>2.088903665542603</v>
       </c>
       <c r="M80">
-        <v>-2.601865291595459</v>
+        <v>-3.624028205871582</v>
       </c>
       <c r="N80">
-        <v>4.501874446868896</v>
+        <v>4.806966304779053</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4013,7 +4013,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1702857600</v>
+        <v>1702944000</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -4022,34 +4022,34 @@
         <v>37</v>
       </c>
       <c r="E81">
-        <v>20.10000038146973</v>
+        <v>32</v>
       </c>
       <c r="F81">
-        <v>36.45196533203125</v>
+        <v>33.36334228515625</v>
       </c>
       <c r="G81">
-        <v>36.01626586914062</v>
+        <v>33.39016723632812</v>
       </c>
       <c r="H81">
-        <v>-59.53080749511719</v>
+        <v>-71.2568359375</v>
       </c>
       <c r="I81">
-        <v>32.62504196166992</v>
+        <v>42.31068801879883</v>
       </c>
       <c r="J81">
-        <v>96015.875</v>
+        <v>96191.7421875</v>
       </c>
       <c r="K81">
-        <v>99.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L81">
-        <v>4.86767578125</v>
+        <v>2.638217687606812</v>
       </c>
       <c r="M81">
-        <v>-4.611869812011719</v>
+        <v>-2.712934494018555</v>
       </c>
       <c r="N81">
-        <v>9.200390815734863</v>
+        <v>5.118152141571045</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4057,7 +4057,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1702868400</v>
+        <v>1702954800</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -4066,34 +4066,34 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>45.79999923706055</v>
+        <v>78.20000457763672</v>
       </c>
       <c r="F82">
-        <v>30.92550659179688</v>
+        <v>25.02566528320312</v>
       </c>
       <c r="G82">
-        <v>30.26824951171875</v>
+        <v>23.82391357421875</v>
       </c>
       <c r="H82">
-        <v>-59.02378845214844</v>
+        <v>-69.06309509277344</v>
       </c>
       <c r="I82">
-        <v>39.23039627075195</v>
+        <v>48.98978424072266</v>
       </c>
       <c r="J82">
-        <v>96363.296875</v>
+        <v>96594.765625</v>
       </c>
       <c r="K82">
-        <v>100</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L82">
-        <v>3.081584453582764</v>
+        <v>-9.260050773620605</v>
       </c>
       <c r="M82">
-        <v>-9.567783355712891</v>
+        <v>1.571359872817993</v>
       </c>
       <c r="N82">
-        <v>13.70237922668457</v>
+        <v>11.91105175018311</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4101,7 +4101,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1702879200</v>
+        <v>1702965600</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -4110,34 +4110,34 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>64.40000152587891</v>
+        <v>72.5</v>
       </c>
       <c r="F83">
-        <v>26.86322021484375</v>
+        <v>24.46255493164062</v>
       </c>
       <c r="G83">
-        <v>26.20355224609375</v>
+        <v>23.46170043945312</v>
       </c>
       <c r="H83">
-        <v>-60.02745056152344</v>
+        <v>-71.13322448730469</v>
       </c>
       <c r="I83">
-        <v>43.2765998840332</v>
+        <v>48.52107238769531</v>
       </c>
       <c r="J83">
-        <v>96488.2890625</v>
+        <v>96543.5546875</v>
       </c>
       <c r="K83">
-        <v>23.80000114440918</v>
+        <v>100</v>
       </c>
       <c r="L83">
-        <v>1.887470602989197</v>
+        <v>-1.057941913604736</v>
       </c>
       <c r="M83">
-        <v>-7.486354827880859</v>
+        <v>-1.417585372924805</v>
       </c>
       <c r="N83">
-        <v>11.00736427307129</v>
+        <v>2.822143793106079</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4145,7 +4145,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1702890000</v>
+        <v>1702976400</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -4154,34 +4154,34 @@
         <v>32</v>
       </c>
       <c r="E84">
-        <v>74.59999847412109</v>
+        <v>74.40000152587891</v>
       </c>
       <c r="F84">
-        <v>24.49978637695312</v>
+        <v>24.29693603515625</v>
       </c>
       <c r="G84">
-        <v>23.5654296875</v>
+        <v>23.45889282226562</v>
       </c>
       <c r="H84">
-        <v>-52.23724365234375</v>
+        <v>-70.79359436035156</v>
       </c>
       <c r="I84">
-        <v>40.99714279174805</v>
+        <v>48.19520568847656</v>
       </c>
       <c r="J84">
-        <v>96438.4609375</v>
+        <v>96445.25</v>
       </c>
       <c r="K84">
-        <v>100</v>
+        <v>86.59999847412109</v>
       </c>
       <c r="L84">
-        <v>3.053735256195068</v>
+        <v>1.979240655899048</v>
       </c>
       <c r="M84">
-        <v>-6.184799671173096</v>
+        <v>-2.212309598922729</v>
       </c>
       <c r="N84">
-        <v>11.00466442108154</v>
+        <v>4.801446437835693</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4189,7 +4189,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1702900800</v>
+        <v>1702987200</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -4198,34 +4198,34 @@
         <v>33</v>
       </c>
       <c r="E85">
-        <v>75.09999847412109</v>
+        <v>72.70000457763672</v>
       </c>
       <c r="F85">
-        <v>24.5023193359375</v>
+        <v>25.32083129882812</v>
       </c>
       <c r="G85">
-        <v>23.34811401367188</v>
+        <v>24.16644287109375</v>
       </c>
       <c r="H85">
-        <v>-58.86766052246094</v>
+        <v>-69.35787963867188</v>
       </c>
       <c r="I85">
-        <v>39.28916931152344</v>
+        <v>50.15122985839844</v>
       </c>
       <c r="J85">
-        <v>96537.890625</v>
+        <v>96626.8984375</v>
       </c>
       <c r="K85">
-        <v>65.30000305175781</v>
+        <v>100</v>
       </c>
       <c r="L85">
-        <v>4.244538307189941</v>
+        <v>1.313247084617615</v>
       </c>
       <c r="M85">
-        <v>-5.422350883483887</v>
+        <v>-3.39581036567688</v>
       </c>
       <c r="N85">
-        <v>10.30548763275146</v>
+        <v>5.400341987609863</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4233,7 +4233,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1702911600</v>
+        <v>1702998000</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -4242,34 +4242,34 @@
         <v>34</v>
       </c>
       <c r="E86">
-        <v>49.70000076293945</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F86">
-        <v>29.98471069335938</v>
+        <v>29.3768310546875</v>
       </c>
       <c r="G86">
-        <v>27.32376098632812</v>
+        <v>26.8309326171875</v>
       </c>
       <c r="H86">
-        <v>-53.13835144042969</v>
+        <v>-69.02420043945312</v>
       </c>
       <c r="I86">
-        <v>40.05827331542969</v>
+        <v>49.06606674194336</v>
       </c>
       <c r="J86">
-        <v>96616.2109375</v>
+        <v>96743.2421875</v>
       </c>
       <c r="K86">
-        <v>100</v>
+        <v>75.70000457763672</v>
       </c>
       <c r="L86">
-        <v>2.773320198059082</v>
+        <v>1.771967768669128</v>
       </c>
       <c r="M86">
-        <v>-5.507336139678955</v>
+        <v>-3.836335420608521</v>
       </c>
       <c r="N86">
-        <v>6.706421852111816</v>
+        <v>4.102417945861816</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4277,7 +4277,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1702922400</v>
+        <v>1703008800</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -4286,34 +4286,34 @@
         <v>35</v>
       </c>
       <c r="E87">
-        <v>36.20000076293945</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F87">
-        <v>33.95285034179688</v>
+        <v>31.64593505859375</v>
       </c>
       <c r="G87">
-        <v>31.465576171875</v>
+        <v>29.55508422851562</v>
       </c>
       <c r="H87">
-        <v>-62.13746643066406</v>
+        <v>-70.09121704101562</v>
       </c>
       <c r="I87">
-        <v>39.39523696899414</v>
+        <v>50.26006317138672</v>
       </c>
       <c r="J87">
-        <v>96381.1015625</v>
+        <v>96571.8359375</v>
       </c>
       <c r="K87">
-        <v>100</v>
+        <v>99.20000457763672</v>
       </c>
       <c r="L87">
-        <v>0.9485692977905273</v>
+        <v>-4.3544921875</v>
       </c>
       <c r="M87">
-        <v>-3.970109701156616</v>
+        <v>-2.426354885101318</v>
       </c>
       <c r="N87">
-        <v>4.415125370025635</v>
+        <v>3.917955160140991</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4321,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1702933200</v>
+        <v>1703019600</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -4330,34 +4330,34 @@
         <v>36</v>
       </c>
       <c r="E88">
-        <v>28.30000114440918</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="F88">
-        <v>36.21524047851562</v>
+        <v>31.18124389648438</v>
       </c>
       <c r="G88">
-        <v>34.02313232421875</v>
+        <v>29.28781127929688</v>
       </c>
       <c r="H88">
-        <v>-61.91859436035156</v>
+        <v>-69.86959838867188</v>
       </c>
       <c r="I88">
-        <v>38.70431137084961</v>
+        <v>48.98486328125</v>
       </c>
       <c r="J88">
-        <v>96052.7578125</v>
+        <v>96400.6953125</v>
       </c>
       <c r="K88">
         <v>100</v>
       </c>
       <c r="L88">
-        <v>-0.8883495926856995</v>
+        <v>-4.235573768615723</v>
       </c>
       <c r="M88">
-        <v>-4.12664794921875</v>
+        <v>-0.7127343416213989</v>
       </c>
       <c r="N88">
-        <v>4.404972076416016</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4365,7 +4365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1702944000</v>
+        <v>1703030400</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -4374,34 +4374,34 @@
         <v>37</v>
       </c>
       <c r="E89">
-        <v>31.30000114440918</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="F89">
-        <v>34.03964233398438</v>
+        <v>28.05718994140625</v>
       </c>
       <c r="G89">
-        <v>34.0909423828125</v>
+        <v>27.33621215820312</v>
       </c>
       <c r="H89">
-        <v>-63.10980224609375</v>
+        <v>-70.634765625</v>
       </c>
       <c r="I89">
-        <v>37.38059616088867</v>
+        <v>51.4107780456543</v>
       </c>
       <c r="J89">
-        <v>96061.015625</v>
+        <v>96476.9921875</v>
       </c>
       <c r="K89">
-        <v>100</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="L89">
-        <v>-1.732973575592041</v>
+        <v>-2.071569681167603</v>
       </c>
       <c r="M89">
-        <v>-4.168313026428223</v>
+        <v>4.546984672546387</v>
       </c>
       <c r="N89">
-        <v>6.102200984954834</v>
+        <v>6.100253582000732</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4409,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1702954800</v>
+        <v>1703041200</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
@@ -4418,34 +4418,34 @@
         <v>30</v>
       </c>
       <c r="E90">
-        <v>39</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="F90">
-        <v>31.72894287109375</v>
+        <v>25.81353759765625</v>
       </c>
       <c r="G90">
-        <v>31.09939575195312</v>
+        <v>25.08596801757812</v>
       </c>
       <c r="H90">
-        <v>-62.06513977050781</v>
+        <v>-72.05702209472656</v>
       </c>
       <c r="I90">
-        <v>42.85033416748047</v>
+        <v>52.70662307739258</v>
       </c>
       <c r="J90">
-        <v>96246.1484375</v>
+        <v>96694.5390625</v>
       </c>
       <c r="K90">
         <v>100</v>
       </c>
       <c r="L90">
-        <v>2.021350145339966</v>
+        <v>0.1683300733566284</v>
       </c>
       <c r="M90">
-        <v>-5.478796482086182</v>
+        <v>-0.692858874797821</v>
       </c>
       <c r="N90">
-        <v>9.906183242797852</v>
+        <v>1.206530809402466</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4453,7 +4453,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1702965600</v>
+        <v>1703052000</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -4462,34 +4462,34 @@
         <v>31</v>
       </c>
       <c r="E91">
-        <v>52.79999923706055</v>
+        <v>79.80000305175781</v>
       </c>
       <c r="F91">
-        <v>28.47412109375</v>
+        <v>25.28125</v>
       </c>
       <c r="G91">
-        <v>28.00265502929688</v>
+        <v>24.68844604492188</v>
       </c>
       <c r="H91">
-        <v>-62.15902709960938</v>
+        <v>-72.59640502929688</v>
       </c>
       <c r="I91">
-        <v>46.22258377075195</v>
+        <v>53.05714416503906</v>
       </c>
       <c r="J91">
-        <v>96351.6171875</v>
+        <v>96689.3125</v>
       </c>
       <c r="K91">
-        <v>100</v>
+        <v>90.70000457763672</v>
       </c>
       <c r="L91">
-        <v>-2.992202043533325</v>
+        <v>1.219992637634277</v>
       </c>
       <c r="M91">
-        <v>-7.132670879364014</v>
+        <v>-2.047878265380859</v>
       </c>
       <c r="N91">
-        <v>11.60105037689209</v>
+        <v>2.911211252212524</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4497,7 +4497,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1702976400</v>
+        <v>1703062800</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
@@ -4506,34 +4506,34 @@
         <v>32</v>
       </c>
       <c r="E92">
-        <v>70.70000457763672</v>
+        <v>79.59999847412109</v>
       </c>
       <c r="F92">
-        <v>25.37527465820312</v>
+        <v>25.16802978515625</v>
       </c>
       <c r="G92">
-        <v>24.42123413085938</v>
+        <v>25.17767333984375</v>
       </c>
       <c r="H92">
-        <v>-61.44610595703125</v>
+        <v>-70.43429565429688</v>
       </c>
       <c r="I92">
-        <v>47.28882217407227</v>
+        <v>52.38093948364258</v>
       </c>
       <c r="J92">
-        <v>96373.78125</v>
+        <v>96621.2421875</v>
       </c>
       <c r="K92">
-        <v>86.80000305175781</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="L92">
-        <v>3.363002777099609</v>
+        <v>1.123198270797729</v>
       </c>
       <c r="M92">
-        <v>-4.231635570526123</v>
+        <v>-2.956824779510498</v>
       </c>
       <c r="N92">
-        <v>7.810863494873047</v>
+        <v>4.307731151580811</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4541,7 +4541,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1702987200</v>
+        <v>1703073600</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
@@ -4550,34 +4550,34 @@
         <v>33</v>
       </c>
       <c r="E93">
-        <v>82.80000305175781</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="F93">
-        <v>23.54278564453125</v>
+        <v>25.46267700195312</v>
       </c>
       <c r="G93">
-        <v>22.434326171875</v>
+        <v>24.81088256835938</v>
       </c>
       <c r="H93">
-        <v>-57.65998840332031</v>
+        <v>-68.33670043945312</v>
       </c>
       <c r="I93">
-        <v>48.8790283203125</v>
+        <v>51.50530242919922</v>
       </c>
       <c r="J93">
-        <v>96590.2109375</v>
+        <v>96758.234375</v>
       </c>
       <c r="K93">
-        <v>94.5</v>
+        <v>36.60000228881836</v>
       </c>
       <c r="L93">
-        <v>2.674472570419312</v>
+        <v>-0.8080712556838989</v>
       </c>
       <c r="M93">
-        <v>-3.30364990234375</v>
+        <v>-2.621503829956055</v>
       </c>
       <c r="N93">
-        <v>6.702901363372803</v>
+        <v>6.10097074508667</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4585,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1702998000</v>
+        <v>1703084400</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
@@ -4594,34 +4594,34 @@
         <v>34</v>
       </c>
       <c r="E94">
-        <v>76.40000152587891</v>
+        <v>55.90000152587891</v>
       </c>
       <c r="F94">
-        <v>24.87826538085938</v>
+        <v>29.40972900390625</v>
       </c>
       <c r="G94">
-        <v>23.51922607421875</v>
+        <v>27.279296875</v>
       </c>
       <c r="H94">
-        <v>-53.95184326171875</v>
+        <v>-64.102783203125</v>
       </c>
       <c r="I94">
-        <v>49.69363021850586</v>
+        <v>50.90638732910156</v>
       </c>
       <c r="J94">
-        <v>96771.0546875</v>
+        <v>96856.1015625</v>
       </c>
       <c r="K94">
-        <v>100</v>
+        <v>89.09999847412109</v>
       </c>
       <c r="L94">
-        <v>0.004831542726606131</v>
+        <v>-0.8677880764007568</v>
       </c>
       <c r="M94">
-        <v>-3.901157140731812</v>
+        <v>-4.507883071899414</v>
       </c>
       <c r="N94">
-        <v>4.807470798492432</v>
+        <v>5.113915920257568</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4629,7 +4629,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1703008800</v>
+        <v>1703095200</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
@@ -4638,34 +4638,34 @@
         <v>35</v>
       </c>
       <c r="E95">
-        <v>66.09999847412109</v>
+        <v>54.10000228881836</v>
       </c>
       <c r="F95">
-        <v>27.23532104492188</v>
+        <v>30.65158081054688</v>
       </c>
       <c r="G95">
-        <v>25.56170654296875</v>
+        <v>28.1436767578125</v>
       </c>
       <c r="H95">
-        <v>-50.58598327636719</v>
+        <v>-58.95706176757812</v>
       </c>
       <c r="I95">
-        <v>46.18319320678711</v>
+        <v>51.86905288696289</v>
       </c>
       <c r="J95">
-        <v>96630.328125</v>
+        <v>96750.125</v>
       </c>
       <c r="K95">
         <v>100</v>
       </c>
       <c r="L95">
-        <v>-3.767363309860229</v>
+        <v>3.253889083862305</v>
       </c>
       <c r="M95">
-        <v>-0.5709252953529358</v>
+        <v>-5.4619140625</v>
       </c>
       <c r="N95">
-        <v>4.501649379730225</v>
+        <v>5.302300930023193</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4673,7 +4673,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1703019600</v>
+        <v>1703106000</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
@@ -4682,34 +4682,34 @@
         <v>36</v>
       </c>
       <c r="E96">
-        <v>64.90000152587891</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="F96">
-        <v>27.31478881835938</v>
+        <v>32.15191650390625</v>
       </c>
       <c r="G96">
-        <v>26.1339111328125</v>
+        <v>30.08526611328125</v>
       </c>
       <c r="H96">
-        <v>-71.43038940429688</v>
+        <v>-74.99398803710938</v>
       </c>
       <c r="I96">
-        <v>45.30596923828125</v>
+        <v>51.92219161987305</v>
       </c>
       <c r="J96">
-        <v>96404.7578125</v>
+        <v>96488.9609375</v>
       </c>
       <c r="K96">
-        <v>100</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L96">
-        <v>-2.889313936233521</v>
+        <v>1.600026845932007</v>
       </c>
       <c r="M96">
-        <v>0.563732922077179</v>
+        <v>-3.640634775161743</v>
       </c>
       <c r="N96">
-        <v>3.7000732421875</v>
+        <v>4.010615825653076</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4717,7 +4717,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1703030400</v>
+        <v>1703116800</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
@@ -4726,34 +4726,34 @@
         <v>37</v>
       </c>
       <c r="E97">
-        <v>66</v>
+        <v>62.10000228881836</v>
       </c>
       <c r="F97">
-        <v>27.19479370117188</v>
+        <v>28.105712890625</v>
       </c>
       <c r="G97">
-        <v>26.49758911132812</v>
+        <v>26.92654418945312</v>
       </c>
       <c r="H97">
-        <v>-59.53656005859375</v>
+        <v>-71.86544799804688</v>
       </c>
       <c r="I97">
-        <v>39.89177322387695</v>
+        <v>52.75171279907227</v>
       </c>
       <c r="J97">
-        <v>96354.265625</v>
+        <v>96595.46875</v>
       </c>
       <c r="K97">
-        <v>100</v>
+        <v>77.30000305175781</v>
       </c>
       <c r="L97">
-        <v>-3.338854789733887</v>
+        <v>3.126144886016846</v>
       </c>
       <c r="M97">
-        <v>2.389716625213623</v>
+        <v>-1.532153248786926</v>
       </c>
       <c r="N97">
-        <v>5.900000095367432</v>
+        <v>3.729391574859619</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4761,7 +4761,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1703041200</v>
+        <v>1703127600</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
@@ -4770,34 +4770,34 @@
         <v>30</v>
       </c>
       <c r="E98">
-        <v>70.40000152587891</v>
+        <v>70.09999847412109</v>
       </c>
       <c r="F98">
-        <v>26.01144409179688</v>
+        <v>26.52926635742188</v>
       </c>
       <c r="G98">
-        <v>25.87356567382812</v>
+        <v>25.44277954101562</v>
       </c>
       <c r="H98">
-        <v>-59.09881591796875</v>
+        <v>-75.18226623535156</v>
       </c>
       <c r="I98">
-        <v>41.41723251342773</v>
+        <v>52.99386215209961</v>
       </c>
       <c r="J98">
-        <v>96478.3046875</v>
+        <v>96743.21875</v>
       </c>
       <c r="K98">
-        <v>77.5</v>
+        <v>100</v>
       </c>
       <c r="L98">
-        <v>-2.773530244827271</v>
+        <v>0.4837060570716858</v>
       </c>
       <c r="M98">
-        <v>-1.283051729202271</v>
+        <v>-1.246401309967041</v>
       </c>
       <c r="N98">
-        <v>4.701205253601074</v>
+        <v>1.314685106277466</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4805,7 +4805,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1703052000</v>
+        <v>1703138400</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -4814,34 +4814,34 @@
         <v>31</v>
       </c>
       <c r="E99">
-        <v>69.90000152587891</v>
+        <v>68.90000152587891</v>
       </c>
       <c r="F99">
-        <v>25.32733154296875</v>
+        <v>26.60043334960938</v>
       </c>
       <c r="G99">
-        <v>25.64242553710938</v>
+        <v>25.59567260742188</v>
       </c>
       <c r="H99">
-        <v>-39.80026245117188</v>
+        <v>-73.65255737304688</v>
       </c>
       <c r="I99">
-        <v>39.86142349243164</v>
+        <v>51.08882141113281</v>
       </c>
       <c r="J99">
-        <v>96372.5234375</v>
+        <v>96719.046875</v>
       </c>
       <c r="K99">
-        <v>45.60000228881836</v>
+        <v>84</v>
       </c>
       <c r="L99">
-        <v>-1.325236797332764</v>
+        <v>0.4555810391902924</v>
       </c>
       <c r="M99">
-        <v>1.443207979202271</v>
+        <v>-1.85641348361969</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>2.706980466842651</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4849,7 +4849,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1703062800</v>
+        <v>1703149200</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
@@ -4858,34 +4858,34 @@
         <v>32</v>
       </c>
       <c r="E100">
-        <v>71.90000152587891</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="F100">
-        <v>24.67623901367188</v>
+        <v>25.76181030273438</v>
       </c>
       <c r="G100">
-        <v>24.95205688476562</v>
+        <v>25.10708618164062</v>
       </c>
       <c r="H100">
-        <v>-37.09602355957031</v>
+        <v>-70.20256042480469</v>
       </c>
       <c r="I100">
-        <v>41.92531204223633</v>
+        <v>50.98067474365234</v>
       </c>
       <c r="J100">
-        <v>96343.3671875</v>
+        <v>96604.8359375</v>
       </c>
       <c r="K100">
-        <v>78.90000152587891</v>
+        <v>95.59999847412109</v>
       </c>
       <c r="L100">
-        <v>0.8646264672279358</v>
+        <v>0.6005810499191284</v>
       </c>
       <c r="M100">
-        <v>-2.18145751953125</v>
+        <v>-1.571391582489014</v>
       </c>
       <c r="N100">
-        <v>2.409213542938232</v>
+        <v>2.019062280654907</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4893,7 +4893,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1703073600</v>
+        <v>1703160000</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -4902,34 +4902,34 @@
         <v>33</v>
       </c>
       <c r="E101">
-        <v>69.40000152587891</v>
+        <v>73.09999847412109</v>
       </c>
       <c r="F101">
-        <v>24.89059448242188</v>
+        <v>25.6131591796875</v>
       </c>
       <c r="G101">
-        <v>24.42721557617188</v>
+        <v>24.69403076171875</v>
       </c>
       <c r="H101">
-        <v>-45.16409301757812</v>
+        <v>-68.56271362304688</v>
       </c>
       <c r="I101">
-        <v>42.56048583984375</v>
+        <v>51.25334548950195</v>
       </c>
       <c r="J101">
-        <v>96522.578125</v>
+        <v>96731.8671875</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>65.70000457763672</v>
       </c>
       <c r="L101">
-        <v>-1.263129830360413</v>
+        <v>1.342016577720642</v>
       </c>
       <c r="M101">
-        <v>-1.499316334724426</v>
+        <v>-1.861149907112122</v>
       </c>
       <c r="N101">
-        <v>3.701653242111206</v>
+        <v>2.700746297836304</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4937,7 +4937,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1703084400</v>
+        <v>1703170800</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
@@ -4946,34 +4946,34 @@
         <v>34</v>
       </c>
       <c r="E102">
-        <v>46.90000152587891</v>
+        <v>65.40000152587891</v>
       </c>
       <c r="F102">
-        <v>30.1536865234375</v>
+        <v>27.33013916015625</v>
       </c>
       <c r="G102">
-        <v>27.85064697265625</v>
+        <v>26.01470947265625</v>
       </c>
       <c r="H102">
-        <v>-64.11756896972656</v>
+        <v>-68.33926391601562</v>
       </c>
       <c r="I102">
-        <v>42.62994003295898</v>
+        <v>50.91159820556641</v>
       </c>
       <c r="J102">
-        <v>96598.1875</v>
+        <v>96839.640625</v>
       </c>
       <c r="K102">
-        <v>75.30000305175781</v>
+        <v>90.09999847412109</v>
       </c>
       <c r="L102">
-        <v>-3.836015462875366</v>
+        <v>-1.074072241783142</v>
       </c>
       <c r="M102">
-        <v>-2.95361328125</v>
+        <v>-1.282365679740906</v>
       </c>
       <c r="N102">
-        <v>5.311111927032471</v>
+        <v>2.407190799713135</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4981,7 +4981,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1703095200</v>
+        <v>1703181600</v>
       </c>
       <c r="C103" t="s">
         <v>25</v>
@@ -4990,34 +4990,34 @@
         <v>35</v>
       </c>
       <c r="E103">
-        <v>39.29999923706055</v>
+        <v>49.90000152587891</v>
       </c>
       <c r="F103">
-        <v>32.91900634765625</v>
+        <v>31.97796630859375</v>
       </c>
       <c r="G103">
-        <v>30.60598754882812</v>
+        <v>29.62713623046875</v>
       </c>
       <c r="H103">
-        <v>-62.81520080566406</v>
+        <v>-65.11184692382812</v>
       </c>
       <c r="I103">
-        <v>42.90588760375977</v>
+        <v>51.20912933349609</v>
       </c>
       <c r="J103">
-        <v>96460.140625</v>
+        <v>96601.2421875</v>
       </c>
       <c r="K103">
-        <v>83.40000152587891</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="L103">
-        <v>-2.384504318237305</v>
+        <v>-3.361598968505859</v>
       </c>
       <c r="M103">
-        <v>-2.998681545257568</v>
+        <v>-1.938869595527649</v>
       </c>
       <c r="N103">
-        <v>4.209031581878662</v>
+        <v>3.902929306030273</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5025,7 +5025,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1703106000</v>
+        <v>1703192400</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -5034,34 +5034,34 @@
         <v>36</v>
       </c>
       <c r="E104">
-        <v>31</v>
+        <v>41.60000228881836</v>
       </c>
       <c r="F104">
-        <v>35.63351440429688</v>
+        <v>33.63665771484375</v>
       </c>
       <c r="G104">
-        <v>33.44113159179688</v>
+        <v>31.79693603515625</v>
       </c>
       <c r="H104">
-        <v>-56.3056640625</v>
+        <v>-69.76052856445312</v>
       </c>
       <c r="I104">
-        <v>41.44944381713867</v>
+        <v>50.4239387512207</v>
       </c>
       <c r="J104">
-        <v>96131.7109375</v>
+        <v>96315.984375</v>
       </c>
       <c r="K104">
         <v>100</v>
       </c>
       <c r="L104">
-        <v>-1.429633736610413</v>
+        <v>-2.148530244827271</v>
       </c>
       <c r="M104">
-        <v>-3.298139572143555</v>
+        <v>-0.4596362113952637</v>
       </c>
       <c r="N104">
-        <v>4.303491115570068</v>
+        <v>3.31494140625</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5069,7 +5069,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1703116800</v>
+        <v>1703203200</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -5078,34 +5078,34 @@
         <v>37</v>
       </c>
       <c r="E105">
-        <v>40.10000228881836</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="F105">
-        <v>32.982666015625</v>
+        <v>31.07308959960938</v>
       </c>
       <c r="G105">
-        <v>32.23416137695312</v>
+        <v>30.11468505859375</v>
       </c>
       <c r="H105">
-        <v>-54.30691528320312</v>
+        <v>-68.93223571777344</v>
       </c>
       <c r="I105">
-        <v>43.57332229614258</v>
+        <v>52.87724304199219</v>
       </c>
       <c r="J105">
-        <v>96196.8515625</v>
+        <v>96375.078125</v>
       </c>
       <c r="K105">
-        <v>99.70000457763672</v>
+        <v>100</v>
       </c>
       <c r="L105">
-        <v>-5.336655139923096</v>
+        <v>-1.1195068359375</v>
       </c>
       <c r="M105">
-        <v>-2.190073251724243</v>
+        <v>-1.045747041702271</v>
       </c>
       <c r="N105">
-        <v>7.600067138671875</v>
+        <v>2.525603771209717</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5113,7 +5113,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1703127600</v>
+        <v>1703214000</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
@@ -5122,34 +5122,34 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>54.20000076293945</v>
+        <v>55.79999923706055</v>
       </c>
       <c r="F106">
-        <v>29.65805053710938</v>
+        <v>30.595458984375</v>
       </c>
       <c r="G106">
-        <v>29.1654052734375</v>
+        <v>30.09585571289062</v>
       </c>
       <c r="H106">
-        <v>-50.73719787597656</v>
+        <v>-68.47624206542969</v>
       </c>
       <c r="I106">
-        <v>46.05716323852539</v>
+        <v>50.48952484130859</v>
       </c>
       <c r="J106">
-        <v>96471.7265625</v>
+        <v>96497.0859375</v>
       </c>
       <c r="K106">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="L106">
-        <v>-3.260532140731812</v>
+        <v>-2.679352998733521</v>
       </c>
       <c r="M106">
-        <v>-1.298845171928406</v>
+        <v>-2.379680156707764</v>
       </c>
       <c r="N106">
-        <v>6.206966876983643</v>
+        <v>5.401864528656006</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5157,7 +5157,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1703138400</v>
+        <v>1703224800</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
@@ -5166,34 +5166,34 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>63.40000152587891</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="F107">
-        <v>27.7701416015625</v>
+        <v>27.60159301757812</v>
       </c>
       <c r="G107">
-        <v>27.06082153320312</v>
+        <v>26.68096923828125</v>
       </c>
       <c r="H107">
-        <v>-48.46354675292969</v>
+        <v>-68.14645385742188</v>
       </c>
       <c r="I107">
-        <v>46.41344833374023</v>
+        <v>51.49018096923828</v>
       </c>
       <c r="J107">
-        <v>96455.0859375</v>
+        <v>96480.5390625</v>
       </c>
       <c r="K107">
-        <v>83.20000457763672</v>
+        <v>81.90000152587891</v>
       </c>
       <c r="L107">
-        <v>-4.156247615814209</v>
+        <v>-1.733967304229736</v>
       </c>
       <c r="M107">
-        <v>-1.27728271484375</v>
+        <v>-4.855705261230469</v>
       </c>
       <c r="N107">
-        <v>8.401025772094727</v>
+        <v>8.100937843322754</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5201,7 +5201,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1703149200</v>
+        <v>1703235600</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
@@ -5210,34 +5210,34 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>68.30000305175781</v>
+        <v>64.59999847412109</v>
       </c>
       <c r="F108">
-        <v>26.61062622070312</v>
+        <v>27.9500732421875</v>
       </c>
       <c r="G108">
-        <v>25.8843994140625</v>
+        <v>27.12759399414062</v>
       </c>
       <c r="H108">
-        <v>-51.56611633300781</v>
+        <v>-66.84742736816406</v>
       </c>
       <c r="I108">
-        <v>46.00886917114258</v>
+        <v>52.14389419555664</v>
       </c>
       <c r="J108">
-        <v>96392.6171875</v>
+        <v>96398.484375</v>
       </c>
       <c r="K108">
-        <v>47</v>
+        <v>76.80000305175781</v>
       </c>
       <c r="L108">
-        <v>-1.643945217132568</v>
+        <v>-1.145725131034851</v>
       </c>
       <c r="M108">
-        <v>-2.295366048812866</v>
+        <v>-1.012905240058899</v>
       </c>
       <c r="N108">
-        <v>7.400412082672119</v>
+        <v>3.300210237503052</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5245,7 +5245,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1703160000</v>
+        <v>1703246400</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
@@ -5254,34 +5254,34 @@
         <v>33</v>
       </c>
       <c r="E109">
-        <v>69.70000457763672</v>
+        <v>71.09999847412109</v>
       </c>
       <c r="F109">
-        <v>26.3787841796875</v>
+        <v>26.92935180664062</v>
       </c>
       <c r="G109">
-        <v>25.3240966796875</v>
+        <v>26.62728881835938</v>
       </c>
       <c r="H109">
-        <v>-55.36260986328125</v>
+        <v>-58.68617248535156</v>
       </c>
       <c r="I109">
-        <v>46.31155395507812</v>
+        <v>52.96094131469727</v>
       </c>
       <c r="J109">
-        <v>96564.8984375</v>
+        <v>96569.28125</v>
       </c>
       <c r="K109">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L109">
-        <v>-1.819780230522156</v>
+        <v>0.2503076195716858</v>
       </c>
       <c r="M109">
-        <v>-2.857824563980103</v>
+        <v>-1.698405742645264</v>
       </c>
       <c r="N109">
-        <v>8</v>
+        <v>2.501265287399292</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5289,7 +5289,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1703170800</v>
+        <v>1703257200</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -5298,34 +5298,34 @@
         <v>34</v>
       </c>
       <c r="E110">
-        <v>51.20000076293945</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F110">
-        <v>30.94009399414062</v>
+        <v>30.76824951171875</v>
       </c>
       <c r="G110">
-        <v>28.4410400390625</v>
+        <v>28.71783447265625</v>
       </c>
       <c r="H110">
-        <v>-57.42770385742188</v>
+        <v>-57.72694396972656</v>
       </c>
       <c r="I110">
-        <v>46.82949829101562</v>
+        <v>52.52530670166016</v>
       </c>
       <c r="J110">
-        <v>96677.1796875</v>
+        <v>96664.8984375</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>84.59999847412109</v>
       </c>
       <c r="L110">
-        <v>-3.949252843856812</v>
+        <v>-2.528586387634277</v>
       </c>
       <c r="M110">
-        <v>-3.0455322265625</v>
+        <v>-2.823366641998291</v>
       </c>
       <c r="N110">
-        <v>5.5</v>
+        <v>4.104365348815918</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5333,7 +5333,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1703181600</v>
+        <v>1703268000</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
@@ -5342,34 +5342,34 @@
         <v>35</v>
       </c>
       <c r="E111">
-        <v>35.90000152587891</v>
+        <v>44.60000228881836</v>
       </c>
       <c r="F111">
-        <v>35.44012451171875</v>
+        <v>32.96560668945312</v>
       </c>
       <c r="G111">
-        <v>32.70751953125</v>
+        <v>31.32830810546875</v>
       </c>
       <c r="H111">
-        <v>-60.36927795410156</v>
+        <v>-68.39653015136719</v>
       </c>
       <c r="I111">
-        <v>46.13814926147461</v>
+        <v>50.07916259765625</v>
       </c>
       <c r="J111">
-        <v>96426.3515625</v>
+        <v>96444.5546875</v>
       </c>
       <c r="K111">
-        <v>64.30000305175781</v>
+        <v>97.5</v>
       </c>
       <c r="L111">
-        <v>-3.058117628097534</v>
+        <v>-2.022490262985229</v>
       </c>
       <c r="M111">
-        <v>-2.786227941513062</v>
+        <v>-1.831235289573669</v>
       </c>
       <c r="N111">
-        <v>4.724020481109619</v>
+        <v>4.020043849945068</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5377,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1703192400</v>
+        <v>1703278800</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
@@ -5386,34 +5386,34 @@
         <v>36</v>
       </c>
       <c r="E112">
-        <v>30.20000076293945</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="F112">
-        <v>36.39053344726562</v>
+        <v>32.06491088867188</v>
       </c>
       <c r="G112">
-        <v>34.80999755859375</v>
+        <v>30.88916015625</v>
       </c>
       <c r="H112">
-        <v>-62.36506652832031</v>
+        <v>-66.97796630859375</v>
       </c>
       <c r="I112">
-        <v>43.67710113525391</v>
+        <v>51.61202239990234</v>
       </c>
       <c r="J112">
-        <v>96136.0625</v>
+        <v>96208.3984375</v>
       </c>
       <c r="K112">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L112">
-        <v>-2.522541522979736</v>
+        <v>-0.6465771198272705</v>
       </c>
       <c r="M112">
-        <v>-0.3379931449890137</v>
+        <v>4.989428520202637</v>
       </c>
       <c r="N112">
-        <v>4.600333213806152</v>
+        <v>4.229635715484619</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5421,7 +5421,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1703203200</v>
+        <v>1703289600</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -5430,34 +5430,34 @@
         <v>37</v>
       </c>
       <c r="E113">
-        <v>31.39999961853027</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="F113">
-        <v>35.77145385742188</v>
+        <v>26.80380249023438</v>
       </c>
       <c r="G113">
-        <v>35.37493896484375</v>
+        <v>25.98959350585938</v>
       </c>
       <c r="H113">
-        <v>-66.00248718261719</v>
+        <v>-66.34095764160156</v>
       </c>
       <c r="I113">
-        <v>42.85476303100586</v>
+        <v>52.99736785888672</v>
       </c>
       <c r="J113">
-        <v>96141.9375</v>
+        <v>96288.125</v>
       </c>
       <c r="K113">
-        <v>95.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L113">
-        <v>-1.745895981788635</v>
+        <v>4.7544846534729</v>
       </c>
       <c r="M113">
-        <v>-2.035634756088257</v>
+        <v>3.451333045959473</v>
       </c>
       <c r="N113">
-        <v>4.100045680999756</v>
+        <v>6.599999904632568</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5465,7 +5465,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1703214000</v>
+        <v>1703300400</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -5474,34 +5474,34 @@
         <v>30</v>
       </c>
       <c r="E114">
-        <v>42.90000152587891</v>
+        <v>79.90000152587891</v>
       </c>
       <c r="F114">
-        <v>32.41741943359375</v>
+        <v>25.84088134765625</v>
       </c>
       <c r="G114">
-        <v>31.53842163085938</v>
+        <v>24.87002563476562</v>
       </c>
       <c r="H114">
-        <v>-66.52139282226562</v>
+        <v>-68.47824096679688</v>
       </c>
       <c r="I114">
-        <v>46.23921585083008</v>
+        <v>48.68444061279297</v>
       </c>
       <c r="J114">
-        <v>96440.765625</v>
+        <v>96464.6171875</v>
       </c>
       <c r="K114">
-        <v>100</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L114">
-        <v>-4.268239498138428</v>
+        <v>1.909067392349243</v>
       </c>
       <c r="M114">
-        <v>1.149821758270264</v>
+        <v>3.14898681640625</v>
       </c>
       <c r="N114">
-        <v>6.5</v>
+        <v>5.103211879730225</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5509,7 +5509,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1703224800</v>
+        <v>1703311200</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -5518,34 +5518,34 @@
         <v>31</v>
       </c>
       <c r="E115">
-        <v>48.79999923706055</v>
+        <v>82.20000457763672</v>
       </c>
       <c r="F115">
-        <v>30.73739624023438</v>
+        <v>25.60678100585938</v>
       </c>
       <c r="G115">
-        <v>29.75302124023438</v>
+        <v>24.91299438476562</v>
       </c>
       <c r="H115">
-        <v>-65.60711669921875</v>
+        <v>-72.78689575195312</v>
       </c>
       <c r="I115">
-        <v>46.67550659179688</v>
+        <v>50.84350967407227</v>
       </c>
       <c r="J115">
-        <v>96486.328125</v>
+        <v>96468.5859375</v>
       </c>
       <c r="K115">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L115">
-        <v>0.5769116282463074</v>
+        <v>1.968684077262878</v>
       </c>
       <c r="M115">
-        <v>-0.1693505793809891</v>
+        <v>0.6155859231948853</v>
       </c>
       <c r="N115">
-        <v>2.30108904838562</v>
+        <v>2.919334888458252</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5553,7 +5553,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1703235600</v>
+        <v>1703322000</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -5562,34 +5562,34 @@
         <v>32</v>
       </c>
       <c r="E116">
-        <v>51.40000152587891</v>
+        <v>86.59999847412109</v>
       </c>
       <c r="F116">
-        <v>29.94754028320312</v>
+        <v>24.49020385742188</v>
       </c>
       <c r="G116">
-        <v>29.150390625</v>
+        <v>24.34002685546875</v>
       </c>
       <c r="H116">
-        <v>-61.72041320800781</v>
+        <v>-69.59109497070312</v>
       </c>
       <c r="I116">
-        <v>46.54762649536133</v>
+        <v>51.5809440612793</v>
       </c>
       <c r="J116">
-        <v>96401.4296875</v>
+        <v>96379.3515625</v>
       </c>
       <c r="K116">
-        <v>90.20000457763672</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L116">
-        <v>-2.723874568939209</v>
+        <v>3.245707988739014</v>
       </c>
       <c r="M116">
-        <v>-2.414138078689575</v>
+        <v>-0.1874340772628784</v>
       </c>
       <c r="N116">
-        <v>6.200091361999512</v>
+        <v>4.904848575592041</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5597,7 +5597,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1703246400</v>
+        <v>1703332800</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -5606,34 +5606,34 @@
         <v>33</v>
       </c>
       <c r="E117">
-        <v>59.29999923706055</v>
+        <v>81.70000457763672</v>
       </c>
       <c r="F117">
-        <v>28.44488525390625</v>
+        <v>25.3006591796875</v>
       </c>
       <c r="G117">
-        <v>27.44662475585938</v>
+        <v>24.858642578125</v>
       </c>
       <c r="H117">
-        <v>-58.31459045410156</v>
+        <v>-69.09681701660156</v>
       </c>
       <c r="I117">
-        <v>46.38523483276367</v>
+        <v>53.27515411376953</v>
       </c>
       <c r="J117">
-        <v>96584.3359375</v>
+        <v>96594.1875</v>
       </c>
       <c r="K117">
-        <v>51.60000228881836</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L117">
-        <v>-2.807805061340332</v>
+        <v>1.947365641593933</v>
       </c>
       <c r="M117">
-        <v>-1.690546870231628</v>
+        <v>-0.8251586556434631</v>
       </c>
       <c r="N117">
-        <v>6.500341892242432</v>
+        <v>2.409405469894409</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5641,7 +5641,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1703257200</v>
+        <v>1703343600</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -5650,34 +5650,34 @@
         <v>34</v>
       </c>
       <c r="E118">
-        <v>46.70000076293945</v>
+        <v>64.90000152587891</v>
       </c>
       <c r="F118">
-        <v>32.23898315429688</v>
+        <v>28.37371826171875</v>
       </c>
       <c r="G118">
-        <v>29.48831176757812</v>
+        <v>26.86233520507812</v>
       </c>
       <c r="H118">
-        <v>-59.40609741210938</v>
+        <v>-68.81350708007812</v>
       </c>
       <c r="I118">
-        <v>44.91270446777344</v>
+        <v>50.19956588745117</v>
       </c>
       <c r="J118">
-        <v>96675.0625</v>
+        <v>96710.984375</v>
       </c>
       <c r="K118">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L118">
-        <v>-4.846628189086914</v>
+        <v>-1.36090087890625</v>
       </c>
       <c r="M118">
-        <v>-3.963054180145264</v>
+        <v>-0.6156103610992432</v>
       </c>
       <c r="N118">
-        <v>6.599999904632568</v>
+        <v>2.405571699142456</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5685,7 +5685,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1703268000</v>
+        <v>1703354400</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -5694,34 +5694,34 @@
         <v>35</v>
       </c>
       <c r="E119">
-        <v>33.29999923706055</v>
+        <v>47</v>
       </c>
       <c r="F119">
-        <v>36.19473266601562</v>
+        <v>32.15859985351562</v>
       </c>
       <c r="G119">
-        <v>33.33633422851562</v>
+        <v>30.40411376953125</v>
       </c>
       <c r="H119">
-        <v>-54.90046691894531</v>
+        <v>-71.05693054199219</v>
       </c>
       <c r="I119">
-        <v>43.30939102172852</v>
+        <v>46.34773254394531</v>
       </c>
       <c r="J119">
-        <v>96429.2421875</v>
+        <v>96502.640625</v>
       </c>
       <c r="K119">
-        <v>3.799999952316284</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="L119">
-        <v>-3.540026664733887</v>
+        <v>-0.8272753953933716</v>
       </c>
       <c r="M119">
-        <v>-2.884792327880859</v>
+        <v>0.2571630775928497</v>
       </c>
       <c r="N119">
-        <v>5.101466178894043</v>
+        <v>2.600256443023682</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5729,7 +5729,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1703278800</v>
+        <v>1703365200</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -5738,34 +5738,34 @@
         <v>36</v>
       </c>
       <c r="E120">
-        <v>24.60000038146973</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F120">
-        <v>38.41336059570312</v>
+        <v>32.17990112304688</v>
       </c>
       <c r="G120">
-        <v>36.0797119140625</v>
+        <v>30.94573974609375</v>
       </c>
       <c r="H120">
-        <v>-60.55471801757812</v>
+        <v>-69.84475708007812</v>
       </c>
       <c r="I120">
-        <v>40.31094741821289</v>
+        <v>43.72011566162109</v>
       </c>
       <c r="J120">
-        <v>96097.046875</v>
+        <v>96236.4921875</v>
       </c>
       <c r="K120">
-        <v>12.90000057220459</v>
+        <v>100</v>
       </c>
       <c r="L120">
-        <v>-2.485871553421021</v>
+        <v>2.011052131652832</v>
       </c>
       <c r="M120">
-        <v>-3.087900400161743</v>
+        <v>0.4330688416957855</v>
       </c>
       <c r="N120">
-        <v>4.599999904632568</v>
+        <v>1.729246139526367</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5773,7 +5773,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1703289600</v>
+        <v>1703376000</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -5782,34 +5782,34 @@
         <v>37</v>
       </c>
       <c r="E121">
-        <v>23.30000114440918</v>
+        <v>53</v>
       </c>
       <c r="F121">
-        <v>36.93350219726562</v>
+        <v>31.07684326171875</v>
       </c>
       <c r="G121">
-        <v>36.65206909179688</v>
+        <v>30.43093872070312</v>
       </c>
       <c r="H121">
-        <v>-60.44131469726562</v>
+        <v>-71.330322265625</v>
       </c>
       <c r="I121">
-        <v>36.58537292480469</v>
+        <v>45.86146545410156</v>
       </c>
       <c r="J121">
-        <v>96083.3046875</v>
+        <v>96283.015625</v>
       </c>
       <c r="K121">
-        <v>4.800000190734863</v>
+        <v>100</v>
       </c>
       <c r="L121">
-        <v>-0.5112646222114563</v>
+        <v>3.819931507110596</v>
       </c>
       <c r="M121">
-        <v>-3.985102415084839</v>
+        <v>-0.153818354010582</v>
       </c>
       <c r="N121">
-        <v>5.205662250518799</v>
+        <v>5.10675048828125</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5817,7 +5817,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1703300400</v>
+        <v>1703386800</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -5826,34 +5826,34 @@
         <v>30</v>
       </c>
       <c r="E122">
-        <v>26.89999961853027</v>
+        <v>65.40000152587891</v>
       </c>
       <c r="F122">
-        <v>34.38583374023438</v>
+        <v>28.72265625</v>
       </c>
       <c r="G122">
-        <v>35.37686157226562</v>
+        <v>28.29244995117188</v>
       </c>
       <c r="H122">
-        <v>-62.09178161621094</v>
+        <v>-70.14396667480469</v>
       </c>
       <c r="I122">
-        <v>35.9389762878418</v>
+        <v>44.7454719543457</v>
       </c>
       <c r="J122">
-        <v>96227.265625</v>
+        <v>96431.0625</v>
       </c>
       <c r="K122">
-        <v>99.40000152587891</v>
+        <v>33</v>
       </c>
       <c r="L122">
-        <v>0.6594530940055847</v>
+        <v>4.758678913116455</v>
       </c>
       <c r="M122">
-        <v>-4.726586818695068</v>
+        <v>-0.7269335985183716</v>
       </c>
       <c r="N122">
-        <v>8.608599662780762</v>
+        <v>6.900021553039551</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5861,7 +5861,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1703311200</v>
+        <v>1703397600</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -5870,34 +5870,34 @@
         <v>31</v>
       </c>
       <c r="E123">
-        <v>31.30000114440918</v>
+        <v>69.5</v>
       </c>
       <c r="F123">
-        <v>33.3389892578125</v>
+        <v>27.81716918945312</v>
       </c>
       <c r="G123">
-        <v>32.83822631835938</v>
+        <v>27.45169067382812</v>
       </c>
       <c r="H123">
-        <v>-59.81744384765625</v>
+        <v>-71.01551818847656</v>
       </c>
       <c r="I123">
-        <v>39.13857269287109</v>
+        <v>44.02833938598633</v>
       </c>
       <c r="J123">
-        <v>96337.3671875</v>
+        <v>96350.9609375</v>
       </c>
       <c r="K123">
-        <v>100</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L123">
-        <v>4.475385665893555</v>
+        <v>2.244096517562866</v>
       </c>
       <c r="M123">
-        <v>-3.158520460128784</v>
+        <v>-2.782660961151123</v>
       </c>
       <c r="N123">
-        <v>6.007054328918457</v>
+        <v>6.003670215606689</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5905,7 +5905,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1703322000</v>
+        <v>1703408400</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -5914,34 +5914,34 @@
         <v>32</v>
       </c>
       <c r="E124">
-        <v>51.70000076293945</v>
+        <v>78.20000457763672</v>
       </c>
       <c r="F124">
-        <v>29.42236328125</v>
+        <v>25.9974365234375</v>
       </c>
       <c r="G124">
-        <v>28.7252197265625</v>
+        <v>25.24658203125</v>
       </c>
       <c r="H124">
-        <v>-57.67149353027344</v>
+        <v>-71.47418212890625</v>
       </c>
       <c r="I124">
-        <v>40.65962600708008</v>
+        <v>42.37202072143555</v>
       </c>
       <c r="J124">
-        <v>96267.2421875</v>
+        <v>96271.1640625</v>
       </c>
       <c r="K124">
-        <v>91.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L124">
-        <v>3.371537923812866</v>
+        <v>4.672404766082764</v>
       </c>
       <c r="M124">
-        <v>-3.376887083053589</v>
+        <v>-3.776283979415894</v>
       </c>
       <c r="N124">
-        <v>7.013159275054932</v>
+        <v>9.306750297546387</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5949,7 +5949,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1703332800</v>
+        <v>1703419200</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -5958,34 +5958,34 @@
         <v>33</v>
       </c>
       <c r="E125">
-        <v>56.29999923706055</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="F125">
-        <v>28.73553466796875</v>
+        <v>25.51626586914062</v>
       </c>
       <c r="G125">
-        <v>27.70632934570312</v>
+        <v>24.47821044921875</v>
       </c>
       <c r="H125">
-        <v>-59.26380920410156</v>
+        <v>-66.26882934570312</v>
       </c>
       <c r="I125">
-        <v>41.02738189697266</v>
+        <v>38.44223785400391</v>
       </c>
       <c r="J125">
-        <v>96481.6640625</v>
+        <v>96471.09375</v>
       </c>
       <c r="K125">
-        <v>99</v>
+        <v>95.70000457763672</v>
       </c>
       <c r="L125">
-        <v>2.671538114547729</v>
+        <v>2.593300819396973</v>
       </c>
       <c r="M125">
-        <v>-4.426791667938232</v>
+        <v>-4.373605728149414</v>
       </c>
       <c r="N125">
-        <v>7.011653900146484</v>
+        <v>8.600508689880371</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5993,7 +5993,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1703343600</v>
+        <v>1703430000</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -6002,34 +6002,34 @@
         <v>34</v>
       </c>
       <c r="E126">
-        <v>41.10000228881836</v>
+        <v>52</v>
       </c>
       <c r="F126">
-        <v>33.28512573242188</v>
+        <v>30.16537475585938</v>
       </c>
       <c r="G126">
-        <v>30.99734497070312</v>
+        <v>27.75979614257812</v>
       </c>
       <c r="H126">
-        <v>-52.68296813964844</v>
+        <v>-63.85240173339844</v>
       </c>
       <c r="I126">
-        <v>40.79513168334961</v>
+        <v>37.95959091186523</v>
       </c>
       <c r="J126">
-        <v>96515.0859375</v>
+        <v>96566.8046875</v>
       </c>
       <c r="K126">
-        <v>80</v>
+        <v>99.20000457763672</v>
       </c>
       <c r="L126">
-        <v>-3.101264476776123</v>
+        <v>-1.869331002235413</v>
       </c>
       <c r="M126">
-        <v>-2.496315956115723</v>
+        <v>-5.099833965301514</v>
       </c>
       <c r="N126">
-        <v>3.914770841598511</v>
+        <v>6.400000095367432</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6037,7 +6037,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1703354400</v>
+        <v>1703440800</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -6046,34 +6046,34 @@
         <v>35</v>
       </c>
       <c r="E127">
-        <v>31.39999961853027</v>
+        <v>37.5</v>
       </c>
       <c r="F127">
-        <v>36.81375122070312</v>
+        <v>34.30389404296875</v>
       </c>
       <c r="G127">
-        <v>34.53033447265625</v>
+        <v>31.88800048828125</v>
       </c>
       <c r="H127">
-        <v>-59.47737121582031</v>
+        <v>-53.94168090820312</v>
       </c>
       <c r="I127">
-        <v>39.41270065307617</v>
+        <v>39.03761291503906</v>
       </c>
       <c r="J127">
-        <v>96249.734375</v>
+        <v>96382.078125</v>
       </c>
       <c r="K127">
         <v>100</v>
       </c>
       <c r="L127">
-        <v>-2.021467208862305</v>
+        <v>-2.012583017349243</v>
       </c>
       <c r="M127">
-        <v>0.0749218761920929</v>
+        <v>-3.990268468856812</v>
       </c>
       <c r="N127">
-        <v>2.404586553573608</v>
+        <v>5.7000732421875</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6081,7 +6081,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1703365200</v>
+        <v>1703451600</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -6090,34 +6090,34 @@
         <v>36</v>
       </c>
       <c r="E128">
-        <v>24.89999961853027</v>
+        <v>27</v>
       </c>
       <c r="F128">
-        <v>38.95236206054688</v>
+        <v>36.95376586914062</v>
       </c>
       <c r="G128">
-        <v>37.09317016601562</v>
+        <v>34.69586181640625</v>
       </c>
       <c r="H128">
-        <v>-59.3369140625</v>
+        <v>-58.83279418945312</v>
       </c>
       <c r="I128">
-        <v>39.89316940307617</v>
+        <v>36.98637008666992</v>
       </c>
       <c r="J128">
-        <v>95931.234375</v>
+        <v>96109.9921875</v>
       </c>
       <c r="K128">
-        <v>94.20000457763672</v>
+        <v>85.20000457763672</v>
       </c>
       <c r="L128">
-        <v>-0.3710302710533142</v>
+        <v>-3.081972599029541</v>
       </c>
       <c r="M128">
-        <v>0.5606347322463989</v>
+        <v>-5.030405044555664</v>
       </c>
       <c r="N128">
-        <v>2.905920505523682</v>
+        <v>6.906988620758057</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6125,7 +6125,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1703376000</v>
+        <v>1703462400</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>37</v>
       </c>
       <c r="E129">
-        <v>28.30000114440918</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="F129">
-        <v>37.32504272460938</v>
+        <v>35.1031494140625</v>
       </c>
       <c r="G129">
-        <v>37.13018798828125</v>
+        <v>34.72103881835938</v>
       </c>
       <c r="H129">
-        <v>-64.93803405761719</v>
+        <v>-70.85655212402344</v>
       </c>
       <c r="I129">
-        <v>42.00531387329102</v>
+        <v>35.25680923461914</v>
       </c>
       <c r="J129">
-        <v>95957.4375</v>
+        <v>96130.1171875</v>
       </c>
       <c r="K129">
-        <v>98.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L129">
-        <v>-1.253300786018372</v>
+        <v>-3.970937490463257</v>
       </c>
       <c r="M129">
-        <v>-1.792214274406433</v>
+        <v>-3.6240234375</v>
       </c>
       <c r="N129">
-        <v>2.90081787109375</v>
+        <v>8.520062446594238</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6169,7 +6169,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1703386800</v>
+        <v>1703473200</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -6178,34 +6178,34 @@
         <v>30</v>
       </c>
       <c r="E130">
-        <v>37.60000228881836</v>
+        <v>31.80000114440918</v>
       </c>
       <c r="F130">
-        <v>33.80697631835938</v>
+        <v>30.86822509765625</v>
       </c>
       <c r="G130">
-        <v>33.3612060546875</v>
+        <v>30.7325439453125</v>
       </c>
       <c r="H130">
-        <v>-68.23670959472656</v>
+        <v>-62.7236328125</v>
       </c>
       <c r="I130">
-        <v>41.09590911865234</v>
+        <v>26.69339561462402</v>
       </c>
       <c r="J130">
-        <v>96128.578125</v>
+        <v>96364.421875</v>
       </c>
       <c r="K130">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L130">
-        <v>-2.976357460021973</v>
+        <v>0.1291552633047104</v>
       </c>
       <c r="M130">
-        <v>2.804548263549805</v>
+        <v>-5.490859031677246</v>
       </c>
       <c r="N130">
-        <v>6.905920505523682</v>
+        <v>10.8126974105835</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1704596400</v>
+        <v>1706151600</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,34 +518,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>46.20000076293945</v>
+        <v>76.80000305175781</v>
       </c>
       <c r="F2" t="n">
-        <v>32.70550537109375</v>
+        <v>27.4964599609375</v>
       </c>
       <c r="G2" t="n">
-        <v>31.86428833007812</v>
+        <v>27.21405029296875</v>
       </c>
       <c r="H2" t="n">
-        <v>-67.58688354492188</v>
+        <v>-70.06723022460938</v>
       </c>
       <c r="I2" t="n">
-        <v>41.23487091064453</v>
+        <v>57.26755523681641</v>
       </c>
       <c r="J2" t="n">
-        <v>96514.2890625</v>
+        <v>96658.9609375</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>96.09999847412109</v>
       </c>
       <c r="L2" t="n">
-        <v>2.272224187850952</v>
+        <v>-0.8123583793640137</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.089289546012878</v>
+        <v>1.99667227268219</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>2.807476043701172</v>
       </c>
     </row>
     <row r="3">
@@ -553,11 +553,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1704607200</v>
+        <v>1706162400</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>52.20000076293945</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="F3" t="n">
-        <v>29.98995971679688</v>
+        <v>25.64181518554688</v>
       </c>
       <c r="G3" t="n">
-        <v>29.41400146484375</v>
+        <v>25.5849609375</v>
       </c>
       <c r="H3" t="n">
-        <v>-59.18635559082031</v>
+        <v>-67.38870239257812</v>
       </c>
       <c r="I3" t="n">
-        <v>38.41027069091797</v>
+        <v>58.6825065612793</v>
       </c>
       <c r="J3" t="n">
-        <v>96534.0625</v>
+        <v>96653.5625</v>
       </c>
       <c r="K3" t="n">
         <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>2.692819833755493</v>
+        <v>-2.878969669342041</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.807888031005859</v>
+        <v>5.681132793426514</v>
       </c>
       <c r="N3" t="n">
-        <v>8.70979118347168</v>
+        <v>9.418225288391113</v>
       </c>
     </row>
     <row r="4">
@@ -601,11 +601,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1704618000</v>
+        <v>1706173200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -614,34 +614,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>62.10000228881836</v>
+        <v>89.80000305175781</v>
       </c>
       <c r="F4" t="n">
-        <v>28.12918090820312</v>
+        <v>24.45126342773438</v>
       </c>
       <c r="G4" t="n">
-        <v>27.14581298828125</v>
+        <v>23.79525756835938</v>
       </c>
       <c r="H4" t="n">
-        <v>-62.77946472167969</v>
+        <v>-55.21875</v>
       </c>
       <c r="I4" t="n">
-        <v>37.01351165771484</v>
+        <v>58.96147918701172</v>
       </c>
       <c r="J4" t="n">
-        <v>96540.8359375</v>
+        <v>96506.46875</v>
       </c>
       <c r="K4" t="n">
-        <v>7.400000095367432</v>
+        <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>1.906718730926514</v>
+        <v>-2.646772384643555</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.832190036773682</v>
+        <v>5.698251724243164</v>
       </c>
       <c r="N4" t="n">
-        <v>7.609876155853271</v>
+        <v>9.517511367797852</v>
       </c>
     </row>
     <row r="5">
@@ -649,11 +649,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1704628800</v>
+        <v>1706184000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,34 +662,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>67.59999847412109</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>26.36929321289062</v>
+        <v>24.56259155273438</v>
       </c>
       <c r="G5" t="n">
-        <v>25.4150390625</v>
+        <v>23.95468139648438</v>
       </c>
       <c r="H5" t="n">
-        <v>-63.22468566894531</v>
+        <v>-51.98408508300781</v>
       </c>
       <c r="I5" t="n">
-        <v>32.76544952392578</v>
+        <v>57.23049926757812</v>
       </c>
       <c r="J5" t="n">
-        <v>96671.7109375</v>
+        <v>96613.09375</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>3.404257774353027</v>
+        <v>-0.3585424721240997</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.531794548034668</v>
+        <v>2.935385704040527</v>
       </c>
       <c r="N5" t="n">
-        <v>9.100317001342773</v>
+        <v>6.300132751464844</v>
       </c>
     </row>
     <row r="6">
@@ -697,11 +697,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1704639600</v>
+        <v>1706194800</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -710,34 +710,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43.20000076293945</v>
+        <v>86.80000305175781</v>
       </c>
       <c r="F6" t="n">
-        <v>32.05050659179688</v>
+        <v>25.04754638671875</v>
       </c>
       <c r="G6" t="n">
-        <v>29.37979125976562</v>
+        <v>24.26898193359375</v>
       </c>
       <c r="H6" t="n">
-        <v>-62.98329162597656</v>
+        <v>-61.92878723144531</v>
       </c>
       <c r="I6" t="n">
-        <v>32.13207244873047</v>
+        <v>58.05101013183594</v>
       </c>
       <c r="J6" t="n">
-        <v>96770.9375</v>
+        <v>96753.6015625</v>
       </c>
       <c r="K6" t="n">
-        <v>1.800000071525574</v>
+        <v>100</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.677846670150757</v>
+        <v>-2.006816387176514</v>
       </c>
       <c r="M6" t="n">
-        <v>-6.287499904632568</v>
+        <v>2.129997491836548</v>
       </c>
       <c r="N6" t="n">
-        <v>6.901296138763428</v>
+        <v>5.10479736328125</v>
       </c>
     </row>
     <row r="7">
@@ -745,11 +745,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1704650400</v>
+        <v>1706205600</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -758,34 +758,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.30000114440918</v>
+        <v>80.90000152587891</v>
       </c>
       <c r="F7" t="n">
-        <v>36.75723266601562</v>
+        <v>25.94235229492188</v>
       </c>
       <c r="G7" t="n">
-        <v>33.69183349609375</v>
+        <v>24.75738525390625</v>
       </c>
       <c r="H7" t="n">
-        <v>-67.94956970214844</v>
+        <v>-66.53213500976562</v>
       </c>
       <c r="I7" t="n">
-        <v>31.70663642883301</v>
+        <v>58.37741088867188</v>
       </c>
       <c r="J7" t="n">
-        <v>96558.0546875</v>
+        <v>96718.015625</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.317324161529541</v>
+        <v>-1.204030752182007</v>
       </c>
       <c r="M7" t="n">
-        <v>-4.877253532409668</v>
+        <v>4.02471923828125</v>
       </c>
       <c r="N7" t="n">
-        <v>5.213172912597656</v>
+        <v>5.137145519256592</v>
       </c>
     </row>
     <row r="8">
@@ -793,11 +793,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1704661200</v>
+        <v>1706216400</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -806,34 +806,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.20000076293945</v>
+        <v>85.20000457763672</v>
       </c>
       <c r="F8" t="n">
-        <v>38.578369140625</v>
+        <v>25.17242431640625</v>
       </c>
       <c r="G8" t="n">
-        <v>36.18252563476562</v>
+        <v>24.119873046875</v>
       </c>
       <c r="H8" t="n">
-        <v>-61.95751953125</v>
+        <v>-69.41197204589844</v>
       </c>
       <c r="I8" t="n">
-        <v>31.90741157531738</v>
+        <v>57.60771560668945</v>
       </c>
       <c r="J8" t="n">
-        <v>96288.3359375</v>
+        <v>96540.40625</v>
       </c>
       <c r="K8" t="n">
-        <v>61.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.449518918991089</v>
+        <v>-0.6752954125404358</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.444291830062866</v>
+        <v>3.222765922546387</v>
       </c>
       <c r="N8" t="n">
-        <v>5.229369640350342</v>
+        <v>4.821712017059326</v>
       </c>
     </row>
     <row r="9">
@@ -841,11 +841,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1704672000</v>
+        <v>1706227200</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,34 +854,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.89999961853027</v>
+        <v>87.70000457763672</v>
       </c>
       <c r="F9" t="n">
-        <v>36.47720336914062</v>
+        <v>25.1646728515625</v>
       </c>
       <c r="G9" t="n">
-        <v>36.17822265625</v>
+        <v>24.61572265625</v>
       </c>
       <c r="H9" t="n">
-        <v>-64.83956909179688</v>
+        <v>-68.75910949707031</v>
       </c>
       <c r="I9" t="n">
-        <v>30.45052337646484</v>
+        <v>57.31631088256836</v>
       </c>
       <c r="J9" t="n">
-        <v>96255.046875</v>
+        <v>96551.734375</v>
       </c>
       <c r="K9" t="n">
-        <v>44.20000076293945</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.66986083984375</v>
+        <v>-0.2122875899076462</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.745646953582764</v>
+        <v>3.905798196792603</v>
       </c>
       <c r="N9" t="n">
-        <v>7.614162445068359</v>
+        <v>7.103491306304932</v>
       </c>
     </row>
     <row r="10">
@@ -889,11 +889,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1704682800</v>
+        <v>1706238000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -902,34 +902,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.10000038146973</v>
+        <v>90.5</v>
       </c>
       <c r="F10" t="n">
-        <v>34.49453735351562</v>
+        <v>24.65997314453125</v>
       </c>
       <c r="G10" t="n">
-        <v>34.788818359375</v>
+        <v>24.06027221679688</v>
       </c>
       <c r="H10" t="n">
-        <v>-42.50613403320312</v>
+        <v>-67.69508361816406</v>
       </c>
       <c r="I10" t="n">
-        <v>33.73583221435547</v>
+        <v>57.0753173828125</v>
       </c>
       <c r="J10" t="n">
-        <v>96465.046875</v>
+        <v>96738.5234375</v>
       </c>
       <c r="K10" t="n">
-        <v>99.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.341110706329346</v>
+        <v>-0.402290016412735</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.944278478622437</v>
+        <v>3.927297353744507</v>
       </c>
       <c r="N10" t="n">
-        <v>4.400195598602295</v>
+        <v>7.401561260223389</v>
       </c>
     </row>
     <row r="11">
@@ -937,11 +937,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1704693600</v>
+        <v>1706248800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -950,34 +950,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.90000152587891</v>
+        <v>91.09999847412109</v>
       </c>
       <c r="F11" t="n">
-        <v>30.54183959960938</v>
+        <v>24.41140747070312</v>
       </c>
       <c r="G11" t="n">
-        <v>29.72122192382812</v>
+        <v>23.771484375</v>
       </c>
       <c r="H11" t="n">
-        <v>-42.88389587402344</v>
+        <v>-67.31626892089844</v>
       </c>
       <c r="I11" t="n">
-        <v>33.03503799438477</v>
+        <v>57.57448577880859</v>
       </c>
       <c r="J11" t="n">
-        <v>96684.5625</v>
+        <v>96678.1875</v>
       </c>
       <c r="K11" t="n">
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.7631884813308716</v>
+        <v>0.8262915015220642</v>
       </c>
       <c r="M11" t="n">
-        <v>-4.42585563659668</v>
+        <v>2.780356407165527</v>
       </c>
       <c r="N11" t="n">
-        <v>6.613591194152832</v>
+        <v>5.101376533508301</v>
       </c>
     </row>
     <row r="12">
@@ -985,11 +985,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1704704400</v>
+        <v>1706259600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,34 +998,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>49.79999923706055</v>
+        <v>91.20000457763672</v>
       </c>
       <c r="F12" t="n">
-        <v>27.27310180664062</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>26.52401733398438</v>
+        <v>23.35382080078125</v>
       </c>
       <c r="H12" t="n">
-        <v>-60.43885803222656</v>
+        <v>-70.6109619140625</v>
       </c>
       <c r="I12" t="n">
-        <v>27.6621150970459</v>
+        <v>56.52423095703125</v>
       </c>
       <c r="J12" t="n">
-        <v>96588.875</v>
+        <v>96561.734375</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>95.90000152587891</v>
       </c>
       <c r="L12" t="n">
-        <v>3.944872856140137</v>
+        <v>1.2073974609375</v>
       </c>
       <c r="M12" t="n">
-        <v>-5.251332759857178</v>
+        <v>0.9005297422409058</v>
       </c>
       <c r="N12" t="n">
-        <v>9.00127124786377</v>
+        <v>2.209619760513306</v>
       </c>
     </row>
     <row r="13">
@@ -1033,11 +1033,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1704715200</v>
+        <v>1706270400</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1046,34 +1046,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.20000076293945</v>
+        <v>88</v>
       </c>
       <c r="F13" t="n">
-        <v>25.91259765625</v>
+        <v>24.47967529296875</v>
       </c>
       <c r="G13" t="n">
-        <v>24.990478515625</v>
+        <v>24.60043334960938</v>
       </c>
       <c r="H13" t="n">
-        <v>-53.67030334472656</v>
+        <v>-72.80755615234375</v>
       </c>
       <c r="I13" t="n">
-        <v>29.16278457641602</v>
+        <v>56.73022842407227</v>
       </c>
       <c r="J13" t="n">
-        <v>96805.7421875</v>
+        <v>96734.5390625</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>2.185593128204346</v>
+        <v>-1.847041010856628</v>
       </c>
       <c r="M13" t="n">
-        <v>-4.800576210021973</v>
+        <v>0.1949023455381393</v>
       </c>
       <c r="N13" t="n">
-        <v>8.321349143981934</v>
+        <v>2.003217458724976</v>
       </c>
     </row>
     <row r="14">
@@ -1081,11 +1081,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1704726000</v>
+        <v>1706281200</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1094,34 +1094,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>44.40000152587891</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="F14" t="n">
-        <v>30.73574829101562</v>
+        <v>26.51608276367188</v>
       </c>
       <c r="G14" t="n">
-        <v>28.11563110351562</v>
+        <v>25.16348266601562</v>
       </c>
       <c r="H14" t="n">
-        <v>-40.94914245605469</v>
+        <v>-73.00898742675781</v>
       </c>
       <c r="I14" t="n">
-        <v>33.75128936767578</v>
+        <v>56.58405303955078</v>
       </c>
       <c r="J14" t="n">
-        <v>96863.9296875</v>
+        <v>96911.6484375</v>
       </c>
       <c r="K14" t="n">
-        <v>94.30000305175781</v>
+        <v>98.30000305175781</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.750803232192993</v>
+        <v>-2.311718702316284</v>
       </c>
       <c r="M14" t="n">
-        <v>-4.958088397979736</v>
+        <v>1.169016122817993</v>
       </c>
       <c r="N14" t="n">
-        <v>7.118879795074463</v>
+        <v>3.519873142242432</v>
       </c>
     </row>
     <row r="15">
@@ -1129,11 +1129,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1704736800</v>
+        <v>1706292000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1142,34 +1142,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>74.20000457763672</v>
       </c>
       <c r="F15" t="n">
-        <v>34.59243774414062</v>
+        <v>26.56423950195312</v>
       </c>
       <c r="G15" t="n">
-        <v>31.57876586914062</v>
+        <v>25.36236572265625</v>
       </c>
       <c r="H15" t="n">
-        <v>-44.76876831054688</v>
+        <v>-72.91535949707031</v>
       </c>
       <c r="I15" t="n">
-        <v>32.94141006469727</v>
+        <v>55.18491744995117</v>
       </c>
       <c r="J15" t="n">
-        <v>96667.9296875</v>
+        <v>96771.2734375</v>
       </c>
       <c r="K15" t="n">
-        <v>9.199999809265137</v>
+        <v>97.20000457763672</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.143664360046387</v>
+        <v>-2.171108245849609</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.425729990005493</v>
+        <v>-0.5889526009559631</v>
       </c>
       <c r="N15" t="n">
-        <v>4.149153709411621</v>
+        <v>4.10174560546875</v>
       </c>
     </row>
     <row r="16">
@@ -1177,11 +1177,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1704747600</v>
+        <v>1706302800</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1190,34 +1190,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.70000076293945</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="F16" t="n">
-        <v>35.477294921875</v>
+        <v>30.4051513671875</v>
       </c>
       <c r="G16" t="n">
-        <v>33.51904296875</v>
+        <v>28.9835205078125</v>
       </c>
       <c r="H16" t="n">
-        <v>-47.541259765625</v>
+        <v>-71.96926879882812</v>
       </c>
       <c r="I16" t="n">
-        <v>33.59217071533203</v>
+        <v>52.75025939941406</v>
       </c>
       <c r="J16" t="n">
-        <v>96416.3671875</v>
+        <v>96488.8359375</v>
       </c>
       <c r="K16" t="n">
-        <v>96.09999847412109</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.218195676803589</v>
+        <v>-0.9177075028419495</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.07908447086811066</v>
+        <v>-2.400419950485229</v>
       </c>
       <c r="N16" t="n">
-        <v>2.105151176452637</v>
+        <v>3.808862447738647</v>
       </c>
     </row>
     <row r="17">
@@ -1225,11 +1225,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1704758400</v>
+        <v>1706313600</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1238,34 +1238,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>37.5</v>
+        <v>65.30000305175781</v>
       </c>
       <c r="F17" t="n">
-        <v>33.17041015625</v>
+        <v>28.31256103515625</v>
       </c>
       <c r="G17" t="n">
-        <v>32.52264404296875</v>
+        <v>27.95303344726562</v>
       </c>
       <c r="H17" t="n">
-        <v>-36.64932250976562</v>
+        <v>-69.8048095703125</v>
       </c>
       <c r="I17" t="n">
-        <v>32.25351333618164</v>
+        <v>54.60453033447266</v>
       </c>
       <c r="J17" t="n">
-        <v>96442.1015625</v>
+        <v>96548.3515625</v>
       </c>
       <c r="K17" t="n">
-        <v>94.80000305175781</v>
+        <v>83.70000457763672</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.8458105325698853</v>
+        <v>0.364204078912735</v>
       </c>
       <c r="M17" t="n">
-        <v>4.146237850189209</v>
+        <v>-3.082246065139771</v>
       </c>
       <c r="N17" t="n">
-        <v>4.926461696624756</v>
+        <v>4.324140548706055</v>
       </c>
     </row>
     <row r="18">
@@ -1273,11 +1273,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1704769200</v>
+        <v>1706324400</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>45.29999923706055</v>
+        <v>74</v>
       </c>
       <c r="F18" t="n">
-        <v>31.62841796875</v>
+        <v>26.62472534179688</v>
       </c>
       <c r="G18" t="n">
-        <v>30.88507080078125</v>
+        <v>26.57281494140625</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.95350646972656</v>
+        <v>-50.85289001464844</v>
       </c>
       <c r="I18" t="n">
-        <v>33.35002899169922</v>
+        <v>56.57549285888672</v>
       </c>
       <c r="J18" t="n">
-        <v>96600.0625</v>
+        <v>96758.5859375</v>
       </c>
       <c r="K18" t="n">
-        <v>38.90000152587891</v>
+        <v>95.59999847412109</v>
       </c>
       <c r="L18" t="n">
-        <v>1.007817387580872</v>
+        <v>0.1646435558795929</v>
       </c>
       <c r="M18" t="n">
-        <v>2.337407112121582</v>
+        <v>-2.218071222305298</v>
       </c>
       <c r="N18" t="n">
-        <v>2.80991792678833</v>
+        <v>2.80069899559021</v>
       </c>
     </row>
     <row r="19">
@@ -1321,11 +1321,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1704780000</v>
+        <v>1706335200</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1334,34 +1334,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.29999923706055</v>
+        <v>81.70000457763672</v>
       </c>
       <c r="F19" t="n">
-        <v>29.81130981445312</v>
+        <v>25.44082641601562</v>
       </c>
       <c r="G19" t="n">
-        <v>30.29815673828125</v>
+        <v>25.073486328125</v>
       </c>
       <c r="H19" t="n">
-        <v>-39.89871215820312</v>
+        <v>-53.318603515625</v>
       </c>
       <c r="I19" t="n">
-        <v>32.44244003295898</v>
+        <v>56.21127319335938</v>
       </c>
       <c r="J19" t="n">
-        <v>96635.2734375</v>
+        <v>96736.2265625</v>
       </c>
       <c r="K19" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5702563524246216</v>
+        <v>3.031144857406616</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.491660118103027</v>
+        <v>-1.912673354148865</v>
       </c>
       <c r="N19" t="n">
-        <v>3.413013219833374</v>
+        <v>5.203622817993164</v>
       </c>
     </row>
     <row r="20">
@@ -1369,11 +1369,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1704790800</v>
+        <v>1706346000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>61.60000228881836</v>
+        <v>81.20000457763672</v>
       </c>
       <c r="F20" t="n">
-        <v>26.28369140625</v>
+        <v>25.33554077148438</v>
       </c>
       <c r="G20" t="n">
-        <v>25.26437377929688</v>
+        <v>25.45028686523438</v>
       </c>
       <c r="H20" t="n">
-        <v>-55.34756469726562</v>
+        <v>-76.46852111816406</v>
       </c>
       <c r="I20" t="n">
-        <v>35.11953735351562</v>
+        <v>55.98453140258789</v>
       </c>
       <c r="J20" t="n">
-        <v>96673.484375</v>
+        <v>96655.4375</v>
       </c>
       <c r="K20" t="n">
-        <v>56.70000076293945</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>3.060014486312866</v>
+        <v>0.5501415729522705</v>
       </c>
       <c r="M20" t="n">
-        <v>-6.15234375</v>
+        <v>-1.721103429794312</v>
       </c>
       <c r="N20" t="n">
-        <v>9.501788139343262</v>
+        <v>2.301270246505737</v>
       </c>
     </row>
     <row r="21">
@@ -1417,11 +1417,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1704801600</v>
+        <v>1706356800</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1430,34 +1430,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>71.80000305175781</v>
+        <v>80.70000457763672</v>
       </c>
       <c r="F21" t="n">
-        <v>25.11691284179688</v>
+        <v>25.40509033203125</v>
       </c>
       <c r="G21" t="n">
-        <v>23.89297485351562</v>
+        <v>25.1787109375</v>
       </c>
       <c r="H21" t="n">
-        <v>-38.88758850097656</v>
+        <v>-76.82011413574219</v>
       </c>
       <c r="I21" t="n">
-        <v>34.72214508056641</v>
+        <v>55.63156890869141</v>
       </c>
       <c r="J21" t="n">
-        <v>96865.84375</v>
+        <v>96775.1171875</v>
       </c>
       <c r="K21" t="n">
         <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>3.782753705978394</v>
+        <v>0.126230463385582</v>
       </c>
       <c r="M21" t="n">
-        <v>-5.312395095825195</v>
+        <v>-1.966833472251892</v>
       </c>
       <c r="N21" t="n">
-        <v>9.707176208496094</v>
+        <v>2.702587842941284</v>
       </c>
     </row>
     <row r="22">
@@ -1465,11 +1465,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1704812400</v>
+        <v>1706367600</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1478,34 +1478,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>52.10000228881836</v>
+        <v>65.30000305175781</v>
       </c>
       <c r="F22" t="n">
-        <v>30.16348266601562</v>
+        <v>28.41915893554688</v>
       </c>
       <c r="G22" t="n">
-        <v>27.3980712890625</v>
+        <v>26.52566528320312</v>
       </c>
       <c r="H22" t="n">
-        <v>-47.29763793945312</v>
+        <v>-76.11515808105469</v>
       </c>
       <c r="I22" t="n">
-        <v>33.97983169555664</v>
+        <v>54.49497222900391</v>
       </c>
       <c r="J22" t="n">
-        <v>96883.9609375</v>
+        <v>96954.7734375</v>
       </c>
       <c r="K22" t="n">
-        <v>31.20000076293945</v>
+        <v>69.20000457763672</v>
       </c>
       <c r="L22" t="n">
-        <v>1.867290019989014</v>
+        <v>-3.645876407623291</v>
       </c>
       <c r="M22" t="n">
-        <v>-6.520978927612305</v>
+        <v>1.378520488739014</v>
       </c>
       <c r="N22" t="n">
-        <v>7.214245796203613</v>
+        <v>4.907503604888916</v>
       </c>
     </row>
     <row r="23">
@@ -1513,11 +1513,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1704823200</v>
+        <v>1706378400</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1526,34 +1526,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33.5</v>
+        <v>64.09999847412109</v>
       </c>
       <c r="F23" t="n">
-        <v>35.29946899414062</v>
+        <v>29.00027465820312</v>
       </c>
       <c r="G23" t="n">
-        <v>32.21209716796875</v>
+        <v>27.39886474609375</v>
       </c>
       <c r="H23" t="n">
-        <v>-37.45143127441406</v>
+        <v>-74.02737426757812</v>
       </c>
       <c r="I23" t="n">
-        <v>32.44776916503906</v>
+        <v>56.05957412719727</v>
       </c>
       <c r="J23" t="n">
-        <v>96655.578125</v>
+        <v>96922.0703125</v>
       </c>
       <c r="K23" t="n">
-        <v>10.60000038146973</v>
+        <v>90.59999847412109</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.9033446907997131</v>
+        <v>-4.4144287109375</v>
       </c>
       <c r="M23" t="n">
-        <v>-4.931752681732178</v>
+        <v>1.729287028312683</v>
       </c>
       <c r="N23" t="n">
-        <v>5.009326934814453</v>
+        <v>5.002940654754639</v>
       </c>
     </row>
     <row r="24">
@@ -1561,11 +1561,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1704834000</v>
+        <v>1706389200</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1574,34 +1574,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.60000038146973</v>
+        <v>73.40000152587891</v>
       </c>
       <c r="F24" t="n">
-        <v>37.80929565429688</v>
+        <v>27.0557861328125</v>
       </c>
       <c r="G24" t="n">
-        <v>35.5062255859375</v>
+        <v>26.19732666015625</v>
       </c>
       <c r="H24" t="n">
-        <v>-56.21391296386719</v>
+        <v>-73.55207824707031</v>
       </c>
       <c r="I24" t="n">
-        <v>33.40608215332031</v>
+        <v>55.17966842651367</v>
       </c>
       <c r="J24" t="n">
-        <v>96315.265625</v>
+        <v>96757.2421875</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>96.30000305175781</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.133488774299622</v>
+        <v>-0.7739917039871216</v>
       </c>
       <c r="M24" t="n">
-        <v>-3.314614295959473</v>
+        <v>4.991342544555664</v>
       </c>
       <c r="N24" t="n">
-        <v>4.400000095367432</v>
+        <v>5.901469707489014</v>
       </c>
     </row>
     <row r="25">
@@ -1609,11 +1609,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1704844800</v>
+        <v>1706400000</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1622,34 +1622,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>79.5</v>
       </c>
       <c r="F25" t="n">
-        <v>34.82760620117188</v>
+        <v>24.90487670898438</v>
       </c>
       <c r="G25" t="n">
-        <v>33.99847412109375</v>
+        <v>24.08819580078125</v>
       </c>
       <c r="H25" t="n">
-        <v>-41.30195617675781</v>
+        <v>-74.05140686035156</v>
       </c>
       <c r="I25" t="n">
-        <v>36.99312210083008</v>
+        <v>49.85642242431641</v>
       </c>
       <c r="J25" t="n">
-        <v>96367.5390625</v>
+        <v>96813.59375</v>
       </c>
       <c r="K25" t="n">
         <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.685495615005493</v>
+        <v>1.553229928016663</v>
       </c>
       <c r="M25" t="n">
-        <v>-6.144838809967041</v>
+        <v>7.242770671844482</v>
       </c>
       <c r="N25" t="n">
-        <v>8.807318687438965</v>
+        <v>10.10876274108887</v>
       </c>
     </row>
     <row r="26">
@@ -1657,11 +1657,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1704855600</v>
+        <v>1706410800</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.70000076293945</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="F26" t="n">
-        <v>32.56796264648438</v>
+        <v>24.75146484375</v>
       </c>
       <c r="G26" t="n">
-        <v>33.21206665039062</v>
+        <v>23.90383911132812</v>
       </c>
       <c r="H26" t="n">
-        <v>-43.11723327636719</v>
+        <v>-74.14826965332031</v>
       </c>
       <c r="I26" t="n">
-        <v>31.1763858795166</v>
+        <v>53.87253570556641</v>
       </c>
       <c r="J26" t="n">
-        <v>96517.078125</v>
+        <v>96994.0546875</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="L26" t="n">
-        <v>3.812912464141846</v>
+        <v>1.723583936691284</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.569159984588623</v>
+        <v>2.628513097763062</v>
       </c>
       <c r="N26" t="n">
-        <v>9.204696655273438</v>
+        <v>6.002569675445557</v>
       </c>
     </row>
     <row r="27">
@@ -1705,11 +1705,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1704866400</v>
+        <v>1706421600</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1718,34 +1718,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>57.20000076293945</v>
+        <v>82.59999847412109</v>
       </c>
       <c r="F27" t="n">
-        <v>28.65087890625</v>
+        <v>24.53271484375</v>
       </c>
       <c r="G27" t="n">
-        <v>27.78240966796875</v>
+        <v>23.90066528320312</v>
       </c>
       <c r="H27" t="n">
-        <v>-42.49754333496094</v>
+        <v>-72.99885559082031</v>
       </c>
       <c r="I27" t="n">
-        <v>38.01967239379883</v>
+        <v>53.15473175048828</v>
       </c>
       <c r="J27" t="n">
-        <v>96597.5546875</v>
+        <v>96936.3671875</v>
       </c>
       <c r="K27" t="n">
-        <v>99.40000152587891</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="L27" t="n">
-        <v>4.138866901397705</v>
+        <v>1.938757300376892</v>
       </c>
       <c r="M27" t="n">
-        <v>-8.059882164001465</v>
+        <v>0.6428393125534058</v>
       </c>
       <c r="N27" t="n">
-        <v>12.00089836120605</v>
+        <v>3.304842472076416</v>
       </c>
     </row>
     <row r="28">
@@ -1753,11 +1753,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1704877200</v>
+        <v>1706432400</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1766,34 +1766,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>72.59999847412109</v>
+        <v>84.5</v>
       </c>
       <c r="F28" t="n">
-        <v>25.5008544921875</v>
+        <v>24.05990600585938</v>
       </c>
       <c r="G28" t="n">
-        <v>24.43392944335938</v>
+        <v>23.72113037109375</v>
       </c>
       <c r="H28" t="n">
-        <v>-44.71208190917969</v>
+        <v>-73.55311584472656</v>
       </c>
       <c r="I28" t="n">
-        <v>39.17875671386719</v>
+        <v>52.0664176940918</v>
       </c>
       <c r="J28" t="n">
-        <v>96589.9140625</v>
+        <v>96824.0234375</v>
       </c>
       <c r="K28" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="L28" t="n">
-        <v>4.454460144042969</v>
+        <v>3.404008626937866</v>
       </c>
       <c r="M28" t="n">
-        <v>-4.863373756408691</v>
+        <v>-0.5258203148841858</v>
       </c>
       <c r="N28" t="n">
-        <v>10.60081768035889</v>
+        <v>5.319980144500732</v>
       </c>
     </row>
     <row r="29">
@@ -1801,11 +1801,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1704888000</v>
+        <v>1706443200</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1814,34 +1814,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>78.20000457763672</v>
+        <v>86.90000152587891</v>
       </c>
       <c r="F29" t="n">
-        <v>24.90121459960938</v>
+        <v>23.64566040039062</v>
       </c>
       <c r="G29" t="n">
-        <v>23.70126342773438</v>
+        <v>23.30941772460938</v>
       </c>
       <c r="H29" t="n">
-        <v>-42.76960754394531</v>
+        <v>-59.60191345214844</v>
       </c>
       <c r="I29" t="n">
-        <v>40.85694122314453</v>
+        <v>51.63653182983398</v>
       </c>
       <c r="J29" t="n">
-        <v>96836</v>
+        <v>96936.171875</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>44.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.801645517349243</v>
+        <v>2.353845119476318</v>
       </c>
       <c r="M29" t="n">
-        <v>-5.021652698516846</v>
+        <v>-2.070026874542236</v>
       </c>
       <c r="N29" t="n">
-        <v>8.501635551452637</v>
+        <v>5.200000286102295</v>
       </c>
     </row>
     <row r="30">
@@ -1849,11 +1849,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1704898800</v>
+        <v>1706454000</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1862,34 +1862,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>56.90000152587891</v>
+        <v>67</v>
       </c>
       <c r="F30" t="n">
-        <v>29.56723022460938</v>
+        <v>27.70907592773438</v>
       </c>
       <c r="G30" t="n">
-        <v>26.8270263671875</v>
+        <v>25.72702026367188</v>
       </c>
       <c r="H30" t="n">
-        <v>-41.34259033203125</v>
+        <v>-52.43017578125</v>
       </c>
       <c r="I30" t="n">
-        <v>38.95280456542969</v>
+        <v>51.75707244873047</v>
       </c>
       <c r="J30" t="n">
-        <v>96888.7109375</v>
+        <v>97089.640625</v>
       </c>
       <c r="K30" t="n">
-        <v>7.599999904632568</v>
+        <v>90.30000305175781</v>
       </c>
       <c r="L30" t="n">
-        <v>4.07974100112915</v>
+        <v>2.645344257354736</v>
       </c>
       <c r="M30" t="n">
-        <v>-6.233810901641846</v>
+        <v>-3.254018545150757</v>
       </c>
       <c r="N30" t="n">
-        <v>7.800817966461182</v>
+        <v>4.101436138153076</v>
       </c>
     </row>
     <row r="31">
@@ -1897,11 +1897,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1704909600</v>
+        <v>1706464800</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1910,34 +1910,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39.79999923706055</v>
+        <v>56.90000152587891</v>
       </c>
       <c r="F31" t="n">
-        <v>34.4615478515625</v>
+        <v>30.10372924804688</v>
       </c>
       <c r="G31" t="n">
-        <v>31.30023193359375</v>
+        <v>27.83685302734375</v>
       </c>
       <c r="H31" t="n">
-        <v>-43.89199829101562</v>
+        <v>-50.43112182617188</v>
       </c>
       <c r="I31" t="n">
-        <v>37.80738067626953</v>
+        <v>50.45772552490234</v>
       </c>
       <c r="J31" t="n">
-        <v>96631.5078125</v>
+        <v>96976.2421875</v>
       </c>
       <c r="K31" t="n">
-        <v>56</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="L31" t="n">
-        <v>3.633032083511353</v>
+        <v>1.269289493560791</v>
       </c>
       <c r="M31" t="n">
-        <v>-5.072868347167969</v>
+        <v>-2.930891036987305</v>
       </c>
       <c r="N31" t="n">
-        <v>5.700000286102295</v>
+        <v>3.211370944976807</v>
       </c>
     </row>
     <row r="32">
@@ -1945,11 +1945,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1704920400</v>
+        <v>1706475600</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1958,34 +1958,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.10000228881836</v>
+        <v>43.60000228881836</v>
       </c>
       <c r="F32" t="n">
-        <v>35.50421142578125</v>
+        <v>33.28445434570312</v>
       </c>
       <c r="G32" t="n">
-        <v>33.34695434570312</v>
+        <v>31.42123413085938</v>
       </c>
       <c r="H32" t="n">
-        <v>-45.41133117675781</v>
+        <v>-49.02029418945312</v>
       </c>
       <c r="I32" t="n">
-        <v>38.5780143737793</v>
+        <v>49.87400054931641</v>
       </c>
       <c r="J32" t="n">
-        <v>96313.8125</v>
+        <v>96657.6875</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
+        <v>91.80000305175781</v>
       </c>
       <c r="L32" t="n">
-        <v>2.243166446685791</v>
+        <v>1.405688405036926</v>
       </c>
       <c r="M32" t="n">
-        <v>-4.600908279418945</v>
+        <v>-2.484877824783325</v>
       </c>
       <c r="N32" t="n">
-        <v>5.599999904632568</v>
+        <v>4.412451267242432</v>
       </c>
     </row>
     <row r="33">
@@ -1993,11 +1993,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1704931200</v>
+        <v>1706486400</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2006,34 +2006,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.5</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="F33" t="n">
-        <v>32.7774658203125</v>
+        <v>31.02078247070312</v>
       </c>
       <c r="G33" t="n">
-        <v>32.15689086914062</v>
+        <v>30.39059448242188</v>
       </c>
       <c r="H33" t="n">
-        <v>-47.73835754394531</v>
+        <v>-52.59393310546875</v>
       </c>
       <c r="I33" t="n">
-        <v>40.72883605957031</v>
+        <v>47.95644378662109</v>
       </c>
       <c r="J33" t="n">
-        <v>96401.6875</v>
+        <v>96656.7265625</v>
       </c>
       <c r="K33" t="n">
-        <v>96.59999847412109</v>
+        <v>94.90000152587891</v>
       </c>
       <c r="L33" t="n">
-        <v>1.157675743103027</v>
+        <v>2.770453929901123</v>
       </c>
       <c r="M33" t="n">
-        <v>-4.050197601318359</v>
+        <v>-2.561206102371216</v>
       </c>
       <c r="N33" t="n">
-        <v>5.60502290725708</v>
+        <v>5.213183879852295</v>
       </c>
     </row>
     <row r="34">
@@ -2041,11 +2041,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1704942000</v>
+        <v>1706497200</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2054,34 +2054,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.20000076293945</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="F34" t="n">
-        <v>31.69390869140625</v>
+        <v>28.43914794921875</v>
       </c>
       <c r="G34" t="n">
-        <v>31.3623046875</v>
+        <v>28.11785888671875</v>
       </c>
       <c r="H34" t="n">
-        <v>-52.81071472167969</v>
+        <v>-54.87667846679688</v>
       </c>
       <c r="I34" t="n">
-        <v>38.30581283569336</v>
+        <v>46.24056625366211</v>
       </c>
       <c r="J34" t="n">
-        <v>96522.5390625</v>
+        <v>96886.2109375</v>
       </c>
       <c r="K34" t="n">
-        <v>64.59999847412109</v>
+        <v>79.80000305175781</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.5134350657463074</v>
+        <v>5.019960880279541</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.731193780899048</v>
+        <v>-3.981401205062866</v>
       </c>
       <c r="N34" t="n">
-        <v>2.711152791976929</v>
+        <v>11.310622215271</v>
       </c>
     </row>
     <row r="35">
@@ -2089,11 +2089,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1704952800</v>
+        <v>1706508000</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2102,34 +2102,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.10000228881836</v>
+        <v>71.20000457763672</v>
       </c>
       <c r="F35" t="n">
-        <v>27.42538452148438</v>
+        <v>26.848388671875</v>
       </c>
       <c r="G35" t="n">
-        <v>26.80810546875</v>
+        <v>26.17935180664062</v>
       </c>
       <c r="H35" t="n">
-        <v>-55.75921630859375</v>
+        <v>-55.93086242675781</v>
       </c>
       <c r="I35" t="n">
-        <v>32.88445663452148</v>
+        <v>47.09924697875977</v>
       </c>
       <c r="J35" t="n">
-        <v>96599.3984375</v>
+        <v>96857.6875</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1000000014901161</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L35" t="n">
-        <v>3.701235294342041</v>
+        <v>4.897226333618164</v>
       </c>
       <c r="M35" t="n">
-        <v>-6.901735782623291</v>
+        <v>-5.032590389251709</v>
       </c>
       <c r="N35" t="n">
-        <v>12.30012798309326</v>
+        <v>12.51688957214355</v>
       </c>
     </row>
     <row r="36">
@@ -2137,11 +2137,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1704963600</v>
+        <v>1706518800</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.90000152587891</v>
+        <v>84.90000152587891</v>
       </c>
       <c r="F36" t="n">
-        <v>24.43081665039062</v>
+        <v>24.85467529296875</v>
       </c>
       <c r="G36" t="n">
-        <v>23.69293212890625</v>
+        <v>23.86013793945312</v>
       </c>
       <c r="H36" t="n">
-        <v>-38.87149047851562</v>
+        <v>-56.67227172851562</v>
       </c>
       <c r="I36" t="n">
-        <v>30.74760627746582</v>
+        <v>48.29662322998047</v>
       </c>
       <c r="J36" t="n">
-        <v>96597.3046875</v>
+        <v>96848.15625</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="L36" t="n">
-        <v>3.02496337890625</v>
+        <v>4.817448616027832</v>
       </c>
       <c r="M36" t="n">
-        <v>-4.417360782623291</v>
+        <v>-4.509099006652832</v>
       </c>
       <c r="N36" t="n">
-        <v>9.600000381469727</v>
+        <v>10.61288738250732</v>
       </c>
     </row>
     <row r="37">
@@ -2185,11 +2185,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1704974400</v>
+        <v>1706529600</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2198,34 +2198,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>69.80000305175781</v>
+        <v>86.20000457763672</v>
       </c>
       <c r="F37" t="n">
-        <v>22.59872436523438</v>
+        <v>24.2398681640625</v>
       </c>
       <c r="G37" t="n">
-        <v>21.5484619140625</v>
+        <v>24.24948120117188</v>
       </c>
       <c r="H37" t="n">
-        <v>-46.85459899902344</v>
+        <v>-55.03164672851562</v>
       </c>
       <c r="I37" t="n">
-        <v>29.98625564575195</v>
+        <v>47.62886810302734</v>
       </c>
       <c r="J37" t="n">
-        <v>96800.0859375</v>
+        <v>96928.7265625</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L37" t="n">
-        <v>4.5212082862854</v>
+        <v>3.253178596496582</v>
       </c>
       <c r="M37" t="n">
-        <v>-4.00466775894165</v>
+        <v>-4.51409912109375</v>
       </c>
       <c r="N37" t="n">
-        <v>9.711877822875977</v>
+        <v>10.31121349334717</v>
       </c>
     </row>
     <row r="38">
@@ -2233,11 +2233,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1704985200</v>
+        <v>1706540400</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2246,34 +2246,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.40000152587891</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F38" t="n">
-        <v>28.82968139648438</v>
+        <v>27.38473510742188</v>
       </c>
       <c r="G38" t="n">
-        <v>26.06793212890625</v>
+        <v>25.97579956054688</v>
       </c>
       <c r="H38" t="n">
-        <v>-42.40036010742188</v>
+        <v>-54.52957153320312</v>
       </c>
       <c r="I38" t="n">
-        <v>31.30107688903809</v>
+        <v>46.48894119262695</v>
       </c>
       <c r="J38" t="n">
-        <v>96875.125</v>
+        <v>97097.2421875</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L38" t="n">
-        <v>3.712187528610229</v>
+        <v>1.44677734375</v>
       </c>
       <c r="M38" t="n">
-        <v>-5.836843013763428</v>
+        <v>-6.871564865112305</v>
       </c>
       <c r="N38" t="n">
-        <v>7.417469024658203</v>
+        <v>8.10025691986084</v>
       </c>
     </row>
     <row r="39">
@@ -2281,11 +2281,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1704996000</v>
+        <v>1706551200</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.80000114440918</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="F39" t="n">
-        <v>34.28948974609375</v>
+        <v>31.43560791015625</v>
       </c>
       <c r="G39" t="n">
-        <v>30.88430786132812</v>
+        <v>29.37701416015625</v>
       </c>
       <c r="H39" t="n">
-        <v>-39.093994140625</v>
+        <v>-54.66500854492188</v>
       </c>
       <c r="I39" t="n">
-        <v>30.12423896789551</v>
+        <v>37.06040191650391</v>
       </c>
       <c r="J39" t="n">
-        <v>96577.4375</v>
+        <v>96991.0390625</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>4.230756759643555</v>
+        <v>0.6136303544044495</v>
       </c>
       <c r="M39" t="n">
-        <v>-4.772255897521973</v>
+        <v>-5.730776309967041</v>
       </c>
       <c r="N39" t="n">
-        <v>6.202197551727295</v>
+        <v>7.009321689605713</v>
       </c>
     </row>
     <row r="40">
@@ -2329,11 +2329,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1705006800</v>
+        <v>1706562000</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2342,34 +2342,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.80000114440918</v>
+        <v>34.40000152587891</v>
       </c>
       <c r="F40" t="n">
-        <v>36.73574829101562</v>
+        <v>32.597412109375</v>
       </c>
       <c r="G40" t="n">
-        <v>34.11737060546875</v>
+        <v>30.90573120117188</v>
       </c>
       <c r="H40" t="n">
-        <v>-43.13912963867188</v>
+        <v>-57.63375854492188</v>
       </c>
       <c r="I40" t="n">
-        <v>29.75748443603516</v>
+        <v>29.66093444824219</v>
       </c>
       <c r="J40" t="n">
-        <v>96253.546875</v>
+        <v>96701.6875</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
-        <v>1.161555171012878</v>
+        <v>2.012876033782959</v>
       </c>
       <c r="M40" t="n">
-        <v>-5.111777305603027</v>
+        <v>-4.926462173461914</v>
       </c>
       <c r="N40" t="n">
-        <v>7.101407051086426</v>
+        <v>5.907598972320557</v>
       </c>
     </row>
     <row r="41">
@@ -2377,11 +2377,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1705017600</v>
+        <v>1706572800</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2390,34 +2390,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22.89999961853027</v>
+        <v>47.60000228881836</v>
       </c>
       <c r="F41" t="n">
-        <v>34.92694091796875</v>
+        <v>30.02249145507812</v>
       </c>
       <c r="G41" t="n">
-        <v>34.977783203125</v>
+        <v>30.0084228515625</v>
       </c>
       <c r="H41" t="n">
-        <v>-42.61921691894531</v>
+        <v>-51.85197448730469</v>
       </c>
       <c r="I41" t="n">
-        <v>25.53357887268066</v>
+        <v>28.88620948791504</v>
       </c>
       <c r="J41" t="n">
-        <v>96277.8359375</v>
+        <v>96648.5859375</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2000000029802322</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
-        <v>4.762082576751709</v>
+        <v>3.515519857406616</v>
       </c>
       <c r="M41" t="n">
-        <v>-3.208217620849609</v>
+        <v>0.5494238138198853</v>
       </c>
       <c r="N41" t="n">
-        <v>8.221016883850098</v>
+        <v>4.800703525543213</v>
       </c>
     </row>
     <row r="42">
@@ -2425,11 +2425,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1705028400</v>
+        <v>1706583600</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2438,34 +2438,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.40000152587891</v>
+        <v>60.5</v>
       </c>
       <c r="F42" t="n">
-        <v>30.71051025390625</v>
+        <v>27.15451049804688</v>
       </c>
       <c r="G42" t="n">
-        <v>31.82965087890625</v>
+        <v>27.6644287109375</v>
       </c>
       <c r="H42" t="n">
-        <v>-46.17585754394531</v>
+        <v>-54.5552978515625</v>
       </c>
       <c r="I42" t="n">
-        <v>27.91546821594238</v>
+        <v>28.23498916625977</v>
       </c>
       <c r="J42" t="n">
-        <v>96455.3046875</v>
+        <v>96828.9140625</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
-        <v>1.927822232246399</v>
+        <v>3.129721641540527</v>
       </c>
       <c r="M42" t="n">
-        <v>-5.208144187927246</v>
+        <v>1.247675776481628</v>
       </c>
       <c r="N42" t="n">
-        <v>10.61568927764893</v>
+        <v>4.704220771789551</v>
       </c>
     </row>
     <row r="43">
@@ -2473,11 +2473,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1705039200</v>
+        <v>1706594400</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2486,34 +2486,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.29999923706055</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="F43" t="n">
-        <v>26.96353149414062</v>
+        <v>25.93093872070312</v>
       </c>
       <c r="G43" t="n">
-        <v>26.31301879882812</v>
+        <v>25.85366821289062</v>
       </c>
       <c r="H43" t="n">
-        <v>-39.26719665527344</v>
+        <v>-51.14961242675781</v>
       </c>
       <c r="I43" t="n">
-        <v>30.44241523742676</v>
+        <v>28.73053932189941</v>
       </c>
       <c r="J43" t="n">
-        <v>96484.015625</v>
+        <v>96856.9609375</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
-        <v>4.185463905334473</v>
+        <v>2.430397987365723</v>
       </c>
       <c r="M43" t="n">
-        <v>-7.427243709564209</v>
+        <v>-4.717460632324219</v>
       </c>
       <c r="N43" t="n">
-        <v>13.70465087890625</v>
+        <v>10.50019550323486</v>
       </c>
     </row>
     <row r="44">
@@ -2521,11 +2521,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1705050000</v>
+        <v>1706605200</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2534,34 +2534,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>68.5</v>
+        <v>68.59999847412109</v>
       </c>
       <c r="F44" t="n">
-        <v>25.02041625976562</v>
+        <v>23.5545654296875</v>
       </c>
       <c r="G44" t="n">
-        <v>23.84002685546875</v>
+        <v>23.32424926757812</v>
       </c>
       <c r="H44" t="n">
-        <v>-43.44610595703125</v>
+        <v>-56.53790283203125</v>
       </c>
       <c r="I44" t="n">
-        <v>34.03593826293945</v>
+        <v>28.87742042541504</v>
       </c>
       <c r="J44" t="n">
-        <v>96532.515625</v>
+        <v>96818.9609375</v>
       </c>
       <c r="K44" t="n">
-        <v>49</v>
+        <v>96.5</v>
       </c>
       <c r="L44" t="n">
-        <v>2.707026243209839</v>
+        <v>3.118129730224609</v>
       </c>
       <c r="M44" t="n">
-        <v>-5.458217620849609</v>
+        <v>-3.438569307327271</v>
       </c>
       <c r="N44" t="n">
-        <v>8.5076904296875</v>
+        <v>9.30097484588623</v>
       </c>
     </row>
     <row r="45">
@@ -2569,11 +2569,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1705060800</v>
+        <v>1706616000</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2582,34 +2582,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>77.09999847412109</v>
+        <v>76.70000457763672</v>
       </c>
       <c r="F45" t="n">
-        <v>23.60113525390625</v>
+        <v>22.3779296875</v>
       </c>
       <c r="G45" t="n">
-        <v>22.40505981445312</v>
+        <v>21.9112548828125</v>
       </c>
       <c r="H45" t="n">
-        <v>-38.92561340332031</v>
+        <v>-51.73440551757812</v>
       </c>
       <c r="I45" t="n">
-        <v>34.15731811523438</v>
+        <v>31.39193725585938</v>
       </c>
       <c r="J45" t="n">
-        <v>96722.953125</v>
+        <v>96924.5390625</v>
       </c>
       <c r="K45" t="n">
-        <v>99.5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>3.639225959777832</v>
+        <v>3.30859112739563</v>
       </c>
       <c r="M45" t="n">
-        <v>-4.168886661529541</v>
+        <v>-3.039631366729736</v>
       </c>
       <c r="N45" t="n">
-        <v>7.70770263671875</v>
+        <v>8.506494522094727</v>
       </c>
     </row>
     <row r="46">
@@ -2617,11 +2617,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1705071600</v>
+        <v>1706626800</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2630,34 +2630,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.79999923706055</v>
+        <v>58</v>
       </c>
       <c r="F46" t="n">
-        <v>28.52032470703125</v>
+        <v>28.1142578125</v>
       </c>
       <c r="G46" t="n">
-        <v>25.91574096679688</v>
+        <v>25.83053588867188</v>
       </c>
       <c r="H46" t="n">
-        <v>-34.75180053710938</v>
+        <v>-50.79498291015625</v>
       </c>
       <c r="I46" t="n">
-        <v>34.53210830688477</v>
+        <v>31.07246208190918</v>
       </c>
       <c r="J46" t="n">
-        <v>96801.015625</v>
+        <v>97022.4296875</v>
       </c>
       <c r="K46" t="n">
-        <v>4.200000286102295</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="L46" t="n">
-        <v>1.410417437553406</v>
+        <v>1.874248027801514</v>
       </c>
       <c r="M46" t="n">
-        <v>-5.262221336364746</v>
+        <v>-6.561669826507568</v>
       </c>
       <c r="N46" t="n">
-        <v>6.322606086730957</v>
+        <v>7.418361663818359</v>
       </c>
     </row>
     <row r="47">
@@ -2665,11 +2665,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1705082400</v>
+        <v>1706637600</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2678,34 +2678,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35.10000228881836</v>
+        <v>42.5</v>
       </c>
       <c r="F47" t="n">
-        <v>34.4620361328125</v>
+        <v>33.11334228515625</v>
       </c>
       <c r="G47" t="n">
-        <v>31.39193725585938</v>
+        <v>30.63699340820312</v>
       </c>
       <c r="H47" t="n">
-        <v>-62.88777160644531</v>
+        <v>-56.82164001464844</v>
       </c>
       <c r="I47" t="n">
-        <v>34.09270095825195</v>
+        <v>30.90063095092773</v>
       </c>
       <c r="J47" t="n">
-        <v>96522.4609375</v>
+        <v>96819.5546875</v>
       </c>
       <c r="K47" t="n">
-        <v>20.60000038146973</v>
+        <v>30.80000114440918</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.293315410614014</v>
+        <v>-0.1518579125404358</v>
       </c>
       <c r="M47" t="n">
-        <v>-4.569909572601318</v>
+        <v>-3.620676279067993</v>
       </c>
       <c r="N47" t="n">
-        <v>4.130343437194824</v>
+        <v>4.001778602600098</v>
       </c>
     </row>
     <row r="48">
@@ -2713,11 +2713,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1705093200</v>
+        <v>1706648400</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2726,34 +2726,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.60000038146973</v>
+        <v>31.80000114440918</v>
       </c>
       <c r="F48" t="n">
-        <v>36.85745239257812</v>
+        <v>35.23495483398438</v>
       </c>
       <c r="G48" t="n">
-        <v>34.49014282226562</v>
+        <v>33.45318603515625</v>
       </c>
       <c r="H48" t="n">
-        <v>-64.63287353515625</v>
+        <v>-57.63043212890625</v>
       </c>
       <c r="I48" t="n">
-        <v>33.54103851318359</v>
+        <v>33.25434112548828</v>
       </c>
       <c r="J48" t="n">
-        <v>96204.3984375</v>
+        <v>96510.96875</v>
       </c>
       <c r="K48" t="n">
-        <v>85.70000457763672</v>
+        <v>88.5</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6049780249595642</v>
+        <v>0.05321288853883743</v>
       </c>
       <c r="M48" t="n">
-        <v>-4.507036209106445</v>
+        <v>-1.810527324676514</v>
       </c>
       <c r="N48" t="n">
-        <v>4.411416053771973</v>
+        <v>4.113391399383545</v>
       </c>
     </row>
     <row r="49">
@@ -2761,11 +2761,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1705104000</v>
+        <v>1706659200</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2774,34 +2774,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.60000038146973</v>
+        <v>33.5</v>
       </c>
       <c r="F49" t="n">
-        <v>34.30538940429688</v>
+        <v>33.98162841796875</v>
       </c>
       <c r="G49" t="n">
-        <v>33.65841674804688</v>
+        <v>34.06655883789062</v>
       </c>
       <c r="H49" t="n">
-        <v>-27.96296691894531</v>
+        <v>-57.89445495605469</v>
       </c>
       <c r="I49" t="n">
-        <v>34.16534423828125</v>
+        <v>33.38709259033203</v>
       </c>
       <c r="J49" t="n">
-        <v>96290.1171875</v>
+        <v>96417.640625</v>
       </c>
       <c r="K49" t="n">
-        <v>80.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.3037914931774139</v>
+        <v>3.358561992645264</v>
       </c>
       <c r="M49" t="n">
-        <v>-5.655480861663818</v>
+        <v>-1.382890582084656</v>
       </c>
       <c r="N49" t="n">
-        <v>7.600085735321045</v>
+        <v>4.409355640411377</v>
       </c>
     </row>
     <row r="50">
@@ -2809,11 +2809,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1705114800</v>
+        <v>1706670000</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2822,34 +2822,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>39.40000152587891</v>
+        <v>42.5</v>
       </c>
       <c r="F50" t="n">
-        <v>30.912109375</v>
+        <v>29.64328002929688</v>
       </c>
       <c r="G50" t="n">
-        <v>31.59072875976562</v>
+        <v>29.77984619140625</v>
       </c>
       <c r="H50" t="n">
-        <v>-25.75668334960938</v>
+        <v>-50.85009765625</v>
       </c>
       <c r="I50" t="n">
-        <v>28.93053436279297</v>
+        <v>33.45090103149414</v>
       </c>
       <c r="J50" t="n">
-        <v>96467.0859375</v>
+        <v>96620.5546875</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.1281542927026749</v>
+        <v>5.093713283538818</v>
       </c>
       <c r="M50" t="n">
-        <v>-5.28837251663208</v>
+        <v>-5.086008071899414</v>
       </c>
       <c r="N50" t="n">
-        <v>10.20081233978271</v>
+        <v>13.60140705108643</v>
       </c>
     </row>
     <row r="51">
@@ -2857,11 +2857,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1705125600</v>
+        <v>1706680800</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2870,34 +2870,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43.10000228881836</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F51" t="n">
-        <v>28.91748046875</v>
+        <v>28.27008056640625</v>
       </c>
       <c r="G51" t="n">
-        <v>28.8592529296875</v>
+        <v>27.85568237304688</v>
       </c>
       <c r="H51" t="n">
-        <v>-28.08389282226562</v>
+        <v>-49.96719360351562</v>
       </c>
       <c r="I51" t="n">
-        <v>28.5201358795166</v>
+        <v>34.5238037109375</v>
       </c>
       <c r="J51" t="n">
-        <v>96503.5234375</v>
+        <v>96840.734375</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="L51" t="n">
-        <v>4.529922008514404</v>
+        <v>0.6509032845497131</v>
       </c>
       <c r="M51" t="n">
-        <v>-7.16998291015625</v>
+        <v>-5.516889572143555</v>
       </c>
       <c r="N51" t="n">
-        <v>12.70127010345459</v>
+        <v>9.300950050354004</v>
       </c>
     </row>
     <row r="52">
@@ -2905,11 +2905,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1705136400</v>
+        <v>1706691600</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2918,34 +2918,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>66.09999847412109</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="F52" t="n">
-        <v>25.12020874023438</v>
+        <v>25.65414428710938</v>
       </c>
       <c r="G52" t="n">
-        <v>24.388427734375</v>
+        <v>25.24044799804688</v>
       </c>
       <c r="H52" t="n">
-        <v>-29.86509704589844</v>
+        <v>-49.47871398925781</v>
       </c>
       <c r="I52" t="n">
-        <v>33.50990676879883</v>
+        <v>35.66243362426758</v>
       </c>
       <c r="J52" t="n">
-        <v>96645.390625</v>
+        <v>96707.125</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1000000014901161</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3406127989292145</v>
+        <v>3.646213293075562</v>
       </c>
       <c r="M52" t="n">
-        <v>-4.961004734039307</v>
+        <v>-3.792282581329346</v>
       </c>
       <c r="N52" t="n">
-        <v>9.308892250061035</v>
+        <v>7.906703472137451</v>
       </c>
     </row>
     <row r="53">
@@ -2953,11 +2953,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1705147200</v>
+        <v>1706702400</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2966,34 +2966,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>70.20000457763672</v>
+        <v>65.5</v>
       </c>
       <c r="F53" t="n">
-        <v>23.82806396484375</v>
+        <v>24.30459594726562</v>
       </c>
       <c r="G53" t="n">
-        <v>22.81240844726562</v>
+        <v>23.93148803710938</v>
       </c>
       <c r="H53" t="n">
-        <v>-28.63258361816406</v>
+        <v>-44.49948120117188</v>
       </c>
       <c r="I53" t="n">
-        <v>34.25325393676758</v>
+        <v>34.20888137817383</v>
       </c>
       <c r="J53" t="n">
-        <v>96826.109375</v>
+        <v>96790.3671875</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>15.40000057220459</v>
       </c>
       <c r="L53" t="n">
-        <v>3.552148342132568</v>
+        <v>2.134562969207764</v>
       </c>
       <c r="M53" t="n">
-        <v>-2.998659610748291</v>
+        <v>-3.265619993209839</v>
       </c>
       <c r="N53" t="n">
-        <v>7.600821971893311</v>
+        <v>7.300187587738037</v>
       </c>
     </row>
     <row r="54">
@@ -3001,11 +3001,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1705158000</v>
+        <v>1706713200</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3014,34 +3014,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>51.10000228881836</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="F54" t="n">
-        <v>30.1304931640625</v>
+        <v>29.87771606445312</v>
       </c>
       <c r="G54" t="n">
-        <v>27.43234252929688</v>
+        <v>27.52947998046875</v>
       </c>
       <c r="H54" t="n">
-        <v>-72.73451232910156</v>
+        <v>-57.79202270507812</v>
       </c>
       <c r="I54" t="n">
-        <v>34.27810668945312</v>
+        <v>36.55147552490234</v>
       </c>
       <c r="J54" t="n">
-        <v>96912.78125</v>
+        <v>96941.8203125</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.267573237419128</v>
+        <v>0.3724291920661926</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.115878582000732</v>
+        <v>-6.341340065002441</v>
       </c>
       <c r="N54" t="n">
-        <v>6.021086692810059</v>
+        <v>6.716590881347656</v>
       </c>
     </row>
     <row r="55">
@@ -3049,11 +3049,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1705168800</v>
+        <v>1706724000</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3062,34 +3062,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.20000076293945</v>
+        <v>39.10000228881836</v>
       </c>
       <c r="F55" t="n">
-        <v>35.68502807617188</v>
+        <v>33.77462768554688</v>
       </c>
       <c r="G55" t="n">
-        <v>32.70330810546875</v>
+        <v>31.00021362304688</v>
       </c>
       <c r="H55" t="n">
-        <v>-64.27996826171875</v>
+        <v>-60.97383117675781</v>
       </c>
       <c r="I55" t="n">
-        <v>32.93824768066406</v>
+        <v>37.25864028930664</v>
       </c>
       <c r="J55" t="n">
-        <v>96645.2421875</v>
+        <v>96740.3359375</v>
       </c>
       <c r="K55" t="n">
-        <v>0.800000011920929</v>
+        <v>0.9000000357627869</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.298569321632385</v>
+        <v>0.9132031202316284</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.065739631652832</v>
+        <v>-4.968222618103027</v>
       </c>
       <c r="N55" t="n">
-        <v>4.00592041015625</v>
+        <v>5.230647563934326</v>
       </c>
     </row>
     <row r="56">
@@ -3097,11 +3097,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1705179600</v>
+        <v>1706734800</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3110,34 +3110,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.20000076293945</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F56" t="n">
-        <v>38.68032836914062</v>
+        <v>35.40997314453125</v>
       </c>
       <c r="G56" t="n">
-        <v>36.09738159179688</v>
+        <v>33.5318603515625</v>
       </c>
       <c r="H56" t="n">
-        <v>-63.80245971679688</v>
+        <v>-67.082763671875</v>
       </c>
       <c r="I56" t="n">
-        <v>30.55461502075195</v>
+        <v>38.5999870300293</v>
       </c>
       <c r="J56" t="n">
-        <v>96284.25</v>
+        <v>96403.5859375</v>
       </c>
       <c r="K56" t="n">
-        <v>44.60000228881836</v>
+        <v>95.59999847412109</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3949023485183716</v>
+        <v>-0.1642968654632568</v>
       </c>
       <c r="M56" t="n">
-        <v>-4.343613147735596</v>
+        <v>-3.502045869827271</v>
       </c>
       <c r="N56" t="n">
-        <v>3.504874467849731</v>
+        <v>4.702960014343262</v>
       </c>
     </row>
     <row r="57">
@@ -3145,11 +3145,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1705190400</v>
+        <v>1706745600</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3158,34 +3158,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>22.39999961853027</v>
+        <v>40.10000228881836</v>
       </c>
       <c r="F57" t="n">
-        <v>36.10098266601562</v>
+        <v>32.80502319335938</v>
       </c>
       <c r="G57" t="n">
-        <v>36.6676025390625</v>
+        <v>32.5791015625</v>
       </c>
       <c r="H57" t="n">
-        <v>-61.50456237792969</v>
+        <v>-70.73786926269531</v>
       </c>
       <c r="I57" t="n">
-        <v>29.05449867248535</v>
+        <v>40.22499847412109</v>
       </c>
       <c r="J57" t="n">
-        <v>96330.9140625</v>
+        <v>96380.1484375</v>
       </c>
       <c r="K57" t="n">
-        <v>57.5</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L57" t="n">
-        <v>-2.12890625</v>
+        <v>-1.231371998786926</v>
       </c>
       <c r="M57" t="n">
-        <v>-2.202258348464966</v>
+        <v>-2.341860294342041</v>
       </c>
       <c r="N57" t="n">
-        <v>3.2001953125</v>
+        <v>5.624836444854736</v>
       </c>
     </row>
     <row r="58">
@@ -3193,11 +3193,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1705201200</v>
+        <v>1706756400</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3206,34 +3206,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.60000228881836</v>
+        <v>50.10000228881836</v>
       </c>
       <c r="F58" t="n">
-        <v>33.10064697265625</v>
+        <v>29.08108520507812</v>
       </c>
       <c r="G58" t="n">
-        <v>32.58447265625</v>
+        <v>29.96356201171875</v>
       </c>
       <c r="H58" t="n">
-        <v>-59.373779296875</v>
+        <v>-69.30316162109375</v>
       </c>
       <c r="I58" t="n">
-        <v>38.35393905639648</v>
+        <v>40.02198028564453</v>
       </c>
       <c r="J58" t="n">
-        <v>96608.921875</v>
+        <v>96621.5234375</v>
       </c>
       <c r="K58" t="n">
-        <v>98.90000152587891</v>
+        <v>18.5</v>
       </c>
       <c r="L58" t="n">
-        <v>-2.506884813308716</v>
+        <v>2.581984758377075</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.502150893211365</v>
+        <v>-4.002016544342041</v>
       </c>
       <c r="N58" t="n">
-        <v>4.501745700836182</v>
+        <v>8.910305023193359</v>
       </c>
     </row>
     <row r="59">
@@ -3241,11 +3241,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1705212000</v>
+        <v>1706767200</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3254,34 +3254,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>58.20000076293945</v>
+        <v>57.70000076293945</v>
       </c>
       <c r="F59" t="n">
-        <v>28.8311767578125</v>
+        <v>27.9666748046875</v>
       </c>
       <c r="G59" t="n">
-        <v>28.07492065429688</v>
+        <v>27.68197631835938</v>
       </c>
       <c r="H59" t="n">
-        <v>-62.33869934082031</v>
+        <v>-69.91156005859375</v>
       </c>
       <c r="I59" t="n">
-        <v>41.67867660522461</v>
+        <v>41.46062088012695</v>
       </c>
       <c r="J59" t="n">
-        <v>96740.75</v>
+        <v>96645.5546875</v>
       </c>
       <c r="K59" t="n">
-        <v>82</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2099267542362213</v>
+        <v>0.2291162014007568</v>
       </c>
       <c r="M59" t="n">
-        <v>-6.81877326965332</v>
+        <v>-4.525319576263428</v>
       </c>
       <c r="N59" t="n">
-        <v>10.61592960357666</v>
+        <v>8.807906150817871</v>
       </c>
     </row>
     <row r="60">
@@ -3289,11 +3289,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1705222800</v>
+        <v>1706778000</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3302,34 +3302,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66.70000457763672</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="F60" t="n">
-        <v>27.1678466796875</v>
+        <v>25.47494506835938</v>
       </c>
       <c r="G60" t="n">
-        <v>26.40921020507812</v>
+        <v>25.09054565429688</v>
       </c>
       <c r="H60" t="n">
-        <v>-62.00048828125</v>
+        <v>-68.58308410644531</v>
       </c>
       <c r="I60" t="n">
-        <v>42.19919586181641</v>
+        <v>42.33813095092773</v>
       </c>
       <c r="J60" t="n">
-        <v>96653.3671875</v>
+        <v>96600.4296875</v>
       </c>
       <c r="K60" t="n">
-        <v>38.40000152587891</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="L60" t="n">
-        <v>1.177536606788635</v>
+        <v>0.9921289086341858</v>
       </c>
       <c r="M60" t="n">
-        <v>-5.427498817443848</v>
+        <v>-3.382187366485596</v>
       </c>
       <c r="N60" t="n">
-        <v>8.506918907165527</v>
+        <v>6.805237770080566</v>
       </c>
     </row>
     <row r="61">
@@ -3337,11 +3337,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1705233600</v>
+        <v>1706788800</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3350,34 +3350,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>75.90000152587891</v>
+        <v>71.70000457763672</v>
       </c>
       <c r="F61" t="n">
-        <v>25.65609741210938</v>
+        <v>24.70123291015625</v>
       </c>
       <c r="G61" t="n">
-        <v>24.63739013671875</v>
+        <v>24.0899658203125</v>
       </c>
       <c r="H61" t="n">
-        <v>-71.22032165527344</v>
+        <v>-68.20162963867188</v>
       </c>
       <c r="I61" t="n">
-        <v>41.67118835449219</v>
+        <v>41.97438049316406</v>
       </c>
       <c r="J61" t="n">
-        <v>96864.6484375</v>
+        <v>96721.6015625</v>
       </c>
       <c r="K61" t="n">
-        <v>38.70000076293945</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="L61" t="n">
-        <v>2.568581581115723</v>
+        <v>2.247761249542236</v>
       </c>
       <c r="M61" t="n">
-        <v>-3.782215595245361</v>
+        <v>-3.308283567428589</v>
       </c>
       <c r="N61" t="n">
-        <v>6.823878765106201</v>
+        <v>6.708258152008057</v>
       </c>
     </row>
     <row r="62">
@@ -3385,11 +3385,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1705244400</v>
+        <v>1706799600</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3398,34 +3398,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>51.60000228881836</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="F62" t="n">
-        <v>31.01947021484375</v>
+        <v>29.58758544921875</v>
       </c>
       <c r="G62" t="n">
-        <v>28.38946533203125</v>
+        <v>27.106689453125</v>
       </c>
       <c r="H62" t="n">
-        <v>-65.61723327636719</v>
+        <v>-67.115234375</v>
       </c>
       <c r="I62" t="n">
-        <v>40.1566162109375</v>
+        <v>39.67396545410156</v>
       </c>
       <c r="J62" t="n">
-        <v>96920.578125</v>
+        <v>96858.3359375</v>
       </c>
       <c r="K62" t="n">
-        <v>16.70000076293945</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.8505077958106995</v>
+        <v>2.024377346038818</v>
       </c>
       <c r="M62" t="n">
-        <v>-4.891486644744873</v>
+        <v>-5.304718971252441</v>
       </c>
       <c r="N62" t="n">
-        <v>5.002278804779053</v>
+        <v>6.322667598724365</v>
       </c>
     </row>
     <row r="63">
@@ -3433,11 +3433,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1705255200</v>
+        <v>1706810400</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3446,34 +3446,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.60000228881836</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="F63" t="n">
-        <v>33.421630859375</v>
+        <v>34.47793579101562</v>
       </c>
       <c r="G63" t="n">
-        <v>31.40390014648438</v>
+        <v>31.49017333984375</v>
       </c>
       <c r="H63" t="n">
-        <v>-63.78086853027344</v>
+        <v>-66.59187316894531</v>
       </c>
       <c r="I63" t="n">
-        <v>40.77082061767578</v>
+        <v>39.81921005249023</v>
       </c>
       <c r="J63" t="n">
-        <v>96718.4921875</v>
+        <v>96643.5234375</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9258666634559631</v>
+        <v>1.187888145446777</v>
       </c>
       <c r="M63" t="n">
-        <v>-4.817187309265137</v>
+        <v>-5.826696872711182</v>
       </c>
       <c r="N63" t="n">
-        <v>5.03003454208374</v>
+        <v>6.701745510101318</v>
       </c>
     </row>
     <row r="64">
@@ -3481,11 +3481,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1705266000</v>
+        <v>1706821200</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3494,34 +3494,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.60000228881836</v>
+        <v>27.39999961853027</v>
       </c>
       <c r="F64" t="n">
-        <v>34.34182739257812</v>
+        <v>36.67828369140625</v>
       </c>
       <c r="G64" t="n">
-        <v>32.17617797851562</v>
+        <v>34.24114990234375</v>
       </c>
       <c r="H64" t="n">
-        <v>-59.48834228515625</v>
+        <v>-65.98542785644531</v>
       </c>
       <c r="I64" t="n">
-        <v>40.07925033569336</v>
+        <v>38.02981948852539</v>
       </c>
       <c r="J64" t="n">
-        <v>96508.1015625</v>
+        <v>96323.421875</v>
       </c>
       <c r="K64" t="n">
-        <v>65.09999847412109</v>
+        <v>44</v>
       </c>
       <c r="L64" t="n">
-        <v>1.645156264305115</v>
+        <v>1.926545381546021</v>
       </c>
       <c r="M64" t="n">
-        <v>-5.419489860534668</v>
+        <v>-5.882487773895264</v>
       </c>
       <c r="N64" t="n">
-        <v>5.001599788665771</v>
+        <v>6.215958118438721</v>
       </c>
     </row>
     <row r="65">
@@ -3529,11 +3529,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1705276800</v>
+        <v>1706832000</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3542,34 +3542,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>40.20000076293945</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="F65" t="n">
-        <v>33.0869140625</v>
+        <v>34.51882934570312</v>
       </c>
       <c r="G65" t="n">
-        <v>32.55853271484375</v>
+        <v>34.68527221679688</v>
       </c>
       <c r="H65" t="n">
-        <v>-60.93490600585938</v>
+        <v>-67.75482177734375</v>
       </c>
       <c r="I65" t="n">
-        <v>38.631103515625</v>
+        <v>36.39802551269531</v>
       </c>
       <c r="J65" t="n">
-        <v>96529.6171875</v>
+        <v>96342.953125</v>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="L65" t="n">
-        <v>1.26220703125</v>
+        <v>2.171887159347534</v>
       </c>
       <c r="M65" t="n">
-        <v>-4.010695934295654</v>
+        <v>-3.143996477127075</v>
       </c>
       <c r="N65" t="n">
-        <v>5.601649761199951</v>
+        <v>5.601155281066895</v>
       </c>
     </row>
     <row r="66">
@@ -3577,11 +3577,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1705287600</v>
+        <v>1706842800</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3590,34 +3590,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>73.70000457763672</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="F66" t="n">
-        <v>25.61911010742188</v>
+        <v>31.869384765625</v>
       </c>
       <c r="G66" t="n">
-        <v>26.04296875</v>
+        <v>31.47677612304688</v>
       </c>
       <c r="H66" t="n">
-        <v>-56.33229064941406</v>
+        <v>-67.22566223144531</v>
       </c>
       <c r="I66" t="n">
-        <v>44.17111587524414</v>
+        <v>37.63150405883789</v>
       </c>
       <c r="J66" t="n">
-        <v>96787</v>
+        <v>96587.5234375</v>
       </c>
       <c r="K66" t="n">
-        <v>7.700000286102295</v>
+        <v>95.90000152587891</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.372997999191284</v>
+        <v>5.121142387390137</v>
       </c>
       <c r="M66" t="n">
-        <v>-4.243220329284668</v>
+        <v>-5.208539962768555</v>
       </c>
       <c r="N66" t="n">
-        <v>9.504509925842285</v>
+        <v>12.60210037231445</v>
       </c>
     </row>
     <row r="67">
@@ -3625,11 +3625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1705298400</v>
+        <v>1706853600</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3638,34 +3638,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>76.59999847412109</v>
+        <v>47.29999923706055</v>
       </c>
       <c r="F67" t="n">
-        <v>25.93704223632812</v>
+        <v>28.55728149414062</v>
       </c>
       <c r="G67" t="n">
-        <v>25.12728881835938</v>
+        <v>27.52020263671875</v>
       </c>
       <c r="H67" t="n">
-        <v>-62.33087158203125</v>
+        <v>-69.73759460449219</v>
       </c>
       <c r="I67" t="n">
-        <v>47.91672515869141</v>
+        <v>39.56594848632812</v>
       </c>
       <c r="J67" t="n">
-        <v>96840.046875</v>
+        <v>96737.6328125</v>
       </c>
       <c r="K67" t="n">
-        <v>5.300000190734863</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.6637841463088989</v>
+        <v>2.418920755386353</v>
       </c>
       <c r="M67" t="n">
-        <v>-3.746537923812866</v>
+        <v>-6.583908557891846</v>
       </c>
       <c r="N67" t="n">
-        <v>7.400405883789062</v>
+        <v>10.1009407043457</v>
       </c>
     </row>
     <row r="68">
@@ -3673,11 +3673,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1705309200</v>
+        <v>1706864400</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3686,34 +3686,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>81.40000152587891</v>
+        <v>65.59999847412109</v>
       </c>
       <c r="F68" t="n">
-        <v>24.3380126953125</v>
+        <v>25.49896240234375</v>
       </c>
       <c r="G68" t="n">
-        <v>23.67291259765625</v>
+        <v>24.55648803710938</v>
       </c>
       <c r="H68" t="n">
-        <v>-61.89262390136719</v>
+        <v>-67.87455749511719</v>
       </c>
       <c r="I68" t="n">
-        <v>45.56650161743164</v>
+        <v>41.63946533203125</v>
       </c>
       <c r="J68" t="n">
-        <v>96722.6953125</v>
+        <v>96613.375</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>1.700000047683716</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9771069288253784</v>
+        <v>3.164526224136353</v>
       </c>
       <c r="M68" t="n">
-        <v>-3.04132080078125</v>
+        <v>-3.966364622116089</v>
       </c>
       <c r="N68" t="n">
-        <v>5.80256986618042</v>
+        <v>9.304319381713867</v>
       </c>
     </row>
     <row r="69">
@@ -3721,11 +3721,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1705320000</v>
+        <v>1706875200</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3734,34 +3734,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>79.90000152587891</v>
+        <v>73.5</v>
       </c>
       <c r="F69" t="n">
-        <v>23.86514282226562</v>
+        <v>24.23904418945312</v>
       </c>
       <c r="G69" t="n">
-        <v>23.23992919921875</v>
+        <v>23.28842163085938</v>
       </c>
       <c r="H69" t="n">
-        <v>-51.80694580078125</v>
+        <v>-65.42507934570312</v>
       </c>
       <c r="I69" t="n">
-        <v>46.96057510375977</v>
+        <v>42.47550201416016</v>
       </c>
       <c r="J69" t="n">
-        <v>96841.2265625</v>
+        <v>96728.2734375</v>
       </c>
       <c r="K69" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>2.829330921173096</v>
+        <v>3.936586856842041</v>
       </c>
       <c r="M69" t="n">
-        <v>-2.641323089599609</v>
+        <v>-3.906166791915894</v>
       </c>
       <c r="N69" t="n">
-        <v>5.707384586334229</v>
+        <v>9.402426719665527</v>
       </c>
     </row>
     <row r="70">
@@ -3769,11 +3769,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1705330800</v>
+        <v>1706886000</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3782,34 +3782,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>57.79999923706055</v>
+        <v>52.60000228881836</v>
       </c>
       <c r="F70" t="n">
-        <v>29.29763793945312</v>
+        <v>29.20220947265625</v>
       </c>
       <c r="G70" t="n">
-        <v>26.97821044921875</v>
+        <v>26.71749877929688</v>
       </c>
       <c r="H70" t="n">
-        <v>-45.40667724609375</v>
+        <v>-65.85758972167969</v>
       </c>
       <c r="I70" t="n">
-        <v>47.81498718261719</v>
+        <v>41.73857879638672</v>
       </c>
       <c r="J70" t="n">
-        <v>96893.4296875</v>
+        <v>96883.1328125</v>
       </c>
       <c r="K70" t="n">
-        <v>24.60000038146973</v>
+        <v>93</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.453437477350235</v>
+        <v>1.343183517456055</v>
       </c>
       <c r="M70" t="n">
-        <v>-4.001496315002441</v>
+        <v>-6.181494235992432</v>
       </c>
       <c r="N70" t="n">
-        <v>5.004431247711182</v>
+        <v>7.007123470306396</v>
       </c>
     </row>
     <row r="71">
@@ -3817,11 +3817,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1705341600</v>
+        <v>1706896800</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3830,34 +3830,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.70000076293945</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="F71" t="n">
-        <v>32.56723022460938</v>
+        <v>33.7706298828125</v>
       </c>
       <c r="G71" t="n">
-        <v>30.09121704101562</v>
+        <v>30.889404296875</v>
       </c>
       <c r="H71" t="n">
-        <v>-45.15202331542969</v>
+        <v>-66.25984191894531</v>
       </c>
       <c r="I71" t="n">
-        <v>47.93917846679688</v>
+        <v>41.52695083618164</v>
       </c>
       <c r="J71" t="n">
-        <v>96663.8515625</v>
+        <v>96729.7890625</v>
       </c>
       <c r="K71" t="n">
-        <v>49.90000152587891</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2595874071121216</v>
+        <v>1.105312466621399</v>
       </c>
       <c r="M71" t="n">
-        <v>-5.171894550323486</v>
+        <v>-5.305307388305664</v>
       </c>
       <c r="N71" t="n">
-        <v>4.802558422088623</v>
+        <v>6.121424674987793</v>
       </c>
     </row>
     <row r="72">
@@ -3865,11 +3865,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1705352400</v>
+        <v>1706907600</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3878,34 +3878,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="F72" t="n">
-        <v>32.41928100585938</v>
+        <v>35.9080810546875</v>
       </c>
       <c r="G72" t="n">
-        <v>31.32101440429688</v>
+        <v>33.48489379882812</v>
       </c>
       <c r="H72" t="n">
-        <v>-44.79823303222656</v>
+        <v>-68.64549255371094</v>
       </c>
       <c r="I72" t="n">
-        <v>51.15611267089844</v>
+        <v>41.61138153076172</v>
       </c>
       <c r="J72" t="n">
-        <v>96469.609375</v>
+        <v>96421.53125</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
+        <v>63.10000228881836</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3203295767307281</v>
+        <v>-1.228200674057007</v>
       </c>
       <c r="M72" t="n">
-        <v>-3.867341279983521</v>
+        <v>-4.821987152099609</v>
       </c>
       <c r="N72" t="n">
-        <v>4.515052795410156</v>
+        <v>6.400000095367432</v>
       </c>
     </row>
     <row r="73">
@@ -3913,11 +3913,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1705363200</v>
+        <v>1706918400</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3926,34 +3926,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>51.60000228881836</v>
+        <v>36.5</v>
       </c>
       <c r="F73" t="n">
-        <v>31.1884765625</v>
+        <v>33.74676513671875</v>
       </c>
       <c r="G73" t="n">
-        <v>31.08258056640625</v>
+        <v>33.2822265625</v>
       </c>
       <c r="H73" t="n">
-        <v>-43.26969909667969</v>
+        <v>-68.32803344726562</v>
       </c>
       <c r="I73" t="n">
-        <v>45.18007278442383</v>
+        <v>40.94569778442383</v>
       </c>
       <c r="J73" t="n">
-        <v>96384.21875</v>
+        <v>96400.703125</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="L73" t="n">
-        <v>4.096728324890137</v>
+        <v>-0.2073779255151749</v>
       </c>
       <c r="M73" t="n">
-        <v>-3.88934063911438</v>
+        <v>-2.532602548599243</v>
       </c>
       <c r="N73" t="n">
-        <v>8.620712280273438</v>
+        <v>3.406597852706909</v>
       </c>
     </row>
     <row r="74">
@@ -3961,11 +3961,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1705374000</v>
+        <v>1706929200</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3974,34 +3974,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>79.5</v>
+        <v>37</v>
       </c>
       <c r="F74" t="n">
-        <v>25.11257934570312</v>
+        <v>32.3057861328125</v>
       </c>
       <c r="G74" t="n">
-        <v>24.84503173828125</v>
+        <v>31.7989501953125</v>
       </c>
       <c r="H74" t="n">
-        <v>-38.9830322265625</v>
+        <v>-69.55487060546875</v>
       </c>
       <c r="I74" t="n">
-        <v>47.07242202758789</v>
+        <v>42.77729415893555</v>
       </c>
       <c r="J74" t="n">
-        <v>96767.0234375</v>
+        <v>96605.1796875</v>
       </c>
       <c r="K74" t="n">
-        <v>20.39999961853027</v>
+        <v>65.40000152587891</v>
       </c>
       <c r="L74" t="n">
-        <v>0.4936645328998566</v>
+        <v>2.558466672897339</v>
       </c>
       <c r="M74" t="n">
-        <v>-3.292521953582764</v>
+        <v>-5.694897174835205</v>
       </c>
       <c r="N74" t="n">
-        <v>8.51667594909668</v>
+        <v>10.69999980926514</v>
       </c>
     </row>
     <row r="75">
@@ -4009,11 +4009,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1705384800</v>
+        <v>1706940000</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4022,34 +4022,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>83.40000152587891</v>
+        <v>46.90000152587891</v>
       </c>
       <c r="F75" t="n">
-        <v>24.58670043945312</v>
+        <v>28.86544799804688</v>
       </c>
       <c r="G75" t="n">
-        <v>24.25595092773438</v>
+        <v>28.32244873046875</v>
       </c>
       <c r="H75" t="n">
-        <v>-39.15092468261719</v>
+        <v>-62.83645629882812</v>
       </c>
       <c r="I75" t="n">
-        <v>46.79319763183594</v>
+        <v>42.36061859130859</v>
       </c>
       <c r="J75" t="n">
-        <v>96780.6796875</v>
+        <v>96684.6796875</v>
       </c>
       <c r="K75" t="n">
-        <v>52.90000152587891</v>
+        <v>84.70000457763672</v>
       </c>
       <c r="L75" t="n">
-        <v>2.265070676803589</v>
+        <v>3.775869131088257</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.962416887283325</v>
+        <v>-6.876279354095459</v>
       </c>
       <c r="N75" t="n">
-        <v>7.313723087310791</v>
+        <v>11.30000019073486</v>
       </c>
     </row>
     <row r="76">
@@ -4057,11 +4057,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1705395600</v>
+        <v>1706950800</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4070,34 +4070,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>87.30000305175781</v>
+        <v>63.10000228881836</v>
       </c>
       <c r="F76" t="n">
-        <v>23.9195556640625</v>
+        <v>25.92312622070312</v>
       </c>
       <c r="G76" t="n">
-        <v>23.1923828125</v>
+        <v>24.769287109375</v>
       </c>
       <c r="H76" t="n">
-        <v>-45.96452331542969</v>
+        <v>-65.14146423339844</v>
       </c>
       <c r="I76" t="n">
-        <v>46.79333114624023</v>
+        <v>45.44097137451172</v>
       </c>
       <c r="J76" t="n">
-        <v>96696.9609375</v>
+        <v>96623.8046875</v>
       </c>
       <c r="K76" t="n">
-        <v>100</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L76" t="n">
-        <v>3.369790077209473</v>
+        <v>4.157890319824219</v>
       </c>
       <c r="M76" t="n">
-        <v>-3.017756223678589</v>
+        <v>-5.943676471710205</v>
       </c>
       <c r="N76" t="n">
-        <v>8.501288414001465</v>
+        <v>11.00174617767334</v>
       </c>
     </row>
     <row r="77">
@@ -4105,11 +4105,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1705406400</v>
+        <v>1706961600</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4118,34 +4118,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>89.70000457763672</v>
+        <v>73.20000457763672</v>
       </c>
       <c r="F77" t="n">
-        <v>23.50875854492188</v>
+        <v>24.29367065429688</v>
       </c>
       <c r="G77" t="n">
-        <v>22.62957763671875</v>
+        <v>23.23452758789062</v>
       </c>
       <c r="H77" t="n">
-        <v>-45.3179931640625</v>
+        <v>-66.18763732910156</v>
       </c>
       <c r="I77" t="n">
-        <v>46.60070037841797</v>
+        <v>45.68532562255859</v>
       </c>
       <c r="J77" t="n">
-        <v>96839.5</v>
+        <v>96740.3359375</v>
       </c>
       <c r="K77" t="n">
-        <v>95.09999847412109</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L77" t="n">
-        <v>3.9825439453125</v>
+        <v>4.003598690032959</v>
       </c>
       <c r="M77" t="n">
-        <v>-3.72204327583313</v>
+        <v>-5.17117166519165</v>
       </c>
       <c r="N77" t="n">
-        <v>9.604689598083496</v>
+        <v>10.60000038146973</v>
       </c>
     </row>
     <row r="78">
@@ -4153,11 +4153,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1705417200</v>
+        <v>1706972400</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4166,34 +4166,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>62.70000076293945</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="F78" t="n">
-        <v>28.65414428710938</v>
+        <v>28.458984375</v>
       </c>
       <c r="G78" t="n">
-        <v>26.205078125</v>
+        <v>26.11822509765625</v>
       </c>
       <c r="H78" t="n">
-        <v>-46.92108154296875</v>
+        <v>-64.56916809082031</v>
       </c>
       <c r="I78" t="n">
-        <v>46.76041412353516</v>
+        <v>44.16264343261719</v>
       </c>
       <c r="J78" t="n">
-        <v>96955.4921875</v>
+        <v>96897.4140625</v>
       </c>
       <c r="K78" t="n">
-        <v>48.5</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
-        <v>2.825075626373291</v>
+        <v>1.328227519989014</v>
       </c>
       <c r="M78" t="n">
-        <v>-6.584750652313232</v>
+        <v>-7.238767147064209</v>
       </c>
       <c r="N78" t="n">
-        <v>7.611863136291504</v>
+        <v>8.305159568786621</v>
       </c>
     </row>
     <row r="79">
@@ -4201,11 +4201,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1705428000</v>
+        <v>1706983200</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4214,34 +4214,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.90000152587891</v>
+        <v>42.90000152587891</v>
       </c>
       <c r="F79" t="n">
-        <v>33.85165405273438</v>
+        <v>32.18292236328125</v>
       </c>
       <c r="G79" t="n">
-        <v>30.55679321289062</v>
+        <v>30.38983154296875</v>
       </c>
       <c r="H79" t="n">
-        <v>-50.83346557617188</v>
+        <v>-66.545654296875</v>
       </c>
       <c r="I79" t="n">
-        <v>43.36205291748047</v>
+        <v>42.00185394287109</v>
       </c>
       <c r="J79" t="n">
-        <v>96723.671875</v>
+        <v>96723.5859375</v>
       </c>
       <c r="K79" t="n">
-        <v>66.30000305175781</v>
+        <v>97.30000305175781</v>
       </c>
       <c r="L79" t="n">
-        <v>2.084819316864014</v>
+        <v>0.1697363257408142</v>
       </c>
       <c r="M79" t="n">
-        <v>-6.604911804199219</v>
+        <v>-5.523105144500732</v>
       </c>
       <c r="N79" t="n">
-        <v>6.800105571746826</v>
+        <v>7.911288738250732</v>
       </c>
     </row>
     <row r="80">
@@ -4249,11 +4249,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1705438800</v>
+        <v>1706994000</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4262,34 +4262,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.39999961853027</v>
+        <v>38.60000228881836</v>
       </c>
       <c r="F80" t="n">
-        <v>35.89703369140625</v>
+        <v>33.13296508789062</v>
       </c>
       <c r="G80" t="n">
-        <v>33.55279541015625</v>
+        <v>31.6923828125</v>
       </c>
       <c r="H80" t="n">
-        <v>-47.12399291992188</v>
+        <v>-68.17062377929688</v>
       </c>
       <c r="I80" t="n">
-        <v>39.21916961669922</v>
+        <v>40.50821304321289</v>
       </c>
       <c r="J80" t="n">
-        <v>96441.171875</v>
+        <v>96412.5234375</v>
       </c>
       <c r="K80" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.137365698814392</v>
+        <v>5.373749732971191</v>
       </c>
       <c r="M80" t="n">
-        <v>-4.632599830627441</v>
+        <v>-5.222636699676514</v>
       </c>
       <c r="N80" t="n">
-        <v>6.30075216293335</v>
+        <v>7.929368019104004</v>
       </c>
     </row>
     <row r="81">
@@ -4297,11 +4297,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1705449600</v>
+        <v>1707004800</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4310,34 +4310,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.70000076293945</v>
+        <v>42.90000152587891</v>
       </c>
       <c r="F81" t="n">
-        <v>31.69021606445312</v>
+        <v>32.0714111328125</v>
       </c>
       <c r="G81" t="n">
-        <v>30.95932006835938</v>
+        <v>31.45745849609375</v>
       </c>
       <c r="H81" t="n">
-        <v>-53.40391540527344</v>
+        <v>-67.43913269042969</v>
       </c>
       <c r="I81" t="n">
-        <v>40.81516265869141</v>
+        <v>39.99983978271484</v>
       </c>
       <c r="J81" t="n">
-        <v>96536.7578125</v>
+        <v>96400.59375</v>
       </c>
       <c r="K81" t="n">
-        <v>100</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L81" t="n">
-        <v>1.51882803440094</v>
+        <v>5.36831521987915</v>
       </c>
       <c r="M81" t="n">
-        <v>-6.910634517669678</v>
+        <v>-5.578315258026123</v>
       </c>
       <c r="N81" t="n">
-        <v>9.404538154602051</v>
+        <v>10.60642147064209</v>
       </c>
     </row>
     <row r="82">
@@ -4345,11 +4345,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1705460400</v>
+        <v>1707015600</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4358,34 +4358,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.20000076293945</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F82" t="n">
-        <v>29.66412353515625</v>
+        <v>29.3369140625</v>
       </c>
       <c r="G82" t="n">
-        <v>29.0618896484375</v>
+        <v>29.1954345703125</v>
       </c>
       <c r="H82" t="n">
-        <v>-40.46714782714844</v>
+        <v>-67.54020690917969</v>
       </c>
       <c r="I82" t="n">
-        <v>43.19926834106445</v>
+        <v>41.23755645751953</v>
       </c>
       <c r="J82" t="n">
-        <v>96719.9296875</v>
+        <v>96585.8984375</v>
       </c>
       <c r="K82" t="n">
-        <v>100</v>
+        <v>8.5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.074147939682007</v>
+        <v>5.247309684753418</v>
       </c>
       <c r="M82" t="n">
-        <v>-5.963447093963623</v>
+        <v>-5.489294528961182</v>
       </c>
       <c r="N82" t="n">
-        <v>10.50651836395264</v>
+        <v>12.80105495452881</v>
       </c>
     </row>
     <row r="83">
@@ -4393,11 +4393,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1705471200</v>
+        <v>1707026400</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4406,34 +4406,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>65.30000305175781</v>
+        <v>61.60000228881836</v>
       </c>
       <c r="F83" t="n">
-        <v>26.90396118164062</v>
+        <v>26.8359375</v>
       </c>
       <c r="G83" t="n">
-        <v>26.22305297851562</v>
+        <v>26.40176391601562</v>
       </c>
       <c r="H83" t="n">
-        <v>-7.7869873046875</v>
+        <v>-66.58018493652344</v>
       </c>
       <c r="I83" t="n">
-        <v>42.93100357055664</v>
+        <v>41.11611938476562</v>
       </c>
       <c r="J83" t="n">
-        <v>96792.921875</v>
+        <v>96633</v>
       </c>
       <c r="K83" t="n">
-        <v>10.80000019073486</v>
+        <v>11.90000057220459</v>
       </c>
       <c r="L83" t="n">
-        <v>2.563459396362305</v>
+        <v>4.171835899353027</v>
       </c>
       <c r="M83" t="n">
-        <v>-5.196159362792969</v>
+        <v>-6.098991394042969</v>
       </c>
       <c r="N83" t="n">
-        <v>10.19999980926514</v>
+        <v>12.81698131561279</v>
       </c>
     </row>
     <row r="84">
@@ -4441,11 +4441,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1705482000</v>
+        <v>1707037200</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4454,34 +4454,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>80.40000152587891</v>
+        <v>72.30000305175781</v>
       </c>
       <c r="F84" t="n">
-        <v>24.48052978515625</v>
+        <v>25.02310180664062</v>
       </c>
       <c r="G84" t="n">
-        <v>23.8082275390625</v>
+        <v>24.35055541992188</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.444061279296875</v>
+        <v>-71.64973449707031</v>
       </c>
       <c r="I84" t="n">
-        <v>39.30807876586914</v>
+        <v>43.54929733276367</v>
       </c>
       <c r="J84" t="n">
-        <v>96805.1484375</v>
+        <v>96608.796875</v>
       </c>
       <c r="K84" t="n">
-        <v>6.800000190734863</v>
+        <v>5</v>
       </c>
       <c r="L84" t="n">
-        <v>2.963361740112305</v>
+        <v>3.287451028823853</v>
       </c>
       <c r="M84" t="n">
-        <v>-3.99688458442688</v>
+        <v>-5.478940486907959</v>
       </c>
       <c r="N84" t="n">
-        <v>8.606601715087891</v>
+        <v>11.51724910736084</v>
       </c>
     </row>
     <row r="85">
@@ -4489,11 +4489,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1705492800</v>
+        <v>1707048000</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4502,34 +4502,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>85.59999847412109</v>
+        <v>78.5</v>
       </c>
       <c r="F85" t="n">
-        <v>23.266357421875</v>
+        <v>23.55426025390625</v>
       </c>
       <c r="G85" t="n">
-        <v>22.2945556640625</v>
+        <v>22.70199584960938</v>
       </c>
       <c r="H85" t="n">
-        <v>-6.623870849609375</v>
+        <v>-70.46488952636719</v>
       </c>
       <c r="I85" t="n">
-        <v>35.61685562133789</v>
+        <v>41.72115325927734</v>
       </c>
       <c r="J85" t="n">
-        <v>96928.9609375</v>
+        <v>96689.546875</v>
       </c>
       <c r="K85" t="n">
-        <v>36.70000076293945</v>
+        <v>94.59999847412109</v>
       </c>
       <c r="L85" t="n">
-        <v>3.711672306060791</v>
+        <v>3.626872539520264</v>
       </c>
       <c r="M85" t="n">
-        <v>-3.678852558135986</v>
+        <v>-5.243264198303223</v>
       </c>
       <c r="N85" t="n">
-        <v>7.801661968231201</v>
+        <v>10.92208671569824</v>
       </c>
     </row>
     <row r="86">
@@ -4537,11 +4537,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1705503600</v>
+        <v>1707058800</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4550,34 +4550,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>60.10000228881836</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="F86" t="n">
-        <v>27.75274658203125</v>
+        <v>28.52871704101562</v>
       </c>
       <c r="G86" t="n">
-        <v>25.33447265625</v>
+        <v>26.07009887695312</v>
       </c>
       <c r="H86" t="n">
-        <v>-10.049560546875</v>
+        <v>-69.05253601074219</v>
       </c>
       <c r="I86" t="n">
-        <v>32.86913299560547</v>
+        <v>37.25985717773438</v>
       </c>
       <c r="J86" t="n">
-        <v>97040.9921875</v>
+        <v>96806.875</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>92.70000457763672</v>
       </c>
       <c r="L86" t="n">
-        <v>3.835007190704346</v>
+        <v>1.575236797332764</v>
       </c>
       <c r="M86" t="n">
-        <v>-4.256518363952637</v>
+        <v>-7.898029804229736</v>
       </c>
       <c r="N86" t="n">
-        <v>6.005651473999023</v>
+        <v>9.112841606140137</v>
       </c>
     </row>
     <row r="87">
@@ -4585,11 +4585,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1705514400</v>
+        <v>1707069600</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4598,34 +4598,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>40.40000152587891</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F87" t="n">
-        <v>32.04525756835938</v>
+        <v>34.13504028320312</v>
       </c>
       <c r="G87" t="n">
-        <v>29.3116455078125</v>
+        <v>30.98101806640625</v>
       </c>
       <c r="H87" t="n">
-        <v>-14.20281982421875</v>
+        <v>-69.09288024902344</v>
       </c>
       <c r="I87" t="n">
-        <v>29.70791435241699</v>
+        <v>34.76559066772461</v>
       </c>
       <c r="J87" t="n">
-        <v>96827.828125</v>
+        <v>96594.1640625</v>
       </c>
       <c r="K87" t="n">
-        <v>100</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="L87" t="n">
-        <v>2.885378360748291</v>
+        <v>2.782668352127075</v>
       </c>
       <c r="M87" t="n">
-        <v>-4.533979415893555</v>
+        <v>-7.392604827880859</v>
       </c>
       <c r="N87" t="n">
-        <v>5.714103698730469</v>
+        <v>8.90000057220459</v>
       </c>
     </row>
     <row r="88">
@@ -4633,11 +4633,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1705525200</v>
+        <v>1707080400</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4646,34 +4646,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.20000076293945</v>
+        <v>28.5</v>
       </c>
       <c r="F88" t="n">
-        <v>34.94146728515625</v>
+        <v>36.43624877929688</v>
       </c>
       <c r="G88" t="n">
-        <v>32.67919921875</v>
+        <v>33.9263916015625</v>
       </c>
       <c r="H88" t="n">
-        <v>-14.65341186523438</v>
+        <v>-69.57658386230469</v>
       </c>
       <c r="I88" t="n">
-        <v>26.91573905944824</v>
+        <v>38.76416397094727</v>
       </c>
       <c r="J88" t="n">
-        <v>96526.390625</v>
+        <v>96244.34375</v>
       </c>
       <c r="K88" t="n">
-        <v>78.70000457763672</v>
+        <v>91.40000152587891</v>
       </c>
       <c r="L88" t="n">
-        <v>1.336318373680115</v>
+        <v>5.878583908081055</v>
       </c>
       <c r="M88" t="n">
-        <v>-3.562463283538818</v>
+        <v>-5.81035852432251</v>
       </c>
       <c r="N88" t="n">
-        <v>4.801490306854248</v>
+        <v>9.826038360595703</v>
       </c>
     </row>
     <row r="89">
@@ -4681,11 +4681,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1705536000</v>
+        <v>1707091200</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4694,34 +4694,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.70000076293945</v>
+        <v>29.5</v>
       </c>
       <c r="F89" t="n">
-        <v>33.04129028320312</v>
+        <v>34.04010009765625</v>
       </c>
       <c r="G89" t="n">
-        <v>33.50131225585938</v>
+        <v>33.67361450195312</v>
       </c>
       <c r="H89" t="n">
-        <v>-64.93756103515625</v>
+        <v>-72.11276245117188</v>
       </c>
       <c r="I89" t="n">
-        <v>24.1989860534668</v>
+        <v>39.23905944824219</v>
       </c>
       <c r="J89" t="n">
-        <v>96498.2734375</v>
+        <v>96271.2734375</v>
       </c>
       <c r="K89" t="n">
-        <v>5.200000286102295</v>
+        <v>81.40000152587891</v>
       </c>
       <c r="L89" t="n">
-        <v>1.634958505630493</v>
+        <v>1.803395986557007</v>
       </c>
       <c r="M89" t="n">
-        <v>-3.003422737121582</v>
+        <v>-8.788103103637695</v>
       </c>
       <c r="N89" t="n">
-        <v>4.500468730926514</v>
+        <v>12.31294822692871</v>
       </c>
     </row>
     <row r="90">
@@ -4729,11 +4729,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1705546800</v>
+        <v>1707102000</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4742,34 +4742,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.5</v>
+        <v>40.60000228881836</v>
       </c>
       <c r="F90" t="n">
-        <v>29.0477294921875</v>
+        <v>30.52734375</v>
       </c>
       <c r="G90" t="n">
-        <v>30.18218994140625</v>
+        <v>30.24716186523438</v>
       </c>
       <c r="H90" t="n">
-        <v>-21.67982482910156</v>
+        <v>-72.23333740234375</v>
       </c>
       <c r="I90" t="n">
-        <v>23.6848087310791</v>
+        <v>38.05651473999023</v>
       </c>
       <c r="J90" t="n">
-        <v>96697.5625</v>
+        <v>96446.5546875</v>
       </c>
       <c r="K90" t="n">
-        <v>11</v>
+        <v>80.70000457763672</v>
       </c>
       <c r="L90" t="n">
-        <v>4.206865310668945</v>
+        <v>3.97680401802063</v>
       </c>
       <c r="M90" t="n">
-        <v>-4.313247203826904</v>
+        <v>-9.722479820251465</v>
       </c>
       <c r="N90" t="n">
-        <v>11.30426216125488</v>
+        <v>16.00517654418945</v>
       </c>
     </row>
     <row r="91">
@@ -4777,11 +4777,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1705557600</v>
+        <v>1707112800</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4790,34 +4790,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>65.30000305175781</v>
+        <v>55.60000228881836</v>
       </c>
       <c r="F91" t="n">
-        <v>26.1192626953125</v>
+        <v>27.44699096679688</v>
       </c>
       <c r="G91" t="n">
-        <v>25.89419555664062</v>
+        <v>26.74725341796875</v>
       </c>
       <c r="H91" t="n">
-        <v>-34.07894897460938</v>
+        <v>-72.65995788574219</v>
       </c>
       <c r="I91" t="n">
-        <v>31.09735488891602</v>
+        <v>41.21309661865234</v>
       </c>
       <c r="J91" t="n">
-        <v>96785.71875</v>
+        <v>96619.3359375</v>
       </c>
       <c r="K91" t="n">
-        <v>75.30000305175781</v>
+        <v>1.300000071525574</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.1848706007003784</v>
+        <v>3.890036582946777</v>
       </c>
       <c r="M91" t="n">
-        <v>-4.820634841918945</v>
+        <v>-7.949821472167969</v>
       </c>
       <c r="N91" t="n">
-        <v>9.207234382629395</v>
+        <v>13.70048236846924</v>
       </c>
     </row>
     <row r="92">
@@ -4825,11 +4825,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1705568400</v>
+        <v>1707123600</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4838,34 +4838,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>73.90000152587891</v>
+        <v>69.20000457763672</v>
       </c>
       <c r="F92" t="n">
-        <v>25.07037353515625</v>
+        <v>24.8101806640625</v>
       </c>
       <c r="G92" t="n">
-        <v>24.41055297851562</v>
+        <v>23.97463989257812</v>
       </c>
       <c r="H92" t="n">
-        <v>-18.92156982421875</v>
+        <v>-73.36555480957031</v>
       </c>
       <c r="I92" t="n">
-        <v>32.37699127197266</v>
+        <v>40.77107238769531</v>
       </c>
       <c r="J92" t="n">
-        <v>96741.671875</v>
+        <v>96601.8984375</v>
       </c>
       <c r="K92" t="n">
-        <v>63.10000228881836</v>
+        <v>11.40000057220459</v>
       </c>
       <c r="L92" t="n">
-        <v>2.733183622360229</v>
+        <v>3.502468109130859</v>
       </c>
       <c r="M92" t="n">
-        <v>-4.969550609588623</v>
+        <v>-6.887753963470459</v>
       </c>
       <c r="N92" t="n">
-        <v>8.513659477233887</v>
+        <v>13.126953125</v>
       </c>
     </row>
     <row r="93">
@@ -4873,11 +4873,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1705579200</v>
+        <v>1707134400</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4886,34 +4886,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>81.09999847412109</v>
+        <v>75.90000152587891</v>
       </c>
       <c r="F93" t="n">
-        <v>23.97662353515625</v>
+        <v>23.51028442382812</v>
       </c>
       <c r="G93" t="n">
-        <v>23.0615234375</v>
+        <v>22.61941528320312</v>
       </c>
       <c r="H93" t="n">
-        <v>-18.42924499511719</v>
+        <v>-73.30209350585938</v>
       </c>
       <c r="I93" t="n">
-        <v>32.82276916503906</v>
+        <v>36.26112365722656</v>
       </c>
       <c r="J93" t="n">
-        <v>96878.0234375</v>
+        <v>96720.8828125</v>
       </c>
       <c r="K93" t="n">
-        <v>99.20000457763672</v>
+        <v>5</v>
       </c>
       <c r="L93" t="n">
-        <v>2.717539072036743</v>
+        <v>2.917140960693359</v>
       </c>
       <c r="M93" t="n">
-        <v>-3.673742532730103</v>
+        <v>-5.249262809753418</v>
       </c>
       <c r="N93" t="n">
-        <v>7.911744117736816</v>
+        <v>11.90513896942139</v>
       </c>
     </row>
     <row r="94">
@@ -4921,11 +4921,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1705590000</v>
+        <v>1707145200</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4934,34 +4934,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>48.70000076293945</v>
+        <v>53</v>
       </c>
       <c r="F94" t="n">
-        <v>29.55792236328125</v>
+        <v>28.80780029296875</v>
       </c>
       <c r="G94" t="n">
-        <v>26.84442138671875</v>
+        <v>26.17471313476562</v>
       </c>
       <c r="H94" t="n">
-        <v>-17.523193359375</v>
+        <v>-72.91258239746094</v>
       </c>
       <c r="I94" t="n">
-        <v>30.6646556854248</v>
+        <v>30.58538627624512</v>
       </c>
       <c r="J94" t="n">
-        <v>96963.3125</v>
+        <v>96839.1640625</v>
       </c>
       <c r="K94" t="n">
-        <v>67.59999847412109</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="L94" t="n">
-        <v>1.108818292617798</v>
+        <v>1.395854473114014</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.031791687011719</v>
+        <v>-8.229968070983887</v>
       </c>
       <c r="N94" t="n">
-        <v>6.700085639953613</v>
+        <v>9.903491020202637</v>
       </c>
     </row>
     <row r="95">
@@ -4969,11 +4969,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1705600800</v>
+        <v>1707156000</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>34.10000228881836</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="F95" t="n">
-        <v>34.55538940429688</v>
+        <v>34.95831298828125</v>
       </c>
       <c r="G95" t="n">
-        <v>31.56332397460938</v>
+        <v>31.62579345703125</v>
       </c>
       <c r="H95" t="n">
-        <v>-62.87478637695312</v>
+        <v>-73.32804870605469</v>
       </c>
       <c r="I95" t="n">
-        <v>30.93441390991211</v>
+        <v>30.64128684997559</v>
       </c>
       <c r="J95" t="n">
-        <v>96755.484375</v>
+        <v>96656.4375</v>
       </c>
       <c r="K95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1.129040479660034</v>
+        <v>1.603832960128784</v>
       </c>
       <c r="M95" t="n">
-        <v>-4.686911582946777</v>
+        <v>-7.127819538116455</v>
       </c>
       <c r="N95" t="n">
-        <v>5.029857158660889</v>
+        <v>8.503286361694336</v>
       </c>
     </row>
     <row r="96">
@@ -5017,11 +5017,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1705611600</v>
+        <v>1707166800</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5030,34 +5030,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="F96" t="n">
-        <v>37.20407104492188</v>
+        <v>37.6385498046875</v>
       </c>
       <c r="G96" t="n">
-        <v>34.78573608398438</v>
+        <v>35.10565185546875</v>
       </c>
       <c r="H96" t="n">
-        <v>-29.47219848632812</v>
+        <v>-73.77328491210938</v>
       </c>
       <c r="I96" t="n">
-        <v>33.03304672241211</v>
+        <v>33.71764755249023</v>
       </c>
       <c r="J96" t="n">
-        <v>96408.625</v>
+        <v>96307.953125</v>
       </c>
       <c r="K96" t="n">
-        <v>82.5</v>
+        <v>23.20000076293945</v>
       </c>
       <c r="L96" t="n">
-        <v>1.814470171928406</v>
+        <v>4.134868144989014</v>
       </c>
       <c r="M96" t="n">
-        <v>-3.616752862930298</v>
+        <v>-6.211997032165527</v>
       </c>
       <c r="N96" t="n">
-        <v>5.106732368469238</v>
+        <v>9.13585090637207</v>
       </c>
     </row>
     <row r="97">
@@ -5065,11 +5065,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1705622400</v>
+        <v>1707177600</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5078,34 +5078,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.30000114440918</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="F97" t="n">
-        <v>35.20895385742188</v>
+        <v>34.84820556640625</v>
       </c>
       <c r="G97" t="n">
-        <v>34.69586181640625</v>
+        <v>34.63552856445312</v>
       </c>
       <c r="H97" t="n">
-        <v>-63.65885925292969</v>
+        <v>-74.27626037597656</v>
       </c>
       <c r="I97" t="n">
-        <v>36.31390762329102</v>
+        <v>30.39497756958008</v>
       </c>
       <c r="J97" t="n">
-        <v>96436.515625</v>
+        <v>96333.5078125</v>
       </c>
       <c r="K97" t="n">
-        <v>100</v>
+        <v>13.90000057220459</v>
       </c>
       <c r="L97" t="n">
-        <v>2.510307550430298</v>
+        <v>2.802880764007568</v>
       </c>
       <c r="M97" t="n">
-        <v>-4.461374282836914</v>
+        <v>-7.001896858215332</v>
       </c>
       <c r="N97" t="n">
-        <v>7.210041046142578</v>
+        <v>10.91066932678223</v>
       </c>
     </row>
     <row r="98">
@@ -5113,11 +5113,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1705633200</v>
+        <v>1707188400</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5126,34 +5126,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>38.70000076293945</v>
+        <v>34.5</v>
       </c>
       <c r="F98" t="n">
-        <v>31.63308715820312</v>
+        <v>30.63677978515625</v>
       </c>
       <c r="G98" t="n">
-        <v>32.26791381835938</v>
+        <v>31.2298583984375</v>
       </c>
       <c r="H98" t="n">
-        <v>-13.02142333984375</v>
+        <v>-73.98271179199219</v>
       </c>
       <c r="I98" t="n">
-        <v>35.1851692199707</v>
+        <v>34.60346221923828</v>
       </c>
       <c r="J98" t="n">
-        <v>96679.2109375</v>
+        <v>96574.03125</v>
       </c>
       <c r="K98" t="n">
-        <v>57</v>
+        <v>82.30000305175781</v>
       </c>
       <c r="L98" t="n">
-        <v>-1.871140122413635</v>
+        <v>3.768447160720825</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.2937548756599426</v>
+        <v>-5.403281211853027</v>
       </c>
       <c r="N98" t="n">
-        <v>2.299999952316284</v>
+        <v>13.30233669281006</v>
       </c>
     </row>
     <row r="99">
@@ -5161,11 +5161,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1705644000</v>
+        <v>1707199200</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5174,34 +5174,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>50</v>
+        <v>54.60000228881836</v>
       </c>
       <c r="F99" t="n">
-        <v>28.36569213867188</v>
+        <v>27.21170043945312</v>
       </c>
       <c r="G99" t="n">
-        <v>27.70401000976562</v>
+        <v>26.51434326171875</v>
       </c>
       <c r="H99" t="n">
-        <v>-16.66780090332031</v>
+        <v>-75.01637268066406</v>
       </c>
       <c r="I99" t="n">
-        <v>33.58434295654297</v>
+        <v>37.11837005615234</v>
       </c>
       <c r="J99" t="n">
-        <v>96760.96875</v>
+        <v>96737.1640625</v>
       </c>
       <c r="K99" t="n">
         <v>5</v>
       </c>
       <c r="L99" t="n">
-        <v>4.036674499511719</v>
+        <v>4.167858600616455</v>
       </c>
       <c r="M99" t="n">
-        <v>-8.241652488708496</v>
+        <v>-7.740739345550537</v>
       </c>
       <c r="N99" t="n">
-        <v>13.6085205078125</v>
+        <v>14.01544952392578</v>
       </c>
     </row>
     <row r="100">
@@ -5209,11 +5209,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1705654800</v>
+        <v>1707210000</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5222,34 +5222,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>58.40000152587891</v>
+        <v>67.40000152587891</v>
       </c>
       <c r="F100" t="n">
-        <v>25.18185424804688</v>
+        <v>24.83489990234375</v>
       </c>
       <c r="G100" t="n">
-        <v>24.42892456054688</v>
+        <v>24.02203369140625</v>
       </c>
       <c r="H100" t="n">
-        <v>-17.27943420410156</v>
+        <v>-73.78504943847656</v>
       </c>
       <c r="I100" t="n">
-        <v>30.34800910949707</v>
+        <v>36.71399307250977</v>
       </c>
       <c r="J100" t="n">
-        <v>96758.375</v>
+        <v>96675.859375</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="L100" t="n">
-        <v>1.657858848571777</v>
+        <v>3.133798837661743</v>
       </c>
       <c r="M100" t="n">
-        <v>-5.592221736907959</v>
+        <v>-5.680722713470459</v>
       </c>
       <c r="N100" t="n">
-        <v>10.50071144104004</v>
+        <v>11.61641597747803</v>
       </c>
     </row>
     <row r="101">
@@ -5257,11 +5257,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1705665600</v>
+        <v>1707220800</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5270,34 +5270,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>67.5</v>
+        <v>79.90000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>23.62838745117188</v>
+        <v>23.29302978515625</v>
       </c>
       <c r="G101" t="n">
-        <v>22.6943359375</v>
+        <v>22.3565673828125</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.002685546875</v>
+        <v>-72.655517578125</v>
       </c>
       <c r="I101" t="n">
-        <v>28.26057815551758</v>
+        <v>34.20190811157227</v>
       </c>
       <c r="J101" t="n">
-        <v>96889.9609375</v>
+        <v>96791.328125</v>
       </c>
       <c r="K101" t="n">
-        <v>5</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="L101" t="n">
-        <v>4.539262771606445</v>
+        <v>4.031274318695068</v>
       </c>
       <c r="M101" t="n">
-        <v>-3.441784620285034</v>
+        <v>-4.885973930358887</v>
       </c>
       <c r="N101" t="n">
-        <v>10.19999980926514</v>
+        <v>11.70579433441162</v>
       </c>
     </row>
     <row r="102">
@@ -5305,11 +5305,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1705676400</v>
+        <v>1707231600</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5318,34 +5318,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.20000076293945</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="F102" t="n">
-        <v>29.8406982421875</v>
+        <v>28.78298950195312</v>
       </c>
       <c r="G102" t="n">
-        <v>27.16317749023438</v>
+        <v>26.25494384765625</v>
       </c>
       <c r="H102" t="n">
-        <v>-6.535858154296875</v>
+        <v>-72.71893310546875</v>
       </c>
       <c r="I102" t="n">
-        <v>27.02392196655273</v>
+        <v>31.11869239807129</v>
       </c>
       <c r="J102" t="n">
-        <v>96973.3515625</v>
+        <v>96926.1015625</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="L102" t="n">
-        <v>2.903666973114014</v>
+        <v>2.216425657272339</v>
       </c>
       <c r="M102" t="n">
-        <v>-6.793246746063232</v>
+        <v>-7.39056396484375</v>
       </c>
       <c r="N102" t="n">
-        <v>8.103940010070801</v>
+        <v>9.00174617767334</v>
       </c>
     </row>
     <row r="103">
@@ -5353,11 +5353,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1705687200</v>
+        <v>1707242400</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5366,34 +5366,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.80000114440918</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F103" t="n">
-        <v>35.19973754882812</v>
+        <v>34.7269287109375</v>
       </c>
       <c r="G103" t="n">
-        <v>31.8887939453125</v>
+        <v>31.44256591796875</v>
       </c>
       <c r="H103" t="n">
-        <v>-5.691497802734375</v>
+        <v>-73.83786010742188</v>
       </c>
       <c r="I103" t="n">
-        <v>28.4304084777832</v>
+        <v>30.20111465454102</v>
       </c>
       <c r="J103" t="n">
-        <v>96734.046875</v>
+        <v>96743.7109375</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>91.20000457763672</v>
       </c>
       <c r="L103" t="n">
-        <v>1.917187452316284</v>
+        <v>1.925524830818176</v>
       </c>
       <c r="M103" t="n">
-        <v>-5.910732269287109</v>
+        <v>-6.719020843505859</v>
       </c>
       <c r="N103" t="n">
-        <v>6.513394832611084</v>
+        <v>7.728263378143311</v>
       </c>
     </row>
     <row r="104">
@@ -5401,11 +5401,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1705698000</v>
+        <v>1707253200</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5414,34 +5414,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.89999961853027</v>
+        <v>22.5</v>
       </c>
       <c r="F104" t="n">
-        <v>37.58270263671875</v>
+        <v>37.36175537109375</v>
       </c>
       <c r="G104" t="n">
-        <v>34.89285278320312</v>
+        <v>34.72445678710938</v>
       </c>
       <c r="H104" t="n">
-        <v>-18.47921752929688</v>
+        <v>-74.63125610351562</v>
       </c>
       <c r="I104" t="n">
-        <v>31.64754676818848</v>
+        <v>30.88505935668945</v>
       </c>
       <c r="J104" t="n">
-        <v>96379.0390625</v>
+        <v>96421.0234375</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>94.59999847412109</v>
       </c>
       <c r="L104" t="n">
-        <v>2.491782188415527</v>
+        <v>1.361020445823669</v>
       </c>
       <c r="M104" t="n">
-        <v>-4.676928520202637</v>
+        <v>-6.005925178527832</v>
       </c>
       <c r="N104" t="n">
-        <v>5.901296138763428</v>
+        <v>7.511561870574951</v>
       </c>
     </row>
     <row r="105">
@@ -5449,11 +5449,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1705708800</v>
+        <v>1707264000</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5462,34 +5462,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.89999961853027</v>
+        <v>24</v>
       </c>
       <c r="F105" t="n">
-        <v>34.9150390625</v>
+        <v>34.75839233398438</v>
       </c>
       <c r="G105" t="n">
-        <v>34.26116943359375</v>
+        <v>35.25668334960938</v>
       </c>
       <c r="H105" t="n">
-        <v>-70.21389770507812</v>
+        <v>-75.90559387207031</v>
       </c>
       <c r="I105" t="n">
-        <v>34.5220947265625</v>
+        <v>33.00577163696289</v>
       </c>
       <c r="J105" t="n">
-        <v>96390.015625</v>
+        <v>96391.828125</v>
       </c>
       <c r="K105" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
-        <v>6.003828048706055</v>
+        <v>0.8190234303474426</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.9821288585662842</v>
+        <v>-4.740302562713623</v>
       </c>
       <c r="N105" t="n">
-        <v>8.001524925231934</v>
+        <v>7.204057216644287</v>
       </c>
     </row>
     <row r="106">
@@ -5497,11 +5497,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1705719600</v>
+        <v>1707274800</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5510,34 +5510,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48.5</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F106" t="n">
-        <v>30.69522094726562</v>
+        <v>32.76104736328125</v>
       </c>
       <c r="G106" t="n">
-        <v>29.6759033203125</v>
+        <v>32.21722412109375</v>
       </c>
       <c r="H106" t="n">
-        <v>-69.25157165527344</v>
+        <v>-74.44699096679688</v>
       </c>
       <c r="I106" t="n">
-        <v>38.42596817016602</v>
+        <v>36.94359970092773</v>
       </c>
       <c r="J106" t="n">
-        <v>96675.671875</v>
+        <v>96605.75</v>
       </c>
       <c r="K106" t="n">
-        <v>99.90000152587891</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="L106" t="n">
-        <v>6.622082233428955</v>
+        <v>2.656367063522339</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.395556449890137</v>
+        <v>-7.845751762390137</v>
       </c>
       <c r="N106" t="n">
-        <v>12.40151977539062</v>
+        <v>12.30937480926514</v>
       </c>
     </row>
     <row r="107">
@@ -5545,11 +5545,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1705730400</v>
+        <v>1707285600</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5558,34 +5558,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>55.5</v>
+        <v>53.29999923706055</v>
       </c>
       <c r="F107" t="n">
-        <v>28.6558837890625</v>
+        <v>27.93478393554688</v>
       </c>
       <c r="G107" t="n">
-        <v>27.90924072265625</v>
+        <v>27.22137451171875</v>
       </c>
       <c r="H107" t="n">
-        <v>-59.66744995117188</v>
+        <v>-71.17488098144531</v>
       </c>
       <c r="I107" t="n">
-        <v>36.40268707275391</v>
+        <v>39.66764068603516</v>
       </c>
       <c r="J107" t="n">
-        <v>96669.21875</v>
+        <v>96756.640625</v>
       </c>
       <c r="K107" t="n">
-        <v>29.39999961853027</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
-        <v>4.167905330657959</v>
+        <v>3.013967275619507</v>
       </c>
       <c r="M107" t="n">
-        <v>-6.438427448272705</v>
+        <v>-7.940382957458496</v>
       </c>
       <c r="N107" t="n">
-        <v>11.70465087890625</v>
+        <v>12.10174560546875</v>
       </c>
     </row>
     <row r="108">
@@ -5593,11 +5593,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1705741200</v>
+        <v>1707296400</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5606,34 +5606,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>68.5</v>
+        <v>66.40000152587891</v>
       </c>
       <c r="F108" t="n">
-        <v>25.77740478515625</v>
+        <v>25.28195190429688</v>
       </c>
       <c r="G108" t="n">
-        <v>24.87109375</v>
+        <v>24.39349365234375</v>
       </c>
       <c r="H108" t="n">
-        <v>-61.04713439941406</v>
+        <v>-71.90080261230469</v>
       </c>
       <c r="I108" t="n">
-        <v>37.95649719238281</v>
+        <v>42.06443786621094</v>
       </c>
       <c r="J108" t="n">
-        <v>96735.2734375</v>
+        <v>96685.3984375</v>
       </c>
       <c r="K108" t="n">
-        <v>11.69999980926514</v>
+        <v>87.70000457763672</v>
       </c>
       <c r="L108" t="n">
-        <v>1.321850538253784</v>
+        <v>4.414499282836914</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.177670955657959</v>
+        <v>-5.626601219177246</v>
       </c>
       <c r="N108" t="n">
-        <v>9.404294013977051</v>
+        <v>11.40270900726318</v>
       </c>
     </row>
     <row r="109">
@@ -5641,11 +5641,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1705752000</v>
+        <v>1707307200</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5654,34 +5654,34 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>74.70000457763672</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F109" t="n">
-        <v>24.65774536132812</v>
+        <v>23.76541137695312</v>
       </c>
       <c r="G109" t="n">
-        <v>23.55545043945312</v>
+        <v>22.73947143554688</v>
       </c>
       <c r="H109" t="n">
-        <v>-57.94073486328125</v>
+        <v>-72.17900085449219</v>
       </c>
       <c r="I109" t="n">
-        <v>35.88553237915039</v>
+        <v>42.35228729248047</v>
       </c>
       <c r="J109" t="n">
-        <v>96915.2265625</v>
+        <v>96885.7734375</v>
       </c>
       <c r="K109" t="n">
-        <v>59.40000152587891</v>
+        <v>5.700000286102295</v>
       </c>
       <c r="L109" t="n">
-        <v>2.629135608673096</v>
+        <v>4.58791971206665</v>
       </c>
       <c r="M109" t="n">
-        <v>-5.238764762878418</v>
+        <v>-4.08914041519165</v>
       </c>
       <c r="N109" t="n">
-        <v>9.201067924499512</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="110">
@@ -5689,11 +5689,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1705762800</v>
+        <v>1707318000</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5702,34 +5702,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>53</v>
+        <v>61.70000076293945</v>
       </c>
       <c r="F110" t="n">
-        <v>29.63430786132812</v>
+        <v>28.0255126953125</v>
       </c>
       <c r="G110" t="n">
-        <v>26.86001586914062</v>
+        <v>25.50485229492188</v>
       </c>
       <c r="H110" t="n">
-        <v>-31.81919860839844</v>
+        <v>-72.65364074707031</v>
       </c>
       <c r="I110" t="n">
-        <v>33.12479782104492</v>
+        <v>40.55702209472656</v>
       </c>
       <c r="J110" t="n">
-        <v>97033.3671875</v>
+        <v>97004.5546875</v>
       </c>
       <c r="K110" t="n">
-        <v>2.299999952316284</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="L110" t="n">
-        <v>2.7974853515625</v>
+        <v>3.241777181625366</v>
       </c>
       <c r="M110" t="n">
-        <v>-6.245947360992432</v>
+        <v>-6.621320724487305</v>
       </c>
       <c r="N110" t="n">
-        <v>7.106765270233154</v>
+        <v>7.933776378631592</v>
       </c>
     </row>
     <row r="111">
@@ -5737,11 +5737,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1705773600</v>
+        <v>1707328800</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5750,34 +5750,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.79999923706055</v>
+        <v>42.5</v>
       </c>
       <c r="F111" t="n">
-        <v>34.673583984375</v>
+        <v>32.72222900390625</v>
       </c>
       <c r="G111" t="n">
-        <v>31.26077270507812</v>
+        <v>29.41720581054688</v>
       </c>
       <c r="H111" t="n">
-        <v>-54.62245178222656</v>
+        <v>-74.56082153320312</v>
       </c>
       <c r="I111" t="n">
-        <v>33.11245727539062</v>
+        <v>39.05512237548828</v>
       </c>
       <c r="J111" t="n">
-        <v>96805.9453125</v>
+        <v>96785.7109375</v>
       </c>
       <c r="K111" t="n">
-        <v>33.90000152587891</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="L111" t="n">
-        <v>4.096826076507568</v>
+        <v>3.167841672897339</v>
       </c>
       <c r="M111" t="n">
-        <v>-5.249005317687988</v>
+        <v>-5.995019435882568</v>
       </c>
       <c r="N111" t="n">
-        <v>5.626452922821045</v>
+        <v>7.205093383789062</v>
       </c>
     </row>
     <row r="112">
@@ -5785,11 +5785,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1705784400</v>
+        <v>1707339600</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5798,34 +5798,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.70000076293945</v>
+        <v>29.39999961853027</v>
       </c>
       <c r="F112" t="n">
-        <v>35.79623413085938</v>
+        <v>36.54397583007812</v>
       </c>
       <c r="G112" t="n">
-        <v>32.95901489257812</v>
+        <v>34.15399169921875</v>
       </c>
       <c r="H112" t="n">
-        <v>-70.50114440917969</v>
+        <v>-73.20368957519531</v>
       </c>
       <c r="I112" t="n">
-        <v>32.05762100219727</v>
+        <v>38.83281326293945</v>
       </c>
       <c r="J112" t="n">
-        <v>96534.0390625</v>
+        <v>96390.34375</v>
       </c>
       <c r="K112" t="n">
-        <v>0.2000000029802322</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="L112" t="n">
-        <v>7.849687099456787</v>
+        <v>2.820903301239014</v>
       </c>
       <c r="M112" t="n">
-        <v>-3.904780149459839</v>
+        <v>-2.430903196334839</v>
       </c>
       <c r="N112" t="n">
-        <v>6.212076663970947</v>
+        <v>5.510919094085693</v>
       </c>
     </row>
     <row r="113">
@@ -5833,11 +5833,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1705795200</v>
+        <v>1707350400</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>20/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5846,34 +5846,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>37.29999923706055</v>
+        <v>31.70000076293945</v>
       </c>
       <c r="F113" t="n">
-        <v>32.82449340820312</v>
+        <v>34.14013671875</v>
       </c>
       <c r="G113" t="n">
-        <v>32.08929443359375</v>
+        <v>33.69281005859375</v>
       </c>
       <c r="H113" t="n">
-        <v>-70.20646667480469</v>
+        <v>-71.98895263671875</v>
       </c>
       <c r="I113" t="n">
-        <v>27.90536499023438</v>
+        <v>37.38913345336914</v>
       </c>
       <c r="J113" t="n">
-        <v>96572.0625</v>
+        <v>96364.5234375</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L113" t="n">
-        <v>5.333254337310791</v>
+        <v>3.886384248733521</v>
       </c>
       <c r="M113" t="n">
-        <v>-4.193085670471191</v>
+        <v>-4.890153884887695</v>
       </c>
       <c r="N113" t="n">
-        <v>8.501294136047363</v>
+        <v>9.110748291015625</v>
       </c>
     </row>
     <row r="114">
@@ -5881,11 +5881,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1705806000</v>
+        <v>1707361200</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5894,34 +5894,34 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.70000076293945</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="F114" t="n">
-        <v>30.41815185546875</v>
+        <v>30.70101928710938</v>
       </c>
       <c r="G114" t="n">
-        <v>31.5250244140625</v>
+        <v>31.57595825195312</v>
       </c>
       <c r="H114" t="n">
-        <v>-70.44831848144531</v>
+        <v>-73.02070617675781</v>
       </c>
       <c r="I114" t="n">
-        <v>23.86418533325195</v>
+        <v>43.93494033813477</v>
       </c>
       <c r="J114" t="n">
-        <v>96730.5625</v>
+        <v>96604.875</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>87.59999847412109</v>
       </c>
       <c r="L114" t="n">
-        <v>2.97985577583313</v>
+        <v>-1.792199611663818</v>
       </c>
       <c r="M114" t="n">
-        <v>-1.410004854202271</v>
+        <v>-5.927016258239746</v>
       </c>
       <c r="N114" t="n">
-        <v>3.605587720870972</v>
+        <v>11.20155239105225</v>
       </c>
     </row>
     <row r="115">
@@ -5929,11 +5929,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1705816800</v>
+        <v>1707372000</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5942,34 +5942,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.40000152587891</v>
+        <v>55.60000228881836</v>
       </c>
       <c r="F115" t="n">
-        <v>27.26559448242188</v>
+        <v>28.64208984375</v>
       </c>
       <c r="G115" t="n">
-        <v>26.63223266601562</v>
+        <v>27.82379150390625</v>
       </c>
       <c r="H115" t="n">
-        <v>-69.12458801269531</v>
+        <v>-71.84782409667969</v>
       </c>
       <c r="I115" t="n">
-        <v>27.25382804870605</v>
+        <v>46.02472305297852</v>
       </c>
       <c r="J115" t="n">
-        <v>96804.3515625</v>
+        <v>96723.5625</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L115" t="n">
-        <v>4.704054832458496</v>
+        <v>2.112253427505493</v>
       </c>
       <c r="M115" t="n">
-        <v>-7.650683403015137</v>
+        <v>-8.842592239379883</v>
       </c>
       <c r="N115" t="n">
-        <v>13.40089893341064</v>
+        <v>12.30010986328125</v>
       </c>
     </row>
     <row r="116">
@@ -5977,11 +5977,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1705827600</v>
+        <v>1707382800</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5990,34 +5990,34 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>62.40000152587891</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="F116" t="n">
-        <v>25.016845703125</v>
+        <v>26.48333740234375</v>
       </c>
       <c r="G116" t="n">
-        <v>24.34738159179688</v>
+        <v>25.531005859375</v>
       </c>
       <c r="H116" t="n">
-        <v>-59.98643493652344</v>
+        <v>-69.22903442382812</v>
       </c>
       <c r="I116" t="n">
-        <v>28.72434616088867</v>
+        <v>46.21073913574219</v>
       </c>
       <c r="J116" t="n">
-        <v>96779.8125</v>
+        <v>96692.1640625</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>97.80000305175781</v>
       </c>
       <c r="L116" t="n">
-        <v>1.075266122817993</v>
+        <v>3.415868997573853</v>
       </c>
       <c r="M116" t="n">
-        <v>-6.338759422302246</v>
+        <v>-5.447414398193359</v>
       </c>
       <c r="N116" t="n">
-        <v>11.0068359375</v>
+        <v>9.719759941101074</v>
       </c>
     </row>
     <row r="117">
@@ -6025,11 +6025,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1705838400</v>
+        <v>1707393600</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6038,34 +6038,34 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.5</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="F117" t="n">
-        <v>23.45870971679688</v>
+        <v>25.07843017578125</v>
       </c>
       <c r="G117" t="n">
-        <v>22.52774047851562</v>
+        <v>24.07638549804688</v>
       </c>
       <c r="H117" t="n">
-        <v>-55.09016418457031</v>
+        <v>-69.20729064941406</v>
       </c>
       <c r="I117" t="n">
-        <v>30.05874633789062</v>
+        <v>44.13653182983398</v>
       </c>
       <c r="J117" t="n">
-        <v>96958.3828125</v>
+        <v>96835.9453125</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>71.20000457763672</v>
       </c>
       <c r="L117" t="n">
-        <v>3.919819355010986</v>
+        <v>3.137660980224609</v>
       </c>
       <c r="M117" t="n">
-        <v>-3.745883703231812</v>
+        <v>-5.280346393585205</v>
       </c>
       <c r="N117" t="n">
-        <v>9.013879776000977</v>
+        <v>8.90000057220459</v>
       </c>
     </row>
     <row r="118">
@@ -6073,11 +6073,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1705849200</v>
+        <v>1707404400</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6086,34 +6086,34 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.29999923706055</v>
+        <v>56.60000228881836</v>
       </c>
       <c r="F118" t="n">
-        <v>29.2283935546875</v>
+        <v>29.4439697265625</v>
       </c>
       <c r="G118" t="n">
-        <v>26.3975830078125</v>
+        <v>26.83285522460938</v>
       </c>
       <c r="H118" t="n">
-        <v>-54.7178955078125</v>
+        <v>-69.53555297851562</v>
       </c>
       <c r="I118" t="n">
-        <v>30.80784034729004</v>
+        <v>43.67770385742188</v>
       </c>
       <c r="J118" t="n">
-        <v>97067.2421875</v>
+        <v>96990.4296875</v>
       </c>
       <c r="K118" t="n">
-        <v>6.200000286102295</v>
+        <v>24.5</v>
       </c>
       <c r="L118" t="n">
-        <v>2.690571308135986</v>
+        <v>2.530668973922729</v>
       </c>
       <c r="M118" t="n">
-        <v>-5.401103496551514</v>
+        <v>-6.586051940917969</v>
       </c>
       <c r="N118" t="n">
-        <v>6.308389663696289</v>
+        <v>7.599999904632568</v>
       </c>
     </row>
     <row r="119">
@@ -6121,11 +6121,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1705860000</v>
+        <v>1707415200</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6134,34 +6134,34 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.90000152587891</v>
+        <v>38.5</v>
       </c>
       <c r="F119" t="n">
-        <v>34.17764282226562</v>
+        <v>34.051025390625</v>
       </c>
       <c r="G119" t="n">
-        <v>31.14590454101562</v>
+        <v>31.39993286132812</v>
       </c>
       <c r="H119" t="n">
-        <v>-65.27426147460938</v>
+        <v>-76.34814453125</v>
       </c>
       <c r="I119" t="n">
-        <v>31.18234252929688</v>
+        <v>40.97991561889648</v>
       </c>
       <c r="J119" t="n">
-        <v>96848.5859375</v>
+        <v>96759.2109375</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L119" t="n">
-        <v>2.569902181625366</v>
+        <v>0.8872436285018921</v>
       </c>
       <c r="M119" t="n">
-        <v>-3.665693283081055</v>
+        <v>-5.368999004364014</v>
       </c>
       <c r="N119" t="n">
-        <v>4.401837348937988</v>
+        <v>5.813772678375244</v>
       </c>
     </row>
     <row r="120">
@@ -6169,11 +6169,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1705870800</v>
+        <v>1707426000</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6182,34 +6182,34 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.20000076293945</v>
+        <v>33.5</v>
       </c>
       <c r="F120" t="n">
-        <v>36.79281616210938</v>
+        <v>35.40545654296875</v>
       </c>
       <c r="G120" t="n">
-        <v>34.41845703125</v>
+        <v>32.963623046875</v>
       </c>
       <c r="H120" t="n">
-        <v>-70.44677734375</v>
+        <v>-75.57467651367188</v>
       </c>
       <c r="I120" t="n">
-        <v>29.7951717376709</v>
+        <v>38.22666549682617</v>
       </c>
       <c r="J120" t="n">
-        <v>96503.4296875</v>
+        <v>96518.734375</v>
       </c>
       <c r="K120" t="n">
-        <v>5</v>
+        <v>30.80000114440918</v>
       </c>
       <c r="L120" t="n">
-        <v>1.57260000705719</v>
+        <v>-4.303898811340332</v>
       </c>
       <c r="M120" t="n">
-        <v>-2.698930501937866</v>
+        <v>-3.954208850860596</v>
       </c>
       <c r="N120" t="n">
-        <v>4.404428005218506</v>
+        <v>6.730733394622803</v>
       </c>
     </row>
     <row r="121">
@@ -6217,11 +6217,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1705881600</v>
+        <v>1707436800</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6230,34 +6230,34 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.80000114440918</v>
+        <v>37.20000076293945</v>
       </c>
       <c r="F121" t="n">
-        <v>35.2901611328125</v>
+        <v>33.25967407226562</v>
       </c>
       <c r="G121" t="n">
-        <v>34.63363647460938</v>
+        <v>32.88592529296875</v>
       </c>
       <c r="H121" t="n">
-        <v>-65.08816528320312</v>
+        <v>-78.07283020019531</v>
       </c>
       <c r="I121" t="n">
-        <v>30.95505142211914</v>
+        <v>37.45517730712891</v>
       </c>
       <c r="J121" t="n">
-        <v>96514.03125</v>
+        <v>96502.953125</v>
       </c>
       <c r="K121" t="n">
-        <v>99.40000152587891</v>
+        <v>50.60000228881836</v>
       </c>
       <c r="L121" t="n">
-        <v>3.128554582595825</v>
+        <v>-3.527497529983521</v>
       </c>
       <c r="M121" t="n">
-        <v>-5.477805137634277</v>
+        <v>-3.911098480224609</v>
       </c>
       <c r="N121" t="n">
-        <v>8</v>
+        <v>7.212059020996094</v>
       </c>
     </row>
     <row r="122">
@@ -6265,11 +6265,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1705892400</v>
+        <v>1707447600</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6278,34 +6278,34 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.89999961853027</v>
+        <v>43.60000228881836</v>
       </c>
       <c r="F122" t="n">
-        <v>31.17770385742188</v>
+        <v>30.42916870117188</v>
       </c>
       <c r="G122" t="n">
-        <v>32.6943359375</v>
+        <v>31.63381958007812</v>
       </c>
       <c r="H122" t="n">
-        <v>-53.74787902832031</v>
+        <v>-78.25959777832031</v>
       </c>
       <c r="I122" t="n">
-        <v>23.73011589050293</v>
+        <v>36.98302841186523</v>
       </c>
       <c r="J122" t="n">
-        <v>96704.8203125</v>
+        <v>96626.203125</v>
       </c>
       <c r="K122" t="n">
-        <v>4.800000190734863</v>
+        <v>76.5</v>
       </c>
       <c r="L122" t="n">
-        <v>2.990024328231812</v>
+        <v>-1.402792930603027</v>
       </c>
       <c r="M122" t="n">
-        <v>-4.227092266082764</v>
+        <v>-1.800402760505676</v>
       </c>
       <c r="N122" t="n">
-        <v>9.203448295593262</v>
+        <v>2.404132604598999</v>
       </c>
     </row>
     <row r="123">
@@ -6313,11 +6313,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1705903200</v>
+        <v>1707458400</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6326,34 +6326,34 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="F123" t="n">
-        <v>27.55270385742188</v>
+        <v>29.18264770507812</v>
       </c>
       <c r="G123" t="n">
-        <v>27.49407958984375</v>
+        <v>28.41534423828125</v>
       </c>
       <c r="H123" t="n">
-        <v>-56.38658142089844</v>
+        <v>-78.44668579101562</v>
       </c>
       <c r="I123" t="n">
-        <v>25.3903923034668</v>
+        <v>40.07795715332031</v>
       </c>
       <c r="J123" t="n">
-        <v>96824.3359375</v>
+        <v>96719.53125</v>
       </c>
       <c r="K123" t="n">
-        <v>3.799999952316284</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L123" t="n">
-        <v>1.557453632354736</v>
+        <v>2.329960823059082</v>
       </c>
       <c r="M123" t="n">
-        <v>-5.851499080657959</v>
+        <v>-7.571721076965332</v>
       </c>
       <c r="N123" t="n">
-        <v>10.01334190368652</v>
+        <v>12.40003681182861</v>
       </c>
     </row>
     <row r="124">
@@ -6361,11 +6361,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1705914000</v>
+        <v>1707469200</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6374,34 +6374,34 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>66</v>
+        <v>63.5</v>
       </c>
       <c r="F124" t="n">
-        <v>25.17437744140625</v>
+        <v>26.65704345703125</v>
       </c>
       <c r="G124" t="n">
-        <v>24.36349487304688</v>
+        <v>25.78656005859375</v>
       </c>
       <c r="H124" t="n">
-        <v>-76.19454956054688</v>
+        <v>-78.55461120605469</v>
       </c>
       <c r="I124" t="n">
-        <v>33.14629745483398</v>
+        <v>40.95644760131836</v>
       </c>
       <c r="J124" t="n">
-        <v>96786.3671875</v>
+        <v>96615.25</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L124" t="n">
-        <v>3.137495040893555</v>
+        <v>3.62566876411438</v>
       </c>
       <c r="M124" t="n">
-        <v>-4.784257888793945</v>
+        <v>-6.424233436584473</v>
       </c>
       <c r="N124" t="n">
-        <v>9.122157096862793</v>
+        <v>11.20013427734375</v>
       </c>
     </row>
     <row r="125">
@@ -6409,11 +6409,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1705924800</v>
+        <v>1707480000</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6422,34 +6422,34 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>74.5</v>
+        <v>71.09999847412109</v>
       </c>
       <c r="F125" t="n">
-        <v>23.71524047851562</v>
+        <v>24.70974731445312</v>
       </c>
       <c r="G125" t="n">
-        <v>22.72586059570312</v>
+        <v>23.87945556640625</v>
       </c>
       <c r="H125" t="n">
-        <v>-74.43977355957031</v>
+        <v>-76.19482421875</v>
       </c>
       <c r="I125" t="n">
-        <v>33.78437805175781</v>
+        <v>40.86786270141602</v>
       </c>
       <c r="J125" t="n">
-        <v>96946.3671875</v>
+        <v>96735.765625</v>
       </c>
       <c r="K125" t="n">
-        <v>0.6000000238418579</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="L125" t="n">
-        <v>4.731086254119873</v>
+        <v>3.508227348327637</v>
       </c>
       <c r="M125" t="n">
-        <v>-4.311420917510986</v>
+        <v>-4.862336158752441</v>
       </c>
       <c r="N125" t="n">
-        <v>9.199999809265137</v>
+        <v>10.10828304290771</v>
       </c>
     </row>
     <row r="126">
@@ -6457,11 +6457,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1705935600</v>
+        <v>1707490800</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6470,34 +6470,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>53.5</v>
+        <v>56.29999923706055</v>
       </c>
       <c r="F126" t="n">
-        <v>29.98214721679688</v>
+        <v>29.86965942382812</v>
       </c>
       <c r="G126" t="n">
-        <v>27.19894409179688</v>
+        <v>27.2159423828125</v>
       </c>
       <c r="H126" t="n">
-        <v>-59.18463134765625</v>
+        <v>-78.19717407226562</v>
       </c>
       <c r="I126" t="n">
-        <v>33.8902587890625</v>
+        <v>41.1981315612793</v>
       </c>
       <c r="J126" t="n">
-        <v>97059.875</v>
+        <v>96914.2734375</v>
       </c>
       <c r="K126" t="n">
-        <v>52.29999923706055</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="L126" t="n">
-        <v>0.6383813619613647</v>
+        <v>0.475512683391571</v>
       </c>
       <c r="M126" t="n">
-        <v>-5.686374187469482</v>
+        <v>-6.354423522949219</v>
       </c>
       <c r="N126" t="n">
-        <v>6.002912044525146</v>
+        <v>6.91096830368042</v>
       </c>
     </row>
     <row r="127">
@@ -6505,11 +6505,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1705946400</v>
+        <v>1707501600</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.5</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="F127" t="n">
-        <v>35.15582275390625</v>
+        <v>33.02688598632812</v>
       </c>
       <c r="G127" t="n">
-        <v>32.42999267578125</v>
+        <v>30.81594848632812</v>
       </c>
       <c r="H127" t="n">
-        <v>-57.84226989746094</v>
+        <v>-79.07717895507812</v>
       </c>
       <c r="I127" t="n">
-        <v>32.77294158935547</v>
+        <v>42.32819747924805</v>
       </c>
       <c r="J127" t="n">
-        <v>96793.7421875</v>
+        <v>96725.234375</v>
       </c>
       <c r="K127" t="n">
-        <v>66.40000152587891</v>
+        <v>99.5</v>
       </c>
       <c r="L127" t="n">
-        <v>0.5270043611526489</v>
+        <v>-0.3731884658336639</v>
       </c>
       <c r="M127" t="n">
-        <v>-2.925981283187866</v>
+        <v>-5.040971755981445</v>
       </c>
       <c r="N127" t="n">
-        <v>3.705758333206177</v>
+        <v>5.503352642059326</v>
       </c>
     </row>
     <row r="128">
@@ -6553,11 +6553,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1705957200</v>
+        <v>1707512400</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6566,34 +6566,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.89999961853027</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="F128" t="n">
-        <v>37.5623779296875</v>
+        <v>32.95584106445312</v>
       </c>
       <c r="G128" t="n">
-        <v>35.10366821289062</v>
+        <v>31.17437744140625</v>
       </c>
       <c r="H128" t="n">
-        <v>-53.74720764160156</v>
+        <v>-79.82463073730469</v>
       </c>
       <c r="I128" t="n">
-        <v>29.6394157409668</v>
+        <v>42.41059494018555</v>
       </c>
       <c r="J128" t="n">
-        <v>96458.5390625</v>
+        <v>96534.9765625</v>
       </c>
       <c r="K128" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="L128" t="n">
-        <v>2.118100643157959</v>
+        <v>-0.9144970774650574</v>
       </c>
       <c r="M128" t="n">
-        <v>-2.846850633621216</v>
+        <v>-4.479841232299805</v>
       </c>
       <c r="N128" t="n">
-        <v>3.110235691070557</v>
+        <v>5.305087566375732</v>
       </c>
     </row>
     <row r="129">
@@ -6601,11 +6601,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1705968000</v>
+        <v>1707523200</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6614,34 +6614,34 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.30000114440918</v>
+        <v>42.40000152587891</v>
       </c>
       <c r="F129" t="n">
-        <v>35.69534301757812</v>
+        <v>32.20346069335938</v>
       </c>
       <c r="G129" t="n">
-        <v>35.79769897460938</v>
+        <v>31.74728393554688</v>
       </c>
       <c r="H129" t="n">
-        <v>-52.54348754882812</v>
+        <v>-79.16685485839844</v>
       </c>
       <c r="I129" t="n">
-        <v>28.54677200317383</v>
+        <v>40.89486694335938</v>
       </c>
       <c r="J129" t="n">
-        <v>96434.6640625</v>
+        <v>96535.328125</v>
       </c>
       <c r="K129" t="n">
-        <v>17.10000038146973</v>
+        <v>86.20000457763672</v>
       </c>
       <c r="L129" t="n">
-        <v>1.593207955360413</v>
+        <v>0.2483422756195068</v>
       </c>
       <c r="M129" t="n">
-        <v>-3.384072303771973</v>
+        <v>-2.773190975189209</v>
       </c>
       <c r="N129" t="n">
-        <v>4.811314582824707</v>
+        <v>3.501576662063599</v>
       </c>
     </row>
     <row r="130">
@@ -6649,11 +6649,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1705978800</v>
+        <v>1707534000</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6662,34 +6662,34 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.5</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="F130" t="n">
-        <v>31.95068359375</v>
+        <v>30.18182373046875</v>
       </c>
       <c r="G130" t="n">
-        <v>32.86581420898438</v>
+        <v>30.9176025390625</v>
       </c>
       <c r="H130" t="n">
-        <v>-69.74957275390625</v>
+        <v>-76.49349975585938</v>
       </c>
       <c r="I130" t="n">
-        <v>26.68580627441406</v>
+        <v>41.3398551940918</v>
       </c>
       <c r="J130" t="n">
-        <v>96603.4140625</v>
+        <v>96668.4609375</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>28.30000114440918</v>
       </c>
       <c r="L130" t="n">
-        <v>3.069421291351318</v>
+        <v>-1.158969759941101</v>
       </c>
       <c r="M130" t="n">
-        <v>-2.903911113739014</v>
+        <v>-3.217805147171021</v>
       </c>
       <c r="N130" t="n">
-        <v>7.704472541809082</v>
+        <v>3.814471960067749</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1706151600</v>
+        <v>1710126000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,34 +518,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.80000305175781</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="F2" t="n">
-        <v>27.4964599609375</v>
+        <v>30.2615966796875</v>
       </c>
       <c r="G2" t="n">
-        <v>27.21405029296875</v>
+        <v>30.94412231445312</v>
       </c>
       <c r="H2" t="n">
-        <v>-70.06723022460938</v>
+        <v>-31.50137329101562</v>
       </c>
       <c r="I2" t="n">
-        <v>57.26755523681641</v>
+        <v>32.3817138671875</v>
       </c>
       <c r="J2" t="n">
-        <v>96658.9609375</v>
+        <v>96785.0859375</v>
       </c>
       <c r="K2" t="n">
-        <v>96.09999847412109</v>
+        <v>17.5</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8123583793640137</v>
+        <v>1.899323701858521</v>
       </c>
       <c r="M2" t="n">
-        <v>1.99667227268219</v>
+        <v>-3.404584884643555</v>
       </c>
       <c r="N2" t="n">
-        <v>2.807476043701172</v>
+        <v>5.404507160186768</v>
       </c>
     </row>
     <row r="3">
@@ -553,11 +553,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1706162400</v>
+        <v>1710136800</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84.80000305175781</v>
+        <v>51.90000152587891</v>
       </c>
       <c r="F3" t="n">
-        <v>25.64181518554688</v>
+        <v>29.90786743164062</v>
       </c>
       <c r="G3" t="n">
-        <v>25.5849609375</v>
+        <v>29.35748291015625</v>
       </c>
       <c r="H3" t="n">
-        <v>-67.38870239257812</v>
+        <v>-45.44091796875</v>
       </c>
       <c r="I3" t="n">
-        <v>58.6825065612793</v>
+        <v>33.77707290649414</v>
       </c>
       <c r="J3" t="n">
-        <v>96653.5625</v>
+        <v>96792.7109375</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>64.30000305175781</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.878969669342041</v>
+        <v>1.822380304336548</v>
       </c>
       <c r="M3" t="n">
-        <v>5.681132793426514</v>
+        <v>-3.700617551803589</v>
       </c>
       <c r="N3" t="n">
-        <v>9.418225288391113</v>
+        <v>6.403215885162354</v>
       </c>
     </row>
     <row r="4">
@@ -601,11 +601,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1706173200</v>
+        <v>1710147600</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -614,34 +614,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>89.80000305175781</v>
+        <v>61.29999923706055</v>
       </c>
       <c r="F4" t="n">
-        <v>24.45126342773438</v>
+        <v>28.48336791992188</v>
       </c>
       <c r="G4" t="n">
-        <v>23.79525756835938</v>
+        <v>27.94854736328125</v>
       </c>
       <c r="H4" t="n">
-        <v>-55.21875</v>
+        <v>-18.8935546875</v>
       </c>
       <c r="I4" t="n">
-        <v>58.96147918701172</v>
+        <v>36.22830963134766</v>
       </c>
       <c r="J4" t="n">
-        <v>96506.46875</v>
+        <v>96705.5390625</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>60.90000152587891</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.646772384643555</v>
+        <v>1.174689888954163</v>
       </c>
       <c r="M4" t="n">
-        <v>5.698251724243164</v>
+        <v>-3.598769426345825</v>
       </c>
       <c r="N4" t="n">
-        <v>9.517511367797852</v>
+        <v>6.404837131500244</v>
       </c>
     </row>
     <row r="5">
@@ -649,11 +649,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1706184000</v>
+        <v>1710158400</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,34 +662,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>71.5</v>
       </c>
       <c r="F5" t="n">
-        <v>24.56259155273438</v>
+        <v>26.25506591796875</v>
       </c>
       <c r="G5" t="n">
-        <v>23.95468139648438</v>
+        <v>25.82186889648438</v>
       </c>
       <c r="H5" t="n">
-        <v>-51.98408508300781</v>
+        <v>-17.88449096679688</v>
       </c>
       <c r="I5" t="n">
-        <v>57.23049926757812</v>
+        <v>35.09870529174805</v>
       </c>
       <c r="J5" t="n">
-        <v>96613.09375</v>
+        <v>96817.59375</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>2.600000143051147</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3585424721240997</v>
+        <v>0.8987329006195068</v>
       </c>
       <c r="M5" t="n">
-        <v>2.935385704040527</v>
+        <v>-3.71600079536438</v>
       </c>
       <c r="N5" t="n">
-        <v>6.300132751464844</v>
+        <v>6.610833644866943</v>
       </c>
     </row>
     <row r="6">
@@ -697,11 +697,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1706194800</v>
+        <v>1710169200</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -710,34 +710,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.80000305175781</v>
+        <v>50.90000152587891</v>
       </c>
       <c r="F6" t="n">
-        <v>25.04754638671875</v>
+        <v>31.03451538085938</v>
       </c>
       <c r="G6" t="n">
-        <v>24.26898193359375</v>
+        <v>28.62380981445312</v>
       </c>
       <c r="H6" t="n">
-        <v>-61.92878723144531</v>
+        <v>-22.67037963867188</v>
       </c>
       <c r="I6" t="n">
-        <v>58.05101013183594</v>
+        <v>33.75528335571289</v>
       </c>
       <c r="J6" t="n">
-        <v>96753.6015625</v>
+        <v>96946.4921875</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.006816387176514</v>
+        <v>0.129669189453125</v>
       </c>
       <c r="M6" t="n">
-        <v>2.129997491836548</v>
+        <v>-4.724787712097168</v>
       </c>
       <c r="N6" t="n">
-        <v>5.10479736328125</v>
+        <v>4.837870121002197</v>
       </c>
     </row>
     <row r="7">
@@ -745,11 +745,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1706205600</v>
+        <v>1710180000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -758,34 +758,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80.90000152587891</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F7" t="n">
-        <v>25.94235229492188</v>
+        <v>35.29254150390625</v>
       </c>
       <c r="G7" t="n">
-        <v>24.75738525390625</v>
+        <v>32.76272583007812</v>
       </c>
       <c r="H7" t="n">
-        <v>-66.53213500976562</v>
+        <v>-17.16586303710938</v>
       </c>
       <c r="I7" t="n">
-        <v>58.37741088867188</v>
+        <v>32.8981819152832</v>
       </c>
       <c r="J7" t="n">
-        <v>96718.015625</v>
+        <v>96742.4296875</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.204030752182007</v>
+        <v>-0.1900317370891571</v>
       </c>
       <c r="M7" t="n">
-        <v>4.02471923828125</v>
+        <v>-3.12908935546875</v>
       </c>
       <c r="N7" t="n">
-        <v>5.137145519256592</v>
+        <v>3.346468448638916</v>
       </c>
     </row>
     <row r="8">
@@ -793,11 +793,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1706216400</v>
+        <v>1710190800</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -806,34 +806,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85.20000457763672</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>25.17242431640625</v>
+        <v>37.69253540039062</v>
       </c>
       <c r="G8" t="n">
-        <v>24.119873046875</v>
+        <v>35.48745727539062</v>
       </c>
       <c r="H8" t="n">
-        <v>-69.41197204589844</v>
+        <v>-57.89016723632812</v>
       </c>
       <c r="I8" t="n">
-        <v>57.60771560668945</v>
+        <v>34.41392517089844</v>
       </c>
       <c r="J8" t="n">
-        <v>96540.40625</v>
+        <v>96463.3984375</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>26.30000114440918</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.6752954125404358</v>
+        <v>-0.7091833353042603</v>
       </c>
       <c r="M8" t="n">
-        <v>3.222765922546387</v>
+        <v>-3.279257774353027</v>
       </c>
       <c r="N8" t="n">
-        <v>4.821712017059326</v>
+        <v>3.815305471420288</v>
       </c>
     </row>
     <row r="9">
@@ -841,11 +841,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1706227200</v>
+        <v>1710201600</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,34 +854,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>87.70000457763672</v>
+        <v>30.30000114440918</v>
       </c>
       <c r="F9" t="n">
-        <v>25.1646728515625</v>
+        <v>35.08856201171875</v>
       </c>
       <c r="G9" t="n">
-        <v>24.61572265625</v>
+        <v>35.89068603515625</v>
       </c>
       <c r="H9" t="n">
-        <v>-68.75910949707031</v>
+        <v>-45.62203979492188</v>
       </c>
       <c r="I9" t="n">
-        <v>57.31631088256836</v>
+        <v>34.77939987182617</v>
       </c>
       <c r="J9" t="n">
-        <v>96551.734375</v>
+        <v>96498.9609375</v>
       </c>
       <c r="K9" t="n">
         <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2122875899076462</v>
+        <v>2.085406541824341</v>
       </c>
       <c r="M9" t="n">
-        <v>3.905798196792603</v>
+        <v>-2.570336818695068</v>
       </c>
       <c r="N9" t="n">
-        <v>7.103491306304932</v>
+        <v>3.607076644897461</v>
       </c>
     </row>
     <row r="10">
@@ -889,11 +889,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1706238000</v>
+        <v>1710212400</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -902,34 +902,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>90.5</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="F10" t="n">
-        <v>24.65997314453125</v>
+        <v>32.96261596679688</v>
       </c>
       <c r="G10" t="n">
-        <v>24.06027221679688</v>
+        <v>33.4381103515625</v>
       </c>
       <c r="H10" t="n">
-        <v>-67.69508361816406</v>
+        <v>-14.72799682617188</v>
       </c>
       <c r="I10" t="n">
-        <v>57.0753173828125</v>
+        <v>31.70757102966309</v>
       </c>
       <c r="J10" t="n">
-        <v>96738.5234375</v>
+        <v>96725.90625</v>
       </c>
       <c r="K10" t="n">
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.402290016412735</v>
+        <v>3.053376436233521</v>
       </c>
       <c r="M10" t="n">
-        <v>3.927297353744507</v>
+        <v>-2.665703058242798</v>
       </c>
       <c r="N10" t="n">
-        <v>7.401561260223389</v>
+        <v>6.205789089202881</v>
       </c>
     </row>
     <row r="11">
@@ -937,11 +937,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1706248800</v>
+        <v>1710223200</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -950,34 +950,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>91.09999847412109</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="F11" t="n">
-        <v>24.41140747070312</v>
+        <v>30.25387573242188</v>
       </c>
       <c r="G11" t="n">
-        <v>23.771484375</v>
+        <v>30.90988159179688</v>
       </c>
       <c r="H11" t="n">
-        <v>-67.31626892089844</v>
+        <v>-25.17449951171875</v>
       </c>
       <c r="I11" t="n">
-        <v>57.57448577880859</v>
+        <v>36.13936614990234</v>
       </c>
       <c r="J11" t="n">
-        <v>96678.1875</v>
+        <v>96850.5859375</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8262915015220642</v>
+        <v>-2.519082069396973</v>
       </c>
       <c r="M11" t="n">
-        <v>2.780356407165527</v>
+        <v>-0.209665521979332</v>
       </c>
       <c r="N11" t="n">
-        <v>5.101376533508301</v>
+        <v>2.917300224304199</v>
       </c>
     </row>
     <row r="12">
@@ -985,11 +985,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1706259600</v>
+        <v>1710234000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,34 +998,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>91.20000457763672</v>
+        <v>46.40000152587891</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>27.80001831054688</v>
       </c>
       <c r="G12" t="n">
-        <v>23.35382080078125</v>
+        <v>27.94308471679688</v>
       </c>
       <c r="H12" t="n">
-        <v>-70.6109619140625</v>
+        <v>-42.67826843261719</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52423095703125</v>
+        <v>32.50309753417969</v>
       </c>
       <c r="J12" t="n">
-        <v>96561.734375</v>
+        <v>96795.9609375</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2073974609375</v>
+        <v>2.350502967834473</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9005297422409058</v>
+        <v>-3.862631797790527</v>
       </c>
       <c r="N12" t="n">
-        <v>2.209619760513306</v>
+        <v>6.726025581359863</v>
       </c>
     </row>
     <row r="13">
@@ -1033,11 +1033,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1706270400</v>
+        <v>1710244800</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1046,34 +1046,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>73.20000457763672</v>
       </c>
       <c r="F13" t="n">
-        <v>24.47967529296875</v>
+        <v>25.39999389648438</v>
       </c>
       <c r="G13" t="n">
-        <v>24.60043334960938</v>
+        <v>25.20053100585938</v>
       </c>
       <c r="H13" t="n">
-        <v>-72.80755615234375</v>
+        <v>-11.2586669921875</v>
       </c>
       <c r="I13" t="n">
-        <v>56.73022842407227</v>
+        <v>32.1172981262207</v>
       </c>
       <c r="J13" t="n">
-        <v>96734.5390625</v>
+        <v>96951.890625</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>5.700000286102295</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.847041010856628</v>
+        <v>1.456397652626038</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1949023455381393</v>
+        <v>-3.243124961853027</v>
       </c>
       <c r="N13" t="n">
-        <v>2.003217458724976</v>
+        <v>6.503613471984863</v>
       </c>
     </row>
     <row r="14">
@@ -1081,11 +1081,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1706281200</v>
+        <v>1710255600</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1094,34 +1094,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>75.59999847412109</v>
+        <v>54.60000228881836</v>
       </c>
       <c r="F14" t="n">
-        <v>26.51608276367188</v>
+        <v>31.22549438476562</v>
       </c>
       <c r="G14" t="n">
-        <v>25.16348266601562</v>
+        <v>28.66439819335938</v>
       </c>
       <c r="H14" t="n">
-        <v>-73.00898742675781</v>
+        <v>-11.45846557617188</v>
       </c>
       <c r="I14" t="n">
-        <v>56.58405303955078</v>
+        <v>35.37842559814453</v>
       </c>
       <c r="J14" t="n">
-        <v>96911.6484375</v>
+        <v>97059.4140625</v>
       </c>
       <c r="K14" t="n">
-        <v>98.30000305175781</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.311718702316284</v>
+        <v>1.360720157623291</v>
       </c>
       <c r="M14" t="n">
-        <v>1.169016122817993</v>
+        <v>-5.30044412612915</v>
       </c>
       <c r="N14" t="n">
-        <v>3.519873142242432</v>
+        <v>5.710472106933594</v>
       </c>
     </row>
     <row r="15">
@@ -1129,11 +1129,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1706292000</v>
+        <v>1710266400</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1142,34 +1142,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>74.20000457763672</v>
+        <v>35.40000152587891</v>
       </c>
       <c r="F15" t="n">
-        <v>26.56423950195312</v>
+        <v>35.86111450195312</v>
       </c>
       <c r="G15" t="n">
-        <v>25.36236572265625</v>
+        <v>33.1744384765625</v>
       </c>
       <c r="H15" t="n">
-        <v>-72.91535949707031</v>
+        <v>-77.94758605957031</v>
       </c>
       <c r="I15" t="n">
-        <v>55.18491744995117</v>
+        <v>37.14982223510742</v>
       </c>
       <c r="J15" t="n">
-        <v>96771.2734375</v>
+        <v>96799.2265625</v>
       </c>
       <c r="K15" t="n">
-        <v>97.20000457763672</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.171108245849609</v>
+        <v>-0.03041503764688969</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.5889526009559631</v>
+        <v>-4.095993518829346</v>
       </c>
       <c r="N15" t="n">
-        <v>4.10174560546875</v>
+        <v>4.7308349609375</v>
       </c>
     </row>
     <row r="16">
@@ -1177,11 +1177,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1706302800</v>
+        <v>1710277200</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1190,34 +1190,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>51.79999923706055</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="F16" t="n">
-        <v>30.4051513671875</v>
+        <v>38.57785034179688</v>
       </c>
       <c r="G16" t="n">
-        <v>28.9835205078125</v>
+        <v>36.30599975585938</v>
       </c>
       <c r="H16" t="n">
-        <v>-71.96926879882812</v>
+        <v>-77.19313049316406</v>
       </c>
       <c r="I16" t="n">
-        <v>52.75025939941406</v>
+        <v>37.34007263183594</v>
       </c>
       <c r="J16" t="n">
-        <v>96488.8359375</v>
+        <v>96429.9296875</v>
       </c>
       <c r="K16" t="n">
-        <v>52.40000152587891</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.9177075028419495</v>
+        <v>0.9606347680091858</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.400419950485229</v>
+        <v>-4.005688190460205</v>
       </c>
       <c r="N16" t="n">
-        <v>3.808862447738647</v>
+        <v>4.510867118835449</v>
       </c>
     </row>
     <row r="17">
@@ -1225,11 +1225,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1706313600</v>
+        <v>1710288000</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1238,34 +1238,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>65.30000305175781</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="F17" t="n">
-        <v>28.31256103515625</v>
+        <v>34.71212768554688</v>
       </c>
       <c r="G17" t="n">
-        <v>27.95303344726562</v>
+        <v>35.13003540039062</v>
       </c>
       <c r="H17" t="n">
-        <v>-69.8048095703125</v>
+        <v>-75.20208740234375</v>
       </c>
       <c r="I17" t="n">
-        <v>54.60453033447266</v>
+        <v>36.15592956542969</v>
       </c>
       <c r="J17" t="n">
-        <v>96548.3515625</v>
+        <v>96506.28125</v>
       </c>
       <c r="K17" t="n">
-        <v>83.70000457763672</v>
+        <v>82.30000305175781</v>
       </c>
       <c r="L17" t="n">
-        <v>0.364204078912735</v>
+        <v>0.08473632484674454</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.082246065139771</v>
+        <v>-5.479121208190918</v>
       </c>
       <c r="N17" t="n">
-        <v>4.324140548706055</v>
+        <v>8.501456260681152</v>
       </c>
     </row>
     <row r="18">
@@ -1273,11 +1273,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1706324400</v>
+        <v>1710298800</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>74</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="F18" t="n">
-        <v>26.62472534179688</v>
+        <v>31.43472290039062</v>
       </c>
       <c r="G18" t="n">
-        <v>26.57281494140625</v>
+        <v>32.40548706054688</v>
       </c>
       <c r="H18" t="n">
-        <v>-50.85289001464844</v>
+        <v>-75.18539428710938</v>
       </c>
       <c r="I18" t="n">
-        <v>56.57549285888672</v>
+        <v>37.82819366455078</v>
       </c>
       <c r="J18" t="n">
-        <v>96758.5859375</v>
+        <v>96720.2265625</v>
       </c>
       <c r="K18" t="n">
-        <v>95.59999847412109</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1646435558795929</v>
+        <v>1.082819819450378</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.218071222305298</v>
+        <v>-4.391372203826904</v>
       </c>
       <c r="N18" t="n">
-        <v>2.80069899559021</v>
+        <v>8.533462524414062</v>
       </c>
     </row>
     <row r="19">
@@ -1321,11 +1321,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1706335200</v>
+        <v>1710309600</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1334,34 +1334,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>81.70000457763672</v>
+        <v>53.90000152587891</v>
       </c>
       <c r="F19" t="n">
-        <v>25.44082641601562</v>
+        <v>29.51837158203125</v>
       </c>
       <c r="G19" t="n">
-        <v>25.073486328125</v>
+        <v>28.94955444335938</v>
       </c>
       <c r="H19" t="n">
-        <v>-53.318603515625</v>
+        <v>-75.43992614746094</v>
       </c>
       <c r="I19" t="n">
-        <v>56.21127319335938</v>
+        <v>44.46048736572266</v>
       </c>
       <c r="J19" t="n">
-        <v>96736.2265625</v>
+        <v>96855.5234375</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>70.20000457763672</v>
       </c>
       <c r="L19" t="n">
-        <v>3.031144857406616</v>
+        <v>2.252038478851318</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.912673354148865</v>
+        <v>-7.975532054901123</v>
       </c>
       <c r="N19" t="n">
-        <v>5.203622817993164</v>
+        <v>13.11472797393799</v>
       </c>
     </row>
     <row r="20">
@@ -1369,11 +1369,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1706346000</v>
+        <v>1710320400</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>81.20000457763672</v>
+        <v>73.20000457763672</v>
       </c>
       <c r="F20" t="n">
-        <v>25.33554077148438</v>
+        <v>26.92147827148438</v>
       </c>
       <c r="G20" t="n">
-        <v>25.45028686523438</v>
+        <v>26.56637573242188</v>
       </c>
       <c r="H20" t="n">
-        <v>-76.46852111816406</v>
+        <v>-77.18998718261719</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98453140258789</v>
+        <v>50.15805053710938</v>
       </c>
       <c r="J20" t="n">
-        <v>96655.4375</v>
+        <v>96769.953125</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5501415729522705</v>
+        <v>2.975693225860596</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.721103429794312</v>
+        <v>-4.3218674659729</v>
       </c>
       <c r="N20" t="n">
-        <v>2.301270246505737</v>
+        <v>8.000807762145996</v>
       </c>
     </row>
     <row r="21">
@@ -1417,11 +1417,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1706356800</v>
+        <v>1710331200</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1430,34 +1430,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80.70000457763672</v>
+        <v>78.09999847412109</v>
       </c>
       <c r="F21" t="n">
-        <v>25.40509033203125</v>
+        <v>25.60000610351562</v>
       </c>
       <c r="G21" t="n">
-        <v>25.1787109375</v>
+        <v>25.12551879882812</v>
       </c>
       <c r="H21" t="n">
-        <v>-76.82011413574219</v>
+        <v>-78.05111694335938</v>
       </c>
       <c r="I21" t="n">
-        <v>55.63156890869141</v>
+        <v>49.29075622558594</v>
       </c>
       <c r="J21" t="n">
-        <v>96775.1171875</v>
+        <v>96901</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>0.126230463385582</v>
+        <v>3.439924240112305</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.966833472251892</v>
+        <v>-3.969331026077271</v>
       </c>
       <c r="N21" t="n">
-        <v>2.702587842941284</v>
+        <v>8.8001708984375</v>
       </c>
     </row>
     <row r="22">
@@ -1465,11 +1465,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1706367600</v>
+        <v>1710342000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1478,34 +1478,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>65.30000305175781</v>
+        <v>57.79999923706055</v>
       </c>
       <c r="F22" t="n">
-        <v>28.41915893554688</v>
+        <v>30.70355224609375</v>
       </c>
       <c r="G22" t="n">
-        <v>26.52566528320312</v>
+        <v>28.19674682617188</v>
       </c>
       <c r="H22" t="n">
-        <v>-76.11515808105469</v>
+        <v>-69.58984375</v>
       </c>
       <c r="I22" t="n">
-        <v>54.49497222900391</v>
+        <v>47.63838195800781</v>
       </c>
       <c r="J22" t="n">
-        <v>96954.7734375</v>
+        <v>97030.9140625</v>
       </c>
       <c r="K22" t="n">
-        <v>69.20000457763672</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>-3.645876407623291</v>
+        <v>1.718725562095642</v>
       </c>
       <c r="M22" t="n">
-        <v>1.378520488739014</v>
+        <v>-5.315827369689941</v>
       </c>
       <c r="N22" t="n">
-        <v>4.907503604888916</v>
+        <v>6.006692886352539</v>
       </c>
     </row>
     <row r="23">
@@ -1513,11 +1513,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1706378400</v>
+        <v>1710352800</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1526,34 +1526,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>64.09999847412109</v>
+        <v>41.29999923706055</v>
       </c>
       <c r="F23" t="n">
-        <v>29.00027465820312</v>
+        <v>34.78475952148438</v>
       </c>
       <c r="G23" t="n">
-        <v>27.39886474609375</v>
+        <v>32.25262451171875</v>
       </c>
       <c r="H23" t="n">
-        <v>-74.02737426757812</v>
+        <v>-66.31452941894531</v>
       </c>
       <c r="I23" t="n">
-        <v>56.05957412719727</v>
+        <v>50.3062629699707</v>
       </c>
       <c r="J23" t="n">
-        <v>96922.0703125</v>
+        <v>96793.8515625</v>
       </c>
       <c r="K23" t="n">
-        <v>90.59999847412109</v>
+        <v>99.30000305175781</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.4144287109375</v>
+        <v>0.97509765625</v>
       </c>
       <c r="M23" t="n">
-        <v>1.729287028312683</v>
+        <v>-4.540976524353027</v>
       </c>
       <c r="N23" t="n">
-        <v>5.002940654754639</v>
+        <v>4.919258117675781</v>
       </c>
     </row>
     <row r="24">
@@ -1561,11 +1561,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1706389200</v>
+        <v>1710363600</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1574,34 +1574,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>73.40000152587891</v>
+        <v>38.60000228881836</v>
       </c>
       <c r="F24" t="n">
-        <v>27.0557861328125</v>
+        <v>34.3538818359375</v>
       </c>
       <c r="G24" t="n">
-        <v>26.19732666015625</v>
+        <v>32.62750244140625</v>
       </c>
       <c r="H24" t="n">
-        <v>-73.55207824707031</v>
+        <v>-74.58808898925781</v>
       </c>
       <c r="I24" t="n">
-        <v>55.17966842651367</v>
+        <v>48.79841613769531</v>
       </c>
       <c r="J24" t="n">
-        <v>96757.2421875</v>
+        <v>96540.546875</v>
       </c>
       <c r="K24" t="n">
-        <v>96.30000305175781</v>
+        <v>96.40000152587891</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.7739917039871216</v>
+        <v>1.096828579902649</v>
       </c>
       <c r="M24" t="n">
-        <v>4.991342544555664</v>
+        <v>-4.473727703094482</v>
       </c>
       <c r="N24" t="n">
-        <v>5.901469707489014</v>
+        <v>5.707476139068604</v>
       </c>
     </row>
     <row r="25">
@@ -1609,11 +1609,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1706400000</v>
+        <v>1710374400</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1622,34 +1622,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>79.5</v>
+        <v>43.20000076293945</v>
       </c>
       <c r="F25" t="n">
-        <v>24.90487670898438</v>
+        <v>32.10775756835938</v>
       </c>
       <c r="G25" t="n">
-        <v>24.08819580078125</v>
+        <v>32.08706665039062</v>
       </c>
       <c r="H25" t="n">
-        <v>-74.05140686035156</v>
+        <v>-78.16067504882812</v>
       </c>
       <c r="I25" t="n">
-        <v>49.85642242431641</v>
+        <v>48.06499862670898</v>
       </c>
       <c r="J25" t="n">
-        <v>96813.59375</v>
+        <v>96528.203125</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.553229928016663</v>
+        <v>1.085930109024048</v>
       </c>
       <c r="M25" t="n">
-        <v>7.242770671844482</v>
+        <v>-5.1329026222229</v>
       </c>
       <c r="N25" t="n">
-        <v>10.10876274108887</v>
+        <v>8.209567070007324</v>
       </c>
     </row>
     <row r="26">
@@ -1657,11 +1657,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1706410800</v>
+        <v>1710385200</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>82.40000152587891</v>
+        <v>49.10000228881836</v>
       </c>
       <c r="F26" t="n">
-        <v>24.75146484375</v>
+        <v>31.0064697265625</v>
       </c>
       <c r="G26" t="n">
-        <v>23.90383911132812</v>
+        <v>30.79486083984375</v>
       </c>
       <c r="H26" t="n">
-        <v>-74.14826965332031</v>
+        <v>-77.85598754882812</v>
       </c>
       <c r="I26" t="n">
-        <v>53.87253570556641</v>
+        <v>47.99920654296875</v>
       </c>
       <c r="J26" t="n">
-        <v>96994.0546875</v>
+        <v>96715.859375</v>
       </c>
       <c r="K26" t="n">
-        <v>99.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>1.723583936691284</v>
+        <v>-0.56475830078125</v>
       </c>
       <c r="M26" t="n">
-        <v>2.628513097763062</v>
+        <v>-2.760886192321777</v>
       </c>
       <c r="N26" t="n">
-        <v>6.002569675445557</v>
+        <v>5.119764804840088</v>
       </c>
     </row>
     <row r="27">
@@ -1705,11 +1705,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1706421600</v>
+        <v>1710396000</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1718,34 +1718,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>82.59999847412109</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="F27" t="n">
-        <v>24.53271484375</v>
+        <v>28.51895141601562</v>
       </c>
       <c r="G27" t="n">
-        <v>23.90066528320312</v>
+        <v>28.03152465820312</v>
       </c>
       <c r="H27" t="n">
-        <v>-72.99885559082031</v>
+        <v>-59.76155090332031</v>
       </c>
       <c r="I27" t="n">
-        <v>53.15473175048828</v>
+        <v>50.57558059692383</v>
       </c>
       <c r="J27" t="n">
-        <v>96936.3671875</v>
+        <v>96820.6015625</v>
       </c>
       <c r="K27" t="n">
-        <v>99.80000305175781</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L27" t="n">
-        <v>1.938757300376892</v>
+        <v>0.3132885694503784</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6428393125534058</v>
+        <v>-4.778093338012695</v>
       </c>
       <c r="N27" t="n">
-        <v>3.304842472076416</v>
+        <v>7.507712841033936</v>
       </c>
     </row>
     <row r="28">
@@ -1753,11 +1753,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1706432400</v>
+        <v>1710406800</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1766,34 +1766,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>84.5</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="F28" t="n">
-        <v>24.05990600585938</v>
+        <v>25.136474609375</v>
       </c>
       <c r="G28" t="n">
-        <v>23.72113037109375</v>
+        <v>24.84036254882812</v>
       </c>
       <c r="H28" t="n">
-        <v>-73.55311584472656</v>
+        <v>-60.34849548339844</v>
       </c>
       <c r="I28" t="n">
-        <v>52.0664176940918</v>
+        <v>51.88828277587891</v>
       </c>
       <c r="J28" t="n">
-        <v>96824.0234375</v>
+        <v>96733.9140625</v>
       </c>
       <c r="K28" t="n">
-        <v>95</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="L28" t="n">
-        <v>3.404008626937866</v>
+        <v>3.081733226776123</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.5258203148841858</v>
+        <v>-3.209230899810791</v>
       </c>
       <c r="N28" t="n">
-        <v>5.319980144500732</v>
+        <v>8.216784477233887</v>
       </c>
     </row>
     <row r="29">
@@ -1801,11 +1801,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1706443200</v>
+        <v>1710417600</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1814,34 +1814,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>86.90000152587891</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="F29" t="n">
-        <v>23.64566040039062</v>
+        <v>24.8006591796875</v>
       </c>
       <c r="G29" t="n">
-        <v>23.30941772460938</v>
+        <v>24.34124755859375</v>
       </c>
       <c r="H29" t="n">
-        <v>-59.60191345214844</v>
+        <v>-56.46989440917969</v>
       </c>
       <c r="I29" t="n">
-        <v>51.63653182983398</v>
+        <v>51.08290481567383</v>
       </c>
       <c r="J29" t="n">
-        <v>96936.171875</v>
+        <v>96818.9765625</v>
       </c>
       <c r="K29" t="n">
-        <v>44.5</v>
+        <v>61.20000076293945</v>
       </c>
       <c r="L29" t="n">
-        <v>2.353845119476318</v>
+        <v>3.250456571578979</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.070026874542236</v>
+        <v>-3.323705911636353</v>
       </c>
       <c r="N29" t="n">
-        <v>5.200000286102295</v>
+        <v>8.107285499572754</v>
       </c>
     </row>
     <row r="30">
@@ -1849,11 +1849,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1706454000</v>
+        <v>1710428400</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1862,34 +1862,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>67</v>
+        <v>63.29999923706055</v>
       </c>
       <c r="F30" t="n">
-        <v>27.70907592773438</v>
+        <v>29.95001220703125</v>
       </c>
       <c r="G30" t="n">
-        <v>25.72702026367188</v>
+        <v>27.42611694335938</v>
       </c>
       <c r="H30" t="n">
-        <v>-52.43017578125</v>
+        <v>-76.85797119140625</v>
       </c>
       <c r="I30" t="n">
-        <v>51.75707244873047</v>
+        <v>52.00941848754883</v>
       </c>
       <c r="J30" t="n">
-        <v>97089.640625</v>
+        <v>96991.15625</v>
       </c>
       <c r="K30" t="n">
-        <v>90.30000305175781</v>
+        <v>48.60000228881836</v>
       </c>
       <c r="L30" t="n">
-        <v>2.645344257354736</v>
+        <v>1.508012652397156</v>
       </c>
       <c r="M30" t="n">
-        <v>-3.254018545150757</v>
+        <v>-5.42387580871582</v>
       </c>
       <c r="N30" t="n">
-        <v>4.101436138153076</v>
+        <v>6.211828708648682</v>
       </c>
     </row>
     <row r="31">
@@ -1897,11 +1897,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1706464800</v>
+        <v>1710439200</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1910,34 +1910,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>56.90000152587891</v>
+        <v>45.60000228881836</v>
       </c>
       <c r="F31" t="n">
-        <v>30.10372924804688</v>
+        <v>34.143310546875</v>
       </c>
       <c r="G31" t="n">
-        <v>27.83685302734375</v>
+        <v>31.63864135742188</v>
       </c>
       <c r="H31" t="n">
-        <v>-50.43112182617188</v>
+        <v>-77.06341552734375</v>
       </c>
       <c r="I31" t="n">
-        <v>50.45772552490234</v>
+        <v>50.98983764648438</v>
       </c>
       <c r="J31" t="n">
-        <v>96976.2421875</v>
+        <v>96729.5546875</v>
       </c>
       <c r="K31" t="n">
-        <v>37.29999923706055</v>
+        <v>64.40000152587891</v>
       </c>
       <c r="L31" t="n">
-        <v>1.269289493560791</v>
+        <v>0.344958484172821</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.930891036987305</v>
+        <v>-4.515881061553955</v>
       </c>
       <c r="N31" t="n">
-        <v>3.211370944976807</v>
+        <v>5.209054470062256</v>
       </c>
     </row>
     <row r="32">
@@ -1945,11 +1945,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1706475600</v>
+        <v>1710450000</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1958,34 +1958,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.60000228881836</v>
+        <v>44.10000228881836</v>
       </c>
       <c r="F32" t="n">
-        <v>33.28445434570312</v>
+        <v>34.09967041015625</v>
       </c>
       <c r="G32" t="n">
-        <v>31.42123413085938</v>
+        <v>32.35525512695312</v>
       </c>
       <c r="H32" t="n">
-        <v>-49.02029418945312</v>
+        <v>-64.509765625</v>
       </c>
       <c r="I32" t="n">
-        <v>49.87400054931641</v>
+        <v>50.68282318115234</v>
       </c>
       <c r="J32" t="n">
-        <v>96657.6875</v>
+        <v>96463.2421875</v>
       </c>
       <c r="K32" t="n">
-        <v>91.80000305175781</v>
+        <v>26</v>
       </c>
       <c r="L32" t="n">
-        <v>1.405688405036926</v>
+        <v>2.574492216110229</v>
       </c>
       <c r="M32" t="n">
-        <v>-2.484877824783325</v>
+        <v>-4.777055740356445</v>
       </c>
       <c r="N32" t="n">
-        <v>4.412451267242432</v>
+        <v>5.507841110229492</v>
       </c>
     </row>
     <row r="33">
@@ -1993,11 +1993,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1706486400</v>
+        <v>1710460800</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2006,34 +2006,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.79999923706055</v>
+        <v>48.10000228881836</v>
       </c>
       <c r="F33" t="n">
-        <v>31.02078247070312</v>
+        <v>32.30001831054688</v>
       </c>
       <c r="G33" t="n">
-        <v>30.39059448242188</v>
+        <v>32.13601684570312</v>
       </c>
       <c r="H33" t="n">
-        <v>-52.59393310546875</v>
+        <v>-63.0850830078125</v>
       </c>
       <c r="I33" t="n">
-        <v>47.95644378662109</v>
+        <v>49.51033782958984</v>
       </c>
       <c r="J33" t="n">
-        <v>96656.7265625</v>
+        <v>96475.640625</v>
       </c>
       <c r="K33" t="n">
-        <v>94.90000152587891</v>
+        <v>97.40000152587891</v>
       </c>
       <c r="L33" t="n">
-        <v>2.770453929901123</v>
+        <v>2.337006807327271</v>
       </c>
       <c r="M33" t="n">
-        <v>-2.561206102371216</v>
+        <v>-3.77862286567688</v>
       </c>
       <c r="N33" t="n">
-        <v>5.213183879852295</v>
+        <v>6.517203807830811</v>
       </c>
     </row>
     <row r="34">
@@ -2041,11 +2041,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1706497200</v>
+        <v>1710471600</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2054,34 +2054,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>62.20000076293945</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="F34" t="n">
-        <v>28.43914794921875</v>
+        <v>29.61834716796875</v>
       </c>
       <c r="G34" t="n">
-        <v>28.11785888671875</v>
+        <v>29.32373046875</v>
       </c>
       <c r="H34" t="n">
-        <v>-54.87667846679688</v>
+        <v>-67.81599426269531</v>
       </c>
       <c r="I34" t="n">
-        <v>46.24056625366211</v>
+        <v>50.71614456176758</v>
       </c>
       <c r="J34" t="n">
-        <v>96886.2109375</v>
+        <v>96631.3984375</v>
       </c>
       <c r="K34" t="n">
-        <v>79.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
-        <v>5.019960880279541</v>
+        <v>6.212697505950928</v>
       </c>
       <c r="M34" t="n">
-        <v>-3.981401205062866</v>
+        <v>-4.085649490356445</v>
       </c>
       <c r="N34" t="n">
-        <v>11.310622215271</v>
+        <v>12.20768451690674</v>
       </c>
     </row>
     <row r="35">
@@ -2089,11 +2089,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1706508000</v>
+        <v>1710482400</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2102,34 +2102,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>71.20000457763672</v>
+        <v>73</v>
       </c>
       <c r="F35" t="n">
-        <v>26.848388671875</v>
+        <v>27.32980346679688</v>
       </c>
       <c r="G35" t="n">
-        <v>26.17935180664062</v>
+        <v>26.85214233398438</v>
       </c>
       <c r="H35" t="n">
-        <v>-55.93086242675781</v>
+        <v>-77.40176391601562</v>
       </c>
       <c r="I35" t="n">
-        <v>47.09924697875977</v>
+        <v>51.51816177368164</v>
       </c>
       <c r="J35" t="n">
-        <v>96857.6875</v>
+        <v>96684.4296875</v>
       </c>
       <c r="K35" t="n">
-        <v>99.40000152587891</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>4.897226333618164</v>
+        <v>4.532646179199219</v>
       </c>
       <c r="M35" t="n">
-        <v>-5.032590389251709</v>
+        <v>-4.373898983001709</v>
       </c>
       <c r="N35" t="n">
-        <v>12.51688957214355</v>
+        <v>10.71235179901123</v>
       </c>
     </row>
     <row r="36">
@@ -2137,11 +2137,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1706518800</v>
+        <v>1710493200</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>84.90000152587891</v>
+        <v>79.5</v>
       </c>
       <c r="F36" t="n">
-        <v>24.85467529296875</v>
+        <v>26.10369873046875</v>
       </c>
       <c r="G36" t="n">
-        <v>23.86013793945312</v>
+        <v>25.11529541015625</v>
       </c>
       <c r="H36" t="n">
-        <v>-56.67227172851562</v>
+        <v>-66.34980773925781</v>
       </c>
       <c r="I36" t="n">
-        <v>48.29662322998047</v>
+        <v>52.88515472412109</v>
       </c>
       <c r="J36" t="n">
-        <v>96848.15625</v>
+        <v>96575.6875</v>
       </c>
       <c r="K36" t="n">
-        <v>98.5</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="L36" t="n">
-        <v>4.817448616027832</v>
+        <v>3.815441846847534</v>
       </c>
       <c r="M36" t="n">
-        <v>-4.509099006652832</v>
+        <v>-4.949609279632568</v>
       </c>
       <c r="N36" t="n">
-        <v>10.61288738250732</v>
+        <v>9.700342178344727</v>
       </c>
     </row>
     <row r="37">
@@ -2185,11 +2185,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1706529600</v>
+        <v>1710504000</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2198,34 +2198,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>86.20000457763672</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2398681640625</v>
+        <v>24.78375244140625</v>
       </c>
       <c r="G37" t="n">
-        <v>24.24948120117188</v>
+        <v>23.94491577148438</v>
       </c>
       <c r="H37" t="n">
-        <v>-55.03164672851562</v>
+        <v>-65.88996887207031</v>
       </c>
       <c r="I37" t="n">
-        <v>47.62886810302734</v>
+        <v>54.12021636962891</v>
       </c>
       <c r="J37" t="n">
-        <v>96928.7265625</v>
+        <v>96717.28125</v>
       </c>
       <c r="K37" t="n">
-        <v>99.59999847412109</v>
+        <v>96.59999847412109</v>
       </c>
       <c r="L37" t="n">
-        <v>3.253178596496582</v>
+        <v>3.367026329040527</v>
       </c>
       <c r="M37" t="n">
-        <v>-4.51409912109375</v>
+        <v>-3.835297822952271</v>
       </c>
       <c r="N37" t="n">
-        <v>10.31121349334717</v>
+        <v>8.729549407958984</v>
       </c>
     </row>
     <row r="38">
@@ -2233,11 +2233,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1706540400</v>
+        <v>1710514800</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2246,34 +2246,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>61.90000152587891</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="F38" t="n">
-        <v>27.38473510742188</v>
+        <v>29.89999389648438</v>
       </c>
       <c r="G38" t="n">
-        <v>25.97579956054688</v>
+        <v>27.53875732421875</v>
       </c>
       <c r="H38" t="n">
-        <v>-54.52957153320312</v>
+        <v>-70.68202209472656</v>
       </c>
       <c r="I38" t="n">
-        <v>46.48894119262695</v>
+        <v>53.37932205200195</v>
       </c>
       <c r="J38" t="n">
-        <v>97097.2421875</v>
+        <v>96814.8671875</v>
       </c>
       <c r="K38" t="n">
-        <v>100</v>
+        <v>82.59999847412109</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44677734375</v>
+        <v>1.630610346794128</v>
       </c>
       <c r="M38" t="n">
-        <v>-6.871564865112305</v>
+        <v>-6.250297546386719</v>
       </c>
       <c r="N38" t="n">
-        <v>8.10025691986084</v>
+        <v>7.510458469390869</v>
       </c>
     </row>
     <row r="39">
@@ -2281,11 +2281,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1706551200</v>
+        <v>1710525600</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.40000152587891</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="F39" t="n">
-        <v>31.43560791015625</v>
+        <v>33.422119140625</v>
       </c>
       <c r="G39" t="n">
-        <v>29.37701416015625</v>
+        <v>31.189208984375</v>
       </c>
       <c r="H39" t="n">
-        <v>-54.66500854492188</v>
+        <v>-59.77420043945312</v>
       </c>
       <c r="I39" t="n">
-        <v>37.06040191650391</v>
+        <v>52.24226379394531</v>
       </c>
       <c r="J39" t="n">
-        <v>96991.0390625</v>
+        <v>96563.1796875</v>
       </c>
       <c r="K39" t="n">
         <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6136303544044495</v>
+        <v>1.056928634643555</v>
       </c>
       <c r="M39" t="n">
-        <v>-5.730776309967041</v>
+        <v>-6.065544128417969</v>
       </c>
       <c r="N39" t="n">
-        <v>7.009321689605713</v>
+        <v>7.126416683197021</v>
       </c>
     </row>
     <row r="40">
@@ -2329,11 +2329,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1706562000</v>
+        <v>1710536400</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2342,34 +2342,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>34.40000152587891</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="F40" t="n">
-        <v>32.597412109375</v>
+        <v>34.33877563476562</v>
       </c>
       <c r="G40" t="n">
-        <v>30.90573120117188</v>
+        <v>33.04354858398438</v>
       </c>
       <c r="H40" t="n">
-        <v>-57.63375854492188</v>
+        <v>-58.45973205566406</v>
       </c>
       <c r="I40" t="n">
-        <v>29.66093444824219</v>
+        <v>49.65962982177734</v>
       </c>
       <c r="J40" t="n">
-        <v>96701.6875</v>
+        <v>96288.8046875</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L40" t="n">
-        <v>2.012876033782959</v>
+        <v>0.4633032083511353</v>
       </c>
       <c r="M40" t="n">
-        <v>-4.926462173461914</v>
+        <v>-2.643635272979736</v>
       </c>
       <c r="N40" t="n">
-        <v>5.907598972320557</v>
+        <v>5.34612512588501</v>
       </c>
     </row>
     <row r="41">
@@ -2377,11 +2377,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1706572800</v>
+        <v>1710547200</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2393,31 +2393,31 @@
         <v>47.60000228881836</v>
       </c>
       <c r="F41" t="n">
-        <v>30.02249145507812</v>
+        <v>32.10781860351562</v>
       </c>
       <c r="G41" t="n">
-        <v>30.0084228515625</v>
+        <v>32.12115478515625</v>
       </c>
       <c r="H41" t="n">
-        <v>-51.85197448730469</v>
+        <v>-61.93630981445312</v>
       </c>
       <c r="I41" t="n">
-        <v>28.88620948791504</v>
+        <v>50.32567596435547</v>
       </c>
       <c r="J41" t="n">
-        <v>96648.5859375</v>
+        <v>96346.6484375</v>
       </c>
       <c r="K41" t="n">
-        <v>100</v>
+        <v>99.09999847412109</v>
       </c>
       <c r="L41" t="n">
-        <v>3.515519857406616</v>
+        <v>3.286054611206055</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5494238138198853</v>
+        <v>-2.518186092376709</v>
       </c>
       <c r="N41" t="n">
-        <v>4.800703525543213</v>
+        <v>6.70192813873291</v>
       </c>
     </row>
     <row r="42">
@@ -2425,11 +2425,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1706583600</v>
+        <v>1710558000</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2438,34 +2438,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60.5</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F42" t="n">
-        <v>27.15451049804688</v>
+        <v>29.40975952148438</v>
       </c>
       <c r="G42" t="n">
-        <v>27.6644287109375</v>
+        <v>29.22940063476562</v>
       </c>
       <c r="H42" t="n">
-        <v>-54.5552978515625</v>
+        <v>-63.52542114257812</v>
       </c>
       <c r="I42" t="n">
-        <v>28.23498916625977</v>
+        <v>53.54818725585938</v>
       </c>
       <c r="J42" t="n">
-        <v>96828.9140625</v>
+        <v>96596.8671875</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>88.20000457763672</v>
       </c>
       <c r="L42" t="n">
-        <v>3.129721641540527</v>
+        <v>2.826869964599609</v>
       </c>
       <c r="M42" t="n">
-        <v>1.247675776481628</v>
+        <v>-3.603676795959473</v>
       </c>
       <c r="N42" t="n">
-        <v>4.704220771789551</v>
+        <v>9.113376617431641</v>
       </c>
     </row>
     <row r="43">
@@ -2473,11 +2473,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1706594400</v>
+        <v>1710568800</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2486,34 +2486,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.70000076293945</v>
+        <v>71.59999847412109</v>
       </c>
       <c r="F43" t="n">
-        <v>25.93093872070312</v>
+        <v>27.41964721679688</v>
       </c>
       <c r="G43" t="n">
-        <v>25.85366821289062</v>
+        <v>27.16433715820312</v>
       </c>
       <c r="H43" t="n">
-        <v>-51.14961242675781</v>
+        <v>-60.15733337402344</v>
       </c>
       <c r="I43" t="n">
-        <v>28.73053932189941</v>
+        <v>50.20793151855469</v>
       </c>
       <c r="J43" t="n">
-        <v>96856.9609375</v>
+        <v>96627.0078125</v>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>38.60000228881836</v>
       </c>
       <c r="L43" t="n">
-        <v>2.430397987365723</v>
+        <v>4.957639217376709</v>
       </c>
       <c r="M43" t="n">
-        <v>-4.717460632324219</v>
+        <v>-5.932226657867432</v>
       </c>
       <c r="N43" t="n">
-        <v>10.50019550323486</v>
+        <v>13.30081176757812</v>
       </c>
     </row>
     <row r="44">
@@ -2521,11 +2521,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1706605200</v>
+        <v>1710579600</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2534,34 +2534,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>68.59999847412109</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="F44" t="n">
-        <v>23.5545654296875</v>
+        <v>25.1658935546875</v>
       </c>
       <c r="G44" t="n">
-        <v>23.32424926757812</v>
+        <v>24.79733276367188</v>
       </c>
       <c r="H44" t="n">
-        <v>-56.53790283203125</v>
+        <v>-61.53849792480469</v>
       </c>
       <c r="I44" t="n">
-        <v>28.87742042541504</v>
+        <v>43.43757247924805</v>
       </c>
       <c r="J44" t="n">
-        <v>96818.9609375</v>
+        <v>96480.2578125</v>
       </c>
       <c r="K44" t="n">
-        <v>96.5</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="L44" t="n">
-        <v>3.118129730224609</v>
+        <v>3.581572294235229</v>
       </c>
       <c r="M44" t="n">
-        <v>-3.438569307327271</v>
+        <v>-5.069255352020264</v>
       </c>
       <c r="N44" t="n">
-        <v>9.30097484588623</v>
+        <v>11.00325870513916</v>
       </c>
     </row>
     <row r="45">
@@ -2569,11 +2569,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1706616000</v>
+        <v>1710590400</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2582,34 +2582,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>76.70000457763672</v>
+        <v>81.09999847412109</v>
       </c>
       <c r="F45" t="n">
-        <v>22.3779296875</v>
+        <v>23.96920776367188</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9112548828125</v>
+        <v>23.37979125976562</v>
       </c>
       <c r="H45" t="n">
-        <v>-51.73440551757812</v>
+        <v>-54.06298828125</v>
       </c>
       <c r="I45" t="n">
-        <v>31.39193725585938</v>
+        <v>41.18500518798828</v>
       </c>
       <c r="J45" t="n">
-        <v>96924.5390625</v>
+        <v>96666.6796875</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="L45" t="n">
-        <v>3.30859112739563</v>
+        <v>3.433784008026123</v>
       </c>
       <c r="M45" t="n">
-        <v>-3.039631366729736</v>
+        <v>-4.097404479980469</v>
       </c>
       <c r="N45" t="n">
-        <v>8.506494522094727</v>
+        <v>9.626611709594727</v>
       </c>
     </row>
     <row r="46">
@@ -2617,11 +2617,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1706626800</v>
+        <v>1710601200</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2630,34 +2630,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>58</v>
+        <v>56.5</v>
       </c>
       <c r="F46" t="n">
-        <v>28.1142578125</v>
+        <v>29.30001831054688</v>
       </c>
       <c r="G46" t="n">
-        <v>25.83053588867188</v>
+        <v>26.82675170898438</v>
       </c>
       <c r="H46" t="n">
-        <v>-50.79498291015625</v>
+        <v>-60.67959594726562</v>
       </c>
       <c r="I46" t="n">
-        <v>31.07246208190918</v>
+        <v>38.81870651245117</v>
       </c>
       <c r="J46" t="n">
-        <v>97022.4296875</v>
+        <v>96833.703125</v>
       </c>
       <c r="K46" t="n">
-        <v>8.100000381469727</v>
+        <v>99.30000305175781</v>
       </c>
       <c r="L46" t="n">
-        <v>1.874248027801514</v>
+        <v>1.782126426696777</v>
       </c>
       <c r="M46" t="n">
-        <v>-6.561669826507568</v>
+        <v>-6.40624475479126</v>
       </c>
       <c r="N46" t="n">
-        <v>7.418361663818359</v>
+        <v>7.42351245880127</v>
       </c>
     </row>
     <row r="47">
@@ -2665,11 +2665,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1706637600</v>
+        <v>1710612000</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2678,34 +2678,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.5</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="F47" t="n">
-        <v>33.11334228515625</v>
+        <v>34.89999389648438</v>
       </c>
       <c r="G47" t="n">
-        <v>30.63699340820312</v>
+        <v>31.78033447265625</v>
       </c>
       <c r="H47" t="n">
-        <v>-56.82164001464844</v>
+        <v>-56.05531311035156</v>
       </c>
       <c r="I47" t="n">
-        <v>30.90063095092773</v>
+        <v>34.80615997314453</v>
       </c>
       <c r="J47" t="n">
-        <v>96819.5546875</v>
+        <v>96569.234375</v>
       </c>
       <c r="K47" t="n">
-        <v>30.80000114440918</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.1518579125404358</v>
+        <v>-0.1626635640859604</v>
       </c>
       <c r="M47" t="n">
-        <v>-3.620676279067993</v>
+        <v>-6.276745319366455</v>
       </c>
       <c r="N47" t="n">
-        <v>4.001778602600098</v>
+        <v>7.209570407867432</v>
       </c>
     </row>
     <row r="48">
@@ -2713,11 +2713,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1706648400</v>
+        <v>1710622800</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2726,34 +2726,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.80000114440918</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="F48" t="n">
-        <v>35.23495483398438</v>
+        <v>36.88973999023438</v>
       </c>
       <c r="G48" t="n">
-        <v>33.45318603515625</v>
+        <v>34.44754028320312</v>
       </c>
       <c r="H48" t="n">
-        <v>-57.63043212890625</v>
+        <v>-51.1201171875</v>
       </c>
       <c r="I48" t="n">
-        <v>33.25434112548828</v>
+        <v>35.78365707397461</v>
       </c>
       <c r="J48" t="n">
-        <v>96510.96875</v>
+        <v>96258.8515625</v>
       </c>
       <c r="K48" t="n">
-        <v>88.5</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05321288853883743</v>
+        <v>0.3644067347049713</v>
       </c>
       <c r="M48" t="n">
-        <v>-1.810527324676514</v>
+        <v>-5.538713455200195</v>
       </c>
       <c r="N48" t="n">
-        <v>4.113391399383545</v>
+        <v>6.80557107925415</v>
       </c>
     </row>
     <row r="49">
@@ -2761,11 +2761,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1706659200</v>
+        <v>1710633600</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>16/03/2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2774,34 +2774,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.5</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="F49" t="n">
-        <v>33.98162841796875</v>
+        <v>33.36923217773438</v>
       </c>
       <c r="G49" t="n">
-        <v>34.06655883789062</v>
+        <v>34.52127075195312</v>
       </c>
       <c r="H49" t="n">
-        <v>-57.89445495605469</v>
+        <v>-47.12516784667969</v>
       </c>
       <c r="I49" t="n">
-        <v>33.38709259033203</v>
+        <v>36.95462799072266</v>
       </c>
       <c r="J49" t="n">
-        <v>96417.640625</v>
+        <v>96314.8359375</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="L49" t="n">
-        <v>3.358561992645264</v>
+        <v>1.248391032218933</v>
       </c>
       <c r="M49" t="n">
-        <v>-1.382890582084656</v>
+        <v>-4.143115043640137</v>
       </c>
       <c r="N49" t="n">
-        <v>4.409355640411377</v>
+        <v>5.907470703125</v>
       </c>
     </row>
     <row r="50">
@@ -2809,11 +2809,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1706670000</v>
+        <v>1710644400</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2822,34 +2822,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>42.5</v>
+        <v>39</v>
       </c>
       <c r="F50" t="n">
-        <v>29.64328002929688</v>
+        <v>30.92501831054688</v>
       </c>
       <c r="G50" t="n">
-        <v>29.77984619140625</v>
+        <v>31.60821533203125</v>
       </c>
       <c r="H50" t="n">
-        <v>-50.85009765625</v>
+        <v>-54.07365417480469</v>
       </c>
       <c r="I50" t="n">
-        <v>33.45090103149414</v>
+        <v>37.64814758300781</v>
       </c>
       <c r="J50" t="n">
-        <v>96620.5546875</v>
+        <v>96521.578125</v>
       </c>
       <c r="K50" t="n">
-        <v>3.799999952316284</v>
+        <v>85.59999847412109</v>
       </c>
       <c r="L50" t="n">
-        <v>5.093713283538818</v>
+        <v>2.043149471282959</v>
       </c>
       <c r="M50" t="n">
-        <v>-5.086008071899414</v>
+        <v>-2.814003944396973</v>
       </c>
       <c r="N50" t="n">
-        <v>13.60140705108643</v>
+        <v>5.102269649505615</v>
       </c>
     </row>
     <row r="51">
@@ -2857,11 +2857,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1706680800</v>
+        <v>1710655200</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2870,34 +2870,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44.70000076293945</v>
+        <v>61.10000228881836</v>
       </c>
       <c r="F51" t="n">
-        <v>28.27008056640625</v>
+        <v>28.26339721679688</v>
       </c>
       <c r="G51" t="n">
-        <v>27.85568237304688</v>
+        <v>27.98123168945312</v>
       </c>
       <c r="H51" t="n">
-        <v>-49.96719360351562</v>
+        <v>-53.08731079101562</v>
       </c>
       <c r="I51" t="n">
-        <v>34.5238037109375</v>
+        <v>43.26764297485352</v>
       </c>
       <c r="J51" t="n">
-        <v>96840.734375</v>
+        <v>96598.5</v>
       </c>
       <c r="K51" t="n">
-        <v>77.90000152587891</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6509032845497131</v>
+        <v>2.88396954536438</v>
       </c>
       <c r="M51" t="n">
-        <v>-5.516889572143555</v>
+        <v>-5.209994792938232</v>
       </c>
       <c r="N51" t="n">
-        <v>9.300950050354004</v>
+        <v>10.71476650238037</v>
       </c>
     </row>
     <row r="52">
@@ -2905,11 +2905,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1706691600</v>
+        <v>1710666000</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2918,34 +2918,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>61.40000152587891</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="F52" t="n">
-        <v>25.65414428710938</v>
+        <v>25.50213623046875</v>
       </c>
       <c r="G52" t="n">
-        <v>25.24044799804688</v>
+        <v>25.05859375</v>
       </c>
       <c r="H52" t="n">
-        <v>-49.47871398925781</v>
+        <v>-52.28987121582031</v>
       </c>
       <c r="I52" t="n">
-        <v>35.66243362426758</v>
+        <v>47.50649642944336</v>
       </c>
       <c r="J52" t="n">
-        <v>96707.125</v>
+        <v>96550.6015625</v>
       </c>
       <c r="K52" t="n">
-        <v>26.10000038146973</v>
+        <v>51</v>
       </c>
       <c r="L52" t="n">
-        <v>3.646213293075562</v>
+        <v>2.173010110855103</v>
       </c>
       <c r="M52" t="n">
-        <v>-3.792282581329346</v>
+        <v>-4.004242897033691</v>
       </c>
       <c r="N52" t="n">
-        <v>7.906703472137451</v>
+        <v>8.051074981689453</v>
       </c>
     </row>
     <row r="53">
@@ -2953,11 +2953,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1706702400</v>
+        <v>1710676800</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2966,34 +2966,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>65.5</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="F53" t="n">
-        <v>24.30459594726562</v>
+        <v>25</v>
       </c>
       <c r="G53" t="n">
-        <v>23.93148803710938</v>
+        <v>25.46392822265625</v>
       </c>
       <c r="H53" t="n">
-        <v>-44.49948120117188</v>
+        <v>-76.740966796875</v>
       </c>
       <c r="I53" t="n">
-        <v>34.20888137817383</v>
+        <v>49.69467544555664</v>
       </c>
       <c r="J53" t="n">
-        <v>96790.3671875</v>
+        <v>96731.421875</v>
       </c>
       <c r="K53" t="n">
-        <v>15.40000057220459</v>
+        <v>11</v>
       </c>
       <c r="L53" t="n">
-        <v>2.134562969207764</v>
+        <v>1.303676724433899</v>
       </c>
       <c r="M53" t="n">
-        <v>-3.265619993209839</v>
+        <v>-3.863315343856812</v>
       </c>
       <c r="N53" t="n">
-        <v>7.300187587738037</v>
+        <v>7.105587959289551</v>
       </c>
     </row>
     <row r="54">
@@ -3001,11 +3001,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1706713200</v>
+        <v>1710687600</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3014,34 +3014,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>48.70000076293945</v>
+        <v>66.20000457763672</v>
       </c>
       <c r="F54" t="n">
-        <v>29.87771606445312</v>
+        <v>28.89999389648438</v>
       </c>
       <c r="G54" t="n">
-        <v>27.52947998046875</v>
+        <v>26.87936401367188</v>
       </c>
       <c r="H54" t="n">
-        <v>-57.79202270507812</v>
+        <v>-77.94723510742188</v>
       </c>
       <c r="I54" t="n">
-        <v>36.55147552490234</v>
+        <v>49.68741989135742</v>
       </c>
       <c r="J54" t="n">
-        <v>96941.8203125</v>
+        <v>96913.9140625</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3724291920661926</v>
+        <v>0.3059814274311066</v>
       </c>
       <c r="M54" t="n">
-        <v>-6.341340065002441</v>
+        <v>-6.024526119232178</v>
       </c>
       <c r="N54" t="n">
-        <v>6.716590881347656</v>
+        <v>6.427923679351807</v>
       </c>
     </row>
     <row r="55">
@@ -3049,11 +3049,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1706724000</v>
+        <v>1710698400</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3062,34 +3062,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.10000228881836</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="F55" t="n">
-        <v>33.77462768554688</v>
+        <v>33.61480712890625</v>
       </c>
       <c r="G55" t="n">
-        <v>31.00021362304688</v>
+        <v>31.04122924804688</v>
       </c>
       <c r="H55" t="n">
-        <v>-60.97383117675781</v>
+        <v>-73.00955200195312</v>
       </c>
       <c r="I55" t="n">
-        <v>37.25864028930664</v>
+        <v>41.82476043701172</v>
       </c>
       <c r="J55" t="n">
-        <v>96740.3359375</v>
+        <v>96702.3046875</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9000000357627869</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9132031202316284</v>
+        <v>1.100302696228027</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.968222618103027</v>
+        <v>-4.346684455871582</v>
       </c>
       <c r="N55" t="n">
-        <v>5.230647563934326</v>
+        <v>5.230254650115967</v>
       </c>
     </row>
     <row r="56">
@@ -3097,11 +3097,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1706734800</v>
+        <v>1710709200</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3110,34 +3110,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.29999923706055</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="F56" t="n">
-        <v>35.40997314453125</v>
+        <v>36.60186767578125</v>
       </c>
       <c r="G56" t="n">
-        <v>33.5318603515625</v>
+        <v>34.30615234375</v>
       </c>
       <c r="H56" t="n">
-        <v>-67.082763671875</v>
+        <v>-73.483154296875</v>
       </c>
       <c r="I56" t="n">
-        <v>38.5999870300293</v>
+        <v>38.9439582824707</v>
       </c>
       <c r="J56" t="n">
-        <v>96403.5859375</v>
+        <v>96368.2734375</v>
       </c>
       <c r="K56" t="n">
-        <v>95.59999847412109</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.1642968654632568</v>
+        <v>0.9648730158805847</v>
       </c>
       <c r="M56" t="n">
-        <v>-3.502045869827271</v>
+        <v>-4.777353286743164</v>
       </c>
       <c r="N56" t="n">
-        <v>4.702960014343262</v>
+        <v>5.810090065002441</v>
       </c>
     </row>
     <row r="57">
@@ -3145,11 +3145,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1706745600</v>
+        <v>1710720000</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3158,34 +3158,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.10000228881836</v>
+        <v>34</v>
       </c>
       <c r="F57" t="n">
-        <v>32.80502319335938</v>
+        <v>33.3450927734375</v>
       </c>
       <c r="G57" t="n">
-        <v>32.5791015625</v>
+        <v>34.19857788085938</v>
       </c>
       <c r="H57" t="n">
-        <v>-70.73786926269531</v>
+        <v>-67.47789001464844</v>
       </c>
       <c r="I57" t="n">
-        <v>40.22499847412109</v>
+        <v>38.46814727783203</v>
       </c>
       <c r="J57" t="n">
-        <v>96380.1484375</v>
+        <v>96428.8671875</v>
       </c>
       <c r="K57" t="n">
-        <v>99.40000152587891</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.231371998786926</v>
+        <v>-0.1779296845197678</v>
       </c>
       <c r="M57" t="n">
-        <v>-2.341860294342041</v>
+        <v>-4.034472465515137</v>
       </c>
       <c r="N57" t="n">
-        <v>5.624836444854736</v>
+        <v>5.503304481506348</v>
       </c>
     </row>
     <row r="58">
@@ -3193,11 +3193,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1706756400</v>
+        <v>1710730800</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3206,34 +3206,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50.10000228881836</v>
+        <v>49.60000228881836</v>
       </c>
       <c r="F58" t="n">
-        <v>29.08108520507812</v>
+        <v>31.39019775390625</v>
       </c>
       <c r="G58" t="n">
-        <v>29.96356201171875</v>
+        <v>30.80874633789062</v>
       </c>
       <c r="H58" t="n">
-        <v>-69.30316162109375</v>
+        <v>-72.07432556152344</v>
       </c>
       <c r="I58" t="n">
-        <v>40.02198028564453</v>
+        <v>39.23417663574219</v>
       </c>
       <c r="J58" t="n">
-        <v>96621.5234375</v>
+        <v>96636.015625</v>
       </c>
       <c r="K58" t="n">
-        <v>18.5</v>
+        <v>85.90000152587891</v>
       </c>
       <c r="L58" t="n">
-        <v>2.581984758377075</v>
+        <v>5.139330863952637</v>
       </c>
       <c r="M58" t="n">
-        <v>-4.002016544342041</v>
+        <v>-4.377539157867432</v>
       </c>
       <c r="N58" t="n">
-        <v>8.910305023193359</v>
+        <v>11.01560688018799</v>
       </c>
     </row>
     <row r="59">
@@ -3241,11 +3241,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1706767200</v>
+        <v>1710741600</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3254,34 +3254,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>57.70000076293945</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="F59" t="n">
-        <v>27.9666748046875</v>
+        <v>28.2012939453125</v>
       </c>
       <c r="G59" t="n">
-        <v>27.68197631835938</v>
+        <v>27.83648681640625</v>
       </c>
       <c r="H59" t="n">
-        <v>-69.91156005859375</v>
+        <v>-51.11711120605469</v>
       </c>
       <c r="I59" t="n">
-        <v>41.46062088012695</v>
+        <v>42.18099975585938</v>
       </c>
       <c r="J59" t="n">
-        <v>96645.5546875</v>
+        <v>96744.9921875</v>
       </c>
       <c r="K59" t="n">
-        <v>24.20000076293945</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2291162014007568</v>
+        <v>2.025156259536743</v>
       </c>
       <c r="M59" t="n">
-        <v>-4.525319576263428</v>
+        <v>-5.322182655334473</v>
       </c>
       <c r="N59" t="n">
-        <v>8.807906150817871</v>
+        <v>9.699999809265137</v>
       </c>
     </row>
     <row r="60">
@@ -3289,11 +3289,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1706778000</v>
+        <v>1710752400</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3302,34 +3302,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>67.80000305175781</v>
+        <v>69.40000152587891</v>
       </c>
       <c r="F60" t="n">
-        <v>25.47494506835938</v>
+        <v>26.32925415039062</v>
       </c>
       <c r="G60" t="n">
-        <v>25.09054565429688</v>
+        <v>25.78903198242188</v>
       </c>
       <c r="H60" t="n">
-        <v>-68.58308410644531</v>
+        <v>-51.67451477050781</v>
       </c>
       <c r="I60" t="n">
-        <v>42.33813095092773</v>
+        <v>45.69248199462891</v>
       </c>
       <c r="J60" t="n">
-        <v>96600.4296875</v>
+        <v>96645.09375</v>
       </c>
       <c r="K60" t="n">
-        <v>63.40000152587891</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9921289086341858</v>
+        <v>1.942714810371399</v>
       </c>
       <c r="M60" t="n">
-        <v>-3.382187366485596</v>
+        <v>-3.451508760452271</v>
       </c>
       <c r="N60" t="n">
-        <v>6.805237770080566</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="61">
@@ -3337,11 +3337,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1706788800</v>
+        <v>1710763200</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3350,34 +3350,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>71.70000457763672</v>
+        <v>79</v>
       </c>
       <c r="F61" t="n">
-        <v>24.70123291015625</v>
+        <v>25.04074096679688</v>
       </c>
       <c r="G61" t="n">
-        <v>24.0899658203125</v>
+        <v>24.52557373046875</v>
       </c>
       <c r="H61" t="n">
-        <v>-68.20162963867188</v>
+        <v>-43.16566467285156</v>
       </c>
       <c r="I61" t="n">
-        <v>41.97438049316406</v>
+        <v>46.00802612304688</v>
       </c>
       <c r="J61" t="n">
-        <v>96721.6015625</v>
+        <v>96776.8046875</v>
       </c>
       <c r="K61" t="n">
-        <v>6.900000095367432</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L61" t="n">
-        <v>2.247761249542236</v>
+        <v>2.371733427047729</v>
       </c>
       <c r="M61" t="n">
-        <v>-3.308283567428589</v>
+        <v>-2.188076019287109</v>
       </c>
       <c r="N61" t="n">
-        <v>6.708258152008057</v>
+        <v>5.826666355133057</v>
       </c>
     </row>
     <row r="62">
@@ -3385,11 +3385,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1706799600</v>
+        <v>1710774000</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3398,34 +3398,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>54.40000152587891</v>
+        <v>60.5</v>
       </c>
       <c r="F62" t="n">
-        <v>29.58758544921875</v>
+        <v>29.60641479492188</v>
       </c>
       <c r="G62" t="n">
-        <v>27.106689453125</v>
+        <v>27.262451171875</v>
       </c>
       <c r="H62" t="n">
-        <v>-67.115234375</v>
+        <v>-44.08377075195312</v>
       </c>
       <c r="I62" t="n">
-        <v>39.67396545410156</v>
+        <v>45.95962905883789</v>
       </c>
       <c r="J62" t="n">
-        <v>96858.3359375</v>
+        <v>96894.1484375</v>
       </c>
       <c r="K62" t="n">
-        <v>4.800000190734863</v>
+        <v>22</v>
       </c>
       <c r="L62" t="n">
-        <v>2.024377346038818</v>
+        <v>1.999526381492615</v>
       </c>
       <c r="M62" t="n">
-        <v>-5.304718971252441</v>
+        <v>-4.263545036315918</v>
       </c>
       <c r="N62" t="n">
-        <v>6.322667598724365</v>
+        <v>5.202729225158691</v>
       </c>
     </row>
     <row r="63">
@@ -3433,11 +3433,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1706810400</v>
+        <v>1710784800</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3446,34 +3446,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.70000076293945</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="F63" t="n">
-        <v>34.47793579101562</v>
+        <v>34.45675659179688</v>
       </c>
       <c r="G63" t="n">
-        <v>31.49017333984375</v>
+        <v>31.8612060546875</v>
       </c>
       <c r="H63" t="n">
-        <v>-66.59187316894531</v>
+        <v>-30.37391662597656</v>
       </c>
       <c r="I63" t="n">
-        <v>39.81921005249023</v>
+        <v>45.09946823120117</v>
       </c>
       <c r="J63" t="n">
-        <v>96643.5234375</v>
+        <v>96627.6875</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1000000014901161</v>
+        <v>35.60000228881836</v>
       </c>
       <c r="L63" t="n">
-        <v>1.187888145446777</v>
+        <v>1.119174838066101</v>
       </c>
       <c r="M63" t="n">
-        <v>-5.826696872711182</v>
+        <v>-3.582026243209839</v>
       </c>
       <c r="N63" t="n">
-        <v>6.701745510101318</v>
+        <v>4.70917272567749</v>
       </c>
     </row>
     <row r="64">
@@ -3481,11 +3481,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1706821200</v>
+        <v>1710795600</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3494,34 +3494,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.39999961853027</v>
+        <v>44</v>
       </c>
       <c r="F64" t="n">
-        <v>36.67828369140625</v>
+        <v>33.52694702148438</v>
       </c>
       <c r="G64" t="n">
-        <v>34.24114990234375</v>
+        <v>31.97640991210938</v>
       </c>
       <c r="H64" t="n">
-        <v>-65.98542785644531</v>
+        <v>-28.34649658203125</v>
       </c>
       <c r="I64" t="n">
-        <v>38.02981948852539</v>
+        <v>46.15605545043945</v>
       </c>
       <c r="J64" t="n">
-        <v>96323.421875</v>
+        <v>96338.6171875</v>
       </c>
       <c r="K64" t="n">
-        <v>44</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="L64" t="n">
-        <v>1.926545381546021</v>
+        <v>5.978730201721191</v>
       </c>
       <c r="M64" t="n">
-        <v>-5.882487773895264</v>
+        <v>-5.728158950805664</v>
       </c>
       <c r="N64" t="n">
-        <v>6.215958118438721</v>
+        <v>7.407999515533447</v>
       </c>
     </row>
     <row r="65">
@@ -3529,11 +3529,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1706832000</v>
+        <v>1710806400</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3542,34 +3542,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.70000076293945</v>
+        <v>44.90000152587891</v>
       </c>
       <c r="F65" t="n">
-        <v>34.51882934570312</v>
+        <v>32.19818115234375</v>
       </c>
       <c r="G65" t="n">
-        <v>34.68527221679688</v>
+        <v>32.06378173828125</v>
       </c>
       <c r="H65" t="n">
-        <v>-67.75482177734375</v>
+        <v>-27.64561462402344</v>
       </c>
       <c r="I65" t="n">
-        <v>36.39802551269531</v>
+        <v>45.96194076538086</v>
       </c>
       <c r="J65" t="n">
-        <v>96342.953125</v>
+        <v>96366.765625</v>
       </c>
       <c r="K65" t="n">
-        <v>98.59999847412109</v>
+        <v>90.40000152587891</v>
       </c>
       <c r="L65" t="n">
-        <v>2.171887159347534</v>
+        <v>3.972389936447144</v>
       </c>
       <c r="M65" t="n">
-        <v>-3.143996477127075</v>
+        <v>-3.120810508728027</v>
       </c>
       <c r="N65" t="n">
-        <v>5.601155281066895</v>
+        <v>8.314757347106934</v>
       </c>
     </row>
     <row r="66">
@@ -3577,11 +3577,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1706842800</v>
+        <v>1710817200</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3590,34 +3590,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.90000152587891</v>
+        <v>55.10000228881836</v>
       </c>
       <c r="F66" t="n">
-        <v>31.869384765625</v>
+        <v>29.59820556640625</v>
       </c>
       <c r="G66" t="n">
-        <v>31.47677612304688</v>
+        <v>29.19186401367188</v>
       </c>
       <c r="H66" t="n">
-        <v>-67.22566223144531</v>
+        <v>-18.45143127441406</v>
       </c>
       <c r="I66" t="n">
-        <v>37.63150405883789</v>
+        <v>48.36602401733398</v>
       </c>
       <c r="J66" t="n">
-        <v>96587.5234375</v>
+        <v>96595.328125</v>
       </c>
       <c r="K66" t="n">
-        <v>95.90000152587891</v>
+        <v>92</v>
       </c>
       <c r="L66" t="n">
-        <v>5.121142387390137</v>
+        <v>2.699536085128784</v>
       </c>
       <c r="M66" t="n">
-        <v>-5.208539962768555</v>
+        <v>-5.163808345794678</v>
       </c>
       <c r="N66" t="n">
-        <v>12.60210037231445</v>
+        <v>10.91772365570068</v>
       </c>
     </row>
     <row r="67">
@@ -3625,11 +3625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1706853600</v>
+        <v>1710828000</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3638,34 +3638,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.29999923706055</v>
+        <v>67.30000305175781</v>
       </c>
       <c r="F67" t="n">
-        <v>28.55728149414062</v>
+        <v>28.20889282226562</v>
       </c>
       <c r="G67" t="n">
-        <v>27.52020263671875</v>
+        <v>27.60430908203125</v>
       </c>
       <c r="H67" t="n">
-        <v>-69.73759460449219</v>
+        <v>-14.05502319335938</v>
       </c>
       <c r="I67" t="n">
-        <v>39.56594848632812</v>
+        <v>49.60700988769531</v>
       </c>
       <c r="J67" t="n">
-        <v>96737.6328125</v>
+        <v>96602.1640625</v>
       </c>
       <c r="K67" t="n">
-        <v>2.900000095367432</v>
+        <v>93.40000152587891</v>
       </c>
       <c r="L67" t="n">
-        <v>2.418920755386353</v>
+        <v>2.472265481948853</v>
       </c>
       <c r="M67" t="n">
-        <v>-6.583908557891846</v>
+        <v>-5.508039474487305</v>
       </c>
       <c r="N67" t="n">
-        <v>10.1009407043457</v>
+        <v>9.913159370422363</v>
       </c>
     </row>
     <row r="68">
@@ -3673,11 +3673,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1706864400</v>
+        <v>1710838800</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3686,34 +3686,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>65.59999847412109</v>
+        <v>81.20000457763672</v>
       </c>
       <c r="F68" t="n">
-        <v>25.49896240234375</v>
+        <v>25.64205932617188</v>
       </c>
       <c r="G68" t="n">
-        <v>24.55648803710938</v>
+        <v>24.90371704101562</v>
       </c>
       <c r="H68" t="n">
-        <v>-67.87455749511719</v>
+        <v>-36.69551086425781</v>
       </c>
       <c r="I68" t="n">
-        <v>41.63946533203125</v>
+        <v>49.37857437133789</v>
       </c>
       <c r="J68" t="n">
-        <v>96613.375</v>
+        <v>96510.2890625</v>
       </c>
       <c r="K68" t="n">
-        <v>1.700000047683716</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
-        <v>3.164526224136353</v>
+        <v>1.535388112068176</v>
       </c>
       <c r="M68" t="n">
-        <v>-3.966364622116089</v>
+        <v>-5.643886566162109</v>
       </c>
       <c r="N68" t="n">
-        <v>9.304319381713867</v>
+        <v>9.300762176513672</v>
       </c>
     </row>
     <row r="69">
@@ -3721,11 +3721,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1706875200</v>
+        <v>1710849600</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3734,34 +3734,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>73.5</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="F69" t="n">
-        <v>24.23904418945312</v>
+        <v>24.98037719726562</v>
       </c>
       <c r="G69" t="n">
-        <v>23.28842163085938</v>
+        <v>24.17172241210938</v>
       </c>
       <c r="H69" t="n">
-        <v>-65.42507934570312</v>
+        <v>-55.55598449707031</v>
       </c>
       <c r="I69" t="n">
-        <v>42.47550201416016</v>
+        <v>48.75806427001953</v>
       </c>
       <c r="J69" t="n">
-        <v>96728.2734375</v>
+        <v>96647.171875</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>1.800000071525574</v>
       </c>
       <c r="L69" t="n">
-        <v>3.936586856842041</v>
+        <v>1.428647398948669</v>
       </c>
       <c r="M69" t="n">
-        <v>-3.906166791915894</v>
+        <v>-3.450141429901123</v>
       </c>
       <c r="N69" t="n">
-        <v>9.402426719665527</v>
+        <v>7.700034618377686</v>
       </c>
     </row>
     <row r="70">
@@ -3769,11 +3769,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1706886000</v>
+        <v>1710860400</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3782,34 +3782,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52.60000228881836</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="F70" t="n">
-        <v>29.20220947265625</v>
+        <v>30.23455810546875</v>
       </c>
       <c r="G70" t="n">
-        <v>26.71749877929688</v>
+        <v>27.77810668945312</v>
       </c>
       <c r="H70" t="n">
-        <v>-65.85758972167969</v>
+        <v>-54.045166015625</v>
       </c>
       <c r="I70" t="n">
-        <v>41.73857879638672</v>
+        <v>47.68034744262695</v>
       </c>
       <c r="J70" t="n">
-        <v>96883.1328125</v>
+        <v>96782.8359375</v>
       </c>
       <c r="K70" t="n">
-        <v>93</v>
+        <v>13.90000057220459</v>
       </c>
       <c r="L70" t="n">
-        <v>1.343183517456055</v>
+        <v>0.6069701910018921</v>
       </c>
       <c r="M70" t="n">
-        <v>-6.181494235992432</v>
+        <v>-5.022785663604736</v>
       </c>
       <c r="N70" t="n">
-        <v>7.007123470306396</v>
+        <v>5.900170803070068</v>
       </c>
     </row>
     <row r="71">
@@ -3817,11 +3817,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1706896800</v>
+        <v>1710871200</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3830,34 +3830,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.90000152587891</v>
+        <v>41.10000228881836</v>
       </c>
       <c r="F71" t="n">
-        <v>33.7706298828125</v>
+        <v>34.66726684570312</v>
       </c>
       <c r="G71" t="n">
-        <v>30.889404296875</v>
+        <v>31.96917724609375</v>
       </c>
       <c r="H71" t="n">
-        <v>-66.25984191894531</v>
+        <v>-54.88533020019531</v>
       </c>
       <c r="I71" t="n">
-        <v>41.52695083618164</v>
+        <v>45.48990249633789</v>
       </c>
       <c r="J71" t="n">
-        <v>96729.7890625</v>
+        <v>96535.765625</v>
       </c>
       <c r="K71" t="n">
-        <v>32.79999923706055</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="L71" t="n">
-        <v>1.105312466621399</v>
+        <v>1.012246012687683</v>
       </c>
       <c r="M71" t="n">
-        <v>-5.305307388305664</v>
+        <v>-4.446984767913818</v>
       </c>
       <c r="N71" t="n">
-        <v>6.121424674987793</v>
+        <v>4.927750587463379</v>
       </c>
     </row>
     <row r="72">
@@ -3865,11 +3865,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1706907600</v>
+        <v>1710882000</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3878,34 +3878,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>32.40000152587891</v>
+        <v>31.5</v>
       </c>
       <c r="F72" t="n">
-        <v>35.9080810546875</v>
+        <v>36.42910766601562</v>
       </c>
       <c r="G72" t="n">
-        <v>33.48489379882812</v>
+        <v>34.56243896484375</v>
       </c>
       <c r="H72" t="n">
-        <v>-68.64549255371094</v>
+        <v>-39.38302612304688</v>
       </c>
       <c r="I72" t="n">
-        <v>41.61138153076172</v>
+        <v>42.59243392944336</v>
       </c>
       <c r="J72" t="n">
-        <v>96421.53125</v>
+        <v>96194.828125</v>
       </c>
       <c r="K72" t="n">
-        <v>63.10000228881836</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>-1.228200674057007</v>
+        <v>0.1120288074016571</v>
       </c>
       <c r="M72" t="n">
-        <v>-4.821987152099609</v>
+        <v>-3.547114133834839</v>
       </c>
       <c r="N72" t="n">
-        <v>6.400000095367432</v>
+        <v>4.904928684234619</v>
       </c>
     </row>
     <row r="73">
@@ -3913,11 +3913,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1706918400</v>
+        <v>1710892800</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3926,34 +3926,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.5</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="F73" t="n">
-        <v>33.74676513671875</v>
+        <v>32.66363525390625</v>
       </c>
       <c r="G73" t="n">
-        <v>33.2822265625</v>
+        <v>32.41439819335938</v>
       </c>
       <c r="H73" t="n">
-        <v>-68.32803344726562</v>
+        <v>-26.900390625</v>
       </c>
       <c r="I73" t="n">
-        <v>40.94569778442383</v>
+        <v>45.22705841064453</v>
       </c>
       <c r="J73" t="n">
-        <v>96400.703125</v>
+        <v>96326.578125</v>
       </c>
       <c r="K73" t="n">
-        <v>75.09999847412109</v>
+        <v>89.90000152587891</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.2073779255151749</v>
+        <v>-0.7518994212150574</v>
       </c>
       <c r="M73" t="n">
-        <v>-2.532602548599243</v>
+        <v>-1.561547875404358</v>
       </c>
       <c r="N73" t="n">
-        <v>3.406597852706909</v>
+        <v>2.416834592819214</v>
       </c>
     </row>
     <row r="74">
@@ -3961,11 +3961,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1706929200</v>
+        <v>1710903600</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3974,34 +3974,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>37</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="F74" t="n">
-        <v>32.3057861328125</v>
+        <v>31.19454956054688</v>
       </c>
       <c r="G74" t="n">
-        <v>31.7989501953125</v>
+        <v>30.40618896484375</v>
       </c>
       <c r="H74" t="n">
-        <v>-69.55487060546875</v>
+        <v>-28.51651000976562</v>
       </c>
       <c r="I74" t="n">
-        <v>42.77729415893555</v>
+        <v>44.91059112548828</v>
       </c>
       <c r="J74" t="n">
-        <v>96605.1796875</v>
+        <v>96515.890625</v>
       </c>
       <c r="K74" t="n">
-        <v>65.40000152587891</v>
+        <v>73.70000457763672</v>
       </c>
       <c r="L74" t="n">
-        <v>2.558466672897339</v>
+        <v>0.5421386361122131</v>
       </c>
       <c r="M74" t="n">
-        <v>-5.694897174835205</v>
+        <v>-4.923048973083496</v>
       </c>
       <c r="N74" t="n">
-        <v>10.69999980926514</v>
+        <v>7.310269355773926</v>
       </c>
     </row>
     <row r="75">
@@ -4009,11 +4009,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1706940000</v>
+        <v>1710914400</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4022,34 +4022,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.90000152587891</v>
+        <v>63.5</v>
       </c>
       <c r="F75" t="n">
-        <v>28.86544799804688</v>
+        <v>28.06362915039062</v>
       </c>
       <c r="G75" t="n">
-        <v>28.32244873046875</v>
+        <v>27.79000854492188</v>
       </c>
       <c r="H75" t="n">
-        <v>-62.83645629882812</v>
+        <v>-67.60093688964844</v>
       </c>
       <c r="I75" t="n">
-        <v>42.36061859130859</v>
+        <v>43.82629776000977</v>
       </c>
       <c r="J75" t="n">
-        <v>96684.6796875</v>
+        <v>96533.515625</v>
       </c>
       <c r="K75" t="n">
-        <v>84.70000457763672</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="L75" t="n">
-        <v>3.775869131088257</v>
+        <v>-0.8843676447868347</v>
       </c>
       <c r="M75" t="n">
-        <v>-6.876279354095459</v>
+        <v>-1.863115191459656</v>
       </c>
       <c r="N75" t="n">
-        <v>11.30000019073486</v>
+        <v>3.809936285018921</v>
       </c>
     </row>
     <row r="76">
@@ -4057,11 +4057,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1706950800</v>
+        <v>1710925200</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4070,34 +4070,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>63.10000228881836</v>
+        <v>76</v>
       </c>
       <c r="F76" t="n">
-        <v>25.92312622070312</v>
+        <v>26.02908325195312</v>
       </c>
       <c r="G76" t="n">
-        <v>24.769287109375</v>
+        <v>25.81619262695312</v>
       </c>
       <c r="H76" t="n">
-        <v>-65.14146423339844</v>
+        <v>-68.93167114257812</v>
       </c>
       <c r="I76" t="n">
-        <v>45.44097137451172</v>
+        <v>48.35611724853516</v>
       </c>
       <c r="J76" t="n">
-        <v>96623.8046875</v>
+        <v>96489.765625</v>
       </c>
       <c r="K76" t="n">
-        <v>99.59999847412109</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="L76" t="n">
-        <v>4.157890319824219</v>
+        <v>-0.5683740377426147</v>
       </c>
       <c r="M76" t="n">
-        <v>-5.943676471710205</v>
+        <v>-2.505558967590332</v>
       </c>
       <c r="N76" t="n">
-        <v>11.00174617767334</v>
+        <v>4.508752346038818</v>
       </c>
     </row>
     <row r="77">
@@ -4105,11 +4105,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1706961600</v>
+        <v>1710936000</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4118,34 +4118,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>73.20000457763672</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="F77" t="n">
-        <v>24.29367065429688</v>
+        <v>24.39816284179688</v>
       </c>
       <c r="G77" t="n">
-        <v>23.23452758789062</v>
+        <v>23.95761108398438</v>
       </c>
       <c r="H77" t="n">
-        <v>-66.18763732910156</v>
+        <v>-53.15641784667969</v>
       </c>
       <c r="I77" t="n">
-        <v>45.68532562255859</v>
+        <v>47.54793930053711</v>
       </c>
       <c r="J77" t="n">
-        <v>96740.3359375</v>
+        <v>96649.6015625</v>
       </c>
       <c r="K77" t="n">
-        <v>99.90000152587891</v>
+        <v>4.700000286102295</v>
       </c>
       <c r="L77" t="n">
-        <v>4.003598690032959</v>
+        <v>1.111201167106628</v>
       </c>
       <c r="M77" t="n">
-        <v>-5.17117166519165</v>
+        <v>-2.248972177505493</v>
       </c>
       <c r="N77" t="n">
-        <v>10.60000038146973</v>
+        <v>4.40331506729126</v>
       </c>
     </row>
     <row r="78">
@@ -4153,11 +4153,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1706972400</v>
+        <v>1710946800</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4166,34 +4166,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>62.20000076293945</v>
+        <v>66.09999847412109</v>
       </c>
       <c r="F78" t="n">
-        <v>28.458984375</v>
+        <v>29.00003051757812</v>
       </c>
       <c r="G78" t="n">
-        <v>26.11822509765625</v>
+        <v>27.02978515625</v>
       </c>
       <c r="H78" t="n">
-        <v>-64.56916809082031</v>
+        <v>-57.33380126953125</v>
       </c>
       <c r="I78" t="n">
-        <v>44.16264343261719</v>
+        <v>44.16470336914062</v>
       </c>
       <c r="J78" t="n">
-        <v>96897.4140625</v>
+        <v>96755.5859375</v>
       </c>
       <c r="K78" t="n">
-        <v>100</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="L78" t="n">
-        <v>1.328227519989014</v>
+        <v>-0.9815722703933716</v>
       </c>
       <c r="M78" t="n">
-        <v>-7.238767147064209</v>
+        <v>-2.974887609481812</v>
       </c>
       <c r="N78" t="n">
-        <v>8.305159568786621</v>
+        <v>3.715700149536133</v>
       </c>
     </row>
     <row r="79">
@@ -4201,11 +4201,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1706983200</v>
+        <v>1710957600</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4214,34 +4214,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.90000152587891</v>
+        <v>48.90000152587891</v>
       </c>
       <c r="F79" t="n">
-        <v>32.18292236328125</v>
+        <v>32.80001831054688</v>
       </c>
       <c r="G79" t="n">
-        <v>30.38983154296875</v>
+        <v>30.48178100585938</v>
       </c>
       <c r="H79" t="n">
-        <v>-66.545654296875</v>
+        <v>-70.19383239746094</v>
       </c>
       <c r="I79" t="n">
-        <v>42.00185394287109</v>
+        <v>49.13217544555664</v>
       </c>
       <c r="J79" t="n">
-        <v>96723.5859375</v>
+        <v>96574.2578125</v>
       </c>
       <c r="K79" t="n">
-        <v>97.30000305175781</v>
+        <v>94</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1697363257408142</v>
+        <v>-2.17108154296875</v>
       </c>
       <c r="M79" t="n">
-        <v>-5.523105144500732</v>
+        <v>-2.722429037094116</v>
       </c>
       <c r="N79" t="n">
-        <v>7.911288738250732</v>
+        <v>3.300404787063599</v>
       </c>
     </row>
     <row r="80">
@@ -4249,11 +4249,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1706994000</v>
+        <v>1710968400</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4262,34 +4262,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.60000228881836</v>
+        <v>43.60000228881836</v>
       </c>
       <c r="F80" t="n">
-        <v>33.13296508789062</v>
+        <v>33.63272094726562</v>
       </c>
       <c r="G80" t="n">
-        <v>31.6923828125</v>
+        <v>32.0142822265625</v>
       </c>
       <c r="H80" t="n">
-        <v>-68.17062377929688</v>
+        <v>-66.91862487792969</v>
       </c>
       <c r="I80" t="n">
-        <v>40.50821304321289</v>
+        <v>48.89663696289062</v>
       </c>
       <c r="J80" t="n">
-        <v>96412.5234375</v>
+        <v>96279.8125</v>
       </c>
       <c r="K80" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="L80" t="n">
-        <v>5.373749732971191</v>
+        <v>-1.002844214439392</v>
       </c>
       <c r="M80" t="n">
-        <v>-5.222636699676514</v>
+        <v>-3.557778358459473</v>
       </c>
       <c r="N80" t="n">
-        <v>7.929368019104004</v>
+        <v>4.400134563446045</v>
       </c>
     </row>
     <row r="81">
@@ -4297,11 +4297,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1707004800</v>
+        <v>1710979200</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4310,34 +4310,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.90000152587891</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="F81" t="n">
-        <v>32.0714111328125</v>
+        <v>31.48068237304688</v>
       </c>
       <c r="G81" t="n">
-        <v>31.45745849609375</v>
+        <v>31.220703125</v>
       </c>
       <c r="H81" t="n">
-        <v>-67.43913269042969</v>
+        <v>-65.291259765625</v>
       </c>
       <c r="I81" t="n">
-        <v>39.99983978271484</v>
+        <v>47.52987289428711</v>
       </c>
       <c r="J81" t="n">
-        <v>96400.59375</v>
+        <v>96295.7421875</v>
       </c>
       <c r="K81" t="n">
-        <v>99.90000152587891</v>
+        <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>5.36831521987915</v>
+        <v>-2.373051643371582</v>
       </c>
       <c r="M81" t="n">
-        <v>-5.578315258026123</v>
+        <v>-2.450527191162109</v>
       </c>
       <c r="N81" t="n">
-        <v>10.60642147064209</v>
+        <v>5.019575119018555</v>
       </c>
     </row>
     <row r="82">
@@ -4345,11 +4345,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1707015600</v>
+        <v>1710990000</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4358,34 +4358,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.20000076293945</v>
+        <v>57.90000152587891</v>
       </c>
       <c r="F82" t="n">
-        <v>29.3369140625</v>
+        <v>30.03866577148438</v>
       </c>
       <c r="G82" t="n">
-        <v>29.1954345703125</v>
+        <v>29.8721923828125</v>
       </c>
       <c r="H82" t="n">
-        <v>-67.54020690917969</v>
+        <v>-54.03514099121094</v>
       </c>
       <c r="I82" t="n">
-        <v>41.23755645751953</v>
+        <v>45.59534072875977</v>
       </c>
       <c r="J82" t="n">
-        <v>96585.8984375</v>
+        <v>96451.0390625</v>
       </c>
       <c r="K82" t="n">
-        <v>8.5</v>
+        <v>60.90000152587891</v>
       </c>
       <c r="L82" t="n">
-        <v>5.247309684753418</v>
+        <v>-0.8162841796875</v>
       </c>
       <c r="M82" t="n">
-        <v>-5.489294528961182</v>
+        <v>0.6127831935882568</v>
       </c>
       <c r="N82" t="n">
-        <v>12.80105495452881</v>
+        <v>1.40881335735321</v>
       </c>
     </row>
     <row r="83">
@@ -4393,11 +4393,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1707026400</v>
+        <v>1711000800</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4406,34 +4406,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>61.60000228881836</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="F83" t="n">
-        <v>26.8359375</v>
+        <v>29.03863525390625</v>
       </c>
       <c r="G83" t="n">
-        <v>26.40176391601562</v>
+        <v>28.78131103515625</v>
       </c>
       <c r="H83" t="n">
-        <v>-66.58018493652344</v>
+        <v>-73.82048034667969</v>
       </c>
       <c r="I83" t="n">
-        <v>41.11611938476562</v>
+        <v>46.54935073852539</v>
       </c>
       <c r="J83" t="n">
-        <v>96633</v>
+        <v>96496.4609375</v>
       </c>
       <c r="K83" t="n">
-        <v>11.90000057220459</v>
+        <v>97.09999847412109</v>
       </c>
       <c r="L83" t="n">
-        <v>4.171835899353027</v>
+        <v>-2.127287626266479</v>
       </c>
       <c r="M83" t="n">
-        <v>-6.098991394042969</v>
+        <v>0.9575854539871216</v>
       </c>
       <c r="N83" t="n">
-        <v>12.81698131561279</v>
+        <v>2.825131177902222</v>
       </c>
     </row>
     <row r="84">
@@ -4441,11 +4441,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1707037200</v>
+        <v>1711011600</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4454,34 +4454,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>72.30000305175781</v>
+        <v>81.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>25.02310180664062</v>
+        <v>25.657958984375</v>
       </c>
       <c r="G84" t="n">
-        <v>24.35055541992188</v>
+        <v>25.39175415039062</v>
       </c>
       <c r="H84" t="n">
-        <v>-71.64973449707031</v>
+        <v>-65.42738342285156</v>
       </c>
       <c r="I84" t="n">
-        <v>43.54929733276367</v>
+        <v>52.14514541625977</v>
       </c>
       <c r="J84" t="n">
-        <v>96608.796875</v>
+        <v>96481.5234375</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="L84" t="n">
-        <v>3.287451028823853</v>
+        <v>1.291103482246399</v>
       </c>
       <c r="M84" t="n">
-        <v>-5.478940486907959</v>
+        <v>-3.516281604766846</v>
       </c>
       <c r="N84" t="n">
-        <v>11.51724910736084</v>
+        <v>5.900170803070068</v>
       </c>
     </row>
     <row r="85">
@@ -4489,11 +4489,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1707048000</v>
+        <v>1711022400</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4502,34 +4502,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>78.5</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="F85" t="n">
-        <v>23.55426025390625</v>
+        <v>24.50662231445312</v>
       </c>
       <c r="G85" t="n">
-        <v>22.70199584960938</v>
+        <v>24.23080444335938</v>
       </c>
       <c r="H85" t="n">
-        <v>-70.46488952636719</v>
+        <v>-61.3170166015625</v>
       </c>
       <c r="I85" t="n">
-        <v>41.72115325927734</v>
+        <v>45.38404083251953</v>
       </c>
       <c r="J85" t="n">
-        <v>96689.546875</v>
+        <v>96635.6015625</v>
       </c>
       <c r="K85" t="n">
-        <v>94.59999847412109</v>
+        <v>3.5</v>
       </c>
       <c r="L85" t="n">
-        <v>3.626872539520264</v>
+        <v>1.577893018722534</v>
       </c>
       <c r="M85" t="n">
-        <v>-5.243264198303223</v>
+        <v>-2.734262704849243</v>
       </c>
       <c r="N85" t="n">
-        <v>10.92208671569824</v>
+        <v>5.20296049118042</v>
       </c>
     </row>
     <row r="86">
@@ -4537,11 +4537,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1707058800</v>
+        <v>1711033200</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4550,34 +4550,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>56.79999923706055</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="F86" t="n">
-        <v>28.52871704101562</v>
+        <v>28.94281005859375</v>
       </c>
       <c r="G86" t="n">
-        <v>26.07009887695312</v>
+        <v>26.77105712890625</v>
       </c>
       <c r="H86" t="n">
-        <v>-69.05253601074219</v>
+        <v>-66.10162353515625</v>
       </c>
       <c r="I86" t="n">
-        <v>37.25985717773438</v>
+        <v>41.26613998413086</v>
       </c>
       <c r="J86" t="n">
-        <v>96806.875</v>
+        <v>96779.078125</v>
       </c>
       <c r="K86" t="n">
-        <v>92.70000457763672</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1.575236797332764</v>
+        <v>1.312502384185791</v>
       </c>
       <c r="M86" t="n">
-        <v>-7.898029804229736</v>
+        <v>-4.616291522979736</v>
       </c>
       <c r="N86" t="n">
-        <v>9.112841606140137</v>
+        <v>5.204963684082031</v>
       </c>
     </row>
     <row r="87">
@@ -4585,11 +4585,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1707069600</v>
+        <v>1711044000</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4598,34 +4598,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.70000076293945</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="F87" t="n">
-        <v>34.13504028320312</v>
+        <v>33.61712646484375</v>
       </c>
       <c r="G87" t="n">
-        <v>30.98101806640625</v>
+        <v>31.1676025390625</v>
       </c>
       <c r="H87" t="n">
-        <v>-69.09288024902344</v>
+        <v>-69.99172973632812</v>
       </c>
       <c r="I87" t="n">
-        <v>34.76559066772461</v>
+        <v>40.33099365234375</v>
       </c>
       <c r="J87" t="n">
-        <v>96594.1640625</v>
+        <v>96529.1796875</v>
       </c>
       <c r="K87" t="n">
-        <v>3.200000047683716</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="L87" t="n">
-        <v>2.782668352127075</v>
+        <v>-0.2774560451507568</v>
       </c>
       <c r="M87" t="n">
-        <v>-7.392604827880859</v>
+        <v>-3.634318828582764</v>
       </c>
       <c r="N87" t="n">
-        <v>8.90000057220459</v>
+        <v>4.313528060913086</v>
       </c>
     </row>
     <row r="88">
@@ -4633,11 +4633,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1707080400</v>
+        <v>1711054800</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4646,34 +4646,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.5</v>
+        <v>44.10000228881836</v>
       </c>
       <c r="F88" t="n">
-        <v>36.43624877929688</v>
+        <v>32.919677734375</v>
       </c>
       <c r="G88" t="n">
-        <v>33.9263916015625</v>
+        <v>31.71218872070312</v>
       </c>
       <c r="H88" t="n">
-        <v>-69.57658386230469</v>
+        <v>-63.10475158691406</v>
       </c>
       <c r="I88" t="n">
-        <v>38.76416397094727</v>
+        <v>40.98520278930664</v>
       </c>
       <c r="J88" t="n">
-        <v>96244.34375</v>
+        <v>96263.375</v>
       </c>
       <c r="K88" t="n">
-        <v>91.40000152587891</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="L88" t="n">
-        <v>5.878583908081055</v>
+        <v>2.333246946334839</v>
       </c>
       <c r="M88" t="n">
-        <v>-5.81035852432251</v>
+        <v>-7.230842113494873</v>
       </c>
       <c r="N88" t="n">
-        <v>9.826038360595703</v>
+        <v>6.8237624168396</v>
       </c>
     </row>
     <row r="89">
@@ -4681,11 +4681,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1707091200</v>
+        <v>1711065600</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4694,34 +4694,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.5</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="F89" t="n">
-        <v>34.04010009765625</v>
+        <v>32.52423095703125</v>
       </c>
       <c r="G89" t="n">
-        <v>33.67361450195312</v>
+        <v>32.33172607421875</v>
       </c>
       <c r="H89" t="n">
-        <v>-72.11276245117188</v>
+        <v>-57.46501159667969</v>
       </c>
       <c r="I89" t="n">
-        <v>39.23905944824219</v>
+        <v>40.45107650756836</v>
       </c>
       <c r="J89" t="n">
-        <v>96271.2734375</v>
+        <v>96292.21875</v>
       </c>
       <c r="K89" t="n">
-        <v>81.40000152587891</v>
+        <v>92.80000305175781</v>
       </c>
       <c r="L89" t="n">
-        <v>1.803395986557007</v>
+        <v>0.8013891577720642</v>
       </c>
       <c r="M89" t="n">
-        <v>-8.788103103637695</v>
+        <v>-3.079887628555298</v>
       </c>
       <c r="N89" t="n">
-        <v>12.31294822692871</v>
+        <v>4.814307689666748</v>
       </c>
     </row>
     <row r="90">
@@ -4729,11 +4729,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1707102000</v>
+        <v>1711076400</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4742,34 +4742,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.60000228881836</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="F90" t="n">
-        <v>30.52734375</v>
+        <v>30.42477416992188</v>
       </c>
       <c r="G90" t="n">
-        <v>30.24716186523438</v>
+        <v>30.63711547851562</v>
       </c>
       <c r="H90" t="n">
-        <v>-72.23333740234375</v>
+        <v>-56.41639709472656</v>
       </c>
       <c r="I90" t="n">
-        <v>38.05651473999023</v>
+        <v>36.81740570068359</v>
       </c>
       <c r="J90" t="n">
-        <v>96446.5546875</v>
+        <v>96473.8125</v>
       </c>
       <c r="K90" t="n">
-        <v>80.70000457763672</v>
+        <v>54</v>
       </c>
       <c r="L90" t="n">
-        <v>3.97680401802063</v>
+        <v>-2.6480712890625</v>
       </c>
       <c r="M90" t="n">
-        <v>-9.722479820251465</v>
+        <v>-2.071103572845459</v>
       </c>
       <c r="N90" t="n">
-        <v>16.00517654418945</v>
+        <v>4.803613185882568</v>
       </c>
     </row>
     <row r="91">
@@ -4777,11 +4777,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1707112800</v>
+        <v>1711087200</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4790,34 +4790,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.60000228881836</v>
+        <v>58.5</v>
       </c>
       <c r="F91" t="n">
-        <v>27.44699096679688</v>
+        <v>29.53634643554688</v>
       </c>
       <c r="G91" t="n">
-        <v>26.74725341796875</v>
+        <v>29.02752685546875</v>
       </c>
       <c r="H91" t="n">
-        <v>-72.65995788574219</v>
+        <v>-57.48602294921875</v>
       </c>
       <c r="I91" t="n">
-        <v>41.21309661865234</v>
+        <v>42.49340057373047</v>
       </c>
       <c r="J91" t="n">
-        <v>96619.3359375</v>
+        <v>96579.75</v>
       </c>
       <c r="K91" t="n">
-        <v>1.300000071525574</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
-        <v>3.890036582946777</v>
+        <v>0.396918922662735</v>
       </c>
       <c r="M91" t="n">
-        <v>-7.949821472167969</v>
+        <v>-1.618564367294312</v>
       </c>
       <c r="N91" t="n">
-        <v>13.70048236846924</v>
+        <v>2.20000147819519</v>
       </c>
     </row>
     <row r="92">
@@ -4825,11 +4825,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1707123600</v>
+        <v>1711098000</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4838,34 +4838,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>69.20000457763672</v>
+        <v>56</v>
       </c>
       <c r="F92" t="n">
-        <v>24.8101806640625</v>
+        <v>27.90646362304688</v>
       </c>
       <c r="G92" t="n">
-        <v>23.97463989257812</v>
+        <v>27.17962646484375</v>
       </c>
       <c r="H92" t="n">
-        <v>-73.36555480957031</v>
+        <v>-56.64260864257812</v>
       </c>
       <c r="I92" t="n">
-        <v>40.77107238769531</v>
+        <v>41.24339294433594</v>
       </c>
       <c r="J92" t="n">
-        <v>96601.8984375</v>
+        <v>96477.71875</v>
       </c>
       <c r="K92" t="n">
-        <v>11.40000057220459</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>3.502468109130859</v>
+        <v>2.148657083511353</v>
       </c>
       <c r="M92" t="n">
-        <v>-6.887753963470459</v>
+        <v>-5.228005409240723</v>
       </c>
       <c r="N92" t="n">
-        <v>13.126953125</v>
+        <v>9.103067398071289</v>
       </c>
     </row>
     <row r="93">
@@ -4873,11 +4873,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1707134400</v>
+        <v>1711108800</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4886,34 +4886,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>75.90000152587891</v>
+        <v>64.59999847412109</v>
       </c>
       <c r="F93" t="n">
-        <v>23.51028442382812</v>
+        <v>25.41049194335938</v>
       </c>
       <c r="G93" t="n">
-        <v>22.61941528320312</v>
+        <v>24.972412109375</v>
       </c>
       <c r="H93" t="n">
-        <v>-73.30209350585938</v>
+        <v>-56.97306823730469</v>
       </c>
       <c r="I93" t="n">
-        <v>36.26112365722656</v>
+        <v>37.48033905029297</v>
       </c>
       <c r="J93" t="n">
-        <v>96720.8828125</v>
+        <v>96629.2890625</v>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L93" t="n">
-        <v>2.917140960693359</v>
+        <v>2.621894359588623</v>
       </c>
       <c r="M93" t="n">
-        <v>-5.249262809753418</v>
+        <v>-3.236564874649048</v>
       </c>
       <c r="N93" t="n">
-        <v>11.90513896942139</v>
+        <v>7.808730602264404</v>
       </c>
     </row>
     <row r="94">
@@ -4921,11 +4921,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1707145200</v>
+        <v>1711119600</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4934,34 +4934,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="F94" t="n">
-        <v>28.80780029296875</v>
+        <v>29.99911499023438</v>
       </c>
       <c r="G94" t="n">
-        <v>26.17471313476562</v>
+        <v>27.56524658203125</v>
       </c>
       <c r="H94" t="n">
-        <v>-72.91258239746094</v>
+        <v>-55.2852783203125</v>
       </c>
       <c r="I94" t="n">
-        <v>30.58538627624512</v>
+        <v>38.04388427734375</v>
       </c>
       <c r="J94" t="n">
-        <v>96839.1640625</v>
+        <v>96725.0546875</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2000000029802322</v>
+        <v>96</v>
       </c>
       <c r="L94" t="n">
-        <v>1.395854473114014</v>
+        <v>-0.1974194347858429</v>
       </c>
       <c r="M94" t="n">
-        <v>-8.229968070983887</v>
+        <v>-5.450278282165527</v>
       </c>
       <c r="N94" t="n">
-        <v>9.903491020202637</v>
+        <v>6.121314525604248</v>
       </c>
     </row>
     <row r="95">
@@ -4969,11 +4969,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1707156000</v>
+        <v>1711130400</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.70000076293945</v>
+        <v>45.90000152587891</v>
       </c>
       <c r="F95" t="n">
-        <v>34.95831298828125</v>
+        <v>33.2987060546875</v>
       </c>
       <c r="G95" t="n">
-        <v>31.62579345703125</v>
+        <v>30.82766723632812</v>
       </c>
       <c r="H95" t="n">
-        <v>-73.32804870605469</v>
+        <v>-49.14857482910156</v>
       </c>
       <c r="I95" t="n">
-        <v>30.64128684997559</v>
+        <v>40.71659088134766</v>
       </c>
       <c r="J95" t="n">
-        <v>96656.4375</v>
+        <v>96532.5625</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="L95" t="n">
-        <v>1.603832960128784</v>
+        <v>-0.3061450123786926</v>
       </c>
       <c r="M95" t="n">
-        <v>-7.127819538116455</v>
+        <v>-4.313198089599609</v>
       </c>
       <c r="N95" t="n">
-        <v>8.503286361694336</v>
+        <v>4.630837917327881</v>
       </c>
     </row>
     <row r="96">
@@ -5017,11 +5017,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1707166800</v>
+        <v>1711141200</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5030,34 +5030,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.10000038146973</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="F96" t="n">
-        <v>37.6385498046875</v>
+        <v>32.701904296875</v>
       </c>
       <c r="G96" t="n">
-        <v>35.10565185546875</v>
+        <v>31.36447143554688</v>
       </c>
       <c r="H96" t="n">
-        <v>-73.77328491210938</v>
+        <v>-48.43705749511719</v>
       </c>
       <c r="I96" t="n">
-        <v>33.71764755249023</v>
+        <v>39.86796951293945</v>
       </c>
       <c r="J96" t="n">
-        <v>96307.953125</v>
+        <v>96290.65625</v>
       </c>
       <c r="K96" t="n">
-        <v>23.20000076293945</v>
+        <v>69.30000305175781</v>
       </c>
       <c r="L96" t="n">
-        <v>4.134868144989014</v>
+        <v>-1.056853055953979</v>
       </c>
       <c r="M96" t="n">
-        <v>-6.211997032165527</v>
+        <v>-4.415248870849609</v>
       </c>
       <c r="N96" t="n">
-        <v>9.13585090637207</v>
+        <v>4.928977966308594</v>
       </c>
     </row>
     <row r="97">
@@ -5065,11 +5065,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1707177600</v>
+        <v>1711152000</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5078,34 +5078,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.70000076293945</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="F97" t="n">
-        <v>34.84820556640625</v>
+        <v>31.24411010742188</v>
       </c>
       <c r="G97" t="n">
-        <v>34.63552856445312</v>
+        <v>31.31597900390625</v>
       </c>
       <c r="H97" t="n">
-        <v>-74.27626037597656</v>
+        <v>-54.52146911621094</v>
       </c>
       <c r="I97" t="n">
-        <v>30.39497756958008</v>
+        <v>40.45630264282227</v>
       </c>
       <c r="J97" t="n">
-        <v>96333.5078125</v>
+        <v>96311.0859375</v>
       </c>
       <c r="K97" t="n">
-        <v>13.90000057220459</v>
+        <v>91.5</v>
       </c>
       <c r="L97" t="n">
-        <v>2.802880764007568</v>
+        <v>-2.915886163711548</v>
       </c>
       <c r="M97" t="n">
-        <v>-7.001896858215332</v>
+        <v>-2.391269445419312</v>
       </c>
       <c r="N97" t="n">
-        <v>10.91066932678223</v>
+        <v>4.816834449768066</v>
       </c>
     </row>
     <row r="98">
@@ -5113,11 +5113,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1707188400</v>
+        <v>1711162800</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5126,34 +5126,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.5</v>
+        <v>53.5</v>
       </c>
       <c r="F98" t="n">
-        <v>30.63677978515625</v>
+        <v>29.80294799804688</v>
       </c>
       <c r="G98" t="n">
-        <v>31.2298583984375</v>
+        <v>30.56710815429688</v>
       </c>
       <c r="H98" t="n">
-        <v>-73.98271179199219</v>
+        <v>-46.57537841796875</v>
       </c>
       <c r="I98" t="n">
-        <v>34.60346221923828</v>
+        <v>39.92008590698242</v>
       </c>
       <c r="J98" t="n">
-        <v>96574.03125</v>
+        <v>96519.9765625</v>
       </c>
       <c r="K98" t="n">
-        <v>82.30000305175781</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="L98" t="n">
-        <v>3.768447160720825</v>
+        <v>-2.281967639923096</v>
       </c>
       <c r="M98" t="n">
-        <v>-5.403281211853027</v>
+        <v>-1.813620567321777</v>
       </c>
       <c r="N98" t="n">
-        <v>13.30233669281006</v>
+        <v>3.203381299972534</v>
       </c>
     </row>
     <row r="99">
@@ -5161,11 +5161,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1707199200</v>
+        <v>1711173600</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5174,34 +5174,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>54.60000228881836</v>
+        <v>62.5</v>
       </c>
       <c r="F99" t="n">
-        <v>27.21170043945312</v>
+        <v>28</v>
       </c>
       <c r="G99" t="n">
-        <v>26.51434326171875</v>
+        <v>28.73941040039062</v>
       </c>
       <c r="H99" t="n">
-        <v>-75.01637268066406</v>
+        <v>-49.3184814453125</v>
       </c>
       <c r="I99" t="n">
-        <v>37.11837005615234</v>
+        <v>42.64951705932617</v>
       </c>
       <c r="J99" t="n">
-        <v>96737.1640625</v>
+        <v>96517.8515625</v>
       </c>
       <c r="K99" t="n">
-        <v>5</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="L99" t="n">
-        <v>4.167858600616455</v>
+        <v>-1.312375426292419</v>
       </c>
       <c r="M99" t="n">
-        <v>-7.740739345550537</v>
+        <v>-0.1766162067651749</v>
       </c>
       <c r="N99" t="n">
-        <v>14.01544952392578</v>
+        <v>1.550639748573303</v>
       </c>
     </row>
     <row r="100">
@@ -5209,11 +5209,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1707210000</v>
+        <v>1711184400</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5222,34 +5222,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>67.40000152587891</v>
+        <v>74.90000152587891</v>
       </c>
       <c r="F100" t="n">
-        <v>24.83489990234375</v>
+        <v>26.4276123046875</v>
       </c>
       <c r="G100" t="n">
-        <v>24.02203369140625</v>
+        <v>26.18148803710938</v>
       </c>
       <c r="H100" t="n">
-        <v>-73.78504943847656</v>
+        <v>-67.68254089355469</v>
       </c>
       <c r="I100" t="n">
-        <v>36.71399307250977</v>
+        <v>44.321044921875</v>
       </c>
       <c r="J100" t="n">
-        <v>96675.859375</v>
+        <v>96421.3515625</v>
       </c>
       <c r="K100" t="n">
-        <v>47.20000076293945</v>
+        <v>77.40000152587891</v>
       </c>
       <c r="L100" t="n">
-        <v>3.133798837661743</v>
+        <v>-1.883803725242615</v>
       </c>
       <c r="M100" t="n">
-        <v>-5.680722713470459</v>
+        <v>-0.6033178567886353</v>
       </c>
       <c r="N100" t="n">
-        <v>11.61641597747803</v>
+        <v>2.704381942749023</v>
       </c>
     </row>
     <row r="101">
@@ -5257,11 +5257,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1707220800</v>
+        <v>1711195200</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5270,34 +5270,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>79.90000152587891</v>
+        <v>78.30000305175781</v>
       </c>
       <c r="F101" t="n">
-        <v>23.29302978515625</v>
+        <v>25.89999389648438</v>
       </c>
       <c r="G101" t="n">
-        <v>22.3565673828125</v>
+        <v>26.31198120117188</v>
       </c>
       <c r="H101" t="n">
-        <v>-72.655517578125</v>
+        <v>-65.773681640625</v>
       </c>
       <c r="I101" t="n">
-        <v>34.20190811157227</v>
+        <v>46.49290466308594</v>
       </c>
       <c r="J101" t="n">
-        <v>96791.328125</v>
+        <v>96539.3203125</v>
       </c>
       <c r="K101" t="n">
-        <v>75.40000152587891</v>
+        <v>31</v>
       </c>
       <c r="L101" t="n">
-        <v>4.031274318695068</v>
+        <v>-0.2213037014007568</v>
       </c>
       <c r="M101" t="n">
-        <v>-4.885973930358887</v>
+        <v>-2.2410888671875</v>
       </c>
       <c r="N101" t="n">
-        <v>11.70579433441162</v>
+        <v>3.000330448150635</v>
       </c>
     </row>
     <row r="102">
@@ -5305,11 +5305,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1707231600</v>
+        <v>1711206000</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5318,34 +5318,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>54.40000152587891</v>
+        <v>64</v>
       </c>
       <c r="F102" t="n">
-        <v>28.78298950195312</v>
+        <v>29.34030151367188</v>
       </c>
       <c r="G102" t="n">
-        <v>26.25494384765625</v>
+        <v>27.34881591796875</v>
       </c>
       <c r="H102" t="n">
-        <v>-72.71893310546875</v>
+        <v>-62.83187866210938</v>
       </c>
       <c r="I102" t="n">
-        <v>31.11869239807129</v>
+        <v>47.95875549316406</v>
       </c>
       <c r="J102" t="n">
-        <v>96926.1015625</v>
+        <v>96715.8046875</v>
       </c>
       <c r="K102" t="n">
-        <v>38.90000152587891</v>
+        <v>92.30000305175781</v>
       </c>
       <c r="L102" t="n">
-        <v>2.216425657272339</v>
+        <v>-2.611374378204346</v>
       </c>
       <c r="M102" t="n">
-        <v>-7.39056396484375</v>
+        <v>-3.043867111206055</v>
       </c>
       <c r="N102" t="n">
-        <v>9.00174617767334</v>
+        <v>4.501927852630615</v>
       </c>
     </row>
     <row r="103">
@@ -5353,11 +5353,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1707242400</v>
+        <v>1711216800</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5366,34 +5366,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.29999923706055</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="F103" t="n">
-        <v>34.7269287109375</v>
+        <v>33.63186645507812</v>
       </c>
       <c r="G103" t="n">
-        <v>31.44256591796875</v>
+        <v>31.18063354492188</v>
       </c>
       <c r="H103" t="n">
-        <v>-73.83786010742188</v>
+        <v>-59.55572509765625</v>
       </c>
       <c r="I103" t="n">
-        <v>30.20111465454102</v>
+        <v>49.76110076904297</v>
       </c>
       <c r="J103" t="n">
-        <v>96743.7109375</v>
+        <v>96505.75</v>
       </c>
       <c r="K103" t="n">
-        <v>91.20000457763672</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="L103" t="n">
-        <v>1.925524830818176</v>
+        <v>-2.486337900161743</v>
       </c>
       <c r="M103" t="n">
-        <v>-6.719020843505859</v>
+        <v>-3.035205125808716</v>
       </c>
       <c r="N103" t="n">
-        <v>7.728263378143311</v>
+        <v>4.311179161071777</v>
       </c>
     </row>
     <row r="104">
@@ -5401,11 +5401,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1707253200</v>
+        <v>1711227600</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5414,34 +5414,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.5</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="F104" t="n">
-        <v>37.36175537109375</v>
+        <v>31.78781127929688</v>
       </c>
       <c r="G104" t="n">
-        <v>34.72445678710938</v>
+        <v>30.50604248046875</v>
       </c>
       <c r="H104" t="n">
-        <v>-74.63125610351562</v>
+        <v>-46.40679931640625</v>
       </c>
       <c r="I104" t="n">
-        <v>30.88505935668945</v>
+        <v>51.41358184814453</v>
       </c>
       <c r="J104" t="n">
-        <v>96421.0234375</v>
+        <v>96262.1171875</v>
       </c>
       <c r="K104" t="n">
-        <v>94.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
-        <v>1.361020445823669</v>
+        <v>-0.531494140625</v>
       </c>
       <c r="M104" t="n">
-        <v>-6.005925178527832</v>
+        <v>-5.284467697143555</v>
       </c>
       <c r="N104" t="n">
-        <v>7.511561870574951</v>
+        <v>4.723348140716553</v>
       </c>
     </row>
     <row r="105">
@@ -5449,11 +5449,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1707264000</v>
+        <v>1711238400</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5462,34 +5462,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>55.10000228881836</v>
       </c>
       <c r="F105" t="n">
-        <v>34.75839233398438</v>
+        <v>30.44613647460938</v>
       </c>
       <c r="G105" t="n">
-        <v>35.25668334960938</v>
+        <v>30.65768432617188</v>
       </c>
       <c r="H105" t="n">
-        <v>-75.90559387207031</v>
+        <v>-52.84945678710938</v>
       </c>
       <c r="I105" t="n">
-        <v>33.00577163696289</v>
+        <v>48.68789291381836</v>
       </c>
       <c r="J105" t="n">
-        <v>96391.828125</v>
+        <v>96302.515625</v>
       </c>
       <c r="K105" t="n">
         <v>100</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8190234303474426</v>
+        <v>0.7742334008216858</v>
       </c>
       <c r="M105" t="n">
-        <v>-4.740302562713623</v>
+        <v>-2.335209846496582</v>
       </c>
       <c r="N105" t="n">
-        <v>7.204057216644287</v>
+        <v>2.703205108642578</v>
       </c>
     </row>
     <row r="106">
@@ -5497,11 +5497,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1707274800</v>
+        <v>1711249200</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5510,34 +5510,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.29999923706055</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="F106" t="n">
-        <v>32.76104736328125</v>
+        <v>26.23275756835938</v>
       </c>
       <c r="G106" t="n">
-        <v>32.21722412109375</v>
+        <v>26.92568969726562</v>
       </c>
       <c r="H106" t="n">
-        <v>-74.44699096679688</v>
+        <v>-55.116943359375</v>
       </c>
       <c r="I106" t="n">
-        <v>36.94359970092773</v>
+        <v>51.98840713500977</v>
       </c>
       <c r="J106" t="n">
-        <v>96605.75</v>
+        <v>96589.21875</v>
       </c>
       <c r="K106" t="n">
-        <v>42.79999923706055</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
-        <v>2.656367063522339</v>
+        <v>2.710590839385986</v>
       </c>
       <c r="M106" t="n">
-        <v>-7.845751762390137</v>
+        <v>-1.442370533943176</v>
       </c>
       <c r="N106" t="n">
-        <v>12.30937480926514</v>
+        <v>5.100022792816162</v>
       </c>
     </row>
     <row r="107">
@@ -5545,11 +5545,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1707285600</v>
+        <v>1711260000</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5558,34 +5558,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>53.29999923706055</v>
+        <v>81</v>
       </c>
       <c r="F107" t="n">
-        <v>27.93478393554688</v>
+        <v>25.61935424804688</v>
       </c>
       <c r="G107" t="n">
-        <v>27.22137451171875</v>
+        <v>25.29513549804688</v>
       </c>
       <c r="H107" t="n">
-        <v>-71.17488098144531</v>
+        <v>-48.96759033203125</v>
       </c>
       <c r="I107" t="n">
-        <v>39.66764068603516</v>
+        <v>54.76426696777344</v>
       </c>
       <c r="J107" t="n">
-        <v>96756.640625</v>
+        <v>96588.921875</v>
       </c>
       <c r="K107" t="n">
-        <v>100</v>
+        <v>99.09999847412109</v>
       </c>
       <c r="L107" t="n">
-        <v>3.013967275619507</v>
+        <v>3.902858734130859</v>
       </c>
       <c r="M107" t="n">
-        <v>-7.940382957458496</v>
+        <v>-3.912817239761353</v>
       </c>
       <c r="N107" t="n">
-        <v>12.10174560546875</v>
+        <v>9.114047050476074</v>
       </c>
     </row>
     <row r="108">
@@ -5593,11 +5593,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1707296400</v>
+        <v>1711270800</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5606,34 +5606,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>66.40000152587891</v>
+        <v>85</v>
       </c>
       <c r="F108" t="n">
-        <v>25.28195190429688</v>
+        <v>25.0806884765625</v>
       </c>
       <c r="G108" t="n">
-        <v>24.39349365234375</v>
+        <v>24.83993530273438</v>
       </c>
       <c r="H108" t="n">
-        <v>-71.90080261230469</v>
+        <v>-68.35980224609375</v>
       </c>
       <c r="I108" t="n">
-        <v>42.06443786621094</v>
+        <v>53.8232307434082</v>
       </c>
       <c r="J108" t="n">
-        <v>96685.3984375</v>
+        <v>96495.6328125</v>
       </c>
       <c r="K108" t="n">
-        <v>87.70000457763672</v>
+        <v>96.80000305175781</v>
       </c>
       <c r="L108" t="n">
-        <v>4.414499282836914</v>
+        <v>-0.3639916777610779</v>
       </c>
       <c r="M108" t="n">
-        <v>-5.626601219177246</v>
+        <v>-4.049418926239014</v>
       </c>
       <c r="N108" t="n">
-        <v>11.40270900726318</v>
+        <v>6.803613185882568</v>
       </c>
     </row>
     <row r="109">
@@ -5641,11 +5641,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1707307200</v>
+        <v>1711281600</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5654,34 +5654,34 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>76.40000152587891</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="F109" t="n">
-        <v>23.76541137695312</v>
+        <v>24.20001220703125</v>
       </c>
       <c r="G109" t="n">
-        <v>22.73947143554688</v>
+        <v>23.73617553710938</v>
       </c>
       <c r="H109" t="n">
-        <v>-72.17900085449219</v>
+        <v>-65.28012084960938</v>
       </c>
       <c r="I109" t="n">
-        <v>42.35228729248047</v>
+        <v>52.70798492431641</v>
       </c>
       <c r="J109" t="n">
-        <v>96885.7734375</v>
+        <v>96623.46875</v>
       </c>
       <c r="K109" t="n">
-        <v>5.700000286102295</v>
+        <v>100</v>
       </c>
       <c r="L109" t="n">
-        <v>4.58791971206665</v>
+        <v>1.189646005630493</v>
       </c>
       <c r="M109" t="n">
-        <v>-4.08914041519165</v>
+        <v>-3.260761737823486</v>
       </c>
       <c r="N109" t="n">
-        <v>9.5</v>
+        <v>5.407470703125</v>
       </c>
     </row>
     <row r="110">
@@ -5689,11 +5689,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1707318000</v>
+        <v>1711292400</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5702,34 +5702,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>61.70000076293945</v>
+        <v>69.5</v>
       </c>
       <c r="F110" t="n">
-        <v>28.0255126953125</v>
+        <v>27.93048095703125</v>
       </c>
       <c r="G110" t="n">
-        <v>25.50485229492188</v>
+        <v>26.05377197265625</v>
       </c>
       <c r="H110" t="n">
-        <v>-72.65364074707031</v>
+        <v>-69.35922241210938</v>
       </c>
       <c r="I110" t="n">
-        <v>40.55702209472656</v>
+        <v>53.44353485107422</v>
       </c>
       <c r="J110" t="n">
-        <v>97004.5546875</v>
+        <v>96789.7890625</v>
       </c>
       <c r="K110" t="n">
-        <v>47.40000152587891</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="L110" t="n">
-        <v>3.241777181625366</v>
+        <v>-1.761996984481812</v>
       </c>
       <c r="M110" t="n">
-        <v>-6.621320724487305</v>
+        <v>-4.086069107055664</v>
       </c>
       <c r="N110" t="n">
-        <v>7.933776378631592</v>
+        <v>5.622721195220947</v>
       </c>
     </row>
     <row r="111">
@@ -5737,11 +5737,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1707328800</v>
+        <v>1711303200</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5750,34 +5750,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.5</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="F111" t="n">
-        <v>32.72222900390625</v>
+        <v>31.83740234375</v>
       </c>
       <c r="G111" t="n">
-        <v>29.41720581054688</v>
+        <v>29.514892578125</v>
       </c>
       <c r="H111" t="n">
-        <v>-74.56082153320312</v>
+        <v>-68.0206298828125</v>
       </c>
       <c r="I111" t="n">
-        <v>39.05512237548828</v>
+        <v>51.76062774658203</v>
       </c>
       <c r="J111" t="n">
-        <v>96785.7109375</v>
+        <v>96585.2265625</v>
       </c>
       <c r="K111" t="n">
-        <v>3.700000047683716</v>
+        <v>67.40000152587891</v>
       </c>
       <c r="L111" t="n">
-        <v>3.167841672897339</v>
+        <v>-3.125917911529541</v>
       </c>
       <c r="M111" t="n">
-        <v>-5.995019435882568</v>
+        <v>-3.69335675239563</v>
       </c>
       <c r="N111" t="n">
-        <v>7.205093383789062</v>
+        <v>5.945153713226318</v>
       </c>
     </row>
     <row r="112">
@@ -5785,11 +5785,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1707339600</v>
+        <v>1711314000</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5798,34 +5798,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.39999961853027</v>
+        <v>49.10000228881836</v>
       </c>
       <c r="F112" t="n">
-        <v>36.54397583007812</v>
+        <v>32.40567016601562</v>
       </c>
       <c r="G112" t="n">
-        <v>34.15399169921875</v>
+        <v>30.602783203125</v>
       </c>
       <c r="H112" t="n">
-        <v>-73.20368957519531</v>
+        <v>-67.66532897949219</v>
       </c>
       <c r="I112" t="n">
-        <v>38.83281326293945</v>
+        <v>51.94412231445312</v>
       </c>
       <c r="J112" t="n">
-        <v>96390.34375</v>
+        <v>96310.4140625</v>
       </c>
       <c r="K112" t="n">
-        <v>22.39999961853027</v>
+        <v>29.30000114440918</v>
       </c>
       <c r="L112" t="n">
-        <v>2.820903301239014</v>
+        <v>-3.246425628662109</v>
       </c>
       <c r="M112" t="n">
-        <v>-2.430903196334839</v>
+        <v>-3.379631280899048</v>
       </c>
       <c r="N112" t="n">
-        <v>5.510919094085693</v>
+        <v>4.914594173431396</v>
       </c>
     </row>
     <row r="113">
@@ -5833,11 +5833,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1707350400</v>
+        <v>1711324800</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>24/03/2024</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5846,34 +5846,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.70000076293945</v>
+        <v>69.70000457763672</v>
       </c>
       <c r="F113" t="n">
-        <v>34.14013671875</v>
+        <v>27.68630981445312</v>
       </c>
       <c r="G113" t="n">
-        <v>33.69281005859375</v>
+        <v>27.29898071289062</v>
       </c>
       <c r="H113" t="n">
-        <v>-71.98895263671875</v>
+        <v>-59.58222961425781</v>
       </c>
       <c r="I113" t="n">
-        <v>37.38913345336914</v>
+        <v>53.66715621948242</v>
       </c>
       <c r="J113" t="n">
-        <v>96364.5234375</v>
+        <v>96436.2734375</v>
       </c>
       <c r="K113" t="n">
-        <v>42</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L113" t="n">
-        <v>3.886384248733521</v>
+        <v>5.216611385345459</v>
       </c>
       <c r="M113" t="n">
-        <v>-4.890153884887695</v>
+        <v>-3.477834463119507</v>
       </c>
       <c r="N113" t="n">
-        <v>9.110748291015625</v>
+        <v>9.502280235290527</v>
       </c>
     </row>
     <row r="114">
@@ -5881,11 +5881,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1707361200</v>
+        <v>1711335600</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5894,34 +5894,34 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.70000076293945</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="F114" t="n">
-        <v>30.70101928710938</v>
+        <v>25.326171875</v>
       </c>
       <c r="G114" t="n">
-        <v>31.57595825195312</v>
+        <v>24.6070556640625</v>
       </c>
       <c r="H114" t="n">
-        <v>-73.02070617675781</v>
+        <v>-74.28889465332031</v>
       </c>
       <c r="I114" t="n">
-        <v>43.93494033813477</v>
+        <v>53.88495635986328</v>
       </c>
       <c r="J114" t="n">
-        <v>96604.875</v>
+        <v>96678.359375</v>
       </c>
       <c r="K114" t="n">
-        <v>87.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
-        <v>-1.792199611663818</v>
+        <v>3.684404134750366</v>
       </c>
       <c r="M114" t="n">
-        <v>-5.927016258239746</v>
+        <v>-5.766105651855469</v>
       </c>
       <c r="N114" t="n">
-        <v>11.20155239105225</v>
+        <v>10.72818660736084</v>
       </c>
     </row>
     <row r="115">
@@ -5929,11 +5929,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1707372000</v>
+        <v>1711346400</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5942,34 +5942,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>55.60000228881836</v>
+        <v>78.40000152587891</v>
       </c>
       <c r="F115" t="n">
-        <v>28.64208984375</v>
+        <v>25.6260986328125</v>
       </c>
       <c r="G115" t="n">
-        <v>27.82379150390625</v>
+        <v>25.17520141601562</v>
       </c>
       <c r="H115" t="n">
-        <v>-71.84782409667969</v>
+        <v>-69.01420593261719</v>
       </c>
       <c r="I115" t="n">
-        <v>46.02472305297852</v>
+        <v>51.15194320678711</v>
       </c>
       <c r="J115" t="n">
-        <v>96723.5625</v>
+        <v>96687.0390625</v>
       </c>
       <c r="K115" t="n">
         <v>99.70000457763672</v>
       </c>
       <c r="L115" t="n">
-        <v>2.112253427505493</v>
+        <v>-0.8433740139007568</v>
       </c>
       <c r="M115" t="n">
-        <v>-8.842592239379883</v>
+        <v>-4.414973258972168</v>
       </c>
       <c r="N115" t="n">
-        <v>12.30010986328125</v>
+        <v>8.10361385345459</v>
       </c>
     </row>
     <row r="116">
@@ -5977,11 +5977,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1707382800</v>
+        <v>1711357200</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5990,34 +5990,34 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>68.09999847412109</v>
+        <v>84.59999847412109</v>
       </c>
       <c r="F116" t="n">
-        <v>26.48333740234375</v>
+        <v>24.996337890625</v>
       </c>
       <c r="G116" t="n">
-        <v>25.531005859375</v>
+        <v>24.61013793945312</v>
       </c>
       <c r="H116" t="n">
-        <v>-69.22903442382812</v>
+        <v>-69.26467895507812</v>
       </c>
       <c r="I116" t="n">
-        <v>46.21073913574219</v>
+        <v>51.32753753662109</v>
       </c>
       <c r="J116" t="n">
-        <v>96692.1640625</v>
+        <v>96559.6875</v>
       </c>
       <c r="K116" t="n">
-        <v>97.80000305175781</v>
+        <v>45.60000228881836</v>
       </c>
       <c r="L116" t="n">
-        <v>3.415868997573853</v>
+        <v>2.116472005844116</v>
       </c>
       <c r="M116" t="n">
-        <v>-5.447414398193359</v>
+        <v>-2.251857757568359</v>
       </c>
       <c r="N116" t="n">
-        <v>9.719759941101074</v>
+        <v>5.307225704193115</v>
       </c>
     </row>
     <row r="117">
@@ -6025,11 +6025,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1707393600</v>
+        <v>1711368000</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6038,34 +6038,34 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>74.30000305175781</v>
+        <v>85.5</v>
       </c>
       <c r="F117" t="n">
-        <v>25.07843017578125</v>
+        <v>24.27731323242188</v>
       </c>
       <c r="G117" t="n">
-        <v>24.07638549804688</v>
+        <v>23.87478637695312</v>
       </c>
       <c r="H117" t="n">
-        <v>-69.20729064941406</v>
+        <v>-67.86563110351562</v>
       </c>
       <c r="I117" t="n">
-        <v>44.13653182983398</v>
+        <v>50.79848480224609</v>
       </c>
       <c r="J117" t="n">
-        <v>96835.9453125</v>
+        <v>96708.6875</v>
       </c>
       <c r="K117" t="n">
-        <v>71.20000457763672</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="L117" t="n">
-        <v>3.137660980224609</v>
+        <v>2.623293399810791</v>
       </c>
       <c r="M117" t="n">
-        <v>-5.280346393585205</v>
+        <v>-3.211349964141846</v>
       </c>
       <c r="N117" t="n">
-        <v>8.90000057220459</v>
+        <v>7.403759956359863</v>
       </c>
     </row>
     <row r="118">
@@ -6073,11 +6073,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1707404400</v>
+        <v>1711378800</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6086,34 +6086,34 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.60000228881836</v>
+        <v>61.29999923706055</v>
       </c>
       <c r="F118" t="n">
-        <v>29.4439697265625</v>
+        <v>28.95779418945312</v>
       </c>
       <c r="G118" t="n">
-        <v>26.83285522460938</v>
+        <v>26.77536010742188</v>
       </c>
       <c r="H118" t="n">
-        <v>-69.53555297851562</v>
+        <v>-65.68545532226562</v>
       </c>
       <c r="I118" t="n">
-        <v>43.67770385742188</v>
+        <v>48.41090774536133</v>
       </c>
       <c r="J118" t="n">
-        <v>96990.4296875</v>
+        <v>96860.375</v>
       </c>
       <c r="K118" t="n">
-        <v>24.5</v>
+        <v>5</v>
       </c>
       <c r="L118" t="n">
-        <v>2.530668973922729</v>
+        <v>1.120407700538635</v>
       </c>
       <c r="M118" t="n">
-        <v>-6.586051940917969</v>
+        <v>-5.626381874084473</v>
       </c>
       <c r="N118" t="n">
-        <v>7.599999904632568</v>
+        <v>6.901111602783203</v>
       </c>
     </row>
     <row r="119">
@@ -6121,11 +6121,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1707415200</v>
+        <v>1711389600</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6134,34 +6134,34 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>38.5</v>
+        <v>43.10000228881836</v>
       </c>
       <c r="F119" t="n">
-        <v>34.051025390625</v>
+        <v>33.60003662109375</v>
       </c>
       <c r="G119" t="n">
-        <v>31.39993286132812</v>
+        <v>30.76986694335938</v>
       </c>
       <c r="H119" t="n">
-        <v>-76.34814453125</v>
+        <v>-63.17610168457031</v>
       </c>
       <c r="I119" t="n">
-        <v>40.97991561889648</v>
+        <v>48.13199615478516</v>
       </c>
       <c r="J119" t="n">
-        <v>96759.2109375</v>
+        <v>96612.6171875</v>
       </c>
       <c r="K119" t="n">
-        <v>99</v>
+        <v>72.30000305175781</v>
       </c>
       <c r="L119" t="n">
-        <v>0.8872436285018921</v>
+        <v>-0.7264721393585205</v>
       </c>
       <c r="M119" t="n">
-        <v>-5.368999004364014</v>
+        <v>-6.299064636230469</v>
       </c>
       <c r="N119" t="n">
-        <v>5.813772678375244</v>
+        <v>7.504897594451904</v>
       </c>
     </row>
     <row r="120">
@@ -6169,11 +6169,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1707426000</v>
+        <v>1711400400</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6182,34 +6182,34 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.5</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="F120" t="n">
-        <v>35.40545654296875</v>
+        <v>30.9791259765625</v>
       </c>
       <c r="G120" t="n">
-        <v>32.963623046875</v>
+        <v>30.08920288085938</v>
       </c>
       <c r="H120" t="n">
-        <v>-75.57467651367188</v>
+        <v>-65.88630676269531</v>
       </c>
       <c r="I120" t="n">
-        <v>38.22666549682617</v>
+        <v>50.89026260375977</v>
       </c>
       <c r="J120" t="n">
-        <v>96518.734375</v>
+        <v>96394.7109375</v>
       </c>
       <c r="K120" t="n">
-        <v>30.80000114440918</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>-4.303898811340332</v>
+        <v>2.334897518157959</v>
       </c>
       <c r="M120" t="n">
-        <v>-3.954208850860596</v>
+        <v>-4.325251579284668</v>
       </c>
       <c r="N120" t="n">
-        <v>6.730733394622803</v>
+        <v>6.901187419891357</v>
       </c>
     </row>
     <row r="121">
@@ -6217,11 +6217,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1707436800</v>
+        <v>1711411200</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6230,34 +6230,34 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.20000076293945</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F121" t="n">
-        <v>33.25967407226562</v>
+        <v>28.66058349609375</v>
       </c>
       <c r="G121" t="n">
-        <v>32.88592529296875</v>
+        <v>28.19998168945312</v>
       </c>
       <c r="H121" t="n">
-        <v>-78.07283020019531</v>
+        <v>-60.61097717285156</v>
       </c>
       <c r="I121" t="n">
-        <v>37.45517730712891</v>
+        <v>50.77960586547852</v>
       </c>
       <c r="J121" t="n">
-        <v>96502.953125</v>
+        <v>96474</v>
       </c>
       <c r="K121" t="n">
-        <v>50.60000228881836</v>
+        <v>93.59999847412109</v>
       </c>
       <c r="L121" t="n">
-        <v>-3.527497529983521</v>
+        <v>5.765998363494873</v>
       </c>
       <c r="M121" t="n">
-        <v>-3.911098480224609</v>
+        <v>-3.506608724594116</v>
       </c>
       <c r="N121" t="n">
-        <v>7.212059020996094</v>
+        <v>10.60000038146973</v>
       </c>
     </row>
     <row r="122">
@@ -6265,11 +6265,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1707447600</v>
+        <v>1711422000</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6278,34 +6278,34 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43.60000228881836</v>
+        <v>71.40000152587891</v>
       </c>
       <c r="F122" t="n">
-        <v>30.42916870117188</v>
+        <v>26.91775512695312</v>
       </c>
       <c r="G122" t="n">
-        <v>31.63381958007812</v>
+        <v>26.43655395507812</v>
       </c>
       <c r="H122" t="n">
-        <v>-78.25959777832031</v>
+        <v>-56.14794921875</v>
       </c>
       <c r="I122" t="n">
-        <v>36.98302841186523</v>
+        <v>48.2215690612793</v>
       </c>
       <c r="J122" t="n">
-        <v>96626.203125</v>
+        <v>96699.3359375</v>
       </c>
       <c r="K122" t="n">
-        <v>76.5</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
-        <v>-1.402792930603027</v>
+        <v>5.356764793395996</v>
       </c>
       <c r="M122" t="n">
-        <v>-1.800402760505676</v>
+        <v>-4.39373779296875</v>
       </c>
       <c r="N122" t="n">
-        <v>2.404132604598999</v>
+        <v>11.01773834228516</v>
       </c>
     </row>
     <row r="123">
@@ -6313,11 +6313,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1707458400</v>
+        <v>1711432800</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6326,34 +6326,34 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.79999923706055</v>
+        <v>79.80000305175781</v>
       </c>
       <c r="F123" t="n">
-        <v>29.18264770507812</v>
+        <v>24.73861694335938</v>
       </c>
       <c r="G123" t="n">
-        <v>28.41534423828125</v>
+        <v>24.2955322265625</v>
       </c>
       <c r="H123" t="n">
-        <v>-78.44668579101562</v>
+        <v>-67.77449035644531</v>
       </c>
       <c r="I123" t="n">
-        <v>40.07795715332031</v>
+        <v>47.31552505493164</v>
       </c>
       <c r="J123" t="n">
-        <v>96719.53125</v>
+        <v>96741.4296875</v>
       </c>
       <c r="K123" t="n">
-        <v>98.90000152587891</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="L123" t="n">
-        <v>2.329960823059082</v>
+        <v>2.481606483459473</v>
       </c>
       <c r="M123" t="n">
-        <v>-7.571721076965332</v>
+        <v>-3.797304630279541</v>
       </c>
       <c r="N123" t="n">
-        <v>12.40003681182861</v>
+        <v>9.913357734680176</v>
       </c>
     </row>
     <row r="124">
@@ -6361,11 +6361,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1707469200</v>
+        <v>1711443600</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6374,34 +6374,34 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>63.5</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="F124" t="n">
-        <v>26.65704345703125</v>
+        <v>23.83526611328125</v>
       </c>
       <c r="G124" t="n">
-        <v>25.78656005859375</v>
+        <v>23.34271240234375</v>
       </c>
       <c r="H124" t="n">
-        <v>-78.55461120605469</v>
+        <v>-65.182861328125</v>
       </c>
       <c r="I124" t="n">
-        <v>40.95644760131836</v>
+        <v>47.44532012939453</v>
       </c>
       <c r="J124" t="n">
-        <v>96615.25</v>
+        <v>96616.6015625</v>
       </c>
       <c r="K124" t="n">
-        <v>26</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L124" t="n">
-        <v>3.62566876411438</v>
+        <v>2.753076076507568</v>
       </c>
       <c r="M124" t="n">
-        <v>-6.424233436584473</v>
+        <v>-3.98077130317688</v>
       </c>
       <c r="N124" t="n">
-        <v>11.20013427734375</v>
+        <v>10.10259246826172</v>
       </c>
     </row>
     <row r="125">
@@ -6409,11 +6409,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1707480000</v>
+        <v>1711454400</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6422,34 +6422,34 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>71.09999847412109</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="F125" t="n">
-        <v>24.70974731445312</v>
+        <v>23.45797729492188</v>
       </c>
       <c r="G125" t="n">
-        <v>23.87945556640625</v>
+        <v>22.87380981445312</v>
       </c>
       <c r="H125" t="n">
-        <v>-76.19482421875</v>
+        <v>-64.91656494140625</v>
       </c>
       <c r="I125" t="n">
-        <v>40.86786270141602</v>
+        <v>47.26699829101562</v>
       </c>
       <c r="J125" t="n">
-        <v>96735.765625</v>
+        <v>96764.546875</v>
       </c>
       <c r="K125" t="n">
-        <v>1.899999976158142</v>
+        <v>5</v>
       </c>
       <c r="L125" t="n">
-        <v>3.508227348327637</v>
+        <v>2.814094066619873</v>
       </c>
       <c r="M125" t="n">
-        <v>-4.862336158752441</v>
+        <v>-3.572490215301514</v>
       </c>
       <c r="N125" t="n">
-        <v>10.10828304290771</v>
+        <v>10.00203990936279</v>
       </c>
     </row>
     <row r="126">
@@ -6457,11 +6457,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1707490800</v>
+        <v>1711465200</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6470,34 +6470,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>56.29999923706055</v>
+        <v>60</v>
       </c>
       <c r="F126" t="n">
-        <v>29.86965942382812</v>
+        <v>29.06137084960938</v>
       </c>
       <c r="G126" t="n">
-        <v>27.2159423828125</v>
+        <v>26.66229248046875</v>
       </c>
       <c r="H126" t="n">
-        <v>-78.19717407226562</v>
+        <v>-62.50209045410156</v>
       </c>
       <c r="I126" t="n">
-        <v>41.1981315612793</v>
+        <v>48.28402328491211</v>
       </c>
       <c r="J126" t="n">
-        <v>96914.2734375</v>
+        <v>96954.4375</v>
       </c>
       <c r="K126" t="n">
-        <v>45.20000076293945</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="L126" t="n">
-        <v>0.475512683391571</v>
+        <v>3.069162607192993</v>
       </c>
       <c r="M126" t="n">
-        <v>-6.354423522949219</v>
+        <v>-6.861132621765137</v>
       </c>
       <c r="N126" t="n">
-        <v>6.91096830368042</v>
+        <v>9.21097469329834</v>
       </c>
     </row>
     <row r="127">
@@ -6505,11 +6505,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1707501600</v>
+        <v>1711476000</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.70000076293945</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="F127" t="n">
-        <v>33.02688598632812</v>
+        <v>31.842041015625</v>
       </c>
       <c r="G127" t="n">
-        <v>30.81594848632812</v>
+        <v>29.97988891601562</v>
       </c>
       <c r="H127" t="n">
-        <v>-79.07717895507812</v>
+        <v>-58.20408630371094</v>
       </c>
       <c r="I127" t="n">
-        <v>42.32819747924805</v>
+        <v>48.17132186889648</v>
       </c>
       <c r="J127" t="n">
-        <v>96725.234375</v>
+        <v>96688.4921875</v>
       </c>
       <c r="K127" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.3731884658336639</v>
+        <v>0.4609375</v>
       </c>
       <c r="M127" t="n">
-        <v>-5.040971755981445</v>
+        <v>-7.003525257110596</v>
       </c>
       <c r="N127" t="n">
-        <v>5.503352642059326</v>
+        <v>8.026108741760254</v>
       </c>
     </row>
     <row r="128">
@@ -6553,11 +6553,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1707512400</v>
+        <v>1711486800</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6566,34 +6566,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.29999923706055</v>
+        <v>45.90000152587891</v>
       </c>
       <c r="F128" t="n">
-        <v>32.95584106445312</v>
+        <v>31.71932983398438</v>
       </c>
       <c r="G128" t="n">
-        <v>31.17437744140625</v>
+        <v>30.49188232421875</v>
       </c>
       <c r="H128" t="n">
-        <v>-79.82463073730469</v>
+        <v>-66.21243286132812</v>
       </c>
       <c r="I128" t="n">
-        <v>42.41059494018555</v>
+        <v>47.68732833862305</v>
       </c>
       <c r="J128" t="n">
-        <v>96534.9765625</v>
+        <v>96455.203125</v>
       </c>
       <c r="K128" t="n">
-        <v>95</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.9144970774650574</v>
+        <v>5.245863914489746</v>
       </c>
       <c r="M128" t="n">
-        <v>-4.479841232299805</v>
+        <v>-4.499792575836182</v>
       </c>
       <c r="N128" t="n">
-        <v>5.305087566375732</v>
+        <v>7.622827053070068</v>
       </c>
     </row>
     <row r="129">
@@ -6601,11 +6601,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1707523200</v>
+        <v>1711497600</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6614,34 +6614,34 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.40000152587891</v>
+        <v>68.30000305175781</v>
       </c>
       <c r="F129" t="n">
-        <v>32.20346069335938</v>
+        <v>27.00747680664062</v>
       </c>
       <c r="G129" t="n">
-        <v>31.74728393554688</v>
+        <v>26.26910400390625</v>
       </c>
       <c r="H129" t="n">
-        <v>-79.16685485839844</v>
+        <v>-66.59884643554688</v>
       </c>
       <c r="I129" t="n">
-        <v>40.89486694335938</v>
+        <v>50.58216094970703</v>
       </c>
       <c r="J129" t="n">
-        <v>96535.328125</v>
+        <v>96575.8359375</v>
       </c>
       <c r="K129" t="n">
-        <v>86.20000457763672</v>
+        <v>74.59999847412109</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2483422756195068</v>
+        <v>6.015703201293945</v>
       </c>
       <c r="M129" t="n">
-        <v>-2.773190975189209</v>
+        <v>-4.768110275268555</v>
       </c>
       <c r="N129" t="n">
-        <v>3.501576662063599</v>
+        <v>10.00127029418945</v>
       </c>
     </row>
     <row r="130">
@@ -6649,11 +6649,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1707534000</v>
+        <v>1711508400</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>27/03/2024</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6662,34 +6662,34 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.40000152587891</v>
+        <v>70.80000305175781</v>
       </c>
       <c r="F130" t="n">
-        <v>30.18182373046875</v>
+        <v>26.3193359375</v>
       </c>
       <c r="G130" t="n">
-        <v>30.9176025390625</v>
+        <v>25.85330200195312</v>
       </c>
       <c r="H130" t="n">
-        <v>-76.49349975585938</v>
+        <v>-64.327392578125</v>
       </c>
       <c r="I130" t="n">
-        <v>41.3398551940918</v>
+        <v>51.0867805480957</v>
       </c>
       <c r="J130" t="n">
-        <v>96668.4609375</v>
+        <v>96734.5390625</v>
       </c>
       <c r="K130" t="n">
-        <v>28.30000114440918</v>
+        <v>35.20000076293945</v>
       </c>
       <c r="L130" t="n">
-        <v>-1.158969759941101</v>
+        <v>4.416375637054443</v>
       </c>
       <c r="M130" t="n">
-        <v>-3.217805147171021</v>
+        <v>-4.44655179977417</v>
       </c>
       <c r="N130" t="n">
-        <v>3.814471960067749</v>
+        <v>12.10302066802979</v>
       </c>
     </row>
   </sheetData>

--- a/data_info/JUAZEIRO_BA.xlsx
+++ b/data_info/JUAZEIRO_BA.xlsx
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1710126000</v>
+        <v>1732417200</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,34 +518,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.70000076293945</v>
+        <v>43.10000228881836</v>
       </c>
       <c r="F2" t="n">
-        <v>30.2615966796875</v>
+        <v>32.310302734375</v>
       </c>
       <c r="G2" t="n">
-        <v>30.94412231445312</v>
+        <v>31.24884033203125</v>
       </c>
       <c r="H2" t="n">
-        <v>-31.50137329101562</v>
+        <v>-57.31727600097656</v>
       </c>
       <c r="I2" t="n">
-        <v>32.3817138671875</v>
+        <v>38.58697128295898</v>
       </c>
       <c r="J2" t="n">
-        <v>96785.0859375</v>
+        <v>96561.390625</v>
       </c>
       <c r="K2" t="n">
-        <v>17.5</v>
+        <v>63.90000152587891</v>
       </c>
       <c r="L2" t="n">
-        <v>1.899323701858521</v>
+        <v>3.357895374298096</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.404584884643555</v>
+        <v>2.653393507003784</v>
       </c>
       <c r="N2" t="n">
-        <v>5.404507160186768</v>
+        <v>5.604666709899902</v>
       </c>
     </row>
     <row r="3">
@@ -553,11 +553,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1710136800</v>
+        <v>1732428000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>51.90000152587891</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="F3" t="n">
-        <v>29.90786743164062</v>
+        <v>28.75750732421875</v>
       </c>
       <c r="G3" t="n">
-        <v>29.35748291015625</v>
+        <v>27.79840087890625</v>
       </c>
       <c r="H3" t="n">
-        <v>-45.44091796875</v>
+        <v>-47.47669982910156</v>
       </c>
       <c r="I3" t="n">
-        <v>33.77707290649414</v>
+        <v>37.09287261962891</v>
       </c>
       <c r="J3" t="n">
-        <v>96792.7109375</v>
+        <v>96561.7421875</v>
       </c>
       <c r="K3" t="n">
-        <v>64.30000305175781</v>
+        <v>17.30000114440918</v>
       </c>
       <c r="L3" t="n">
-        <v>1.822380304336548</v>
+        <v>4.03515625</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.700617551803589</v>
+        <v>0.9570288062095642</v>
       </c>
       <c r="N3" t="n">
-        <v>6.403215885162354</v>
+        <v>5.099999904632568</v>
       </c>
     </row>
     <row r="4">
@@ -601,11 +601,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1710147600</v>
+        <v>1732438800</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -614,34 +614,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>61.29999923706055</v>
+        <v>61.70000076293945</v>
       </c>
       <c r="F4" t="n">
-        <v>28.48336791992188</v>
+        <v>27.501220703125</v>
       </c>
       <c r="G4" t="n">
-        <v>27.94854736328125</v>
+        <v>26.46316528320312</v>
       </c>
       <c r="H4" t="n">
-        <v>-18.8935546875</v>
+        <v>-69.34187316894531</v>
       </c>
       <c r="I4" t="n">
-        <v>36.22830963134766</v>
+        <v>42.41154861450195</v>
       </c>
       <c r="J4" t="n">
-        <v>96705.5390625</v>
+        <v>96534.390625</v>
       </c>
       <c r="K4" t="n">
-        <v>60.90000152587891</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="L4" t="n">
-        <v>1.174689888954163</v>
+        <v>3.796093702316284</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.598769426345825</v>
+        <v>-3.563681602478027</v>
       </c>
       <c r="N4" t="n">
-        <v>6.404837131500244</v>
+        <v>6.106835842132568</v>
       </c>
     </row>
     <row r="5">
@@ -649,11 +649,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1710158400</v>
+        <v>1732449600</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,34 +662,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>71.5</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="F5" t="n">
-        <v>26.25506591796875</v>
+        <v>26.23074340820312</v>
       </c>
       <c r="G5" t="n">
-        <v>25.82186889648438</v>
+        <v>24.91177368164062</v>
       </c>
       <c r="H5" t="n">
-        <v>-17.88449096679688</v>
+        <v>-67.21707153320312</v>
       </c>
       <c r="I5" t="n">
-        <v>35.09870529174805</v>
+        <v>43.41676330566406</v>
       </c>
       <c r="J5" t="n">
-        <v>96817.59375</v>
+        <v>96660.03125</v>
       </c>
       <c r="K5" t="n">
-        <v>2.600000143051147</v>
+        <v>41.10000228881836</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8987329006195068</v>
+        <v>3.730327129364014</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.71600079536438</v>
+        <v>-4.789247989654541</v>
       </c>
       <c r="N5" t="n">
-        <v>6.610833644866943</v>
+        <v>6.700294017791748</v>
       </c>
     </row>
     <row r="6">
@@ -697,11 +697,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1710169200</v>
+        <v>1732460400</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -710,34 +710,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50.90000152587891</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="F6" t="n">
-        <v>31.03451538085938</v>
+        <v>31.29281616210938</v>
       </c>
       <c r="G6" t="n">
-        <v>28.62380981445312</v>
+        <v>28.86984252929688</v>
       </c>
       <c r="H6" t="n">
-        <v>-22.67037963867188</v>
+        <v>-67.91542053222656</v>
       </c>
       <c r="I6" t="n">
-        <v>33.75528335571289</v>
+        <v>44.49257659912109</v>
       </c>
       <c r="J6" t="n">
-        <v>96946.4921875</v>
+        <v>96755.6796875</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="L6" t="n">
-        <v>0.129669189453125</v>
+        <v>2.437619686126709</v>
       </c>
       <c r="M6" t="n">
-        <v>-4.724787712097168</v>
+        <v>-3.384501934051514</v>
       </c>
       <c r="N6" t="n">
-        <v>4.837870121002197</v>
+        <v>3.5001220703125</v>
       </c>
     </row>
     <row r="7">
@@ -745,11 +745,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1710180000</v>
+        <v>1732471200</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -758,34 +758,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35.70000076293945</v>
+        <v>37.10000228881836</v>
       </c>
       <c r="F7" t="n">
-        <v>35.29254150390625</v>
+        <v>33.93917846679688</v>
       </c>
       <c r="G7" t="n">
-        <v>32.76272583007812</v>
+        <v>32.32412719726562</v>
       </c>
       <c r="H7" t="n">
-        <v>-17.16586303710938</v>
+        <v>-66.74957275390625</v>
       </c>
       <c r="I7" t="n">
-        <v>32.8981819152832</v>
+        <v>45.21443557739258</v>
       </c>
       <c r="J7" t="n">
-        <v>96742.4296875</v>
+        <v>96579.0859375</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1900317370891571</v>
+        <v>-0.2566039860248566</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.12908935546875</v>
+        <v>-0.637158215045929</v>
       </c>
       <c r="N7" t="n">
-        <v>3.346468448638916</v>
+        <v>0.9012817740440369</v>
       </c>
     </row>
     <row r="8">
@@ -793,11 +793,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1710190800</v>
+        <v>1732482000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -806,34 +806,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F8" t="n">
-        <v>37.69253540039062</v>
+        <v>34.32159423828125</v>
       </c>
       <c r="G8" t="n">
-        <v>35.48745727539062</v>
+        <v>32.51541137695312</v>
       </c>
       <c r="H8" t="n">
-        <v>-57.89016723632812</v>
+        <v>-66.926513671875</v>
       </c>
       <c r="I8" t="n">
-        <v>34.41392517089844</v>
+        <v>44.33028793334961</v>
       </c>
       <c r="J8" t="n">
-        <v>96463.3984375</v>
+        <v>96406.5546875</v>
       </c>
       <c r="K8" t="n">
-        <v>26.30000114440918</v>
+        <v>20.39999961853027</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.7091833353042603</v>
+        <v>-2.775036573410034</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.279257774353027</v>
+        <v>-0.7588085532188416</v>
       </c>
       <c r="N8" t="n">
-        <v>3.815305471420288</v>
+        <v>2.213471174240112</v>
       </c>
     </row>
     <row r="9">
@@ -841,11 +841,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1710201600</v>
+        <v>1732492800</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,34 +854,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.30000114440918</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="F9" t="n">
-        <v>35.08856201171875</v>
+        <v>33.80001831054688</v>
       </c>
       <c r="G9" t="n">
-        <v>35.89068603515625</v>
+        <v>32.68072509765625</v>
       </c>
       <c r="H9" t="n">
-        <v>-45.62203979492188</v>
+        <v>-63.97837829589844</v>
       </c>
       <c r="I9" t="n">
-        <v>34.77939987182617</v>
+        <v>45.43422698974609</v>
       </c>
       <c r="J9" t="n">
-        <v>96498.9609375</v>
+        <v>96443.8125</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>95.09999847412109</v>
       </c>
       <c r="L9" t="n">
-        <v>2.085406541824341</v>
+        <v>1.65310537815094</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.570336818695068</v>
+        <v>-1.166298747062683</v>
       </c>
       <c r="N9" t="n">
-        <v>3.607076644897461</v>
+        <v>1.917602181434631</v>
       </c>
     </row>
     <row r="10">
@@ -889,11 +889,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1710212400</v>
+        <v>1732503600</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -902,34 +902,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.20000076293945</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="F10" t="n">
-        <v>32.96261596679688</v>
+        <v>29.04129028320312</v>
       </c>
       <c r="G10" t="n">
-        <v>33.4381103515625</v>
+        <v>27.98001098632812</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.72799682617188</v>
+        <v>-70.33934020996094</v>
       </c>
       <c r="I10" t="n">
-        <v>31.70757102966309</v>
+        <v>44.87966918945312</v>
       </c>
       <c r="J10" t="n">
-        <v>96725.90625</v>
+        <v>96681.703125</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L10" t="n">
-        <v>3.053376436233521</v>
+        <v>4.750319480895996</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.665703058242798</v>
+        <v>-4.558322429656982</v>
       </c>
       <c r="N10" t="n">
-        <v>6.205789089202881</v>
+        <v>8.611517906188965</v>
       </c>
     </row>
     <row r="11">
@@ -937,11 +937,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1710223200</v>
+        <v>1732514400</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -950,34 +950,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.20000076293945</v>
+        <v>76.5</v>
       </c>
       <c r="F11" t="n">
-        <v>30.25387573242188</v>
+        <v>26.04330444335938</v>
       </c>
       <c r="G11" t="n">
-        <v>30.90988159179688</v>
+        <v>24.70681762695312</v>
       </c>
       <c r="H11" t="n">
-        <v>-25.17449951171875</v>
+        <v>-74.55857849121094</v>
       </c>
       <c r="I11" t="n">
-        <v>36.13936614990234</v>
+        <v>47.95082092285156</v>
       </c>
       <c r="J11" t="n">
-        <v>96850.5859375</v>
+        <v>96790.4375</v>
       </c>
       <c r="K11" t="n">
-        <v>78.59999847412109</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.519082069396973</v>
+        <v>7.651230335235596</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.209665521979332</v>
+        <v>-7.266467094421387</v>
       </c>
       <c r="N11" t="n">
-        <v>2.917300224304199</v>
+        <v>12.20292949676514</v>
       </c>
     </row>
     <row r="12">
@@ -985,11 +985,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1710234000</v>
+        <v>1732525200</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,34 +998,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>46.40000152587891</v>
+        <v>79.70000457763672</v>
       </c>
       <c r="F12" t="n">
-        <v>27.80001831054688</v>
+        <v>24.6495361328125</v>
       </c>
       <c r="G12" t="n">
-        <v>27.94308471679688</v>
+        <v>23.4322509765625</v>
       </c>
       <c r="H12" t="n">
-        <v>-42.67826843261719</v>
+        <v>-74.70375061035156</v>
       </c>
       <c r="I12" t="n">
-        <v>32.50309753417969</v>
+        <v>48.66259765625</v>
       </c>
       <c r="J12" t="n">
-        <v>96795.9609375</v>
+        <v>96793.4140625</v>
       </c>
       <c r="K12" t="n">
         <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>2.350502967834473</v>
+        <v>6.476493835449219</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.862631797790527</v>
+        <v>-5.973039627075195</v>
       </c>
       <c r="N12" t="n">
-        <v>6.726025581359863</v>
+        <v>12.10605907440186</v>
       </c>
     </row>
     <row r="13">
@@ -1033,11 +1033,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1710244800</v>
+        <v>1732536000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1046,34 +1046,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.20000457763672</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="F13" t="n">
-        <v>25.39999389648438</v>
+        <v>24.46908569335938</v>
       </c>
       <c r="G13" t="n">
-        <v>25.20053100585938</v>
+        <v>23.21258544921875</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.2586669921875</v>
+        <v>-74.44471740722656</v>
       </c>
       <c r="I13" t="n">
-        <v>32.1172981262207</v>
+        <v>48.85785675048828</v>
       </c>
       <c r="J13" t="n">
-        <v>96951.890625</v>
+        <v>96938.9453125</v>
       </c>
       <c r="K13" t="n">
-        <v>5.700000286102295</v>
+        <v>78.80000305175781</v>
       </c>
       <c r="L13" t="n">
-        <v>1.456397652626038</v>
+        <v>5.84478235244751</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.243124961853027</v>
+        <v>-5.715253829956055</v>
       </c>
       <c r="N13" t="n">
-        <v>6.503613471984863</v>
+        <v>11.50802040100098</v>
       </c>
     </row>
     <row r="14">
@@ -1081,11 +1081,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1710255600</v>
+        <v>1732546800</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1094,34 +1094,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>54.60000228881836</v>
+        <v>68.80000305175781</v>
       </c>
       <c r="F14" t="n">
-        <v>31.22549438476562</v>
+        <v>26.48648071289062</v>
       </c>
       <c r="G14" t="n">
-        <v>28.66439819335938</v>
+        <v>24.74005126953125</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.45846557617188</v>
+        <v>-73.83280944824219</v>
       </c>
       <c r="I14" t="n">
-        <v>35.37842559814453</v>
+        <v>48.36125946044922</v>
       </c>
       <c r="J14" t="n">
-        <v>97059.4140625</v>
+        <v>97080.890625</v>
       </c>
       <c r="K14" t="n">
-        <v>5.200000286102295</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="L14" t="n">
-        <v>1.360720157623291</v>
+        <v>5.3079514503479</v>
       </c>
       <c r="M14" t="n">
-        <v>-5.30044412612915</v>
+        <v>-6.93865442276001</v>
       </c>
       <c r="N14" t="n">
-        <v>5.710472106933594</v>
+        <v>9.701359748840332</v>
       </c>
     </row>
     <row r="15">
@@ -1129,11 +1129,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1710266400</v>
+        <v>1732557600</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1142,34 +1142,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.40000152587891</v>
+        <v>49</v>
       </c>
       <c r="F15" t="n">
-        <v>35.86111450195312</v>
+        <v>31.44515991210938</v>
       </c>
       <c r="G15" t="n">
-        <v>33.1744384765625</v>
+        <v>28.53097534179688</v>
       </c>
       <c r="H15" t="n">
-        <v>-77.94758605957031</v>
+        <v>-67.43983459472656</v>
       </c>
       <c r="I15" t="n">
-        <v>37.14982223510742</v>
+        <v>48.28707504272461</v>
       </c>
       <c r="J15" t="n">
-        <v>96799.2265625</v>
+        <v>96874.0625</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.03041503764688969</v>
+        <v>3.586938381195068</v>
       </c>
       <c r="M15" t="n">
-        <v>-4.095993518829346</v>
+        <v>-6.131147384643555</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7308349609375</v>
+        <v>7.329635143280029</v>
       </c>
     </row>
     <row r="16">
@@ -1177,11 +1177,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1710277200</v>
+        <v>1732568400</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1190,34 +1190,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.70000076293945</v>
+        <v>43.10000228881836</v>
       </c>
       <c r="F16" t="n">
-        <v>38.57785034179688</v>
+        <v>32.63482666015625</v>
       </c>
       <c r="G16" t="n">
-        <v>36.30599975585938</v>
+        <v>30.7255859375</v>
       </c>
       <c r="H16" t="n">
-        <v>-77.19313049316406</v>
+        <v>-68.0479736328125</v>
       </c>
       <c r="I16" t="n">
-        <v>37.34007263183594</v>
+        <v>49.08111572265625</v>
       </c>
       <c r="J16" t="n">
-        <v>96429.9296875</v>
+        <v>96609.9296875</v>
       </c>
       <c r="K16" t="n">
-        <v>84.80000305175781</v>
+        <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9606347680091858</v>
+        <v>1.296123027801514</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.005688190460205</v>
+        <v>-6.121894359588623</v>
       </c>
       <c r="N16" t="n">
-        <v>4.510867118835449</v>
+        <v>6.411843299865723</v>
       </c>
     </row>
     <row r="17">
@@ -1225,11 +1225,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1710288000</v>
+        <v>1732579200</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1238,34 +1238,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32.20000076293945</v>
+        <v>59.60000228881836</v>
       </c>
       <c r="F17" t="n">
-        <v>34.71212768554688</v>
+        <v>28.86187744140625</v>
       </c>
       <c r="G17" t="n">
-        <v>35.13003540039062</v>
+        <v>27.64788818359375</v>
       </c>
       <c r="H17" t="n">
-        <v>-75.20208740234375</v>
+        <v>-60.43928527832031</v>
       </c>
       <c r="I17" t="n">
-        <v>36.15592956542969</v>
+        <v>49.08018493652344</v>
       </c>
       <c r="J17" t="n">
-        <v>96506.28125</v>
+        <v>96718.1015625</v>
       </c>
       <c r="K17" t="n">
-        <v>82.30000305175781</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08473632484674454</v>
+        <v>6.670372009277344</v>
       </c>
       <c r="M17" t="n">
-        <v>-5.479121208190918</v>
+        <v>-5.492089748382568</v>
       </c>
       <c r="N17" t="n">
-        <v>8.501456260681152</v>
+        <v>9.523452758789062</v>
       </c>
     </row>
     <row r="18">
@@ -1273,11 +1273,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1710298800</v>
+        <v>1732590000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>40.40000152587891</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="F18" t="n">
-        <v>31.43472290039062</v>
+        <v>26.86041259765625</v>
       </c>
       <c r="G18" t="n">
-        <v>32.40548706054688</v>
+        <v>25.71542358398438</v>
       </c>
       <c r="H18" t="n">
-        <v>-75.18539428710938</v>
+        <v>-55.19865417480469</v>
       </c>
       <c r="I18" t="n">
-        <v>37.82819366455078</v>
+        <v>47.38737869262695</v>
       </c>
       <c r="J18" t="n">
-        <v>96720.2265625</v>
+        <v>96837.9609375</v>
       </c>
       <c r="K18" t="n">
-        <v>30.39999961853027</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="L18" t="n">
-        <v>1.082819819450378</v>
+        <v>6.978935241699219</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.391372203826904</v>
+        <v>-5.300002098083496</v>
       </c>
       <c r="N18" t="n">
-        <v>8.533462524414062</v>
+        <v>11.72280883789062</v>
       </c>
     </row>
     <row r="19">
@@ -1321,11 +1321,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1710309600</v>
+        <v>1732600800</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1334,34 +1334,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.90000152587891</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>29.51837158203125</v>
+        <v>24.94601440429688</v>
       </c>
       <c r="G19" t="n">
-        <v>28.94955444335938</v>
+        <v>23.79058837890625</v>
       </c>
       <c r="H19" t="n">
-        <v>-75.43992614746094</v>
+        <v>-77.58438110351562</v>
       </c>
       <c r="I19" t="n">
-        <v>44.46048736572266</v>
+        <v>47.99199295043945</v>
       </c>
       <c r="J19" t="n">
-        <v>96855.5234375</v>
+        <v>96869.625</v>
       </c>
       <c r="K19" t="n">
-        <v>70.20000457763672</v>
+        <v>99.20000457763672</v>
       </c>
       <c r="L19" t="n">
-        <v>2.252038478851318</v>
+        <v>5.4039306640625</v>
       </c>
       <c r="M19" t="n">
-        <v>-7.975532054901123</v>
+        <v>-6.712756156921387</v>
       </c>
       <c r="N19" t="n">
-        <v>13.11472797393799</v>
+        <v>12.52960205078125</v>
       </c>
     </row>
     <row r="20">
@@ -1369,11 +1369,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1710320400</v>
+        <v>1732611600</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>73.20000457763672</v>
+        <v>78.20000457763672</v>
       </c>
       <c r="F20" t="n">
-        <v>26.92147827148438</v>
+        <v>24.36529541015625</v>
       </c>
       <c r="G20" t="n">
-        <v>26.56637573242188</v>
+        <v>23.25787353515625</v>
       </c>
       <c r="H20" t="n">
-        <v>-77.18998718261719</v>
+        <v>-57.43864440917969</v>
       </c>
       <c r="I20" t="n">
-        <v>50.15805053710938</v>
+        <v>48.49060440063477</v>
       </c>
       <c r="J20" t="n">
-        <v>96769.953125</v>
+        <v>96827.2109375</v>
       </c>
       <c r="K20" t="n">
-        <v>77.80000305175781</v>
+        <v>98</v>
       </c>
       <c r="L20" t="n">
-        <v>2.975693225860596</v>
+        <v>5.097475528717041</v>
       </c>
       <c r="M20" t="n">
-        <v>-4.3218674659729</v>
+        <v>-5.372724533081055</v>
       </c>
       <c r="N20" t="n">
-        <v>8.000807762145996</v>
+        <v>10.60361480712891</v>
       </c>
     </row>
     <row r="21">
@@ -1417,11 +1417,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1710331200</v>
+        <v>1732622400</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1430,34 +1430,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>78.09999847412109</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="F21" t="n">
-        <v>25.60000610351562</v>
+        <v>24.3511962890625</v>
       </c>
       <c r="G21" t="n">
-        <v>25.12551879882812</v>
+        <v>23.09017944335938</v>
       </c>
       <c r="H21" t="n">
-        <v>-78.05111694335938</v>
+        <v>-50.03031921386719</v>
       </c>
       <c r="I21" t="n">
-        <v>49.29075622558594</v>
+        <v>48.04374694824219</v>
       </c>
       <c r="J21" t="n">
-        <v>96901</v>
+        <v>96991.625</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>3.439924240112305</v>
+        <v>5.175570964813232</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.969331026077271</v>
+        <v>-6.509233474731445</v>
       </c>
       <c r="N21" t="n">
-        <v>8.8001708984375</v>
+        <v>10.91779232025146</v>
       </c>
     </row>
     <row r="22">
@@ -1465,11 +1465,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1710342000</v>
+        <v>1732633200</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1478,34 +1478,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>57.79999923706055</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="F22" t="n">
-        <v>30.70355224609375</v>
+        <v>27.02056884765625</v>
       </c>
       <c r="G22" t="n">
-        <v>28.19674682617188</v>
+        <v>25.03009033203125</v>
       </c>
       <c r="H22" t="n">
-        <v>-69.58984375</v>
+        <v>-50.555908203125</v>
       </c>
       <c r="I22" t="n">
-        <v>47.63838195800781</v>
+        <v>47.7242546081543</v>
       </c>
       <c r="J22" t="n">
-        <v>97030.9140625</v>
+        <v>97122.375</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>48.60000228881836</v>
       </c>
       <c r="L22" t="n">
-        <v>1.718725562095642</v>
+        <v>3.778637647628784</v>
       </c>
       <c r="M22" t="n">
-        <v>-5.315827369689941</v>
+        <v>-6.317980766296387</v>
       </c>
       <c r="N22" t="n">
-        <v>6.006692886352539</v>
+        <v>8.423336982727051</v>
       </c>
     </row>
     <row r="23">
@@ -1513,11 +1513,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1710352800</v>
+        <v>1732644000</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1526,34 +1526,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>41.29999923706055</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="F23" t="n">
-        <v>34.78475952148438</v>
+        <v>31.23895263671875</v>
       </c>
       <c r="G23" t="n">
-        <v>32.25262451171875</v>
+        <v>29.09994506835938</v>
       </c>
       <c r="H23" t="n">
-        <v>-66.31452941894531</v>
+        <v>-64.275634765625</v>
       </c>
       <c r="I23" t="n">
-        <v>50.3062629699707</v>
+        <v>47.53659820556641</v>
       </c>
       <c r="J23" t="n">
-        <v>96793.8515625</v>
+        <v>96835.078125</v>
       </c>
       <c r="K23" t="n">
-        <v>99.30000305175781</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>0.97509765625</v>
+        <v>1.512277841567993</v>
       </c>
       <c r="M23" t="n">
-        <v>-4.540976524353027</v>
+        <v>-5.556838035583496</v>
       </c>
       <c r="N23" t="n">
-        <v>4.919258117675781</v>
+        <v>6.313326835632324</v>
       </c>
     </row>
     <row r="24">
@@ -1561,11 +1561,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1710363600</v>
+        <v>1732654800</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1574,34 +1574,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.60000228881836</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="F24" t="n">
-        <v>34.3538818359375</v>
+        <v>31.27340698242188</v>
       </c>
       <c r="G24" t="n">
-        <v>32.62750244140625</v>
+        <v>29.84683227539062</v>
       </c>
       <c r="H24" t="n">
-        <v>-74.58808898925781</v>
+        <v>-59.84779357910156</v>
       </c>
       <c r="I24" t="n">
-        <v>48.79841613769531</v>
+        <v>46.48480987548828</v>
       </c>
       <c r="J24" t="n">
-        <v>96540.546875</v>
+        <v>96577.78125</v>
       </c>
       <c r="K24" t="n">
-        <v>96.40000152587891</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="L24" t="n">
-        <v>1.096828579902649</v>
+        <v>1.202875971794128</v>
       </c>
       <c r="M24" t="n">
-        <v>-4.473727703094482</v>
+        <v>-4.472785472869873</v>
       </c>
       <c r="N24" t="n">
-        <v>5.707476139068604</v>
+        <v>5.410962581634521</v>
       </c>
     </row>
     <row r="25">
@@ -1609,11 +1609,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1710374400</v>
+        <v>1732665600</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1622,34 +1622,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43.20000076293945</v>
+        <v>46.60000228881836</v>
       </c>
       <c r="F25" t="n">
-        <v>32.10775756835938</v>
+        <v>31.06265258789062</v>
       </c>
       <c r="G25" t="n">
-        <v>32.08706665039062</v>
+        <v>30.18997192382812</v>
       </c>
       <c r="H25" t="n">
-        <v>-78.16067504882812</v>
+        <v>-54.00572204589844</v>
       </c>
       <c r="I25" t="n">
-        <v>48.06499862670898</v>
+        <v>45.36610794067383</v>
       </c>
       <c r="J25" t="n">
-        <v>96528.203125</v>
+        <v>96644.390625</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>1.085930109024048</v>
+        <v>1.264399409294128</v>
       </c>
       <c r="M25" t="n">
-        <v>-5.1329026222229</v>
+        <v>-4.521525859832764</v>
       </c>
       <c r="N25" t="n">
-        <v>8.209567070007324</v>
+        <v>6.3074049949646</v>
       </c>
     </row>
     <row r="26">
@@ -1657,11 +1657,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1710385200</v>
+        <v>1732676400</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49.10000228881836</v>
+        <v>55.29999923706055</v>
       </c>
       <c r="F26" t="n">
-        <v>31.0064697265625</v>
+        <v>29.2764892578125</v>
       </c>
       <c r="G26" t="n">
-        <v>30.79486083984375</v>
+        <v>28.27481079101562</v>
       </c>
       <c r="H26" t="n">
-        <v>-77.85598754882812</v>
+        <v>-68.63592529296875</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99920654296875</v>
+        <v>42.79841995239258</v>
       </c>
       <c r="J26" t="n">
-        <v>96715.859375</v>
+        <v>96712.75</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.56475830078125</v>
+        <v>7.334946155548096</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.760886192321777</v>
+        <v>-4.162053108215332</v>
       </c>
       <c r="N26" t="n">
-        <v>5.119764804840088</v>
+        <v>10.01029491424561</v>
       </c>
     </row>
     <row r="27">
@@ -1705,11 +1705,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1710396000</v>
+        <v>1732687200</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1718,34 +1718,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>59.70000076293945</v>
+        <v>74.20000457763672</v>
       </c>
       <c r="F27" t="n">
-        <v>28.51895141601562</v>
+        <v>25.64401245117188</v>
       </c>
       <c r="G27" t="n">
-        <v>28.03152465820312</v>
+        <v>24.61648559570312</v>
       </c>
       <c r="H27" t="n">
-        <v>-59.76155090332031</v>
+        <v>-69.69137573242188</v>
       </c>
       <c r="I27" t="n">
-        <v>50.57558059692383</v>
+        <v>44.53827285766602</v>
       </c>
       <c r="J27" t="n">
-        <v>96820.6015625</v>
+        <v>96720.8359375</v>
       </c>
       <c r="K27" t="n">
-        <v>99.59999847412109</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3132885694503784</v>
+        <v>6.041020393371582</v>
       </c>
       <c r="M27" t="n">
-        <v>-4.778093338012695</v>
+        <v>-7.399355411529541</v>
       </c>
       <c r="N27" t="n">
-        <v>7.507712841033936</v>
+        <v>13.00740528106689</v>
       </c>
     </row>
     <row r="28">
@@ -1753,11 +1753,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1710406800</v>
+        <v>1732698000</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1766,34 +1766,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>84.09999847412109</v>
+        <v>79.90000152587891</v>
       </c>
       <c r="F28" t="n">
-        <v>25.136474609375</v>
+        <v>24.3258056640625</v>
       </c>
       <c r="G28" t="n">
-        <v>24.84036254882812</v>
+        <v>23.32080078125</v>
       </c>
       <c r="H28" t="n">
-        <v>-60.34849548339844</v>
+        <v>-68.3212890625</v>
       </c>
       <c r="I28" t="n">
-        <v>51.88828277587891</v>
+        <v>45.4826774597168</v>
       </c>
       <c r="J28" t="n">
-        <v>96733.9140625</v>
+        <v>96659.1171875</v>
       </c>
       <c r="K28" t="n">
-        <v>25.39999961853027</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="L28" t="n">
-        <v>3.081733226776123</v>
+        <v>4.711476802825928</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.209230899810791</v>
+        <v>-5.68704080581665</v>
       </c>
       <c r="N28" t="n">
-        <v>8.216784477233887</v>
+        <v>11.10308837890625</v>
       </c>
     </row>
     <row r="29">
@@ -1801,11 +1801,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1710417600</v>
+        <v>1732708800</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1814,34 +1814,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>86.40000152587891</v>
+        <v>77.30000305175781</v>
       </c>
       <c r="F29" t="n">
-        <v>24.8006591796875</v>
+        <v>24.87240600585938</v>
       </c>
       <c r="G29" t="n">
-        <v>24.34124755859375</v>
+        <v>23.5711669921875</v>
       </c>
       <c r="H29" t="n">
-        <v>-56.46989440917969</v>
+        <v>-70.443603515625</v>
       </c>
       <c r="I29" t="n">
-        <v>51.08290481567383</v>
+        <v>45.67673110961914</v>
       </c>
       <c r="J29" t="n">
-        <v>96818.9765625</v>
+        <v>96839.4765625</v>
       </c>
       <c r="K29" t="n">
-        <v>61.20000076293945</v>
+        <v>91.70000457763672</v>
       </c>
       <c r="L29" t="n">
-        <v>3.250456571578979</v>
+        <v>3.5299072265625</v>
       </c>
       <c r="M29" t="n">
-        <v>-3.323705911636353</v>
+        <v>-6.06493616104126</v>
       </c>
       <c r="N29" t="n">
-        <v>8.107285499572754</v>
+        <v>9.704428672790527</v>
       </c>
     </row>
     <row r="30">
@@ -1849,11 +1849,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1710428400</v>
+        <v>1732719600</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1862,34 +1862,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63.29999923706055</v>
+        <v>56.90000152587891</v>
       </c>
       <c r="F30" t="n">
-        <v>29.95001220703125</v>
+        <v>29.04550170898438</v>
       </c>
       <c r="G30" t="n">
-        <v>27.42611694335938</v>
+        <v>26.5264892578125</v>
       </c>
       <c r="H30" t="n">
-        <v>-76.85797119140625</v>
+        <v>-54.37855529785156</v>
       </c>
       <c r="I30" t="n">
-        <v>52.00941848754883</v>
+        <v>43.62247467041016</v>
       </c>
       <c r="J30" t="n">
-        <v>96991.15625</v>
+        <v>96945.515625</v>
       </c>
       <c r="K30" t="n">
-        <v>48.60000228881836</v>
+        <v>55.79999923706055</v>
       </c>
       <c r="L30" t="n">
-        <v>1.508012652397156</v>
+        <v>1.840502858161926</v>
       </c>
       <c r="M30" t="n">
-        <v>-5.42387580871582</v>
+        <v>-7.003923416137695</v>
       </c>
       <c r="N30" t="n">
-        <v>6.211828708648682</v>
+        <v>7.817761421203613</v>
       </c>
     </row>
     <row r="31">
@@ -1897,11 +1897,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1710439200</v>
+        <v>1732730400</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1910,34 +1910,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>45.60000228881836</v>
+        <v>41.29999923706055</v>
       </c>
       <c r="F31" t="n">
-        <v>34.143310546875</v>
+        <v>32.80001831054688</v>
       </c>
       <c r="G31" t="n">
-        <v>31.63864135742188</v>
+        <v>29.9036865234375</v>
       </c>
       <c r="H31" t="n">
-        <v>-77.06341552734375</v>
+        <v>-57.89535522460938</v>
       </c>
       <c r="I31" t="n">
-        <v>50.98983764648438</v>
+        <v>42.48625946044922</v>
       </c>
       <c r="J31" t="n">
-        <v>96729.5546875</v>
+        <v>96712.078125</v>
       </c>
       <c r="K31" t="n">
-        <v>64.40000152587891</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="L31" t="n">
-        <v>0.344958484172821</v>
+        <v>1.956071734428406</v>
       </c>
       <c r="M31" t="n">
-        <v>-4.515881061553955</v>
+        <v>-6.188813209533691</v>
       </c>
       <c r="N31" t="n">
-        <v>5.209054470062256</v>
+        <v>6.910057067871094</v>
       </c>
     </row>
     <row r="32">
@@ -1945,11 +1945,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1710450000</v>
+        <v>1732741200</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1958,34 +1958,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>44.10000228881836</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="F32" t="n">
-        <v>34.09967041015625</v>
+        <v>34.00338745117188</v>
       </c>
       <c r="G32" t="n">
-        <v>32.35525512695312</v>
+        <v>31.833984375</v>
       </c>
       <c r="H32" t="n">
-        <v>-64.509765625</v>
+        <v>-58.99754333496094</v>
       </c>
       <c r="I32" t="n">
-        <v>50.68282318115234</v>
+        <v>41.89916610717773</v>
       </c>
       <c r="J32" t="n">
-        <v>96463.2421875</v>
+        <v>96394.9296875</v>
       </c>
       <c r="K32" t="n">
-        <v>26</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="L32" t="n">
-        <v>2.574492216110229</v>
+        <v>2.310915470123291</v>
       </c>
       <c r="M32" t="n">
-        <v>-4.777055740356445</v>
+        <v>-5.475719928741455</v>
       </c>
       <c r="N32" t="n">
-        <v>5.507841110229492</v>
+        <v>6.111813545227051</v>
       </c>
     </row>
     <row r="33">
@@ -1993,11 +1993,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1710460800</v>
+        <v>1732752000</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2006,34 +2006,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.10000228881836</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="F33" t="n">
-        <v>32.30001831054688</v>
+        <v>31.68359375</v>
       </c>
       <c r="G33" t="n">
-        <v>32.13601684570312</v>
+        <v>30.68197631835938</v>
       </c>
       <c r="H33" t="n">
-        <v>-63.0850830078125</v>
+        <v>-58.31999206542969</v>
       </c>
       <c r="I33" t="n">
-        <v>49.51033782958984</v>
+        <v>41.0595817565918</v>
       </c>
       <c r="J33" t="n">
-        <v>96475.640625</v>
+        <v>96477.390625</v>
       </c>
       <c r="K33" t="n">
-        <v>97.40000152587891</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="L33" t="n">
-        <v>2.337006807327271</v>
+        <v>6.50213098526001</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.77862286567688</v>
+        <v>-4.276393890380859</v>
       </c>
       <c r="N33" t="n">
-        <v>6.517203807830811</v>
+        <v>8.300700187683105</v>
       </c>
     </row>
     <row r="34">
@@ -2041,11 +2041,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1710471600</v>
+        <v>1732762800</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2054,34 +2054,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59.29999923706055</v>
+        <v>58</v>
       </c>
       <c r="F34" t="n">
-        <v>29.61834716796875</v>
+        <v>28.81240844726562</v>
       </c>
       <c r="G34" t="n">
-        <v>29.32373046875</v>
+        <v>27.77963256835938</v>
       </c>
       <c r="H34" t="n">
-        <v>-67.81599426269531</v>
+        <v>-57.51454162597656</v>
       </c>
       <c r="I34" t="n">
-        <v>50.71614456176758</v>
+        <v>40.07670974731445</v>
       </c>
       <c r="J34" t="n">
-        <v>96631.3984375</v>
+        <v>96657.328125</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="L34" t="n">
-        <v>6.212697505950928</v>
+        <v>6.369621276855469</v>
       </c>
       <c r="M34" t="n">
-        <v>-4.085649490356445</v>
+        <v>-5.932670593261719</v>
       </c>
       <c r="N34" t="n">
-        <v>12.20768451690674</v>
+        <v>12.10295295715332</v>
       </c>
     </row>
     <row r="35">
@@ -2089,11 +2089,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1710482400</v>
+        <v>1732773600</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2102,34 +2102,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>73</v>
+        <v>76.20000457763672</v>
       </c>
       <c r="F35" t="n">
-        <v>27.32980346679688</v>
+        <v>25.57339477539062</v>
       </c>
       <c r="G35" t="n">
-        <v>26.85214233398438</v>
+        <v>24.42864990234375</v>
       </c>
       <c r="H35" t="n">
-        <v>-77.40176391601562</v>
+        <v>-54.91848754882812</v>
       </c>
       <c r="I35" t="n">
-        <v>51.51816177368164</v>
+        <v>39.48633575439453</v>
       </c>
       <c r="J35" t="n">
-        <v>96684.4296875</v>
+        <v>96661.1796875</v>
       </c>
       <c r="K35" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>4.532646179199219</v>
+        <v>5.124440670013428</v>
       </c>
       <c r="M35" t="n">
-        <v>-4.373898983001709</v>
+        <v>-7.262187480926514</v>
       </c>
       <c r="N35" t="n">
-        <v>10.71235179901123</v>
+        <v>13.60515785217285</v>
       </c>
     </row>
     <row r="36">
@@ -2137,11 +2137,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1710493200</v>
+        <v>1732784400</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>79.5</v>
+        <v>79.70000457763672</v>
       </c>
       <c r="F36" t="n">
-        <v>26.10369873046875</v>
+        <v>24.15945434570312</v>
       </c>
       <c r="G36" t="n">
-        <v>25.11529541015625</v>
+        <v>23.052734375</v>
       </c>
       <c r="H36" t="n">
-        <v>-66.34980773925781</v>
+        <v>-70.60015869140625</v>
       </c>
       <c r="I36" t="n">
-        <v>52.88515472412109</v>
+        <v>37.75076293945312</v>
       </c>
       <c r="J36" t="n">
-        <v>96575.6875</v>
+        <v>96578.3671875</v>
       </c>
       <c r="K36" t="n">
-        <v>76.59999847412109</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>3.815441846847534</v>
+        <v>4.983454704284668</v>
       </c>
       <c r="M36" t="n">
-        <v>-4.949609279632568</v>
+        <v>-5.120424747467041</v>
       </c>
       <c r="N36" t="n">
-        <v>9.700342178344727</v>
+        <v>11.10185623168945</v>
       </c>
     </row>
     <row r="37">
@@ -2185,11 +2185,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1710504000</v>
+        <v>1732795200</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2198,34 +2198,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>86.40000152587891</v>
+        <v>75</v>
       </c>
       <c r="F37" t="n">
-        <v>24.78375244140625</v>
+        <v>23.53952026367188</v>
       </c>
       <c r="G37" t="n">
-        <v>23.94491577148438</v>
+        <v>22.322265625</v>
       </c>
       <c r="H37" t="n">
-        <v>-65.88996887207031</v>
+        <v>-70.87051391601562</v>
       </c>
       <c r="I37" t="n">
-        <v>54.12021636962891</v>
+        <v>32.6052360534668</v>
       </c>
       <c r="J37" t="n">
-        <v>96717.28125</v>
+        <v>96784.1171875</v>
       </c>
       <c r="K37" t="n">
-        <v>96.59999847412109</v>
+        <v>73.40000152587891</v>
       </c>
       <c r="L37" t="n">
-        <v>3.367026329040527</v>
+        <v>3.569826602935791</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.835297822952271</v>
+        <v>-5.934103965759277</v>
       </c>
       <c r="N37" t="n">
-        <v>8.729549407958984</v>
+        <v>10.51276874542236</v>
       </c>
     </row>
     <row r="38">
@@ -2233,11 +2233,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1710514800</v>
+        <v>1732806000</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2246,34 +2246,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>61.40000152587891</v>
+        <v>33.90000152587891</v>
       </c>
       <c r="F38" t="n">
-        <v>29.89999389648438</v>
+        <v>29.54656982421875</v>
       </c>
       <c r="G38" t="n">
-        <v>27.53875732421875</v>
+        <v>26.85470581054688</v>
       </c>
       <c r="H38" t="n">
-        <v>-70.68202209472656</v>
+        <v>-72.93069458007812</v>
       </c>
       <c r="I38" t="n">
-        <v>53.37932205200195</v>
+        <v>29.12177658081055</v>
       </c>
       <c r="J38" t="n">
-        <v>96814.8671875</v>
+        <v>96871.9375</v>
       </c>
       <c r="K38" t="n">
-        <v>82.59999847412109</v>
+        <v>86.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.630610346794128</v>
+        <v>1.925529718399048</v>
       </c>
       <c r="M38" t="n">
-        <v>-6.250297546386719</v>
+        <v>-7.552329063415527</v>
       </c>
       <c r="N38" t="n">
-        <v>7.510458469390869</v>
+        <v>8.804034233093262</v>
       </c>
     </row>
     <row r="39">
@@ -2281,11 +2281,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1710525600</v>
+        <v>1732816800</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.29999923706055</v>
+        <v>20.70000076293945</v>
       </c>
       <c r="F39" t="n">
-        <v>33.422119140625</v>
+        <v>34.80197143554688</v>
       </c>
       <c r="G39" t="n">
-        <v>31.189208984375</v>
+        <v>31.66439819335938</v>
       </c>
       <c r="H39" t="n">
-        <v>-59.77420043945312</v>
+        <v>-71.53471374511719</v>
       </c>
       <c r="I39" t="n">
-        <v>52.24226379394531</v>
+        <v>27.17675590515137</v>
       </c>
       <c r="J39" t="n">
-        <v>96563.1796875</v>
+        <v>96625.28125</v>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="L39" t="n">
-        <v>1.056928634643555</v>
+        <v>0.7001562118530273</v>
       </c>
       <c r="M39" t="n">
-        <v>-6.065544128417969</v>
+        <v>-6.31903076171875</v>
       </c>
       <c r="N39" t="n">
-        <v>7.126416683197021</v>
+        <v>7.311021327972412</v>
       </c>
     </row>
     <row r="40">
@@ -2329,11 +2329,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1710536400</v>
+        <v>1732827600</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2342,34 +2342,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39.40000152587891</v>
+        <v>17.39999961853027</v>
       </c>
       <c r="F40" t="n">
-        <v>34.33877563476562</v>
+        <v>36.9180908203125</v>
       </c>
       <c r="G40" t="n">
-        <v>33.04354858398438</v>
+        <v>34.50347900390625</v>
       </c>
       <c r="H40" t="n">
-        <v>-58.45973205566406</v>
+        <v>-72.03884887695312</v>
       </c>
       <c r="I40" t="n">
-        <v>49.65962982177734</v>
+        <v>25.93513679504395</v>
       </c>
       <c r="J40" t="n">
-        <v>96288.8046875</v>
+        <v>96306.8984375</v>
       </c>
       <c r="K40" t="n">
-        <v>99.90000152587891</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4633032083511353</v>
+        <v>1.847561001777649</v>
       </c>
       <c r="M40" t="n">
-        <v>-2.643635272979736</v>
+        <v>-6.126662254333496</v>
       </c>
       <c r="N40" t="n">
-        <v>5.34612512588501</v>
+        <v>7.201745510101318</v>
       </c>
     </row>
     <row r="41">
@@ -2377,11 +2377,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1710547200</v>
+        <v>1732838400</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2390,34 +2390,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>47.60000228881836</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="F41" t="n">
-        <v>32.10781860351562</v>
+        <v>34.75155639648438</v>
       </c>
       <c r="G41" t="n">
-        <v>32.12115478515625</v>
+        <v>34.82931518554688</v>
       </c>
       <c r="H41" t="n">
-        <v>-61.93630981445312</v>
+        <v>-70.9873046875</v>
       </c>
       <c r="I41" t="n">
-        <v>50.32567596435547</v>
+        <v>27.48962783813477</v>
       </c>
       <c r="J41" t="n">
-        <v>96346.6484375</v>
+        <v>96377.3828125</v>
       </c>
       <c r="K41" t="n">
-        <v>99.09999847412109</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="L41" t="n">
-        <v>3.286054611206055</v>
+        <v>1.673774361610413</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.518186092376709</v>
+        <v>-4.252705097198486</v>
       </c>
       <c r="N41" t="n">
-        <v>6.70192813873291</v>
+        <v>7.303613185882568</v>
       </c>
     </row>
     <row r="42">
@@ -2425,11 +2425,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1710558000</v>
+        <v>1732849200</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2438,34 +2438,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>61.90000152587891</v>
+        <v>30.89999961853027</v>
       </c>
       <c r="F42" t="n">
-        <v>29.40975952148438</v>
+        <v>30.9525146484375</v>
       </c>
       <c r="G42" t="n">
-        <v>29.22940063476562</v>
+        <v>30.40280151367188</v>
       </c>
       <c r="H42" t="n">
-        <v>-63.52542114257812</v>
+        <v>-70.57792663574219</v>
       </c>
       <c r="I42" t="n">
-        <v>53.54818725585938</v>
+        <v>29.63234901428223</v>
       </c>
       <c r="J42" t="n">
-        <v>96596.8671875</v>
+        <v>96601.6484375</v>
       </c>
       <c r="K42" t="n">
-        <v>88.20000457763672</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>2.826869964599609</v>
+        <v>6.81640625</v>
       </c>
       <c r="M42" t="n">
-        <v>-3.603676795959473</v>
+        <v>-5.020126819610596</v>
       </c>
       <c r="N42" t="n">
-        <v>9.113376617431641</v>
+        <v>13.50523662567139</v>
       </c>
     </row>
     <row r="43">
@@ -2473,11 +2473,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1710568800</v>
+        <v>1732860000</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2486,34 +2486,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>71.59999847412109</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="F43" t="n">
-        <v>27.41964721679688</v>
+        <v>27.00582885742188</v>
       </c>
       <c r="G43" t="n">
-        <v>27.16433715820312</v>
+        <v>26.05459594726562</v>
       </c>
       <c r="H43" t="n">
-        <v>-60.15733337402344</v>
+        <v>-70.39192199707031</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20793151855469</v>
+        <v>33.40720367431641</v>
       </c>
       <c r="J43" t="n">
-        <v>96627.0078125</v>
+        <v>96634.9375</v>
       </c>
       <c r="K43" t="n">
-        <v>38.60000228881836</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="L43" t="n">
-        <v>4.957639217376709</v>
+        <v>4.19073486328125</v>
       </c>
       <c r="M43" t="n">
-        <v>-5.932226657867432</v>
+        <v>-7.21129846572876</v>
       </c>
       <c r="N43" t="n">
-        <v>13.30081176757812</v>
+        <v>12.82871246337891</v>
       </c>
     </row>
     <row r="44">
@@ -2521,11 +2521,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1710579600</v>
+        <v>1732870800</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2534,34 +2534,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>75.09999847412109</v>
+        <v>64.09999847412109</v>
       </c>
       <c r="F44" t="n">
-        <v>25.1658935546875</v>
+        <v>24.95965576171875</v>
       </c>
       <c r="G44" t="n">
-        <v>24.79733276367188</v>
+        <v>23.95730590820312</v>
       </c>
       <c r="H44" t="n">
-        <v>-61.53849792480469</v>
+        <v>-70.61761474609375</v>
       </c>
       <c r="I44" t="n">
-        <v>43.43757247924805</v>
+        <v>35.08672714233398</v>
       </c>
       <c r="J44" t="n">
-        <v>96480.2578125</v>
+        <v>96677.4296875</v>
       </c>
       <c r="K44" t="n">
-        <v>77.90000152587891</v>
+        <v>44</v>
       </c>
       <c r="L44" t="n">
-        <v>3.581572294235229</v>
+        <v>2.745339393615723</v>
       </c>
       <c r="M44" t="n">
-        <v>-5.069255352020264</v>
+        <v>-6.148068904876709</v>
       </c>
       <c r="N44" t="n">
-        <v>11.00325870513916</v>
+        <v>11.31935024261475</v>
       </c>
     </row>
     <row r="45">
@@ -2569,11 +2569,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1710590400</v>
+        <v>1732881600</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2582,34 +2582,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>81.09999847412109</v>
+        <v>68.20000457763672</v>
       </c>
       <c r="F45" t="n">
-        <v>23.96920776367188</v>
+        <v>24.25982666015625</v>
       </c>
       <c r="G45" t="n">
-        <v>23.37979125976562</v>
+        <v>22.99560546875</v>
       </c>
       <c r="H45" t="n">
-        <v>-54.06298828125</v>
+        <v>-72.3731689453125</v>
       </c>
       <c r="I45" t="n">
-        <v>41.18500518798828</v>
+        <v>34.82446670532227</v>
       </c>
       <c r="J45" t="n">
-        <v>96666.6796875</v>
+        <v>96894.5625</v>
       </c>
       <c r="K45" t="n">
-        <v>36.29999923706055</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="L45" t="n">
-        <v>3.433784008026123</v>
+        <v>3.673742532730103</v>
       </c>
       <c r="M45" t="n">
-        <v>-4.097404479980469</v>
+        <v>-5.870924949645996</v>
       </c>
       <c r="N45" t="n">
-        <v>9.626611709594727</v>
+        <v>10.40841484069824</v>
       </c>
     </row>
     <row r="46">
@@ -2617,11 +2617,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1710601200</v>
+        <v>1732892400</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2630,34 +2630,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>56.5</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="F46" t="n">
-        <v>29.30001831054688</v>
+        <v>29.90338134765625</v>
       </c>
       <c r="G46" t="n">
-        <v>26.82675170898438</v>
+        <v>27.21231079101562</v>
       </c>
       <c r="H46" t="n">
-        <v>-60.67959594726562</v>
+        <v>-71.97506713867188</v>
       </c>
       <c r="I46" t="n">
-        <v>38.81870651245117</v>
+        <v>31.53139686584473</v>
       </c>
       <c r="J46" t="n">
-        <v>96833.703125</v>
+        <v>96948.8046875</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30000305175781</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="L46" t="n">
-        <v>1.782126426696777</v>
+        <v>0.3308398425579071</v>
       </c>
       <c r="M46" t="n">
-        <v>-6.40624475479126</v>
+        <v>-7.091527938842773</v>
       </c>
       <c r="N46" t="n">
-        <v>7.42351245880127</v>
+        <v>7.8151535987854</v>
       </c>
     </row>
     <row r="47">
@@ -2665,11 +2665,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1710612000</v>
+        <v>1732903200</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2678,34 +2678,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.20000076293945</v>
+        <v>25.5</v>
       </c>
       <c r="F47" t="n">
-        <v>34.89999389648438</v>
+        <v>35.16860961914062</v>
       </c>
       <c r="G47" t="n">
-        <v>31.78033447265625</v>
+        <v>31.99862670898438</v>
       </c>
       <c r="H47" t="n">
-        <v>-56.05531311035156</v>
+        <v>-71.82470703125</v>
       </c>
       <c r="I47" t="n">
-        <v>34.80615997314453</v>
+        <v>29.22812080383301</v>
       </c>
       <c r="J47" t="n">
-        <v>96569.234375</v>
+        <v>96673.3359375</v>
       </c>
       <c r="K47" t="n">
-        <v>69.90000152587891</v>
+        <v>20.5</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.1626635640859604</v>
+        <v>0.1990161091089249</v>
       </c>
       <c r="M47" t="n">
-        <v>-6.276745319366455</v>
+        <v>-6.17638635635376</v>
       </c>
       <c r="N47" t="n">
-        <v>7.209570407867432</v>
+        <v>6.501763343811035</v>
       </c>
     </row>
     <row r="48">
@@ -2713,11 +2713,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1710622800</v>
+        <v>1732914000</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2726,34 +2726,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.60000038146973</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="F48" t="n">
-        <v>36.88973999023438</v>
+        <v>37.29934692382812</v>
       </c>
       <c r="G48" t="n">
-        <v>34.44754028320312</v>
+        <v>34.75921630859375</v>
       </c>
       <c r="H48" t="n">
-        <v>-51.1201171875</v>
+        <v>-72.34156799316406</v>
       </c>
       <c r="I48" t="n">
-        <v>35.78365707397461</v>
+        <v>28.19157409667969</v>
       </c>
       <c r="J48" t="n">
-        <v>96258.8515625</v>
+        <v>96355.8203125</v>
       </c>
       <c r="K48" t="n">
-        <v>6.599999904632568</v>
+        <v>80.59999847412109</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3644067347049713</v>
+        <v>1.438998937606812</v>
       </c>
       <c r="M48" t="n">
-        <v>-5.538713455200195</v>
+        <v>-5.775866508483887</v>
       </c>
       <c r="N48" t="n">
-        <v>6.80557107925415</v>
+        <v>6.605450630187988</v>
       </c>
     </row>
     <row r="49">
@@ -2761,11 +2761,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1710633600</v>
+        <v>1732924800</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16/03/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2774,34 +2774,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.39999961853027</v>
+        <v>21.80000114440918</v>
       </c>
       <c r="F49" t="n">
-        <v>33.36923217773438</v>
+        <v>35.40048217773438</v>
       </c>
       <c r="G49" t="n">
-        <v>34.52127075195312</v>
+        <v>35.37649536132812</v>
       </c>
       <c r="H49" t="n">
-        <v>-47.12516784667969</v>
+        <v>-72.56199645996094</v>
       </c>
       <c r="I49" t="n">
-        <v>36.95462799072266</v>
+        <v>28.88370895385742</v>
       </c>
       <c r="J49" t="n">
-        <v>96314.8359375</v>
+        <v>96377.484375</v>
       </c>
       <c r="K49" t="n">
-        <v>22.60000038146973</v>
+        <v>98.70000457763672</v>
       </c>
       <c r="L49" t="n">
-        <v>1.248391032218933</v>
+        <v>1.662021398544312</v>
       </c>
       <c r="M49" t="n">
-        <v>-4.143115043640137</v>
+        <v>-3.964665412902832</v>
       </c>
       <c r="N49" t="n">
-        <v>5.907470703125</v>
+        <v>6.302352428436279</v>
       </c>
     </row>
     <row r="50">
@@ -2809,11 +2809,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1710644400</v>
+        <v>1732935600</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2822,34 +2822,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="F50" t="n">
-        <v>30.92501831054688</v>
+        <v>31.91665649414062</v>
       </c>
       <c r="G50" t="n">
-        <v>31.60821533203125</v>
+        <v>31.48654174804688</v>
       </c>
       <c r="H50" t="n">
-        <v>-54.07365417480469</v>
+        <v>-57.10350036621094</v>
       </c>
       <c r="I50" t="n">
-        <v>37.64814758300781</v>
+        <v>30.62409973144531</v>
       </c>
       <c r="J50" t="n">
-        <v>96521.578125</v>
+        <v>96566.015625</v>
       </c>
       <c r="K50" t="n">
-        <v>85.59999847412109</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>2.043149471282959</v>
+        <v>4.826850414276123</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.814003944396973</v>
+        <v>-4.675973892211914</v>
       </c>
       <c r="N50" t="n">
-        <v>5.102269649505615</v>
+        <v>12.10676288604736</v>
       </c>
     </row>
     <row r="51">
@@ -2857,11 +2857,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1710655200</v>
+        <v>1732946400</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2870,34 +2870,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>61.10000228881836</v>
+        <v>64.90000152587891</v>
       </c>
       <c r="F51" t="n">
-        <v>28.26339721679688</v>
+        <v>27.185302734375</v>
       </c>
       <c r="G51" t="n">
-        <v>27.98123168945312</v>
+        <v>26.09341430664062</v>
       </c>
       <c r="H51" t="n">
-        <v>-53.08731079101562</v>
+        <v>-52.386962890625</v>
       </c>
       <c r="I51" t="n">
-        <v>43.26764297485352</v>
+        <v>34.23992538452148</v>
       </c>
       <c r="J51" t="n">
-        <v>96598.5</v>
+        <v>96632.5234375</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>19.5</v>
       </c>
       <c r="L51" t="n">
-        <v>2.88396954536438</v>
+        <v>1.126582026481628</v>
       </c>
       <c r="M51" t="n">
-        <v>-5.209994792938232</v>
+        <v>-8.468318939208984</v>
       </c>
       <c r="N51" t="n">
-        <v>10.71476650238037</v>
+        <v>11.60013484954834</v>
       </c>
     </row>
     <row r="52">
@@ -2905,11 +2905,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1710666000</v>
+        <v>1732957200</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2918,34 +2918,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>83.40000152587891</v>
+        <v>71.30000305175781</v>
       </c>
       <c r="F52" t="n">
-        <v>25.50213623046875</v>
+        <v>25.37564086914062</v>
       </c>
       <c r="G52" t="n">
-        <v>25.05859375</v>
+        <v>24.29342651367188</v>
       </c>
       <c r="H52" t="n">
-        <v>-52.28987121582031</v>
+        <v>-58.91004943847656</v>
       </c>
       <c r="I52" t="n">
-        <v>47.50649642944336</v>
+        <v>34.29917526245117</v>
       </c>
       <c r="J52" t="n">
-        <v>96550.6015625</v>
+        <v>96595.9765625</v>
       </c>
       <c r="K52" t="n">
-        <v>51</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="L52" t="n">
-        <v>2.173010110855103</v>
+        <v>2.156835794448853</v>
       </c>
       <c r="M52" t="n">
-        <v>-4.004242897033691</v>
+        <v>-6.186532974243164</v>
       </c>
       <c r="N52" t="n">
-        <v>8.051074981689453</v>
+        <v>10.11315822601318</v>
       </c>
     </row>
     <row r="53">
@@ -2953,11 +2953,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1710676800</v>
+        <v>1732968000</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2966,34 +2966,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>85.40000152587891</v>
+        <v>72.70000457763672</v>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>24.67843627929688</v>
       </c>
       <c r="G53" t="n">
-        <v>25.46392822265625</v>
+        <v>23.36300659179688</v>
       </c>
       <c r="H53" t="n">
-        <v>-76.740966796875</v>
+        <v>-58.7333984375</v>
       </c>
       <c r="I53" t="n">
-        <v>49.69467544555664</v>
+        <v>34.18672561645508</v>
       </c>
       <c r="J53" t="n">
-        <v>96731.421875</v>
+        <v>96786.0234375</v>
       </c>
       <c r="K53" t="n">
-        <v>11</v>
+        <v>91.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.303676724433899</v>
+        <v>3.765114545822144</v>
       </c>
       <c r="M53" t="n">
-        <v>-3.863315343856812</v>
+        <v>-5.918093204498291</v>
       </c>
       <c r="N53" t="n">
-        <v>7.105587959289551</v>
+        <v>9.199999809265137</v>
       </c>
     </row>
     <row r="54">
@@ -3001,11 +3001,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1710687600</v>
+        <v>1732978800</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3014,34 +3014,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.20000457763672</v>
+        <v>42.60000228881836</v>
       </c>
       <c r="F54" t="n">
-        <v>28.89999389648438</v>
+        <v>30.10906982421875</v>
       </c>
       <c r="G54" t="n">
-        <v>26.87936401367188</v>
+        <v>27.32781982421875</v>
       </c>
       <c r="H54" t="n">
-        <v>-77.94723510742188</v>
+        <v>-60.06771850585938</v>
       </c>
       <c r="I54" t="n">
-        <v>49.68741989135742</v>
+        <v>31.34386253356934</v>
       </c>
       <c r="J54" t="n">
-        <v>96913.9140625</v>
+        <v>96846.2734375</v>
       </c>
       <c r="K54" t="n">
-        <v>53</v>
+        <v>26.5</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3059814274311066</v>
+        <v>1.705720186233521</v>
       </c>
       <c r="M54" t="n">
-        <v>-6.024526119232178</v>
+        <v>-7.185014724731445</v>
       </c>
       <c r="N54" t="n">
-        <v>6.427923679351807</v>
+        <v>7.903683662414551</v>
       </c>
     </row>
     <row r="55">
@@ -3049,11 +3049,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1710698400</v>
+        <v>1732989600</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3062,34 +3062,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.40000152587891</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="F55" t="n">
-        <v>33.61480712890625</v>
+        <v>35.19161987304688</v>
       </c>
       <c r="G55" t="n">
-        <v>31.04122924804688</v>
+        <v>32.06268310546875</v>
       </c>
       <c r="H55" t="n">
-        <v>-73.00955200195312</v>
+        <v>-64.31735229492188</v>
       </c>
       <c r="I55" t="n">
-        <v>41.82476043701172</v>
+        <v>29.47897720336914</v>
       </c>
       <c r="J55" t="n">
-        <v>96702.3046875</v>
+        <v>96602.2890625</v>
       </c>
       <c r="K55" t="n">
-        <v>43.90000152587891</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L55" t="n">
-        <v>1.100302696228027</v>
+        <v>1.259213805198669</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.346684455871582</v>
+        <v>-5.794492244720459</v>
       </c>
       <c r="N55" t="n">
-        <v>5.230254650115967</v>
+        <v>5.920752048492432</v>
       </c>
     </row>
     <row r="56">
@@ -3097,11 +3097,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1710709200</v>
+        <v>1733000400</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3110,34 +3110,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.60000038146973</v>
+        <v>23.5</v>
       </c>
       <c r="F56" t="n">
-        <v>36.60186767578125</v>
+        <v>37.08697509765625</v>
       </c>
       <c r="G56" t="n">
-        <v>34.30615234375</v>
+        <v>34.61062622070312</v>
       </c>
       <c r="H56" t="n">
-        <v>-73.483154296875</v>
+        <v>-65.0001220703125</v>
       </c>
       <c r="I56" t="n">
-        <v>38.9439582824707</v>
+        <v>30.16386222839355</v>
       </c>
       <c r="J56" t="n">
-        <v>96368.2734375</v>
+        <v>96298.390625</v>
       </c>
       <c r="K56" t="n">
-        <v>10.10000038146973</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9648730158805847</v>
+        <v>2.131159543991089</v>
       </c>
       <c r="M56" t="n">
-        <v>-4.777353286743164</v>
+        <v>-4.559291839599609</v>
       </c>
       <c r="N56" t="n">
-        <v>5.810090065002441</v>
+        <v>5.099999904632568</v>
       </c>
     </row>
     <row r="57">
@@ -3145,11 +3145,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1710720000</v>
+        <v>1733011200</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3158,34 +3158,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34</v>
+        <v>25.30000114440918</v>
       </c>
       <c r="F57" t="n">
-        <v>33.3450927734375</v>
+        <v>35.3931884765625</v>
       </c>
       <c r="G57" t="n">
-        <v>34.19857788085938</v>
+        <v>35.05404663085938</v>
       </c>
       <c r="H57" t="n">
-        <v>-67.47789001464844</v>
+        <v>-67.49589538574219</v>
       </c>
       <c r="I57" t="n">
-        <v>38.46814727783203</v>
+        <v>30.79661750793457</v>
       </c>
       <c r="J57" t="n">
-        <v>96428.8671875</v>
+        <v>96323.2734375</v>
       </c>
       <c r="K57" t="n">
-        <v>21.39999961853027</v>
+        <v>47.70000076293945</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.1779296845197678</v>
+        <v>1.363732933998108</v>
       </c>
       <c r="M57" t="n">
-        <v>-4.034472465515137</v>
+        <v>-3.429484844207764</v>
       </c>
       <c r="N57" t="n">
-        <v>5.503304481506348</v>
+        <v>5.100677490234375</v>
       </c>
     </row>
     <row r="58">
@@ -3193,11 +3193,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1710730800</v>
+        <v>1733022000</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3206,34 +3206,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.60000228881836</v>
+        <v>31.5</v>
       </c>
       <c r="F58" t="n">
-        <v>31.39019775390625</v>
+        <v>32.22503662109375</v>
       </c>
       <c r="G58" t="n">
-        <v>30.80874633789062</v>
+        <v>31.75048828125</v>
       </c>
       <c r="H58" t="n">
-        <v>-72.07432556152344</v>
+        <v>-61.86674499511719</v>
       </c>
       <c r="I58" t="n">
-        <v>39.23417663574219</v>
+        <v>29.48499870300293</v>
       </c>
       <c r="J58" t="n">
-        <v>96636.015625</v>
+        <v>96478.1015625</v>
       </c>
       <c r="K58" t="n">
-        <v>85.90000152587891</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="L58" t="n">
-        <v>5.139330863952637</v>
+        <v>4.6641526222229</v>
       </c>
       <c r="M58" t="n">
-        <v>-4.377539157867432</v>
+        <v>-4.923962116241455</v>
       </c>
       <c r="N58" t="n">
-        <v>11.01560688018799</v>
+        <v>11.20146465301514</v>
       </c>
     </row>
     <row r="59">
@@ -3241,11 +3241,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1710741600</v>
+        <v>1733032800</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3254,34 +3254,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>63.40000152587891</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F59" t="n">
-        <v>28.2012939453125</v>
+        <v>27.56668090820312</v>
       </c>
       <c r="G59" t="n">
-        <v>27.83648681640625</v>
+        <v>26.73095703125</v>
       </c>
       <c r="H59" t="n">
-        <v>-51.11711120605469</v>
+        <v>-66.75103759765625</v>
       </c>
       <c r="I59" t="n">
-        <v>42.18099975585938</v>
+        <v>27.13017463684082</v>
       </c>
       <c r="J59" t="n">
-        <v>96744.9921875</v>
+        <v>96490.2890625</v>
       </c>
       <c r="K59" t="n">
-        <v>59.70000076293945</v>
+        <v>89.30000305175781</v>
       </c>
       <c r="L59" t="n">
-        <v>2.025156259536743</v>
+        <v>5.280104637145996</v>
       </c>
       <c r="M59" t="n">
-        <v>-5.322182655334473</v>
+        <v>-7.265214443206787</v>
       </c>
       <c r="N59" t="n">
-        <v>9.699999809265137</v>
+        <v>13.30105590820312</v>
       </c>
     </row>
     <row r="60">
@@ -3289,11 +3289,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1710752400</v>
+        <v>1733043600</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3302,34 +3302,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>69.40000152587891</v>
+        <v>63.29999923706055</v>
       </c>
       <c r="F60" t="n">
-        <v>26.32925415039062</v>
+        <v>24.85003662109375</v>
       </c>
       <c r="G60" t="n">
-        <v>25.78903198242188</v>
+        <v>23.766357421875</v>
       </c>
       <c r="H60" t="n">
-        <v>-51.67451477050781</v>
+        <v>-56.57373046875</v>
       </c>
       <c r="I60" t="n">
-        <v>45.69248199462891</v>
+        <v>33.65681076049805</v>
       </c>
       <c r="J60" t="n">
-        <v>96645.09375</v>
+        <v>96592.4296875</v>
       </c>
       <c r="K60" t="n">
-        <v>80.09999847412109</v>
+        <v>94.09999847412109</v>
       </c>
       <c r="L60" t="n">
-        <v>1.942714810371399</v>
+        <v>1.350073218345642</v>
       </c>
       <c r="M60" t="n">
-        <v>-3.451508760452271</v>
+        <v>-7.395263671875</v>
       </c>
       <c r="N60" t="n">
-        <v>6.5</v>
+        <v>11.40783786773682</v>
       </c>
     </row>
     <row r="61">
@@ -3337,11 +3337,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1710763200</v>
+        <v>1733054400</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3350,34 +3350,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>79</v>
+        <v>64.59999847412109</v>
       </c>
       <c r="F61" t="n">
-        <v>25.04074096679688</v>
+        <v>24.3260498046875</v>
       </c>
       <c r="G61" t="n">
-        <v>24.52557373046875</v>
+        <v>23.05123901367188</v>
       </c>
       <c r="H61" t="n">
-        <v>-43.16566467285156</v>
+        <v>-61.30072021484375</v>
       </c>
       <c r="I61" t="n">
-        <v>46.00802612304688</v>
+        <v>33.50492858886719</v>
       </c>
       <c r="J61" t="n">
-        <v>96776.8046875</v>
+        <v>96704.515625</v>
       </c>
       <c r="K61" t="n">
-        <v>4.599999904632568</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
-        <v>2.371733427047729</v>
+        <v>3.005637168884277</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.188076019287109</v>
+        <v>-6.218371391296387</v>
       </c>
       <c r="N61" t="n">
-        <v>5.826666355133057</v>
+        <v>10.10293769836426</v>
       </c>
     </row>
     <row r="62">
@@ -3385,11 +3385,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1710774000</v>
+        <v>1733065200</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3398,34 +3398,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>60.5</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="F62" t="n">
-        <v>29.60641479492188</v>
+        <v>30.2052001953125</v>
       </c>
       <c r="G62" t="n">
-        <v>27.262451171875</v>
+        <v>27.4884033203125</v>
       </c>
       <c r="H62" t="n">
-        <v>-44.08377075195312</v>
+        <v>-55.14967346191406</v>
       </c>
       <c r="I62" t="n">
-        <v>45.95962905883789</v>
+        <v>31.36384201049805</v>
       </c>
       <c r="J62" t="n">
-        <v>96894.1484375</v>
+        <v>96759.3046875</v>
       </c>
       <c r="K62" t="n">
-        <v>22</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="L62" t="n">
-        <v>1.999526381492615</v>
+        <v>-1.299091815948486</v>
       </c>
       <c r="M62" t="n">
-        <v>-4.263545036315918</v>
+        <v>-5.328110218048096</v>
       </c>
       <c r="N62" t="n">
-        <v>5.202729225158691</v>
+        <v>6.12164306640625</v>
       </c>
     </row>
     <row r="63">
@@ -3433,11 +3433,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1710784800</v>
+        <v>1733076000</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3446,34 +3446,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.29999923706055</v>
+        <v>31.30000114440918</v>
       </c>
       <c r="F63" t="n">
-        <v>34.45675659179688</v>
+        <v>34.94857788085938</v>
       </c>
       <c r="G63" t="n">
-        <v>31.8612060546875</v>
+        <v>32.166748046875</v>
       </c>
       <c r="H63" t="n">
-        <v>-30.37391662597656</v>
+        <v>-53.10940551757812</v>
       </c>
       <c r="I63" t="n">
-        <v>45.09946823120117</v>
+        <v>30.46743011474609</v>
       </c>
       <c r="J63" t="n">
-        <v>96627.6875</v>
+        <v>96500.8359375</v>
       </c>
       <c r="K63" t="n">
-        <v>35.60000228881836</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
-        <v>1.119174838066101</v>
+        <v>-1.305671334266663</v>
       </c>
       <c r="M63" t="n">
-        <v>-3.582026243209839</v>
+        <v>-3.707661151885986</v>
       </c>
       <c r="N63" t="n">
-        <v>4.70917272567749</v>
+        <v>3.808171033859253</v>
       </c>
     </row>
     <row r="64">
@@ -3481,11 +3481,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1710795600</v>
+        <v>1733086800</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3494,34 +3494,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="F64" t="n">
-        <v>33.52694702148438</v>
+        <v>36.94308471679688</v>
       </c>
       <c r="G64" t="n">
-        <v>31.97640991210938</v>
+        <v>34.97988891601562</v>
       </c>
       <c r="H64" t="n">
-        <v>-28.34649658203125</v>
+        <v>-52.78193664550781</v>
       </c>
       <c r="I64" t="n">
-        <v>46.15605545043945</v>
+        <v>29.82511520385742</v>
       </c>
       <c r="J64" t="n">
-        <v>96338.6171875</v>
+        <v>96176.703125</v>
       </c>
       <c r="K64" t="n">
-        <v>58.40000152587891</v>
+        <v>90.80000305175781</v>
       </c>
       <c r="L64" t="n">
-        <v>5.978730201721191</v>
+        <v>-0.4226879775524139</v>
       </c>
       <c r="M64" t="n">
-        <v>-5.728158950805664</v>
+        <v>-2.020644426345825</v>
       </c>
       <c r="N64" t="n">
-        <v>7.407999515533447</v>
+        <v>2.303654670715332</v>
       </c>
     </row>
     <row r="65">
@@ -3529,11 +3529,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1710806400</v>
+        <v>1733097600</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3542,34 +3542,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>44.90000152587891</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F65" t="n">
-        <v>32.19818115234375</v>
+        <v>35.62640380859375</v>
       </c>
       <c r="G65" t="n">
-        <v>32.06378173828125</v>
+        <v>35.44830322265625</v>
       </c>
       <c r="H65" t="n">
-        <v>-27.64561462402344</v>
+        <v>-63.45625305175781</v>
       </c>
       <c r="I65" t="n">
-        <v>45.96194076538086</v>
+        <v>28.87676811218262</v>
       </c>
       <c r="J65" t="n">
-        <v>96366.765625</v>
+        <v>96199.578125</v>
       </c>
       <c r="K65" t="n">
-        <v>90.40000152587891</v>
+        <v>44.5</v>
       </c>
       <c r="L65" t="n">
-        <v>3.972389936447144</v>
+        <v>-0.1736083924770355</v>
       </c>
       <c r="M65" t="n">
-        <v>-3.120810508728027</v>
+        <v>-1.732592701911926</v>
       </c>
       <c r="N65" t="n">
-        <v>8.314757347106934</v>
+        <v>1.923266649246216</v>
       </c>
     </row>
     <row r="66">
@@ -3577,11 +3577,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1710817200</v>
+        <v>1733108400</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3590,34 +3590,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>55.10000228881836</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="F66" t="n">
-        <v>29.59820556640625</v>
+        <v>33.53179931640625</v>
       </c>
       <c r="G66" t="n">
-        <v>29.19186401367188</v>
+        <v>34.41790771484375</v>
       </c>
       <c r="H66" t="n">
-        <v>-18.45143127441406</v>
+        <v>-66.1119384765625</v>
       </c>
       <c r="I66" t="n">
-        <v>48.36602401733398</v>
+        <v>27.5684642791748</v>
       </c>
       <c r="J66" t="n">
-        <v>96595.328125</v>
+        <v>96315.5390625</v>
       </c>
       <c r="K66" t="n">
-        <v>92</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L66" t="n">
-        <v>2.699536085128784</v>
+        <v>-1.276923775672913</v>
       </c>
       <c r="M66" t="n">
-        <v>-5.163808345794678</v>
+        <v>-1.670087814331055</v>
       </c>
       <c r="N66" t="n">
-        <v>10.91772365570068</v>
+        <v>2.311798095703125</v>
       </c>
     </row>
     <row r="67">
@@ -3625,11 +3625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1710828000</v>
+        <v>1733119200</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3638,34 +3638,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>67.30000305175781</v>
+        <v>37.10000228881836</v>
       </c>
       <c r="F67" t="n">
-        <v>28.20889282226562</v>
+        <v>29.7626953125</v>
       </c>
       <c r="G67" t="n">
-        <v>27.60430908203125</v>
+        <v>29.19168090820312</v>
       </c>
       <c r="H67" t="n">
-        <v>-14.05502319335938</v>
+        <v>-65.42669677734375</v>
       </c>
       <c r="I67" t="n">
-        <v>49.60700988769531</v>
+        <v>29.29959678649902</v>
       </c>
       <c r="J67" t="n">
-        <v>96602.1640625</v>
+        <v>96281.140625</v>
       </c>
       <c r="K67" t="n">
-        <v>93.40000152587891</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="L67" t="n">
-        <v>2.472265481948853</v>
+        <v>5.526674747467041</v>
       </c>
       <c r="M67" t="n">
-        <v>-5.508039474487305</v>
+        <v>-6.207846641540527</v>
       </c>
       <c r="N67" t="n">
-        <v>9.913159370422363</v>
+        <v>12.40603733062744</v>
       </c>
     </row>
     <row r="68">
@@ -3673,11 +3673,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1710838800</v>
+        <v>1733130000</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3686,34 +3686,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>81.20000457763672</v>
+        <v>59.60000228881836</v>
       </c>
       <c r="F68" t="n">
-        <v>25.64205932617188</v>
+        <v>26.9627685546875</v>
       </c>
       <c r="G68" t="n">
-        <v>24.90371704101562</v>
+        <v>25.8057861328125</v>
       </c>
       <c r="H68" t="n">
-        <v>-36.69551086425781</v>
+        <v>-56.98654174804688</v>
       </c>
       <c r="I68" t="n">
-        <v>49.37857437133789</v>
+        <v>34.83914184570312</v>
       </c>
       <c r="J68" t="n">
-        <v>96510.2890625</v>
+        <v>96377.6171875</v>
       </c>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>63.90000152587891</v>
       </c>
       <c r="L68" t="n">
-        <v>1.535388112068176</v>
+        <v>1.490978956222534</v>
       </c>
       <c r="M68" t="n">
-        <v>-5.643886566162109</v>
+        <v>-7.051088809967041</v>
       </c>
       <c r="N68" t="n">
-        <v>9.300762176513672</v>
+        <v>9.508593559265137</v>
       </c>
     </row>
     <row r="69">
@@ -3721,11 +3721,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1710849600</v>
+        <v>1733140800</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3734,34 +3734,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>85.80000305175781</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="F69" t="n">
-        <v>24.98037719726562</v>
+        <v>27.28988647460938</v>
       </c>
       <c r="G69" t="n">
-        <v>24.17172241210938</v>
+        <v>26.0897216796875</v>
       </c>
       <c r="H69" t="n">
-        <v>-55.55598449707031</v>
+        <v>-50.766357421875</v>
       </c>
       <c r="I69" t="n">
-        <v>48.75806427001953</v>
+        <v>33.70720291137695</v>
       </c>
       <c r="J69" t="n">
-        <v>96647.171875</v>
+        <v>96526.109375</v>
       </c>
       <c r="K69" t="n">
-        <v>1.800000071525574</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="L69" t="n">
-        <v>1.428647398948669</v>
+        <v>-2.256882190704346</v>
       </c>
       <c r="M69" t="n">
-        <v>-3.450141429901123</v>
+        <v>-6.139121055603027</v>
       </c>
       <c r="N69" t="n">
-        <v>7.700034618377686</v>
+        <v>9.200822830200195</v>
       </c>
     </row>
     <row r="70">
@@ -3769,11 +3769,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1710860400</v>
+        <v>1733151600</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3782,34 +3782,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>58.40000152587891</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="F70" t="n">
-        <v>30.23455810546875</v>
+        <v>32.45159912109375</v>
       </c>
       <c r="G70" t="n">
-        <v>27.77810668945312</v>
+        <v>29.57461547851562</v>
       </c>
       <c r="H70" t="n">
-        <v>-54.045166015625</v>
+        <v>-64.33076477050781</v>
       </c>
       <c r="I70" t="n">
-        <v>47.68034744262695</v>
+        <v>33.06517028808594</v>
       </c>
       <c r="J70" t="n">
-        <v>96782.8359375</v>
+        <v>96607.6328125</v>
       </c>
       <c r="K70" t="n">
-        <v>13.90000057220459</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
-        <v>0.6069701910018921</v>
+        <v>-6.199648380279541</v>
       </c>
       <c r="M70" t="n">
-        <v>-5.022785663604736</v>
+        <v>-2.143300771713257</v>
       </c>
       <c r="N70" t="n">
-        <v>5.900170803070068</v>
+        <v>6.511928558349609</v>
       </c>
     </row>
     <row r="71">
@@ -3817,11 +3817,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1710871200</v>
+        <v>1733162400</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3830,34 +3830,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.10000228881836</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="F71" t="n">
-        <v>34.66726684570312</v>
+        <v>35.99929809570312</v>
       </c>
       <c r="G71" t="n">
-        <v>31.96917724609375</v>
+        <v>33.328125</v>
       </c>
       <c r="H71" t="n">
-        <v>-54.88533020019531</v>
+        <v>-63.51011657714844</v>
       </c>
       <c r="I71" t="n">
-        <v>45.48990249633789</v>
+        <v>32.9050407409668</v>
       </c>
       <c r="J71" t="n">
-        <v>96535.765625</v>
+        <v>96385.9609375</v>
       </c>
       <c r="K71" t="n">
-        <v>80.80000305175781</v>
+        <v>96.40000152587891</v>
       </c>
       <c r="L71" t="n">
-        <v>1.012246012687683</v>
+        <v>-3.337353467941284</v>
       </c>
       <c r="M71" t="n">
-        <v>-4.446984767913818</v>
+        <v>-0.1307128816843033</v>
       </c>
       <c r="N71" t="n">
-        <v>4.927750587463379</v>
+        <v>2.905689477920532</v>
       </c>
     </row>
     <row r="72">
@@ -3865,11 +3865,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1710882000</v>
+        <v>1733173200</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3878,34 +3878,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.5</v>
+        <v>23.5</v>
       </c>
       <c r="F72" t="n">
-        <v>36.42910766601562</v>
+        <v>37.94595336914062</v>
       </c>
       <c r="G72" t="n">
-        <v>34.56243896484375</v>
+        <v>35.98516845703125</v>
       </c>
       <c r="H72" t="n">
-        <v>-39.38302612304688</v>
+        <v>-66.26734924316406</v>
       </c>
       <c r="I72" t="n">
-        <v>42.59243392944336</v>
+        <v>33.75075149536133</v>
       </c>
       <c r="J72" t="n">
-        <v>96194.828125</v>
+        <v>96063.8046875</v>
       </c>
       <c r="K72" t="n">
         <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>0.1120288074016571</v>
+        <v>-0.3239648342132568</v>
       </c>
       <c r="M72" t="n">
-        <v>-3.547114133834839</v>
+        <v>0.05920898169279099</v>
       </c>
       <c r="N72" t="n">
-        <v>4.904928684234619</v>
+        <v>1.800000071525574</v>
       </c>
     </row>
     <row r="73">
@@ -3913,11 +3913,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1710892800</v>
+        <v>1733184000</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>02/12/2024</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3926,34 +3926,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44.29999923706055</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="F73" t="n">
-        <v>32.66363525390625</v>
+        <v>36.69970703125</v>
       </c>
       <c r="G73" t="n">
-        <v>32.41439819335938</v>
+        <v>36.40301513671875</v>
       </c>
       <c r="H73" t="n">
-        <v>-26.900390625</v>
+        <v>-56.20162963867188</v>
       </c>
       <c r="I73" t="n">
-        <v>45.22705841064453</v>
+        <v>31.21367454528809</v>
       </c>
       <c r="J73" t="n">
-        <v>96326.578125</v>
+        <v>96090.5703125</v>
       </c>
       <c r="K73" t="n">
-        <v>89.90000152587891</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.7518994212150574</v>
+        <v>0.8291186094284058</v>
       </c>
       <c r="M73" t="n">
-        <v>-1.561547875404358</v>
+        <v>-1.526440382003784</v>
       </c>
       <c r="N73" t="n">
-        <v>2.416834592819214</v>
+        <v>2.299999952316284</v>
       </c>
     </row>
     <row r="74">
@@ -3961,11 +3961,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1710903600</v>
+        <v>1733194800</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3974,34 +3974,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>48.20000076293945</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="F74" t="n">
-        <v>31.19454956054688</v>
+        <v>33.54974365234375</v>
       </c>
       <c r="G74" t="n">
-        <v>30.40618896484375</v>
+        <v>32.8824462890625</v>
       </c>
       <c r="H74" t="n">
-        <v>-28.51651000976562</v>
+        <v>-52.06875610351562</v>
       </c>
       <c r="I74" t="n">
-        <v>44.91059112548828</v>
+        <v>33.99082183837891</v>
       </c>
       <c r="J74" t="n">
-        <v>96515.890625</v>
+        <v>96319.375</v>
       </c>
       <c r="K74" t="n">
-        <v>73.70000457763672</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="L74" t="n">
-        <v>0.5421386361122131</v>
+        <v>-1.104899883270264</v>
       </c>
       <c r="M74" t="n">
-        <v>-4.923048973083496</v>
+        <v>4.075551509857178</v>
       </c>
       <c r="N74" t="n">
-        <v>7.310269355773926</v>
+        <v>5.809680461883545</v>
       </c>
     </row>
     <row r="75">
@@ -4009,11 +4009,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1710914400</v>
+        <v>1733205600</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4022,34 +4022,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>63.5</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="F75" t="n">
-        <v>28.06362915039062</v>
+        <v>32.1839599609375</v>
       </c>
       <c r="G75" t="n">
-        <v>27.79000854492188</v>
+        <v>31.50759887695312</v>
       </c>
       <c r="H75" t="n">
-        <v>-67.60093688964844</v>
+        <v>-68.61334228515625</v>
       </c>
       <c r="I75" t="n">
-        <v>43.82629776000977</v>
+        <v>38.52055358886719</v>
       </c>
       <c r="J75" t="n">
-        <v>96533.515625</v>
+        <v>96343.5859375</v>
       </c>
       <c r="K75" t="n">
-        <v>31.39999961853027</v>
+        <v>95.80000305175781</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.8843676447868347</v>
+        <v>0.2187841683626175</v>
       </c>
       <c r="M75" t="n">
-        <v>-1.863115191459656</v>
+        <v>2.504897356033325</v>
       </c>
       <c r="N75" t="n">
-        <v>3.809936285018921</v>
+        <v>4.629683971405029</v>
       </c>
     </row>
     <row r="76">
@@ -4057,11 +4057,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1710925200</v>
+        <v>1733216400</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4070,34 +4070,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>76</v>
+        <v>51.90000152587891</v>
       </c>
       <c r="F76" t="n">
-        <v>26.02908325195312</v>
+        <v>29.80377197265625</v>
       </c>
       <c r="G76" t="n">
-        <v>25.81619262695312</v>
+        <v>29.2208251953125</v>
       </c>
       <c r="H76" t="n">
-        <v>-68.93167114257812</v>
+        <v>-69.58061218261719</v>
       </c>
       <c r="I76" t="n">
-        <v>48.35611724853516</v>
+        <v>44.01496505737305</v>
       </c>
       <c r="J76" t="n">
-        <v>96489.765625</v>
+        <v>96303.0859375</v>
       </c>
       <c r="K76" t="n">
-        <v>5.800000190734863</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.5683740377426147</v>
+        <v>1.796865224838257</v>
       </c>
       <c r="M76" t="n">
-        <v>-2.505558967590332</v>
+        <v>0.6518628001213074</v>
       </c>
       <c r="N76" t="n">
-        <v>4.508752346038818</v>
+        <v>2.219477415084839</v>
       </c>
     </row>
     <row r="77">
@@ -4105,11 +4105,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1710936000</v>
+        <v>1733227200</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4118,34 +4118,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>87.40000152587891</v>
+        <v>56.29999923706055</v>
       </c>
       <c r="F77" t="n">
-        <v>24.39816284179688</v>
+        <v>28.67800903320312</v>
       </c>
       <c r="G77" t="n">
-        <v>23.95761108398438</v>
+        <v>27.62301635742188</v>
       </c>
       <c r="H77" t="n">
-        <v>-53.15641784667969</v>
+        <v>-66.71975708007812</v>
       </c>
       <c r="I77" t="n">
-        <v>47.54793930053711</v>
+        <v>42.77662658691406</v>
       </c>
       <c r="J77" t="n">
-        <v>96649.6015625</v>
+        <v>96529.59375</v>
       </c>
       <c r="K77" t="n">
-        <v>4.700000286102295</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
-        <v>1.111201167106628</v>
+        <v>-5.092566013336182</v>
       </c>
       <c r="M77" t="n">
-        <v>-2.248972177505493</v>
+        <v>-1.362395048141479</v>
       </c>
       <c r="N77" t="n">
-        <v>4.40331506729126</v>
+        <v>7.30523681640625</v>
       </c>
     </row>
     <row r="78">
@@ -4153,11 +4153,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1710946800</v>
+        <v>1733238000</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4166,34 +4166,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>66.09999847412109</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="F78" t="n">
-        <v>29.00003051757812</v>
+        <v>32.30734252929688</v>
       </c>
       <c r="G78" t="n">
-        <v>27.02978515625</v>
+        <v>29.87942504882812</v>
       </c>
       <c r="H78" t="n">
-        <v>-57.33380126953125</v>
+        <v>-68.03274536132812</v>
       </c>
       <c r="I78" t="n">
-        <v>44.16470336914062</v>
+        <v>39.83975982666016</v>
       </c>
       <c r="J78" t="n">
-        <v>96755.5859375</v>
+        <v>96647.1484375</v>
       </c>
       <c r="K78" t="n">
-        <v>11.69999980926514</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.9815722703933716</v>
+        <v>-4.666728496551514</v>
       </c>
       <c r="M78" t="n">
-        <v>-2.974887609481812</v>
+        <v>-0.3046313524246216</v>
       </c>
       <c r="N78" t="n">
-        <v>3.715700149536133</v>
+        <v>4.106980800628662</v>
       </c>
     </row>
     <row r="79">
@@ -4201,11 +4201,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1710957600</v>
+        <v>1733248800</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4214,34 +4214,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.90000152587891</v>
+        <v>33.60000228881836</v>
       </c>
       <c r="F79" t="n">
-        <v>32.80001831054688</v>
+        <v>35.43838500976562</v>
       </c>
       <c r="G79" t="n">
-        <v>30.48178100585938</v>
+        <v>32.7115478515625</v>
       </c>
       <c r="H79" t="n">
-        <v>-70.19383239746094</v>
+        <v>-65.95611572265625</v>
       </c>
       <c r="I79" t="n">
-        <v>49.13217544555664</v>
+        <v>37.7490348815918</v>
       </c>
       <c r="J79" t="n">
-        <v>96574.2578125</v>
+        <v>96439.65625</v>
       </c>
       <c r="K79" t="n">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="L79" t="n">
-        <v>-2.17108154296875</v>
+        <v>-4.026962757110596</v>
       </c>
       <c r="M79" t="n">
-        <v>-2.722429037094116</v>
+        <v>-0.4034033119678497</v>
       </c>
       <c r="N79" t="n">
-        <v>3.300404787063599</v>
+        <v>3.207859039306641</v>
       </c>
     </row>
     <row r="80">
@@ -4249,11 +4249,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1710968400</v>
+        <v>1733259600</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4262,34 +4262,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.60000228881836</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="F80" t="n">
-        <v>33.63272094726562</v>
+        <v>36.4600830078125</v>
       </c>
       <c r="G80" t="n">
-        <v>32.0142822265625</v>
+        <v>34.51409912109375</v>
       </c>
       <c r="H80" t="n">
-        <v>-66.91862487792969</v>
+        <v>-66.93753051757812</v>
       </c>
       <c r="I80" t="n">
-        <v>48.89663696289062</v>
+        <v>34.91970443725586</v>
       </c>
       <c r="J80" t="n">
-        <v>96279.8125</v>
+        <v>96171.515625</v>
       </c>
       <c r="K80" t="n">
-        <v>86</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L80" t="n">
-        <v>-1.002844214439392</v>
+        <v>-2.489008665084839</v>
       </c>
       <c r="M80" t="n">
-        <v>-3.557778358459473</v>
+        <v>-1.277170419692993</v>
       </c>
       <c r="N80" t="n">
-        <v>4.400134563446045</v>
+        <v>2.914609909057617</v>
       </c>
     </row>
     <row r="81">
@@ -4297,11 +4297,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1710979200</v>
+        <v>1733270400</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4310,34 +4310,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.29999923706055</v>
+        <v>33.10000228881836</v>
       </c>
       <c r="F81" t="n">
-        <v>31.48068237304688</v>
+        <v>34.3773193359375</v>
       </c>
       <c r="G81" t="n">
-        <v>31.220703125</v>
+        <v>33.40579223632812</v>
       </c>
       <c r="H81" t="n">
-        <v>-65.291259765625</v>
+        <v>-65.5654296875</v>
       </c>
       <c r="I81" t="n">
-        <v>47.52987289428711</v>
+        <v>32.42547607421875</v>
       </c>
       <c r="J81" t="n">
-        <v>96295.7421875</v>
+        <v>96195.4921875</v>
       </c>
       <c r="K81" t="n">
-        <v>32</v>
+        <v>54.10000228881836</v>
       </c>
       <c r="L81" t="n">
-        <v>-2.373051643371582</v>
+        <v>3.113010168075562</v>
       </c>
       <c r="M81" t="n">
-        <v>-2.450527191162109</v>
+        <v>-3.031411170959473</v>
       </c>
       <c r="N81" t="n">
-        <v>5.019575119018555</v>
+        <v>4.10174560546875</v>
       </c>
     </row>
     <row r="82">
@@ -4345,11 +4345,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1710990000</v>
+        <v>1733281200</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4358,34 +4358,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.90000152587891</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="F82" t="n">
-        <v>30.03866577148438</v>
+        <v>32.81488037109375</v>
       </c>
       <c r="G82" t="n">
-        <v>29.8721923828125</v>
+        <v>32.16729736328125</v>
       </c>
       <c r="H82" t="n">
-        <v>-54.03514099121094</v>
+        <v>-66.31507873535156</v>
       </c>
       <c r="I82" t="n">
-        <v>45.59534072875977</v>
+        <v>39.85939407348633</v>
       </c>
       <c r="J82" t="n">
-        <v>96451.0390625</v>
+        <v>96410.4296875</v>
       </c>
       <c r="K82" t="n">
-        <v>60.90000152587891</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.8162841796875</v>
+        <v>0.7560082674026489</v>
       </c>
       <c r="M82" t="n">
-        <v>0.6127831935882568</v>
+        <v>-1.980754375457764</v>
       </c>
       <c r="N82" t="n">
-        <v>1.40881335735321</v>
+        <v>3.408401966094971</v>
       </c>
     </row>
     <row r="83">
@@ -4393,11 +4393,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1711000800</v>
+        <v>1733292000</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4406,34 +4406,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>62.20000076293945</v>
+        <v>41.5</v>
       </c>
       <c r="F83" t="n">
-        <v>29.03863525390625</v>
+        <v>31.75619506835938</v>
       </c>
       <c r="G83" t="n">
-        <v>28.78131103515625</v>
+        <v>31.49240112304688</v>
       </c>
       <c r="H83" t="n">
-        <v>-73.82048034667969</v>
+        <v>-57.86561584472656</v>
       </c>
       <c r="I83" t="n">
-        <v>46.54935073852539</v>
+        <v>39.5061149597168</v>
       </c>
       <c r="J83" t="n">
-        <v>96496.4609375</v>
+        <v>96379.265625</v>
       </c>
       <c r="K83" t="n">
-        <v>97.09999847412109</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
-        <v>-2.127287626266479</v>
+        <v>-0.5817577838897705</v>
       </c>
       <c r="M83" t="n">
-        <v>0.9575854539871216</v>
+        <v>0.6807470321655273</v>
       </c>
       <c r="N83" t="n">
-        <v>2.825131177902222</v>
+        <v>1.906610131263733</v>
       </c>
     </row>
     <row r="84">
@@ -4441,11 +4441,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1711011600</v>
+        <v>1733302800</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4454,34 +4454,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>81.59999847412109</v>
+        <v>52.79999923706055</v>
       </c>
       <c r="F84" t="n">
-        <v>25.657958984375</v>
+        <v>29.69598388671875</v>
       </c>
       <c r="G84" t="n">
-        <v>25.39175415039062</v>
+        <v>28.78408813476562</v>
       </c>
       <c r="H84" t="n">
-        <v>-65.42738342285156</v>
+        <v>-62.56742858886719</v>
       </c>
       <c r="I84" t="n">
-        <v>52.14514541625977</v>
+        <v>41.28526306152344</v>
       </c>
       <c r="J84" t="n">
-        <v>96481.5234375</v>
+        <v>96409.2734375</v>
       </c>
       <c r="K84" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
-        <v>1.291103482246399</v>
+        <v>2.661774873733521</v>
       </c>
       <c r="M84" t="n">
-        <v>-3.516281604766846</v>
+        <v>-3.228557109832764</v>
       </c>
       <c r="N84" t="n">
-        <v>5.900170803070068</v>
+        <v>5.500339031219482</v>
       </c>
     </row>
     <row r="85">
@@ -4489,11 +4489,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1711022400</v>
+        <v>1733313600</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4502,34 +4502,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>83.40000152587891</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F85" t="n">
-        <v>24.50662231445312</v>
+        <v>29.527099609375</v>
       </c>
       <c r="G85" t="n">
-        <v>24.23080444335938</v>
+        <v>28.45791625976562</v>
       </c>
       <c r="H85" t="n">
-        <v>-61.3170166015625</v>
+        <v>-65.69596862792969</v>
       </c>
       <c r="I85" t="n">
-        <v>45.38404083251953</v>
+        <v>37.99678802490234</v>
       </c>
       <c r="J85" t="n">
-        <v>96635.6015625</v>
+        <v>96614.3203125</v>
       </c>
       <c r="K85" t="n">
-        <v>3.5</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
-        <v>1.577893018722534</v>
+        <v>-2.345432043075562</v>
       </c>
       <c r="M85" t="n">
-        <v>-2.734262704849243</v>
+        <v>-3.476769924163818</v>
       </c>
       <c r="N85" t="n">
-        <v>5.20296049118042</v>
+        <v>5.902965545654297</v>
       </c>
     </row>
     <row r="86">
@@ -4537,11 +4537,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1711033200</v>
+        <v>1733324400</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4550,34 +4550,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>59.29999923706055</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="F86" t="n">
-        <v>28.94281005859375</v>
+        <v>32.19546508789062</v>
       </c>
       <c r="G86" t="n">
-        <v>26.77105712890625</v>
+        <v>29.8809814453125</v>
       </c>
       <c r="H86" t="n">
-        <v>-66.10162353515625</v>
+        <v>-46.07704162597656</v>
       </c>
       <c r="I86" t="n">
-        <v>41.26613998413086</v>
+        <v>37.3172721862793</v>
       </c>
       <c r="J86" t="n">
-        <v>96779.078125</v>
+        <v>96755.4296875</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
-        <v>1.312502384185791</v>
+        <v>-4.008332252502441</v>
       </c>
       <c r="M86" t="n">
-        <v>-4.616291522979736</v>
+        <v>-1.343806147575378</v>
       </c>
       <c r="N86" t="n">
-        <v>5.204963684082031</v>
+        <v>4.013128280639648</v>
       </c>
     </row>
     <row r="87">
@@ -4585,11 +4585,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1711044000</v>
+        <v>1733335200</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4598,34 +4598,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>44.40000152587891</v>
+        <v>32</v>
       </c>
       <c r="F87" t="n">
-        <v>33.61712646484375</v>
+        <v>35.55712890625</v>
       </c>
       <c r="G87" t="n">
-        <v>31.1676025390625</v>
+        <v>33.21279907226562</v>
       </c>
       <c r="H87" t="n">
-        <v>-69.99172973632812</v>
+        <v>-45.32768249511719</v>
       </c>
       <c r="I87" t="n">
-        <v>40.33099365234375</v>
+        <v>36.05162811279297</v>
       </c>
       <c r="J87" t="n">
-        <v>96529.1796875</v>
+        <v>96546.5703125</v>
       </c>
       <c r="K87" t="n">
-        <v>31.39999961853027</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.2774560451507568</v>
+        <v>-1.911872506141663</v>
       </c>
       <c r="M87" t="n">
-        <v>-3.634318828582764</v>
+        <v>-0.6053540110588074</v>
       </c>
       <c r="N87" t="n">
-        <v>4.313528060913086</v>
+        <v>2.709891557693481</v>
       </c>
     </row>
     <row r="88">
@@ -4633,11 +4633,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1711054800</v>
+        <v>1733346000</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4646,34 +4646,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>44.10000228881836</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="F88" t="n">
-        <v>32.919677734375</v>
+        <v>37.0084228515625</v>
       </c>
       <c r="G88" t="n">
-        <v>31.71218872070312</v>
+        <v>34.98690795898438</v>
       </c>
       <c r="H88" t="n">
-        <v>-63.10475158691406</v>
+        <v>-53.88461303710938</v>
       </c>
       <c r="I88" t="n">
-        <v>40.98520278930664</v>
+        <v>36.04011917114258</v>
       </c>
       <c r="J88" t="n">
-        <v>96263.375</v>
+        <v>96266.0625</v>
       </c>
       <c r="K88" t="n">
-        <v>73.30000305175781</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="L88" t="n">
-        <v>2.333246946334839</v>
+        <v>-3.955019474029541</v>
       </c>
       <c r="M88" t="n">
-        <v>-7.230842113494873</v>
+        <v>-2.037702560424805</v>
       </c>
       <c r="N88" t="n">
-        <v>6.8237624168396</v>
+        <v>3.901810169219971</v>
       </c>
     </row>
     <row r="89">
@@ -4681,11 +4681,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1711065600</v>
+        <v>1733356800</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>04/12/2024</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4694,34 +4694,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>44.79999923706055</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="F89" t="n">
-        <v>32.52423095703125</v>
+        <v>33.48919677734375</v>
       </c>
       <c r="G89" t="n">
-        <v>32.33172607421875</v>
+        <v>32.79306030273438</v>
       </c>
       <c r="H89" t="n">
-        <v>-57.46501159667969</v>
+        <v>-52.49713134765625</v>
       </c>
       <c r="I89" t="n">
-        <v>40.45107650756836</v>
+        <v>32.42167663574219</v>
       </c>
       <c r="J89" t="n">
-        <v>96292.21875</v>
+        <v>96304.328125</v>
       </c>
       <c r="K89" t="n">
-        <v>92.80000305175781</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="L89" t="n">
-        <v>0.8013891577720642</v>
+        <v>3.445961952209473</v>
       </c>
       <c r="M89" t="n">
-        <v>-3.079887628555298</v>
+        <v>-2.664189338684082</v>
       </c>
       <c r="N89" t="n">
-        <v>4.814307689666748</v>
+        <v>5.706421852111816</v>
       </c>
     </row>
     <row r="90">
@@ -4729,11 +4729,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1711076400</v>
+        <v>1733367600</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4742,34 +4742,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>51.79999923706055</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="F90" t="n">
-        <v>30.42477416992188</v>
+        <v>32.38665771484375</v>
       </c>
       <c r="G90" t="n">
-        <v>30.63711547851562</v>
+        <v>32.10198974609375</v>
       </c>
       <c r="H90" t="n">
-        <v>-56.41639709472656</v>
+        <v>-52.9849853515625</v>
       </c>
       <c r="I90" t="n">
-        <v>36.81740570068359</v>
+        <v>34.34794616699219</v>
       </c>
       <c r="J90" t="n">
-        <v>96473.8125</v>
+        <v>96447.640625</v>
       </c>
       <c r="K90" t="n">
-        <v>54</v>
+        <v>1.800000071525574</v>
       </c>
       <c r="L90" t="n">
-        <v>-2.6480712890625</v>
+        <v>0.34661865234375</v>
       </c>
       <c r="M90" t="n">
-        <v>-2.071103572845459</v>
+        <v>1.531662583351135</v>
       </c>
       <c r="N90" t="n">
-        <v>4.803613185882568</v>
+        <v>1.90002429485321</v>
       </c>
     </row>
     <row r="91">
@@ -4777,11 +4777,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1711087200</v>
+        <v>1733378400</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4790,34 +4790,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>58.5</v>
+        <v>47.60000228881836</v>
       </c>
       <c r="F91" t="n">
-        <v>29.53634643554688</v>
+        <v>30.22756958007812</v>
       </c>
       <c r="G91" t="n">
-        <v>29.02752685546875</v>
+        <v>29.76797485351562</v>
       </c>
       <c r="H91" t="n">
-        <v>-57.48602294921875</v>
+        <v>-54.40324401855469</v>
       </c>
       <c r="I91" t="n">
-        <v>42.49340057373047</v>
+        <v>34.45120620727539</v>
       </c>
       <c r="J91" t="n">
-        <v>96579.75</v>
+        <v>96499.2421875</v>
       </c>
       <c r="K91" t="n">
-        <v>100</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="L91" t="n">
-        <v>0.396918922662735</v>
+        <v>2.721840858459473</v>
       </c>
       <c r="M91" t="n">
-        <v>-1.618564367294312</v>
+        <v>-2.448293447494507</v>
       </c>
       <c r="N91" t="n">
-        <v>2.20000147819519</v>
+        <v>5.319381237030029</v>
       </c>
     </row>
     <row r="92">
@@ -4825,11 +4825,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1711098000</v>
+        <v>1733389200</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4838,34 +4838,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>56</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="F92" t="n">
-        <v>27.90646362304688</v>
+        <v>27.7728271484375</v>
       </c>
       <c r="G92" t="n">
-        <v>27.17962646484375</v>
+        <v>26.94793701171875</v>
       </c>
       <c r="H92" t="n">
-        <v>-56.64260864257812</v>
+        <v>-56.98841857910156</v>
       </c>
       <c r="I92" t="n">
-        <v>41.24339294433594</v>
+        <v>35.89089965820312</v>
       </c>
       <c r="J92" t="n">
-        <v>96477.71875</v>
+        <v>96505.90625</v>
       </c>
       <c r="K92" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>2.148657083511353</v>
+        <v>2.817080020904541</v>
       </c>
       <c r="M92" t="n">
-        <v>-5.228005409240723</v>
+        <v>-4.542119026184082</v>
       </c>
       <c r="N92" t="n">
-        <v>9.103067398071289</v>
+        <v>7.300965785980225</v>
       </c>
     </row>
     <row r="93">
@@ -4873,11 +4873,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1711108800</v>
+        <v>1733400000</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4886,34 +4886,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>64.59999847412109</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="F93" t="n">
-        <v>25.41049194335938</v>
+        <v>28.12515258789062</v>
       </c>
       <c r="G93" t="n">
-        <v>24.972412109375</v>
+        <v>27.13671875</v>
       </c>
       <c r="H93" t="n">
-        <v>-56.97306823730469</v>
+        <v>-57.65623474121094</v>
       </c>
       <c r="I93" t="n">
-        <v>37.48033905029297</v>
+        <v>35.01222229003906</v>
       </c>
       <c r="J93" t="n">
-        <v>96629.2890625</v>
+        <v>96728.0625</v>
       </c>
       <c r="K93" t="n">
-        <v>5.099999904632568</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>2.621894359588623</v>
+        <v>-1.671643018722534</v>
       </c>
       <c r="M93" t="n">
-        <v>-3.236564874649048</v>
+        <v>-4.473596096038818</v>
       </c>
       <c r="N93" t="n">
-        <v>7.808730602264404</v>
+        <v>7.816150188446045</v>
       </c>
     </row>
     <row r="94">
@@ -4921,11 +4921,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1711119600</v>
+        <v>1733410800</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4934,34 +4934,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>57.20000076293945</v>
+        <v>43</v>
       </c>
       <c r="F94" t="n">
-        <v>29.99911499023438</v>
+        <v>32.04058837890625</v>
       </c>
       <c r="G94" t="n">
-        <v>27.56524658203125</v>
+        <v>29.41921997070312</v>
       </c>
       <c r="H94" t="n">
-        <v>-55.2852783203125</v>
+        <v>-50.15565490722656</v>
       </c>
       <c r="I94" t="n">
-        <v>38.04388427734375</v>
+        <v>35.14692687988281</v>
       </c>
       <c r="J94" t="n">
-        <v>96725.0546875</v>
+        <v>96839.3515625</v>
       </c>
       <c r="K94" t="n">
-        <v>96</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.1974194347858429</v>
+        <v>-4.837934494018555</v>
       </c>
       <c r="M94" t="n">
-        <v>-5.450278282165527</v>
+        <v>-0.9019677639007568</v>
       </c>
       <c r="N94" t="n">
-        <v>6.121314525604248</v>
+        <v>5.013917446136475</v>
       </c>
     </row>
     <row r="95">
@@ -4969,11 +4969,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1711130400</v>
+        <v>1733421600</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>45.90000152587891</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="F95" t="n">
-        <v>33.2987060546875</v>
+        <v>35.592529296875</v>
       </c>
       <c r="G95" t="n">
-        <v>30.82766723632812</v>
+        <v>33.12234497070312</v>
       </c>
       <c r="H95" t="n">
-        <v>-49.14857482910156</v>
+        <v>-46.352783203125</v>
       </c>
       <c r="I95" t="n">
-        <v>40.71659088134766</v>
+        <v>33.69852066040039</v>
       </c>
       <c r="J95" t="n">
-        <v>96532.5625</v>
+        <v>96597.2109375</v>
       </c>
       <c r="K95" t="n">
-        <v>75.09999847412109</v>
+        <v>40</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.3061450123786926</v>
+        <v>-2.105053663253784</v>
       </c>
       <c r="M95" t="n">
-        <v>-4.313198089599609</v>
+        <v>-1.549670338630676</v>
       </c>
       <c r="N95" t="n">
-        <v>4.630837917327881</v>
+        <v>2.700683355331421</v>
       </c>
     </row>
     <row r="96">
@@ -5017,11 +5017,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1711141200</v>
+        <v>1733432400</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5030,34 +5030,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.29999923706055</v>
+        <v>22.30000114440918</v>
       </c>
       <c r="F96" t="n">
-        <v>32.701904296875</v>
+        <v>38.34759521484375</v>
       </c>
       <c r="G96" t="n">
-        <v>31.36447143554688</v>
+        <v>35.99154663085938</v>
       </c>
       <c r="H96" t="n">
-        <v>-48.43705749511719</v>
+        <v>-42.63690185546875</v>
       </c>
       <c r="I96" t="n">
-        <v>39.86796951293945</v>
+        <v>32.40917205810547</v>
       </c>
       <c r="J96" t="n">
-        <v>96290.65625</v>
+        <v>96253.4609375</v>
       </c>
       <c r="K96" t="n">
-        <v>69.30000305175781</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="L96" t="n">
-        <v>-1.056853055953979</v>
+        <v>-0.02618164010345936</v>
       </c>
       <c r="M96" t="n">
-        <v>-4.415248870849609</v>
+        <v>-3.764985322952271</v>
       </c>
       <c r="N96" t="n">
-        <v>4.928977966308594</v>
+        <v>3.813501119613647</v>
       </c>
     </row>
     <row r="97">
@@ -5065,11 +5065,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1711152000</v>
+        <v>1733443200</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>05/12/2024</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5078,34 +5078,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.70000076293945</v>
+        <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>31.24411010742188</v>
+        <v>36.03384399414062</v>
       </c>
       <c r="G97" t="n">
-        <v>31.31597900390625</v>
+        <v>35.40069580078125</v>
       </c>
       <c r="H97" t="n">
-        <v>-54.52146911621094</v>
+        <v>-46.07113647460938</v>
       </c>
       <c r="I97" t="n">
-        <v>40.45630264282227</v>
+        <v>28.27490234375</v>
       </c>
       <c r="J97" t="n">
-        <v>96311.0859375</v>
+        <v>96236.4140625</v>
       </c>
       <c r="K97" t="n">
-        <v>91.5</v>
+        <v>23.20000076293945</v>
       </c>
       <c r="L97" t="n">
-        <v>-2.915886163711548</v>
+        <v>0.8551903963088989</v>
       </c>
       <c r="M97" t="n">
-        <v>-2.391269445419312</v>
+        <v>-5.091792106628418</v>
       </c>
       <c r="N97" t="n">
-        <v>4.816834449768066</v>
+        <v>6.702110290527344</v>
       </c>
     </row>
     <row r="98">
@@ -5113,11 +5113,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1711162800</v>
+        <v>1733454000</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5126,34 +5126,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>53.5</v>
+        <v>35.5</v>
       </c>
       <c r="F98" t="n">
-        <v>29.80294799804688</v>
+        <v>32.21902465820312</v>
       </c>
       <c r="G98" t="n">
-        <v>30.56710815429688</v>
+        <v>32.0042724609375</v>
       </c>
       <c r="H98" t="n">
-        <v>-46.57537841796875</v>
+        <v>-47.97262573242188</v>
       </c>
       <c r="I98" t="n">
-        <v>39.92008590698242</v>
+        <v>33.71357727050781</v>
       </c>
       <c r="J98" t="n">
-        <v>96519.9765625</v>
+        <v>96469.65625</v>
       </c>
       <c r="K98" t="n">
-        <v>7.900000095367432</v>
+        <v>60.90000152587891</v>
       </c>
       <c r="L98" t="n">
-        <v>-2.281967639923096</v>
+        <v>3.121804237365723</v>
       </c>
       <c r="M98" t="n">
-        <v>-1.813620567321777</v>
+        <v>-3.316076517105103</v>
       </c>
       <c r="N98" t="n">
-        <v>3.203381299972534</v>
+        <v>7.011053562164307</v>
       </c>
     </row>
     <row r="99">
@@ -5161,11 +5161,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1711173600</v>
+        <v>1733464800</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5174,34 +5174,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>62.5</v>
+        <v>48.10000228881836</v>
       </c>
       <c r="F99" t="n">
-        <v>28</v>
+        <v>29.13824462890625</v>
       </c>
       <c r="G99" t="n">
-        <v>28.73941040039062</v>
+        <v>28.52841186523438</v>
       </c>
       <c r="H99" t="n">
-        <v>-49.3184814453125</v>
+        <v>-43.93740844726562</v>
       </c>
       <c r="I99" t="n">
-        <v>42.64951705932617</v>
+        <v>39.62201309204102</v>
       </c>
       <c r="J99" t="n">
-        <v>96517.8515625</v>
+        <v>96628.8671875</v>
       </c>
       <c r="K99" t="n">
-        <v>56.79999923706055</v>
+        <v>99.70000457763672</v>
       </c>
       <c r="L99" t="n">
-        <v>-1.312375426292419</v>
+        <v>1.212944269180298</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.1766162067651749</v>
+        <v>-3.178400754928589</v>
       </c>
       <c r="N99" t="n">
-        <v>1.550639748573303</v>
+        <v>7.200055122375488</v>
       </c>
     </row>
     <row r="100">
@@ -5209,11 +5209,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1711184400</v>
+        <v>1733475600</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5222,34 +5222,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>74.90000152587891</v>
+        <v>60.20000076293945</v>
       </c>
       <c r="F100" t="n">
-        <v>26.4276123046875</v>
+        <v>27.14242553710938</v>
       </c>
       <c r="G100" t="n">
-        <v>26.18148803710938</v>
+        <v>26.3143310546875</v>
       </c>
       <c r="H100" t="n">
-        <v>-67.68254089355469</v>
+        <v>-43.05120849609375</v>
       </c>
       <c r="I100" t="n">
-        <v>44.321044921875</v>
+        <v>37.7296142578125</v>
       </c>
       <c r="J100" t="n">
-        <v>96421.3515625</v>
+        <v>96632.1640625</v>
       </c>
       <c r="K100" t="n">
-        <v>77.40000152587891</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="L100" t="n">
-        <v>-1.883803725242615</v>
+        <v>3.455415010452271</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.6033178567886353</v>
+        <v>-4.583430290222168</v>
       </c>
       <c r="N100" t="n">
-        <v>2.704381942749023</v>
+        <v>8.612658500671387</v>
       </c>
     </row>
     <row r="101">
@@ -5257,11 +5257,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1711195200</v>
+        <v>1733486400</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5270,34 +5270,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>78.30000305175781</v>
+        <v>60.20000076293945</v>
       </c>
       <c r="F101" t="n">
-        <v>25.89999389648438</v>
+        <v>26.09024047851562</v>
       </c>
       <c r="G101" t="n">
-        <v>26.31198120117188</v>
+        <v>24.95993041992188</v>
       </c>
       <c r="H101" t="n">
-        <v>-65.773681640625</v>
+        <v>-43.75498962402344</v>
       </c>
       <c r="I101" t="n">
-        <v>46.49290466308594</v>
+        <v>36.65213394165039</v>
       </c>
       <c r="J101" t="n">
-        <v>96539.3203125</v>
+        <v>96811.328125</v>
       </c>
       <c r="K101" t="n">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.2213037014007568</v>
+        <v>3.8607177734375</v>
       </c>
       <c r="M101" t="n">
-        <v>-2.2410888671875</v>
+        <v>-6.465439319610596</v>
       </c>
       <c r="N101" t="n">
-        <v>3.000330448150635</v>
+        <v>10.2012357711792</v>
       </c>
     </row>
     <row r="102">
@@ -5305,11 +5305,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1711206000</v>
+        <v>1733497200</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5318,34 +5318,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>64</v>
+        <v>47.10000228881836</v>
       </c>
       <c r="F102" t="n">
-        <v>29.34030151367188</v>
+        <v>30.88253784179688</v>
       </c>
       <c r="G102" t="n">
-        <v>27.34881591796875</v>
+        <v>28.14627075195312</v>
       </c>
       <c r="H102" t="n">
-        <v>-62.83187866210938</v>
+        <v>-41.15380859375</v>
       </c>
       <c r="I102" t="n">
-        <v>47.95875549316406</v>
+        <v>37.85533905029297</v>
       </c>
       <c r="J102" t="n">
-        <v>96715.8046875</v>
+        <v>96961.921875</v>
       </c>
       <c r="K102" t="n">
-        <v>92.30000305175781</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L102" t="n">
-        <v>-2.611374378204346</v>
+        <v>-1.095283150672913</v>
       </c>
       <c r="M102" t="n">
-        <v>-3.043867111206055</v>
+        <v>-6.031538009643555</v>
       </c>
       <c r="N102" t="n">
-        <v>4.501927852630615</v>
+        <v>6.806750774383545</v>
       </c>
     </row>
     <row r="103">
@@ -5353,11 +5353,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1711216800</v>
+        <v>1733508000</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5366,34 +5366,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.79999923706055</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="F103" t="n">
-        <v>33.63186645507812</v>
+        <v>35.60623168945312</v>
       </c>
       <c r="G103" t="n">
-        <v>31.18063354492188</v>
+        <v>32.39675903320312</v>
       </c>
       <c r="H103" t="n">
-        <v>-59.55572509765625</v>
+        <v>-43.31437683105469</v>
       </c>
       <c r="I103" t="n">
-        <v>49.76110076904297</v>
+        <v>36.6189079284668</v>
       </c>
       <c r="J103" t="n">
-        <v>96505.75</v>
+        <v>96682.984375</v>
       </c>
       <c r="K103" t="n">
-        <v>99.80000305175781</v>
+        <v>54</v>
       </c>
       <c r="L103" t="n">
-        <v>-2.486337900161743</v>
+        <v>3.303803682327271</v>
       </c>
       <c r="M103" t="n">
-        <v>-3.035205125808716</v>
+        <v>-6.360458850860596</v>
       </c>
       <c r="N103" t="n">
-        <v>4.311179161071777</v>
+        <v>7.220138549804688</v>
       </c>
     </row>
     <row r="104">
@@ -5401,11 +5401,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1711227600</v>
+        <v>1733518800</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5414,34 +5414,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>52.70000076293945</v>
+        <v>20.80000114440918</v>
       </c>
       <c r="F104" t="n">
-        <v>31.78781127929688</v>
+        <v>37.49539184570312</v>
       </c>
       <c r="G104" t="n">
-        <v>30.50604248046875</v>
+        <v>35.065673828125</v>
       </c>
       <c r="H104" t="n">
-        <v>-46.40679931640625</v>
+        <v>-39.42996215820312</v>
       </c>
       <c r="I104" t="n">
-        <v>51.41358184814453</v>
+        <v>30.32230567932129</v>
       </c>
       <c r="J104" t="n">
-        <v>96262.1171875</v>
+        <v>96372.9609375</v>
       </c>
       <c r="K104" t="n">
-        <v>100</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.531494140625</v>
+        <v>4.574028015136719</v>
       </c>
       <c r="M104" t="n">
-        <v>-5.284467697143555</v>
+        <v>-4.155087947845459</v>
       </c>
       <c r="N104" t="n">
-        <v>4.723348140716553</v>
+        <v>7.712901592254639</v>
       </c>
     </row>
     <row r="105">
@@ -5449,11 +5449,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1711238400</v>
+        <v>1733529600</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>06/12/2024</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5462,34 +5462,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>55.10000228881836</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="F105" t="n">
-        <v>30.44613647460938</v>
+        <v>35.46798706054688</v>
       </c>
       <c r="G105" t="n">
-        <v>30.65768432617188</v>
+        <v>35.01235961914062</v>
       </c>
       <c r="H105" t="n">
-        <v>-52.84945678710938</v>
+        <v>-41.82972717285156</v>
       </c>
       <c r="I105" t="n">
-        <v>48.68789291381836</v>
+        <v>30.48399353027344</v>
       </c>
       <c r="J105" t="n">
-        <v>96302.515625</v>
+        <v>96369.9296875</v>
       </c>
       <c r="K105" t="n">
-        <v>100</v>
+        <v>25.30000114440918</v>
       </c>
       <c r="L105" t="n">
-        <v>0.7742334008216858</v>
+        <v>6.526188850402832</v>
       </c>
       <c r="M105" t="n">
-        <v>-2.335209846496582</v>
+        <v>-5.89556884765625</v>
       </c>
       <c r="N105" t="n">
-        <v>2.703205108642578</v>
+        <v>12.00972270965576</v>
       </c>
     </row>
     <row r="106">
@@ -5497,11 +5497,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1711249200</v>
+        <v>1733540400</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5510,34 +5510,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>76.40000152587891</v>
+        <v>34.90000152587891</v>
       </c>
       <c r="F106" t="n">
-        <v>26.23275756835938</v>
+        <v>30.45013427734375</v>
       </c>
       <c r="G106" t="n">
-        <v>26.92568969726562</v>
+        <v>29.57510375976562</v>
       </c>
       <c r="H106" t="n">
-        <v>-55.116943359375</v>
+        <v>-39.62898254394531</v>
       </c>
       <c r="I106" t="n">
-        <v>51.98840713500977</v>
+        <v>31.18987083435059</v>
       </c>
       <c r="J106" t="n">
-        <v>96589.21875</v>
+        <v>96762.625</v>
       </c>
       <c r="K106" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>2.710590839385986</v>
+        <v>7.29522180557251</v>
       </c>
       <c r="M106" t="n">
-        <v>-1.442370533943176</v>
+        <v>-8.431818962097168</v>
       </c>
       <c r="N106" t="n">
-        <v>5.100022792816162</v>
+        <v>14.90817260742188</v>
       </c>
     </row>
     <row r="107">
@@ -5545,11 +5545,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1711260000</v>
+        <v>1733551200</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5558,34 +5558,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>81</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="F107" t="n">
-        <v>25.61935424804688</v>
+        <v>25.87832641601562</v>
       </c>
       <c r="G107" t="n">
-        <v>25.29513549804688</v>
+        <v>24.7808837890625</v>
       </c>
       <c r="H107" t="n">
-        <v>-48.96759033203125</v>
+        <v>-40.28546142578125</v>
       </c>
       <c r="I107" t="n">
-        <v>54.76426696777344</v>
+        <v>30.8523063659668</v>
       </c>
       <c r="J107" t="n">
-        <v>96588.921875</v>
+        <v>96827.78125</v>
       </c>
       <c r="K107" t="n">
-        <v>99.09999847412109</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>3.902858734130859</v>
+        <v>5.823584079742432</v>
       </c>
       <c r="M107" t="n">
-        <v>-3.912817239761353</v>
+        <v>-8.162182807922363</v>
       </c>
       <c r="N107" t="n">
-        <v>9.114047050476074</v>
+        <v>14.91866493225098</v>
       </c>
     </row>
     <row r="108">
@@ -5593,11 +5593,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1711270800</v>
+        <v>1733562000</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5606,34 +5606,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>85</v>
+        <v>68.5</v>
       </c>
       <c r="F108" t="n">
-        <v>25.0806884765625</v>
+        <v>23.26614379882812</v>
       </c>
       <c r="G108" t="n">
-        <v>24.83993530273438</v>
+        <v>22.11740112304688</v>
       </c>
       <c r="H108" t="n">
-        <v>-68.35980224609375</v>
+        <v>-46.9356689453125</v>
       </c>
       <c r="I108" t="n">
-        <v>53.8232307434082</v>
+        <v>28.56800270080566</v>
       </c>
       <c r="J108" t="n">
-        <v>96495.6328125</v>
+        <v>96928.4921875</v>
       </c>
       <c r="K108" t="n">
-        <v>96.80000305175781</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.3639916777610779</v>
+        <v>4.219902038574219</v>
       </c>
       <c r="M108" t="n">
-        <v>-4.049418926239014</v>
+        <v>-6.417145729064941</v>
       </c>
       <c r="N108" t="n">
-        <v>6.803613185882568</v>
+        <v>11.90065288543701</v>
       </c>
     </row>
     <row r="109">
@@ -5641,11 +5641,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1711281600</v>
+        <v>1733572800</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5654,34 +5654,34 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>87.40000152587891</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="F109" t="n">
-        <v>24.20001220703125</v>
+        <v>22.52798461914062</v>
       </c>
       <c r="G109" t="n">
-        <v>23.73617553710938</v>
+        <v>21.24588012695312</v>
       </c>
       <c r="H109" t="n">
-        <v>-65.28012084960938</v>
+        <v>-49.19297790527344</v>
       </c>
       <c r="I109" t="n">
-        <v>52.70798492431641</v>
+        <v>26.42047500610352</v>
       </c>
       <c r="J109" t="n">
-        <v>96623.46875</v>
+        <v>97089.640625</v>
       </c>
       <c r="K109" t="n">
-        <v>100</v>
+        <v>21.80000114440918</v>
       </c>
       <c r="L109" t="n">
-        <v>1.189646005630493</v>
+        <v>5.26385498046875</v>
       </c>
       <c r="M109" t="n">
-        <v>-3.260761737823486</v>
+        <v>-6.252385139465332</v>
       </c>
       <c r="N109" t="n">
-        <v>5.407470703125</v>
+        <v>12.2006778717041</v>
       </c>
     </row>
     <row r="110">
@@ -5689,11 +5689,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1711292400</v>
+        <v>1733583600</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5702,34 +5702,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>69.5</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="F110" t="n">
-        <v>27.93048095703125</v>
+        <v>27.95291137695312</v>
       </c>
       <c r="G110" t="n">
-        <v>26.05377197265625</v>
+        <v>25.07357788085938</v>
       </c>
       <c r="H110" t="n">
-        <v>-69.35922241210938</v>
+        <v>-46.92327880859375</v>
       </c>
       <c r="I110" t="n">
-        <v>53.44353485107422</v>
+        <v>25.02706909179688</v>
       </c>
       <c r="J110" t="n">
-        <v>96789.7890625</v>
+        <v>97181.171875</v>
       </c>
       <c r="K110" t="n">
-        <v>42.29999923706055</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>-1.761996984481812</v>
+        <v>4.455607891082764</v>
       </c>
       <c r="M110" t="n">
-        <v>-4.086069107055664</v>
+        <v>-8.410181999206543</v>
       </c>
       <c r="N110" t="n">
-        <v>5.622721195220947</v>
+        <v>10.80081272125244</v>
       </c>
     </row>
     <row r="111">
@@ -5737,11 +5737,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1711303200</v>
+        <v>1733594400</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5750,34 +5750,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.40000152587891</v>
+        <v>26</v>
       </c>
       <c r="F111" t="n">
-        <v>31.83740234375</v>
+        <v>33.50579833984375</v>
       </c>
       <c r="G111" t="n">
-        <v>29.514892578125</v>
+        <v>30.20501708984375</v>
       </c>
       <c r="H111" t="n">
-        <v>-68.0206298828125</v>
+        <v>-49.05340576171875</v>
       </c>
       <c r="I111" t="n">
-        <v>51.76062774658203</v>
+        <v>23.00685882568359</v>
       </c>
       <c r="J111" t="n">
-        <v>96585.2265625</v>
+        <v>96892.1171875</v>
       </c>
       <c r="K111" t="n">
-        <v>67.40000152587891</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>-3.125917911529541</v>
+        <v>3.365627288818359</v>
       </c>
       <c r="M111" t="n">
-        <v>-3.69335675239563</v>
+        <v>-7.944355487823486</v>
       </c>
       <c r="N111" t="n">
-        <v>5.945153713226318</v>
+        <v>9.431769371032715</v>
       </c>
     </row>
     <row r="112">
@@ -5785,11 +5785,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1711314000</v>
+        <v>1733605200</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5798,34 +5798,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.10000228881836</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="F112" t="n">
-        <v>32.40567016601562</v>
+        <v>36.18035888671875</v>
       </c>
       <c r="G112" t="n">
-        <v>30.602783203125</v>
+        <v>33.61062622070312</v>
       </c>
       <c r="H112" t="n">
-        <v>-67.66532897949219</v>
+        <v>-51.32957458496094</v>
       </c>
       <c r="I112" t="n">
-        <v>51.94412231445312</v>
+        <v>29.07154846191406</v>
       </c>
       <c r="J112" t="n">
-        <v>96310.4140625</v>
+        <v>96520.15625</v>
       </c>
       <c r="K112" t="n">
-        <v>29.30000114440918</v>
+        <v>1.5</v>
       </c>
       <c r="L112" t="n">
-        <v>-3.246425628662109</v>
+        <v>2.101535558700562</v>
       </c>
       <c r="M112" t="n">
-        <v>-3.379631280899048</v>
+        <v>-6.72790002822876</v>
       </c>
       <c r="N112" t="n">
-        <v>4.914594173431396</v>
+        <v>9.206976890563965</v>
       </c>
     </row>
     <row r="113">
@@ -5833,11 +5833,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1711324800</v>
+        <v>1733616000</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>24/03/2024</t>
+          <t>07/12/2024</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5846,34 +5846,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>69.70000457763672</v>
+        <v>41.90000152587891</v>
       </c>
       <c r="F113" t="n">
-        <v>27.68630981445312</v>
+        <v>30.60321044921875</v>
       </c>
       <c r="G113" t="n">
-        <v>27.29898071289062</v>
+        <v>29.27554321289062</v>
       </c>
       <c r="H113" t="n">
-        <v>-59.58222961425781</v>
+        <v>-51.06263732910156</v>
       </c>
       <c r="I113" t="n">
-        <v>53.66715621948242</v>
+        <v>37.14093780517578</v>
       </c>
       <c r="J113" t="n">
-        <v>96436.2734375</v>
+        <v>96695.6171875</v>
       </c>
       <c r="K113" t="n">
-        <v>99.59999847412109</v>
+        <v>43.60000228881836</v>
       </c>
       <c r="L113" t="n">
-        <v>5.216611385345459</v>
+        <v>8.311284065246582</v>
       </c>
       <c r="M113" t="n">
-        <v>-3.477834463119507</v>
+        <v>-7.41857385635376</v>
       </c>
       <c r="N113" t="n">
-        <v>9.502280235290527</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="114">
@@ -5881,11 +5881,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1711335600</v>
+        <v>1733626800</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5894,34 +5894,34 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>82.40000152587891</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="F114" t="n">
-        <v>25.326171875</v>
+        <v>26.82208251953125</v>
       </c>
       <c r="G114" t="n">
-        <v>24.6070556640625</v>
+        <v>25.88504028320312</v>
       </c>
       <c r="H114" t="n">
-        <v>-74.28889465332031</v>
+        <v>-42.9384765625</v>
       </c>
       <c r="I114" t="n">
-        <v>53.88495635986328</v>
+        <v>37.71082305908203</v>
       </c>
       <c r="J114" t="n">
-        <v>96678.359375</v>
+        <v>96936.28125</v>
       </c>
       <c r="K114" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L114" t="n">
-        <v>3.684404134750366</v>
+        <v>6.571132659912109</v>
       </c>
       <c r="M114" t="n">
-        <v>-5.766105651855469</v>
+        <v>-5.94951868057251</v>
       </c>
       <c r="N114" t="n">
-        <v>10.72818660736084</v>
+        <v>13.50011444091797</v>
       </c>
     </row>
     <row r="115">
@@ -5929,11 +5929,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1711346400</v>
+        <v>1733637600</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5942,34 +5942,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>78.40000152587891</v>
+        <v>69</v>
       </c>
       <c r="F115" t="n">
-        <v>25.6260986328125</v>
+        <v>25.259765625</v>
       </c>
       <c r="G115" t="n">
-        <v>25.17520141601562</v>
+        <v>24.26998901367188</v>
       </c>
       <c r="H115" t="n">
-        <v>-69.01420593261719</v>
+        <v>-46.38272094726562</v>
       </c>
       <c r="I115" t="n">
-        <v>51.15194320678711</v>
+        <v>38.78079223632812</v>
       </c>
       <c r="J115" t="n">
-        <v>96687.0390625</v>
+        <v>96995.25</v>
       </c>
       <c r="K115" t="n">
-        <v>99.70000457763672</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.8433740139007568</v>
+        <v>3.337502479553223</v>
       </c>
       <c r="M115" t="n">
-        <v>-4.414973258972168</v>
+        <v>-6.951857566833496</v>
       </c>
       <c r="N115" t="n">
-        <v>8.10361385345459</v>
+        <v>11.80152034759521</v>
       </c>
     </row>
     <row r="116">
@@ -5977,11 +5977,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1711357200</v>
+        <v>1733648400</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5990,34 +5990,34 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>84.59999847412109</v>
+        <v>75.90000152587891</v>
       </c>
       <c r="F116" t="n">
-        <v>24.996337890625</v>
+        <v>23.72250366210938</v>
       </c>
       <c r="G116" t="n">
-        <v>24.61013793945312</v>
+        <v>22.7550048828125</v>
       </c>
       <c r="H116" t="n">
-        <v>-69.26467895507812</v>
+        <v>-50.60731506347656</v>
       </c>
       <c r="I116" t="n">
-        <v>51.32753753662109</v>
+        <v>33.88338851928711</v>
       </c>
       <c r="J116" t="n">
-        <v>96559.6875</v>
+        <v>96826.3125</v>
       </c>
       <c r="K116" t="n">
-        <v>45.60000228881836</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>2.116472005844116</v>
+        <v>4.599215984344482</v>
       </c>
       <c r="M116" t="n">
-        <v>-2.251857757568359</v>
+        <v>-5.668673992156982</v>
       </c>
       <c r="N116" t="n">
-        <v>5.307225704193115</v>
+        <v>12.2006778717041</v>
       </c>
     </row>
     <row r="117">
@@ -6025,11 +6025,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1711368000</v>
+        <v>1733659200</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6038,34 +6038,34 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>85.5</v>
+        <v>81.5</v>
       </c>
       <c r="F117" t="n">
-        <v>24.27731323242188</v>
+        <v>22.75469970703125</v>
       </c>
       <c r="G117" t="n">
-        <v>23.87478637695312</v>
+        <v>21.52890014648438</v>
       </c>
       <c r="H117" t="n">
-        <v>-67.86563110351562</v>
+        <v>-39.13070678710938</v>
       </c>
       <c r="I117" t="n">
-        <v>50.79848480224609</v>
+        <v>31.96788024902344</v>
       </c>
       <c r="J117" t="n">
-        <v>96708.6875</v>
+        <v>97006.0234375</v>
       </c>
       <c r="K117" t="n">
-        <v>23.89999961853027</v>
+        <v>17</v>
       </c>
       <c r="L117" t="n">
-        <v>2.623293399810791</v>
+        <v>4.555861949920654</v>
       </c>
       <c r="M117" t="n">
-        <v>-3.211349964141846</v>
+        <v>-6.003398418426514</v>
       </c>
       <c r="N117" t="n">
-        <v>7.403759956359863</v>
+        <v>11.80886173248291</v>
       </c>
     </row>
     <row r="118">
@@ -6073,11 +6073,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1711378800</v>
+        <v>1733670000</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6086,34 +6086,34 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.29999923706055</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F118" t="n">
-        <v>28.95779418945312</v>
+        <v>26.5177001953125</v>
       </c>
       <c r="G118" t="n">
-        <v>26.77536010742188</v>
+        <v>24.58578491210938</v>
       </c>
       <c r="H118" t="n">
-        <v>-65.68545532226562</v>
+        <v>-46.61965942382812</v>
       </c>
       <c r="I118" t="n">
-        <v>48.41090774536133</v>
+        <v>35.95983505249023</v>
       </c>
       <c r="J118" t="n">
-        <v>96860.375</v>
+        <v>97141.6484375</v>
       </c>
       <c r="K118" t="n">
-        <v>5</v>
+        <v>98.5</v>
       </c>
       <c r="L118" t="n">
-        <v>1.120407700538635</v>
+        <v>2.338676691055298</v>
       </c>
       <c r="M118" t="n">
-        <v>-5.626381874084473</v>
+        <v>-7.401132583618164</v>
       </c>
       <c r="N118" t="n">
-        <v>6.901111602783203</v>
+        <v>9.510106086730957</v>
       </c>
     </row>
     <row r="119">
@@ -6121,11 +6121,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1711389600</v>
+        <v>1733680800</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6134,34 +6134,34 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>43.10000228881836</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="F119" t="n">
-        <v>33.60003662109375</v>
+        <v>30.342041015625</v>
       </c>
       <c r="G119" t="n">
-        <v>30.76986694335938</v>
+        <v>28.02127075195312</v>
       </c>
       <c r="H119" t="n">
-        <v>-63.17610168457031</v>
+        <v>-43.90554809570312</v>
       </c>
       <c r="I119" t="n">
-        <v>48.13199615478516</v>
+        <v>36.14123153686523</v>
       </c>
       <c r="J119" t="n">
-        <v>96612.6171875</v>
+        <v>96984.578125</v>
       </c>
       <c r="K119" t="n">
-        <v>72.30000305175781</v>
+        <v>51.60000228881836</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.7264721393585205</v>
+        <v>0.56378173828125</v>
       </c>
       <c r="M119" t="n">
-        <v>-6.299064636230469</v>
+        <v>-7.362040996551514</v>
       </c>
       <c r="N119" t="n">
-        <v>7.504897594451904</v>
+        <v>8.809746742248535</v>
       </c>
     </row>
     <row r="120">
@@ -6169,11 +6169,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1711400400</v>
+        <v>1733691600</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6182,34 +6182,34 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53.20000076293945</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="F120" t="n">
-        <v>30.9791259765625</v>
+        <v>32.8331298828125</v>
       </c>
       <c r="G120" t="n">
-        <v>30.08920288085938</v>
+        <v>31.05838012695312</v>
       </c>
       <c r="H120" t="n">
-        <v>-65.88630676269531</v>
+        <v>-42.67037963867188</v>
       </c>
       <c r="I120" t="n">
-        <v>50.89026260375977</v>
+        <v>39.2408561706543</v>
       </c>
       <c r="J120" t="n">
-        <v>96394.7109375</v>
+        <v>96622.7734375</v>
       </c>
       <c r="K120" t="n">
         <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>2.334897518157959</v>
+        <v>6.613649845123291</v>
       </c>
       <c r="M120" t="n">
-        <v>-4.325251579284668</v>
+        <v>-5.321718692779541</v>
       </c>
       <c r="N120" t="n">
-        <v>6.901187419891357</v>
+        <v>7.400000095367432</v>
       </c>
     </row>
     <row r="121">
@@ -6217,11 +6217,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1711411200</v>
+        <v>1733702400</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6230,34 +6230,34 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.79999923706055</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="F121" t="n">
-        <v>28.66058349609375</v>
+        <v>28.24822998046875</v>
       </c>
       <c r="G121" t="n">
-        <v>28.19998168945312</v>
+        <v>27.39694213867188</v>
       </c>
       <c r="H121" t="n">
-        <v>-60.61097717285156</v>
+        <v>-41.70329284667969</v>
       </c>
       <c r="I121" t="n">
-        <v>50.77960586547852</v>
+        <v>40.23144912719727</v>
       </c>
       <c r="J121" t="n">
-        <v>96474</v>
+        <v>96810.3828125</v>
       </c>
       <c r="K121" t="n">
-        <v>93.59999847412109</v>
+        <v>41</v>
       </c>
       <c r="L121" t="n">
-        <v>5.765998363494873</v>
+        <v>4.321420669555664</v>
       </c>
       <c r="M121" t="n">
-        <v>-3.506608724594116</v>
+        <v>-10.69880390167236</v>
       </c>
       <c r="N121" t="n">
-        <v>10.60000038146973</v>
+        <v>13.90661525726318</v>
       </c>
     </row>
     <row r="122">
@@ -6265,11 +6265,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1711422000</v>
+        <v>1733713200</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6278,34 +6278,34 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>71.40000152587891</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="F122" t="n">
-        <v>26.91775512695312</v>
+        <v>24.14599609375</v>
       </c>
       <c r="G122" t="n">
-        <v>26.43655395507812</v>
+        <v>23.21041870117188</v>
       </c>
       <c r="H122" t="n">
-        <v>-56.14794921875</v>
+        <v>-51.82164001464844</v>
       </c>
       <c r="I122" t="n">
-        <v>48.2215690612793</v>
+        <v>39.07006454467773</v>
       </c>
       <c r="J122" t="n">
-        <v>96699.3359375</v>
+        <v>96997.0234375</v>
       </c>
       <c r="K122" t="n">
-        <v>100</v>
+        <v>34.10000228881836</v>
       </c>
       <c r="L122" t="n">
-        <v>5.356764793395996</v>
+        <v>5.244740962982178</v>
       </c>
       <c r="M122" t="n">
-        <v>-4.39373779296875</v>
+        <v>-5.735541820526123</v>
       </c>
       <c r="N122" t="n">
-        <v>11.01773834228516</v>
+        <v>12.10001754760742</v>
       </c>
     </row>
     <row r="123">
@@ -6313,11 +6313,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1711432800</v>
+        <v>1733724000</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6326,34 +6326,34 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>79.80000305175781</v>
+        <v>70.09999847412109</v>
       </c>
       <c r="F123" t="n">
-        <v>24.73861694335938</v>
+        <v>24.86288452148438</v>
       </c>
       <c r="G123" t="n">
-        <v>24.2955322265625</v>
+        <v>24.17428588867188</v>
       </c>
       <c r="H123" t="n">
-        <v>-67.77449035644531</v>
+        <v>-52.95008850097656</v>
       </c>
       <c r="I123" t="n">
-        <v>47.31552505493164</v>
+        <v>40.30023956298828</v>
       </c>
       <c r="J123" t="n">
-        <v>96741.4296875</v>
+        <v>97012.0546875</v>
       </c>
       <c r="K123" t="n">
-        <v>5.599999904632568</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="L123" t="n">
-        <v>2.481606483459473</v>
+        <v>3.108837842941284</v>
       </c>
       <c r="M123" t="n">
-        <v>-3.797304630279541</v>
+        <v>-6.474050045013428</v>
       </c>
       <c r="N123" t="n">
-        <v>9.913357734680176</v>
+        <v>11.50867938995361</v>
       </c>
     </row>
     <row r="124">
@@ -6361,11 +6361,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1711443600</v>
+        <v>1733734800</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6374,34 +6374,34 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>85.80000305175781</v>
+        <v>78.20000457763672</v>
       </c>
       <c r="F124" t="n">
-        <v>23.83526611328125</v>
+        <v>23.18209838867188</v>
       </c>
       <c r="G124" t="n">
-        <v>23.34271240234375</v>
+        <v>22.37847900390625</v>
       </c>
       <c r="H124" t="n">
-        <v>-65.182861328125</v>
+        <v>-50.20407104492188</v>
       </c>
       <c r="I124" t="n">
-        <v>47.44532012939453</v>
+        <v>38.29114151000977</v>
       </c>
       <c r="J124" t="n">
-        <v>96616.6015625</v>
+        <v>96872.828125</v>
       </c>
       <c r="K124" t="n">
-        <v>5.099999904632568</v>
+        <v>3</v>
       </c>
       <c r="L124" t="n">
-        <v>2.753076076507568</v>
+        <v>3.915964365005493</v>
       </c>
       <c r="M124" t="n">
-        <v>-3.98077130317688</v>
+        <v>-5.212607383728027</v>
       </c>
       <c r="N124" t="n">
-        <v>10.10259246826172</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="125">
@@ -6409,11 +6409,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1711454400</v>
+        <v>1733745600</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6422,34 +6422,34 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>87.40000152587891</v>
+        <v>82.90000152587891</v>
       </c>
       <c r="F125" t="n">
-        <v>23.45797729492188</v>
+        <v>22.73574829101562</v>
       </c>
       <c r="G125" t="n">
-        <v>22.87380981445312</v>
+        <v>21.55621337890625</v>
       </c>
       <c r="H125" t="n">
-        <v>-64.91656494140625</v>
+        <v>-42.47203063964844</v>
       </c>
       <c r="I125" t="n">
-        <v>47.26699829101562</v>
+        <v>38.50836563110352</v>
       </c>
       <c r="J125" t="n">
-        <v>96764.546875</v>
+        <v>97069.9765625</v>
       </c>
       <c r="K125" t="n">
-        <v>5</v>
+        <v>47.60000228881836</v>
       </c>
       <c r="L125" t="n">
-        <v>2.814094066619873</v>
+        <v>4.775737285614014</v>
       </c>
       <c r="M125" t="n">
-        <v>-3.572490215301514</v>
+        <v>-5.18081521987915</v>
       </c>
       <c r="N125" t="n">
-        <v>10.00203990936279</v>
+        <v>11.19999980926514</v>
       </c>
     </row>
     <row r="126">
@@ -6457,11 +6457,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1711465200</v>
+        <v>1733756400</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6470,34 +6470,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F126" t="n">
-        <v>29.06137084960938</v>
+        <v>27.62994384765625</v>
       </c>
       <c r="G126" t="n">
-        <v>26.66229248046875</v>
+        <v>25.202880859375</v>
       </c>
       <c r="H126" t="n">
-        <v>-62.50209045410156</v>
+        <v>-45.47598266601562</v>
       </c>
       <c r="I126" t="n">
-        <v>48.28402328491211</v>
+        <v>37.89464569091797</v>
       </c>
       <c r="J126" t="n">
-        <v>96954.4375</v>
+        <v>97136.8046875</v>
       </c>
       <c r="K126" t="n">
-        <v>12.10000038146973</v>
+        <v>25.5</v>
       </c>
       <c r="L126" t="n">
-        <v>3.069162607192993</v>
+        <v>4.191960334777832</v>
       </c>
       <c r="M126" t="n">
-        <v>-6.861132621765137</v>
+        <v>-7.171483993530273</v>
       </c>
       <c r="N126" t="n">
-        <v>9.21097469329834</v>
+        <v>9.803256034851074</v>
       </c>
     </row>
     <row r="127">
@@ -6505,11 +6505,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1711476000</v>
+        <v>1733767200</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.70000076293945</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="F127" t="n">
-        <v>31.842041015625</v>
+        <v>33.74639892578125</v>
       </c>
       <c r="G127" t="n">
-        <v>29.97988891601562</v>
+        <v>30.3966064453125</v>
       </c>
       <c r="H127" t="n">
-        <v>-58.20408630371094</v>
+        <v>-49.85896301269531</v>
       </c>
       <c r="I127" t="n">
-        <v>48.17132186889648</v>
+        <v>38.28125762939453</v>
       </c>
       <c r="J127" t="n">
-        <v>96688.4921875</v>
+        <v>96891.03125</v>
       </c>
       <c r="K127" t="n">
-        <v>100</v>
+        <v>57.70000076293945</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4609375</v>
+        <v>1.585798263549805</v>
       </c>
       <c r="M127" t="n">
-        <v>-7.003525257110596</v>
+        <v>-6.917404651641846</v>
       </c>
       <c r="N127" t="n">
-        <v>8.026108741760254</v>
+        <v>8.30051326751709</v>
       </c>
     </row>
     <row r="128">
@@ -6553,11 +6553,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1711486800</v>
+        <v>1733778000</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6566,34 +6566,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.90000152587891</v>
+        <v>41</v>
       </c>
       <c r="F128" t="n">
-        <v>31.71932983398438</v>
+        <v>31.9404296875</v>
       </c>
       <c r="G128" t="n">
-        <v>30.49188232421875</v>
+        <v>30.01669311523438</v>
       </c>
       <c r="H128" t="n">
-        <v>-66.21243286132812</v>
+        <v>-51.83526611328125</v>
       </c>
       <c r="I128" t="n">
-        <v>47.68732833862305</v>
+        <v>39.72262954711914</v>
       </c>
       <c r="J128" t="n">
-        <v>96455.203125</v>
+        <v>96646.5</v>
       </c>
       <c r="K128" t="n">
-        <v>76.30000305175781</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="L128" t="n">
-        <v>5.245863914489746</v>
+        <v>5.609777927398682</v>
       </c>
       <c r="M128" t="n">
-        <v>-4.499792575836182</v>
+        <v>-5.151838302612305</v>
       </c>
       <c r="N128" t="n">
-        <v>7.622827053070068</v>
+        <v>7.900000095367432</v>
       </c>
     </row>
     <row r="129">
@@ -6601,11 +6601,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1711497600</v>
+        <v>1733788800</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6614,34 +6614,34 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>68.30000305175781</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F129" t="n">
-        <v>27.00747680664062</v>
+        <v>28.36981201171875</v>
       </c>
       <c r="G129" t="n">
-        <v>26.26910400390625</v>
+        <v>27.42367553710938</v>
       </c>
       <c r="H129" t="n">
-        <v>-66.59884643554688</v>
+        <v>-49.83293151855469</v>
       </c>
       <c r="I129" t="n">
-        <v>50.58216094970703</v>
+        <v>41.62189102172852</v>
       </c>
       <c r="J129" t="n">
-        <v>96575.8359375</v>
+        <v>96800.4296875</v>
       </c>
       <c r="K129" t="n">
-        <v>74.59999847412109</v>
+        <v>77</v>
       </c>
       <c r="L129" t="n">
-        <v>6.015703201293945</v>
+        <v>3.879858255386353</v>
       </c>
       <c r="M129" t="n">
-        <v>-4.768110275268555</v>
+        <v>-5.432792663574219</v>
       </c>
       <c r="N129" t="n">
-        <v>10.00127029418945</v>
+        <v>9.913159370422363</v>
       </c>
     </row>
     <row r="130">
@@ -6649,11 +6649,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1711508400</v>
+        <v>1733799600</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
+          <t>10/12/2024</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6662,34 +6662,34 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.80000305175781</v>
+        <v>63.60000228881836</v>
       </c>
       <c r="F130" t="n">
-        <v>26.3193359375</v>
+        <v>26.509521484375</v>
       </c>
       <c r="G130" t="n">
-        <v>25.85330200195312</v>
+        <v>25.678955078125</v>
       </c>
       <c r="H130" t="n">
-        <v>-64.327392578125</v>
+        <v>-50.93769836425781</v>
       </c>
       <c r="I130" t="n">
-        <v>51.0867805480957</v>
+        <v>41.05636978149414</v>
       </c>
       <c r="J130" t="n">
-        <v>96734.5390625</v>
+        <v>97003.5546875</v>
       </c>
       <c r="K130" t="n">
-        <v>35.20000076293945</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="L130" t="n">
-        <v>4.416375637054443</v>
+        <v>1.340778827667236</v>
       </c>
       <c r="M130" t="n">
-        <v>-4.44655179977417</v>
+        <v>-5.355053424835205</v>
       </c>
       <c r="N130" t="n">
-        <v>12.10302066802979</v>
+        <v>10.70247554779053</v>
       </c>
     </row>
   </sheetData>
